--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142E003-2549-47C3-8FE1-20797BFDD4AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86B83F-F631-4D30-ABBB-BAD6E94C0C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{31E6F2C1-2013-4FBE-89E9-C87A3608A3EB}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{31E6F2C1-2013-4FBE-89E9-C87A3608A3EB}">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>actorId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,14 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LP_Invincibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPAF_ChangeActorStatus020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>useAffectorValueIdOverriding|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,10 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>툴입력어펙터밸류1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fValue1|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,20 +579,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>툴입력어펙터밸류2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>툴입력어펙터밸류3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NormalAttack01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어펙터밸류참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디폴트맥스참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어펙터밸류4개검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력어펙터밸류1</t>
+  </si>
+  <si>
+    <t>입력어펙터밸류2</t>
+  </si>
+  <si>
+    <t>입력어펙터밸류3</t>
   </si>
 </sst>
 </file>
@@ -672,13 +665,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -695,8 +699,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="StringTable"/>
-      <sheetName val="TitleStringTable"/>
+      <sheetName val="AffectorValueTable"/>
+      <sheetName val="AffectorValueLevelTable"/>
+      <sheetName val="ActorStateTable"/>
+      <sheetName val="ConditionValueTable"/>
+      <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -704,46 +711,181 @@
           <cell r="A1" t="str">
             <v>id|String</v>
           </cell>
-          <cell r="B1" t="str">
-            <v>kor|String</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>GameUI_Play</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>진행</v>
+            <v>NormalAttack01</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Skill_ActiveOne001_Name</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>하트가 폭발한다</v>
+            <v>LP_ChangeActorStatus010</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Skill_ActiveOne001_Description</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>vlookup용아이디</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>affectorValueId|String</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>level|Int</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>affectId참고</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>어펙터설명참고</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>conditionValueId|String!</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>컨디션밸류4개검증</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>fValue1|Float</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>fValue2|Float</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>fValue3|Float</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>fValue4|Float</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>iValue1|Int</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>iValue2|Int</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>iValue3|Int</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>sValue1|String</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>sValue2|String</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>sValue3|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>기본 대미지 계산식</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>단일 대미지 배율</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v/>
+          </cell>
+          <cell r="J2" t="str">
+            <v/>
+          </cell>
+          <cell r="K2" t="str">
+            <v/>
+          </cell>
+          <cell r="L2" t="str">
+            <v>1: 다단히트</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>1: 온킬 여부</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>다단히트 시
+연속 대미지</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>온킬 시 불려질
+어펙터밸류 아이디</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>NormalAttack0101</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>NormalAttack01</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v/>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>LP_PiercingHitObject01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v/>
+          </cell>
+          <cell r="L4">
+            <v>1</v>
+          </cell>
+          <cell r="O4">
+            <v>0.9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Skill_ActiveOne002_Description</v>
+            <v>LP_PiercingHitObject02</v>
           </cell>
           <cell r="B5" t="str">
-            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v/>
+          </cell>
+          <cell r="L5">
+            <v>2</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>0.95,0.9</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -753,215 +895,61 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="AffectorValueTable"/>
-      <sheetName val="AffectorValueLevelTable"/>
-      <sheetName val="ActorStateTable"/>
-      <sheetName val="ConditionValueTable"/>
-      <sheetName val="어펙터종류"/>
-      <sheetName val="AffectorValueTable임시"/>
-      <sheetName val="AffectorValueLevelTable임시"/>
+      <sheetName val="StringTable"/>
+      <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>vlookup용아이디</v>
+            <v>id|String</v>
           </cell>
           <cell r="B1" t="str">
-            <v>affectorValueId|String</v>
+            <v>kor|String</v>
           </cell>
           <cell r="C1" t="str">
-            <v>내가가져오는</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>level|Int</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>conditionValueId|String!</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>fValue1|Float</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>fValue2|Float</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>fValue3|Float</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>fValue4|Float</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>iValue1|Int</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>iValue2|Int</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>sValue1|String</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>sValue2|String</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>어펙터호출</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>affectorId_Verify</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>affectorId_List</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>len</v>
+            <v>eng|String</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>NormalAttack0101</v>
+            <v>GameUI_Play</v>
           </cell>
           <cell r="B2" t="str">
-            <v>NormalAttack01</v>
+            <v>진행</v>
           </cell>
           <cell r="C2" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>1:온킬</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>0.4,0.5,0.6</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>시전자회복밸류아이디</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>ChangeAction</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>ChangeAction</v>
-          </cell>
-          <cell r="S2">
-            <v>1</v>
-          </cell>
-          <cell r="T2">
-            <v>12</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v/>
+            <v>Play</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>시전자회복밸류아이디00</v>
+            <v>Skill_ActiveOne001_Name</v>
           </cell>
           <cell r="B3" t="str">
-            <v>시전자회복밸류아이디</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>HP이하</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>AddForce</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="S3">
-            <v>3</v>
-          </cell>
-          <cell r="T3">
-            <v>10</v>
+            <v>하트가 폭발한다</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>LP_PiercingHitObject01</v>
+            <v>Skill_ActiveOne001_Description</v>
           </cell>
           <cell r="B4" t="str">
-            <v>LP_PiercingHitObject</v>
-          </cell>
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="M4">
-            <v>0.9</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="R4" t="str">
-            <v>AddForce</v>
-          </cell>
-          <cell r="S4">
-            <v>2</v>
-          </cell>
-          <cell r="T4">
-            <v>8</v>
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>LP_PiercingHitObject02</v>
+            <v>Skill_ActiveOne002_Description</v>
           </cell>
           <cell r="B5" t="str">
-            <v>LP_PiercingHitObject</v>
-          </cell>
-          <cell r="D5">
-            <v>2</v>
-          </cell>
-          <cell r="J5">
-            <v>2</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>0.95,0.9</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>AddActorState</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6" t="str">
-            <v>스탯변경</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="P7" t="str">
-            <v>DOT대미지</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="P8" t="str">
-            <v>BaseDamageWithOnKill</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="P9" t="str">
-            <v>DropItem</v>
+            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1264,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1274,152 +1262,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="7" width="22.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="22.875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="str">
+        <f>IF(ISBLANK(C2),"",
+IF(ISERROR(FIND(",",C2)),
+  IF(ISERROR(VLOOKUP(C2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C2,FIND(",",C2)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,FIND(",",C2,FIND(",",C2)+1)-FIND(",",C2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C2,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,FIND(",",C2,FIND(",",C2)+1)-FIND(",",C2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2)+1)+1,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)-FIND(",",C2,FIND(",",C2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str">
-        <f>IFERROR(IF(ISBLANK(D2),"",VLOOKUP(D2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+      <c r="G2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(E2),"",VLOOKUP(E2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
         <v>하트가 폭발한다</v>
       </c>
-      <c r="G2" t="str">
-        <f>IFERROR(IF(ISBLANK(E2),"",VLOOKUP(E2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+      <c r="H2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(F2),"",VLOOKUP(F2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
+      <c r="J2" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A2,LevelPackLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(LevelPackLevelTable!$1:$1048576,MATCH($A2,LevelPackLevelTable!$A:$A,0),MATCH($C$1,LevelPackLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" t="str">
-        <f>IFERROR(IF(ISBLANK(D3),"",VLOOKUP(D3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f>IFERROR(IF(ISBLANK(E3),"",VLOOKUP(E3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H3">
+      <c r="D3" s="1" t="str">
+        <f>IF(ISBLANK(C3),"",
+IF(ISERROR(FIND(",",C3)),
+  IF(ISERROR(VLOOKUP(C3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C3,FIND(",",C3)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,FIND(",",C3,FIND(",",C3)+1)-FIND(",",C3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C3,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,FIND(",",C3,FIND(",",C3)+1)-FIND(",",C3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3)+1)+1,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)-FIND(",",C3,FIND(",",C3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(E3),"",VLOOKUP(E3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(F3),"",VLOOKUP(F3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="J3" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A3,LevelPackLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(LevelPackLevelTable!$1:$1048576,MATCH($A3,LevelPackLevelTable!$A:$A,0),MATCH($C$1,LevelPackLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="str">
-        <f>IFERROR(IF(ISBLANK(D4),"",VLOOKUP(D4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <f>IFERROR(IF(ISBLANK(E4),"",VLOOKUP(E4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H4">
+      <c r="D4" s="1" t="str">
+        <f>IF(ISBLANK(C4),"",
+IF(ISERROR(FIND(",",C4)),
+  IF(ISERROR(VLOOKUP(C4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C4,FIND(",",C4)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,FIND(",",C4,FIND(",",C4)+1)-FIND(",",C4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C4,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,FIND(",",C4,FIND(",",C4)+1)-FIND(",",C4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4)+1)+1,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)-FIND(",",C4,FIND(",",C4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(E4),"",VLOOKUP(E4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(F4),"",VLOOKUP(F4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="I4" s="1">
         <v>-1</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
+      <c r="J4" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A4,LevelPackLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(LevelPackLevelTable!$1:$1048576,MATCH($A4,LevelPackLevelTable!$A:$A,0),MATCH($C$1,LevelPackLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="str">
-        <f>IFERROR(IF(ISBLANK(D5),"",VLOOKUP(D5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <f>IFERROR(IF(ISBLANK(E5),"",VLOOKUP(E5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(E5),"",VLOOKUP(E5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(F5),"",VLOOKUP(F5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F6" t="str">
-        <f>IFERROR(IF(ISBLANK(D6),"",VLOOKUP(D6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <f>IFERROR(IF(ISBLANK(E6),"",VLOOKUP(E6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F7" t="str">
-        <f>IFERROR(IF(ISBLANK(D7),"",VLOOKUP(D7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f>IFERROR(IF(ISBLANK(E7),"",VLOOKUP(E7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(E6),"",VLOOKUP(E6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(F6),"",VLOOKUP(F6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
     </row>
@@ -1435,33 +1465,36 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="25.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="22.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="19" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="28" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" collapsed="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="24" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="15" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="19" width="10.625" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="22" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="26" width="10.625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="29" width="11.375" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1472,82 +1505,85 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
       <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
       <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1555,62 +1591,79 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
+        <f>IF(ISBLANK(C2),"",
+IF(ISERROR(FIND(",",C2)),
+  IF(ISERROR(VLOOKUP(C2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C2,FIND(",",C2)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,FIND(",",C2,FIND(",",C2)+1)-FIND(",",C2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C2,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,FIND(",",C2,FIND(",",C2)+1)-FIND(",",C2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2)+1)+1,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)-FIND(",",C2,FIND(",",C2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E2" t="str">
         <f>IF(ISBLANK(VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_PiercingHitObject</v>
       </c>
-      <c r="E2" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D2),"",VLOOKUP(LevelPackTable!D2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+      <c r="F2" t="str">
+        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
         <v>하트가 폭발한다</v>
       </c>
-      <c r="F2" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E2),"",VLOOKUP(LevelPackTable!E2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+      <c r="G2" t="str">
+        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <f>IFERROR(IF(ISBLANK($H2),"",VLOOKUP($H2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>IFERROR(IF(ISBLANK($H2),"",VLOOKUP($H2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>1</v>
-      </c>
-      <c r="K2" t="str">
-        <f>IFERROR(IF(ISBLANK($H2),"",VLOOKUP($H2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>0.4,0.5,0.6</v>
-      </c>
-      <c r="P2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+      <c r="K2">
+        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1618,55 +1671,76 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
+        <f>IF(ISBLANK(C3),"",
+IF(ISERROR(FIND(",",C3)),
+  IF(ISERROR(VLOOKUP(C3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C3,FIND(",",C3)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,FIND(",",C3,FIND(",",C3)+1)-FIND(",",C3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C3,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,FIND(",",C3,FIND(",",C3)+1)-FIND(",",C3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3)+1)+1,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)-FIND(",",C3,FIND(",",C3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
         <f>IF(ISBLANK(VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_PiercingHitObject</v>
       </c>
-      <c r="E3" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D3),"",VLOOKUP(LevelPackTable!D3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F3" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E3),"",VLOOKUP(LevelPackTable!E3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f>IFERROR(IF(ISBLANK($H3),"",VLOOKUP($H3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+        <f>VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
       </c>
       <c r="J3" t="str">
-        <f>IFERROR(IF(ISBLANK($H3),"",VLOOKUP($H3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
       </c>
       <c r="K3" t="str">
-        <f>IFERROR(IF(ISBLANK($H3),"",VLOOKUP($H3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
+      </c>
+      <c r="L3" t="str">
+        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
       </c>
       <c r="Q3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1674,55 +1748,76 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
+        <f>IF(ISBLANK(C4),"",
+IF(ISERROR(FIND(",",C4)),
+  IF(ISERROR(VLOOKUP(C4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C4,FIND(",",C4)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,FIND(",",C4,FIND(",",C4)+1)-FIND(",",C4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C4,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,FIND(",",C4,FIND(",",C4)+1)-FIND(",",C4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4)+1)+1,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)-FIND(",",C4,FIND(",",C4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
         <f>IF(ISBLANK(VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_PiercingHitObject</v>
       </c>
-      <c r="E4" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D4),"",VLOOKUP(LevelPackTable!D4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F4" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E4),"",VLOOKUP(LevelPackTable!E4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <f>IFERROR(IF(ISBLANK($H4),"",VLOOKUP($H4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+        <f>VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
       </c>
       <c r="J4" t="str">
-        <f>IFERROR(IF(ISBLANK($H4),"",VLOOKUP($H4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
       </c>
       <c r="K4" t="str">
-        <f>IFERROR(IF(ISBLANK($H4),"",VLOOKUP($H4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
+        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
       </c>
       <c r="Q4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1730,55 +1825,72 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
+        <f>IF(ISBLANK(C5),"",
+IF(ISERROR(FIND(",",C5)),
+  IF(ISERROR(VLOOKUP(C5,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C5,FIND(",",C5)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C5,FIND(",",C5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C5,FIND(",",C5)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C5,FIND(",",C5,FIND(",",C5)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C5,FIND(",",C5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C5,FIND(",",C5)+1,FIND(",",C5,FIND(",",C5)+1)-FIND(",",C5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C5,FIND(",",C5,FIND(",",C5)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C5,FIND(",",C5,FIND(",",C5,FIND(",",C5)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C5,FIND(",",C5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C5,FIND(",",C5)+1,FIND(",",C5,FIND(",",C5)+1)-FIND(",",C5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C5,FIND(",",C5,FIND(",",C5)+1)+1,FIND(",",C5,FIND(",",C5,FIND(",",C5)+1)+1)-FIND(",",C5,FIND(",",C5)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C5,FIND(",",C5,FIND(",",C5,FIND(",",C5)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
         <f>IF(ISBLANK(VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E5" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D5),"",VLOOKUP(LevelPackTable!D5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F5" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E5),"",VLOOKUP(LevelPackTable!E5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f>IFERROR(IF(ISBLANK($H5),"",VLOOKUP($H5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J5" t="str">
-        <f>IFERROR(IF(ISBLANK($H5),"",VLOOKUP($H5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IFERROR(IF(ISBLANK($H5),"",VLOOKUP($H5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1786,55 +1898,72 @@
         <v>2</v>
       </c>
       <c r="D6" t="str">
+        <f>IF(ISBLANK(C6),"",
+IF(ISERROR(FIND(",",C6)),
+  IF(ISERROR(VLOOKUP(C6,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C6,FIND(",",C6)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C6,FIND(",",C6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C6,FIND(",",C6)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C6,FIND(",",C6,FIND(",",C6)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C6,FIND(",",C6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C6,FIND(",",C6)+1,FIND(",",C6,FIND(",",C6)+1)-FIND(",",C6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C6,FIND(",",C6,FIND(",",C6)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C6,FIND(",",C6,FIND(",",C6,FIND(",",C6)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C6,FIND(",",C6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C6,FIND(",",C6)+1,FIND(",",C6,FIND(",",C6)+1)-FIND(",",C6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C6,FIND(",",C6,FIND(",",C6)+1)+1,FIND(",",C6,FIND(",",C6,FIND(",",C6)+1)+1)-FIND(",",C6,FIND(",",C6)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C6,FIND(",",C6,FIND(",",C6,FIND(",",C6)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
         <f>IF(ISBLANK(VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E6" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D6),"",VLOOKUP(LevelPackTable!D6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F6" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E6),"",VLOOKUP(LevelPackTable!E6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f>IFERROR(IF(ISBLANK($H6),"",VLOOKUP($H6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IFERROR(IF(ISBLANK($H6),"",VLOOKUP($H6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IFERROR(IF(ISBLANK($H6),"",VLOOKUP($H6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1842,55 +1971,72 @@
         <v>3</v>
       </c>
       <c r="D7" t="str">
+        <f>IF(ISBLANK(C7),"",
+IF(ISERROR(FIND(",",C7)),
+  IF(ISERROR(VLOOKUP(C7,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C7,FIND(",",C7)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C7,FIND(",",C7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C7,FIND(",",C7)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C7,FIND(",",C7,FIND(",",C7)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C7,FIND(",",C7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C7,FIND(",",C7)+1,FIND(",",C7,FIND(",",C7)+1)-FIND(",",C7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C7,FIND(",",C7,FIND(",",C7)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C7,FIND(",",C7,FIND(",",C7,FIND(",",C7)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C7,FIND(",",C7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C7,FIND(",",C7)+1,FIND(",",C7,FIND(",",C7)+1)-FIND(",",C7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C7,FIND(",",C7,FIND(",",C7)+1)+1,FIND(",",C7,FIND(",",C7,FIND(",",C7)+1)+1)-FIND(",",C7,FIND(",",C7)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C7,FIND(",",C7,FIND(",",C7,FIND(",",C7)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
         <f>IF(ISBLANK(VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E7" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D7),"",VLOOKUP(LevelPackTable!D7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F7" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E7),"",VLOOKUP(LevelPackTable!E7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f>IFERROR(IF(ISBLANK($H7),"",VLOOKUP($H7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IFERROR(IF(ISBLANK($H7),"",VLOOKUP($H7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IFERROR(IF(ISBLANK($H7),"",VLOOKUP($H7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1898,55 +2044,72 @@
         <v>4</v>
       </c>
       <c r="D8" t="str">
+        <f>IF(ISBLANK(C8),"",
+IF(ISERROR(FIND(",",C8)),
+  IF(ISERROR(VLOOKUP(C8,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C8,FIND(",",C8)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C8,FIND(",",C8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C8,FIND(",",C8)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C8,FIND(",",C8,FIND(",",C8)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C8,FIND(",",C8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C8,FIND(",",C8)+1,FIND(",",C8,FIND(",",C8)+1)-FIND(",",C8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C8,FIND(",",C8,FIND(",",C8)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C8,FIND(",",C8,FIND(",",C8,FIND(",",C8)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C8,FIND(",",C8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C8,FIND(",",C8)+1,FIND(",",C8,FIND(",",C8)+1)-FIND(",",C8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C8,FIND(",",C8,FIND(",",C8)+1)+1,FIND(",",C8,FIND(",",C8,FIND(",",C8)+1)+1)-FIND(",",C8,FIND(",",C8)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C8,FIND(",",C8,FIND(",",C8,FIND(",",C8)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
         <f>IF(ISBLANK(VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E8" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D8),"",VLOOKUP(LevelPackTable!D8,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F8" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E8),"",VLOOKUP(LevelPackTable!E8,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <f>IFERROR(IF(ISBLANK($H8),"",VLOOKUP($H8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>IFERROR(IF(ISBLANK($H8),"",VLOOKUP($H8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IFERROR(IF(ISBLANK($H8),"",VLOOKUP($H8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1954,55 +2117,72 @@
         <v>5</v>
       </c>
       <c r="D9" t="str">
+        <f>IF(ISBLANK(C9),"",
+IF(ISERROR(FIND(",",C9)),
+  IF(ISERROR(VLOOKUP(C9,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C9,FIND(",",C9)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C9,FIND(",",C9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C9,FIND(",",C9)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C9,FIND(",",C9,FIND(",",C9)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C9,FIND(",",C9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C9,FIND(",",C9)+1,FIND(",",C9,FIND(",",C9)+1)-FIND(",",C9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C9,FIND(",",C9,FIND(",",C9)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C9,FIND(",",C9,FIND(",",C9,FIND(",",C9)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C9,FIND(",",C9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C9,FIND(",",C9)+1,FIND(",",C9,FIND(",",C9)+1)-FIND(",",C9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C9,FIND(",",C9,FIND(",",C9)+1)+1,FIND(",",C9,FIND(",",C9,FIND(",",C9)+1)+1)-FIND(",",C9,FIND(",",C9)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C9,FIND(",",C9,FIND(",",C9,FIND(",",C9)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
         <f>IF(ISBLANK(VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E9" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D9),"",VLOOKUP(LevelPackTable!D9,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F9" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E9),"",VLOOKUP(LevelPackTable!E9,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <f>IFERROR(IF(ISBLANK($H9),"",VLOOKUP($H9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f>IFERROR(IF(ISBLANK($H9),"",VLOOKUP($H9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IFERROR(IF(ISBLANK($H9),"",VLOOKUP($H9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2010,55 +2190,72 @@
         <v>6</v>
       </c>
       <c r="D10" t="str">
+        <f>IF(ISBLANK(C10),"",
+IF(ISERROR(FIND(",",C10)),
+  IF(ISERROR(VLOOKUP(C10,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C10,FIND(",",C10)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C10,FIND(",",C10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C10,FIND(",",C10)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C10,FIND(",",C10,FIND(",",C10)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C10,FIND(",",C10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C10,FIND(",",C10)+1,FIND(",",C10,FIND(",",C10)+1)-FIND(",",C10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C10,FIND(",",C10,FIND(",",C10)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C10,FIND(",",C10,FIND(",",C10,FIND(",",C10)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C10,FIND(",",C10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C10,FIND(",",C10)+1,FIND(",",C10,FIND(",",C10)+1)-FIND(",",C10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C10,FIND(",",C10,FIND(",",C10)+1)+1,FIND(",",C10,FIND(",",C10,FIND(",",C10)+1)+1)-FIND(",",C10,FIND(",",C10)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C10,FIND(",",C10,FIND(",",C10,FIND(",",C10)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
         <f>IF(ISBLANK(VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E10" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D10),"",VLOOKUP(LevelPackTable!D10,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F10" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E10),"",VLOOKUP(LevelPackTable!E10,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <f>IFERROR(IF(ISBLANK($H10),"",VLOOKUP($H10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f>IFERROR(IF(ISBLANK($H10),"",VLOOKUP($H10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IFERROR(IF(ISBLANK($H10),"",VLOOKUP($H10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2066,55 +2263,72 @@
         <v>7</v>
       </c>
       <c r="D11" t="str">
+        <f>IF(ISBLANK(C11),"",
+IF(ISERROR(FIND(",",C11)),
+  IF(ISERROR(VLOOKUP(C11,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C11,FIND(",",C11)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C11,FIND(",",C11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C11,FIND(",",C11)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C11,FIND(",",C11,FIND(",",C11)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C11,FIND(",",C11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C11,FIND(",",C11)+1,FIND(",",C11,FIND(",",C11)+1)-FIND(",",C11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C11,FIND(",",C11,FIND(",",C11)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C11,FIND(",",C11,FIND(",",C11,FIND(",",C11)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C11,FIND(",",C11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C11,FIND(",",C11)+1,FIND(",",C11,FIND(",",C11)+1)-FIND(",",C11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C11,FIND(",",C11,FIND(",",C11)+1)+1,FIND(",",C11,FIND(",",C11,FIND(",",C11)+1)+1)-FIND(",",C11,FIND(",",C11)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C11,FIND(",",C11,FIND(",",C11,FIND(",",C11)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
         <f>IF(ISBLANK(VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
-      <c r="E11" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D11),"",VLOOKUP(LevelPackTable!D11,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
       <c r="F11" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E11),"",VLOOKUP(LevelPackTable!E11,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <f>IFERROR(IF(ISBLANK($H11),"",VLOOKUP($H11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J11" t="str">
-        <f>IFERROR(IF(ISBLANK($H11),"",VLOOKUP($H11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IFERROR(IF(ISBLANK($H11),"",VLOOKUP($H11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2122,59 +2336,72 @@
         <v>1</v>
       </c>
       <c r="D12" t="str">
+        <f>IF(ISBLANK(C12),"",
+IF(ISERROR(FIND(",",C12)),
+  IF(ISERROR(VLOOKUP(C12,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C12,FIND(",",C12)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C12,FIND(",",C12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C12,FIND(",",C12)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C12,FIND(",",C12,FIND(",",C12)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C12,FIND(",",C12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C12,FIND(",",C12)+1,FIND(",",C12,FIND(",",C12)+1)-FIND(",",C12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C12,FIND(",",C12,FIND(",",C12)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C12,FIND(",",C12,FIND(",",C12,FIND(",",C12)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C12,FIND(",",C12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C12,FIND(",",C12)+1,FIND(",",C12,FIND(",",C12)+1)-FIND(",",C12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C12,FIND(",",C12,FIND(",",C12)+1)+1,FIND(",",C12,FIND(",",C12,FIND(",",C12)+1)+1)-FIND(",",C12,FIND(",",C12)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C12,FIND(",",C12,FIND(",",C12,FIND(",",C12)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
         <f>IF(ISBLANK(VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E12" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D12),"",VLOOKUP(LevelPackTable!D12,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E12),"",VLOOKUP(LevelPackTable!E12,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <f>A12</f>
-        <v>LP_ATK20per</v>
-      </c>
-      <c r="I12" t="str">
-        <f>IFERROR(IF(ISBLANK($H12),"",VLOOKUP($H12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>어펙터밸류 없음</v>
+        <f>VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <f>IFERROR(IF(ISBLANK($H12),"",VLOOKUP($H12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>어펙터밸류 없음</v>
+        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <f>IFERROR(IF(ISBLANK($H12),"",VLOOKUP($H12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>어펙터밸류 없음</v>
-      </c>
-      <c r="P12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2182,55 +2409,72 @@
         <v>2</v>
       </c>
       <c r="D13" t="str">
+        <f>IF(ISBLANK(C13),"",
+IF(ISERROR(FIND(",",C13)),
+  IF(ISERROR(VLOOKUP(C13,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C13,FIND(",",C13)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C13,FIND(",",C13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C13,FIND(",",C13)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C13,FIND(",",C13,FIND(",",C13)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C13,FIND(",",C13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C13,FIND(",",C13)+1,FIND(",",C13,FIND(",",C13)+1)-FIND(",",C13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C13,FIND(",",C13,FIND(",",C13)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C13,FIND(",",C13,FIND(",",C13,FIND(",",C13)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C13,FIND(",",C13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C13,FIND(",",C13)+1,FIND(",",C13,FIND(",",C13)+1)-FIND(",",C13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C13,FIND(",",C13,FIND(",",C13)+1)+1,FIND(",",C13,FIND(",",C13,FIND(",",C13)+1)+1)-FIND(",",C13,FIND(",",C13)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C13,FIND(",",C13,FIND(",",C13,FIND(",",C13)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
         <f>IF(ISBLANK(VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E13" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D13),"",VLOOKUP(LevelPackTable!D13,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E13),"",VLOOKUP(LevelPackTable!E13,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <f>IFERROR(IF(ISBLANK($H13),"",VLOOKUP($H13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f>IFERROR(IF(ISBLANK($H13),"",VLOOKUP($H13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IFERROR(IF(ISBLANK($H13),"",VLOOKUP($H13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2238,55 +2482,72 @@
         <v>3</v>
       </c>
       <c r="D14" t="str">
+        <f>IF(ISBLANK(C14),"",
+IF(ISERROR(FIND(",",C14)),
+  IF(ISERROR(VLOOKUP(C14,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C14,FIND(",",C14)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C14,FIND(",",C14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C14,FIND(",",C14)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C14,FIND(",",C14,FIND(",",C14)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C14,FIND(",",C14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C14,FIND(",",C14)+1,FIND(",",C14,FIND(",",C14)+1)-FIND(",",C14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C14,FIND(",",C14,FIND(",",C14)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C14,FIND(",",C14,FIND(",",C14,FIND(",",C14)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C14,FIND(",",C14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C14,FIND(",",C14)+1,FIND(",",C14,FIND(",",C14)+1)-FIND(",",C14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C14,FIND(",",C14,FIND(",",C14)+1)+1,FIND(",",C14,FIND(",",C14,FIND(",",C14)+1)+1)-FIND(",",C14,FIND(",",C14)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C14,FIND(",",C14,FIND(",",C14,FIND(",",C14)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
         <f>IF(ISBLANK(VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E14" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D14),"",VLOOKUP(LevelPackTable!D14,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E14),"",VLOOKUP(LevelPackTable!E14,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <f>IFERROR(IF(ISBLANK($H14),"",VLOOKUP($H14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IFERROR(IF(ISBLANK($H14),"",VLOOKUP($H14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IFERROR(IF(ISBLANK($H14),"",VLOOKUP($H14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2294,55 +2555,72 @@
         <v>4</v>
       </c>
       <c r="D15" t="str">
+        <f>IF(ISBLANK(C15),"",
+IF(ISERROR(FIND(",",C15)),
+  IF(ISERROR(VLOOKUP(C15,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C15,FIND(",",C15)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C15,FIND(",",C15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C15,FIND(",",C15)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C15,FIND(",",C15,FIND(",",C15)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C15,FIND(",",C15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C15,FIND(",",C15)+1,FIND(",",C15,FIND(",",C15)+1)-FIND(",",C15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C15,FIND(",",C15,FIND(",",C15)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C15,FIND(",",C15,FIND(",",C15,FIND(",",C15)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C15,FIND(",",C15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C15,FIND(",",C15)+1,FIND(",",C15,FIND(",",C15)+1)-FIND(",",C15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C15,FIND(",",C15,FIND(",",C15)+1)+1,FIND(",",C15,FIND(",",C15,FIND(",",C15)+1)+1)-FIND(",",C15,FIND(",",C15)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C15,FIND(",",C15,FIND(",",C15,FIND(",",C15)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
         <f>IF(ISBLANK(VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E15" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D15),"",VLOOKUP(LevelPackTable!D15,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E15),"",VLOOKUP(LevelPackTable!E15,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <f>IFERROR(IF(ISBLANK($H15),"",VLOOKUP($H15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f>IFERROR(IF(ISBLANK($H15),"",VLOOKUP($H15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f>IFERROR(IF(ISBLANK($H15),"",VLOOKUP($H15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2350,55 +2628,72 @@
         <v>5</v>
       </c>
       <c r="D16" t="str">
+        <f>IF(ISBLANK(C16),"",
+IF(ISERROR(FIND(",",C16)),
+  IF(ISERROR(VLOOKUP(C16,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C16,FIND(",",C16)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C16,FIND(",",C16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C16,FIND(",",C16)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C16,FIND(",",C16,FIND(",",C16)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C16,FIND(",",C16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C16,FIND(",",C16)+1,FIND(",",C16,FIND(",",C16)+1)-FIND(",",C16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C16,FIND(",",C16,FIND(",",C16)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C16,FIND(",",C16,FIND(",",C16,FIND(",",C16)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C16,FIND(",",C16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C16,FIND(",",C16)+1,FIND(",",C16,FIND(",",C16)+1)-FIND(",",C16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C16,FIND(",",C16,FIND(",",C16)+1)+1,FIND(",",C16,FIND(",",C16,FIND(",",C16)+1)+1)-FIND(",",C16,FIND(",",C16)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C16,FIND(",",C16,FIND(",",C16,FIND(",",C16)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
         <f>IF(ISBLANK(VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E16" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D16),"",VLOOKUP(LevelPackTable!D16,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E16),"",VLOOKUP(LevelPackTable!E16,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <f>IFERROR(IF(ISBLANK($H16),"",VLOOKUP($H16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J16" t="str">
-        <f>IFERROR(IF(ISBLANK($H16),"",VLOOKUP($H16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IFERROR(IF(ISBLANK($H16),"",VLOOKUP($H16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(P$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="W16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(W$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2406,31 +2701,48 @@
         <v>6</v>
       </c>
       <c r="D17" t="str">
+        <f>IF(ISBLANK(C17),"",
+IF(ISERROR(FIND(",",C17)),
+  IF(ISERROR(VLOOKUP(C17,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C17,FIND(",",C17)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C17,FIND(",",C17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C17,FIND(",",C17)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C17,FIND(",",C17,FIND(",",C17)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C17,FIND(",",C17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C17,FIND(",",C17)+1,FIND(",",C17,FIND(",",C17)+1)-FIND(",",C17)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C17,FIND(",",C17,FIND(",",C17)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C17,FIND(",",C17,FIND(",",C17,FIND(",",C17)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C17,FIND(",",C17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C17,FIND(",",C17)+1,FIND(",",C17,FIND(",",C17)+1)-FIND(",",C17)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C17,FIND(",",C17,FIND(",",C17)+1)+1,FIND(",",C17,FIND(",",C17,FIND(",",C17)+1)+1)-FIND(",",C17,FIND(",",C17)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C17,FIND(",",C17,FIND(",",C17,FIND(",",C17)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
         <f>IF(ISBLANK(VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E17" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D17),"",VLOOKUP(LevelPackTable!D17,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E17),"",VLOOKUP(LevelPackTable!E17,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f>IFERROR(IF(ISBLANK($H17),"",VLOOKUP($H17&amp;TEXT($B17,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f>IFERROR(IF(ISBLANK($H17),"",VLOOKUP($H17&amp;TEXT($B17,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IFERROR(IF(ISBLANK($H17),"",VLOOKUP($H17&amp;TEXT($B17,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2438,63 +2750,90 @@
         <v>7</v>
       </c>
       <c r="D18" t="str">
+        <f>IF(ISBLANK(C18),"",
+IF(ISERROR(FIND(",",C18)),
+  IF(ISERROR(VLOOKUP(C18,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C18,FIND(",",C18)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C18,FIND(",",C18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C18,FIND(",",C18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18)+1,FIND(",",C18,FIND(",",C18)+1)-FIND(",",C18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18,FIND(",",C18)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",C18,FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(C18,FIND(",",C18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18)+1,FIND(",",C18,FIND(",",C18)+1)-FIND(",",C18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18,FIND(",",C18)+1)+1,FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)-FIND(",",C18,FIND(",",C18)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
         <f>IF(ISBLANK(VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus020</v>
-      </c>
-      <c r="E18" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!D18),"",VLOOKUP(LevelPackTable!D18,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="F18" t="str">
-        <f>IFERROR(IF(ISBLANK(LevelPackTable!E18),"",VLOOKUP(LevelPackTable!E18,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f>IFERROR(IF(ISBLANK($H18),"",VLOOKUP($H18&amp;TEXT($B18,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(I$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f>IFERROR(IF(ISBLANK($H18),"",VLOOKUP($H18&amp;TEXT($B18,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f>IFERROR(IF(ISBLANK($H18),"",VLOOKUP($H18&amp;TEXT($B18,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AC1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A1=A1048576</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF039B07-9D24-474B-B1DF-35C75F101541}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2502,6 +2841,10 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2509,5 +2852,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B6717DC-468E-45DF-9EFA-2CD7295568CF}">
+          <x14:formula1>
+            <xm:f>OFFSET(LevelPackTable!$A$1,1,0,COUNTA(LevelPackTable!$A:$A)-1,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86B83F-F631-4D30-ABBB-BAD6E94C0C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2675A-C29E-4284-8B74-E40586905998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPackTable" sheetId="1" r:id="rId1"/>
@@ -671,12 +671,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1252,9 +1247,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1433,30 +1428,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(E5),"",VLOOKUP(E5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(F5),"",VLOOKUP(F5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(E6),"",VLOOKUP(E6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(F6),"",VLOOKUP(F6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2794,7 +2770,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AC1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A1=A1048576</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2806,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF039B07-9D24-474B-B1DF-35C75F101541}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2675A-C29E-4284-8B74-E40586905998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE1D7B-4FBC-4236-B7AA-5DCF261F3875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPackTable" sheetId="1" r:id="rId1"/>
@@ -714,11 +714,26 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
+            <v>InvincbleTortoise</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>TestPoison01</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
         </row>
@@ -726,7 +741,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
-            <v>vlookup용아이디</v>
+            <v>idForVlookup|String</v>
           </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
@@ -775,17 +790,21 @@
           </cell>
           <cell r="Q1" t="str">
             <v>sValue3|String</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>sValue4|String</v>
           </cell>
         </row>
         <row r="2">
           <cell r="D2" t="str">
-            <v>BaseDamage</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="E2" t="str">
-            <v>기본 대미지 계산식</v>
+            <v>거북이 전용 컨티뉴어스 무적 어펙터</v>
           </cell>
           <cell r="H2" t="str">
-            <v>단일 대미지 배율</v>
+            <v>지속시간
+무제한은 -1</v>
           </cell>
           <cell r="I2" t="str">
             <v/>
@@ -797,23 +816,21 @@
             <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>1: 다단히트</v>
+            <v/>
           </cell>
           <cell r="M2" t="str">
-            <v>1: 온킬 여부</v>
+            <v/>
           </cell>
           <cell r="O2" t="str">
-            <v>다단히트 시
-연속 대미지</v>
+            <v>히트 시 시작되는 메카님스테이트</v>
           </cell>
           <cell r="P2" t="str">
-            <v>온킬 시 불려질
-어펙터밸류 아이디</v>
+            <v>끝날 때 복구하는 메카님스테이트</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>NormalAttack0101</v>
+            <v>NormalAttack01_01</v>
           </cell>
           <cell r="B3" t="str">
             <v>NormalAttack01</v>
@@ -833,54 +850,123 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>LP_PiercingHitObject01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C4">
             <v>1</v>
           </cell>
           <cell r="D4" t="str">
-            <v>PiercingHitObject</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v/>
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H4">
+            <v>-1</v>
           </cell>
           <cell r="L4">
-            <v>1</v>
-          </cell>
-          <cell r="O4">
-            <v>0.9</v>
+            <v>4</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>InvincbleTortoise</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>LP_PiercingHitObject02</v>
+            <v>InvincbleTortoise_01</v>
           </cell>
           <cell r="B5" t="str">
+            <v>InvincbleTortoise</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="H5">
+            <v>3</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>GuardStart</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>GuardEnd</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>TestPoison01_01</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>TestPoison01</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>DotDamage</v>
+          </cell>
+          <cell r="H6">
+            <v>5</v>
+          </cell>
+          <cell r="I6">
+            <v>0.5</v>
+          </cell>
+          <cell r="J6">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>LP_PiercingHitObject_01</v>
+          </cell>
+          <cell r="B7" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
-          <cell r="C5">
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v/>
+          </cell>
+          <cell r="L7">
+            <v>1</v>
+          </cell>
+          <cell r="O7">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>LP_PiercingHitObject_02</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C8">
             <v>2</v>
           </cell>
-          <cell r="D5" t="str">
+          <cell r="D8" t="str">
             <v>PiercingHitObject</v>
           </cell>
-          <cell r="G5" t="str">
+          <cell r="G8" t="str">
             <v/>
           </cell>
-          <cell r="L5">
+          <cell r="L8">
             <v>2</v>
           </cell>
-          <cell r="O5" t="str">
+          <cell r="O8" t="str">
             <v>0.95,0.9</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -890,11 +976,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="InApkStringTable"/>
       <sheetName val="StringTable"/>
+      <sheetName val="FontTable"/>
       <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>id|String</v>
@@ -908,43 +997,42 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>GameUI_Play</v>
+            <v>Skill_ActiveOne001_Name</v>
           </cell>
           <cell r="B2" t="str">
-            <v>진행</v>
+            <v>하트가 폭발한다</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Play</v>
+            <v>Hearts exploding!</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Skill_ActiveOne001_Name</v>
+            <v>Skill_ActiveOne001_Description</v>
           </cell>
           <cell r="B3" t="str">
-            <v>하트가 폭발한다</v>
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Skill_ActiveOne001_Description</v>
+            <v>Skill_ActiveOne002_Description</v>
           </cell>
           <cell r="B4" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Skill_ActiveOne002_Description</v>
-          </cell>
-          <cell r="B5" t="str">
             <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
           </cell>
+          <cell r="C4" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1440,11 +1528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC40A4C-EDC3-4370-AD9F-F3B33A512AF9}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1603,39 +1691,39 @@
         <v>28</v>
       </c>
       <c r="J2">
-        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>1</v>
       </c>
       <c r="K2">
-        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R2" t="str">
-        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S2" t="str">
-        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T2),"",VLOOKUP($T2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X2" t="str">
-        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y2" t="str">
-        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z2" t="str">
-        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA2),"",VLOOKUP($AA2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -1680,39 +1768,39 @@
         <v>28</v>
       </c>
       <c r="J3" t="str">
-        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="K3" t="str">
-        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="L3" t="str">
-        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="Q3" t="str">
-        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R3" t="str">
-        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S3" t="str">
-        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T3),"",VLOOKUP($T3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X3" t="str">
-        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y3" t="str">
-        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z3" t="str">
-        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA3),"",VLOOKUP($AA3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -1757,39 +1845,39 @@
         <v>28</v>
       </c>
       <c r="J4" t="str">
-        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="K4" t="str">
-        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="L4" t="str">
-        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="Q4" t="str">
-        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R4" t="str">
-        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S4" t="str">
-        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T4),"",VLOOKUP($T4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X4" t="str">
-        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y4" t="str">
-        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z4" t="str">
-        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA4),"",VLOOKUP($AA4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -1830,39 +1918,39 @@
         <v/>
       </c>
       <c r="J5" t="str">
-        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I5),"",VLOOKUP($I5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R5" t="str">
-        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S5" t="str">
-        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T5),"",VLOOKUP($T5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X5" t="str">
-        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y5" t="str">
-        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z5" t="str">
-        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA5),"",VLOOKUP($AA5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -1903,39 +1991,39 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I6),"",VLOOKUP($I6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q6" t="str">
-        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R6" t="str">
-        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T6),"",VLOOKUP($T6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X6" t="str">
-        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y6" t="str">
-        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z6" t="str">
-        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA6),"",VLOOKUP($AA6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -1976,39 +2064,39 @@
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I7),"",VLOOKUP($I7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q7" t="str">
-        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R7" t="str">
-        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T7),"",VLOOKUP($T7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X7" t="str">
-        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y7" t="str">
-        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z7" t="str">
-        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA7),"",VLOOKUP($AA7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2049,39 +2137,39 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I8),"",VLOOKUP($I8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q8" t="str">
-        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R8" t="str">
-        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S8" t="str">
-        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T8),"",VLOOKUP($T8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X8" t="str">
-        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y8" t="str">
-        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z8" t="str">
-        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA8),"",VLOOKUP($AA8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2122,39 +2210,39 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I9),"",VLOOKUP($I9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q9" t="str">
-        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R9" t="str">
-        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S9" t="str">
-        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T9),"",VLOOKUP($T9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X9" t="str">
-        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y9" t="str">
-        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z9" t="str">
-        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA9),"",VLOOKUP($AA9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2195,39 +2283,39 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I10),"",VLOOKUP($I10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q10" t="str">
-        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R10" t="str">
-        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S10" t="str">
-        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T10),"",VLOOKUP($T10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X10" t="str">
-        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y10" t="str">
-        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z10" t="str">
-        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA10),"",VLOOKUP($AA10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2268,39 +2356,39 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I11),"",VLOOKUP($I11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q11" t="str">
-        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R11" t="str">
-        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S11" t="str">
-        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T11),"",VLOOKUP($T11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X11" t="str">
-        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y11" t="str">
-        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z11" t="str">
-        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA11),"",VLOOKUP($AA11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2341,39 +2429,39 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I12),"",VLOOKUP($I12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q12" t="str">
-        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R12" t="str">
-        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S12" t="str">
-        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T12),"",VLOOKUP($T12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X12" t="str">
-        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y12" t="str">
-        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z12" t="str">
-        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA12),"",VLOOKUP($AA12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2414,39 +2502,39 @@
         <v/>
       </c>
       <c r="J13" t="str">
-        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I13),"",VLOOKUP($I13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q13" t="str">
-        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R13" t="str">
-        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S13" t="str">
-        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T13),"",VLOOKUP($T13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X13" t="str">
-        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y13" t="str">
-        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z13" t="str">
-        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA13),"",VLOOKUP($AA13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2487,39 +2575,39 @@
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I14),"",VLOOKUP($I14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q14" t="str">
-        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R14" t="str">
-        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S14" t="str">
-        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T14),"",VLOOKUP($T14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X14" t="str">
-        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y14" t="str">
-        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z14" t="str">
-        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA14),"",VLOOKUP($AA14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2560,39 +2648,39 @@
         <v/>
       </c>
       <c r="J15" t="str">
-        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I15),"",VLOOKUP($I15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T15),"",VLOOKUP($T15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X15" t="str">
-        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA15),"",VLOOKUP($AA15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2633,39 +2721,39 @@
         <v/>
       </c>
       <c r="J16" t="str">
-        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I16),"",VLOOKUP($I16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Q16" t="str">
-        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Q$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="R16" t="str">
-        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(R$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="S16" t="str">
-        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($T16),"",VLOOKUP($T16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(S$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="X16" t="str">
-        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(X$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Y16" t="str">
-        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Y$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="Z16" t="str">
-        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($AA16),"",VLOOKUP($AA16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(Z$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
@@ -2706,21 +2794,21 @@
         <v/>
       </c>
       <c r="J17" t="str">
-        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;"_"&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;"_"&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;"_"&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -2744,7 +2832,7 @@
       </c>
       <c r="E18" t="str">
         <f>IF(ISBLANK(VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v/>
+        <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
@@ -2755,23 +2843,23 @@
         <v/>
       </c>
       <c r="J18" t="str">
-        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;"_"&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;"_"&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;"_"&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC1048576">
+  <conditionalFormatting sqref="A1:A1048576 C1:AC1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A1=A1048576</formula>
+      <formula>OFFSET(A1,-1,0)=A1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,7 +2870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF039B07-9D24-474B-B1DF-35C75F101541}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE1D7B-4FBC-4236-B7AA-5DCF261F3875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96C55C-7495-4655-992E-54056206E62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>actorId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,7 +671,12 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -714,26 +719,51 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackKeepSeries</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>InvincbleTortoise</v>
+            <v>NormalAttackBigBatSuccubus</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>TestPoison01</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
+            <v>CountBarrier5Times</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CallBurrowNinjaAssassin</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>BurrowNinjaAssassin</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>TestPoison01</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
         </row>
@@ -747,85 +777,97 @@
             <v>affectorValueId|String</v>
           </cell>
           <cell r="C1" t="str">
+            <v>affectorValueId검증</v>
+          </cell>
+          <cell r="D1" t="str">
             <v>level|Int</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="E1" t="str">
             <v>affectId참고</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="F1" t="str">
             <v>어펙터설명참고</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="G1" t="str">
             <v>conditionValueId|String!</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="H1" t="str">
             <v>컨디션밸류4개검증</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="I1" t="str">
             <v>fValue1|Float</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="J1" t="str">
             <v>fValue2|Float</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="K1" t="str">
             <v>fValue3|Float</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="L1" t="str">
             <v>fValue4|Float</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="M1" t="str">
             <v>iValue1|Int</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="N1" t="str">
             <v>iValue2|Int</v>
           </cell>
-          <cell r="N1" t="str">
+          <cell r="O1" t="str">
             <v>iValue3|Int</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="P1" t="str">
             <v>sValue1|String</v>
           </cell>
-          <cell r="P1" t="str">
+          <cell r="Q1" t="str">
             <v>sValue2|String</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="R1" t="str">
             <v>sValue3|String</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="S1" t="str">
             <v>sValue4|String</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="D2" t="str">
-            <v>InvincibleTortoise</v>
-          </cell>
           <cell r="E2" t="str">
-            <v>거북이 전용 컨티뉴어스 무적 어펙터</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v>BurrowNinjaAssassin</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>닌자어쌔신 전용 컨티뉴어스 버로우 어펙터</v>
           </cell>
           <cell r="I2" t="str">
-            <v/>
+            <v>버로우 공격의 어택 딜레이</v>
           </cell>
           <cell r="J2" t="str">
             <v/>
           </cell>
           <cell r="K2" t="str">
-            <v/>
+            <v>버로우 공격 전 최초 대기</v>
           </cell>
           <cell r="L2" t="str">
-            <v/>
+            <v>버로우 공격 후 최종 대기</v>
           </cell>
           <cell r="M2" t="str">
             <v/>
           </cell>
+          <cell r="N2" t="str">
+            <v>버로우 시
+공격횟수</v>
+          </cell>
           <cell r="O2" t="str">
-            <v>히트 시 시작되는 메카님스테이트</v>
+            <v/>
           </cell>
           <cell r="P2" t="str">
-            <v>끝날 때 복구하는 메카님스테이트</v>
+            <v>히트 시 시작되는 StateName</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>끝날 때 복구하는 StateName</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>버로우 스크롤 오브젝트</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>버로우 공격의 StateName</v>
           </cell>
         </row>
         <row r="3">
@@ -835,131 +877,303 @@
           <cell r="B3" t="str">
             <v>NormalAttack01</v>
           </cell>
-          <cell r="C3">
+          <cell r="C3" t="str">
+            <v/>
+          </cell>
+          <cell r="D3">
             <v>1</v>
           </cell>
-          <cell r="D3" t="str">
+          <cell r="E3" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="G3" t="str">
+          <cell r="H3" t="str">
             <v/>
           </cell>
-          <cell r="H3">
+          <cell r="I3">
             <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>CallInvincibleTortoise_01</v>
+            <v>NormalAttackKeepSeries_01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>CallInvincibleTortoise</v>
-          </cell>
-          <cell r="C4">
+            <v>NormalAttackKeepSeries</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v/>
+          </cell>
+          <cell r="D4">
             <v>1</v>
           </cell>
-          <cell r="D4" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="H4">
-            <v>-1</v>
-          </cell>
-          <cell r="L4">
-            <v>4</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>InvincbleTortoise</v>
+          <cell r="E4" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v/>
+          </cell>
+          <cell r="I4">
+            <v>0.45</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>InvincbleTortoise_01</v>
+            <v>NormalAttackBigBatSuccubus_01</v>
           </cell>
           <cell r="B5" t="str">
-            <v>InvincbleTortoise</v>
-          </cell>
-          <cell r="C5">
+            <v>NormalAttackBigBatSuccubus</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v/>
+          </cell>
+          <cell r="D5">
             <v>1</v>
           </cell>
-          <cell r="D5" t="str">
-            <v>InvincibleTortoise</v>
-          </cell>
-          <cell r="H5">
-            <v>3</v>
-          </cell>
-          <cell r="O5" t="str">
-            <v>GuardStart</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>GuardEnd</v>
+          <cell r="E5" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v/>
+          </cell>
+          <cell r="I5">
+            <v>0.3</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>TestPoison01_01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B6" t="str">
-            <v>TestPoison01</v>
-          </cell>
-          <cell r="C6">
+            <v>CallInvincibleTortoise</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v/>
+          </cell>
+          <cell r="D6">
             <v>1</v>
           </cell>
-          <cell r="D6" t="str">
-            <v>DotDamage</v>
-          </cell>
-          <cell r="H6">
-            <v>5</v>
+          <cell r="E6" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v/>
           </cell>
           <cell r="I6">
-            <v>0.5</v>
-          </cell>
-          <cell r="J6">
-            <v>0.01</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M6">
+            <v>4</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>LP_PiercingHitObject_01</v>
+            <v>InvincibleTortoise_01</v>
           </cell>
           <cell r="B7" t="str">
-            <v>LP_PiercingHitObject</v>
-          </cell>
-          <cell r="C7">
+            <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v/>
+          </cell>
+          <cell r="D7">
             <v>1</v>
           </cell>
-          <cell r="D7" t="str">
-            <v>PiercingHitObject</v>
-          </cell>
-          <cell r="G7" t="str">
+          <cell r="E7" t="str">
+            <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="H7" t="str">
             <v/>
           </cell>
-          <cell r="L7">
-            <v>1</v>
-          </cell>
-          <cell r="O7">
-            <v>0.9</v>
+          <cell r="I7">
+            <v>3</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>GuardStart</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>GuardEnd</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
+            <v>CountBarrier5Times_01</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>CountBarrier5Times</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v/>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>CountBarrier</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v/>
+          </cell>
+          <cell r="I8">
+            <v>-1</v>
+          </cell>
+          <cell r="N8">
+            <v>5</v>
+          </cell>
+          <cell r="R8" t="str">
+            <v>Effect29_D</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>CallBurrowNinjaAssassin_01</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>CallBurrowNinjaAssassin</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v/>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v/>
+          </cell>
+          <cell r="I9">
+            <v>-1</v>
+          </cell>
+          <cell r="M9">
+            <v>4</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>BurrowNinjaAssassin</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>BurrowNinjaAssassin_01</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>BurrowNinjaAssassin</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v/>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>BurrowNinjaAssassin</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v/>
+          </cell>
+          <cell r="I10">
+            <v>3</v>
+          </cell>
+          <cell r="K10">
+            <v>0.5</v>
+          </cell>
+          <cell r="L10">
+            <v>1</v>
+          </cell>
+          <cell r="N10">
+            <v>2</v>
+          </cell>
+          <cell r="P10" t="str">
+            <v>BurrowStart</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>BurrowEnd</v>
+          </cell>
+          <cell r="R10" t="str">
+            <v>BurrowScrollObject</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>TestPoison01_01</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>TestPoison01</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v/>
+          </cell>
+          <cell r="D11">
+            <v>1</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>DotDamage</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v/>
+          </cell>
+          <cell r="I11">
+            <v>5</v>
+          </cell>
+          <cell r="J11">
+            <v>0.5</v>
+          </cell>
+          <cell r="K11">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>LP_PiercingHitObject_01</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v/>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v/>
+          </cell>
+          <cell r="M12">
+            <v>1</v>
+          </cell>
+          <cell r="P12">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
             <v>LP_PiercingHitObject_02</v>
           </cell>
-          <cell r="B8" t="str">
+          <cell r="B13" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
-          <cell r="C8">
+          <cell r="C13" t="str">
+            <v/>
+          </cell>
+          <cell r="D13">
             <v>2</v>
           </cell>
-          <cell r="D8" t="str">
+          <cell r="E13" t="str">
             <v>PiercingHitObject</v>
           </cell>
-          <cell r="G8" t="str">
+          <cell r="H13" t="str">
             <v/>
           </cell>
-          <cell r="L8">
+          <cell r="M13">
             <v>2</v>
           </cell>
-          <cell r="O8" t="str">
+          <cell r="P13" t="str">
             <v>0.95,0.9</v>
           </cell>
         </row>
@@ -1526,13 +1740,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC40A4C-EDC3-4370-AD9F-F3B33A512AF9}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2806,60 +3020,11 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="D18" t="str">
-        <f>IF(ISBLANK(C18),"",
-IF(ISERROR(FIND(",",C18)),
-  IF(ISERROR(VLOOKUP(C18,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C18,FIND(",",C18)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C18,FIND(",",C18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C18,FIND(",",C18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18)+1,FIND(",",C18,FIND(",",C18)+1)-FIND(",",C18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18,FIND(",",C18)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C18,FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C18,FIND(",",C18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18)+1,FIND(",",C18,FIND(",",C18)+1)-FIND(",",C18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18,FIND(",",C18)+1)+1,FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)-FIND(",",C18,FIND(",",C18)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C18,FIND(",",C18,FIND(",",C18,FIND(",",C18)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-)))))</f>
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
-        <v>LPAF_ChangeActorStatus010</v>
-      </c>
-      <c r="F18" t="str">
-        <f>VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP($A18,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;"_"&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;"_"&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(K$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <f>IFERROR(IF(ISBLANK($I18),"",VLOOKUP($I18&amp;"_"&amp;TEXT($B18,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576 C1:AC1048576">
+  <conditionalFormatting sqref="A1:AC1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OFFSET(A1,-1,0)=A1</formula>
+      <formula>AND(OFFSET($A1,-1,0)=$A1,OFFSET(A1,-1,0)=A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96C55C-7495-4655-992E-54056206E62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8DAD7-3E01-4AB4-B135-3CE74F9FD95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
-    <sheet name="LevelPackTable" sheetId="1" r:id="rId1"/>
-    <sheet name="LevelPackLevelTable" sheetId="2" r:id="rId2"/>
-    <sheet name="ActorLevelPackTable" sheetId="3" r:id="rId3"/>
+    <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
+    <sheet name="LevelPackTable" sheetId="1" r:id="rId2"/>
+    <sheet name="LevelPackLevelTable" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -35,444 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoohoo</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{31E6F2C1-2013-4FBE-89E9-C87A3608A3EB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무제한은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> -1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표기한다
-가지고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않으면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표기한다
-양수일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>때</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>분모의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스치가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>된다</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoohoo</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5AE65149-56A2-4C49-866E-23C4C0485FC7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무제한은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> -1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표기한다
-가지고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않으면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표기한다
-양수일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>때</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>분모의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스치가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>된다</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
-  <si>
-    <t>actorId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,9 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor001</t>
-  </si>
-  <si>
     <t>LP_Piercing001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,18 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>useAffectorValueIdOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultMax|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overridingMax|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디폴트맥스참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어펙터밸류4개검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,13 +147,69 @@
   </si>
   <si>
     <t>입력어펙터밸류3</t>
+  </si>
+  <si>
+    <t>공격력(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코셰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001,Actor002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropWeight|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯공퍼 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_리코셰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 후 적에게 다시 날아갑니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredExp|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedExp|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useActor|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,19 +224,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -671,12 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -729,42 +312,52 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackBei</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>CountBarrier5Times</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CountBarrier5Times</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>TestPoison01</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>TestPoison01</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
             <v>LP_PiercingHitObject</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>LP_리코셰</v>
           </cell>
         </row>
       </sheetData>
@@ -830,44 +423,47 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="F2" t="str">
-            <v>닌자어쌔신 전용 컨티뉴어스 버로우 어펙터</v>
-          </cell>
+            <v>기본 대미지 계산식</v>
+          </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
-            <v>버로우 공격의 어택 딜레이</v>
+            <v>단일 대미지 배율</v>
           </cell>
           <cell r="J2" t="str">
             <v/>
           </cell>
           <cell r="K2" t="str">
-            <v>버로우 공격 전 최초 대기</v>
+            <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>버로우 공격 후 최종 대기</v>
+            <v/>
           </cell>
           <cell r="M2" t="str">
+            <v>1: 다단히트</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>1: 대미지 처리 후 온킬 여부</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>1: 회피무시</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>다단히트 시
+연속 대미지</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>온킬 시 불려질
+어펙터밸류 아이디들</v>
+          </cell>
+          <cell r="R2" t="str">
             <v/>
           </cell>
-          <cell r="N2" t="str">
-            <v>버로우 시
-공격횟수</v>
-          </cell>
-          <cell r="O2" t="str">
+          <cell r="S2" t="str">
             <v/>
-          </cell>
-          <cell r="P2" t="str">
-            <v>히트 시 시작되는 StateName</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>끝날 때 복구하는 StateName</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>버로우 스크롤 오브젝트</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>버로우 공격의 StateName</v>
           </cell>
         </row>
         <row r="3">
@@ -913,7 +509,7 @@
             <v/>
           </cell>
           <cell r="I4">
-            <v>0.45</v>
+            <v>0.5625</v>
           </cell>
         </row>
         <row r="5">
@@ -932,19 +528,16 @@
           <cell r="E5" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="H5" t="str">
-            <v/>
-          </cell>
           <cell r="I5">
-            <v>0.3</v>
+            <v>0.33333333329999998</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>CallInvincibleTortoise_01</v>
+            <v>NormalAttackBei_01</v>
           </cell>
           <cell r="B6" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackBei</v>
           </cell>
           <cell r="C6" t="str">
             <v/>
@@ -953,27 +546,21 @@
             <v>1</v>
           </cell>
           <cell r="E6" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H6" t="str">
             <v/>
           </cell>
           <cell r="I6">
-            <v>-1</v>
-          </cell>
-          <cell r="M6">
-            <v>4</v>
-          </cell>
-          <cell r="Q6" t="str">
-            <v>InvincibleTortoise</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>InvincibleTortoise_01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B7" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C7" t="str">
             <v/>
@@ -982,27 +569,27 @@
             <v>1</v>
           </cell>
           <cell r="E7" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H7" t="str">
             <v/>
           </cell>
           <cell r="I7">
-            <v>3</v>
-          </cell>
-          <cell r="P7" t="str">
-            <v>GuardStart</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M7">
+            <v>4</v>
           </cell>
           <cell r="Q7" t="str">
-            <v>GuardEnd</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>CountBarrier5Times_01</v>
+            <v>InvincibleTortoise_01</v>
           </cell>
           <cell r="B8" t="str">
-            <v>CountBarrier5Times</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="C8" t="str">
             <v/>
@@ -1011,27 +598,27 @@
             <v>1</v>
           </cell>
           <cell r="E8" t="str">
-            <v>CountBarrier</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="H8" t="str">
             <v/>
           </cell>
           <cell r="I8">
-            <v>-1</v>
-          </cell>
-          <cell r="N8">
-            <v>5</v>
-          </cell>
-          <cell r="R8" t="str">
-            <v>Effect29_D</v>
+            <v>3</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>GuardStart</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>GuardEnd</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>CallBurrowNinjaAssassin_01</v>
+            <v>CountBarrier5Times_01</v>
           </cell>
           <cell r="B9" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CountBarrier5Times</v>
           </cell>
           <cell r="C9" t="str">
             <v/>
@@ -1040,7 +627,7 @@
             <v>1</v>
           </cell>
           <cell r="E9" t="str">
-            <v>CallAffectorValue</v>
+            <v>CountBarrier</v>
           </cell>
           <cell r="H9" t="str">
             <v/>
@@ -1048,19 +635,19 @@
           <cell r="I9">
             <v>-1</v>
           </cell>
-          <cell r="M9">
-            <v>4</v>
-          </cell>
-          <cell r="Q9" t="str">
-            <v>BurrowNinjaAssassin</v>
+          <cell r="N9">
+            <v>5</v>
+          </cell>
+          <cell r="R9" t="str">
+            <v>Effect29_D</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BurrowNinjaAssassin_01</v>
+            <v>CallBurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B10" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
           <cell r="C10" t="str">
             <v/>
@@ -1069,39 +656,27 @@
             <v>1</v>
           </cell>
           <cell r="E10" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H10" t="str">
             <v/>
           </cell>
           <cell r="I10">
-            <v>3</v>
-          </cell>
-          <cell r="K10">
-            <v>0.5</v>
-          </cell>
-          <cell r="L10">
-            <v>1</v>
-          </cell>
-          <cell r="N10">
-            <v>2</v>
-          </cell>
-          <cell r="P10" t="str">
-            <v>BurrowStart</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M10">
+            <v>4</v>
           </cell>
           <cell r="Q10" t="str">
-            <v>BurrowEnd</v>
-          </cell>
-          <cell r="R10" t="str">
-            <v>BurrowScrollObject</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>TestPoison01_01</v>
+            <v>BurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B11" t="str">
-            <v>TestPoison01</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C11" t="str">
             <v/>
@@ -1110,27 +685,42 @@
             <v>1</v>
           </cell>
           <cell r="E11" t="str">
-            <v>DotDamage</v>
+            <v>Burrow</v>
           </cell>
           <cell r="H11" t="str">
             <v/>
           </cell>
           <cell r="I11">
-            <v>5</v>
-          </cell>
-          <cell r="J11">
+            <v>3</v>
+          </cell>
+          <cell r="K11">
             <v>0.5</v>
           </cell>
-          <cell r="K11">
-            <v>0.01</v>
+          <cell r="L11">
+            <v>1</v>
+          </cell>
+          <cell r="N11">
+            <v>2</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>BurrowStart</v>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>BurrowEnd</v>
+          </cell>
+          <cell r="R11" t="str">
+            <v>BurrowScrollObject</v>
+          </cell>
+          <cell r="S11" t="str">
+            <v>BurrowAttack</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LP_PiercingHitObject_01</v>
+            <v>TestPoison01_01</v>
           </cell>
           <cell r="B12" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>TestPoison01</v>
           </cell>
           <cell r="C12" t="str">
             <v/>
@@ -1139,21 +729,24 @@
             <v>1</v>
           </cell>
           <cell r="E12" t="str">
-            <v>PiercingHitObject</v>
+            <v>DotDamage</v>
           </cell>
           <cell r="H12" t="str">
             <v/>
           </cell>
-          <cell r="M12">
-            <v>1</v>
-          </cell>
-          <cell r="P12">
-            <v>0.9</v>
+          <cell r="I12">
+            <v>5</v>
+          </cell>
+          <cell r="J12">
+            <v>0.5</v>
+          </cell>
+          <cell r="K12">
+            <v>0.01</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LP_PiercingHitObject_02</v>
+            <v>LP_PiercingHitObject_01</v>
           </cell>
           <cell r="B13" t="str">
             <v>LP_PiercingHitObject</v>
@@ -1162,7 +755,7 @@
             <v/>
           </cell>
           <cell r="D13">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E13" t="str">
             <v>PiercingHitObject</v>
@@ -1170,11 +763,60 @@
           <cell r="H13" t="str">
             <v/>
           </cell>
+          <cell r="K13"/>
           <cell r="M13">
+            <v>1</v>
+          </cell>
+          <cell r="P13">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>LP_PiercingHitObject_02</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+          <cell r="D14">
             <v>2</v>
           </cell>
-          <cell r="P13" t="str">
+          <cell r="E14" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v/>
+          </cell>
+          <cell r="M14">
+            <v>2</v>
+          </cell>
+          <cell r="P14" t="str">
             <v>0.95,0.9</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>리코셰</v>
+          </cell>
+          <cell r="D16">
+            <v>1</v>
+          </cell>
+          <cell r="M16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>리코셰</v>
+          </cell>
+          <cell r="D17">
+            <v>2</v>
+          </cell>
+          <cell r="M17">
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -1193,7 +835,6 @@
       <sheetName val="InApkStringTable"/>
       <sheetName val="StringTable"/>
       <sheetName val="FontTable"/>
-      <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1246,7 +887,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1548,8 +1188,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228BB8E1-607B-4A4F-85DA-23E22708D848}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C16" si="0">C2+B3</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1561,192 +1405,216 @@
   <cols>
     <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
-    <col min="7" max="8" width="22.875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="25.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.75" style="1" customWidth="1"/>
+    <col min="9" max="10" width="22.875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(ISBLANK(C2),"",
-IF(ISERROR(FIND(",",C2)),
-  IF(ISERROR(VLOOKUP(C2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C2,FIND(",",C2)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,FIND(",",C2,FIND(",",C2)+1)-FIND(",",C2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C2,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C2,FIND(",",C2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2)+1,FIND(",",C2,FIND(",",C2)+1)-FIND(",",C2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2)+1)+1,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)-FIND(",",C2,FIND(",",C2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C2,FIND(",",C2,FIND(",",C2,FIND(",",C2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(ISBLANK(E2),"",
+IF(ISERROR(FIND(",",E2)),
+  IF(ISERROR(VLOOKUP(E2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E2,FIND(",",E2)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,FIND(",",E2,FIND(",",E2)+1)-FIND(",",E2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E2,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,FIND(",",E2,FIND(",",E2)+1)-FIND(",",E2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2)+1)+1,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)-FIND(",",E2,FIND(",",E2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(E2),"",VLOOKUP(E2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
         <v>하트가 폭발한다</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(F2),"",VLOOKUP(F2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+      <c r="J2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <f>IF(ISERROR(MATCH($A2,LevelPackLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(LevelPackLevelTable!$1:$1048576,MATCH($A2,LevelPackLevelTable!$A:$A,0),MATCH($C$1,LevelPackLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>IF(ISBLANK(C3),"",
-IF(ISERROR(FIND(",",C3)),
-  IF(ISERROR(VLOOKUP(C3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C3,FIND(",",C3)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,FIND(",",C3,FIND(",",C3)+1)-FIND(",",C3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C3,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C3,FIND(",",C3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3)+1,FIND(",",C3,FIND(",",C3)+1)-FIND(",",C3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3)+1)+1,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)-FIND(",",C3,FIND(",",C3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C3,FIND(",",C3,FIND(",",C3,FIND(",",C3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>IF(ISBLANK(E3),"",
+IF(ISERROR(FIND(",",E3)),
+  IF(ISERROR(VLOOKUP(E3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E3,FIND(",",E3)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,FIND(",",E3,FIND(",",E3)+1)-FIND(",",E3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E3,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,FIND(",",E3,FIND(",",E3)+1)-FIND(",",E3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3)+1)+1,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)-FIND(",",E3,FIND(",",E3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(E3),"",VLOOKUP(E3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(F3),"",VLOOKUP(F3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(G3),"",VLOOKUP(G3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>IF(ISBLANK(E4),"",
+IF(ISERROR(FIND(",",E4)),
+  IF(ISERROR(VLOOKUP(E4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E4,FIND(",",E4)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,FIND(",",E4,FIND(",",E4)+1)-FIND(",",E4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E4,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,FIND(",",E4,FIND(",",E4)+1)-FIND(",",E4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4)+1)+1,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)-FIND(",",E4,FIND(",",E4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(G4),"",VLOOKUP(G4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <f>IF(ISERROR(MATCH($A3,LevelPackLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(LevelPackLevelTable!$1:$1048576,MATCH($A3,LevelPackLevelTable!$A:$A,0),MATCH($C$1,LevelPackLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>IF(ISBLANK(C4),"",
-IF(ISERROR(FIND(",",C4)),
-  IF(ISERROR(VLOOKUP(C4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C4,FIND(",",C4)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,FIND(",",C4,FIND(",",C4)+1)-FIND(",",C4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",C4,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(C4,FIND(",",C4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4)+1,FIND(",",C4,FIND(",",C4)+1)-FIND(",",C4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4)+1)+1,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)-FIND(",",C4,FIND(",",C4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(C4,FIND(",",C4,FIND(",",C4,FIND(",",C4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-)))))</f>
-        <v/>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(E4),"",VLOOKUP(E4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK(F4),"",VLOOKUP(F4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="I4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <f>IF(ISERROR(MATCH($A4,LevelPackLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(LevelPackLevelTable!$1:$1048576,MATCH($A4,LevelPackLevelTable!$A:$A,0),MATCH($C$1,LevelPackLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC40A4C-EDC3-4370-AD9F-F3B33A512AF9}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1774,96 +1642,96 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1886,23 +1754,23 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_PiercingHitObject</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v>하트가 폭발한다</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -1943,7 +1811,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1966,20 +1834,20 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_PiercingHitObject</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v>하트가 폭발한다</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A3,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J3" t="str">
         <f>IFERROR(IF(ISBLANK($I3),"",VLOOKUP($I3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -2020,7 +1888,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2043,20 +1911,20 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_PiercingHitObject</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v>하트가 폭발한다</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A4,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J4" t="str">
         <f>IFERROR(IF(ISBLANK($I4),"",VLOOKUP($I4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -2097,7 +1965,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2120,15 +1988,15 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A5,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J5" t="str">
@@ -2170,7 +2038,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2193,15 +2061,15 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A6,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J6" t="str">
@@ -2243,7 +2111,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2266,15 +2134,15 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A7,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J7" t="str">
@@ -2316,7 +2184,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2339,15 +2207,15 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A8,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J8" t="str">
@@ -2389,7 +2257,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2412,15 +2280,15 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A9,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J9" t="str">
@@ -2462,7 +2330,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2485,15 +2353,15 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A10,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J10" t="str">
@@ -2535,7 +2403,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -2558,15 +2426,15 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v>LPAF_ChangeActorStatus010</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A11,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J11" t="str">
@@ -2608,7 +2476,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2631,15 +2499,15 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A12,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J12" t="str">
@@ -2681,7 +2549,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2704,15 +2572,15 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A13,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J13" t="str">
@@ -2754,7 +2622,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2777,15 +2645,15 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A14,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J14" t="str">
@@ -2827,7 +2695,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2850,15 +2718,15 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A15,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J15" t="str">
@@ -2900,7 +2768,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -2923,15 +2791,15 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A16,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J16" t="str">
@@ -2973,7 +2841,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2996,15 +2864,15 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$C$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$G$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$H$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A17,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v/>
       </c>
       <c r="J17" t="str">
@@ -3018,6 +2886,58 @@
       <c r="L17" t="str">
         <f>IFERROR(IF(ISBLANK($I17),"",VLOOKUP($I17&amp;"_"&amp;TEXT($B17,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(L$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3029,69 +2949,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF039B07-9D24-474B-B1DF-35C75F101541}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="9" outlineLevel="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP($B2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B6717DC-468E-45DF-9EFA-2CD7295568CF}">
-          <x14:formula1>
-            <xm:f>OFFSET(LevelPackTable!$A$1,1,0,COUNTA(LevelPackTable!$A:$A)-1,1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C060C8F-FB44-4AD7-BC1D-D166517B24D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E717FFA-798A-4501-9D22-0C39FB29CA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,18 @@
   </si>
   <si>
     <t>이 행은 수식보존을 위한 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlatSkill2_2_NoBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlatArrow_5_NoBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlatArmor_9_NoBG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,7 +1604,7 @@
             <v>LevelPackUIName_AtkHigh</v>
           </cell>
           <cell r="B33" t="str">
-            <v>공격력(대)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공격력(대)</v>
           </cell>
           <cell r="C33" t="str">
             <v>In progress of translating…(33)</v>
@@ -1603,7 +1615,7 @@
             <v>LevelPackUIName_AtkSpeedLow</v>
           </cell>
           <cell r="B34" t="str">
-            <v>공속(소)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(소)</v>
           </cell>
           <cell r="C34" t="str">
             <v>In progress of translating…(34)</v>
@@ -1614,7 +1626,7 @@
             <v>LevelPackUIName_AtkSpeedMedium</v>
           </cell>
           <cell r="B35" t="str">
-            <v>공속(중)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(중)</v>
           </cell>
           <cell r="C35" t="str">
             <v>In progress of translating…(35)</v>
@@ -1625,7 +1637,7 @@
             <v>LevelPackUIName_AtkSpeedHigh</v>
           </cell>
           <cell r="B36" t="str">
-            <v>공속(대)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(대)</v>
           </cell>
           <cell r="C36" t="str">
             <v>In progress of translating…(36)</v>
@@ -1658,7 +1670,7 @@
             <v>LevelPackUIName_CritHigh</v>
           </cell>
           <cell r="B39" t="str">
-            <v>크리(대)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리(대)</v>
           </cell>
           <cell r="C39" t="str">
             <v>In progress of translating…(39)</v>
@@ -1691,7 +1703,7 @@
             <v>LevelPackUIName_CritDmgHigh</v>
           </cell>
           <cell r="B42" t="str">
-            <v>크리댐(대)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리댐(대)</v>
           </cell>
           <cell r="C42" t="str">
             <v>In progress of translating…(42)</v>
@@ -1724,7 +1736,7 @@
             <v>LevelPackUIName_MaxHpHigh</v>
           </cell>
           <cell r="B45" t="str">
-            <v>최대HP 증가(대)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 최대HP 증가(대)</v>
           </cell>
           <cell r="C45" t="str">
             <v>In progress of translating…(45)</v>
@@ -1757,7 +1769,7 @@
             <v>LevelPackUIName_DmgDecreaseHigh</v>
           </cell>
           <cell r="B48" t="str">
-            <v>대미지 경감(대)</v>
+            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 대미지 경감(대)</v>
           </cell>
           <cell r="C48" t="str">
             <v>In progress of translating…(48)</v>
@@ -2010,7 +2022,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2517,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2532,16 +2544,16 @@
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="7.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="17.125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2594,7 +2606,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -2652,7 +2664,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -2710,7 +2722,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -2747,7 +2759,7 @@
 IFERROR(VLOOKUP(G4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>공격력(대)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공격력(대)</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>IF(ISBLANK(H4),"",
@@ -2808,7 +2820,7 @@
 IFERROR(VLOOKUP(G5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>공속(소)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(소)</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>IF(ISBLANK(H5),"",
@@ -2869,7 +2881,7 @@
 IFERROR(VLOOKUP(G6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>공속(중)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(중)</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>IF(ISBLANK(H6),"",
@@ -2930,7 +2942,7 @@
 IFERROR(VLOOKUP(G7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>공속(대)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(대)</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>IF(ISBLANK(H7),"",
@@ -2954,7 +2966,7 @@
         <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -3012,7 +3024,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
@@ -3070,7 +3082,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -3107,7 +3119,7 @@
 IFERROR(VLOOKUP(G10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>크리(대)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리(대)</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>IF(ISBLANK(H10),"",
@@ -3284,7 +3296,7 @@
 IFERROR(VLOOKUP(G13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>크리댐(대)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리댐(대)</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>IF(ISBLANK(H13),"",
@@ -3485,7 +3497,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
@@ -3543,7 +3555,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
@@ -3601,7 +3613,7 @@
         <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>1</v>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E717FFA-798A-4501-9D22-0C39FB29CA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528A46F-6723-4C36-A811-DF5BA454F623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t>FlatArmor_9_NoBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgDecreaseLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_DmgDecreaseLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DmgDecreaseLow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1735,7 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LevelPackUIName_MaxHpHigh</v>
+            <v>LevelPackUIName_MaxHpLow</v>
           </cell>
           <cell r="B43" t="str">
             <v>최대HP 증가(소)</v>
@@ -1744,7 +1768,7 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LevelPackUIName_DmgDecreaseHigh</v>
+            <v>LevelPackUIName_DmgDecreaseLow</v>
           </cell>
           <cell r="B46" t="str">
             <v>대미지 경감(소)</v>
@@ -1909,7 +1933,7 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LevelPackUIDesc_MaxHpHigh</v>
+            <v>LevelPackUIDesc_MaxHpLow</v>
           </cell>
           <cell r="B61" t="str">
             <v>최대HP를 소량 올립니다</v>
@@ -1942,7 +1966,7 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LevelPackUIDesc_DmgDecreaseHigh</v>
+            <v>LevelPackUIDesc_DmgDecreaseLow</v>
           </cell>
           <cell r="B64" t="str">
             <v>대미지경감율을 소량 올립니다</v>
@@ -2022,7 +2046,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2535,7 +2559,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3317,7 +3341,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>98</v>
@@ -3347,10 +3371,10 @@
         <v/>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -3473,14 +3497,14 @@
 IFERROR(VLOOKUP(G16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>최대HP 증가(소)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 최대HP 증가(대)</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>IF(ISBLANK(H16),"",
 IFERROR(VLOOKUP(H16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>최대HP를 소량 올립니다</v>
+        <v>최대HP를 대폭 올립니다</v>
       </c>
       <c r="K16" s="1">
         <v>9</v>
@@ -3494,7 +3518,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>120</v>
@@ -3524,10 +3548,10 @@
         <v/>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>IF(ISBLANK(G17),"",
@@ -3650,14 +3674,14 @@
 IFERROR(VLOOKUP(G19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>대미지 경감(소)</v>
+        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 대미지 경감(대)</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>IF(ISBLANK(H19),"",
 IFERROR(VLOOKUP(H19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>대미지경감율을 소량 올립니다</v>
+        <v>대미지경감율을 대폭 올립니다</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528A46F-6723-4C36-A811-DF5BA454F623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEFFE3-3C3A-48B9-99B5-3C1441436613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,12 +449,6 @@
     <t>MaxHpMedium</t>
   </si>
   <si>
-    <t>DmgDecreaseHigh</t>
-  </si>
-  <si>
-    <t>DmgDecreaseMedium</t>
-  </si>
-  <si>
     <t>LevelPackUIName_AtkSpeedLow</t>
   </si>
   <si>
@@ -486,12 +480,6 @@
   </si>
   <si>
     <t>LevelPackUIName_MaxHpMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_DmgDecreaseHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_DmgDecreaseMedium</t>
   </si>
   <si>
     <t>LevelPackUIDesc_AtkSpeedLow</t>
@@ -567,12 +555,6 @@
     <t>LevelPackUIDesc_MaxHpMedium</t>
   </si>
   <si>
-    <t>LevelPackUIDesc_DmgDecreaseHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_DmgDecreaseMedium</t>
-  </si>
-  <si>
     <t>useAffectorValueIdOverriding|Bool</t>
   </si>
   <si>
@@ -592,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FlatArmor_9_NoBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxHpLow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,15 +586,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DmgDecreaseLow</t>
+    <t>LP_AtkLow</t>
+  </si>
+  <si>
+    <t>LP_AtkMedium</t>
+  </si>
+  <si>
+    <t>LP_AtkHigh</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedLow</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedMedium</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedHigh</t>
+  </si>
+  <si>
+    <t>LP_CritLow</t>
+  </si>
+  <si>
+    <t>LP_CritMedium</t>
+  </si>
+  <si>
+    <t>LP_CritHigh</t>
+  </si>
+  <si>
+    <t>LP_MaxHpLow</t>
+  </si>
+  <si>
+    <t>LP_MaxHpMedium</t>
+  </si>
+  <si>
+    <t>LP_MaxHpHigh</t>
+  </si>
+  <si>
+    <t>LP_CritDmgLow, LP_CritDmgLow_Crit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelPackUIName_DmgDecreaseLow</t>
+    <t>LP_CritDmgMedium, LP_CritDmgMedium_Crit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelPackUIDesc_DmgDecreaseLow</t>
+    <t>LP_CritDmgHigh, LP_CritDmgHigh_Crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001, Actor002, Actor003, Actor004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,22 +788,92 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>TestPoison01</v>
+            <v>LP_AtkLow</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>LP_AtkMedium</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>LP_AtkHigh</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>LP_리코셰</v>
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>LP_AtkSpeedHigh</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>LP_CritMedium</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>LP_CritHigh</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>LP_CritDmgMedium</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>LP_CritDmgHigh</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>LP_CritDmgMedium_Crit</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>LP_CritDmgHigh_Crit</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>LP_MaxHpHigh</v>
           </cell>
         </row>
       </sheetData>
@@ -828,39 +916,58 @@
             <v>fValue4|Float</v>
           </cell>
           <cell r="M1" t="str">
+            <v>iValue1</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>iValue1오버라이딩</v>
+          </cell>
+          <cell r="O1" t="str">
             <v>iValue1|Int</v>
           </cell>
-          <cell r="N1" t="str">
+          <cell r="P1" t="str">
             <v>iValue2|Int</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="Q1" t="str">
             <v>iValue3|Int</v>
           </cell>
-          <cell r="P1" t="str">
+          <cell r="R1" t="str">
             <v>sValue1|String</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="S1" t="str">
             <v>sValue2|String</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="T1" t="str">
             <v>sValue3|String</v>
           </cell>
-          <cell r="S1" t="str">
+          <cell r="U1" t="str">
             <v>sValue4|String</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>iValue1_Verify</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>iValue1_List</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="AA1" t="str">
+            <v>len</v>
           </cell>
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>BaseDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="F2" t="str">
-            <v>기본 대미지 계산식</v>
+            <v>액터스탯 변경</v>
           </cell>
           <cell r="I2" t="str">
-            <v>단일 대미지 배율</v>
+            <v>지속시간
+무제한은 -1</v>
           </cell>
           <cell r="J2" t="str">
-            <v/>
+            <v>변경할 수치</v>
           </cell>
           <cell r="K2" t="str">
             <v/>
@@ -869,26 +976,47 @@
             <v/>
           </cell>
           <cell r="M2" t="str">
-            <v>1: 다단히트</v>
+            <v>스탯타입
+유효성 검사</v>
           </cell>
           <cell r="N2" t="str">
-            <v>1: 대미지 처리 후 온킬 여부</v>
+            <v>오버라이딩
+우측 입력은 여기</v>
           </cell>
           <cell r="O2" t="str">
-            <v>1: 회피무시</v>
+            <v>스탯타입</v>
           </cell>
           <cell r="P2" t="str">
-            <v>다단히트 시
-연속 대미지</v>
+            <v>피격받아 종료할 지속횟수</v>
           </cell>
           <cell r="Q2" t="str">
-            <v>온킬 시 불려질
-어펙터밸류 아이디들</v>
+            <v/>
           </cell>
           <cell r="R2" t="str">
             <v/>
           </cell>
           <cell r="S2" t="str">
+            <v/>
+          </cell>
+          <cell r="T2" t="str">
+            <v>루프 지속 이펙트</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v/>
+          </cell>
+          <cell r="W2" t="str">
+            <v>MaxHp</v>
+          </cell>
+          <cell r="Y2" t="str">
+            <v>NormalMonsterDamageIncreaseAddRate</v>
+          </cell>
+          <cell r="Z2">
+            <v>11</v>
+          </cell>
+          <cell r="AA2">
+            <v>34</v>
+          </cell>
+          <cell r="AC2" t="str">
             <v/>
           </cell>
         </row>
@@ -914,6 +1042,21 @@
           <cell r="I3">
             <v>1</v>
           </cell>
+          <cell r="O3" t="str">
+            <v/>
+          </cell>
+          <cell r="W3" t="str">
+            <v>Attack</v>
+          </cell>
+          <cell r="Y3" t="str">
+            <v>NormalMonsterDamageDecreaseAddRate</v>
+          </cell>
+          <cell r="Z3">
+            <v>12</v>
+          </cell>
+          <cell r="AA3">
+            <v>34</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -937,6 +1080,21 @@
           <cell r="I4">
             <v>0.5625</v>
           </cell>
+          <cell r="O4" t="str">
+            <v/>
+          </cell>
+          <cell r="W4" t="str">
+            <v>AttackDelay</v>
+          </cell>
+          <cell r="Y4" t="str">
+            <v>BossMonsterDamageIncreaseAddRate</v>
+          </cell>
+          <cell r="Z4">
+            <v>13</v>
+          </cell>
+          <cell r="AA4">
+            <v>32</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -957,6 +1115,21 @@
           <cell r="I5">
             <v>0.33333333329999998</v>
           </cell>
+          <cell r="O5" t="str">
+            <v/>
+          </cell>
+          <cell r="W5" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="Y5" t="str">
+            <v>BossMonsterDamageDecreaseAddRate</v>
+          </cell>
+          <cell r="Z5">
+            <v>14</v>
+          </cell>
+          <cell r="AA5">
+            <v>32</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -980,6 +1153,21 @@
           <cell r="I6">
             <v>1</v>
           </cell>
+          <cell r="O6" t="str">
+            <v/>
+          </cell>
+          <cell r="W6" t="str">
+            <v>EvadeRate</v>
+          </cell>
+          <cell r="Y6" t="str">
+            <v>PowerSourceHealAddRate</v>
+          </cell>
+          <cell r="Z6">
+            <v>15</v>
+          </cell>
+          <cell r="AA6">
+            <v>22</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -1003,11 +1191,26 @@
           <cell r="I7">
             <v>-1</v>
           </cell>
-          <cell r="M7">
+          <cell r="N7">
             <v>4</v>
           </cell>
-          <cell r="Q7" t="str">
+          <cell r="O7">
+            <v>4</v>
+          </cell>
+          <cell r="S7" t="str">
             <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="W7" t="str">
+            <v>MoveSpeed</v>
+          </cell>
+          <cell r="Y7" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="Z7">
+            <v>9</v>
+          </cell>
+          <cell r="AA7">
+            <v>21</v>
           </cell>
         </row>
         <row r="8">
@@ -1032,11 +1235,26 @@
           <cell r="I8">
             <v>3</v>
           </cell>
-          <cell r="P8" t="str">
+          <cell r="O8" t="str">
+            <v/>
+          </cell>
+          <cell r="R8" t="str">
             <v>GuardStart</v>
           </cell>
-          <cell r="Q8" t="str">
+          <cell r="S8" t="str">
             <v>GuardEnd</v>
+          </cell>
+          <cell r="W8" t="str">
+            <v>MaxSp</v>
+          </cell>
+          <cell r="Y8" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="Z8">
+            <v>3</v>
+          </cell>
+          <cell r="AA8">
+            <v>18</v>
           </cell>
         </row>
         <row r="9">
@@ -1061,11 +1279,26 @@
           <cell r="I9">
             <v>-1</v>
           </cell>
-          <cell r="N9">
+          <cell r="O9" t="str">
+            <v/>
+          </cell>
+          <cell r="P9">
             <v>5</v>
           </cell>
-          <cell r="R9" t="str">
+          <cell r="T9" t="str">
             <v>Effect29_D</v>
+          </cell>
+          <cell r="W9" t="str">
+            <v>SpGainAddRate</v>
+          </cell>
+          <cell r="Y9" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="Z9">
+            <v>10</v>
+          </cell>
+          <cell r="AA9">
+            <v>16</v>
           </cell>
         </row>
         <row r="10">
@@ -1090,11 +1323,26 @@
           <cell r="I10">
             <v>-1</v>
           </cell>
-          <cell r="M10">
+          <cell r="N10">
             <v>4</v>
           </cell>
-          <cell r="Q10" t="str">
+          <cell r="O10">
+            <v>4</v>
+          </cell>
+          <cell r="S10" t="str">
             <v>BurrowNinjaAssassin</v>
+          </cell>
+          <cell r="W10" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="Y10" t="str">
+            <v>SwapHealAddRate</v>
+          </cell>
+          <cell r="Z10">
+            <v>16</v>
+          </cell>
+          <cell r="AA10">
+            <v>15</v>
           </cell>
         </row>
         <row r="11">
@@ -1125,28 +1373,43 @@
           <cell r="L11">
             <v>1</v>
           </cell>
-          <cell r="N11">
+          <cell r="O11" t="str">
+            <v/>
+          </cell>
+          <cell r="P11">
             <v>2</v>
           </cell>
-          <cell r="P11" t="str">
+          <cell r="R11" t="str">
             <v>BurrowStart</v>
           </cell>
-          <cell r="Q11" t="str">
+          <cell r="S11" t="str">
             <v>BurrowEnd</v>
           </cell>
-          <cell r="R11" t="str">
+          <cell r="T11" t="str">
             <v>BurrowScrollObject</v>
           </cell>
-          <cell r="S11" t="str">
+          <cell r="U11" t="str">
             <v>BurrowAttack</v>
+          </cell>
+          <cell r="W11" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="Y11" t="str">
+            <v>SpGainAddRate</v>
+          </cell>
+          <cell r="Z11">
+            <v>7</v>
+          </cell>
+          <cell r="AA11">
+            <v>13</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>TestPoison01_01</v>
+            <v>LP_AtkLow_01</v>
           </cell>
           <cell r="B12" t="str">
-            <v>TestPoison01</v>
+            <v>LP_AtkLow</v>
           </cell>
           <cell r="C12" t="str">
             <v/>
@@ -1155,99 +1418,3496 @@
             <v>1</v>
           </cell>
           <cell r="E12" t="str">
-            <v>DotDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H12" t="str">
             <v/>
           </cell>
           <cell r="I12">
-            <v>5</v>
+            <v>-1</v>
           </cell>
           <cell r="J12">
-            <v>0.5</v>
-          </cell>
-          <cell r="K12">
-            <v>0.01</v>
+            <v>0.1</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W12" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="Y12" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="Z12">
+            <v>18</v>
+          </cell>
+          <cell r="AA12">
+            <v>13</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LP_PiercingHitObject_01</v>
+            <v>LP_AtkLow_02</v>
           </cell>
           <cell r="B13" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>LP_AtkLow</v>
           </cell>
           <cell r="C13" t="str">
             <v/>
           </cell>
           <cell r="D13">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E13" t="str">
-            <v>PiercingHitObject</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H13" t="str">
             <v/>
           </cell>
-          <cell r="M13">
-            <v>1</v>
-          </cell>
-          <cell r="P13">
-            <v>0.9</v>
+          <cell r="I13">
+            <v>-1</v>
+          </cell>
+          <cell r="J13">
+            <v>0.2</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W13" t="str">
+            <v>NormalMonsterDamageIncreaseAddRate</v>
+          </cell>
+          <cell r="Y13" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="Z13">
+            <v>8</v>
+          </cell>
+          <cell r="AA13">
+            <v>12</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>LP_PiercingHitObject_02</v>
+            <v>LP_AtkLow_03</v>
           </cell>
           <cell r="B14" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>LP_AtkLow</v>
           </cell>
           <cell r="C14" t="str">
             <v/>
           </cell>
           <cell r="D14">
+            <v>3</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v/>
+          </cell>
+          <cell r="I14">
+            <v>-1</v>
+          </cell>
+          <cell r="J14">
+            <v>0.3</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W14" t="str">
+            <v>NormalMonsterDamageDecreaseAddRate</v>
+          </cell>
+          <cell r="Y14" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="Z14">
+            <v>17</v>
+          </cell>
+          <cell r="AA14">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>LP_AtkLow_04</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>LP_AtkLow</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v/>
+          </cell>
+          <cell r="D15">
+            <v>4</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v/>
+          </cell>
+          <cell r="I15">
+            <v>-1</v>
+          </cell>
+          <cell r="J15">
+            <v>0.4</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W15" t="str">
+            <v>BossMonsterDamageIncreaseAddRate</v>
+          </cell>
+          <cell r="Y15" t="str">
+            <v>AttackDelay</v>
+          </cell>
+          <cell r="Z15">
             <v>2</v>
           </cell>
-          <cell r="E14" t="str">
-            <v>PiercingHitObject</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v/>
-          </cell>
-          <cell r="M14">
+          <cell r="AA15">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>LP_AtkLow_05</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>LP_AtkLow</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v/>
+          </cell>
+          <cell r="D16">
+            <v>5</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v/>
+          </cell>
+          <cell r="I16">
+            <v>-1</v>
+          </cell>
+          <cell r="J16">
+            <v>0.5</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W16" t="str">
+            <v>BossMonsterDamageDecreaseAddRate</v>
+          </cell>
+          <cell r="Y16" t="str">
+            <v>EvadeRate</v>
+          </cell>
+          <cell r="Z16">
+            <v>4</v>
+          </cell>
+          <cell r="AA16">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>LP_AtkLow_06</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>LP_AtkLow</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v/>
+          </cell>
+          <cell r="D17">
+            <v>6</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v/>
+          </cell>
+          <cell r="I17">
+            <v>-1</v>
+          </cell>
+          <cell r="J17">
+            <v>0.6</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W17" t="str">
+            <v>PowerSourceHealAddRate</v>
+          </cell>
+          <cell r="Y17" t="str">
+            <v>MoveSpeed</v>
+          </cell>
+          <cell r="Z17">
+            <v>5</v>
+          </cell>
+          <cell r="AA17">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>LP_AtkLow_07</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>LP_AtkLow</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v/>
+          </cell>
+          <cell r="D18">
+            <v>7</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v/>
+          </cell>
+          <cell r="I18">
+            <v>-1</v>
+          </cell>
+          <cell r="J18">
+            <v>0.7</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O18" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W18" t="str">
+            <v>SwapHealAddRate</v>
+          </cell>
+          <cell r="Y18" t="str">
+            <v>Attack</v>
+          </cell>
+          <cell r="Z18">
+            <v>1</v>
+          </cell>
+          <cell r="AA18">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>LP_AtkLow_08</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>LP_AtkLow</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v/>
+          </cell>
+          <cell r="D19">
+            <v>8</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v/>
+          </cell>
+          <cell r="I19">
+            <v>-1</v>
+          </cell>
+          <cell r="J19">
+            <v>0.8</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O19" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W19" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="Y19" t="str">
+            <v>MaxHp</v>
+          </cell>
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+          <cell r="AA19">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LP_AtkLow_09</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>LP_AtkLow</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v/>
+          </cell>
+          <cell r="D20">
+            <v>9</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v/>
+          </cell>
+          <cell r="I20">
+            <v>-1</v>
+          </cell>
+          <cell r="J20">
+            <v>0.9</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>18</v>
+          </cell>
+          <cell r="W20" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="Y20" t="str">
+            <v>MaxSp</v>
+          </cell>
+          <cell r="Z20">
+            <v>6</v>
+          </cell>
+          <cell r="AA20">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>LP_AtkMedium_01</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v/>
+          </cell>
+          <cell r="D21">
+            <v>1</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v/>
+          </cell>
+          <cell r="I21">
+            <v>-1</v>
+          </cell>
+          <cell r="J21">
+            <v>0.2</v>
+          </cell>
+          <cell r="M21" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>LP_AtkMedium_02</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v/>
+          </cell>
+          <cell r="D22">
             <v>2</v>
           </cell>
-          <cell r="P14" t="str">
-            <v>0.95,0.9</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>리코셰</v>
-          </cell>
-          <cell r="D16">
+          <cell r="E22" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v/>
+          </cell>
+          <cell r="I22">
+            <v>-1</v>
+          </cell>
+          <cell r="J22">
+            <v>0.4</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>LP_AtkMedium_03</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v/>
+          </cell>
+          <cell r="D23">
+            <v>3</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v/>
+          </cell>
+          <cell r="I23">
+            <v>-1</v>
+          </cell>
+          <cell r="J23">
+            <v>0.6</v>
+          </cell>
+          <cell r="M23" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O23" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>LP_AtkMedium_04</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v/>
+          </cell>
+          <cell r="D24">
+            <v>4</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v/>
+          </cell>
+          <cell r="I24">
+            <v>-1</v>
+          </cell>
+          <cell r="J24">
+            <v>0.8</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O24" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>LP_AtkMedium_05</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v/>
+          </cell>
+          <cell r="D25">
+            <v>5</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v/>
+          </cell>
+          <cell r="I25">
+            <v>-1</v>
+          </cell>
+          <cell r="J25">
             <v>1</v>
           </cell>
-          <cell r="M16">
+          <cell r="M25" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O25" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>LP_AtkMedium_06</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v/>
+          </cell>
+          <cell r="D26">
+            <v>6</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v/>
+          </cell>
+          <cell r="I26">
+            <v>-1</v>
+          </cell>
+          <cell r="J26">
+            <v>1.2</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O26" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>LP_AtkMedium_07</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v/>
+          </cell>
+          <cell r="D27">
+            <v>7</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v/>
+          </cell>
+          <cell r="I27">
+            <v>-1</v>
+          </cell>
+          <cell r="J27">
+            <v>1.4</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>LP_AtkMedium_08</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v/>
+          </cell>
+          <cell r="D28">
+            <v>8</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v/>
+          </cell>
+          <cell r="I28">
+            <v>-1</v>
+          </cell>
+          <cell r="J28">
+            <v>1.6</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>LP_AtkMedium_09</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>LP_AtkMedium</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v/>
+          </cell>
+          <cell r="D29">
+            <v>9</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v/>
+          </cell>
+          <cell r="I29">
+            <v>-1</v>
+          </cell>
+          <cell r="J29">
+            <v>1.8</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>LP_AtkHigh_01</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>LP_AtkHigh</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v/>
+          </cell>
+          <cell r="D30">
+            <v>1</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v/>
+          </cell>
+          <cell r="I30">
+            <v>-1</v>
+          </cell>
+          <cell r="J30">
+            <v>0.5</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>AttackAddRate</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>LP_AtkSpeedLow_01</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v/>
+          </cell>
+          <cell r="D31">
+            <v>1</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v/>
+          </cell>
+          <cell r="I31">
+            <v>-1</v>
+          </cell>
+          <cell r="J31">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+          <cell r="M31" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O31" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>LP_AtkSpeedLow_02</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v/>
+          </cell>
+          <cell r="D32">
             <v>2</v>
           </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>리코셰</v>
-          </cell>
-          <cell r="D17">
+          <cell r="E32" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v/>
+          </cell>
+          <cell r="I32">
+            <v>-1</v>
+          </cell>
+          <cell r="J32">
+            <v>0.17</v>
+          </cell>
+          <cell r="M32" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O32" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>LP_AtkSpeedLow_03</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v/>
+          </cell>
+          <cell r="D33">
+            <v>3</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v/>
+          </cell>
+          <cell r="I33">
+            <v>-1</v>
+          </cell>
+          <cell r="J33">
+            <v>0.255</v>
+          </cell>
+          <cell r="M33" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O33" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>LP_AtkSpeedLow_04</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v/>
+          </cell>
+          <cell r="D34">
+            <v>4</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v/>
+          </cell>
+          <cell r="I34">
+            <v>-1</v>
+          </cell>
+          <cell r="J34">
+            <v>0.34</v>
+          </cell>
+          <cell r="M34" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O34" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>LP_AtkSpeedLow_05</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v/>
+          </cell>
+          <cell r="D35">
+            <v>5</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v/>
+          </cell>
+          <cell r="I35">
+            <v>-1</v>
+          </cell>
+          <cell r="J35">
+            <v>0.42500000000000004</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>LP_AtkSpeedLow_06</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v/>
+          </cell>
+          <cell r="D36">
+            <v>6</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v/>
+          </cell>
+          <cell r="I36">
+            <v>-1</v>
+          </cell>
+          <cell r="J36">
+            <v>0.51</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>LP_AtkSpeedLow_07</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v/>
+          </cell>
+          <cell r="D37">
+            <v>7</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v/>
+          </cell>
+          <cell r="I37">
+            <v>-1</v>
+          </cell>
+          <cell r="J37">
+            <v>0.59499999999999997</v>
+          </cell>
+          <cell r="M37" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O37" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>LP_AtkSpeedLow_08</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v/>
+          </cell>
+          <cell r="D38">
+            <v>8</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v/>
+          </cell>
+          <cell r="I38">
+            <v>-1</v>
+          </cell>
+          <cell r="J38">
+            <v>0.67999999999999994</v>
+          </cell>
+          <cell r="M38" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O38" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>LP_AtkSpeedLow_09</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>LP_AtkSpeedLow</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v/>
+          </cell>
+          <cell r="D39">
+            <v>9</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v/>
+          </cell>
+          <cell r="I39">
+            <v>-1</v>
+          </cell>
+          <cell r="J39">
+            <v>0.7649999999999999</v>
+          </cell>
+          <cell r="M39" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O39" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>LP_AtkSpeedMedium_01</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v/>
+          </cell>
+          <cell r="D40">
+            <v>1</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v/>
+          </cell>
+          <cell r="I40">
+            <v>-1</v>
+          </cell>
+          <cell r="J40">
+            <v>0.17</v>
+          </cell>
+          <cell r="M40" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O40" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>LP_AtkSpeedMedium_02</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v/>
+          </cell>
+          <cell r="D41">
             <v>2</v>
           </cell>
-          <cell r="M17">
+          <cell r="E41" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v/>
+          </cell>
+          <cell r="I41">
+            <v>-1</v>
+          </cell>
+          <cell r="J41">
+            <v>0.34</v>
+          </cell>
+          <cell r="M41" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O41" t="str">
             <v>3</v>
           </cell>
         </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>LP_AtkSpeedMedium_03</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v/>
+          </cell>
+          <cell r="D42">
+            <v>3</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v/>
+          </cell>
+          <cell r="I42">
+            <v>-1</v>
+          </cell>
+          <cell r="J42">
+            <v>0.51</v>
+          </cell>
+          <cell r="M42" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>LP_AtkSpeedMedium_04</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v/>
+          </cell>
+          <cell r="D43">
+            <v>4</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v/>
+          </cell>
+          <cell r="I43">
+            <v>-1</v>
+          </cell>
+          <cell r="J43">
+            <v>0.68</v>
+          </cell>
+          <cell r="M43" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O43" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>LP_AtkSpeedMedium_05</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v/>
+          </cell>
+          <cell r="D44">
+            <v>5</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v/>
+          </cell>
+          <cell r="I44">
+            <v>-1</v>
+          </cell>
+          <cell r="J44">
+            <v>0.85</v>
+          </cell>
+          <cell r="M44" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O44" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>LP_AtkSpeedMedium_06</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v/>
+          </cell>
+          <cell r="D45">
+            <v>6</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H45" t="str">
+            <v/>
+          </cell>
+          <cell r="I45">
+            <v>-1</v>
+          </cell>
+          <cell r="J45">
+            <v>1.02</v>
+          </cell>
+          <cell r="M45" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O45" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>LP_AtkSpeedMedium_07</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v/>
+          </cell>
+          <cell r="D46">
+            <v>7</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v/>
+          </cell>
+          <cell r="I46">
+            <v>-1</v>
+          </cell>
+          <cell r="J46">
+            <v>1.19</v>
+          </cell>
+          <cell r="M46" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O46" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>LP_AtkSpeedMedium_08</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v/>
+          </cell>
+          <cell r="D47">
+            <v>8</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v/>
+          </cell>
+          <cell r="I47">
+            <v>-1</v>
+          </cell>
+          <cell r="J47">
+            <v>1.36</v>
+          </cell>
+          <cell r="M47" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O47" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>LP_AtkSpeedMedium_09</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>LP_AtkSpeedMedium</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v/>
+          </cell>
+          <cell r="D48">
+            <v>9</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v/>
+          </cell>
+          <cell r="I48">
+            <v>-1</v>
+          </cell>
+          <cell r="J48">
+            <v>1.53</v>
+          </cell>
+          <cell r="M48" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O48" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>LP_AtkSpeedHigh_01</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>LP_AtkSpeedHigh</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v/>
+          </cell>
+          <cell r="D49">
+            <v>1</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v/>
+          </cell>
+          <cell r="I49">
+            <v>-1</v>
+          </cell>
+          <cell r="J49">
+            <v>0.42500000000000004</v>
+          </cell>
+          <cell r="M49" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>LP_CritLow_01</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v/>
+          </cell>
+          <cell r="D50">
+            <v>1</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v/>
+          </cell>
+          <cell r="I50">
+            <v>-1</v>
+          </cell>
+          <cell r="J50">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+          <cell r="M50" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O50" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>LP_CritLow_02</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v/>
+          </cell>
+          <cell r="D51">
+            <v>2</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v/>
+          </cell>
+          <cell r="I51">
+            <v>-1</v>
+          </cell>
+          <cell r="J51">
+            <v>0.15</v>
+          </cell>
+          <cell r="M51" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O51" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>LP_CritLow_03</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v/>
+          </cell>
+          <cell r="D52">
+            <v>3</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v/>
+          </cell>
+          <cell r="I52">
+            <v>-1</v>
+          </cell>
+          <cell r="J52">
+            <v>0.22500000000000001</v>
+          </cell>
+          <cell r="M52" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O52" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>LP_CritLow_04</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v/>
+          </cell>
+          <cell r="D53">
+            <v>4</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v/>
+          </cell>
+          <cell r="I53">
+            <v>-1</v>
+          </cell>
+          <cell r="J53">
+            <v>0.3</v>
+          </cell>
+          <cell r="M53" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O53" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>LP_CritLow_05</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v/>
+          </cell>
+          <cell r="D54">
+            <v>5</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v/>
+          </cell>
+          <cell r="I54">
+            <v>-1</v>
+          </cell>
+          <cell r="J54">
+            <v>0.375</v>
+          </cell>
+          <cell r="M54" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O54" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>LP_CritLow_06</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v/>
+          </cell>
+          <cell r="D55">
+            <v>6</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v/>
+          </cell>
+          <cell r="I55">
+            <v>-1</v>
+          </cell>
+          <cell r="J55">
+            <v>0.45</v>
+          </cell>
+          <cell r="M55" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O55" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>LP_CritLow_07</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v/>
+          </cell>
+          <cell r="D56">
+            <v>7</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v/>
+          </cell>
+          <cell r="I56">
+            <v>-1</v>
+          </cell>
+          <cell r="J56">
+            <v>0.52500000000000002</v>
+          </cell>
+          <cell r="M56" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O56" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>LP_CritLow_08</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v/>
+          </cell>
+          <cell r="D57">
+            <v>8</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v/>
+          </cell>
+          <cell r="I57">
+            <v>-1</v>
+          </cell>
+          <cell r="J57">
+            <v>0.6</v>
+          </cell>
+          <cell r="M57" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O57" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>LP_CritLow_09</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>LP_CritLow</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v/>
+          </cell>
+          <cell r="D58">
+            <v>9</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v/>
+          </cell>
+          <cell r="I58">
+            <v>-1</v>
+          </cell>
+          <cell r="J58">
+            <v>0.67500000000000004</v>
+          </cell>
+          <cell r="M58" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O58" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>LP_CritMedium_01</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>LP_CritMedium</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v/>
+          </cell>
+          <cell r="D59">
+            <v>1</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v/>
+          </cell>
+          <cell r="I59">
+            <v>-1</v>
+          </cell>
+          <cell r="J59">
+            <v>0.15</v>
+          </cell>
+          <cell r="M59" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O59" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>LP_CritMedium_02</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>LP_CritMedium</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v/>
+          </cell>
+          <cell r="D60">
+            <v>2</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v/>
+          </cell>
+          <cell r="I60">
+            <v>-1</v>
+          </cell>
+          <cell r="J60">
+            <v>0.3</v>
+          </cell>
+          <cell r="M60" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O60" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>LP_CritMedium_03</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>LP_CritMedium</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v/>
+          </cell>
+          <cell r="D61">
+            <v>3</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v/>
+          </cell>
+          <cell r="I61">
+            <v>-1</v>
+          </cell>
+          <cell r="J61">
+            <v>0.45</v>
+          </cell>
+          <cell r="M61" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O61" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>LP_CritMedium_04</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>LP_CritMedium</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v/>
+          </cell>
+          <cell r="D62">
+            <v>4</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v/>
+          </cell>
+          <cell r="I62">
+            <v>-1</v>
+          </cell>
+          <cell r="J62">
+            <v>0.6</v>
+          </cell>
+          <cell r="M62" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O62" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>LP_CritMedium_05</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>LP_CritMedium</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v/>
+          </cell>
+          <cell r="D63">
+            <v>5</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v/>
+          </cell>
+          <cell r="I63">
+            <v>-1</v>
+          </cell>
+          <cell r="J63">
+            <v>0.75</v>
+          </cell>
+          <cell r="M63" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O63" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>LP_CritHigh_01</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>LP_CritHigh</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v/>
+          </cell>
+          <cell r="D64">
+            <v>1</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v/>
+          </cell>
+          <cell r="I64">
+            <v>-1</v>
+          </cell>
+          <cell r="J64">
+            <v>0.375</v>
+          </cell>
+          <cell r="M64" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O64" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>LP_CritDmgLow_01</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v/>
+          </cell>
+          <cell r="D65">
+            <v>1</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H65" t="str">
+            <v/>
+          </cell>
+          <cell r="I65">
+            <v>-1</v>
+          </cell>
+          <cell r="J65">
+            <v>0.25</v>
+          </cell>
+          <cell r="M65" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O65" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>LP_CritDmgLow_02</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v/>
+          </cell>
+          <cell r="D66">
+            <v>2</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H66" t="str">
+            <v/>
+          </cell>
+          <cell r="I66">
+            <v>-1</v>
+          </cell>
+          <cell r="J66">
+            <v>0.25</v>
+          </cell>
+          <cell r="M66" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O66" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>LP_CritDmgLow_03</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v/>
+          </cell>
+          <cell r="D67">
+            <v>3</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v/>
+          </cell>
+          <cell r="I67">
+            <v>-1</v>
+          </cell>
+          <cell r="J67">
+            <v>0.5</v>
+          </cell>
+          <cell r="M67" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O67" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>LP_CritDmgLow_04</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v/>
+          </cell>
+          <cell r="D68">
+            <v>4</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v/>
+          </cell>
+          <cell r="I68">
+            <v>-1</v>
+          </cell>
+          <cell r="J68">
+            <v>0.5</v>
+          </cell>
+          <cell r="M68" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O68" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>LP_CritDmgLow_05</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v/>
+          </cell>
+          <cell r="D69">
+            <v>5</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H69" t="str">
+            <v/>
+          </cell>
+          <cell r="I69">
+            <v>-1</v>
+          </cell>
+          <cell r="J69">
+            <v>0.75</v>
+          </cell>
+          <cell r="M69" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O69" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>LP_CritDmgLow_06</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v/>
+          </cell>
+          <cell r="D70">
+            <v>6</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H70" t="str">
+            <v/>
+          </cell>
+          <cell r="I70">
+            <v>-1</v>
+          </cell>
+          <cell r="J70">
+            <v>0.75</v>
+          </cell>
+          <cell r="M70" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O70" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>LP_CritDmgLow_07</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v/>
+          </cell>
+          <cell r="D71">
+            <v>7</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H71" t="str">
+            <v/>
+          </cell>
+          <cell r="I71">
+            <v>-1</v>
+          </cell>
+          <cell r="J71">
+            <v>0.75</v>
+          </cell>
+          <cell r="M71" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O71" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>LP_CritDmgLow_08</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v/>
+          </cell>
+          <cell r="D72">
+            <v>8</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H72" t="str">
+            <v/>
+          </cell>
+          <cell r="I72">
+            <v>-1</v>
+          </cell>
+          <cell r="J72">
+            <v>1</v>
+          </cell>
+          <cell r="M72" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O72" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>LP_CritDmgLow_09</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>LP_CritDmgLow</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v/>
+          </cell>
+          <cell r="D73">
+            <v>9</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H73" t="str">
+            <v/>
+          </cell>
+          <cell r="I73">
+            <v>-1</v>
+          </cell>
+          <cell r="J73">
+            <v>1</v>
+          </cell>
+          <cell r="M73" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O73" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>LP_CritDmgMedium_01</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>LP_CritDmgMedium</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v/>
+          </cell>
+          <cell r="D74">
+            <v>1</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H74" t="str">
+            <v/>
+          </cell>
+          <cell r="I74">
+            <v>-1</v>
+          </cell>
+          <cell r="J74">
+            <v>0.25</v>
+          </cell>
+          <cell r="M74" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O74" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>LP_CritDmgMedium_02</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>LP_CritDmgMedium</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v/>
+          </cell>
+          <cell r="D75">
+            <v>2</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H75" t="str">
+            <v/>
+          </cell>
+          <cell r="I75">
+            <v>-1</v>
+          </cell>
+          <cell r="J75">
+            <v>0.5</v>
+          </cell>
+          <cell r="M75" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O75" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>LP_CritDmgMedium_03</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>LP_CritDmgMedium</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v/>
+          </cell>
+          <cell r="D76">
+            <v>3</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H76" t="str">
+            <v/>
+          </cell>
+          <cell r="I76">
+            <v>-1</v>
+          </cell>
+          <cell r="J76">
+            <v>0.75</v>
+          </cell>
+          <cell r="M76" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O76" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>LP_CritDmgMedium_04</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>LP_CritDmgMedium</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v/>
+          </cell>
+          <cell r="D77">
+            <v>4</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H77" t="str">
+            <v/>
+          </cell>
+          <cell r="I77">
+            <v>-1</v>
+          </cell>
+          <cell r="J77">
+            <v>1</v>
+          </cell>
+          <cell r="M77" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O77" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>LP_CritDmgMedium_05</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>LP_CritDmgMedium</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v/>
+          </cell>
+          <cell r="D78">
+            <v>5</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H78" t="str">
+            <v/>
+          </cell>
+          <cell r="I78">
+            <v>-1</v>
+          </cell>
+          <cell r="J78">
+            <v>1</v>
+          </cell>
+          <cell r="M78" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O78" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>LP_CritDmgHigh_01</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>LP_CritDmgHigh</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v/>
+          </cell>
+          <cell r="D79">
+            <v>1</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H79" t="str">
+            <v/>
+          </cell>
+          <cell r="I79">
+            <v>-1</v>
+          </cell>
+          <cell r="J79">
+            <v>0.75</v>
+          </cell>
+          <cell r="M79" t="str">
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O79" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>LP_CritDmgLow_Crit_01</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v/>
+          </cell>
+          <cell r="D80">
+            <v>1</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H80" t="str">
+            <v/>
+          </cell>
+          <cell r="I80">
+            <v>-1</v>
+          </cell>
+          <cell r="J80">
+            <v>0.05</v>
+          </cell>
+          <cell r="M80" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O80" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>LP_CritDmgLow_Crit_02</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v/>
+          </cell>
+          <cell r="D81">
+            <v>2</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H81" t="str">
+            <v/>
+          </cell>
+          <cell r="I81">
+            <v>-1</v>
+          </cell>
+          <cell r="J81">
+            <v>0.1</v>
+          </cell>
+          <cell r="M81" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O81" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>LP_CritDmgLow_Crit_03</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v/>
+          </cell>
+          <cell r="D82">
+            <v>3</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H82" t="str">
+            <v/>
+          </cell>
+          <cell r="I82">
+            <v>-1</v>
+          </cell>
+          <cell r="J82">
+            <v>0.15</v>
+          </cell>
+          <cell r="M82" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O82" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>LP_CritDmgLow_Crit_04</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v/>
+          </cell>
+          <cell r="D83">
+            <v>4</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H83" t="str">
+            <v/>
+          </cell>
+          <cell r="I83">
+            <v>-1</v>
+          </cell>
+          <cell r="J83">
+            <v>0.2</v>
+          </cell>
+          <cell r="M83" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O83" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>LP_CritDmgLow_Crit_05</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v/>
+          </cell>
+          <cell r="D84">
+            <v>5</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H84" t="str">
+            <v/>
+          </cell>
+          <cell r="I84">
+            <v>-1</v>
+          </cell>
+          <cell r="J84">
+            <v>0.2</v>
+          </cell>
+          <cell r="M84" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O84" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>LP_CritDmgLow_Crit_06</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v/>
+          </cell>
+          <cell r="D85">
+            <v>6</v>
+          </cell>
+          <cell r="E85" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H85" t="str">
+            <v/>
+          </cell>
+          <cell r="I85">
+            <v>-1</v>
+          </cell>
+          <cell r="J85">
+            <v>0.25</v>
+          </cell>
+          <cell r="M85" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O85" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>LP_CritDmgLow_Crit_07</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v/>
+          </cell>
+          <cell r="D86">
+            <v>7</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H86" t="str">
+            <v/>
+          </cell>
+          <cell r="I86">
+            <v>-1</v>
+          </cell>
+          <cell r="J86">
+            <v>0.3</v>
+          </cell>
+          <cell r="M86" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O86" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>LP_CritDmgLow_Crit_08</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v/>
+          </cell>
+          <cell r="D87">
+            <v>8</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H87" t="str">
+            <v/>
+          </cell>
+          <cell r="I87">
+            <v>-1</v>
+          </cell>
+          <cell r="J87">
+            <v>0.3</v>
+          </cell>
+          <cell r="M87" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O87" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>LP_CritDmgLow_Crit_09</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>LP_CritDmgLow_Crit</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v/>
+          </cell>
+          <cell r="D88">
+            <v>9</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H88" t="str">
+            <v/>
+          </cell>
+          <cell r="I88">
+            <v>-1</v>
+          </cell>
+          <cell r="J88">
+            <v>0.35</v>
+          </cell>
+          <cell r="M88" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O88" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>LP_CritDmgMedium_Crit_01</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>LP_CritDmgMedium_Crit</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v/>
+          </cell>
+          <cell r="D89">
+            <v>1</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H89" t="str">
+            <v/>
+          </cell>
+          <cell r="I89">
+            <v>-1</v>
+          </cell>
+          <cell r="J89">
+            <v>0.1</v>
+          </cell>
+          <cell r="M89" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O89" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>LP_CritDmgMedium_Crit_02</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>LP_CritDmgMedium_Crit</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v/>
+          </cell>
+          <cell r="D90">
+            <v>2</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H90" t="str">
+            <v/>
+          </cell>
+          <cell r="I90">
+            <v>-1</v>
+          </cell>
+          <cell r="J90">
+            <v>0.2</v>
+          </cell>
+          <cell r="M90" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O90" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>LP_CritDmgMedium_Crit_03</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>LP_CritDmgMedium_Crit</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v/>
+          </cell>
+          <cell r="D91">
+            <v>3</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H91" t="str">
+            <v/>
+          </cell>
+          <cell r="I91">
+            <v>-1</v>
+          </cell>
+          <cell r="J91">
+            <v>0.25</v>
+          </cell>
+          <cell r="M91" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O91" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>LP_CritDmgMedium_Crit_04</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>LP_CritDmgMedium_Crit</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v/>
+          </cell>
+          <cell r="D92">
+            <v>4</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H92" t="str">
+            <v/>
+          </cell>
+          <cell r="I92">
+            <v>-1</v>
+          </cell>
+          <cell r="J92">
+            <v>0.3</v>
+          </cell>
+          <cell r="M92" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O92" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>LP_CritDmgMedium_Crit_05</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>LP_CritDmgMedium_Crit</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v/>
+          </cell>
+          <cell r="D93">
+            <v>5</v>
+          </cell>
+          <cell r="E93" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H93" t="str">
+            <v/>
+          </cell>
+          <cell r="I93">
+            <v>-1</v>
+          </cell>
+          <cell r="J93">
+            <v>0.4</v>
+          </cell>
+          <cell r="M93" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O93" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>LP_CritDmgHigh_Crit_01</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>LP_CritDmgHigh_Crit</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v/>
+          </cell>
+          <cell r="D94">
+            <v>1</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H94" t="str">
+            <v/>
+          </cell>
+          <cell r="I94">
+            <v>-1</v>
+          </cell>
+          <cell r="J94">
+            <v>0.2</v>
+          </cell>
+          <cell r="M94" t="str">
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O94" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>LP_MaxHpLow_01</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v/>
+          </cell>
+          <cell r="D95">
+            <v>1</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H95" t="str">
+            <v/>
+          </cell>
+          <cell r="I95">
+            <v>-1</v>
+          </cell>
+          <cell r="J95">
+            <v>0.1</v>
+          </cell>
+          <cell r="M95" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O95" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>LP_MaxHpLow_02</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v/>
+          </cell>
+          <cell r="D96">
+            <v>2</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H96" t="str">
+            <v/>
+          </cell>
+          <cell r="I96">
+            <v>-1</v>
+          </cell>
+          <cell r="J96">
+            <v>0.2</v>
+          </cell>
+          <cell r="M96" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O96" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>LP_MaxHpLow_03</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v/>
+          </cell>
+          <cell r="D97">
+            <v>3</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H97" t="str">
+            <v/>
+          </cell>
+          <cell r="I97">
+            <v>-1</v>
+          </cell>
+          <cell r="J97">
+            <v>0.3</v>
+          </cell>
+          <cell r="M97" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O97" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>LP_MaxHpLow_04</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v/>
+          </cell>
+          <cell r="D98">
+            <v>4</v>
+          </cell>
+          <cell r="E98" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H98" t="str">
+            <v/>
+          </cell>
+          <cell r="I98">
+            <v>-1</v>
+          </cell>
+          <cell r="J98">
+            <v>0.4</v>
+          </cell>
+          <cell r="M98" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O98" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>LP_MaxHpLow_05</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v/>
+          </cell>
+          <cell r="D99">
+            <v>5</v>
+          </cell>
+          <cell r="E99" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H99" t="str">
+            <v/>
+          </cell>
+          <cell r="I99">
+            <v>-1</v>
+          </cell>
+          <cell r="J99">
+            <v>0.5</v>
+          </cell>
+          <cell r="M99" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O99" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>LP_MaxHpLow_06</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v/>
+          </cell>
+          <cell r="D100">
+            <v>6</v>
+          </cell>
+          <cell r="E100" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H100" t="str">
+            <v/>
+          </cell>
+          <cell r="I100">
+            <v>-1</v>
+          </cell>
+          <cell r="J100">
+            <v>0.6</v>
+          </cell>
+          <cell r="M100" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O100" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>LP_MaxHpLow_07</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v/>
+          </cell>
+          <cell r="D101">
+            <v>7</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H101" t="str">
+            <v/>
+          </cell>
+          <cell r="I101">
+            <v>-1</v>
+          </cell>
+          <cell r="J101">
+            <v>0.7</v>
+          </cell>
+          <cell r="M101" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O101" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>LP_MaxHpLow_08</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v/>
+          </cell>
+          <cell r="D102">
+            <v>8</v>
+          </cell>
+          <cell r="E102" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H102" t="str">
+            <v/>
+          </cell>
+          <cell r="I102">
+            <v>-1</v>
+          </cell>
+          <cell r="J102">
+            <v>0.8</v>
+          </cell>
+          <cell r="M102" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O102" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>LP_MaxHpLow_09</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>LP_MaxHpLow</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v/>
+          </cell>
+          <cell r="D103">
+            <v>9</v>
+          </cell>
+          <cell r="E103" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H103" t="str">
+            <v/>
+          </cell>
+          <cell r="I103">
+            <v>-1</v>
+          </cell>
+          <cell r="J103">
+            <v>0.9</v>
+          </cell>
+          <cell r="M103" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O103" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>LP_MaxHpMedium_01</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v/>
+          </cell>
+          <cell r="D104">
+            <v>1</v>
+          </cell>
+          <cell r="E104" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H104" t="str">
+            <v/>
+          </cell>
+          <cell r="I104">
+            <v>-1</v>
+          </cell>
+          <cell r="J104">
+            <v>0.2</v>
+          </cell>
+          <cell r="M104" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O104" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>LP_MaxHpMedium_02</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v/>
+          </cell>
+          <cell r="D105">
+            <v>2</v>
+          </cell>
+          <cell r="E105" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H105" t="str">
+            <v/>
+          </cell>
+          <cell r="I105">
+            <v>-1</v>
+          </cell>
+          <cell r="J105">
+            <v>0.4</v>
+          </cell>
+          <cell r="M105" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O105" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>LP_MaxHpMedium_03</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v/>
+          </cell>
+          <cell r="D106">
+            <v>3</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H106" t="str">
+            <v/>
+          </cell>
+          <cell r="I106">
+            <v>-1</v>
+          </cell>
+          <cell r="J106">
+            <v>0.6</v>
+          </cell>
+          <cell r="M106" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O106" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>LP_MaxHpMedium_04</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v/>
+          </cell>
+          <cell r="D107">
+            <v>4</v>
+          </cell>
+          <cell r="E107" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H107" t="str">
+            <v/>
+          </cell>
+          <cell r="I107">
+            <v>-1</v>
+          </cell>
+          <cell r="J107">
+            <v>0.8</v>
+          </cell>
+          <cell r="M107" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O107" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>LP_MaxHpMedium_05</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v/>
+          </cell>
+          <cell r="D108">
+            <v>5</v>
+          </cell>
+          <cell r="E108" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H108" t="str">
+            <v/>
+          </cell>
+          <cell r="I108">
+            <v>-1</v>
+          </cell>
+          <cell r="J108">
+            <v>1</v>
+          </cell>
+          <cell r="M108" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O108" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>LP_MaxHpMedium_06</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v/>
+          </cell>
+          <cell r="D109">
+            <v>6</v>
+          </cell>
+          <cell r="E109" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H109" t="str">
+            <v/>
+          </cell>
+          <cell r="I109">
+            <v>-1</v>
+          </cell>
+          <cell r="J109">
+            <v>1.2</v>
+          </cell>
+          <cell r="M109" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O109" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>LP_MaxHpMedium_07</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v/>
+          </cell>
+          <cell r="D110">
+            <v>7</v>
+          </cell>
+          <cell r="E110" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H110" t="str">
+            <v/>
+          </cell>
+          <cell r="I110">
+            <v>-1</v>
+          </cell>
+          <cell r="J110">
+            <v>1.4</v>
+          </cell>
+          <cell r="M110" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O110" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>LP_MaxHpMedium_08</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v/>
+          </cell>
+          <cell r="D111">
+            <v>8</v>
+          </cell>
+          <cell r="E111" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H111" t="str">
+            <v/>
+          </cell>
+          <cell r="I111">
+            <v>-1</v>
+          </cell>
+          <cell r="J111">
+            <v>1.6</v>
+          </cell>
+          <cell r="M111" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O111" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>LP_MaxHpMedium_09</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>LP_MaxHpMedium</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v/>
+          </cell>
+          <cell r="D112">
+            <v>9</v>
+          </cell>
+          <cell r="E112" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H112" t="str">
+            <v/>
+          </cell>
+          <cell r="I112">
+            <v>-1</v>
+          </cell>
+          <cell r="J112">
+            <v>1.8</v>
+          </cell>
+          <cell r="M112" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O112" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>LP_MaxHpHigh_01</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>LP_MaxHpHigh</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v/>
+          </cell>
+          <cell r="D113">
+            <v>1</v>
+          </cell>
+          <cell r="E113" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H113" t="str">
+            <v/>
+          </cell>
+          <cell r="I113">
+            <v>-1</v>
+          </cell>
+          <cell r="J113">
+            <v>0.3</v>
+          </cell>
+          <cell r="M113" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O113" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>LP_MaxHpHigh_02</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>LP_MaxHpHigh</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v/>
+          </cell>
+          <cell r="D114">
+            <v>2</v>
+          </cell>
+          <cell r="E114" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H114" t="str">
+            <v/>
+          </cell>
+          <cell r="I114">
+            <v>-1</v>
+          </cell>
+          <cell r="J114">
+            <v>0.6</v>
+          </cell>
+          <cell r="M114" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O114" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>LP_MaxHpHigh_03</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>LP_MaxHpHigh</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v/>
+          </cell>
+          <cell r="D115">
+            <v>3</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H115" t="str">
+            <v/>
+          </cell>
+          <cell r="I115">
+            <v>-1</v>
+          </cell>
+          <cell r="J115">
+            <v>0.85</v>
+          </cell>
+          <cell r="M115" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O115" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>LP_MaxHpHigh_04</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>LP_MaxHpHigh</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v/>
+          </cell>
+          <cell r="D116">
+            <v>4</v>
+          </cell>
+          <cell r="E116" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H116" t="str">
+            <v/>
+          </cell>
+          <cell r="I116">
+            <v>-1</v>
+          </cell>
+          <cell r="J116">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="M116" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O116" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>LP_MaxHpHigh_05</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>LP_MaxHpHigh</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v/>
+          </cell>
+          <cell r="D117">
+            <v>5</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="H117" t="str">
+            <v/>
+          </cell>
+          <cell r="I117">
+            <v>-1</v>
+          </cell>
+          <cell r="J117">
+            <v>1.35</v>
+          </cell>
+          <cell r="M117" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O117" t="str">
+            <v>17</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1964,39 +5624,6 @@
             <v>In progress of translating…(63)</v>
           </cell>
         </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>LevelPackUIDesc_DmgDecreaseLow</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>대미지경감율을 소량 올립니다</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>In progress of translating…(64)</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>LevelPackUIDesc_DmgDecreaseMedium</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>대미지경감율을 올립니다</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>In progress of translating…(65)</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>LevelPackUIDesc_DmgDecreaseHigh</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>대미지경감율을 대폭 올립니다</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>In progress of translating…(66)</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -2046,7 +5673,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2553,13 +6180,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2568,16 +6195,16 @@
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.875" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="7.375" style="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="31" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="17.125" style="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2613,10 +6240,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>24</v>
@@ -2630,14 +6257,17 @@
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>IF(C2,1,5)</f>
-        <v>5</v>
+        <f t="shared" ref="D2:D19" si="0">IF(C2,1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(ISBLANK(E2),"",
@@ -2657,10 +6287,10 @@
         <v/>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(ISBLANK(G2),"",
@@ -2677,7 +6307,7 @@
         <v>공격력을 소량 올립니다</v>
       </c>
       <c r="K2" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="b">
         <v>0</v>
@@ -2688,14 +6318,17 @@
         <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D22" si="0">IF(C3,1,5)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>IF(ISBLANK(E3),"",
@@ -2715,10 +6348,10 @@
         <v/>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>IF(ISBLANK(G3),"",
@@ -2746,7 +6379,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -2754,6 +6387,9 @@
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>IF(ISBLANK(E4),"",
@@ -2773,10 +6409,10 @@
         <v/>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>IF(ISBLANK(G4),"",
@@ -2799,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2807,7 +6443,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -2815,6 +6451,9 @@
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>IF(ISBLANK(E5),"",
@@ -2834,10 +6473,10 @@
         <v/>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>IF(ISBLANK(G5),"",
@@ -2854,13 +6493,13 @@
         <v>공격속도를 소량 올립니다</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2868,7 +6507,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -2876,6 +6515,9 @@
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>IF(ISBLANK(E6),"",
@@ -2895,10 +6537,10 @@
         <v/>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>IF(ISBLANK(G6),"",
@@ -2915,13 +6557,13 @@
         <v>공격속도를 올립니다</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2929,7 +6571,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -2937,6 +6579,9 @@
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>IF(ISBLANK(E7),"",
@@ -2956,10 +6601,10 @@
         <v/>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>IF(ISBLANK(G7),"",
@@ -2976,13 +6621,13 @@
         <v>공격속도를 대폭 올립니다</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2990,14 +6635,17 @@
         <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>IF(ISBLANK(E8),"",
@@ -3017,10 +6665,10 @@
         <v/>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IF(ISBLANK(G8),"",
@@ -3037,7 +6685,7 @@
         <v>크리티컬 확률을 소량 올립니다</v>
       </c>
       <c r="K8" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -3048,14 +6696,17 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>IF(ISBLANK(E9),"",
@@ -3075,10 +6726,10 @@
         <v/>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>IF(ISBLANK(G9),"",
@@ -3095,7 +6746,7 @@
         <v>크리티컬 확률을 올립니다</v>
       </c>
       <c r="K9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
@@ -3106,7 +6757,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -3114,6 +6765,9 @@
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>IF(ISBLANK(E10),"",
@@ -3133,10 +6787,10 @@
         <v/>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -3153,13 +6807,13 @@
         <v>크리티컬 확률을 대폭 올립니다</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3167,14 +6821,17 @@
         <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>IF(ISBLANK(E11),"",
@@ -3194,10 +6851,10 @@
         <v/>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -3214,7 +6871,7 @@
         <v>크리티컬 대미지를 소량 올립니다</v>
       </c>
       <c r="K11" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
@@ -3225,14 +6882,17 @@
         <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(ISBLANK(E12),"",
@@ -3252,10 +6912,10 @@
         <v/>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -3272,7 +6932,7 @@
         <v>크리티컬 대미지를 올립니다</v>
       </c>
       <c r="K12" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
@@ -3283,7 +6943,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>1</v>
@@ -3291,6 +6951,9 @@
       <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(ISBLANK(E13),"",
@@ -3310,10 +6973,10 @@
         <v/>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -3330,28 +6993,31 @@
         <v>크리티컬 대미지를 대폭 올립니다</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF(ISBLANK(E14),"",
@@ -3371,10 +7037,10 @@
         <v/>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -3391,7 +7057,7 @@
         <v>최대HP를 소량 올립니다</v>
       </c>
       <c r="K14" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L14" s="1" t="b">
         <v>0</v>
@@ -3402,14 +7068,17 @@
         <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15),"",
@@ -3429,10 +7098,10 @@
         <v/>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -3460,7 +7129,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -3468,6 +7137,9 @@
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(E16),"",
@@ -3487,10 +7159,10 @@
         <v/>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -3507,28 +7179,22 @@
         <v>최대HP를 대폭 올립니다</v>
       </c>
       <c r="K16" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>IF(ISBLANK(E17),"",
@@ -3548,45 +7214,16 @@
         <v/>
       </c>
       <c r="G17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f>IF(ISBLANK(G17),"",
-IFERROR(VLOOKUP(G17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>대미지 경감(소)</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(ISBLANK(H17),"",
-IFERROR(VLOOKUP(H17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(H17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>대미지경감율을 소량 올립니다</v>
-      </c>
-      <c r="K17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="1" t="b">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>IF(ISBLANK(E18),"",
@@ -3606,45 +7243,16 @@
         <v/>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f>IF(ISBLANK(G18),"",
-IFERROR(VLOOKUP(G18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>대미지 경감(중)</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f>IF(ISBLANK(H18),"",
-IFERROR(VLOOKUP(H18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(H18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>대미지경감율을 올립니다</v>
-      </c>
-      <c r="K18" s="1">
-        <v>9</v>
-      </c>
-      <c r="L18" s="1" t="b">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>IF(ISBLANK(E19),"",
@@ -3664,289 +7272,176 @@
         <v/>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>IF(ISBLANK(G19),"",
-IFERROR(VLOOKUP(G19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 대미지 경감(대)</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>IF(ISBLANK(H19),"",
-IFERROR(VLOOKUP(H19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(H19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>대미지경감율을 대폭 올립니다</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f>IF(ISBLANK(E20),"",
-IF(ISERROR(FIND(",",E20)),
-  IF(ISERROR(VLOOKUP(E20,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E20,FIND(",",E20)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,FIND(",",E20,FIND(",",E20)+1)-FIND(",",E20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E20,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,FIND(",",E20,FIND(",",E20)+1)-FIND(",",E20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20)+1)+1,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)-FIND(",",E20,FIND(",",E20)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-)))))</f>
-        <v/>
-      </c>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f>IF(ISBLANK(E21),"",
-IF(ISERROR(FIND(",",E21)),
-  IF(ISERROR(VLOOKUP(E21,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E21,FIND(",",E21)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,FIND(",",E21,FIND(",",E21)+1)-FIND(",",E21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E21,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,FIND(",",E21,FIND(",",E21)+1)-FIND(",",E21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21)+1)+1,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)-FIND(",",E21,FIND(",",E21)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-)))))</f>
-        <v/>
-      </c>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f>IF(ISBLANK(E22),"",
-IF(ISERROR(FIND(",",E22)),
-  IF(ISERROR(VLOOKUP(E22,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E22,FIND(",",E22)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,FIND(",",E22,FIND(",",E22)+1)-FIND(",",E22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E22,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,FIND(",",E22,FIND(",",E22)+1)-FIND(",",E22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22)+1)+1,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)-FIND(",",E22,FIND(",",E22)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-)))))</f>
-        <v/>
-      </c>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G54" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G55" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4107,7 +7602,7 @@
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK(VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
-        <v/>
+        <v>LP_AtkLow</v>
       </c>
       <c r="F2" t="str">
         <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
@@ -4118,7 +7613,7 @@
         <v>공격력을 소량 올립니다</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J2" t="str">
         <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEFFE3-3C3A-48B9-99B5-3C1441436613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C9F5C-DA0E-45D6-8A72-631900694D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -188,6 +188,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{314C38C5-0AA9-46F9-BF21-418F62513874}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -634,7 +695,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor001, Actor002, Actor003, Actor004</t>
+    <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +1045,8 @@
 우측 입력은 여기</v>
           </cell>
           <cell r="O2" t="str">
-            <v>스탯타입</v>
+            <v>스탯타입
+인자 좌측참고</v>
           </cell>
           <cell r="P2" t="str">
             <v>피격받아 종료할 지속횟수</v>
@@ -999,7 +1061,7 @@
             <v/>
           </cell>
           <cell r="T2" t="str">
-            <v>루프 지속 이펙트</v>
+            <v/>
           </cell>
           <cell r="U2" t="str">
             <v/>
@@ -4905,9 +4967,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5288,7 +5350,8 @@
             <v>LevelPackUIName_AtkHigh</v>
           </cell>
           <cell r="B33" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공격력(대)</v>
+            <v>공격력(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C33" t="str">
             <v>In progress of translating…(33)</v>
@@ -5299,7 +5362,8 @@
             <v>LevelPackUIName_AtkSpeedLow</v>
           </cell>
           <cell r="B34" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(소)</v>
+            <v>공속(소)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C34" t="str">
             <v>In progress of translating…(34)</v>
@@ -5310,7 +5374,8 @@
             <v>LevelPackUIName_AtkSpeedMedium</v>
           </cell>
           <cell r="B35" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(중)</v>
+            <v>공속(중)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C35" t="str">
             <v>In progress of translating…(35)</v>
@@ -5321,7 +5386,8 @@
             <v>LevelPackUIName_AtkSpeedHigh</v>
           </cell>
           <cell r="B36" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(대)</v>
+            <v>공속(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C36" t="str">
             <v>In progress of translating…(36)</v>
@@ -5354,7 +5420,8 @@
             <v>LevelPackUIName_CritHigh</v>
           </cell>
           <cell r="B39" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리(대)</v>
+            <v>크리(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C39" t="str">
             <v>In progress of translating…(39)</v>
@@ -5387,7 +5454,8 @@
             <v>LevelPackUIName_CritDmgHigh</v>
           </cell>
           <cell r="B42" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리댐(대)</v>
+            <v>크리댐(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C42" t="str">
             <v>In progress of translating…(42)</v>
@@ -5420,7 +5488,8 @@
             <v>LevelPackUIName_MaxHpHigh</v>
           </cell>
           <cell r="B45" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 최대HP 증가(대)</v>
+            <v>최대HP 증가(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
           <cell r="C45" t="str">
             <v>In progress of translating…(45)</v>
@@ -5428,10 +5497,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LevelPackUIName_DmgDecreaseLow</v>
+            <v>LevelPackUIDesc_AtkLow</v>
           </cell>
           <cell r="B46" t="str">
-            <v>대미지 경감(소)</v>
+            <v>공격력을 소량 올립니다</v>
           </cell>
           <cell r="C46" t="str">
             <v>In progress of translating…(46)</v>
@@ -5439,10 +5508,10 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LevelPackUIName_DmgDecreaseMedium</v>
+            <v>LevelPackUIDesc_AtkMedium</v>
           </cell>
           <cell r="B47" t="str">
-            <v>대미지 경감(중)</v>
+            <v>공격력을 올립니다</v>
           </cell>
           <cell r="C47" t="str">
             <v>In progress of translating…(47)</v>
@@ -5450,10 +5519,10 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LevelPackUIName_DmgDecreaseHigh</v>
+            <v>LevelPackUIDesc_AtkHigh</v>
           </cell>
           <cell r="B48" t="str">
-            <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 대미지 경감(대)</v>
+            <v>공격력을 대폭 올립니다</v>
           </cell>
           <cell r="C48" t="str">
             <v>In progress of translating…(48)</v>
@@ -5461,10 +5530,10 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LevelPackUIDesc_AtkLow</v>
+            <v>LevelPackUIDesc_AtkSpeedLow</v>
           </cell>
           <cell r="B49" t="str">
-            <v>공격력을 소량 올립니다</v>
+            <v>공격속도를 소량 올립니다</v>
           </cell>
           <cell r="C49" t="str">
             <v>In progress of translating…(49)</v>
@@ -5472,10 +5541,10 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LevelPackUIDesc_AtkMedium</v>
+            <v>LevelPackUIDesc_AtkSpeedMedium</v>
           </cell>
           <cell r="B50" t="str">
-            <v>공격력을 올립니다</v>
+            <v>공격속도를 올립니다</v>
           </cell>
           <cell r="C50" t="str">
             <v>In progress of translating…(50)</v>
@@ -5483,10 +5552,10 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LevelPackUIDesc_AtkHigh</v>
+            <v>LevelPackUIDesc_AtkSpeedHigh</v>
           </cell>
           <cell r="B51" t="str">
-            <v>공격력을 대폭 올립니다</v>
+            <v>공격속도를 대폭 올립니다</v>
           </cell>
           <cell r="C51" t="str">
             <v>In progress of translating…(51)</v>
@@ -5494,10 +5563,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LevelPackUIDesc_AtkSpeedLow</v>
+            <v>LevelPackUIDesc_CritLow</v>
           </cell>
           <cell r="B52" t="str">
-            <v>공격속도를 소량 올립니다</v>
+            <v>크리티컬 확률을 소량 올립니다</v>
           </cell>
           <cell r="C52" t="str">
             <v>In progress of translating…(52)</v>
@@ -5505,10 +5574,10 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LevelPackUIDesc_AtkSpeedMedium</v>
+            <v>LevelPackUIDesc_CritMedium</v>
           </cell>
           <cell r="B53" t="str">
-            <v>공격속도를 올립니다</v>
+            <v>크리티컬 확률을 올립니다</v>
           </cell>
           <cell r="C53" t="str">
             <v>In progress of translating…(53)</v>
@@ -5516,10 +5585,10 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LevelPackUIDesc_AtkSpeedHigh</v>
+            <v>LevelPackUIDesc_CritHigh</v>
           </cell>
           <cell r="B54" t="str">
-            <v>공격속도를 대폭 올립니다</v>
+            <v>크리티컬 확률을 대폭 올립니다</v>
           </cell>
           <cell r="C54" t="str">
             <v>In progress of translating…(54)</v>
@@ -5527,10 +5596,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LevelPackUIDesc_CritLow</v>
+            <v>LevelPackUIDesc_CritDmgLow</v>
           </cell>
           <cell r="B55" t="str">
-            <v>크리티컬 확률을 소량 올립니다</v>
+            <v>크리티컬 대미지를 소량 올립니다</v>
           </cell>
           <cell r="C55" t="str">
             <v>In progress of translating…(55)</v>
@@ -5538,10 +5607,10 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LevelPackUIDesc_CritMedium</v>
+            <v>LevelPackUIDesc_CritDmgMedium</v>
           </cell>
           <cell r="B56" t="str">
-            <v>크리티컬 확률을 올립니다</v>
+            <v>크리티컬 대미지를 올립니다</v>
           </cell>
           <cell r="C56" t="str">
             <v>In progress of translating…(56)</v>
@@ -5549,10 +5618,10 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LevelPackUIDesc_CritHigh</v>
+            <v>LevelPackUIDesc_CritDmgHigh</v>
           </cell>
           <cell r="B57" t="str">
-            <v>크리티컬 확률을 대폭 올립니다</v>
+            <v>크리티컬 대미지를 대폭 올립니다</v>
           </cell>
           <cell r="C57" t="str">
             <v>In progress of translating…(57)</v>
@@ -5560,10 +5629,10 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LevelPackUIDesc_CritDmgLow</v>
+            <v>LevelPackUIDesc_MaxHpLow</v>
           </cell>
           <cell r="B58" t="str">
-            <v>크리티컬 대미지를 소량 올립니다</v>
+            <v>최대HP를 소량 올립니다</v>
           </cell>
           <cell r="C58" t="str">
             <v>In progress of translating…(58)</v>
@@ -5571,10 +5640,10 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LevelPackUIDesc_CritDmgMedium</v>
+            <v>LevelPackUIDesc_MaxHpMedium</v>
           </cell>
           <cell r="B59" t="str">
-            <v>크리티컬 대미지를 올립니다</v>
+            <v>최대HP를 올립니다</v>
           </cell>
           <cell r="C59" t="str">
             <v>In progress of translating…(59)</v>
@@ -5582,46 +5651,13 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LevelPackUIDesc_CritDmgHigh</v>
+            <v>LevelPackUIDesc_MaxHpHigh</v>
           </cell>
           <cell r="B60" t="str">
-            <v>크리티컬 대미지를 대폭 올립니다</v>
+            <v>최대HP를 대폭 올립니다</v>
           </cell>
           <cell r="C60" t="str">
             <v>In progress of translating…(60)</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>LevelPackUIDesc_MaxHpLow</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>최대HP를 소량 올립니다</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>In progress of translating…(61)</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>LevelPackUIDesc_MaxHpMedium</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>최대HP를 올립니다</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>In progress of translating…(62)</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>LevelPackUIDesc_MaxHpHigh</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>최대HP를 대폭 올립니다</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>In progress of translating…(63)</v>
           </cell>
         </row>
       </sheetData>
@@ -5673,7 +5709,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6186,7 +6222,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6419,7 +6455,8 @@
 IFERROR(VLOOKUP(G4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공격력(대)</v>
+        <v>공격력(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>IF(ISBLANK(H4),"",
@@ -6483,7 +6520,8 @@
 IFERROR(VLOOKUP(G5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(소)</v>
+        <v>공속(소)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>IF(ISBLANK(H5),"",
@@ -6547,7 +6585,8 @@
 IFERROR(VLOOKUP(G6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(중)</v>
+        <v>공속(중)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>IF(ISBLANK(H6),"",
@@ -6611,7 +6650,8 @@
 IFERROR(VLOOKUP(G7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 공속(대)</v>
+        <v>공속(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>IF(ISBLANK(H7),"",
@@ -6797,7 +6837,8 @@
 IFERROR(VLOOKUP(G10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리(대)</v>
+        <v>크리(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>IF(ISBLANK(H10),"",
@@ -6983,7 +7024,8 @@
 IFERROR(VLOOKUP(G13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 크리댐(대)</v>
+        <v>크리댐(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>IF(ISBLANK(H13),"",
@@ -7169,7 +7211,8 @@
 IFERROR(VLOOKUP(G16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(G16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>&lt;color=#FF8800&gt;전용&lt;/color&gt; 최대HP 증가(대)</v>
+        <v>최대HP 증가(대)
+&lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>IF(ISBLANK(H16),"",

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C9F5C-DA0E-45D6-8A72-631900694D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51919E-7438-4D80-BD11-A0F930446E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,14 @@
   </si>
   <si>
     <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001, Actor004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor002, Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,6 +1023,7 @@
           <cell r="AA1" t="str">
             <v>len</v>
           </cell>
+          <cell r="AC1"/>
         </row>
         <row r="2">
           <cell r="E2" t="str">
@@ -1023,6 +1032,8 @@
           <cell r="F2" t="str">
             <v>액터스탯 변경</v>
           </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
@@ -6222,7 +6233,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6537,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -6602,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -7041,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51919E-7438-4D80-BD11-A0F930446E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0D665-35A5-47E5-A291-BCC2833B5CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -1023,7 +1023,6 @@
           <cell r="AA1" t="str">
             <v>len</v>
           </cell>
-          <cell r="AC1"/>
         </row>
         <row r="2">
           <cell r="E2" t="str">
@@ -1032,8 +1031,6 @@
           <cell r="F2" t="str">
             <v>액터스탯 변경</v>
           </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
@@ -6736,7 +6733,7 @@
         <v>크리티컬 확률을 소량 올립니다</v>
       </c>
       <c r="K8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -6797,7 +6794,7 @@
         <v>크리티컬 확률을 올립니다</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
@@ -6923,7 +6920,7 @@
         <v>크리티컬 대미지를 소량 올립니다</v>
       </c>
       <c r="K11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
@@ -6984,7 +6981,7 @@
         <v>크리티컬 대미지를 올립니다</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0D665-35A5-47E5-A291-BCC2833B5CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B2423-2D54-4C29-8725-1334469234A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -254,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,30 +354,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>골드 획득량 증가</t>
-  </si>
-  <si>
-    <t>레어 아이템 획득량 증가</t>
-  </si>
-  <si>
-    <t>하트의 드랍 확률 증가</t>
-  </si>
-  <si>
     <t>피의 갈증(소)</t>
   </si>
   <si>
     <t>피의 갈증(대)</t>
   </si>
   <si>
-    <t>피어싱</t>
-  </si>
-  <si>
-    <t>리코셰</t>
-  </si>
-  <si>
-    <t>벽튕기기</t>
-  </si>
-  <si>
     <t>피의 복수(소)</t>
   </si>
   <si>
@@ -390,21 +373,6 @@
   </si>
   <si>
     <t>헤드샷(대)</t>
-  </si>
-  <si>
-    <t>전방 화살</t>
-  </si>
-  <si>
-    <t>사선 화살</t>
-  </si>
-  <si>
-    <t>측면 화살</t>
-  </si>
-  <si>
-    <t>후방 화살</t>
-  </si>
-  <si>
-    <t>멀티샷</t>
   </si>
   <si>
     <t>마비 효과</t>
@@ -704,6 +672,91 @@
   </si>
   <si>
     <t>Actor002, Actor003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ricochet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BounceWallQuad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterThrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftRightNwayGenerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackNwayGenerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtraGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemChanceBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealChanceBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiagonalNwayGenerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_ExtraGold</t>
+  </si>
+  <si>
+    <t>LP_ItemChanceBoost</t>
+  </si>
+  <si>
+    <t>LP_HealChanceBoost</t>
+  </si>
+  <si>
+    <t>LP_MonsterThrough</t>
+  </si>
+  <si>
+    <t>LP_Ricochet</t>
+  </si>
+  <si>
+    <t>LP_BounceWallQuad</t>
+  </si>
+  <si>
+    <t>LP_Parallel</t>
+  </si>
+  <si>
+    <t>LP_DiagonalNwayGenerator</t>
+  </si>
+  <si>
+    <t>LP_LeftRightNwayGenerator</t>
+  </si>
+  <si>
+    <t>LP_BackNwayGenerator</t>
+  </si>
+  <si>
+    <t>LP_Repeat</t>
+  </si>
+  <si>
+    <t>Actor002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,6 +998,61 @@
             <v>LP_MaxHpHigh</v>
           </cell>
         </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>LP_ExtraGold</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>LP_ItemChanceBoost</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>LP_HealChanceBoost</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>LP_MonsterThrough</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>LP_Ricochet</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>LP_BounceWallQuad</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>LP_Parallel</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>LP_DiagonalNwayGenerator</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>LP_LeftRightNwayGenerator</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>LP_BackNwayGenerator</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>LP_Repeat</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -1026,17 +1134,16 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="F2" t="str">
-            <v>액터스탯 변경</v>
+            <v>평타에 대각쌍 기능을 부여함</v>
           </cell>
           <cell r="I2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v/>
           </cell>
           <cell r="J2" t="str">
-            <v>변경할 수치</v>
+            <v/>
           </cell>
           <cell r="K2" t="str">
             <v/>
@@ -1045,19 +1152,17 @@
             <v/>
           </cell>
           <cell r="M2" t="str">
-            <v>스탯타입
-유효성 검사</v>
+            <v/>
           </cell>
           <cell r="N2" t="str">
             <v>오버라이딩
 우측 입력은 여기</v>
           </cell>
           <cell r="O2" t="str">
-            <v>스탯타입
-인자 좌측참고</v>
+            <v>대각쌍 추가개수</v>
           </cell>
           <cell r="P2" t="str">
-            <v>피격받아 종료할 지속횟수</v>
+            <v/>
           </cell>
           <cell r="Q2" t="str">
             <v/>
@@ -2821,7 +2926,7 @@
             <v>-1</v>
           </cell>
           <cell r="J50">
-            <v>7.4999999999999997E-2</v>
+            <v>0.15</v>
           </cell>
           <cell r="M50" t="str">
             <v>CriticalRate</v>
@@ -2853,7 +2958,7 @@
             <v>-1</v>
           </cell>
           <cell r="J51">
-            <v>0.15</v>
+            <v>0.3</v>
           </cell>
           <cell r="M51" t="str">
             <v>CriticalRate</v>
@@ -2885,7 +2990,7 @@
             <v>-1</v>
           </cell>
           <cell r="J52">
-            <v>0.22500000000000001</v>
+            <v>0.45</v>
           </cell>
           <cell r="M52" t="str">
             <v>CriticalRate</v>
@@ -2917,7 +3022,7 @@
             <v>-1</v>
           </cell>
           <cell r="J53">
-            <v>0.3</v>
+            <v>0.6</v>
           </cell>
           <cell r="M53" t="str">
             <v>CriticalRate</v>
@@ -2949,7 +3054,7 @@
             <v>-1</v>
           </cell>
           <cell r="J54">
-            <v>0.375</v>
+            <v>0.75</v>
           </cell>
           <cell r="M54" t="str">
             <v>CriticalRate</v>
@@ -2981,7 +3086,7 @@
             <v>-1</v>
           </cell>
           <cell r="J55">
-            <v>0.45</v>
+            <v>0.9</v>
           </cell>
           <cell r="M55" t="str">
             <v>CriticalRate</v>
@@ -2992,16 +3097,16 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LP_CritLow_07</v>
+            <v>LP_CritMedium_01</v>
           </cell>
           <cell r="B56" t="str">
-            <v>LP_CritLow</v>
+            <v>LP_CritMedium</v>
           </cell>
           <cell r="C56" t="str">
             <v/>
           </cell>
           <cell r="D56">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="E56" t="str">
             <v>ChangeActorStatus</v>
@@ -3013,7 +3118,7 @@
             <v>-1</v>
           </cell>
           <cell r="J56">
-            <v>0.52500000000000002</v>
+            <v>0.15</v>
           </cell>
           <cell r="M56" t="str">
             <v>CriticalRate</v>
@@ -3024,16 +3129,16 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LP_CritLow_08</v>
+            <v>LP_CritMedium_02</v>
           </cell>
           <cell r="B57" t="str">
-            <v>LP_CritLow</v>
+            <v>LP_CritMedium</v>
           </cell>
           <cell r="C57" t="str">
             <v/>
           </cell>
           <cell r="D57">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="E57" t="str">
             <v>ChangeActorStatus</v>
@@ -3045,7 +3150,7 @@
             <v>-1</v>
           </cell>
           <cell r="J57">
-            <v>0.6</v>
+            <v>0.45</v>
           </cell>
           <cell r="M57" t="str">
             <v>CriticalRate</v>
@@ -3056,16 +3161,16 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LP_CritLow_09</v>
+            <v>LP_CritMedium_03</v>
           </cell>
           <cell r="B58" t="str">
-            <v>LP_CritLow</v>
+            <v>LP_CritMedium</v>
           </cell>
           <cell r="C58" t="str">
             <v/>
           </cell>
           <cell r="D58">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="E58" t="str">
             <v>ChangeActorStatus</v>
@@ -3077,7 +3182,7 @@
             <v>-1</v>
           </cell>
           <cell r="J58">
-            <v>0.67500000000000004</v>
+            <v>0.75</v>
           </cell>
           <cell r="M58" t="str">
             <v>CriticalRate</v>
@@ -3088,10 +3193,10 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LP_CritMedium_01</v>
+            <v>LP_CritHigh_01</v>
           </cell>
           <cell r="B59" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritHigh</v>
           </cell>
           <cell r="C59" t="str">
             <v/>
@@ -3109,7 +3214,7 @@
             <v>-1</v>
           </cell>
           <cell r="J59">
-            <v>0.15</v>
+            <v>0.75</v>
           </cell>
           <cell r="M59" t="str">
             <v>CriticalRate</v>
@@ -3120,16 +3225,16 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LP_CritMedium_02</v>
+            <v>LP_CritDmgLow_01</v>
           </cell>
           <cell r="B60" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C60" t="str">
             <v/>
           </cell>
           <cell r="D60">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E60" t="str">
             <v>ChangeActorStatus</v>
@@ -3141,27 +3246,27 @@
             <v>-1</v>
           </cell>
           <cell r="J60">
-            <v>0.3</v>
+            <v>0.7</v>
           </cell>
           <cell r="M60" t="str">
-            <v>CriticalRate</v>
+            <v>CriticalDamageAddRate</v>
           </cell>
           <cell r="O60" t="str">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LP_CritMedium_03</v>
+            <v>LP_CritDmgLow_02</v>
           </cell>
           <cell r="B61" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C61" t="str">
             <v/>
           </cell>
           <cell r="D61">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E61" t="str">
             <v>ChangeActorStatus</v>
@@ -3173,27 +3278,27 @@
             <v>-1</v>
           </cell>
           <cell r="J61">
-            <v>0.45</v>
+            <v>0.9</v>
           </cell>
           <cell r="M61" t="str">
-            <v>CriticalRate</v>
+            <v>CriticalDamageAddRate</v>
           </cell>
           <cell r="O61" t="str">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LP_CritMedium_04</v>
+            <v>LP_CritDmgLow_03</v>
           </cell>
           <cell r="B62" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C62" t="str">
             <v/>
           </cell>
           <cell r="D62">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E62" t="str">
             <v>ChangeActorStatus</v>
@@ -3205,27 +3310,27 @@
             <v>-1</v>
           </cell>
           <cell r="J62">
-            <v>0.6</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M62" t="str">
-            <v>CriticalRate</v>
+            <v>CriticalDamageAddRate</v>
           </cell>
           <cell r="O62" t="str">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LP_CritMedium_05</v>
+            <v>LP_CritDmgLow_04</v>
           </cell>
           <cell r="B63" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C63" t="str">
             <v/>
           </cell>
           <cell r="D63">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E63" t="str">
             <v>ChangeActorStatus</v>
@@ -3237,27 +3342,27 @@
             <v>-1</v>
           </cell>
           <cell r="J63">
-            <v>0.75</v>
+            <v>1.3</v>
           </cell>
           <cell r="M63" t="str">
-            <v>CriticalRate</v>
+            <v>CriticalDamageAddRate</v>
           </cell>
           <cell r="O63" t="str">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LP_CritHigh_01</v>
+            <v>LP_CritDmgLow_05</v>
           </cell>
           <cell r="B64" t="str">
-            <v>LP_CritHigh</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C64" t="str">
             <v/>
           </cell>
           <cell r="D64">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E64" t="str">
             <v>ChangeActorStatus</v>
@@ -3269,18 +3374,18 @@
             <v>-1</v>
           </cell>
           <cell r="J64">
-            <v>0.375</v>
+            <v>1.5</v>
           </cell>
           <cell r="M64" t="str">
-            <v>CriticalRate</v>
+            <v>CriticalDamageAddRate</v>
           </cell>
           <cell r="O64" t="str">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>LP_CritDmgLow_01</v>
+            <v>LP_CritDmgLow_06</v>
           </cell>
           <cell r="B65" t="str">
             <v>LP_CritDmgLow</v>
@@ -3289,7 +3394,7 @@
             <v/>
           </cell>
           <cell r="D65">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E65" t="str">
             <v>ChangeActorStatus</v>
@@ -3301,7 +3406,7 @@
             <v>-1</v>
           </cell>
           <cell r="J65">
-            <v>0.25</v>
+            <v>1.7</v>
           </cell>
           <cell r="M65" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3312,7 +3417,7 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LP_CritDmgLow_02</v>
+            <v>LP_CritDmgLow_07</v>
           </cell>
           <cell r="B66" t="str">
             <v>LP_CritDmgLow</v>
@@ -3321,7 +3426,7 @@
             <v/>
           </cell>
           <cell r="D66">
-            <v>2</v>
+            <v>7</v>
           </cell>
           <cell r="E66" t="str">
             <v>ChangeActorStatus</v>
@@ -3333,7 +3438,7 @@
             <v>-1</v>
           </cell>
           <cell r="J66">
-            <v>0.25</v>
+            <v>1.9</v>
           </cell>
           <cell r="M66" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3344,7 +3449,7 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>LP_CritDmgLow_03</v>
+            <v>LP_CritDmgLow_08</v>
           </cell>
           <cell r="B67" t="str">
             <v>LP_CritDmgLow</v>
@@ -3353,7 +3458,7 @@
             <v/>
           </cell>
           <cell r="D67">
-            <v>3</v>
+            <v>8</v>
           </cell>
           <cell r="E67" t="str">
             <v>ChangeActorStatus</v>
@@ -3365,7 +3470,7 @@
             <v>-1</v>
           </cell>
           <cell r="J67">
-            <v>0.5</v>
+            <v>2</v>
           </cell>
           <cell r="M67" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3376,16 +3481,16 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>LP_CritDmgLow_04</v>
+            <v>LP_CritDmgMedium_01</v>
           </cell>
           <cell r="B68" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C68" t="str">
             <v/>
           </cell>
           <cell r="D68">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E68" t="str">
             <v>ChangeActorStatus</v>
@@ -3397,7 +3502,7 @@
             <v>-1</v>
           </cell>
           <cell r="J68">
-            <v>0.5</v>
+            <v>0.9</v>
           </cell>
           <cell r="M68" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3408,16 +3513,16 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>LP_CritDmgLow_05</v>
+            <v>LP_CritDmgMedium_02</v>
           </cell>
           <cell r="B69" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C69" t="str">
             <v/>
           </cell>
           <cell r="D69">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E69" t="str">
             <v>ChangeActorStatus</v>
@@ -3429,7 +3534,7 @@
             <v>-1</v>
           </cell>
           <cell r="J69">
-            <v>0.75</v>
+            <v>1.3</v>
           </cell>
           <cell r="M69" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3440,16 +3545,16 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>LP_CritDmgLow_06</v>
+            <v>LP_CritDmgMedium_03</v>
           </cell>
           <cell r="B70" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C70" t="str">
             <v/>
           </cell>
           <cell r="D70">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E70" t="str">
             <v>ChangeActorStatus</v>
@@ -3461,7 +3566,7 @@
             <v>-1</v>
           </cell>
           <cell r="J70">
-            <v>0.75</v>
+            <v>1.7</v>
           </cell>
           <cell r="M70" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3472,16 +3577,16 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>LP_CritDmgLow_07</v>
+            <v>LP_CritDmgMedium_04</v>
           </cell>
           <cell r="B71" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C71" t="str">
             <v/>
           </cell>
           <cell r="D71">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E71" t="str">
             <v>ChangeActorStatus</v>
@@ -3493,7 +3598,7 @@
             <v>-1</v>
           </cell>
           <cell r="J71">
-            <v>0.75</v>
+            <v>2</v>
           </cell>
           <cell r="M71" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3504,16 +3609,16 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>LP_CritDmgLow_08</v>
+            <v>LP_CritDmgHigh_01</v>
           </cell>
           <cell r="B72" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgHigh</v>
           </cell>
           <cell r="C72" t="str">
             <v/>
           </cell>
           <cell r="D72">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E72" t="str">
             <v>ChangeActorStatus</v>
@@ -3525,7 +3630,7 @@
             <v>-1</v>
           </cell>
           <cell r="J72">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="M72" t="str">
             <v>CriticalDamageAddRate</v>
@@ -3536,16 +3641,16 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>LP_CritDmgLow_09</v>
+            <v>LP_CritDmgLow_Crit_01</v>
           </cell>
           <cell r="B73" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C73" t="str">
             <v/>
           </cell>
           <cell r="D73">
-            <v>9</v>
+            <v>1</v>
           </cell>
           <cell r="E73" t="str">
             <v>ChangeActorStatus</v>
@@ -3557,27 +3662,27 @@
             <v>-1</v>
           </cell>
           <cell r="J73">
-            <v>1</v>
+            <v>7.0999999999999994E-2</v>
           </cell>
           <cell r="M73" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O73" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>LP_CritDmgMedium_01</v>
+            <v>LP_CritDmgLow_Crit_02</v>
           </cell>
           <cell r="B74" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C74" t="str">
             <v/>
           </cell>
           <cell r="D74">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E74" t="str">
             <v>ChangeActorStatus</v>
@@ -3589,27 +3694,27 @@
             <v>-1</v>
           </cell>
           <cell r="J74">
-            <v>0.25</v>
+            <v>0.111</v>
           </cell>
           <cell r="M74" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O74" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>LP_CritDmgMedium_02</v>
+            <v>LP_CritDmgLow_Crit_03</v>
           </cell>
           <cell r="B75" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C75" t="str">
             <v/>
           </cell>
           <cell r="D75">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E75" t="str">
             <v>ChangeActorStatus</v>
@@ -3621,27 +3726,27 @@
             <v>-1</v>
           </cell>
           <cell r="J75">
-            <v>0.5</v>
+            <v>0.13600000000000001</v>
           </cell>
           <cell r="M75" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O75" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>LP_CritDmgMedium_03</v>
+            <v>LP_CritDmgLow_Crit_04</v>
           </cell>
           <cell r="B76" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C76" t="str">
             <v/>
           </cell>
           <cell r="D76">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E76" t="str">
             <v>ChangeActorStatus</v>
@@ -3653,27 +3758,27 @@
             <v>-1</v>
           </cell>
           <cell r="J76">
-            <v>0.75</v>
+            <v>0.154</v>
           </cell>
           <cell r="M76" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O76" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>LP_CritDmgMedium_04</v>
+            <v>LP_CritDmgLow_Crit_05</v>
           </cell>
           <cell r="B77" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C77" t="str">
             <v/>
           </cell>
           <cell r="D77">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E77" t="str">
             <v>ChangeActorStatus</v>
@@ -3685,27 +3790,27 @@
             <v>-1</v>
           </cell>
           <cell r="J77">
-            <v>1</v>
+            <v>0.16700000000000001</v>
           </cell>
           <cell r="M77" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O77" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>LP_CritDmgMedium_05</v>
+            <v>LP_CritDmgLow_Crit_06</v>
           </cell>
           <cell r="B78" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C78" t="str">
             <v/>
           </cell>
           <cell r="D78">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E78" t="str">
             <v>ChangeActorStatus</v>
@@ -3717,27 +3822,27 @@
             <v>-1</v>
           </cell>
           <cell r="J78">
-            <v>1</v>
+            <v>0.17599999999999999</v>
           </cell>
           <cell r="M78" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O78" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>LP_CritDmgHigh_01</v>
+            <v>LP_CritDmgLow_Crit_07</v>
           </cell>
           <cell r="B79" t="str">
-            <v>LP_CritDmgHigh</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C79" t="str">
             <v/>
           </cell>
           <cell r="D79">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E79" t="str">
             <v>ChangeActorStatus</v>
@@ -3749,18 +3854,18 @@
             <v>-1</v>
           </cell>
           <cell r="J79">
-            <v>0.75</v>
+            <v>0.184</v>
           </cell>
           <cell r="M79" t="str">
-            <v>CriticalDamageAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O79" t="str">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>LP_CritDmgLow_Crit_01</v>
+            <v>LP_CritDmgLow_Crit_08</v>
           </cell>
           <cell r="B80" t="str">
             <v>LP_CritDmgLow_Crit</v>
@@ -3769,7 +3874,7 @@
             <v/>
           </cell>
           <cell r="D80">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E80" t="str">
             <v>ChangeActorStatus</v>
@@ -3781,7 +3886,7 @@
             <v>-1</v>
           </cell>
           <cell r="J80">
-            <v>0.05</v>
+            <v>0.2</v>
           </cell>
           <cell r="M80" t="str">
             <v>CriticalRate</v>
@@ -3792,16 +3897,16 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>LP_CritDmgLow_Crit_02</v>
+            <v>LP_CritDmgMedium_Crit_01</v>
           </cell>
           <cell r="B81" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C81" t="str">
             <v/>
           </cell>
           <cell r="D81">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E81" t="str">
             <v>ChangeActorStatus</v>
@@ -3813,7 +3918,7 @@
             <v>-1</v>
           </cell>
           <cell r="J81">
-            <v>0.1</v>
+            <v>0.111</v>
           </cell>
           <cell r="M81" t="str">
             <v>CriticalRate</v>
@@ -3824,16 +3929,16 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>LP_CritDmgLow_Crit_03</v>
+            <v>LP_CritDmgMedium_Crit_02</v>
           </cell>
           <cell r="B82" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C82" t="str">
             <v/>
           </cell>
           <cell r="D82">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E82" t="str">
             <v>ChangeActorStatus</v>
@@ -3845,7 +3950,7 @@
             <v>-1</v>
           </cell>
           <cell r="J82">
-            <v>0.15</v>
+            <v>0.154</v>
           </cell>
           <cell r="M82" t="str">
             <v>CriticalRate</v>
@@ -3856,16 +3961,16 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>LP_CritDmgLow_Crit_04</v>
+            <v>LP_CritDmgMedium_Crit_03</v>
           </cell>
           <cell r="B83" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C83" t="str">
             <v/>
           </cell>
           <cell r="D83">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E83" t="str">
             <v>ChangeActorStatus</v>
@@ -3877,7 +3982,7 @@
             <v>-1</v>
           </cell>
           <cell r="J83">
-            <v>0.2</v>
+            <v>0.17599999999999999</v>
           </cell>
           <cell r="M83" t="str">
             <v>CriticalRate</v>
@@ -3888,16 +3993,16 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>LP_CritDmgLow_Crit_05</v>
+            <v>LP_CritDmgMedium_Crit_04</v>
           </cell>
           <cell r="B84" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C84" t="str">
             <v/>
           </cell>
           <cell r="D84">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E84" t="str">
             <v>ChangeActorStatus</v>
@@ -3920,16 +4025,16 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>LP_CritDmgLow_Crit_06</v>
+            <v>LP_CritDmgHigh_Crit_01</v>
           </cell>
           <cell r="B85" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgHigh_Crit</v>
           </cell>
           <cell r="C85" t="str">
             <v/>
           </cell>
           <cell r="D85">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E85" t="str">
             <v>ChangeActorStatus</v>
@@ -3941,7 +4046,7 @@
             <v>-1</v>
           </cell>
           <cell r="J85">
-            <v>0.25</v>
+            <v>0.16700000000000001</v>
           </cell>
           <cell r="M85" t="str">
             <v>CriticalRate</v>
@@ -3952,16 +4057,16 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LP_CritDmgLow_Crit_07</v>
+            <v>LP_MaxHpLow_01</v>
           </cell>
           <cell r="B86" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C86" t="str">
             <v/>
           </cell>
           <cell r="D86">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="E86" t="str">
             <v>ChangeActorStatus</v>
@@ -3973,27 +4078,27 @@
             <v>-1</v>
           </cell>
           <cell r="J86">
-            <v>0.3</v>
+            <v>0.1</v>
           </cell>
           <cell r="M86" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O86" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LP_CritDmgLow_Crit_08</v>
+            <v>LP_MaxHpLow_02</v>
           </cell>
           <cell r="B87" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C87" t="str">
             <v/>
           </cell>
           <cell r="D87">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="E87" t="str">
             <v>ChangeActorStatus</v>
@@ -4005,27 +4110,27 @@
             <v>-1</v>
           </cell>
           <cell r="J87">
-            <v>0.3</v>
+            <v>0.2</v>
           </cell>
           <cell r="M87" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O87" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LP_CritDmgLow_Crit_09</v>
+            <v>LP_MaxHpLow_03</v>
           </cell>
           <cell r="B88" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C88" t="str">
             <v/>
           </cell>
           <cell r="D88">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="E88" t="str">
             <v>ChangeActorStatus</v>
@@ -4037,27 +4142,27 @@
             <v>-1</v>
           </cell>
           <cell r="J88">
-            <v>0.35</v>
+            <v>0.3</v>
           </cell>
           <cell r="M88" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O88" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LP_CritDmgMedium_Crit_01</v>
+            <v>LP_MaxHpLow_04</v>
           </cell>
           <cell r="B89" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C89" t="str">
             <v/>
           </cell>
           <cell r="D89">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E89" t="str">
             <v>ChangeActorStatus</v>
@@ -4069,27 +4174,27 @@
             <v>-1</v>
           </cell>
           <cell r="J89">
-            <v>0.1</v>
+            <v>0.4</v>
           </cell>
           <cell r="M89" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O89" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LP_CritDmgMedium_Crit_02</v>
+            <v>LP_MaxHpLow_05</v>
           </cell>
           <cell r="B90" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C90" t="str">
             <v/>
           </cell>
           <cell r="D90">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E90" t="str">
             <v>ChangeActorStatus</v>
@@ -4101,27 +4206,27 @@
             <v>-1</v>
           </cell>
           <cell r="J90">
-            <v>0.2</v>
+            <v>0.5</v>
           </cell>
           <cell r="M90" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O90" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LP_CritDmgMedium_Crit_03</v>
+            <v>LP_MaxHpLow_06</v>
           </cell>
           <cell r="B91" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C91" t="str">
             <v/>
           </cell>
           <cell r="D91">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E91" t="str">
             <v>ChangeActorStatus</v>
@@ -4133,27 +4238,27 @@
             <v>-1</v>
           </cell>
           <cell r="J91">
-            <v>0.25</v>
+            <v>0.6</v>
           </cell>
           <cell r="M91" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O91" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LP_CritDmgMedium_Crit_04</v>
+            <v>LP_MaxHpLow_07</v>
           </cell>
           <cell r="B92" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C92" t="str">
             <v/>
           </cell>
           <cell r="D92">
-            <v>4</v>
+            <v>7</v>
           </cell>
           <cell r="E92" t="str">
             <v>ChangeActorStatus</v>
@@ -4165,27 +4270,27 @@
             <v>-1</v>
           </cell>
           <cell r="J92">
-            <v>0.3</v>
+            <v>0.7</v>
           </cell>
           <cell r="M92" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O92" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LP_CritDmgMedium_Crit_05</v>
+            <v>LP_MaxHpLow_08</v>
           </cell>
           <cell r="B93" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C93" t="str">
             <v/>
           </cell>
           <cell r="D93">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="E93" t="str">
             <v>ChangeActorStatus</v>
@@ -4197,27 +4302,27 @@
             <v>-1</v>
           </cell>
           <cell r="J93">
-            <v>0.4</v>
+            <v>0.8</v>
           </cell>
           <cell r="M93" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O93" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LP_CritDmgHigh_Crit_01</v>
+            <v>LP_MaxHpLow_09</v>
           </cell>
           <cell r="B94" t="str">
-            <v>LP_CritDmgHigh_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C94" t="str">
             <v/>
           </cell>
           <cell r="D94">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E94" t="str">
             <v>ChangeActorStatus</v>
@@ -4229,21 +4334,21 @@
             <v>-1</v>
           </cell>
           <cell r="J94">
-            <v>0.2</v>
+            <v>0.9</v>
           </cell>
           <cell r="M94" t="str">
-            <v>CriticalRate</v>
+            <v>MaxHpAddRate</v>
           </cell>
           <cell r="O94" t="str">
-            <v>8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LP_MaxHpLow_01</v>
+            <v>LP_MaxHpMedium_01</v>
           </cell>
           <cell r="B95" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C95" t="str">
             <v/>
@@ -4261,7 +4366,7 @@
             <v>-1</v>
           </cell>
           <cell r="J95">
-            <v>0.1</v>
+            <v>0.2</v>
           </cell>
           <cell r="M95" t="str">
             <v>MaxHpAddRate</v>
@@ -4272,10 +4377,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LP_MaxHpLow_02</v>
+            <v>LP_MaxHpMedium_02</v>
           </cell>
           <cell r="B96" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C96" t="str">
             <v/>
@@ -4293,7 +4398,7 @@
             <v>-1</v>
           </cell>
           <cell r="J96">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="M96" t="str">
             <v>MaxHpAddRate</v>
@@ -4304,10 +4409,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LP_MaxHpLow_03</v>
+            <v>LP_MaxHpMedium_03</v>
           </cell>
           <cell r="B97" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C97" t="str">
             <v/>
@@ -4325,7 +4430,7 @@
             <v>-1</v>
           </cell>
           <cell r="J97">
-            <v>0.3</v>
+            <v>0.6</v>
           </cell>
           <cell r="M97" t="str">
             <v>MaxHpAddRate</v>
@@ -4336,10 +4441,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LP_MaxHpLow_04</v>
+            <v>LP_MaxHpMedium_04</v>
           </cell>
           <cell r="B98" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C98" t="str">
             <v/>
@@ -4357,7 +4462,7 @@
             <v>-1</v>
           </cell>
           <cell r="J98">
-            <v>0.4</v>
+            <v>0.8</v>
           </cell>
           <cell r="M98" t="str">
             <v>MaxHpAddRate</v>
@@ -4368,10 +4473,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LP_MaxHpLow_05</v>
+            <v>LP_MaxHpMedium_05</v>
           </cell>
           <cell r="B99" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C99" t="str">
             <v/>
@@ -4389,7 +4494,7 @@
             <v>-1</v>
           </cell>
           <cell r="J99">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="M99" t="str">
             <v>MaxHpAddRate</v>
@@ -4400,10 +4505,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LP_MaxHpLow_06</v>
+            <v>LP_MaxHpMedium_06</v>
           </cell>
           <cell r="B100" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C100" t="str">
             <v/>
@@ -4421,7 +4526,7 @@
             <v>-1</v>
           </cell>
           <cell r="J100">
-            <v>0.6</v>
+            <v>1.2</v>
           </cell>
           <cell r="M100" t="str">
             <v>MaxHpAddRate</v>
@@ -4432,10 +4537,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LP_MaxHpLow_07</v>
+            <v>LP_MaxHpMedium_07</v>
           </cell>
           <cell r="B101" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C101" t="str">
             <v/>
@@ -4453,7 +4558,7 @@
             <v>-1</v>
           </cell>
           <cell r="J101">
-            <v>0.7</v>
+            <v>1.4</v>
           </cell>
           <cell r="M101" t="str">
             <v>MaxHpAddRate</v>
@@ -4464,10 +4569,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LP_MaxHpLow_08</v>
+            <v>LP_MaxHpMedium_08</v>
           </cell>
           <cell r="B102" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C102" t="str">
             <v/>
@@ -4485,7 +4590,7 @@
             <v>-1</v>
           </cell>
           <cell r="J102">
-            <v>0.8</v>
+            <v>1.6</v>
           </cell>
           <cell r="M102" t="str">
             <v>MaxHpAddRate</v>
@@ -4496,10 +4601,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LP_MaxHpLow_09</v>
+            <v>LP_MaxHpMedium_09</v>
           </cell>
           <cell r="B103" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C103" t="str">
             <v/>
@@ -4517,7 +4622,7 @@
             <v>-1</v>
           </cell>
           <cell r="J103">
-            <v>0.9</v>
+            <v>1.8</v>
           </cell>
           <cell r="M103" t="str">
             <v>MaxHpAddRate</v>
@@ -4528,10 +4633,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LP_MaxHpMedium_01</v>
+            <v>LP_MaxHpHigh_01</v>
           </cell>
           <cell r="B104" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C104" t="str">
             <v/>
@@ -4549,7 +4654,7 @@
             <v>-1</v>
           </cell>
           <cell r="J104">
-            <v>0.2</v>
+            <v>0.3</v>
           </cell>
           <cell r="M104" t="str">
             <v>MaxHpAddRate</v>
@@ -4560,10 +4665,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LP_MaxHpMedium_02</v>
+            <v>LP_MaxHpHigh_02</v>
           </cell>
           <cell r="B105" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C105" t="str">
             <v/>
@@ -4581,7 +4686,7 @@
             <v>-1</v>
           </cell>
           <cell r="J105">
-            <v>0.4</v>
+            <v>0.6</v>
           </cell>
           <cell r="M105" t="str">
             <v>MaxHpAddRate</v>
@@ -4592,10 +4697,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LP_MaxHpMedium_03</v>
+            <v>LP_MaxHpHigh_03</v>
           </cell>
           <cell r="B106" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C106" t="str">
             <v/>
@@ -4613,7 +4718,7 @@
             <v>-1</v>
           </cell>
           <cell r="J106">
-            <v>0.6</v>
+            <v>0.85</v>
           </cell>
           <cell r="M106" t="str">
             <v>MaxHpAddRate</v>
@@ -4624,10 +4729,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LP_MaxHpMedium_04</v>
+            <v>LP_MaxHpHigh_04</v>
           </cell>
           <cell r="B107" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C107" t="str">
             <v/>
@@ -4645,7 +4750,7 @@
             <v>-1</v>
           </cell>
           <cell r="J107">
-            <v>0.8</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M107" t="str">
             <v>MaxHpAddRate</v>
@@ -4656,10 +4761,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LP_MaxHpMedium_05</v>
+            <v>LP_MaxHpHigh_05</v>
           </cell>
           <cell r="B108" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C108" t="str">
             <v/>
@@ -4677,7 +4782,7 @@
             <v>-1</v>
           </cell>
           <cell r="J108">
-            <v>1</v>
+            <v>1.35</v>
           </cell>
           <cell r="M108" t="str">
             <v>MaxHpAddRate</v>
@@ -4688,290 +4793,496 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LP_MaxHpMedium_06</v>
+            <v>LP_ExtraGold_01</v>
           </cell>
           <cell r="B109" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_ExtraGold</v>
           </cell>
           <cell r="C109" t="str">
             <v/>
           </cell>
           <cell r="D109">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E109" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H109" t="str">
             <v/>
           </cell>
-          <cell r="I109">
-            <v>-1</v>
-          </cell>
           <cell r="J109">
-            <v>1.2</v>
-          </cell>
-          <cell r="M109" t="str">
-            <v>MaxHpAddRate</v>
+            <v>0.2</v>
           </cell>
           <cell r="O109" t="str">
-            <v>17</v>
+            <v/>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LP_MaxHpMedium_07</v>
+            <v>LP_ItemChanceBoost_01</v>
           </cell>
           <cell r="B110" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
           <cell r="C110" t="str">
             <v/>
           </cell>
           <cell r="D110">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="E110" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H110" t="str">
             <v/>
           </cell>
-          <cell r="I110">
-            <v>-1</v>
-          </cell>
-          <cell r="J110">
-            <v>1.4</v>
-          </cell>
-          <cell r="M110" t="str">
-            <v>MaxHpAddRate</v>
+          <cell r="K110">
+            <v>0.2</v>
           </cell>
           <cell r="O110" t="str">
-            <v>17</v>
+            <v/>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LP_MaxHpMedium_08</v>
+            <v>LP_HealChanceBoost_01</v>
           </cell>
           <cell r="B111" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C111" t="str">
             <v/>
           </cell>
           <cell r="D111">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E111" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H111" t="str">
             <v/>
           </cell>
-          <cell r="I111">
-            <v>-1</v>
-          </cell>
-          <cell r="J111">
-            <v>1.6</v>
-          </cell>
-          <cell r="M111" t="str">
-            <v>MaxHpAddRate</v>
+          <cell r="L111">
+            <v>0.5</v>
           </cell>
           <cell r="O111" t="str">
-            <v>17</v>
+            <v/>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LP_MaxHpMedium_09</v>
+            <v>LP_MonsterThrough_01</v>
           </cell>
           <cell r="B112" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C112" t="str">
             <v/>
           </cell>
           <cell r="D112">
-            <v>9</v>
+            <v>1</v>
           </cell>
           <cell r="E112" t="str">
-            <v>ChangeActorStatus</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H112" t="str">
             <v/>
           </cell>
-          <cell r="I112">
-            <v>-1</v>
-          </cell>
-          <cell r="J112">
-            <v>1.8</v>
-          </cell>
-          <cell r="M112" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O112" t="str">
-            <v>17</v>
+          <cell r="N112">
+            <v>1</v>
+          </cell>
+          <cell r="O112">
+            <v>1</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LP_MaxHpHigh_01</v>
+            <v>LP_MonsterThrough_02</v>
           </cell>
           <cell r="B113" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C113" t="str">
             <v/>
           </cell>
           <cell r="D113">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E113" t="str">
-            <v>ChangeActorStatus</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H113" t="str">
             <v/>
           </cell>
-          <cell r="I113">
-            <v>-1</v>
-          </cell>
-          <cell r="J113">
-            <v>0.3</v>
-          </cell>
-          <cell r="M113" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O113" t="str">
-            <v>17</v>
+          <cell r="N113">
+            <v>2</v>
+          </cell>
+          <cell r="O113">
+            <v>2</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LP_MaxHpHigh_02</v>
+            <v>LP_Ricochet_01</v>
           </cell>
           <cell r="B114" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C114" t="str">
             <v/>
           </cell>
           <cell r="D114">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E114" t="str">
-            <v>ChangeActorStatus</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H114" t="str">
             <v/>
           </cell>
-          <cell r="I114">
-            <v>-1</v>
-          </cell>
-          <cell r="J114">
-            <v>0.6</v>
-          </cell>
-          <cell r="M114" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O114" t="str">
-            <v>17</v>
+          <cell r="N114">
+            <v>1</v>
+          </cell>
+          <cell r="O114">
+            <v>1</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LP_MaxHpHigh_03</v>
+            <v>LP_Ricochet_02</v>
           </cell>
           <cell r="B115" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C115" t="str">
             <v/>
           </cell>
           <cell r="D115">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E115" t="str">
-            <v>ChangeActorStatus</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H115" t="str">
             <v/>
           </cell>
-          <cell r="I115">
-            <v>-1</v>
-          </cell>
-          <cell r="J115">
-            <v>0.85</v>
-          </cell>
-          <cell r="M115" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O115" t="str">
-            <v>17</v>
+          <cell r="N115">
+            <v>2</v>
+          </cell>
+          <cell r="O115">
+            <v>2</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LP_MaxHpHigh_04</v>
+            <v>LP_BounceWallQuad_01</v>
           </cell>
           <cell r="B116" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C116" t="str">
             <v/>
           </cell>
           <cell r="D116">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E116" t="str">
-            <v>ChangeActorStatus</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H116" t="str">
             <v/>
           </cell>
-          <cell r="I116">
-            <v>-1</v>
-          </cell>
-          <cell r="J116">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="M116" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O116" t="str">
-            <v>17</v>
+          <cell r="N116">
+            <v>1</v>
+          </cell>
+          <cell r="O116">
+            <v>1</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LP_MaxHpHigh_05</v>
+            <v>LP_BounceWallQuad_02</v>
           </cell>
           <cell r="B117" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C117" t="str">
             <v/>
           </cell>
           <cell r="D117">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E117" t="str">
-            <v>ChangeActorStatus</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H117" t="str">
             <v/>
           </cell>
-          <cell r="I117">
-            <v>-1</v>
-          </cell>
-          <cell r="J117">
-            <v>1.35</v>
-          </cell>
-          <cell r="M117" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O117" t="str">
-            <v>17</v>
+          <cell r="N117">
+            <v>2</v>
+          </cell>
+          <cell r="O117">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>LP_Parallel_01</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>LP_Parallel</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v/>
+          </cell>
+          <cell r="D118">
+            <v>1</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>ParallelHitObject</v>
+          </cell>
+          <cell r="H118" t="str">
+            <v/>
+          </cell>
+          <cell r="N118">
+            <v>1</v>
+          </cell>
+          <cell r="O118">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>LP_Parallel_02</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>LP_Parallel</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v/>
+          </cell>
+          <cell r="D119">
+            <v>2</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>ParallelHitObject</v>
+          </cell>
+          <cell r="H119" t="str">
+            <v/>
+          </cell>
+          <cell r="N119">
+            <v>2</v>
+          </cell>
+          <cell r="O119">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>LP_DiagonalNwayGenerator_01</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>LP_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v/>
+          </cell>
+          <cell r="D120">
+            <v>1</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="H120" t="str">
+            <v/>
+          </cell>
+          <cell r="N120">
+            <v>1</v>
+          </cell>
+          <cell r="O120">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>LP_DiagonalNwayGenerator_02</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>LP_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v/>
+          </cell>
+          <cell r="D121">
+            <v>2</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="H121" t="str">
+            <v/>
+          </cell>
+          <cell r="N121">
+            <v>2</v>
+          </cell>
+          <cell r="O121">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>LP_LeftRightNwayGenerator_01</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>LP_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v/>
+          </cell>
+          <cell r="D122">
+            <v>1</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="H122" t="str">
+            <v/>
+          </cell>
+          <cell r="N122">
+            <v>1</v>
+          </cell>
+          <cell r="O122">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>LP_LeftRightNwayGenerator_02</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>LP_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v/>
+          </cell>
+          <cell r="D123">
+            <v>2</v>
+          </cell>
+          <cell r="E123" t="str">
+            <v>LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="H123" t="str">
+            <v/>
+          </cell>
+          <cell r="N123">
+            <v>2</v>
+          </cell>
+          <cell r="O123">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>LP_BackNwayGenerator_01</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>LP_BackNwayGenerator</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v/>
+          </cell>
+          <cell r="D124">
+            <v>1</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>BackNwayGenerator</v>
+          </cell>
+          <cell r="H124" t="str">
+            <v/>
+          </cell>
+          <cell r="N124">
+            <v>1</v>
+          </cell>
+          <cell r="O124">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>LP_BackNwayGenerator_02</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>LP_BackNwayGenerator</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v/>
+          </cell>
+          <cell r="D125">
+            <v>2</v>
+          </cell>
+          <cell r="E125" t="str">
+            <v>BackNwayGenerator</v>
+          </cell>
+          <cell r="H125" t="str">
+            <v/>
+          </cell>
+          <cell r="N125">
+            <v>2</v>
+          </cell>
+          <cell r="O125">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>LP_Repeat_01</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>LP_Repeat</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v/>
+          </cell>
+          <cell r="D126">
+            <v>1</v>
+          </cell>
+          <cell r="E126" t="str">
+            <v>RepeatHitObject</v>
+          </cell>
+          <cell r="H126" t="str">
+            <v/>
+          </cell>
+          <cell r="N126">
+            <v>1</v>
+          </cell>
+          <cell r="O126">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>LP_Repeat_02</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>LP_Repeat</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v/>
+          </cell>
+          <cell r="D127">
+            <v>2</v>
+          </cell>
+          <cell r="E127" t="str">
+            <v>RepeatHitObject</v>
+          </cell>
+          <cell r="H127" t="str">
+            <v/>
+          </cell>
+          <cell r="N127">
+            <v>2</v>
+          </cell>
+          <cell r="O127">
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -5505,10 +5816,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LevelPackUIDesc_AtkLow</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B46" t="str">
-            <v>공격력을 소량 올립니다</v>
+            <v>골드 획득량증가</v>
           </cell>
           <cell r="C46" t="str">
             <v>In progress of translating…(46)</v>
@@ -5516,10 +5827,10 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LevelPackUIDesc_AtkMedium</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B47" t="str">
-            <v>공격력을 올립니다</v>
+            <v>아이템 확률증가</v>
           </cell>
           <cell r="C47" t="str">
             <v>In progress of translating…(47)</v>
@@ -5527,10 +5838,10 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LevelPackUIDesc_AtkHigh</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B48" t="str">
-            <v>공격력을 대폭 올립니다</v>
+            <v>힐구슬 확률증가</v>
           </cell>
           <cell r="C48" t="str">
             <v>In progress of translating…(48)</v>
@@ -5538,10 +5849,10 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LevelPackUIDesc_AtkSpeedLow</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B49" t="str">
-            <v>공격속도를 소량 올립니다</v>
+            <v>몬스터 관통샷</v>
           </cell>
           <cell r="C49" t="str">
             <v>In progress of translating…(49)</v>
@@ -5549,10 +5860,10 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LevelPackUIDesc_AtkSpeedMedium</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B50" t="str">
-            <v>공격속도를 올립니다</v>
+            <v>추적샷</v>
           </cell>
           <cell r="C50" t="str">
             <v>In progress of translating…(50)</v>
@@ -5560,10 +5871,10 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LevelPackUIDesc_AtkSpeedHigh</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B51" t="str">
-            <v>공격속도를 대폭 올립니다</v>
+            <v>벽바운스샷</v>
           </cell>
           <cell r="C51" t="str">
             <v>In progress of translating…(51)</v>
@@ -5571,10 +5882,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LevelPackUIDesc_CritLow</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B52" t="str">
-            <v>크리티컬 확률을 소량 올립니다</v>
+            <v>전방샷</v>
           </cell>
           <cell r="C52" t="str">
             <v>In progress of translating…(52)</v>
@@ -5582,10 +5893,10 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LevelPackUIDesc_CritMedium</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B53" t="str">
-            <v>크리티컬 확률을 올립니다</v>
+            <v>대각샷</v>
           </cell>
           <cell r="C53" t="str">
             <v>In progress of translating…(53)</v>
@@ -5593,10 +5904,10 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LevelPackUIDesc_CritHigh</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B54" t="str">
-            <v>크리티컬 확률을 대폭 올립니다</v>
+            <v>좌우샷</v>
           </cell>
           <cell r="C54" t="str">
             <v>In progress of translating…(54)</v>
@@ -5604,10 +5915,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LevelPackUIDesc_CritDmgLow</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B55" t="str">
-            <v>크리티컬 대미지를 소량 올립니다</v>
+            <v>후방샷</v>
           </cell>
           <cell r="C55" t="str">
             <v>In progress of translating…(55)</v>
@@ -5615,10 +5926,10 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LevelPackUIDesc_CritDmgMedium</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B56" t="str">
-            <v>크리티컬 대미지를 올립니다</v>
+            <v>반복샷</v>
           </cell>
           <cell r="C56" t="str">
             <v>In progress of translating…(56)</v>
@@ -5626,10 +5937,10 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LevelPackUIDesc_CritDmgHigh</v>
+            <v>LevelPackUIDesc_AtkLow</v>
           </cell>
           <cell r="B57" t="str">
-            <v>크리티컬 대미지를 대폭 올립니다</v>
+            <v>공격력을 소량 올립니다</v>
           </cell>
           <cell r="C57" t="str">
             <v>In progress of translating…(57)</v>
@@ -5637,10 +5948,10 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LevelPackUIDesc_MaxHpLow</v>
+            <v>LevelPackUIDesc_AtkMedium</v>
           </cell>
           <cell r="B58" t="str">
-            <v>최대HP를 소량 올립니다</v>
+            <v>공격력을 올립니다</v>
           </cell>
           <cell r="C58" t="str">
             <v>In progress of translating…(58)</v>
@@ -5648,10 +5959,10 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LevelPackUIDesc_MaxHpMedium</v>
+            <v>LevelPackUIDesc_AtkHigh</v>
           </cell>
           <cell r="B59" t="str">
-            <v>최대HP를 올립니다</v>
+            <v>공격력을 대폭 올립니다</v>
           </cell>
           <cell r="C59" t="str">
             <v>In progress of translating…(59)</v>
@@ -5659,13 +5970,255 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LevelPackUIDesc_MaxHpHigh</v>
+            <v>LevelPackUIDesc_AtkSpeedLow</v>
           </cell>
           <cell r="B60" t="str">
-            <v>최대HP를 대폭 올립니다</v>
+            <v>공격속도를 소량 올립니다</v>
           </cell>
           <cell r="C60" t="str">
             <v>In progress of translating…(60)</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>LevelPackUIDesc_AtkSpeedMedium</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>공격속도를 올립니다</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>In progress of translating…(61)</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>LevelPackUIDesc_AtkSpeedHigh</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>공격속도를 대폭 올립니다</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>In progress of translating…(62)</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>LevelPackUIDesc_CritLow</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>크리티컬 확률을 소량 올립니다</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>In progress of translating…(63)</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>LevelPackUIDesc_CritMedium</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>크리티컬 확률을 올립니다</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>In progress of translating…(64)</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>LevelPackUIDesc_CritHigh</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>크리티컬 확률을 대폭 올립니다</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>In progress of translating…(65)</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>LevelPackUIDesc_CritDmgLow</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>크리티컬 대미지를 소량 올립니다</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>In progress of translating…(66)</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>LevelPackUIDesc_CritDmgMedium</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>크리티컬 대미지를 올립니다</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>In progress of translating…(67)</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>LevelPackUIDesc_CritDmgHigh</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>크리티컬 대미지를 대폭 올립니다</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>In progress of translating…(68)</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>LevelPackUIDesc_MaxHpLow</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>최대HP를 소량 올립니다</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>In progress of translating…(69)</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>LevelPackUIDesc_MaxHpMedium</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>최대HP를 올립니다</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>In progress of translating…(70)</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>LevelPackUIDesc_MaxHpHigh</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>최대HP를 대폭 올립니다</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>In progress of translating…(71)</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>LevelPackUIDesc_ExtraGold</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>골드 획득량이 증가합니다</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>In progress of translating…(72)</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>아이템 획득 확률이 증가합니다</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>In progress of translating…(73)</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>LevelPackUIDesc_HealChanceBoost</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>힐구슬 획득 확률이 증가합니다</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>In progress of translating…(74)</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>LevelPackUIDesc_MonsterThrough</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>평타 공격이 몬스터를 관통합니다</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>In progress of translating…(75)</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>LevelPackUIDesc_Ricochet</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>In progress of translating…(76)</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>LevelPackUIDesc_BounceWallQuad</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>In progress of translating…(77)</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>LevelPackUIDesc_Parallel</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>In progress of translating…(78)</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>In progress of translating…(79)</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>In progress of translating…(80)</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>In progress of translating…(81)</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>LevelPackUIDesc_Repeat</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>평타 공격이 반복하여 발사됩니다</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>In progress of translating…(82)</v>
           </cell>
         </row>
       </sheetData>
@@ -6284,24 +6837,24 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -6311,7 +6864,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(ISBLANK(E2),"",
@@ -6331,10 +6884,10 @@
         <v/>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(ISBLANK(G2),"",
@@ -6359,10 +6912,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -6372,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>IF(ISBLANK(E3),"",
@@ -6392,10 +6945,10 @@
         <v/>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>IF(ISBLANK(G3),"",
@@ -6420,10 +6973,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -6433,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>IF(ISBLANK(E4),"",
@@ -6453,10 +7006,10 @@
         <v/>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>IF(ISBLANK(G4),"",
@@ -6480,15 +7033,15 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -6498,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>IF(ISBLANK(E5),"",
@@ -6518,10 +7071,10 @@
         <v/>
       </c>
       <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>IF(ISBLANK(G5),"",
@@ -6545,15 +7098,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -6563,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>IF(ISBLANK(E6),"",
@@ -6583,10 +7136,10 @@
         <v/>
       </c>
       <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>IF(ISBLANK(G6),"",
@@ -6610,15 +7163,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -6628,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>IF(ISBLANK(E7),"",
@@ -6648,10 +7201,10 @@
         <v/>
       </c>
       <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>IF(ISBLANK(G7),"",
@@ -6675,15 +7228,15 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -6693,7 +7246,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>IF(ISBLANK(E8),"",
@@ -6713,10 +7266,10 @@
         <v/>
       </c>
       <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IF(ISBLANK(G8),"",
@@ -6741,10 +7294,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
@@ -6754,7 +7307,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>IF(ISBLANK(E9),"",
@@ -6774,10 +7327,10 @@
         <v/>
       </c>
       <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>IF(ISBLANK(G9),"",
@@ -6802,10 +7355,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -6815,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>IF(ISBLANK(E10),"",
@@ -6835,10 +7388,10 @@
         <v/>
       </c>
       <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -6862,15 +7415,15 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
@@ -6880,7 +7433,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>IF(ISBLANK(E11),"",
@@ -6900,10 +7453,10 @@
         <v/>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -6928,10 +7481,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
@@ -6941,7 +7494,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(ISBLANK(E12),"",
@@ -6961,10 +7514,10 @@
         <v/>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -6989,10 +7542,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>1</v>
@@ -7002,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(ISBLANK(E13),"",
@@ -7022,10 +7575,10 @@
         <v/>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -7049,15 +7602,15 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
@@ -7067,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF(ISBLANK(E14),"",
@@ -7087,10 +7640,10 @@
         <v/>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -7115,10 +7668,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
@@ -7128,7 +7681,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15),"",
@@ -7148,10 +7701,10 @@
         <v/>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -7176,10 +7729,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -7189,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(E16),"",
@@ -7209,10 +7762,10 @@
         <v/>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -7236,16 +7789,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>IF(ISBLANK(E17),"",
@@ -7264,17 +7826,51 @@
 )))))</f>
         <v/>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
+      <c r="G17" s="1" t="str">
+        <f>"LevelPackUIName_"&amp;A17</f>
+        <v>LevelPackUIName_ExtraGold</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" ref="H17:H27" si="1">"LevelPackUIDesc_"&amp;A17</f>
+        <v>LevelPackUIDesc_ExtraGold</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>IF(ISBLANK(G17),"",
+IFERROR(VLOOKUP(G17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>골드 획득량증가</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISBLANK(H17),"",
+IFERROR(VLOOKUP(H17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>골드 획득량이 증가합니다</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>IF(ISBLANK(E18),"",
@@ -7293,17 +7889,51 @@
 )))))</f>
         <v/>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ref="G18:G27" si="2">"LevelPackUIName_"&amp;A18</f>
+        <v>LevelPackUIName_ItemChanceBoost</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_ItemChanceBoost</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>IF(ISBLANK(G18),"",
+IFERROR(VLOOKUP(G18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>아이템 확률증가</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f>IF(ISBLANK(H18),"",
+IFERROR(VLOOKUP(H18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>아이템 획득 확률이 증가합니다</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>IF(ISBLANK(E19),"",
@@ -7322,178 +7952,668 @@
 )))))</f>
         <v/>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_HealChanceBoost</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_HealChanceBoost</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>IF(ISBLANK(G19),"",
+IFERROR(VLOOKUP(G19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>힐구슬 확률증가</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>IF(ISBLANK(H19),"",
+IFERROR(VLOOKUP(H19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>힐구슬 획득 확률이 증가합니다</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>IF(ISBLANK(E20),"",
+IF(ISERROR(FIND(",",E20)),
+  IF(ISERROR(VLOOKUP(E20,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E20,FIND(",",E20)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,FIND(",",E20,FIND(",",E20)+1)-FIND(",",E20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E20,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,FIND(",",E20,FIND(",",E20)+1)-FIND(",",E20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20)+1)+1,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)-FIND(",",E20,FIND(",",E20)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_MonsterThrough</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_MonsterThrough</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>IF(ISBLANK(G20),"",
+IFERROR(VLOOKUP(G20,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G20,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>몬스터 관통샷</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>IF(ISBLANK(H20),"",
+IFERROR(VLOOKUP(H20,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H20,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 몬스터를 관통합니다</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>IF(ISBLANK(E21),"",
+IF(ISERROR(FIND(",",E21)),
+  IF(ISERROR(VLOOKUP(E21,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E21,FIND(",",E21)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,FIND(",",E21,FIND(",",E21)+1)-FIND(",",E21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E21,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,FIND(",",E21,FIND(",",E21)+1)-FIND(",",E21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21)+1)+1,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)-FIND(",",E21,FIND(",",E21)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_Ricochet</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_Ricochet</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>IF(ISBLANK(G21),"",
+IFERROR(VLOOKUP(G21,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G21,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>추적샷</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f>IF(ISBLANK(H21),"",
+IFERROR(VLOOKUP(H21,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H21,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>IF(ISBLANK(E22),"",
+IF(ISERROR(FIND(",",E22)),
+  IF(ISERROR(VLOOKUP(E22,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E22,FIND(",",E22)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,FIND(",",E22,FIND(",",E22)+1)-FIND(",",E22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E22,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,FIND(",",E22,FIND(",",E22)+1)-FIND(",",E22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22)+1)+1,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)-FIND(",",E22,FIND(",",E22)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_BounceWallQuad</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_BounceWallQuad</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>IF(ISBLANK(G22),"",
+IFERROR(VLOOKUP(G22,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G22,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>벽바운스샷</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f>IF(ISBLANK(H22),"",
+IFERROR(VLOOKUP(H22,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H22,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>IF(ISBLANK(E23),"",
+IF(ISERROR(FIND(",",E23)),
+  IF(ISERROR(VLOOKUP(E23,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E23,FIND(",",E23)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E23,FIND(",",E23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E23,FIND(",",E23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23)+1,FIND(",",E23,FIND(",",E23)+1)-FIND(",",E23)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23,FIND(",",E23)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E23,FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E23,FIND(",",E23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23)+1,FIND(",",E23,FIND(",",E23)+1)-FIND(",",E23)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23,FIND(",",E23)+1)+1,FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)-FIND(",",E23,FIND(",",E23)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_Parallel</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_Parallel</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>IF(ISBLANK(G23),"",
+IFERROR(VLOOKUP(G23,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G23,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>전방샷</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f>IF(ISBLANK(H23),"",
+IFERROR(VLOOKUP(H23,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H23,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 전방으로 더 발사됩니다</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>IF(ISBLANK(E24),"",
+IF(ISERROR(FIND(",",E24)),
+  IF(ISERROR(VLOOKUP(E24,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E24,FIND(",",E24)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E24,FIND(",",E24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E24,FIND(",",E24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24)+1,FIND(",",E24,FIND(",",E24)+1)-FIND(",",E24)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24,FIND(",",E24)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E24,FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E24,FIND(",",E24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24)+1,FIND(",",E24,FIND(",",E24)+1)-FIND(",",E24)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24,FIND(",",E24)+1)+1,FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)-FIND(",",E24,FIND(",",E24)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_DiagonalNwayGenerator</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IF(ISBLANK(G24),"",
+IFERROR(VLOOKUP(G24,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G24,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>대각샷</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>IF(ISBLANK(H24),"",
+IFERROR(VLOOKUP(H24,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H24,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 대각으로 더 발사됩니다</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>IF(ISBLANK(E25),"",
+IF(ISERROR(FIND(",",E25)),
+  IF(ISERROR(VLOOKUP(E25,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E25,FIND(",",E25)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E25,FIND(",",E25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E25,FIND(",",E25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25)+1,FIND(",",E25,FIND(",",E25)+1)-FIND(",",E25)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25,FIND(",",E25)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E25,FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E25,FIND(",",E25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25)+1,FIND(",",E25,FIND(",",E25)+1)-FIND(",",E25)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25,FIND(",",E25)+1)+1,FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)-FIND(",",E25,FIND(",",E25)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_LeftRightNwayGenerator</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>IF(ISBLANK(G25),"",
+IFERROR(VLOOKUP(G25,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G25,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>좌우샷</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>IF(ISBLANK(H25),"",
+IFERROR(VLOOKUP(H25,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H25,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 좌우로 더 발사됩니다</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>IF(ISBLANK(E26),"",
+IF(ISERROR(FIND(",",E26)),
+  IF(ISERROR(VLOOKUP(E26,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E26,FIND(",",E26)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E26,FIND(",",E26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E26,FIND(",",E26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26)+1,FIND(",",E26,FIND(",",E26)+1)-FIND(",",E26)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26,FIND(",",E26)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E26,FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E26,FIND(",",E26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26)+1,FIND(",",E26,FIND(",",E26)+1)-FIND(",",E26)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26,FIND(",",E26)+1)+1,FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)-FIND(",",E26,FIND(",",E26)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_BackNwayGenerator</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_BackNwayGenerator</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>IF(ISBLANK(G26),"",
+IFERROR(VLOOKUP(G26,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G26,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>후방샷</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f>IF(ISBLANK(H26),"",
+IFERROR(VLOOKUP(H26,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H26,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 후방으로 더 발사됩니다</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>IF(ISBLANK(E27),"",
+IF(ISERROR(FIND(",",E27)),
+  IF(ISERROR(VLOOKUP(E27,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E27,FIND(",",E27)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E27,FIND(",",E27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E27,FIND(",",E27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27)+1,FIND(",",E27,FIND(",",E27)+1)-FIND(",",E27)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27,FIND(",",E27)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E27,FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E27,FIND(",",E27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27)+1,FIND(",",E27,FIND(",",E27)+1)-FIND(",",E27)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27,FIND(",",E27)+1)+1,FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)-FIND(",",E27,FIND(",",E27)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>LevelPackUIName_Repeat</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LevelPackUIDesc_Repeat</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>IF(ISBLANK(G27),"",
+IFERROR(VLOOKUP(G27,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(G27,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>반복샷</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f>IF(ISBLANK(H27),"",
+IFERROR(VLOOKUP(H27,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(H27,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>평타 공격이 반복하여 발사됩니다</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="1" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="1" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="1" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="1" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G42" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G47" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G48" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G49" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G51" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7629,7 +8749,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7664,7 +8784,7 @@
         <v>공격력을 소량 올립니다</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J2" t="str">
         <f>IFERROR(IF(ISBLANK($I2),"",VLOOKUP($I2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(J$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B2423-2D54-4C29-8725-1334469234A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C66AA-F14D-4F87-86C4-655F4F869989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="149">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,10 @@
   </si>
   <si>
     <t>Actor003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectAddress|String!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,45 +1109,52 @@
             <v>iValue2|Int</v>
           </cell>
           <cell r="Q1" t="str">
+            <v>iValue3</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>iValue3오버라이딩</v>
+          </cell>
+          <cell r="S1" t="str">
             <v>iValue3|Int</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="T1" t="str">
             <v>sValue1|String</v>
           </cell>
-          <cell r="S1" t="str">
+          <cell r="U1" t="str">
             <v>sValue2|String</v>
           </cell>
-          <cell r="T1" t="str">
+          <cell r="V1" t="str">
             <v>sValue3|String</v>
           </cell>
-          <cell r="U1" t="str">
+          <cell r="W1" t="str">
             <v>sValue4|String</v>
           </cell>
-          <cell r="W1" t="str">
+          <cell r="Y1" t="str">
             <v>iValue1_Verify</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>iValue1_List</v>
           </cell>
           <cell r="Z1" t="str">
             <v>value</v>
           </cell>
-          <cell r="AA1" t="str">
-            <v>len</v>
+          <cell r="AB1" t="str">
+            <v>iValue3_Verify</v>
+          </cell>
+          <cell r="AC1" t="str">
+            <v>value</v>
           </cell>
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="F2" t="str">
-            <v>평타에 대각쌍 기능을 부여함</v>
+            <v>특정 어펙터를 호출함</v>
           </cell>
           <cell r="I2" t="str">
-            <v/>
+            <v>지속시간
+무제한은 -1</v>
           </cell>
           <cell r="J2" t="str">
-            <v/>
+            <v>3.HP&lt;= 수치</v>
           </cell>
           <cell r="K2" t="str">
             <v/>
@@ -1155,44 +1166,53 @@
             <v/>
           </cell>
           <cell r="N2" t="str">
+            <v/>
+          </cell>
+          <cell r="O2" t="str">
+            <v/>
+          </cell>
+          <cell r="P2" t="str">
+            <v>지속횟수</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>이벤트타입
+유효성 검사</v>
+          </cell>
+          <cell r="R2" t="str">
             <v>오버라이딩
 우측 입력은 여기</v>
           </cell>
-          <cell r="O2" t="str">
-            <v>대각쌍 추가개수</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v/>
-          </cell>
-          <cell r="Q2" t="str">
-            <v/>
-          </cell>
-          <cell r="R2" t="str">
-            <v/>
-          </cell>
           <cell r="S2" t="str">
-            <v/>
+            <v>1: 온스타트맵(캐릭전용)
+2: 온다이
+3: HP&lt;=
+4: 온대미지
+5: 온히트
+6: 온킬</v>
           </cell>
           <cell r="T2" t="str">
             <v/>
           </cell>
           <cell r="U2" t="str">
+            <v>어펙터밸류아이디들</v>
+          </cell>
+          <cell r="V2" t="str">
             <v/>
           </cell>
           <cell r="W2" t="str">
+            <v/>
+          </cell>
+          <cell r="Y2" t="str">
             <v>MaxHp</v>
           </cell>
-          <cell r="Y2" t="str">
-            <v>NormalMonsterDamageIncreaseAddRate</v>
-          </cell>
           <cell r="Z2">
-            <v>11</v>
-          </cell>
-          <cell r="AA2">
-            <v>34</v>
-          </cell>
-          <cell r="AC2" t="str">
-            <v/>
+            <v>0</v>
+          </cell>
+          <cell r="AB2" t="str">
+            <v>OnStartStage</v>
+          </cell>
+          <cell r="AC2">
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
@@ -1220,17 +1240,20 @@
           <cell r="O3" t="str">
             <v/>
           </cell>
-          <cell r="W3" t="str">
+          <cell r="S3" t="str">
+            <v/>
+          </cell>
+          <cell r="Y3" t="str">
             <v>Attack</v>
           </cell>
-          <cell r="Y3" t="str">
-            <v>NormalMonsterDamageDecreaseAddRate</v>
-          </cell>
           <cell r="Z3">
-            <v>12</v>
-          </cell>
-          <cell r="AA3">
-            <v>34</v>
+            <v>1</v>
+          </cell>
+          <cell r="AB3" t="str">
+            <v>OnDie</v>
+          </cell>
+          <cell r="AC3">
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
@@ -1258,17 +1281,20 @@
           <cell r="O4" t="str">
             <v/>
           </cell>
-          <cell r="W4" t="str">
+          <cell r="S4" t="str">
+            <v/>
+          </cell>
+          <cell r="Y4" t="str">
             <v>AttackDelay</v>
           </cell>
-          <cell r="Y4" t="str">
-            <v>BossMonsterDamageIncreaseAddRate</v>
-          </cell>
           <cell r="Z4">
-            <v>13</v>
-          </cell>
-          <cell r="AA4">
-            <v>32</v>
+            <v>2</v>
+          </cell>
+          <cell r="AB4" t="str">
+            <v>HpRate</v>
+          </cell>
+          <cell r="AC4">
+            <v>3</v>
           </cell>
         </row>
         <row r="5">
@@ -1293,17 +1319,20 @@
           <cell r="O5" t="str">
             <v/>
           </cell>
-          <cell r="W5" t="str">
+          <cell r="S5" t="str">
+            <v/>
+          </cell>
+          <cell r="Y5" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="Y5" t="str">
-            <v>BossMonsterDamageDecreaseAddRate</v>
-          </cell>
           <cell r="Z5">
-            <v>14</v>
-          </cell>
-          <cell r="AA5">
-            <v>32</v>
+            <v>3</v>
+          </cell>
+          <cell r="AB5" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="AC5">
+            <v>4</v>
           </cell>
         </row>
         <row r="6">
@@ -1331,17 +1360,20 @@
           <cell r="O6" t="str">
             <v/>
           </cell>
-          <cell r="W6" t="str">
+          <cell r="S6" t="str">
+            <v/>
+          </cell>
+          <cell r="Y6" t="str">
             <v>EvadeRate</v>
           </cell>
-          <cell r="Y6" t="str">
-            <v>PowerSourceHealAddRate</v>
-          </cell>
           <cell r="Z6">
-            <v>15</v>
-          </cell>
-          <cell r="AA6">
-            <v>22</v>
+            <v>4</v>
+          </cell>
+          <cell r="AB6" t="str">
+            <v>OnHit</v>
+          </cell>
+          <cell r="AC6">
+            <v>5</v>
           </cell>
         </row>
         <row r="7">
@@ -1366,26 +1398,29 @@
           <cell r="I7">
             <v>-1</v>
           </cell>
-          <cell r="N7">
+          <cell r="O7" t="str">
+            <v/>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S7">
             <v>4</v>
           </cell>
-          <cell r="O7">
-            <v>4</v>
-          </cell>
-          <cell r="S7" t="str">
+          <cell r="U7" t="str">
             <v>InvincibleTortoise</v>
           </cell>
-          <cell r="W7" t="str">
+          <cell r="Y7" t="str">
             <v>MoveSpeed</v>
           </cell>
-          <cell r="Y7" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
           <cell r="Z7">
-            <v>9</v>
-          </cell>
-          <cell r="AA7">
-            <v>21</v>
+            <v>5</v>
+          </cell>
+          <cell r="AB7" t="str">
+            <v>OnKill</v>
+          </cell>
+          <cell r="AC7">
+            <v>6</v>
           </cell>
         </row>
         <row r="8">
@@ -1413,23 +1448,20 @@
           <cell r="O8" t="str">
             <v/>
           </cell>
-          <cell r="R8" t="str">
+          <cell r="S8" t="str">
+            <v/>
+          </cell>
+          <cell r="T8" t="str">
             <v>GuardStart</v>
           </cell>
-          <cell r="S8" t="str">
+          <cell r="U8" t="str">
             <v>GuardEnd</v>
           </cell>
-          <cell r="W8" t="str">
+          <cell r="Y8" t="str">
             <v>MaxSp</v>
           </cell>
-          <cell r="Y8" t="str">
-            <v>AttackSpeedAddRate</v>
-          </cell>
           <cell r="Z8">
-            <v>3</v>
-          </cell>
-          <cell r="AA8">
-            <v>18</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="9">
@@ -1460,20 +1492,17 @@
           <cell r="P9">
             <v>5</v>
           </cell>
-          <cell r="T9" t="str">
+          <cell r="S9" t="str">
+            <v/>
+          </cell>
+          <cell r="V9" t="str">
             <v>Effect29_D</v>
           </cell>
-          <cell r="W9" t="str">
+          <cell r="Y9" t="str">
             <v>SpGainAddRate</v>
           </cell>
-          <cell r="Y9" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
           <cell r="Z9">
-            <v>10</v>
-          </cell>
-          <cell r="AA9">
-            <v>16</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="10">
@@ -1498,26 +1527,23 @@
           <cell r="I10">
             <v>-1</v>
           </cell>
-          <cell r="N10">
+          <cell r="O10" t="str">
+            <v/>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S10">
             <v>4</v>
           </cell>
-          <cell r="O10">
-            <v>4</v>
-          </cell>
-          <cell r="S10" t="str">
+          <cell r="U10" t="str">
             <v>BurrowNinjaAssassin</v>
           </cell>
-          <cell r="W10" t="str">
+          <cell r="Y10" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="Y10" t="str">
-            <v>SwapHealAddRate</v>
-          </cell>
           <cell r="Z10">
-            <v>16</v>
-          </cell>
-          <cell r="AA10">
-            <v>15</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="11">
@@ -1554,29 +1580,26 @@
           <cell r="P11">
             <v>2</v>
           </cell>
-          <cell r="R11" t="str">
+          <cell r="S11" t="str">
+            <v/>
+          </cell>
+          <cell r="T11" t="str">
             <v>BurrowStart</v>
           </cell>
-          <cell r="S11" t="str">
+          <cell r="U11" t="str">
             <v>BurrowEnd</v>
           </cell>
-          <cell r="T11" t="str">
+          <cell r="V11" t="str">
             <v>BurrowScrollObject</v>
           </cell>
-          <cell r="U11" t="str">
+          <cell r="W11" t="str">
             <v>BurrowAttack</v>
           </cell>
-          <cell r="W11" t="str">
+          <cell r="Y11" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="Y11" t="str">
-            <v>SpGainAddRate</v>
-          </cell>
           <cell r="Z11">
-            <v>7</v>
-          </cell>
-          <cell r="AA11">
-            <v>13</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="12">
@@ -1607,20 +1630,17 @@
           <cell r="M12" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O12" t="str">
+          <cell r="O12">
             <v>18</v>
           </cell>
-          <cell r="W12" t="str">
+          <cell r="S12" t="str">
+            <v/>
+          </cell>
+          <cell r="Y12" t="str">
             <v>MoveSpeedAddRate</v>
           </cell>
-          <cell r="Y12" t="str">
-            <v>AttackAddRate</v>
-          </cell>
           <cell r="Z12">
-            <v>18</v>
-          </cell>
-          <cell r="AA12">
-            <v>13</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="13">
@@ -1651,20 +1671,17 @@
           <cell r="M13" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O13" t="str">
+          <cell r="O13">
             <v>18</v>
           </cell>
-          <cell r="W13" t="str">
+          <cell r="S13" t="str">
+            <v/>
+          </cell>
+          <cell r="Y13" t="str">
             <v>NormalMonsterDamageIncreaseAddRate</v>
           </cell>
-          <cell r="Y13" t="str">
-            <v>CriticalRate</v>
-          </cell>
           <cell r="Z13">
-            <v>8</v>
-          </cell>
-          <cell r="AA13">
-            <v>12</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="14">
@@ -1695,19 +1712,16 @@
           <cell r="M14" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O14" t="str">
+          <cell r="O14">
             <v>18</v>
           </cell>
-          <cell r="W14" t="str">
+          <cell r="S14" t="str">
+            <v/>
+          </cell>
+          <cell r="Y14" t="str">
             <v>NormalMonsterDamageDecreaseAddRate</v>
           </cell>
-          <cell r="Y14" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
           <cell r="Z14">
-            <v>17</v>
-          </cell>
-          <cell r="AA14">
             <v>12</v>
           </cell>
         </row>
@@ -1739,20 +1753,17 @@
           <cell r="M15" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O15" t="str">
+          <cell r="O15">
             <v>18</v>
           </cell>
-          <cell r="W15" t="str">
+          <cell r="S15" t="str">
+            <v/>
+          </cell>
+          <cell r="Y15" t="str">
             <v>BossMonsterDamageIncreaseAddRate</v>
           </cell>
-          <cell r="Y15" t="str">
-            <v>AttackDelay</v>
-          </cell>
           <cell r="Z15">
-            <v>2</v>
-          </cell>
-          <cell r="AA15">
-            <v>11</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="16">
@@ -1783,20 +1794,17 @@
           <cell r="M16" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O16" t="str">
+          <cell r="O16">
             <v>18</v>
           </cell>
-          <cell r="W16" t="str">
+          <cell r="S16" t="str">
+            <v/>
+          </cell>
+          <cell r="Y16" t="str">
             <v>BossMonsterDamageDecreaseAddRate</v>
           </cell>
-          <cell r="Y16" t="str">
-            <v>EvadeRate</v>
-          </cell>
           <cell r="Z16">
-            <v>4</v>
-          </cell>
-          <cell r="AA16">
-            <v>9</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="17">
@@ -1827,20 +1835,17 @@
           <cell r="M17" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O17" t="str">
+          <cell r="O17">
             <v>18</v>
           </cell>
-          <cell r="W17" t="str">
+          <cell r="S17" t="str">
+            <v/>
+          </cell>
+          <cell r="Y17" t="str">
             <v>PowerSourceHealAddRate</v>
           </cell>
-          <cell r="Y17" t="str">
-            <v>MoveSpeed</v>
-          </cell>
           <cell r="Z17">
-            <v>5</v>
-          </cell>
-          <cell r="AA17">
-            <v>9</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="18">
@@ -1871,20 +1876,17 @@
           <cell r="M18" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O18" t="str">
+          <cell r="O18">
             <v>18</v>
           </cell>
-          <cell r="W18" t="str">
+          <cell r="S18" t="str">
+            <v/>
+          </cell>
+          <cell r="Y18" t="str">
             <v>SwapHealAddRate</v>
           </cell>
-          <cell r="Y18" t="str">
-            <v>Attack</v>
-          </cell>
           <cell r="Z18">
-            <v>1</v>
-          </cell>
-          <cell r="AA18">
-            <v>6</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="19">
@@ -1915,20 +1917,17 @@
           <cell r="M19" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O19" t="str">
+          <cell r="O19">
             <v>18</v>
           </cell>
-          <cell r="W19" t="str">
+          <cell r="S19" t="str">
+            <v/>
+          </cell>
+          <cell r="Y19" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="Y19" t="str">
-            <v>MaxHp</v>
-          </cell>
           <cell r="Z19">
-            <v>0</v>
-          </cell>
-          <cell r="AA19">
-            <v>5</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="20">
@@ -1959,20 +1958,17 @@
           <cell r="M20" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O20" t="str">
+          <cell r="O20">
             <v>18</v>
           </cell>
-          <cell r="W20" t="str">
+          <cell r="S20" t="str">
+            <v/>
+          </cell>
+          <cell r="Y20" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="Y20" t="str">
-            <v>MaxSp</v>
-          </cell>
           <cell r="Z20">
-            <v>6</v>
-          </cell>
-          <cell r="AA20">
-            <v>5</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="21">
@@ -2003,8 +1999,11 @@
           <cell r="M21" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O21" t="str">
+          <cell r="O21">
             <v>18</v>
+          </cell>
+          <cell r="S21" t="str">
+            <v/>
           </cell>
         </row>
         <row r="22">
@@ -2035,8 +2034,11 @@
           <cell r="M22" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O22" t="str">
+          <cell r="O22">
             <v>18</v>
+          </cell>
+          <cell r="S22" t="str">
+            <v/>
           </cell>
         </row>
         <row r="23">
@@ -2067,8 +2069,11 @@
           <cell r="M23" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O23" t="str">
+          <cell r="O23">
             <v>18</v>
+          </cell>
+          <cell r="S23" t="str">
+            <v/>
           </cell>
         </row>
         <row r="24">
@@ -2099,8 +2104,11 @@
           <cell r="M24" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O24" t="str">
+          <cell r="O24">
             <v>18</v>
+          </cell>
+          <cell r="S24" t="str">
+            <v/>
           </cell>
         </row>
         <row r="25">
@@ -2131,8 +2139,11 @@
           <cell r="M25" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O25" t="str">
+          <cell r="O25">
             <v>18</v>
+          </cell>
+          <cell r="S25" t="str">
+            <v/>
           </cell>
         </row>
         <row r="26">
@@ -2163,8 +2174,11 @@
           <cell r="M26" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O26" t="str">
+          <cell r="O26">
             <v>18</v>
+          </cell>
+          <cell r="S26" t="str">
+            <v/>
           </cell>
         </row>
         <row r="27">
@@ -2195,8 +2209,11 @@
           <cell r="M27" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O27" t="str">
+          <cell r="O27">
             <v>18</v>
+          </cell>
+          <cell r="S27" t="str">
+            <v/>
           </cell>
         </row>
         <row r="28">
@@ -2227,8 +2244,11 @@
           <cell r="M28" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O28" t="str">
+          <cell r="O28">
             <v>18</v>
+          </cell>
+          <cell r="S28" t="str">
+            <v/>
           </cell>
         </row>
         <row r="29">
@@ -2259,8 +2279,11 @@
           <cell r="M29" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O29" t="str">
+          <cell r="O29">
             <v>18</v>
+          </cell>
+          <cell r="S29" t="str">
+            <v/>
           </cell>
         </row>
         <row r="30">
@@ -2291,8 +2314,11 @@
           <cell r="M30" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O30" t="str">
+          <cell r="O30">
             <v>18</v>
+          </cell>
+          <cell r="S30" t="str">
+            <v/>
           </cell>
         </row>
         <row r="31">
@@ -2323,8 +2349,11 @@
           <cell r="M31" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O31" t="str">
+          <cell r="O31">
             <v>3</v>
+          </cell>
+          <cell r="S31" t="str">
+            <v/>
           </cell>
         </row>
         <row r="32">
@@ -2355,8 +2384,11 @@
           <cell r="M32" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O32" t="str">
+          <cell r="O32">
             <v>3</v>
+          </cell>
+          <cell r="S32" t="str">
+            <v/>
           </cell>
         </row>
         <row r="33">
@@ -2387,8 +2419,11 @@
           <cell r="M33" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O33" t="str">
+          <cell r="O33">
             <v>3</v>
+          </cell>
+          <cell r="S33" t="str">
+            <v/>
           </cell>
         </row>
         <row r="34">
@@ -2419,8 +2454,11 @@
           <cell r="M34" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O34" t="str">
+          <cell r="O34">
             <v>3</v>
+          </cell>
+          <cell r="S34" t="str">
+            <v/>
           </cell>
         </row>
         <row r="35">
@@ -2451,8 +2489,11 @@
           <cell r="M35" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O35" t="str">
+          <cell r="O35">
             <v>3</v>
+          </cell>
+          <cell r="S35" t="str">
+            <v/>
           </cell>
         </row>
         <row r="36">
@@ -2483,8 +2524,11 @@
           <cell r="M36" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O36" t="str">
+          <cell r="O36">
             <v>3</v>
+          </cell>
+          <cell r="S36" t="str">
+            <v/>
           </cell>
         </row>
         <row r="37">
@@ -2515,8 +2559,11 @@
           <cell r="M37" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O37" t="str">
+          <cell r="O37">
             <v>3</v>
+          </cell>
+          <cell r="S37" t="str">
+            <v/>
           </cell>
         </row>
         <row r="38">
@@ -2547,8 +2594,11 @@
           <cell r="M38" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O38" t="str">
+          <cell r="O38">
             <v>3</v>
+          </cell>
+          <cell r="S38" t="str">
+            <v/>
           </cell>
         </row>
         <row r="39">
@@ -2579,8 +2629,11 @@
           <cell r="M39" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O39" t="str">
+          <cell r="O39">
             <v>3</v>
+          </cell>
+          <cell r="S39" t="str">
+            <v/>
           </cell>
         </row>
         <row r="40">
@@ -2611,8 +2664,11 @@
           <cell r="M40" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O40" t="str">
+          <cell r="O40">
             <v>3</v>
+          </cell>
+          <cell r="S40" t="str">
+            <v/>
           </cell>
         </row>
         <row r="41">
@@ -2643,8 +2699,11 @@
           <cell r="M41" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O41" t="str">
+          <cell r="O41">
             <v>3</v>
+          </cell>
+          <cell r="S41" t="str">
+            <v/>
           </cell>
         </row>
         <row r="42">
@@ -2675,8 +2734,11 @@
           <cell r="M42" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O42" t="str">
+          <cell r="O42">
             <v>3</v>
+          </cell>
+          <cell r="S42" t="str">
+            <v/>
           </cell>
         </row>
         <row r="43">
@@ -2707,8 +2769,11 @@
           <cell r="M43" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O43" t="str">
+          <cell r="O43">
             <v>3</v>
+          </cell>
+          <cell r="S43" t="str">
+            <v/>
           </cell>
         </row>
         <row r="44">
@@ -2739,8 +2804,11 @@
           <cell r="M44" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O44" t="str">
+          <cell r="O44">
             <v>3</v>
+          </cell>
+          <cell r="S44" t="str">
+            <v/>
           </cell>
         </row>
         <row r="45">
@@ -2771,8 +2839,11 @@
           <cell r="M45" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O45" t="str">
+          <cell r="O45">
             <v>3</v>
+          </cell>
+          <cell r="S45" t="str">
+            <v/>
           </cell>
         </row>
         <row r="46">
@@ -2803,8 +2874,11 @@
           <cell r="M46" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O46" t="str">
+          <cell r="O46">
             <v>3</v>
+          </cell>
+          <cell r="S46" t="str">
+            <v/>
           </cell>
         </row>
         <row r="47">
@@ -2835,8 +2909,11 @@
           <cell r="M47" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O47" t="str">
+          <cell r="O47">
             <v>3</v>
+          </cell>
+          <cell r="S47" t="str">
+            <v/>
           </cell>
         </row>
         <row r="48">
@@ -2867,8 +2944,11 @@
           <cell r="M48" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O48" t="str">
+          <cell r="O48">
             <v>3</v>
+          </cell>
+          <cell r="S48" t="str">
+            <v/>
           </cell>
         </row>
         <row r="49">
@@ -2899,8 +2979,11 @@
           <cell r="M49" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O49" t="str">
+          <cell r="O49">
             <v>3</v>
+          </cell>
+          <cell r="S49" t="str">
+            <v/>
           </cell>
         </row>
         <row r="50">
@@ -2931,8 +3014,11 @@
           <cell r="M50" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O50" t="str">
+          <cell r="O50">
             <v>8</v>
+          </cell>
+          <cell r="S50" t="str">
+            <v/>
           </cell>
         </row>
         <row r="51">
@@ -2963,8 +3049,11 @@
           <cell r="M51" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O51" t="str">
+          <cell r="O51">
             <v>8</v>
+          </cell>
+          <cell r="S51" t="str">
+            <v/>
           </cell>
         </row>
         <row r="52">
@@ -2995,8 +3084,11 @@
           <cell r="M52" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O52" t="str">
+          <cell r="O52">
             <v>8</v>
+          </cell>
+          <cell r="S52" t="str">
+            <v/>
           </cell>
         </row>
         <row r="53">
@@ -3027,8 +3119,11 @@
           <cell r="M53" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O53" t="str">
+          <cell r="O53">
             <v>8</v>
+          </cell>
+          <cell r="S53" t="str">
+            <v/>
           </cell>
         </row>
         <row r="54">
@@ -3059,8 +3154,11 @@
           <cell r="M54" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O54" t="str">
+          <cell r="O54">
             <v>8</v>
+          </cell>
+          <cell r="S54" t="str">
+            <v/>
           </cell>
         </row>
         <row r="55">
@@ -3091,8 +3189,11 @@
           <cell r="M55" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O55" t="str">
+          <cell r="O55">
             <v>8</v>
+          </cell>
+          <cell r="S55" t="str">
+            <v/>
           </cell>
         </row>
         <row r="56">
@@ -3123,8 +3224,11 @@
           <cell r="M56" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O56" t="str">
+          <cell r="O56">
             <v>8</v>
+          </cell>
+          <cell r="S56" t="str">
+            <v/>
           </cell>
         </row>
         <row r="57">
@@ -3155,8 +3259,11 @@
           <cell r="M57" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O57" t="str">
+          <cell r="O57">
             <v>8</v>
+          </cell>
+          <cell r="S57" t="str">
+            <v/>
           </cell>
         </row>
         <row r="58">
@@ -3187,8 +3294,11 @@
           <cell r="M58" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O58" t="str">
+          <cell r="O58">
             <v>8</v>
+          </cell>
+          <cell r="S58" t="str">
+            <v/>
           </cell>
         </row>
         <row r="59">
@@ -3219,8 +3329,11 @@
           <cell r="M59" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O59" t="str">
+          <cell r="O59">
             <v>8</v>
+          </cell>
+          <cell r="S59" t="str">
+            <v/>
           </cell>
         </row>
         <row r="60">
@@ -3251,8 +3364,11 @@
           <cell r="M60" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O60" t="str">
+          <cell r="O60">
             <v>9</v>
+          </cell>
+          <cell r="S60" t="str">
+            <v/>
           </cell>
         </row>
         <row r="61">
@@ -3283,8 +3399,11 @@
           <cell r="M61" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O61" t="str">
+          <cell r="O61">
             <v>9</v>
+          </cell>
+          <cell r="S61" t="str">
+            <v/>
           </cell>
         </row>
         <row r="62">
@@ -3315,8 +3434,11 @@
           <cell r="M62" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O62" t="str">
+          <cell r="O62">
             <v>9</v>
+          </cell>
+          <cell r="S62" t="str">
+            <v/>
           </cell>
         </row>
         <row r="63">
@@ -3347,8 +3469,11 @@
           <cell r="M63" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O63" t="str">
+          <cell r="O63">
             <v>9</v>
+          </cell>
+          <cell r="S63" t="str">
+            <v/>
           </cell>
         </row>
         <row r="64">
@@ -3379,8 +3504,11 @@
           <cell r="M64" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O64" t="str">
+          <cell r="O64">
             <v>9</v>
+          </cell>
+          <cell r="S64" t="str">
+            <v/>
           </cell>
         </row>
         <row r="65">
@@ -3411,8 +3539,11 @@
           <cell r="M65" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O65" t="str">
+          <cell r="O65">
             <v>9</v>
+          </cell>
+          <cell r="S65" t="str">
+            <v/>
           </cell>
         </row>
         <row r="66">
@@ -3443,8 +3574,11 @@
           <cell r="M66" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O66" t="str">
+          <cell r="O66">
             <v>9</v>
+          </cell>
+          <cell r="S66" t="str">
+            <v/>
           </cell>
         </row>
         <row r="67">
@@ -3475,8 +3609,11 @@
           <cell r="M67" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O67" t="str">
+          <cell r="O67">
             <v>9</v>
+          </cell>
+          <cell r="S67" t="str">
+            <v/>
           </cell>
         </row>
         <row r="68">
@@ -3507,8 +3644,11 @@
           <cell r="M68" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O68" t="str">
+          <cell r="O68">
             <v>9</v>
+          </cell>
+          <cell r="S68" t="str">
+            <v/>
           </cell>
         </row>
         <row r="69">
@@ -3539,8 +3679,11 @@
           <cell r="M69" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O69" t="str">
+          <cell r="O69">
             <v>9</v>
+          </cell>
+          <cell r="S69" t="str">
+            <v/>
           </cell>
         </row>
         <row r="70">
@@ -3571,8 +3714,11 @@
           <cell r="M70" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O70" t="str">
+          <cell r="O70">
             <v>9</v>
+          </cell>
+          <cell r="S70" t="str">
+            <v/>
           </cell>
         </row>
         <row r="71">
@@ -3603,8 +3749,11 @@
           <cell r="M71" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O71" t="str">
+          <cell r="O71">
             <v>9</v>
+          </cell>
+          <cell r="S71" t="str">
+            <v/>
           </cell>
         </row>
         <row r="72">
@@ -3635,8 +3784,11 @@
           <cell r="M72" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O72" t="str">
+          <cell r="O72">
             <v>9</v>
+          </cell>
+          <cell r="S72" t="str">
+            <v/>
           </cell>
         </row>
         <row r="73">
@@ -3667,8 +3819,11 @@
           <cell r="M73" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O73" t="str">
+          <cell r="O73">
             <v>8</v>
+          </cell>
+          <cell r="S73" t="str">
+            <v/>
           </cell>
         </row>
         <row r="74">
@@ -3699,8 +3854,11 @@
           <cell r="M74" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O74" t="str">
+          <cell r="O74">
             <v>8</v>
+          </cell>
+          <cell r="S74" t="str">
+            <v/>
           </cell>
         </row>
         <row r="75">
@@ -3731,8 +3889,11 @@
           <cell r="M75" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O75" t="str">
+          <cell r="O75">
             <v>8</v>
+          </cell>
+          <cell r="S75" t="str">
+            <v/>
           </cell>
         </row>
         <row r="76">
@@ -3763,8 +3924,11 @@
           <cell r="M76" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O76" t="str">
+          <cell r="O76">
             <v>8</v>
+          </cell>
+          <cell r="S76" t="str">
+            <v/>
           </cell>
         </row>
         <row r="77">
@@ -3795,8 +3959,11 @@
           <cell r="M77" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O77" t="str">
+          <cell r="O77">
             <v>8</v>
+          </cell>
+          <cell r="S77" t="str">
+            <v/>
           </cell>
         </row>
         <row r="78">
@@ -3827,8 +3994,11 @@
           <cell r="M78" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O78" t="str">
+          <cell r="O78">
             <v>8</v>
+          </cell>
+          <cell r="S78" t="str">
+            <v/>
           </cell>
         </row>
         <row r="79">
@@ -3859,8 +4029,11 @@
           <cell r="M79" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O79" t="str">
+          <cell r="O79">
             <v>8</v>
+          </cell>
+          <cell r="S79" t="str">
+            <v/>
           </cell>
         </row>
         <row r="80">
@@ -3891,8 +4064,11 @@
           <cell r="M80" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O80" t="str">
+          <cell r="O80">
             <v>8</v>
+          </cell>
+          <cell r="S80" t="str">
+            <v/>
           </cell>
         </row>
         <row r="81">
@@ -3923,8 +4099,11 @@
           <cell r="M81" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O81" t="str">
+          <cell r="O81">
             <v>8</v>
+          </cell>
+          <cell r="S81" t="str">
+            <v/>
           </cell>
         </row>
         <row r="82">
@@ -3955,8 +4134,11 @@
           <cell r="M82" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O82" t="str">
+          <cell r="O82">
             <v>8</v>
+          </cell>
+          <cell r="S82" t="str">
+            <v/>
           </cell>
         </row>
         <row r="83">
@@ -3987,8 +4169,11 @@
           <cell r="M83" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O83" t="str">
+          <cell r="O83">
             <v>8</v>
+          </cell>
+          <cell r="S83" t="str">
+            <v/>
           </cell>
         </row>
         <row r="84">
@@ -4019,8 +4204,11 @@
           <cell r="M84" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O84" t="str">
+          <cell r="O84">
             <v>8</v>
+          </cell>
+          <cell r="S84" t="str">
+            <v/>
           </cell>
         </row>
         <row r="85">
@@ -4051,8 +4239,11 @@
           <cell r="M85" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O85" t="str">
+          <cell r="O85">
             <v>8</v>
+          </cell>
+          <cell r="S85" t="str">
+            <v/>
           </cell>
         </row>
         <row r="86">
@@ -4083,8 +4274,11 @@
           <cell r="M86" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O86" t="str">
+          <cell r="O86">
             <v>17</v>
+          </cell>
+          <cell r="S86" t="str">
+            <v/>
           </cell>
         </row>
         <row r="87">
@@ -4115,8 +4309,11 @@
           <cell r="M87" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O87" t="str">
+          <cell r="O87">
             <v>17</v>
+          </cell>
+          <cell r="S87" t="str">
+            <v/>
           </cell>
         </row>
         <row r="88">
@@ -4147,8 +4344,11 @@
           <cell r="M88" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O88" t="str">
+          <cell r="O88">
             <v>17</v>
+          </cell>
+          <cell r="S88" t="str">
+            <v/>
           </cell>
         </row>
         <row r="89">
@@ -4179,8 +4379,11 @@
           <cell r="M89" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O89" t="str">
+          <cell r="O89">
             <v>17</v>
+          </cell>
+          <cell r="S89" t="str">
+            <v/>
           </cell>
         </row>
         <row r="90">
@@ -4211,8 +4414,11 @@
           <cell r="M90" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O90" t="str">
+          <cell r="O90">
             <v>17</v>
+          </cell>
+          <cell r="S90" t="str">
+            <v/>
           </cell>
         </row>
         <row r="91">
@@ -4243,8 +4449,11 @@
           <cell r="M91" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O91" t="str">
+          <cell r="O91">
             <v>17</v>
+          </cell>
+          <cell r="S91" t="str">
+            <v/>
           </cell>
         </row>
         <row r="92">
@@ -4275,8 +4484,11 @@
           <cell r="M92" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O92" t="str">
+          <cell r="O92">
             <v>17</v>
+          </cell>
+          <cell r="S92" t="str">
+            <v/>
           </cell>
         </row>
         <row r="93">
@@ -4307,8 +4519,11 @@
           <cell r="M93" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O93" t="str">
+          <cell r="O93">
             <v>17</v>
+          </cell>
+          <cell r="S93" t="str">
+            <v/>
           </cell>
         </row>
         <row r="94">
@@ -4339,8 +4554,11 @@
           <cell r="M94" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O94" t="str">
+          <cell r="O94">
             <v>17</v>
+          </cell>
+          <cell r="S94" t="str">
+            <v/>
           </cell>
         </row>
         <row r="95">
@@ -4371,8 +4589,11 @@
           <cell r="M95" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O95" t="str">
+          <cell r="O95">
             <v>17</v>
+          </cell>
+          <cell r="S95" t="str">
+            <v/>
           </cell>
         </row>
         <row r="96">
@@ -4403,8 +4624,11 @@
           <cell r="M96" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O96" t="str">
+          <cell r="O96">
             <v>17</v>
+          </cell>
+          <cell r="S96" t="str">
+            <v/>
           </cell>
         </row>
         <row r="97">
@@ -4435,8 +4659,11 @@
           <cell r="M97" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O97" t="str">
+          <cell r="O97">
             <v>17</v>
+          </cell>
+          <cell r="S97" t="str">
+            <v/>
           </cell>
         </row>
         <row r="98">
@@ -4467,8 +4694,11 @@
           <cell r="M98" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O98" t="str">
+          <cell r="O98">
             <v>17</v>
+          </cell>
+          <cell r="S98" t="str">
+            <v/>
           </cell>
         </row>
         <row r="99">
@@ -4499,8 +4729,11 @@
           <cell r="M99" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O99" t="str">
+          <cell r="O99">
             <v>17</v>
+          </cell>
+          <cell r="S99" t="str">
+            <v/>
           </cell>
         </row>
         <row r="100">
@@ -4531,8 +4764,11 @@
           <cell r="M100" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O100" t="str">
+          <cell r="O100">
             <v>17</v>
+          </cell>
+          <cell r="S100" t="str">
+            <v/>
           </cell>
         </row>
         <row r="101">
@@ -4563,8 +4799,11 @@
           <cell r="M101" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O101" t="str">
+          <cell r="O101">
             <v>17</v>
+          </cell>
+          <cell r="S101" t="str">
+            <v/>
           </cell>
         </row>
         <row r="102">
@@ -4595,8 +4834,11 @@
           <cell r="M102" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O102" t="str">
+          <cell r="O102">
             <v>17</v>
+          </cell>
+          <cell r="S102" t="str">
+            <v/>
           </cell>
         </row>
         <row r="103">
@@ -4627,8 +4869,11 @@
           <cell r="M103" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O103" t="str">
+          <cell r="O103">
             <v>17</v>
+          </cell>
+          <cell r="S103" t="str">
+            <v/>
           </cell>
         </row>
         <row r="104">
@@ -4659,8 +4904,11 @@
           <cell r="M104" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O104" t="str">
+          <cell r="O104">
             <v>17</v>
+          </cell>
+          <cell r="S104" t="str">
+            <v/>
           </cell>
         </row>
         <row r="105">
@@ -4691,8 +4939,11 @@
           <cell r="M105" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O105" t="str">
+          <cell r="O105">
             <v>17</v>
+          </cell>
+          <cell r="S105" t="str">
+            <v/>
           </cell>
         </row>
         <row r="106">
@@ -4723,8 +4974,11 @@
           <cell r="M106" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O106" t="str">
+          <cell r="O106">
             <v>17</v>
+          </cell>
+          <cell r="S106" t="str">
+            <v/>
           </cell>
         </row>
         <row r="107">
@@ -4755,8 +5009,11 @@
           <cell r="M107" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O107" t="str">
+          <cell r="O107">
             <v>17</v>
+          </cell>
+          <cell r="S107" t="str">
+            <v/>
           </cell>
         </row>
         <row r="108">
@@ -4787,8 +5044,11 @@
           <cell r="M108" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O108" t="str">
+          <cell r="O108">
             <v>17</v>
+          </cell>
+          <cell r="S108" t="str">
+            <v/>
           </cell>
         </row>
         <row r="109">
@@ -4816,6 +5076,9 @@
           <cell r="O109" t="str">
             <v/>
           </cell>
+          <cell r="S109" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
@@ -4842,6 +5105,9 @@
           <cell r="O110" t="str">
             <v/>
           </cell>
+          <cell r="S110" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
@@ -4868,6 +5134,9 @@
           <cell r="O111" t="str">
             <v/>
           </cell>
+          <cell r="S111" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
@@ -4894,6 +5163,9 @@
           <cell r="O112">
             <v>1</v>
           </cell>
+          <cell r="S112" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
@@ -4920,6 +5192,9 @@
           <cell r="O113">
             <v>2</v>
           </cell>
+          <cell r="S113" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
@@ -4946,6 +5221,9 @@
           <cell r="O114">
             <v>1</v>
           </cell>
+          <cell r="S114" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
@@ -4972,6 +5250,9 @@
           <cell r="O115">
             <v>2</v>
           </cell>
+          <cell r="S115" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
@@ -4998,6 +5279,9 @@
           <cell r="O116">
             <v>1</v>
           </cell>
+          <cell r="S116" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
@@ -5024,6 +5308,9 @@
           <cell r="O117">
             <v>2</v>
           </cell>
+          <cell r="S117" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
@@ -5044,11 +5331,17 @@
           <cell r="H118" t="str">
             <v/>
           </cell>
+          <cell r="J118">
+            <v>0.6</v>
+          </cell>
           <cell r="N118">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O118">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+          <cell r="S118" t="str">
+            <v/>
           </cell>
         </row>
         <row r="119">
@@ -5070,11 +5363,17 @@
           <cell r="H119" t="str">
             <v/>
           </cell>
+          <cell r="J119">
+            <v>0.6</v>
+          </cell>
           <cell r="N119">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O119">
-            <v>2</v>
+            <v>3</v>
+          </cell>
+          <cell r="S119" t="str">
+            <v/>
           </cell>
         </row>
         <row r="120">
@@ -5102,6 +5401,9 @@
           <cell r="O120">
             <v>1</v>
           </cell>
+          <cell r="S120" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
@@ -5128,6 +5430,9 @@
           <cell r="O121">
             <v>2</v>
           </cell>
+          <cell r="S121" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
@@ -5154,6 +5459,9 @@
           <cell r="O122">
             <v>1</v>
           </cell>
+          <cell r="S122" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
@@ -5180,6 +5488,9 @@
           <cell r="O123">
             <v>2</v>
           </cell>
+          <cell r="S123" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
@@ -5206,6 +5517,9 @@
           <cell r="O124">
             <v>1</v>
           </cell>
+          <cell r="S124" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
@@ -5232,6 +5546,9 @@
           <cell r="O125">
             <v>2</v>
           </cell>
+          <cell r="S125" t="str">
+            <v/>
+          </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
@@ -5252,11 +5569,17 @@
           <cell r="H126" t="str">
             <v/>
           </cell>
+          <cell r="J126">
+            <v>0.5</v>
+          </cell>
           <cell r="N126">
             <v>1</v>
           </cell>
           <cell r="O126">
             <v>1</v>
+          </cell>
+          <cell r="S126" t="str">
+            <v/>
           </cell>
         </row>
         <row r="127">
@@ -5278,17 +5601,23 @@
           <cell r="H127" t="str">
             <v/>
           </cell>
+          <cell r="J127">
+            <v>0.5</v>
+          </cell>
           <cell r="N127">
             <v>2</v>
           </cell>
           <cell r="O127">
             <v>2</v>
           </cell>
+          <cell r="S127" t="str">
+            <v/>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5422,125 +5751,125 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>GameUI_ExitGame</v>
+            <v>GameUI_Lv</v>
           </cell>
           <cell r="B11" t="str">
-            <v>나가기</v>
+            <v>Lv. {0}</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Exit</v>
+            <v>Lv. {0}</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>GameUI_ExitGameDescription</v>
+            <v>GameUI_ExitGame</v>
           </cell>
           <cell r="B12" t="str">
-            <v>게임을 종료하시겠습니까?</v>
+            <v>나가기</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Quit the game?</v>
+            <v>Exit</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>GameUI_BackToLobby</v>
+            <v>GameUI_ExitGameDescription</v>
           </cell>
           <cell r="B13" t="str">
-            <v>나가기</v>
+            <v>게임을 종료하시겠습니까?</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Exit</v>
+            <v>Quit the game?</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
+            <v>GameUI_BackToLobby</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
             <v>GameUI_BackToLobbyDescription</v>
           </cell>
-          <cell r="B14" t="str">
+          <cell r="B15" t="str">
             <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
 전투를 중지하시겠습니까?</v>
           </cell>
-          <cell r="C14" t="str">
+          <cell r="C15" t="str">
             <v>You cannot get gold, items you got til now.
 Sure to quit the battle?</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>GameUI_TouchToMove</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>터치하여 이동하세요</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Touch to move</v>
-          </cell>
-        </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>GameUI_Play</v>
+            <v>GameUI_TouchToMove</v>
           </cell>
           <cell r="B16" t="str">
-            <v>진행</v>
+            <v>터치하여 이동하세요</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Play</v>
+            <v>Touch to move</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>GameUI_PossibleAfterTraining</v>
+            <v>GameUI_Play</v>
           </cell>
           <cell r="B17" t="str">
-            <v>훈련 챕터 클리어 후 진행 가능</v>
+            <v>진행</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Possible to play after the training chapter</v>
+            <v>Play</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>GameUI_Shop</v>
+            <v>GameUI_PossibleAfterTraining</v>
           </cell>
           <cell r="B18" t="str">
-            <v>상점</v>
+            <v>훈련 챕터 클리어 후 진행 가능</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Shop</v>
+            <v>Possible to play after the training chapter</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>GameUI_UnderConstruction</v>
+            <v>GameUI_Shop</v>
           </cell>
           <cell r="B19" t="str">
-            <v>개발 중</v>
+            <v>상점</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Under Construction</v>
+            <v>Shop</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>GameUI_Swappable</v>
+            <v>GameUI_UnderConstruction</v>
           </cell>
           <cell r="B20" t="str">
-            <v>교체 가능</v>
+            <v>개발 중</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Can be swapped</v>
+            <v>Under Construction</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>GameUI_RepiarPack</v>
+            <v>GameUI_Swappable</v>
           </cell>
           <cell r="B21" t="str">
-            <v>{0}레벨 수리킷 사용</v>
+            <v>교체 가능</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Use Repair Kit Lv. {0}</v>
+            <v>Can be swapped</v>
           </cell>
         </row>
         <row r="22">
@@ -5578,157 +5907,157 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B25" t="str">
-            <v>소</v>
+            <v>불사!</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Low</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B26" t="str">
-            <v>중</v>
+            <v>소</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Medium</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B27" t="str">
-            <v>대</v>
+            <v>중</v>
           </cell>
           <cell r="C27" t="str">
-            <v>High</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B28" t="str">
-            <v>극대</v>
+            <v>대</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Ultra</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B29" t="str">
-            <v>초극대</v>
+            <v>극대</v>
           </cell>
           <cell r="C29" t="str">
-            <v>ExtraUltra</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B30" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>초극대</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Choose a level-pack</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>LevelPackUIName_AtkLow</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B31" t="str">
-            <v>공격력(소)</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>LevelPackUIName_AtkMedium</v>
+            <v>LevelPackUIName_AtkLow</v>
           </cell>
           <cell r="B32" t="str">
-            <v>공격력(중)</v>
+            <v>공격력(소)</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
+            <v>LevelPackUIName_AtkMedium</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>공격력(중)</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Medium Attack Boost</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
             <v>LevelPackUIName_AtkHigh</v>
           </cell>
-          <cell r="B33" t="str">
+          <cell r="B34" t="str">
             <v>공격력(대)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C33" t="str">
-            <v>In progress of translating…(33)</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
+          <cell r="C34" t="str">
+            <v>In progress of translating…(34)</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
             <v>LevelPackUIName_AtkSpeedLow</v>
           </cell>
-          <cell r="B34" t="str">
+          <cell r="B35" t="str">
             <v>공속(소)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C34" t="str">
-            <v>In progress of translating…(34)</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
+          <cell r="C35" t="str">
+            <v>In progress of translating…(35)</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
             <v>LevelPackUIName_AtkSpeedMedium</v>
           </cell>
-          <cell r="B35" t="str">
+          <cell r="B36" t="str">
             <v>공속(중)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C35" t="str">
-            <v>In progress of translating…(35)</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
+          <cell r="C36" t="str">
+            <v>In progress of translating…(36)</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
             <v>LevelPackUIName_AtkSpeedHigh</v>
           </cell>
-          <cell r="B36" t="str">
+          <cell r="B37" t="str">
             <v>공속(대)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C36" t="str">
-            <v>In progress of translating…(36)</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>LevelPackUIName_CritLow</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>크리(소)</v>
-          </cell>
           <cell r="C37" t="str">
             <v>In progress of translating…(37)</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LevelPackUIName_CritMedium</v>
+            <v>LevelPackUIName_CritLow</v>
           </cell>
           <cell r="B38" t="str">
-            <v>크리(중)</v>
+            <v>크리(소)</v>
           </cell>
           <cell r="C38" t="str">
             <v>In progress of translating…(38)</v>
@@ -5736,33 +6065,33 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
+            <v>LevelPackUIName_CritMedium</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>크리(중)</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>In progress of translating…(39)</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
             <v>LevelPackUIName_CritHigh</v>
           </cell>
-          <cell r="B39" t="str">
+          <cell r="B40" t="str">
             <v>크리(대)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C39" t="str">
-            <v>In progress of translating…(39)</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>LevelPackUIName_CritDmgLow</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>크리댐(소)</v>
-          </cell>
           <cell r="C40" t="str">
             <v>In progress of translating…(40)</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LevelPackUIName_CritDmgMedium</v>
+            <v>LevelPackUIName_CritDmgLow</v>
           </cell>
           <cell r="B41" t="str">
-            <v>크리댐(중)</v>
+            <v>크리댐(소)</v>
           </cell>
           <cell r="C41" t="str">
             <v>In progress of translating…(41)</v>
@@ -5770,33 +6099,33 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
+            <v>LevelPackUIName_CritDmgMedium</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>크리댐(중)</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>In progress of translating…(42)</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
             <v>LevelPackUIName_CritDmgHigh</v>
           </cell>
-          <cell r="B42" t="str">
+          <cell r="B43" t="str">
             <v>크리댐(대)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C42" t="str">
-            <v>In progress of translating…(42)</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>LevelPackUIName_MaxHpLow</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>최대HP 증가(소)</v>
-          </cell>
           <cell r="C43" t="str">
             <v>In progress of translating…(43)</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LevelPackUIName_MaxHpMedium</v>
+            <v>LevelPackUIName_MaxHpLow</v>
           </cell>
           <cell r="B44" t="str">
-            <v>최대HP 증가(중)</v>
+            <v>최대HP 증가(소)</v>
           </cell>
           <cell r="C44" t="str">
             <v>In progress of translating…(44)</v>
@@ -5804,33 +6133,33 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
+            <v>LevelPackUIName_MaxHpMedium</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>최대HP 증가(중)</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>In progress of translating…(45)</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
             <v>LevelPackUIName_MaxHpHigh</v>
           </cell>
-          <cell r="B45" t="str">
+          <cell r="B46" t="str">
             <v>최대HP 증가(대)
 &lt;color=#FFAA55&gt;전용&lt;/color&gt;</v>
           </cell>
-          <cell r="C45" t="str">
-            <v>In progress of translating…(45)</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>골드 획득량증가</v>
-          </cell>
           <cell r="C46" t="str">
             <v>In progress of translating…(46)</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B47" t="str">
-            <v>아이템 확률증가</v>
+            <v>골드 획득량증가</v>
           </cell>
           <cell r="C47" t="str">
             <v>In progress of translating…(47)</v>
@@ -5838,10 +6167,10 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B48" t="str">
-            <v>힐구슬 확률증가</v>
+            <v>아이템 확률증가</v>
           </cell>
           <cell r="C48" t="str">
             <v>In progress of translating…(48)</v>
@@ -5849,10 +6178,10 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B49" t="str">
-            <v>몬스터 관통샷</v>
+            <v>힐구슬 확률증가</v>
           </cell>
           <cell r="C49" t="str">
             <v>In progress of translating…(49)</v>
@@ -5860,10 +6189,10 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B50" t="str">
-            <v>추적샷</v>
+            <v>몬스터 관통샷</v>
           </cell>
           <cell r="C50" t="str">
             <v>In progress of translating…(50)</v>
@@ -5871,10 +6200,10 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B51" t="str">
-            <v>벽바운스샷</v>
+            <v>추적샷</v>
           </cell>
           <cell r="C51" t="str">
             <v>In progress of translating…(51)</v>
@@ -5882,10 +6211,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B52" t="str">
-            <v>전방샷</v>
+            <v>벽바운스샷</v>
           </cell>
           <cell r="C52" t="str">
             <v>In progress of translating…(52)</v>
@@ -5893,10 +6222,10 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B53" t="str">
-            <v>대각샷</v>
+            <v>전방샷</v>
           </cell>
           <cell r="C53" t="str">
             <v>In progress of translating…(53)</v>
@@ -5904,10 +6233,10 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B54" t="str">
-            <v>좌우샷</v>
+            <v>대각샷</v>
           </cell>
           <cell r="C54" t="str">
             <v>In progress of translating…(54)</v>
@@ -5915,10 +6244,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B55" t="str">
-            <v>후방샷</v>
+            <v>좌우샷</v>
           </cell>
           <cell r="C55" t="str">
             <v>In progress of translating…(55)</v>
@@ -5926,10 +6255,10 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B56" t="str">
-            <v>반복샷</v>
+            <v>후방샷</v>
           </cell>
           <cell r="C56" t="str">
             <v>In progress of translating…(56)</v>
@@ -5937,10 +6266,10 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LevelPackUIDesc_AtkLow</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B57" t="str">
-            <v>공격력을 소량 올립니다</v>
+            <v>반복샷</v>
           </cell>
           <cell r="C57" t="str">
             <v>In progress of translating…(57)</v>
@@ -5948,10 +6277,10 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LevelPackUIDesc_AtkMedium</v>
+            <v>LevelPackUIDesc_AtkLow</v>
           </cell>
           <cell r="B58" t="str">
-            <v>공격력을 올립니다</v>
+            <v>공격력을 소량 올립니다</v>
           </cell>
           <cell r="C58" t="str">
             <v>In progress of translating…(58)</v>
@@ -5959,10 +6288,10 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LevelPackUIDesc_AtkHigh</v>
+            <v>LevelPackUIDesc_AtkMedium</v>
           </cell>
           <cell r="B59" t="str">
-            <v>공격력을 대폭 올립니다</v>
+            <v>공격력을 올립니다</v>
           </cell>
           <cell r="C59" t="str">
             <v>In progress of translating…(59)</v>
@@ -5970,10 +6299,10 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LevelPackUIDesc_AtkSpeedLow</v>
+            <v>LevelPackUIDesc_AtkHigh</v>
           </cell>
           <cell r="B60" t="str">
-            <v>공격속도를 소량 올립니다</v>
+            <v>공격력을 대폭 올립니다</v>
           </cell>
           <cell r="C60" t="str">
             <v>In progress of translating…(60)</v>
@@ -5981,10 +6310,10 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LevelPackUIDesc_AtkSpeedMedium</v>
+            <v>LevelPackUIDesc_AtkSpeedLow</v>
           </cell>
           <cell r="B61" t="str">
-            <v>공격속도를 올립니다</v>
+            <v>공격속도를 소량 올립니다</v>
           </cell>
           <cell r="C61" t="str">
             <v>In progress of translating…(61)</v>
@@ -5992,10 +6321,10 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LevelPackUIDesc_AtkSpeedHigh</v>
+            <v>LevelPackUIDesc_AtkSpeedMedium</v>
           </cell>
           <cell r="B62" t="str">
-            <v>공격속도를 대폭 올립니다</v>
+            <v>공격속도를 올립니다</v>
           </cell>
           <cell r="C62" t="str">
             <v>In progress of translating…(62)</v>
@@ -6003,10 +6332,10 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LevelPackUIDesc_CritLow</v>
+            <v>LevelPackUIDesc_AtkSpeedHigh</v>
           </cell>
           <cell r="B63" t="str">
-            <v>크리티컬 확률을 소량 올립니다</v>
+            <v>공격속도를 대폭 올립니다</v>
           </cell>
           <cell r="C63" t="str">
             <v>In progress of translating…(63)</v>
@@ -6014,10 +6343,10 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LevelPackUIDesc_CritMedium</v>
+            <v>LevelPackUIDesc_CritLow</v>
           </cell>
           <cell r="B64" t="str">
-            <v>크리티컬 확률을 올립니다</v>
+            <v>크리티컬 확률을 소량 올립니다</v>
           </cell>
           <cell r="C64" t="str">
             <v>In progress of translating…(64)</v>
@@ -6025,10 +6354,10 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>LevelPackUIDesc_CritHigh</v>
+            <v>LevelPackUIDesc_CritMedium</v>
           </cell>
           <cell r="B65" t="str">
-            <v>크리티컬 확률을 대폭 올립니다</v>
+            <v>크리티컬 확률을 올립니다</v>
           </cell>
           <cell r="C65" t="str">
             <v>In progress of translating…(65)</v>
@@ -6036,10 +6365,10 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LevelPackUIDesc_CritDmgLow</v>
+            <v>LevelPackUIDesc_CritHigh</v>
           </cell>
           <cell r="B66" t="str">
-            <v>크리티컬 대미지를 소량 올립니다</v>
+            <v>크리티컬 확률을 대폭 올립니다</v>
           </cell>
           <cell r="C66" t="str">
             <v>In progress of translating…(66)</v>
@@ -6047,10 +6376,10 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>LevelPackUIDesc_CritDmgMedium</v>
+            <v>LevelPackUIDesc_CritDmgLow</v>
           </cell>
           <cell r="B67" t="str">
-            <v>크리티컬 대미지를 올립니다</v>
+            <v>크리티컬 대미지를 소량 올립니다</v>
           </cell>
           <cell r="C67" t="str">
             <v>In progress of translating…(67)</v>
@@ -6058,10 +6387,10 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>LevelPackUIDesc_CritDmgHigh</v>
+            <v>LevelPackUIDesc_CritDmgMedium</v>
           </cell>
           <cell r="B68" t="str">
-            <v>크리티컬 대미지를 대폭 올립니다</v>
+            <v>크리티컬 대미지를 올립니다</v>
           </cell>
           <cell r="C68" t="str">
             <v>In progress of translating…(68)</v>
@@ -6069,10 +6398,10 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>LevelPackUIDesc_MaxHpLow</v>
+            <v>LevelPackUIDesc_CritDmgHigh</v>
           </cell>
           <cell r="B69" t="str">
-            <v>최대HP를 소량 올립니다</v>
+            <v>크리티컬 대미지를 대폭 올립니다</v>
           </cell>
           <cell r="C69" t="str">
             <v>In progress of translating…(69)</v>
@@ -6080,10 +6409,10 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>LevelPackUIDesc_MaxHpMedium</v>
+            <v>LevelPackUIDesc_MaxHpLow</v>
           </cell>
           <cell r="B70" t="str">
-            <v>최대HP를 올립니다</v>
+            <v>최대HP를 소량 올립니다</v>
           </cell>
           <cell r="C70" t="str">
             <v>In progress of translating…(70)</v>
@@ -6091,10 +6420,10 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>LevelPackUIDesc_MaxHpHigh</v>
+            <v>LevelPackUIDesc_MaxHpMedium</v>
           </cell>
           <cell r="B71" t="str">
-            <v>최대HP를 대폭 올립니다</v>
+            <v>최대HP를 올립니다</v>
           </cell>
           <cell r="C71" t="str">
             <v>In progress of translating…(71)</v>
@@ -6102,10 +6431,10 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_MaxHpHigh</v>
           </cell>
           <cell r="B72" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>최대HP를 대폭 올립니다</v>
           </cell>
           <cell r="C72" t="str">
             <v>In progress of translating…(72)</v>
@@ -6113,10 +6442,10 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B73" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C73" t="str">
             <v>In progress of translating…(73)</v>
@@ -6124,10 +6453,10 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B74" t="str">
-            <v>힐구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C74" t="str">
             <v>In progress of translating…(74)</v>
@@ -6135,10 +6464,10 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B75" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>힐구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C75" t="str">
             <v>In progress of translating…(75)</v>
@@ -6146,10 +6475,10 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B76" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C76" t="str">
             <v>In progress of translating…(76)</v>
@@ -6157,10 +6486,10 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B77" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C77" t="str">
             <v>In progress of translating…(77)</v>
@@ -6168,10 +6497,10 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B78" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C78" t="str">
             <v>In progress of translating…(78)</v>
@@ -6179,10 +6508,10 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B79" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C79" t="str">
             <v>In progress of translating…(79)</v>
@@ -6190,10 +6519,10 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B80" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C80" t="str">
             <v>In progress of translating…(80)</v>
@@ -6201,10 +6530,10 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B81" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C81" t="str">
             <v>In progress of translating…(81)</v>
@@ -6212,13 +6541,24 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B82" t="str">
-            <v>평타 공격이 반복하여 발사됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C82" t="str">
             <v>In progress of translating…(82)</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>LevelPackUIDesc_Repeat</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>평타 공격이 반복하여 발사됩니다</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>In progress of translating…(83)</v>
           </cell>
         </row>
       </sheetData>
@@ -6801,11 +7141,11 @@
     <col min="12" max="12" width="31" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.875" style="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6848,8 +7188,11 @@
       <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -6910,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -6971,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -7036,7 +7379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -7101,7 +7444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -7166,7 +7509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -7231,7 +7574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -7292,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -7353,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -7418,7 +7761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -7479,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -7540,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -7605,7 +7948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -7666,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -7727,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD17F467-7A60-44B1-9A15-8479332E8E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C57B3-558A-4653-8073-D32B4DFF0166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{314C38C5-0AA9-46F9-BF21-418F62513874}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{314C38C5-0AA9-46F9-BF21-418F62513874}">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,10 @@
     <t>LP_CritDmgUpOnLowerHpBetter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>확률참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2512,7 +2516,7 @@
             <v>-1</v>
           </cell>
           <cell r="J33">
-            <v>0.21249999999999999</v>
+            <v>8.7499999999999994E-2</v>
           </cell>
           <cell r="M33" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2547,7 +2551,7 @@
             <v>-1</v>
           </cell>
           <cell r="J34">
-            <v>0.42499999999999999</v>
+            <v>0.17499999999999999</v>
           </cell>
           <cell r="M34" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2582,7 +2586,7 @@
             <v>-1</v>
           </cell>
           <cell r="J35">
-            <v>0.63749999999999996</v>
+            <v>0.26249999999999996</v>
           </cell>
           <cell r="M35" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2617,7 +2621,7 @@
             <v>-1</v>
           </cell>
           <cell r="J36">
-            <v>0.85</v>
+            <v>0.35</v>
           </cell>
           <cell r="M36" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2652,7 +2656,7 @@
             <v>-1</v>
           </cell>
           <cell r="J37">
-            <v>1.0625</v>
+            <v>0.4375</v>
           </cell>
           <cell r="M37" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2687,7 +2691,7 @@
             <v>-1</v>
           </cell>
           <cell r="J38">
-            <v>1.2749999999999999</v>
+            <v>0.52499999999999991</v>
           </cell>
           <cell r="M38" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2722,7 +2726,7 @@
             <v>-1</v>
           </cell>
           <cell r="J39">
-            <v>1.4875</v>
+            <v>0.61249999999999993</v>
           </cell>
           <cell r="M39" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2757,7 +2761,7 @@
             <v>-1</v>
           </cell>
           <cell r="J40">
-            <v>1.7</v>
+            <v>0.7</v>
           </cell>
           <cell r="M40" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2792,7 +2796,7 @@
             <v>-1</v>
           </cell>
           <cell r="J41">
-            <v>1.9124999999999999</v>
+            <v>0.78749999999999998</v>
           </cell>
           <cell r="M41" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2827,7 +2831,7 @@
             <v>-1</v>
           </cell>
           <cell r="J42">
-            <v>0.29749999999999999</v>
+            <v>0.12249999999999998</v>
           </cell>
           <cell r="M42" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2862,7 +2866,7 @@
             <v>-1</v>
           </cell>
           <cell r="J43">
-            <v>0.59499999999999997</v>
+            <v>0.24499999999999997</v>
           </cell>
           <cell r="M43" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2897,7 +2901,7 @@
             <v>-1</v>
           </cell>
           <cell r="J44">
-            <v>0.89249999999999996</v>
+            <v>0.36749999999999999</v>
           </cell>
           <cell r="M44" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2932,7 +2936,7 @@
             <v>-1</v>
           </cell>
           <cell r="J45">
-            <v>1.19</v>
+            <v>0.48999999999999994</v>
           </cell>
           <cell r="M45" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2967,7 +2971,7 @@
             <v>-1</v>
           </cell>
           <cell r="J46">
-            <v>1.4875</v>
+            <v>0.61249999999999993</v>
           </cell>
           <cell r="M46" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3002,7 +3006,7 @@
             <v>-1</v>
           </cell>
           <cell r="J47">
-            <v>1.7849999999999999</v>
+            <v>0.73499999999999999</v>
           </cell>
           <cell r="M47" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3037,7 +3041,7 @@
             <v>-1</v>
           </cell>
           <cell r="J48">
-            <v>2.0825</v>
+            <v>0.85750000000000004</v>
           </cell>
           <cell r="M48" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3072,7 +3076,7 @@
             <v>-1</v>
           </cell>
           <cell r="J49">
-            <v>2.38</v>
+            <v>0.97999999999999987</v>
           </cell>
           <cell r="M49" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3107,7 +3111,7 @@
             <v>-1</v>
           </cell>
           <cell r="J50">
-            <v>2.6774999999999998</v>
+            <v>1.1024999999999998</v>
           </cell>
           <cell r="M50" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3142,7 +3146,7 @@
             <v>-1</v>
           </cell>
           <cell r="J51">
-            <v>0.42499999999999999</v>
+            <v>0.17499999999999999</v>
           </cell>
           <cell r="M51" t="str">
             <v>AttackSpeedAddRate</v>
@@ -5973,7 +5977,7 @@
             <v/>
           </cell>
           <cell r="I139">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J139">
             <v>0.3</v>
@@ -6005,7 +6009,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I140">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J140">
             <v>0.6</v>
@@ -6034,7 +6038,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I141">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J141">
             <v>0.9</v>
@@ -6063,7 +6067,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I142">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J142">
             <v>1.2</v>
@@ -6092,7 +6096,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I143">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J143">
             <v>1.5</v>
@@ -6121,7 +6125,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I144">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J144">
             <v>1.8</v>
@@ -6150,7 +6154,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I145">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J145">
             <v>2.1</v>
@@ -6179,7 +6183,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I146">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J146">
             <v>2.4</v>
@@ -6208,7 +6212,7 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I147">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J147">
             <v>2.7</v>
@@ -9984,9 +9988,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10768,7 +10772,7 @@
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B69" t="str">
-            <v>HP 낮을수록
+            <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
           <cell r="C69" t="str">
@@ -10780,7 +10784,7 @@
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B70" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
           <cell r="C70" t="str">
@@ -11266,7 +11270,7 @@
             <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B114" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 서서히 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -11277,7 +11281,7 @@
             <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B115" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -11332,7 +11336,7 @@
             <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B120" t="str">
-            <v>HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
@@ -11343,7 +11347,7 @@
             <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B121" t="str">
-            <v>HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
@@ -11409,7 +11413,7 @@
             <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B127" t="str">
-            <v>몬스터에게 피격 시 이동 속도가 증가합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -11530,7 +11534,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12037,10 +12041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -12051,21 +12055,22 @@
     <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="31.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="22.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="30.375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12079,40 +12084,43 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -12123,60 +12131,63 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D51" si="0">IF(C2,1,7)</f>
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E10" si="1">"LP_"&amp;A2</f>
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/SUMIF(C:C,C2,D:D)</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F10" si="0">"LP_"&amp;A2</f>
         <v>LP_Atk</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(ISBLANK(E2),"",
-IF(ISERROR(FIND(",",E2)),
-  IF(ISERROR(VLOOKUP(E2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E2,FIND(",",E2)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,FIND(",",E2,FIND(",",E2)+1)-FIND(",",E2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E2,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,FIND(",",E2,FIND(",",E2)+1)-FIND(",",E2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2)+1)+1,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)-FIND(",",E2,FIND(",",E2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G2" s="1" t="str">
+        <f>IF(ISBLANK(F2),"",
+IF(ISERROR(FIND(",",F2)),
+  IF(ISERROR(VLOOKUP(F2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F2,FIND(",",F2)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F2,FIND(",",F2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F2,FIND(",",F2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2)+1,FIND(",",F2,FIND(",",F2)+1)-FIND(",",F2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2,FIND(",",F2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F2,FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F2,FIND(",",F2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2)+1,FIND(",",F2,FIND(",",F2)+1)-FIND(",",F2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2,FIND(",",F2)+1)+1,FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)-FIND(",",F2,FIND(",",F2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A2</f>
         <v>LevelPackUIName_Atk</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H13" si="2">"LevelPackUIDesc_"&amp;A2</f>
+      <c r="I2" s="1" t="str">
+        <f t="shared" ref="I2:I13" si="1">"LevelPackUIDesc_"&amp;A2</f>
         <v>LevelPackUIDesc_Atk</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>IF(ISBLANK(G2),"",
-IFERROR(VLOOKUP(G2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G2,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>공격력</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IF(ISBLANK(H2),"",
 IFERROR(VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H2,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>공격력</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>IF(ISBLANK(I2),"",
+IFERROR(VLOOKUP(I2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I2,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격력이 증가합니다</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="b">
+      <c r="M2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -12187,63 +12198,66 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E51" si="2">D3/SUMIF(C:C,C3,D:D)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_AtkBetter</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f>IF(ISBLANK(E3),"",
-IF(ISERROR(FIND(",",E3)),
-  IF(ISERROR(VLOOKUP(E3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E3,FIND(",",E3)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,FIND(",",E3,FIND(",",E3)+1)-FIND(",",E3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E3,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,FIND(",",E3,FIND(",",E3)+1)-FIND(",",E3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3)+1)+1,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)-FIND(",",E3,FIND(",",E3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G3" s="1" t="str">
+        <f>IF(ISBLANK(F3),"",
+IF(ISERROR(FIND(",",F3)),
+  IF(ISERROR(VLOOKUP(F3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F3,FIND(",",F3)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F3,FIND(",",F3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F3,FIND(",",F3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3)+1,FIND(",",F3,FIND(",",F3)+1)-FIND(",",F3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3,FIND(",",F3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F3,FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F3,FIND(",",F3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3)+1,FIND(",",F3,FIND(",",F3)+1)-FIND(",",F3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3,FIND(",",F3)+1)+1,FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)-FIND(",",F3,FIND(",",F3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G13" si="3">"LevelPackUIName_"&amp;A3</f>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H13" si="3">"LevelPackUIName_"&amp;A3</f>
         <v>LevelPackUIName_AtkBetter</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_AtkBetter</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>IF(ISBLANK(G3),"",
-IFERROR(VLOOKUP(G3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G3,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>IF(ISBLANK(H3),"",
 IFERROR(VLOOKUP(H3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H3,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>IF(ISBLANK(I3),"",
+IFERROR(VLOOKUP(I3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I3,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격력이 많이 증가합니다</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="b">
+      <c r="M3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -12254,63 +12268,66 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_AtkBest</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f>IF(ISBLANK(E4),"",
-IF(ISERROR(FIND(",",E4)),
-  IF(ISERROR(VLOOKUP(E4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E4,FIND(",",E4)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,FIND(",",E4,FIND(",",E4)+1)-FIND(",",E4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E4,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,FIND(",",E4,FIND(",",E4)+1)-FIND(",",E4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4)+1)+1,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)-FIND(",",E4,FIND(",",E4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G4" s="1" t="str">
+        <f>IF(ISBLANK(F4),"",
+IF(ISERROR(FIND(",",F4)),
+  IF(ISERROR(VLOOKUP(F4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F4,FIND(",",F4)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F4,FIND(",",F4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F4,FIND(",",F4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4)+1,FIND(",",F4,FIND(",",F4)+1)-FIND(",",F4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4,FIND(",",F4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F4,FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F4,FIND(",",F4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4)+1,FIND(",",F4,FIND(",",F4)+1)-FIND(",",F4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4,FIND(",",F4)+1)+1,FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)-FIND(",",F4,FIND(",",F4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="H4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_AtkBest</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_AtkBest</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f>IF(ISBLANK(G4),"",
-IFERROR(VLOOKUP(G4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>IF(ISBLANK(H4),"",
 IFERROR(VLOOKUP(H4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>IF(ISBLANK(I4),"",
+IFERROR(VLOOKUP(I4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I4,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격력이 매우 많이 증가합니다</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1" t="b">
+      <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -12321,60 +12338,63 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_AtkSpeed</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>IF(ISBLANK(E5),"",
-IF(ISERROR(FIND(",",E5)),
-  IF(ISERROR(VLOOKUP(E5,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E5,FIND(",",E5)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E5,FIND(",",E5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E5,FIND(",",E5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5)+1,FIND(",",E5,FIND(",",E5)+1)-FIND(",",E5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5,FIND(",",E5)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E5,FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E5,FIND(",",E5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5)+1,FIND(",",E5,FIND(",",E5)+1)-FIND(",",E5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5,FIND(",",E5)+1)+1,FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)-FIND(",",E5,FIND(",",E5)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G5" s="1" t="str">
+        <f>IF(ISBLANK(F5),"",
+IF(ISERROR(FIND(",",F5)),
+  IF(ISERROR(VLOOKUP(F5,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F5,FIND(",",F5)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F5,FIND(",",F5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F5,FIND(",",F5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5)+1,FIND(",",F5,FIND(",",F5)+1)-FIND(",",F5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5,FIND(",",F5)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F5,FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F5,FIND(",",F5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5)+1,FIND(",",F5,FIND(",",F5)+1)-FIND(",",F5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5,FIND(",",F5)+1)+1,FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)-FIND(",",F5,FIND(",",F5)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_AtkSpeed</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_AtkSpeed</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>IF(ISBLANK(G5),"",
-IFERROR(VLOOKUP(G5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>공격 속도</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>IF(ISBLANK(H5),"",
 IFERROR(VLOOKUP(H5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>공격 속도</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>IF(ISBLANK(I5),"",
+IFERROR(VLOOKUP(I5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I5,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격 속도가 증가합니다</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>9</v>
       </c>
-      <c r="L5" s="1" t="b">
+      <c r="M5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -12385,63 +12405,66 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_AtkSpeedBetter</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>IF(ISBLANK(E6),"",
-IF(ISERROR(FIND(",",E6)),
-  IF(ISERROR(VLOOKUP(E6,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E6,FIND(",",E6)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E6,FIND(",",E6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E6,FIND(",",E6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6)+1,FIND(",",E6,FIND(",",E6)+1)-FIND(",",E6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6,FIND(",",E6)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E6,FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E6,FIND(",",E6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6)+1,FIND(",",E6,FIND(",",E6)+1)-FIND(",",E6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6,FIND(",",E6)+1)+1,FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)-FIND(",",E6,FIND(",",E6)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G6" s="1" t="str">
+        <f>IF(ISBLANK(F6),"",
+IF(ISERROR(FIND(",",F6)),
+  IF(ISERROR(VLOOKUP(F6,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F6,FIND(",",F6)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F6,FIND(",",F6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F6,FIND(",",F6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6)+1,FIND(",",F6,FIND(",",F6)+1)-FIND(",",F6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6,FIND(",",F6)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F6,FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F6,FIND(",",F6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6)+1,FIND(",",F6,FIND(",",F6)+1)-FIND(",",F6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6,FIND(",",F6)+1)+1,FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)-FIND(",",F6,FIND(",",F6)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_AtkSpeedBetter</v>
       </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_AtkSpeedBetter</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f>IF(ISBLANK(G6),"",
-IFERROR(VLOOKUP(G6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>IF(ISBLANK(H6),"",
 IFERROR(VLOOKUP(H6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>IF(ISBLANK(I6),"",
+IFERROR(VLOOKUP(I6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I6,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격 속도가 많이 증가합니다</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>9</v>
       </c>
-      <c r="L6" s="1" t="b">
+      <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -12452,60 +12475,63 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_AtkSpeedBest</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>IF(ISBLANK(E7),"",
-IF(ISERROR(FIND(",",E7)),
-  IF(ISERROR(VLOOKUP(E7,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E7,FIND(",",E7)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E7,FIND(",",E7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E7,FIND(",",E7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7)+1,FIND(",",E7,FIND(",",E7)+1)-FIND(",",E7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7,FIND(",",E7)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E7,FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E7,FIND(",",E7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7)+1,FIND(",",E7,FIND(",",E7)+1)-FIND(",",E7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7,FIND(",",E7)+1)+1,FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)-FIND(",",E7,FIND(",",E7)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G7" s="1" t="str">
+        <f>IF(ISBLANK(F7),"",
+IF(ISERROR(FIND(",",F7)),
+  IF(ISERROR(VLOOKUP(F7,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F7,FIND(",",F7)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F7,FIND(",",F7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F7,FIND(",",F7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7)+1,FIND(",",F7,FIND(",",F7)+1)-FIND(",",F7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7,FIND(",",F7)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F7,FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F7,FIND(",",F7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7)+1,FIND(",",F7,FIND(",",F7)+1)-FIND(",",F7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7,FIND(",",F7)+1)+1,FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)-FIND(",",F7,FIND(",",F7)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_AtkSpeedBest</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_AtkSpeedBest</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f>IF(ISBLANK(G7),"",
-IFERROR(VLOOKUP(G7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>IF(ISBLANK(H7),"",
 IFERROR(VLOOKUP(H7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>IF(ISBLANK(I7),"",
+IFERROR(VLOOKUP(I7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I7,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격 속도가 매우 많이 증가합니다</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="b">
+      <c r="M7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -12516,60 +12542,63 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_Crit</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>IF(ISBLANK(E8),"",
-IF(ISERROR(FIND(",",E8)),
-  IF(ISERROR(VLOOKUP(E8,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E8,FIND(",",E8)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E8,FIND(",",E8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E8,FIND(",",E8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8)+1,FIND(",",E8,FIND(",",E8)+1)-FIND(",",E8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8,FIND(",",E8)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E8,FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E8,FIND(",",E8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8)+1,FIND(",",E8,FIND(",",E8)+1)-FIND(",",E8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8,FIND(",",E8)+1)+1,FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)-FIND(",",E8,FIND(",",E8)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G8" s="1" t="str">
+        <f>IF(ISBLANK(F8),"",
+IF(ISERROR(FIND(",",F8)),
+  IF(ISERROR(VLOOKUP(F8,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F8,FIND(",",F8)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F8,FIND(",",F8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F8,FIND(",",F8)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F8,FIND(",",F8,FIND(",",F8)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F8,FIND(",",F8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F8,FIND(",",F8)+1,FIND(",",F8,FIND(",",F8)+1)-FIND(",",F8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F8,FIND(",",F8,FIND(",",F8)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F8,FIND(",",F8,FIND(",",F8,FIND(",",F8)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F8,FIND(",",F8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F8,FIND(",",F8)+1,FIND(",",F8,FIND(",",F8)+1)-FIND(",",F8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F8,FIND(",",F8,FIND(",",F8)+1)+1,FIND(",",F8,FIND(",",F8,FIND(",",F8)+1)+1)-FIND(",",F8,FIND(",",F8)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F8,FIND(",",F8,FIND(",",F8,FIND(",",F8)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_Crit</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_Crit</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>IF(ISBLANK(G8),"",
-IFERROR(VLOOKUP(G8,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G8,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>치명타 확률</v>
       </c>
       <c r="J8" s="1" t="str">
         <f>IF(ISBLANK(H8),"",
 IFERROR(VLOOKUP(H8,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H8,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>치명타 확률</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>IF(ISBLANK(I8),"",
+IFERROR(VLOOKUP(I8,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I8,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>치명타 확률이 증가합니다</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="1" t="b">
+      <c r="M8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -12580,60 +12609,63 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_CritBetter</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f>IF(ISBLANK(E9),"",
-IF(ISERROR(FIND(",",E9)),
-  IF(ISERROR(VLOOKUP(E9,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E9,FIND(",",E9)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E9,FIND(",",E9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E9,FIND(",",E9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9)+1,FIND(",",E9,FIND(",",E9)+1)-FIND(",",E9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9,FIND(",",E9)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E9,FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E9,FIND(",",E9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9)+1,FIND(",",E9,FIND(",",E9)+1)-FIND(",",E9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9,FIND(",",E9)+1)+1,FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)-FIND(",",E9,FIND(",",E9)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G9" s="1" t="str">
+        <f>IF(ISBLANK(F9),"",
+IF(ISERROR(FIND(",",F9)),
+  IF(ISERROR(VLOOKUP(F9,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F9,FIND(",",F9)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F9,FIND(",",F9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F9,FIND(",",F9)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F9,FIND(",",F9,FIND(",",F9)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F9,FIND(",",F9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F9,FIND(",",F9)+1,FIND(",",F9,FIND(",",F9)+1)-FIND(",",F9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F9,FIND(",",F9,FIND(",",F9)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F9,FIND(",",F9,FIND(",",F9,FIND(",",F9)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F9,FIND(",",F9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F9,FIND(",",F9)+1,FIND(",",F9,FIND(",",F9)+1)-FIND(",",F9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F9,FIND(",",F9,FIND(",",F9)+1)+1,FIND(",",F9,FIND(",",F9,FIND(",",F9)+1)+1)-FIND(",",F9,FIND(",",F9)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F9,FIND(",",F9,FIND(",",F9,FIND(",",F9)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_CritBetter</v>
       </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_CritBetter</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f>IF(ISBLANK(G9),"",
-IFERROR(VLOOKUP(G9,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G9,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>IF(ISBLANK(H9),"",
 IFERROR(VLOOKUP(H9,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H9,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>IF(ISBLANK(I9),"",
+IFERROR(VLOOKUP(I9,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I9,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>치명타 확률이 많이 증가합니다</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="L9" s="1" t="b">
+      <c r="M9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -12644,60 +12676,63 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>LP_CritBest</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f>IF(ISBLANK(E10),"",
-IF(ISERROR(FIND(",",E10)),
-  IF(ISERROR(VLOOKUP(E10,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E10,FIND(",",E10)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E10,FIND(",",E10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E10,FIND(",",E10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10)+1,FIND(",",E10,FIND(",",E10)+1)-FIND(",",E10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10,FIND(",",E10)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E10,FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E10,FIND(",",E10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10)+1,FIND(",",E10,FIND(",",E10)+1)-FIND(",",E10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10,FIND(",",E10)+1)+1,FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)-FIND(",",E10,FIND(",",E10)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G10" s="1" t="str">
+        <f>IF(ISBLANK(F10),"",
+IF(ISERROR(FIND(",",F10)),
+  IF(ISERROR(VLOOKUP(F10,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F10,FIND(",",F10)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F10,FIND(",",F10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F10,FIND(",",F10)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F10,FIND(",",F10,FIND(",",F10)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F10,FIND(",",F10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F10,FIND(",",F10)+1,FIND(",",F10,FIND(",",F10)+1)-FIND(",",F10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F10,FIND(",",F10,FIND(",",F10)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F10,FIND(",",F10,FIND(",",F10,FIND(",",F10)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F10,FIND(",",F10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F10,FIND(",",F10)+1,FIND(",",F10,FIND(",",F10)+1)-FIND(",",F10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F10,FIND(",",F10,FIND(",",F10)+1)+1,FIND(",",F10,FIND(",",F10,FIND(",",F10)+1)+1)-FIND(",",F10,FIND(",",F10)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F10,FIND(",",F10,FIND(",",F10,FIND(",",F10)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_CritBest</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_CritBest</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f>IF(ISBLANK(G10),"",
-IFERROR(VLOOKUP(G10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>IF(ISBLANK(H10),"",
 IFERROR(VLOOKUP(H10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>IF(ISBLANK(I10),"",
+IFERROR(VLOOKUP(I10,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I10,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>치명타 확률이 매우 많이 증가합니다</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1" t="b">
+      <c r="M10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -12708,59 +12743,62 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f>IF(ISBLANK(E11),"",
-IF(ISERROR(FIND(",",E11)),
-  IF(ISERROR(VLOOKUP(E11,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E11,FIND(",",E11)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E11,FIND(",",E11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E11,FIND(",",E11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11)+1,FIND(",",E11,FIND(",",E11)+1)-FIND(",",E11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11,FIND(",",E11)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E11,FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E11,FIND(",",E11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11)+1,FIND(",",E11,FIND(",",E11)+1)-FIND(",",E11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11,FIND(",",E11)+1)+1,FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)-FIND(",",E11,FIND(",",E11)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G11" s="1" t="str">
+        <f>IF(ISBLANK(F11),"",
+IF(ISERROR(FIND(",",F11)),
+  IF(ISERROR(VLOOKUP(F11,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F11,FIND(",",F11)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F11,FIND(",",F11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F11,FIND(",",F11)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F11,FIND(",",F11,FIND(",",F11)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F11,FIND(",",F11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F11,FIND(",",F11)+1,FIND(",",F11,FIND(",",F11)+1)-FIND(",",F11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F11,FIND(",",F11,FIND(",",F11)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F11,FIND(",",F11,FIND(",",F11,FIND(",",F11)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F11,FIND(",",F11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F11,FIND(",",F11)+1,FIND(",",F11,FIND(",",F11)+1)-FIND(",",F11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F11,FIND(",",F11,FIND(",",F11)+1)+1,FIND(",",F11,FIND(",",F11,FIND(",",F11)+1)+1)-FIND(",",F11,FIND(",",F11)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F11,FIND(",",F11,FIND(",",F11,FIND(",",F11)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_MaxHp</v>
       </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_MaxHp</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f>IF(ISBLANK(G11),"",
-IFERROR(VLOOKUP(G11,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G11,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>최대 체력</v>
       </c>
       <c r="J11" s="1" t="str">
         <f>IF(ISBLANK(H11),"",
 IFERROR(VLOOKUP(H11,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H11,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>최대 체력</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>IF(ISBLANK(I11),"",
+IFERROR(VLOOKUP(I11,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I11,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>최대 체력이 증가합니다</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="1" t="b">
+      <c r="M11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -12771,59 +12809,62 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f>IF(ISBLANK(E12),"",
-IF(ISERROR(FIND(",",E12)),
-  IF(ISERROR(VLOOKUP(E12,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E12,FIND(",",E12)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E12,FIND(",",E12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E12,FIND(",",E12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12)+1,FIND(",",E12,FIND(",",E12)+1)-FIND(",",E12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12,FIND(",",E12)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E12,FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E12,FIND(",",E12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12)+1,FIND(",",E12,FIND(",",E12)+1)-FIND(",",E12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12,FIND(",",E12)+1)+1,FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)-FIND(",",E12,FIND(",",E12)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G12" s="1" t="str">
+        <f>IF(ISBLANK(F12),"",
+IF(ISERROR(FIND(",",F12)),
+  IF(ISERROR(VLOOKUP(F12,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F12,FIND(",",F12)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F12,FIND(",",F12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F12,FIND(",",F12)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F12,FIND(",",F12,FIND(",",F12)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F12,FIND(",",F12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F12,FIND(",",F12)+1,FIND(",",F12,FIND(",",F12)+1)-FIND(",",F12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F12,FIND(",",F12,FIND(",",F12)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F12,FIND(",",F12,FIND(",",F12,FIND(",",F12)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F12,FIND(",",F12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F12,FIND(",",F12)+1,FIND(",",F12,FIND(",",F12)+1)-FIND(",",F12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F12,FIND(",",F12,FIND(",",F12)+1)+1,FIND(",",F12,FIND(",",F12,FIND(",",F12)+1)+1)-FIND(",",F12,FIND(",",F12)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F12,FIND(",",F12,FIND(",",F12,FIND(",",F12)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_MaxHpBetter</v>
       </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_MaxHpBetter</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f>IF(ISBLANK(G12),"",
-IFERROR(VLOOKUP(G12,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G12,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
       </c>
       <c r="J12" s="1" t="str">
         <f>IF(ISBLANK(H12),"",
 IFERROR(VLOOKUP(H12,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H12,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f>IF(ISBLANK(I12),"",
+IFERROR(VLOOKUP(I12,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I12,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>최대 체력이 많이 증가합니다</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>9</v>
       </c>
-      <c r="L12" s="1" t="b">
+      <c r="M12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -12834,59 +12875,62 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f>IF(ISBLANK(E13),"",
-IF(ISERROR(FIND(",",E13)),
-  IF(ISERROR(VLOOKUP(E13,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E13,FIND(",",E13)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E13,FIND(",",E13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E13,FIND(",",E13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13)+1,FIND(",",E13,FIND(",",E13)+1)-FIND(",",E13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13,FIND(",",E13)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E13,FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E13,FIND(",",E13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13)+1,FIND(",",E13,FIND(",",E13)+1)-FIND(",",E13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13,FIND(",",E13)+1)+1,FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)-FIND(",",E13,FIND(",",E13)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G13" s="1" t="str">
+        <f>IF(ISBLANK(F13),"",
+IF(ISERROR(FIND(",",F13)),
+  IF(ISERROR(VLOOKUP(F13,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F13,FIND(",",F13)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F13,FIND(",",F13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F13,FIND(",",F13)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F13,FIND(",",F13,FIND(",",F13)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F13,FIND(",",F13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F13,FIND(",",F13)+1,FIND(",",F13,FIND(",",F13)+1)-FIND(",",F13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F13,FIND(",",F13,FIND(",",F13)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F13,FIND(",",F13,FIND(",",F13,FIND(",",F13)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F13,FIND(",",F13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F13,FIND(",",F13)+1,FIND(",",F13,FIND(",",F13)+1)-FIND(",",F13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F13,FIND(",",F13,FIND(",",F13)+1)+1,FIND(",",F13,FIND(",",F13,FIND(",",F13)+1)+1)-FIND(",",F13,FIND(",",F13)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F13,FIND(",",F13,FIND(",",F13,FIND(",",F13)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LevelPackUIName_MaxHpBest</v>
       </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>LevelPackUIDesc_MaxHpBest</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f>IF(ISBLANK(G13),"",
-IFERROR(VLOOKUP(G13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>IF(ISBLANK(H13),"",
 IFERROR(VLOOKUP(H13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>IF(ISBLANK(I13),"",
+IFERROR(VLOOKUP(I13,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I13,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>최대 체력이 매우 많이 증가합니다</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="1" t="b">
+      <c r="M13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -12897,59 +12941,62 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f>IF(ISBLANK(E14),"",
-IF(ISERROR(FIND(",",E14)),
-  IF(ISERROR(VLOOKUP(E14,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E14,FIND(",",E14)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E14,FIND(",",E14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E14,FIND(",",E14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14)+1,FIND(",",E14,FIND(",",E14)+1)-FIND(",",E14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14,FIND(",",E14)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E14,FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E14,FIND(",",E14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14)+1,FIND(",",E14,FIND(",",E14)+1)-FIND(",",E14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14,FIND(",",E14)+1)+1,FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)-FIND(",",E14,FIND(",",E14)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G14" s="1" t="str">
+        <f>IF(ISBLANK(F14),"",
+IF(ISERROR(FIND(",",F14)),
+  IF(ISERROR(VLOOKUP(F14,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F14,FIND(",",F14)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F14,FIND(",",F14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F14,FIND(",",F14)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F14,FIND(",",F14,FIND(",",F14)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F14,FIND(",",F14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F14,FIND(",",F14)+1,FIND(",",F14,FIND(",",F14)+1)-FIND(",",F14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F14,FIND(",",F14,FIND(",",F14)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F14,FIND(",",F14,FIND(",",F14,FIND(",",F14)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F14,FIND(",",F14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F14,FIND(",",F14)+1,FIND(",",F14,FIND(",",F14)+1)-FIND(",",F14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F14,FIND(",",F14,FIND(",",F14)+1)+1,FIND(",",F14,FIND(",",F14,FIND(",",F14)+1)+1)-FIND(",",F14,FIND(",",F14)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F14,FIND(",",F14,FIND(",",F14,FIND(",",F14)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" ref="G14:G15" si="4">"LevelPackUIName_"&amp;A14</f>
+      <c r="H14" s="1" t="str">
+        <f t="shared" ref="H14:H15" si="4">"LevelPackUIName_"&amp;A14</f>
         <v>LevelPackUIName_ReduceDmgProjectile</v>
       </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" ref="H14:H15" si="5">"LevelPackUIDesc_"&amp;A14</f>
+      <c r="I14" s="1" t="str">
+        <f t="shared" ref="I14:I15" si="5">"LevelPackUIDesc_"&amp;A14</f>
         <v>LevelPackUIDesc_ReduceDmgProjectile</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f>IF(ISBLANK(G14),"",
-IFERROR(VLOOKUP(G14,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G14,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>발사체 대미지 감소</v>
       </c>
       <c r="J14" s="1" t="str">
         <f>IF(ISBLANK(H14),"",
 IFERROR(VLOOKUP(H14,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H14,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>발사체 대미지 감소</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>IF(ISBLANK(I14),"",
+IFERROR(VLOOKUP(I14,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I14,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>발사체의 대미지가 감소합니다</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="1" t="b">
+      <c r="M14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -12960,59 +13007,62 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f>IF(ISBLANK(E15),"",
-IF(ISERROR(FIND(",",E15)),
-  IF(ISERROR(VLOOKUP(E15,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E15,FIND(",",E15)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E15,FIND(",",E15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E15,FIND(",",E15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15)+1,FIND(",",E15,FIND(",",E15)+1)-FIND(",",E15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15,FIND(",",E15)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E15,FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E15,FIND(",",E15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15)+1,FIND(",",E15,FIND(",",E15)+1)-FIND(",",E15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15,FIND(",",E15)+1)+1,FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)-FIND(",",E15,FIND(",",E15)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G15" s="1" t="str">
+        <f>IF(ISBLANK(F15),"",
+IF(ISERROR(FIND(",",F15)),
+  IF(ISERROR(VLOOKUP(F15,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F15,FIND(",",F15)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F15,FIND(",",F15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F15,FIND(",",F15)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F15,FIND(",",F15,FIND(",",F15)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F15,FIND(",",F15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F15,FIND(",",F15)+1,FIND(",",F15,FIND(",",F15)+1)-FIND(",",F15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F15,FIND(",",F15,FIND(",",F15)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F15,FIND(",",F15,FIND(",",F15,FIND(",",F15)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F15,FIND(",",F15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F15,FIND(",",F15)+1,FIND(",",F15,FIND(",",F15)+1)-FIND(",",F15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F15,FIND(",",F15,FIND(",",F15)+1)+1,FIND(",",F15,FIND(",",F15,FIND(",",F15)+1)+1)-FIND(",",F15,FIND(",",F15)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F15,FIND(",",F15,FIND(",",F15,FIND(",",F15)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>LevelPackUIName_ReduceDmgClose</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="I15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>LevelPackUIDesc_ReduceDmgClose</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f>IF(ISBLANK(G15),"",
-IFERROR(VLOOKUP(G15,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G15,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>충돌 대미지 감소</v>
       </c>
       <c r="J15" s="1" t="str">
         <f>IF(ISBLANK(H15),"",
 IFERROR(VLOOKUP(H15,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H15,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>충돌 대미지 감소</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>IF(ISBLANK(I15),"",
+IFERROR(VLOOKUP(I15,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I15,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터와 충돌 시 대미지가 감소합니다</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>9</v>
       </c>
-      <c r="L15" s="1" t="b">
+      <c r="M15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -13023,59 +13073,62 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f>IF(ISBLANK(E16),"",
-IF(ISERROR(FIND(",",E16)),
-  IF(ISERROR(VLOOKUP(E16,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E16,FIND(",",E16)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E16,FIND(",",E16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E16,FIND(",",E16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16)+1,FIND(",",E16,FIND(",",E16)+1)-FIND(",",E16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16,FIND(",",E16)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E16,FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E16,FIND(",",E16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16)+1,FIND(",",E16,FIND(",",E16)+1)-FIND(",",E16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16,FIND(",",E16)+1)+1,FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)-FIND(",",E16,FIND(",",E16)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G16" s="1" t="str">
+        <f>IF(ISBLANK(F16),"",
+IF(ISERROR(FIND(",",F16)),
+  IF(ISERROR(VLOOKUP(F16,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F16,FIND(",",F16)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F16,FIND(",",F16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F16,FIND(",",F16)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F16,FIND(",",F16,FIND(",",F16)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F16,FIND(",",F16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F16,FIND(",",F16)+1,FIND(",",F16,FIND(",",F16)+1)-FIND(",",F16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F16,FIND(",",F16,FIND(",",F16)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F16,FIND(",",F16,FIND(",",F16,FIND(",",F16)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F16,FIND(",",F16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F16,FIND(",",F16)+1,FIND(",",F16,FIND(",",F16)+1)-FIND(",",F16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F16,FIND(",",F16,FIND(",",F16)+1)+1,FIND(",",F16,FIND(",",F16,FIND(",",F16)+1)+1)-FIND(",",F16,FIND(",",F16)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F16,FIND(",",F16,FIND(",",F16,FIND(",",F16)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="H16" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A16</f>
         <v>LevelPackUIName_ExtraGold</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" ref="H16:H26" si="6">"LevelPackUIDesc_"&amp;A16</f>
+      <c r="I16" s="1" t="str">
+        <f t="shared" ref="I16:I26" si="6">"LevelPackUIDesc_"&amp;A16</f>
         <v>LevelPackUIDesc_ExtraGold</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f>IF(ISBLANK(G16),"",
-IFERROR(VLOOKUP(G16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>골드 획득량 증가</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>IF(ISBLANK(H16),"",
 IFERROR(VLOOKUP(H16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>골드 획득량 증가</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>IF(ISBLANK(I16),"",
+IFERROR(VLOOKUP(I16,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I16,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>골드 획득량이 증가합니다</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="1" t="b">
+      <c r="M16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -13086,59 +13139,62 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISBLANK(E17),"",
-IF(ISERROR(FIND(",",E17)),
-  IF(ISERROR(VLOOKUP(E17,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E17,FIND(",",E17)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E17,FIND(",",E17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E17,FIND(",",E17)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E17,FIND(",",E17,FIND(",",E17)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E17,FIND(",",E17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E17,FIND(",",E17)+1,FIND(",",E17,FIND(",",E17)+1)-FIND(",",E17)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E17,FIND(",",E17,FIND(",",E17)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E17,FIND(",",E17,FIND(",",E17,FIND(",",E17)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E17,FIND(",",E17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E17,FIND(",",E17)+1,FIND(",",E17,FIND(",",E17)+1)-FIND(",",E17)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E17,FIND(",",E17,FIND(",",E17)+1)+1,FIND(",",E17,FIND(",",E17,FIND(",",E17)+1)+1)-FIND(",",E17,FIND(",",E17)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E17,FIND(",",E17,FIND(",",E17,FIND(",",E17)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G17" s="1" t="str">
+        <f>IF(ISBLANK(F17),"",
+IF(ISERROR(FIND(",",F17)),
+  IF(ISERROR(VLOOKUP(F17,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F17,FIND(",",F17)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F17,FIND(",",F17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F17,FIND(",",F17)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F17,FIND(",",F17,FIND(",",F17)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F17,FIND(",",F17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F17,FIND(",",F17)+1,FIND(",",F17,FIND(",",F17)+1)-FIND(",",F17)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F17,FIND(",",F17,FIND(",",F17)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F17,FIND(",",F17,FIND(",",F17,FIND(",",F17)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F17,FIND(",",F17)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F17,FIND(",",F17)+1,FIND(",",F17,FIND(",",F17)+1)-FIND(",",F17)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F17,FIND(",",F17,FIND(",",F17)+1)+1,FIND(",",F17,FIND(",",F17,FIND(",",F17)+1)+1)-FIND(",",F17,FIND(",",F17)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F17,FIND(",",F17,FIND(",",F17,FIND(",",F17)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" ref="G17:G26" si="7">"LevelPackUIName_"&amp;A17</f>
+      <c r="H17" s="1" t="str">
+        <f t="shared" ref="H17:H26" si="7">"LevelPackUIName_"&amp;A17</f>
         <v>LevelPackUIName_ItemChanceBoost</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="I17" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_ItemChanceBoost</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f>IF(ISBLANK(G17),"",
-IFERROR(VLOOKUP(G17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>아이템 확률 증가</v>
       </c>
       <c r="J17" s="1" t="str">
         <f>IF(ISBLANK(H17),"",
 IFERROR(VLOOKUP(H17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>아이템 확률 증가</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>IF(ISBLANK(I17),"",
+IFERROR(VLOOKUP(I17,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I17,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>아이템 획득 확률이 증가합니다</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="1" t="b">
+      <c r="M17" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -13149,59 +13205,62 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f>IF(ISBLANK(E18),"",
-IF(ISERROR(FIND(",",E18)),
-  IF(ISERROR(VLOOKUP(E18,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E18,FIND(",",E18)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E18,FIND(",",E18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E18,FIND(",",E18)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E18,FIND(",",E18,FIND(",",E18)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E18,FIND(",",E18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E18,FIND(",",E18)+1,FIND(",",E18,FIND(",",E18)+1)-FIND(",",E18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E18,FIND(",",E18,FIND(",",E18)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E18,FIND(",",E18,FIND(",",E18,FIND(",",E18)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E18,FIND(",",E18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E18,FIND(",",E18)+1,FIND(",",E18,FIND(",",E18)+1)-FIND(",",E18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E18,FIND(",",E18,FIND(",",E18)+1)+1,FIND(",",E18,FIND(",",E18,FIND(",",E18)+1)+1)-FIND(",",E18,FIND(",",E18)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E18,FIND(",",E18,FIND(",",E18,FIND(",",E18)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G18" s="1" t="str">
+        <f>IF(ISBLANK(F18),"",
+IF(ISERROR(FIND(",",F18)),
+  IF(ISERROR(VLOOKUP(F18,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F18,FIND(",",F18)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F18,FIND(",",F18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F18,FIND(",",F18)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F18,FIND(",",F18,FIND(",",F18)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F18,FIND(",",F18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F18,FIND(",",F18)+1,FIND(",",F18,FIND(",",F18)+1)-FIND(",",F18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F18,FIND(",",F18,FIND(",",F18)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F18,FIND(",",F18,FIND(",",F18,FIND(",",F18)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F18,FIND(",",F18)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F18,FIND(",",F18)+1,FIND(",",F18,FIND(",",F18)+1)-FIND(",",F18)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F18,FIND(",",F18,FIND(",",F18)+1)+1,FIND(",",F18,FIND(",",F18,FIND(",",F18)+1)+1)-FIND(",",F18,FIND(",",F18)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F18,FIND(",",F18,FIND(",",F18,FIND(",",F18)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_HealChanceBoost</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="I18" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_HealChanceBoost</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f>IF(ISBLANK(G18),"",
-IFERROR(VLOOKUP(G18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>회복구슬 확률 증가</v>
       </c>
       <c r="J18" s="1" t="str">
         <f>IF(ISBLANK(H18),"",
 IFERROR(VLOOKUP(H18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>회복구슬 확률 증가</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>IF(ISBLANK(I18),"",
+IFERROR(VLOOKUP(I18,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I18,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>회복구슬 획득 확률이 증가합니다</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1" t="b">
+      <c r="M18" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -13212,59 +13271,62 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f>IF(ISBLANK(E19),"",
-IF(ISERROR(FIND(",",E19)),
-  IF(ISERROR(VLOOKUP(E19,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E19,FIND(",",E19)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E19,FIND(",",E19)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E19,FIND(",",E19)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E19,FIND(",",E19,FIND(",",E19)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E19,FIND(",",E19)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E19,FIND(",",E19)+1,FIND(",",E19,FIND(",",E19)+1)-FIND(",",E19)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E19,FIND(",",E19,FIND(",",E19)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E19,FIND(",",E19,FIND(",",E19,FIND(",",E19)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E19,FIND(",",E19)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E19,FIND(",",E19)+1,FIND(",",E19,FIND(",",E19)+1)-FIND(",",E19)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E19,FIND(",",E19,FIND(",",E19)+1)+1,FIND(",",E19,FIND(",",E19,FIND(",",E19)+1)+1)-FIND(",",E19,FIND(",",E19)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E19,FIND(",",E19,FIND(",",E19,FIND(",",E19)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G19" s="1" t="str">
+        <f>IF(ISBLANK(F19),"",
+IF(ISERROR(FIND(",",F19)),
+  IF(ISERROR(VLOOKUP(F19,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F19,FIND(",",F19)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F19,FIND(",",F19)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F19,FIND(",",F19)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F19,FIND(",",F19,FIND(",",F19)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F19,FIND(",",F19)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F19,FIND(",",F19)+1,FIND(",",F19,FIND(",",F19)+1)-FIND(",",F19)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F19,FIND(",",F19,FIND(",",F19)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F19,FIND(",",F19,FIND(",",F19,FIND(",",F19)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F19,FIND(",",F19)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F19,FIND(",",F19)+1,FIND(",",F19,FIND(",",F19)+1)-FIND(",",F19)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F19,FIND(",",F19,FIND(",",F19)+1)+1,FIND(",",F19,FIND(",",F19,FIND(",",F19)+1)+1)-FIND(",",F19,FIND(",",F19)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F19,FIND(",",F19,FIND(",",F19,FIND(",",F19)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_MonsterThrough</v>
       </c>
-      <c r="H19" s="1" t="str">
+      <c r="I19" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_MonsterThrough</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>IF(ISBLANK(G19),"",
-IFERROR(VLOOKUP(G19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>IF(ISBLANK(H19),"",
 IFERROR(VLOOKUP(H19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>IF(ISBLANK(I19),"",
+IFERROR(VLOOKUP(I19,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I19,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 몬스터를 관통합니다</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="1" t="b">
+      <c r="M19" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -13275,59 +13337,62 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="1" t="str">
-        <f>IF(ISBLANK(E20),"",
-IF(ISERROR(FIND(",",E20)),
-  IF(ISERROR(VLOOKUP(E20,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E20,FIND(",",E20)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,FIND(",",E20,FIND(",",E20)+1)-FIND(",",E20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E20,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E20,FIND(",",E20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20)+1,FIND(",",E20,FIND(",",E20)+1)-FIND(",",E20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20)+1)+1,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)-FIND(",",E20,FIND(",",E20)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E20,FIND(",",E20,FIND(",",E20,FIND(",",E20)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G20" s="1" t="str">
+        <f>IF(ISBLANK(F20),"",
+IF(ISERROR(FIND(",",F20)),
+  IF(ISERROR(VLOOKUP(F20,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F20,FIND(",",F20)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F20,FIND(",",F20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F20,FIND(",",F20)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F20,FIND(",",F20,FIND(",",F20)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F20,FIND(",",F20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F20,FIND(",",F20)+1,FIND(",",F20,FIND(",",F20)+1)-FIND(",",F20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F20,FIND(",",F20,FIND(",",F20)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F20,FIND(",",F20,FIND(",",F20,FIND(",",F20)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F20,FIND(",",F20)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F20,FIND(",",F20)+1,FIND(",",F20,FIND(",",F20)+1)-FIND(",",F20)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F20,FIND(",",F20,FIND(",",F20)+1)+1,FIND(",",F20,FIND(",",F20,FIND(",",F20)+1)+1)-FIND(",",F20,FIND(",",F20)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F20,FIND(",",F20,FIND(",",F20,FIND(",",F20)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="H20" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_Ricochet</v>
       </c>
-      <c r="H20" s="1" t="str">
+      <c r="I20" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_Ricochet</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f>IF(ISBLANK(G20),"",
-IFERROR(VLOOKUP(G20,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G20,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>IF(ISBLANK(H20),"",
 IFERROR(VLOOKUP(H20,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H20,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>IF(ISBLANK(I20),"",
+IFERROR(VLOOKUP(I20,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I20,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="1" t="b">
+      <c r="M20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -13338,59 +13403,62 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f>IF(ISBLANK(E21),"",
-IF(ISERROR(FIND(",",E21)),
-  IF(ISERROR(VLOOKUP(E21,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E21,FIND(",",E21)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,FIND(",",E21,FIND(",",E21)+1)-FIND(",",E21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E21,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E21,FIND(",",E21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21)+1,FIND(",",E21,FIND(",",E21)+1)-FIND(",",E21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21)+1)+1,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)-FIND(",",E21,FIND(",",E21)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E21,FIND(",",E21,FIND(",",E21,FIND(",",E21)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G21" s="1" t="str">
+        <f>IF(ISBLANK(F21),"",
+IF(ISERROR(FIND(",",F21)),
+  IF(ISERROR(VLOOKUP(F21,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F21,FIND(",",F21)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F21,FIND(",",F21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F21,FIND(",",F21)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F21,FIND(",",F21,FIND(",",F21)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F21,FIND(",",F21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F21,FIND(",",F21)+1,FIND(",",F21,FIND(",",F21)+1)-FIND(",",F21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F21,FIND(",",F21,FIND(",",F21)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F21,FIND(",",F21,FIND(",",F21,FIND(",",F21)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F21,FIND(",",F21)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F21,FIND(",",F21)+1,FIND(",",F21,FIND(",",F21)+1)-FIND(",",F21)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F21,FIND(",",F21,FIND(",",F21)+1)+1,FIND(",",F21,FIND(",",F21,FIND(",",F21)+1)+1)-FIND(",",F21,FIND(",",F21)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F21,FIND(",",F21,FIND(",",F21,FIND(",",F21)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="H21" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_BounceWallQuad</v>
       </c>
-      <c r="H21" s="1" t="str">
+      <c r="I21" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_BounceWallQuad</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f>IF(ISBLANK(G21),"",
-IFERROR(VLOOKUP(G21,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G21,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
       </c>
       <c r="J21" s="1" t="str">
         <f>IF(ISBLANK(H21),"",
 IFERROR(VLOOKUP(H21,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H21,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>IF(ISBLANK(I21),"",
+IFERROR(VLOOKUP(I21,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I21,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 벽에 튕겨 날아갑니다</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>2</v>
       </c>
-      <c r="L21" s="1" t="b">
+      <c r="M21" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -13401,59 +13469,62 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="str">
-        <f>IF(ISBLANK(E22),"",
-IF(ISERROR(FIND(",",E22)),
-  IF(ISERROR(VLOOKUP(E22,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E22,FIND(",",E22)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,FIND(",",E22,FIND(",",E22)+1)-FIND(",",E22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E22,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E22,FIND(",",E22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22)+1,FIND(",",E22,FIND(",",E22)+1)-FIND(",",E22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22)+1)+1,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)-FIND(",",E22,FIND(",",E22)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E22,FIND(",",E22,FIND(",",E22,FIND(",",E22)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G22" s="1" t="str">
+        <f>IF(ISBLANK(F22),"",
+IF(ISERROR(FIND(",",F22)),
+  IF(ISERROR(VLOOKUP(F22,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F22,FIND(",",F22)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F22,FIND(",",F22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F22,FIND(",",F22)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F22,FIND(",",F22,FIND(",",F22)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F22,FIND(",",F22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F22,FIND(",",F22)+1,FIND(",",F22,FIND(",",F22)+1)-FIND(",",F22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F22,FIND(",",F22,FIND(",",F22)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F22,FIND(",",F22,FIND(",",F22,FIND(",",F22)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F22,FIND(",",F22)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F22,FIND(",",F22)+1,FIND(",",F22,FIND(",",F22)+1)-FIND(",",F22)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F22,FIND(",",F22,FIND(",",F22)+1)+1,FIND(",",F22,FIND(",",F22,FIND(",",F22)+1)+1)-FIND(",",F22,FIND(",",F22)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F22,FIND(",",F22,FIND(",",F22,FIND(",",F22)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="H22" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_Parallel</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="I22" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_Parallel</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f>IF(ISBLANK(G22),"",
-IFERROR(VLOOKUP(G22,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G22,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
       </c>
       <c r="J22" s="1" t="str">
         <f>IF(ISBLANK(H22),"",
 IFERROR(VLOOKUP(H22,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H22,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>IF(ISBLANK(I22),"",
+IFERROR(VLOOKUP(I22,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I22,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 전방으로 더 발사됩니다</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>2</v>
       </c>
-      <c r="L22" s="1" t="b">
+      <c r="M22" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -13464,59 +13535,62 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <f>IF(ISBLANK(E23),"",
-IF(ISERROR(FIND(",",E23)),
-  IF(ISERROR(VLOOKUP(E23,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E23,FIND(",",E23)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E23,FIND(",",E23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E23,FIND(",",E23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23)+1,FIND(",",E23,FIND(",",E23)+1)-FIND(",",E23)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23,FIND(",",E23)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E23,FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E23,FIND(",",E23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23)+1,FIND(",",E23,FIND(",",E23)+1)-FIND(",",E23)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23,FIND(",",E23)+1)+1,FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)-FIND(",",E23,FIND(",",E23)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E23,FIND(",",E23,FIND(",",E23,FIND(",",E23)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G23" s="1" t="str">
+        <f>IF(ISBLANK(F23),"",
+IF(ISERROR(FIND(",",F23)),
+  IF(ISERROR(VLOOKUP(F23,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F23,FIND(",",F23)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F23,FIND(",",F23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F23,FIND(",",F23)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F23,FIND(",",F23,FIND(",",F23)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F23,FIND(",",F23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F23,FIND(",",F23)+1,FIND(",",F23,FIND(",",F23)+1)-FIND(",",F23)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F23,FIND(",",F23,FIND(",",F23)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F23,FIND(",",F23,FIND(",",F23,FIND(",",F23)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F23,FIND(",",F23)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F23,FIND(",",F23)+1,FIND(",",F23,FIND(",",F23)+1)-FIND(",",F23)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F23,FIND(",",F23,FIND(",",F23)+1)+1,FIND(",",F23,FIND(",",F23,FIND(",",F23)+1)+1)-FIND(",",F23,FIND(",",F23)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F23,FIND(",",F23,FIND(",",F23,FIND(",",F23)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="H23" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_DiagonalNwayGenerator</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="I23" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f>IF(ISBLANK(G23),"",
-IFERROR(VLOOKUP(G23,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G23,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
       </c>
       <c r="J23" s="1" t="str">
         <f>IF(ISBLANK(H23),"",
 IFERROR(VLOOKUP(H23,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H23,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>IF(ISBLANK(I23),"",
+IFERROR(VLOOKUP(I23,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I23,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 대각으로 더 발사됩니다</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>2</v>
       </c>
-      <c r="L23" s="1" t="b">
+      <c r="M23" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -13527,59 +13601,62 @@
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <f>IF(ISBLANK(E24),"",
-IF(ISERROR(FIND(",",E24)),
-  IF(ISERROR(VLOOKUP(E24,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E24,FIND(",",E24)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E24,FIND(",",E24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E24,FIND(",",E24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24)+1,FIND(",",E24,FIND(",",E24)+1)-FIND(",",E24)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24,FIND(",",E24)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E24,FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E24,FIND(",",E24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24)+1,FIND(",",E24,FIND(",",E24)+1)-FIND(",",E24)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24,FIND(",",E24)+1)+1,FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)-FIND(",",E24,FIND(",",E24)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E24,FIND(",",E24,FIND(",",E24,FIND(",",E24)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G24" s="1" t="str">
+        <f>IF(ISBLANK(F24),"",
+IF(ISERROR(FIND(",",F24)),
+  IF(ISERROR(VLOOKUP(F24,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F24,FIND(",",F24)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F24,FIND(",",F24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F24,FIND(",",F24)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F24,FIND(",",F24,FIND(",",F24)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F24,FIND(",",F24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F24,FIND(",",F24)+1,FIND(",",F24,FIND(",",F24)+1)-FIND(",",F24)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F24,FIND(",",F24,FIND(",",F24)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F24,FIND(",",F24,FIND(",",F24,FIND(",",F24)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F24,FIND(",",F24)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F24,FIND(",",F24)+1,FIND(",",F24,FIND(",",F24)+1)-FIND(",",F24)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F24,FIND(",",F24,FIND(",",F24)+1)+1,FIND(",",F24,FIND(",",F24,FIND(",",F24)+1)+1)-FIND(",",F24,FIND(",",F24)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F24,FIND(",",F24,FIND(",",F24,FIND(",",F24)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="H24" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_LeftRightNwayGenerator</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="I24" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f>IF(ISBLANK(G24),"",
-IFERROR(VLOOKUP(G24,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G24,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
       </c>
       <c r="J24" s="1" t="str">
         <f>IF(ISBLANK(H24),"",
 IFERROR(VLOOKUP(H24,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H24,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>IF(ISBLANK(I24),"",
+IFERROR(VLOOKUP(I24,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I24,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 좌우로 더 발사됩니다</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>2</v>
       </c>
-      <c r="L24" s="1" t="b">
+      <c r="M24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -13590,59 +13667,62 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f>IF(ISBLANK(E25),"",
-IF(ISERROR(FIND(",",E25)),
-  IF(ISERROR(VLOOKUP(E25,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E25,FIND(",",E25)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E25,FIND(",",E25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E25,FIND(",",E25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25)+1,FIND(",",E25,FIND(",",E25)+1)-FIND(",",E25)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25,FIND(",",E25)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E25,FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E25,FIND(",",E25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25)+1,FIND(",",E25,FIND(",",E25)+1)-FIND(",",E25)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25,FIND(",",E25)+1)+1,FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)-FIND(",",E25,FIND(",",E25)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E25,FIND(",",E25,FIND(",",E25,FIND(",",E25)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G25" s="1" t="str">
+        <f>IF(ISBLANK(F25),"",
+IF(ISERROR(FIND(",",F25)),
+  IF(ISERROR(VLOOKUP(F25,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F25,FIND(",",F25)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F25,FIND(",",F25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F25,FIND(",",F25)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F25,FIND(",",F25,FIND(",",F25)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F25,FIND(",",F25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F25,FIND(",",F25)+1,FIND(",",F25,FIND(",",F25)+1)-FIND(",",F25)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F25,FIND(",",F25,FIND(",",F25)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F25,FIND(",",F25,FIND(",",F25,FIND(",",F25)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F25,FIND(",",F25)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F25,FIND(",",F25)+1,FIND(",",F25,FIND(",",F25)+1)-FIND(",",F25)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F25,FIND(",",F25,FIND(",",F25)+1)+1,FIND(",",F25,FIND(",",F25,FIND(",",F25)+1)+1)-FIND(",",F25,FIND(",",F25)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F25,FIND(",",F25,FIND(",",F25,FIND(",",F25)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="H25" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_BackNwayGenerator</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="I25" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_BackNwayGenerator</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f>IF(ISBLANK(G25),"",
-IFERROR(VLOOKUP(G25,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G25,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
       </c>
       <c r="J25" s="1" t="str">
         <f>IF(ISBLANK(H25),"",
 IFERROR(VLOOKUP(H25,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H25,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>IF(ISBLANK(I25),"",
+IFERROR(VLOOKUP(I25,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I25,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 후방으로 더 발사됩니다</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>2</v>
       </c>
-      <c r="L25" s="1" t="b">
+      <c r="M25" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
@@ -13653,59 +13733,62 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f>IF(ISBLANK(E26),"",
-IF(ISERROR(FIND(",",E26)),
-  IF(ISERROR(VLOOKUP(E26,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E26,FIND(",",E26)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E26,FIND(",",E26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E26,FIND(",",E26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26)+1,FIND(",",E26,FIND(",",E26)+1)-FIND(",",E26)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26,FIND(",",E26)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E26,FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E26,FIND(",",E26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26)+1,FIND(",",E26,FIND(",",E26)+1)-FIND(",",E26)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26,FIND(",",E26)+1)+1,FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)-FIND(",",E26,FIND(",",E26)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E26,FIND(",",E26,FIND(",",E26,FIND(",",E26)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G26" s="1" t="str">
+        <f>IF(ISBLANK(F26),"",
+IF(ISERROR(FIND(",",F26)),
+  IF(ISERROR(VLOOKUP(F26,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F26,FIND(",",F26)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F26,FIND(",",F26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F26,FIND(",",F26)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F26,FIND(",",F26,FIND(",",F26)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F26,FIND(",",F26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F26,FIND(",",F26)+1,FIND(",",F26,FIND(",",F26)+1)-FIND(",",F26)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F26,FIND(",",F26,FIND(",",F26)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F26,FIND(",",F26,FIND(",",F26,FIND(",",F26)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F26,FIND(",",F26)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F26,FIND(",",F26)+1,FIND(",",F26,FIND(",",F26)+1)-FIND(",",F26)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F26,FIND(",",F26,FIND(",",F26)+1)+1,FIND(",",F26,FIND(",",F26,FIND(",",F26)+1)+1)-FIND(",",F26,FIND(",",F26)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F26,FIND(",",F26,FIND(",",F26,FIND(",",F26)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G26" s="1" t="str">
+      <c r="H26" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LevelPackUIName_Repeat</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="I26" s="1" t="str">
         <f t="shared" si="6"/>
         <v>LevelPackUIDesc_Repeat</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f>IF(ISBLANK(G26),"",
-IFERROR(VLOOKUP(G26,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G26,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
       </c>
       <c r="J26" s="1" t="str">
         <f>IF(ISBLANK(H26),"",
 IFERROR(VLOOKUP(H26,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H26,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>IF(ISBLANK(I26),"",
+IFERROR(VLOOKUP(I26,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I26,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>평타 공격이 한 번 더 반복됩니다</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>2</v>
       </c>
-      <c r="L26" s="1" t="b">
+      <c r="M26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -13716,59 +13799,62 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <f>IF(ISBLANK(E27),"",
-IF(ISERROR(FIND(",",E27)),
-  IF(ISERROR(VLOOKUP(E27,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E27,FIND(",",E27)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E27,FIND(",",E27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E27,FIND(",",E27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27)+1,FIND(",",E27,FIND(",",E27)+1)-FIND(",",E27)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27,FIND(",",E27)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E27,FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E27,FIND(",",E27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27)+1,FIND(",",E27,FIND(",",E27)+1)-FIND(",",E27)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27,FIND(",",E27)+1)+1,FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)-FIND(",",E27,FIND(",",E27)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E27,FIND(",",E27,FIND(",",E27,FIND(",",E27)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G27" s="1" t="str">
+        <f>IF(ISBLANK(F27),"",
+IF(ISERROR(FIND(",",F27)),
+  IF(ISERROR(VLOOKUP(F27,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F27,FIND(",",F27)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F27,FIND(",",F27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F27,FIND(",",F27)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F27,FIND(",",F27,FIND(",",F27)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F27,FIND(",",F27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F27,FIND(",",F27)+1,FIND(",",F27,FIND(",",F27)+1)-FIND(",",F27)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F27,FIND(",",F27,FIND(",",F27)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F27,FIND(",",F27,FIND(",",F27,FIND(",",F27)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F27,FIND(",",F27)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F27,FIND(",",F27)+1,FIND(",",F27,FIND(",",F27)+1)-FIND(",",F27)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F27,FIND(",",F27,FIND(",",F27)+1)+1,FIND(",",F27,FIND(",",F27,FIND(",",F27)+1)+1)-FIND(",",F27,FIND(",",F27)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F27,FIND(",",F27,FIND(",",F27,FIND(",",F27)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" ref="G27" si="8">"LevelPackUIName_"&amp;A27</f>
+      <c r="H27" s="1" t="str">
+        <f t="shared" ref="H27" si="8">"LevelPackUIName_"&amp;A27</f>
         <v>LevelPackUIName_HealOnKill</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" ref="H27" si="9">"LevelPackUIDesc_"&amp;A27</f>
+      <c r="I27" s="1" t="str">
+        <f t="shared" ref="I27" si="9">"LevelPackUIDesc_"&amp;A27</f>
         <v>LevelPackUIDesc_HealOnKill</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f>IF(ISBLANK(G27),"",
-IFERROR(VLOOKUP(G27,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G27,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>몬스터 킬 시 회복</v>
       </c>
       <c r="J27" s="1" t="str">
         <f>IF(ISBLANK(H27),"",
 IFERROR(VLOOKUP(H27,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H27,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>몬스터 킬 시 회복</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>IF(ISBLANK(I27),"",
+IFERROR(VLOOKUP(I27,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I27,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터를 죽일 때 회복합니다</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="1" t="b">
+      <c r="M27" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -13779,59 +13865,62 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <f>IF(ISBLANK(E28),"",
-IF(ISERROR(FIND(",",E28)),
-  IF(ISERROR(VLOOKUP(E28,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E28,FIND(",",E28)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E28,FIND(",",E28)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E28,FIND(",",E28)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E28,FIND(",",E28,FIND(",",E28)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E28,FIND(",",E28)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E28,FIND(",",E28)+1,FIND(",",E28,FIND(",",E28)+1)-FIND(",",E28)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E28,FIND(",",E28,FIND(",",E28)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E28,FIND(",",E28,FIND(",",E28,FIND(",",E28)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E28,FIND(",",E28)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E28,FIND(",",E28)+1,FIND(",",E28,FIND(",",E28)+1)-FIND(",",E28)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E28,FIND(",",E28,FIND(",",E28)+1)+1,FIND(",",E28,FIND(",",E28,FIND(",",E28)+1)+1)-FIND(",",E28,FIND(",",E28)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E28,FIND(",",E28,FIND(",",E28,FIND(",",E28)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G28" s="1" t="str">
+        <f>IF(ISBLANK(F28),"",
+IF(ISERROR(FIND(",",F28)),
+  IF(ISERROR(VLOOKUP(F28,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F28,FIND(",",F28)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F28,FIND(",",F28)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F28,FIND(",",F28)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F28,FIND(",",F28,FIND(",",F28)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F28,FIND(",",F28)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F28,FIND(",",F28)+1,FIND(",",F28,FIND(",",F28)+1)-FIND(",",F28)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F28,FIND(",",F28,FIND(",",F28)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F28,FIND(",",F28,FIND(",",F28,FIND(",",F28)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F28,FIND(",",F28)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F28,FIND(",",F28)+1,FIND(",",F28,FIND(",",F28)+1)-FIND(",",F28)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F28,FIND(",",F28,FIND(",",F28)+1)+1,FIND(",",F28,FIND(",",F28,FIND(",",F28)+1)+1)-FIND(",",F28,FIND(",",F28)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F28,FIND(",",F28,FIND(",",F28,FIND(",",F28)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" ref="G28:G51" si="10">"LevelPackUIName_"&amp;A28</f>
+      <c r="H28" s="1" t="str">
+        <f t="shared" ref="H28:H51" si="10">"LevelPackUIName_"&amp;A28</f>
         <v>LevelPackUIName_HealOnKillBetter</v>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" ref="H28:H51" si="11">"LevelPackUIDesc_"&amp;A28</f>
+      <c r="I28" s="1" t="str">
+        <f t="shared" ref="I28:I51" si="11">"LevelPackUIDesc_"&amp;A28</f>
         <v>LevelPackUIDesc_HealOnKillBetter</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f>IF(ISBLANK(G28),"",
-IFERROR(VLOOKUP(G28,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G28,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
       </c>
       <c r="J28" s="1" t="str">
         <f>IF(ISBLANK(H28),"",
 IFERROR(VLOOKUP(H28,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H28,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>IF(ISBLANK(I28),"",
+IFERROR(VLOOKUP(I28,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I28,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터를 죽일 때 더 많이 회복합니다</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="L28" s="1" t="b">
+      <c r="M28" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -13842,60 +13931,63 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <f>IF(ISBLANK(E29),"",
-IF(ISERROR(FIND(",",E29)),
-  IF(ISERROR(VLOOKUP(E29,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E29,FIND(",",E29)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E29,FIND(",",E29)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E29,FIND(",",E29)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E29,FIND(",",E29,FIND(",",E29)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E29,FIND(",",E29)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E29,FIND(",",E29)+1,FIND(",",E29,FIND(",",E29)+1)-FIND(",",E29)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E29,FIND(",",E29,FIND(",",E29)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E29,FIND(",",E29,FIND(",",E29,FIND(",",E29)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E29,FIND(",",E29)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E29,FIND(",",E29)+1,FIND(",",E29,FIND(",",E29)+1)-FIND(",",E29)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E29,FIND(",",E29,FIND(",",E29)+1)+1,FIND(",",E29,FIND(",",E29,FIND(",",E29)+1)+1)-FIND(",",E29,FIND(",",E29)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E29,FIND(",",E29,FIND(",",E29,FIND(",",E29)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G29" s="1" t="str">
+        <f>IF(ISBLANK(F29),"",
+IF(ISERROR(FIND(",",F29)),
+  IF(ISERROR(VLOOKUP(F29,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F29,FIND(",",F29)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F29,FIND(",",F29)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F29,FIND(",",F29)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F29,FIND(",",F29,FIND(",",F29)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F29,FIND(",",F29)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F29,FIND(",",F29)+1,FIND(",",F29,FIND(",",F29)+1)-FIND(",",F29)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F29,FIND(",",F29,FIND(",",F29)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F29,FIND(",",F29,FIND(",",F29,FIND(",",F29)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F29,FIND(",",F29)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F29,FIND(",",F29)+1,FIND(",",F29,FIND(",",F29)+1)-FIND(",",F29)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F29,FIND(",",F29,FIND(",",F29)+1)+1,FIND(",",F29,FIND(",",F29,FIND(",",F29)+1)+1)-FIND(",",F29,FIND(",",F29)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F29,FIND(",",F29,FIND(",",F29,FIND(",",F29)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="I29" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f>IF(ISBLANK(G29),"",
-IFERROR(VLOOKUP(G29,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G29,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>적 조우 시
-공격 속도 증가</v>
       </c>
       <c r="J29" s="1" t="str">
         <f>IF(ISBLANK(H29),"",
 IFERROR(VLOOKUP(H29,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H29,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>적 조우 시
+공격 속도 증가</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f>IF(ISBLANK(I29),"",
+IFERROR(VLOOKUP(I29,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I29,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터 조우 시 공격 속도가 증가합니다</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>9</v>
       </c>
-      <c r="L29" s="1" t="b">
+      <c r="M29" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -13906,60 +13998,63 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <f>IF(ISBLANK(E30),"",
-IF(ISERROR(FIND(",",E30)),
-  IF(ISERROR(VLOOKUP(E30,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E30,FIND(",",E30)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E30,FIND(",",E30)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E30,FIND(",",E30)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E30,FIND(",",E30,FIND(",",E30)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E30,FIND(",",E30)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E30,FIND(",",E30)+1,FIND(",",E30,FIND(",",E30)+1)-FIND(",",E30)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E30,FIND(",",E30,FIND(",",E30)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E30,FIND(",",E30,FIND(",",E30,FIND(",",E30)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E30,FIND(",",E30)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E30,FIND(",",E30)+1,FIND(",",E30,FIND(",",E30)+1)-FIND(",",E30)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E30,FIND(",",E30,FIND(",",E30)+1)+1,FIND(",",E30,FIND(",",E30,FIND(",",E30)+1)+1)-FIND(",",E30,FIND(",",E30)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E30,FIND(",",E30,FIND(",",E30,FIND(",",E30)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G30" s="1" t="str">
+        <f>IF(ISBLANK(F30),"",
+IF(ISERROR(FIND(",",F30)),
+  IF(ISERROR(VLOOKUP(F30,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F30,FIND(",",F30)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F30,FIND(",",F30)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F30,FIND(",",F30)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F30,FIND(",",F30,FIND(",",F30)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F30,FIND(",",F30)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F30,FIND(",",F30)+1,FIND(",",F30,FIND(",",F30)+1)-FIND(",",F30)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F30,FIND(",",F30,FIND(",",F30)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F30,FIND(",",F30,FIND(",",F30,FIND(",",F30)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F30,FIND(",",F30)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F30,FIND(",",F30)+1,FIND(",",F30,FIND(",",F30)+1)-FIND(",",F30)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F30,FIND(",",F30,FIND(",",F30)+1)+1,FIND(",",F30,FIND(",",F30,FIND(",",F30)+1)+1)-FIND(",",F30,FIND(",",F30)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F30,FIND(",",F30,FIND(",",F30,FIND(",",F30)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="H30" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="I30" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <f>IF(ISBLANK(G30),"",
-IFERROR(VLOOKUP(G30,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G30,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
-공격 속도 증가</v>
       </c>
       <c r="J30" s="1" t="str">
         <f>IF(ISBLANK(H30),"",
 IFERROR(VLOOKUP(H30,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H30,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
+공격 속도 증가</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f>IF(ISBLANK(I30),"",
+IFERROR(VLOOKUP(I30,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I30,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>5</v>
       </c>
-      <c r="L30" s="1" t="b">
+      <c r="M30" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -13970,59 +14065,62 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f>IF(ISBLANK(E31),"",
-IF(ISERROR(FIND(",",E31)),
-  IF(ISERROR(VLOOKUP(E31,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E31,FIND(",",E31)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E31,FIND(",",E31)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E31,FIND(",",E31)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E31,FIND(",",E31,FIND(",",E31)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E31,FIND(",",E31)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E31,FIND(",",E31)+1,FIND(",",E31,FIND(",",E31)+1)-FIND(",",E31)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E31,FIND(",",E31,FIND(",",E31)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E31,FIND(",",E31,FIND(",",E31,FIND(",",E31)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E31,FIND(",",E31)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E31,FIND(",",E31)+1,FIND(",",E31,FIND(",",E31)+1)-FIND(",",E31)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E31,FIND(",",E31,FIND(",",E31)+1)+1,FIND(",",E31,FIND(",",E31,FIND(",",E31)+1)+1)-FIND(",",E31,FIND(",",E31)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E31,FIND(",",E31,FIND(",",E31,FIND(",",E31)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G31" s="1" t="str">
+        <f>IF(ISBLANK(F31),"",
+IF(ISERROR(FIND(",",F31)),
+  IF(ISERROR(VLOOKUP(F31,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F31,FIND(",",F31)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F31,FIND(",",F31)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F31,FIND(",",F31)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F31,FIND(",",F31,FIND(",",F31)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F31,FIND(",",F31)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F31,FIND(",",F31)+1,FIND(",",F31,FIND(",",F31)+1)-FIND(",",F31)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F31,FIND(",",F31,FIND(",",F31)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F31,FIND(",",F31,FIND(",",F31,FIND(",",F31)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F31,FIND(",",F31)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F31,FIND(",",F31)+1,FIND(",",F31,FIND(",",F31)+1)-FIND(",",F31)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F31,FIND(",",F31,FIND(",",F31)+1)+1,FIND(",",F31,FIND(",",F31,FIND(",",F31)+1)+1)-FIND(",",F31,FIND(",",F31)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F31,FIND(",",F31,FIND(",",F31,FIND(",",F31)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_VampireOnAttack</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="I31" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_VampireOnAttack</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f>IF(ISBLANK(G31),"",
-IFERROR(VLOOKUP(G31,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G31,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>흡혈</v>
       </c>
       <c r="J31" s="1" t="str">
         <f>IF(ISBLANK(H31),"",
 IFERROR(VLOOKUP(H31,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H31,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>흡혈</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f>IF(ISBLANK(I31),"",
+IFERROR(VLOOKUP(I31,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I31,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>5</v>
       </c>
-      <c r="L31" s="1" t="b">
+      <c r="M31" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -14033,59 +14131,62 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f>IF(ISBLANK(E32),"",
-IF(ISERROR(FIND(",",E32)),
-  IF(ISERROR(VLOOKUP(E32,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E32,FIND(",",E32)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E32,FIND(",",E32)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E32,FIND(",",E32)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E32,FIND(",",E32,FIND(",",E32)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E32,FIND(",",E32)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E32,FIND(",",E32)+1,FIND(",",E32,FIND(",",E32)+1)-FIND(",",E32)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E32,FIND(",",E32,FIND(",",E32)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E32,FIND(",",E32,FIND(",",E32,FIND(",",E32)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E32,FIND(",",E32)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E32,FIND(",",E32)+1,FIND(",",E32,FIND(",",E32)+1)-FIND(",",E32)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E32,FIND(",",E32,FIND(",",E32)+1)+1,FIND(",",E32,FIND(",",E32,FIND(",",E32)+1)+1)-FIND(",",E32,FIND(",",E32)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E32,FIND(",",E32,FIND(",",E32,FIND(",",E32)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G32" s="1" t="str">
+        <f>IF(ISBLANK(F32),"",
+IF(ISERROR(FIND(",",F32)),
+  IF(ISERROR(VLOOKUP(F32,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F32,FIND(",",F32)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F32,FIND(",",F32)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F32,FIND(",",F32)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F32,FIND(",",F32,FIND(",",F32)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F32,FIND(",",F32)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F32,FIND(",",F32)+1,FIND(",",F32,FIND(",",F32)+1)-FIND(",",F32)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F32,FIND(",",F32,FIND(",",F32)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F32,FIND(",",F32,FIND(",",F32,FIND(",",F32)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F32,FIND(",",F32)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F32,FIND(",",F32)+1,FIND(",",F32,FIND(",",F32)+1)-FIND(",",F32)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F32,FIND(",",F32,FIND(",",F32)+1)+1,FIND(",",F32,FIND(",",F32,FIND(",",F32)+1)+1)-FIND(",",F32,FIND(",",F32)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F32,FIND(",",F32,FIND(",",F32,FIND(",",F32)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="H32" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_VampireOnAttackBetter</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="I32" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_VampireOnAttackBetter</v>
-      </c>
-      <c r="I32" s="1" t="str">
-        <f>IF(ISBLANK(G32),"",
-IFERROR(VLOOKUP(G32,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G32,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
       </c>
       <c r="J32" s="1" t="str">
         <f>IF(ISBLANK(H32),"",
 IFERROR(VLOOKUP(H32,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H32,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f>IF(ISBLANK(I32),"",
+IFERROR(VLOOKUP(I32,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I32,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>5</v>
       </c>
-      <c r="L32" s="1" t="b">
+      <c r="M32" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -14096,59 +14197,62 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f>IF(ISBLANK(E33),"",
-IF(ISERROR(FIND(",",E33)),
-  IF(ISERROR(VLOOKUP(E33,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E33,FIND(",",E33)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E33,FIND(",",E33)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E33,FIND(",",E33)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E33,FIND(",",E33,FIND(",",E33)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E33,FIND(",",E33)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E33,FIND(",",E33)+1,FIND(",",E33,FIND(",",E33)+1)-FIND(",",E33)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E33,FIND(",",E33,FIND(",",E33)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E33,FIND(",",E33,FIND(",",E33,FIND(",",E33)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E33,FIND(",",E33)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E33,FIND(",",E33)+1,FIND(",",E33,FIND(",",E33)+1)-FIND(",",E33)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E33,FIND(",",E33,FIND(",",E33)+1)+1,FIND(",",E33,FIND(",",E33,FIND(",",E33)+1)+1)-FIND(",",E33,FIND(",",E33)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E33,FIND(",",E33,FIND(",",E33,FIND(",",E33)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G33" s="1" t="str">
+        <f>IF(ISBLANK(F33),"",
+IF(ISERROR(FIND(",",F33)),
+  IF(ISERROR(VLOOKUP(F33,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F33,FIND(",",F33)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F33,FIND(",",F33)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F33,FIND(",",F33)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F33,FIND(",",F33,FIND(",",F33)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F33,FIND(",",F33)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F33,FIND(",",F33)+1,FIND(",",F33,FIND(",",F33)+1)-FIND(",",F33)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F33,FIND(",",F33,FIND(",",F33)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F33,FIND(",",F33,FIND(",",F33,FIND(",",F33)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F33,FIND(",",F33)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F33,FIND(",",F33)+1,FIND(",",F33,FIND(",",F33)+1)-FIND(",",F33)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F33,FIND(",",F33,FIND(",",F33)+1)+1,FIND(",",F33,FIND(",",F33,FIND(",",F33)+1)+1)-FIND(",",F33,FIND(",",F33)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F33,FIND(",",F33,FIND(",",F33,FIND(",",F33)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_RecoverOnAttacked</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="I33" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_RecoverOnAttacked</v>
-      </c>
-      <c r="I33" s="1" t="str">
-        <f>IF(ISBLANK(G33),"",
-IFERROR(VLOOKUP(G33,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G33,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>피격 시 HP 리젠</v>
       </c>
       <c r="J33" s="1" t="str">
         <f>IF(ISBLANK(H33),"",
 IFERROR(VLOOKUP(H33,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H33,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>몬스터에게 피격 시 대미지의 일부를 서서히 회복합니다</v>
-      </c>
-      <c r="K33" s="1">
+        <v>피격 시 HP 리젠</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f>IF(ISBLANK(I33),"",
+IFERROR(VLOOKUP(I33,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I33,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+      </c>
+      <c r="L33" s="1">
         <v>9</v>
       </c>
-      <c r="L33" s="1" t="b">
+      <c r="M33" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>103</v>
       </c>
@@ -14159,59 +14263,62 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f>IF(ISBLANK(E34),"",
-IF(ISERROR(FIND(",",E34)),
-  IF(ISERROR(VLOOKUP(E34,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E34,FIND(",",E34)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E34,FIND(",",E34)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E34,FIND(",",E34)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E34,FIND(",",E34,FIND(",",E34)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E34,FIND(",",E34)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E34,FIND(",",E34)+1,FIND(",",E34,FIND(",",E34)+1)-FIND(",",E34)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E34,FIND(",",E34,FIND(",",E34)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E34,FIND(",",E34,FIND(",",E34,FIND(",",E34)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E34,FIND(",",E34)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E34,FIND(",",E34)+1,FIND(",",E34,FIND(",",E34)+1)-FIND(",",E34)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E34,FIND(",",E34,FIND(",",E34)+1)+1,FIND(",",E34,FIND(",",E34,FIND(",",E34)+1)+1)-FIND(",",E34,FIND(",",E34)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E34,FIND(",",E34,FIND(",",E34,FIND(",",E34)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G34" s="1" t="str">
+        <f>IF(ISBLANK(F34),"",
+IF(ISERROR(FIND(",",F34)),
+  IF(ISERROR(VLOOKUP(F34,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F34,FIND(",",F34)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F34,FIND(",",F34)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F34,FIND(",",F34)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F34,FIND(",",F34,FIND(",",F34)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F34,FIND(",",F34)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F34,FIND(",",F34)+1,FIND(",",F34,FIND(",",F34)+1)-FIND(",",F34)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F34,FIND(",",F34,FIND(",",F34)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F34,FIND(",",F34,FIND(",",F34,FIND(",",F34)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F34,FIND(",",F34)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F34,FIND(",",F34)+1,FIND(",",F34,FIND(",",F34)+1)-FIND(",",F34)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F34,FIND(",",F34,FIND(",",F34)+1)+1,FIND(",",F34,FIND(",",F34,FIND(",",F34)+1)+1)-FIND(",",F34,FIND(",",F34)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F34,FIND(",",F34,FIND(",",F34,FIND(",",F34)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_ReflectOnAttacked</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="I34" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_ReflectOnAttacked</v>
-      </c>
-      <c r="I34" s="1" t="str">
-        <f>IF(ISBLANK(G34),"",
-IFERROR(VLOOKUP(G34,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G34,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>피격 시 반사</v>
       </c>
       <c r="J34" s="1" t="str">
         <f>IF(ISBLANK(H34),"",
 IFERROR(VLOOKUP(H34,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H34,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>피격 시 반사</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f>IF(ISBLANK(I34),"",
+IFERROR(VLOOKUP(I34,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I34,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>5</v>
       </c>
-      <c r="L34" s="1" t="b">
+      <c r="M34" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -14222,59 +14329,62 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f>IF(ISBLANK(E35),"",
-IF(ISERROR(FIND(",",E35)),
-  IF(ISERROR(VLOOKUP(E35,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E35,FIND(",",E35)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E35,FIND(",",E35)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E35,FIND(",",E35)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E35,FIND(",",E35,FIND(",",E35)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E35,FIND(",",E35)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E35,FIND(",",E35)+1,FIND(",",E35,FIND(",",E35)+1)-FIND(",",E35)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E35,FIND(",",E35,FIND(",",E35)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E35,FIND(",",E35,FIND(",",E35,FIND(",",E35)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E35,FIND(",",E35)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E35,FIND(",",E35)+1,FIND(",",E35,FIND(",",E35)+1)-FIND(",",E35)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E35,FIND(",",E35,FIND(",",E35)+1)+1,FIND(",",E35,FIND(",",E35,FIND(",",E35)+1)+1)-FIND(",",E35,FIND(",",E35)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E35,FIND(",",E35,FIND(",",E35,FIND(",",E35)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G35" s="1" t="str">
+        <f>IF(ISBLANK(F35),"",
+IF(ISERROR(FIND(",",F35)),
+  IF(ISERROR(VLOOKUP(F35,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F35,FIND(",",F35)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F35,FIND(",",F35)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F35,FIND(",",F35)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F35,FIND(",",F35,FIND(",",F35)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F35,FIND(",",F35)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F35,FIND(",",F35)+1,FIND(",",F35,FIND(",",F35)+1)-FIND(",",F35)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F35,FIND(",",F35,FIND(",",F35)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F35,FIND(",",F35,FIND(",",F35,FIND(",",F35)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F35,FIND(",",F35)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F35,FIND(",",F35)+1,FIND(",",F35,FIND(",",F35)+1)-FIND(",",F35)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F35,FIND(",",F35,FIND(",",F35)+1)+1,FIND(",",F35,FIND(",",F35,FIND(",",F35)+1)+1)-FIND(",",F35,FIND(",",F35)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F35,FIND(",",F35,FIND(",",F35,FIND(",",F35)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_ReflectOnAttackedBetter</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <f>IF(ISBLANK(G35),"",
-IFERROR(VLOOKUP(G35,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G35,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
       </c>
       <c r="J35" s="1" t="str">
         <f>IF(ISBLANK(H35),"",
 IFERROR(VLOOKUP(H35,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H35,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>IF(ISBLANK(I35),"",
+IFERROR(VLOOKUP(I35,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I35,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>5</v>
       </c>
-      <c r="L35" s="1" t="b">
+      <c r="M35" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
@@ -14285,60 +14395,63 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f>IF(ISBLANK(E36),"",
-IF(ISERROR(FIND(",",E36)),
-  IF(ISERROR(VLOOKUP(E36,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E36,FIND(",",E36)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E36,FIND(",",E36)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E36,FIND(",",E36)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E36,FIND(",",E36,FIND(",",E36)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E36,FIND(",",E36)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E36,FIND(",",E36)+1,FIND(",",E36,FIND(",",E36)+1)-FIND(",",E36)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E36,FIND(",",E36,FIND(",",E36)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E36,FIND(",",E36,FIND(",",E36,FIND(",",E36)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E36,FIND(",",E36)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E36,FIND(",",E36)+1,FIND(",",E36,FIND(",",E36)+1)-FIND(",",E36)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E36,FIND(",",E36,FIND(",",E36)+1)+1,FIND(",",E36,FIND(",",E36,FIND(",",E36)+1)+1)-FIND(",",E36,FIND(",",E36)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E36,FIND(",",E36,FIND(",",E36,FIND(",",E36)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G36" s="1" t="str">
+        <f>IF(ISBLANK(F36),"",
+IF(ISERROR(FIND(",",F36)),
+  IF(ISERROR(VLOOKUP(F36,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F36,FIND(",",F36)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F36,FIND(",",F36)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F36,FIND(",",F36)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F36,FIND(",",F36,FIND(",",F36)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F36,FIND(",",F36)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F36,FIND(",",F36)+1,FIND(",",F36,FIND(",",F36)+1)-FIND(",",F36)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F36,FIND(",",F36,FIND(",",F36)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F36,FIND(",",F36,FIND(",",F36,FIND(",",F36)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F36,FIND(",",F36)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F36,FIND(",",F36)+1,FIND(",",F36,FIND(",",F36)+1)-FIND(",",F36)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F36,FIND(",",F36,FIND(",",F36)+1)+1,FIND(",",F36,FIND(",",F36,FIND(",",F36)+1)+1)-FIND(",",F36,FIND(",",F36)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F36,FIND(",",F36,FIND(",",F36,FIND(",",F36)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_AtkUpOnLowerHp</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="I36" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
-      </c>
-      <c r="I36" s="1" t="str">
-        <f>IF(ISBLANK(G36),"",
-IFERROR(VLOOKUP(G36,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G36,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>HP 낮을수록
-공격력 증가</v>
       </c>
       <c r="J36" s="1" t="str">
         <f>IF(ISBLANK(H36),"",
 IFERROR(VLOOKUP(H36,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H36,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>HP 낮을수록
+공격력 증가</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>IF(ISBLANK(I36),"",
+IFERROR(VLOOKUP(I36,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I36,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>HP가 낮을수록 공격력이 증가합니다</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>5</v>
       </c>
-      <c r="L36" s="1" t="b">
+      <c r="M36" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -14349,60 +14462,63 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f>IF(ISBLANK(E37),"",
-IF(ISERROR(FIND(",",E37)),
-  IF(ISERROR(VLOOKUP(E37,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E37,FIND(",",E37)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E37,FIND(",",E37)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E37,FIND(",",E37)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E37,FIND(",",E37,FIND(",",E37)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E37,FIND(",",E37)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E37,FIND(",",E37)+1,FIND(",",E37,FIND(",",E37)+1)-FIND(",",E37)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E37,FIND(",",E37,FIND(",",E37)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E37,FIND(",",E37,FIND(",",E37,FIND(",",E37)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E37,FIND(",",E37)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E37,FIND(",",E37)+1,FIND(",",E37,FIND(",",E37)+1)-FIND(",",E37)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E37,FIND(",",E37,FIND(",",E37)+1)+1,FIND(",",E37,FIND(",",E37,FIND(",",E37)+1)+1)-FIND(",",E37,FIND(",",E37)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E37,FIND(",",E37,FIND(",",E37,FIND(",",E37)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G37" s="1" t="str">
+        <f>IF(ISBLANK(F37),"",
+IF(ISERROR(FIND(",",F37)),
+  IF(ISERROR(VLOOKUP(F37,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F37,FIND(",",F37)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F37,FIND(",",F37)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F37,FIND(",",F37)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F37,FIND(",",F37,FIND(",",F37)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F37,FIND(",",F37)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F37,FIND(",",F37)+1,FIND(",",F37,FIND(",",F37)+1)-FIND(",",F37)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F37,FIND(",",F37,FIND(",",F37)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F37,FIND(",",F37,FIND(",",F37,FIND(",",F37)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F37,FIND(",",F37)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F37,FIND(",",F37)+1,FIND(",",F37,FIND(",",F37)+1)-FIND(",",F37)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F37,FIND(",",F37,FIND(",",F37)+1)+1,FIND(",",F37,FIND(",",F37,FIND(",",F37)+1)+1)-FIND(",",F37,FIND(",",F37)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F37,FIND(",",F37,FIND(",",F37,FIND(",",F37)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="I37" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
-      </c>
-      <c r="I37" s="1" t="str">
-        <f>IF(ISBLANK(G37),"",
-IFERROR(VLOOKUP(G37,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G37,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
-공격력 증가</v>
       </c>
       <c r="J37" s="1" t="str">
         <f>IF(ISBLANK(H37),"",
 IFERROR(VLOOKUP(H37,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H37,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
+공격력 증가</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f>IF(ISBLANK(I37),"",
+IFERROR(VLOOKUP(I37,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I37,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>3</v>
       </c>
-      <c r="L37" s="1" t="b">
+      <c r="M37" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -14413,60 +14529,63 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f>IF(ISBLANK(E38),"",
-IF(ISERROR(FIND(",",E38)),
-  IF(ISERROR(VLOOKUP(E38,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E38,FIND(",",E38)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E38,FIND(",",E38)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E38,FIND(",",E38)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E38,FIND(",",E38,FIND(",",E38)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E38,FIND(",",E38)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E38,FIND(",",E38)+1,FIND(",",E38,FIND(",",E38)+1)-FIND(",",E38)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E38,FIND(",",E38,FIND(",",E38)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E38,FIND(",",E38,FIND(",",E38,FIND(",",E38)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E38,FIND(",",E38)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E38,FIND(",",E38)+1,FIND(",",E38,FIND(",",E38)+1)-FIND(",",E38)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E38,FIND(",",E38,FIND(",",E38)+1)+1,FIND(",",E38,FIND(",",E38,FIND(",",E38)+1)+1)-FIND(",",E38,FIND(",",E38)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E38,FIND(",",E38,FIND(",",E38,FIND(",",E38)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G38" s="1" t="str">
+        <f>IF(ISBLANK(F38),"",
+IF(ISERROR(FIND(",",F38)),
+  IF(ISERROR(VLOOKUP(F38,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F38,FIND(",",F38)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F38,FIND(",",F38)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F38,FIND(",",F38)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F38,FIND(",",F38,FIND(",",F38)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F38,FIND(",",F38)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F38,FIND(",",F38)+1,FIND(",",F38,FIND(",",F38)+1)-FIND(",",F38)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F38,FIND(",",F38,FIND(",",F38)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F38,FIND(",",F38,FIND(",",F38,FIND(",",F38)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F38,FIND(",",F38)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F38,FIND(",",F38)+1,FIND(",",F38,FIND(",",F38)+1)-FIND(",",F38)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F38,FIND(",",F38,FIND(",",F38)+1)+1,FIND(",",F38,FIND(",",F38,FIND(",",F38)+1)+1)-FIND(",",F38,FIND(",",F38)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F38,FIND(",",F38,FIND(",",F38,FIND(",",F38)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="H38" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="I38" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
-      </c>
-      <c r="I38" s="1" t="str">
-        <f>IF(ISBLANK(G38),"",
-IFERROR(VLOOKUP(G38,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G38,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>HP 낮을수록
-치명타 대미지 증가</v>
       </c>
       <c r="J38" s="1" t="str">
         <f>IF(ISBLANK(H38),"",
 IFERROR(VLOOKUP(H38,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H38,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>HP가 낮을수록 치명타 대미지가 증가합니다</v>
-      </c>
-      <c r="K38" s="1">
+        <v>적 HP 낮을수록
+치명타 대미지 증가</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f>IF(ISBLANK(I38),"",
+IFERROR(VLOOKUP(I38,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I38,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+      </c>
+      <c r="L38" s="1">
         <v>3</v>
       </c>
-      <c r="L38" s="1" t="b">
+      <c r="M38" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -14477,60 +14596,63 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f>IF(ISBLANK(E39),"",
-IF(ISERROR(FIND(",",E39)),
-  IF(ISERROR(VLOOKUP(E39,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E39,FIND(",",E39)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E39,FIND(",",E39)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E39,FIND(",",E39)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E39,FIND(",",E39,FIND(",",E39)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E39,FIND(",",E39)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E39,FIND(",",E39)+1,FIND(",",E39,FIND(",",E39)+1)-FIND(",",E39)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E39,FIND(",",E39,FIND(",",E39)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E39,FIND(",",E39,FIND(",",E39,FIND(",",E39)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E39,FIND(",",E39)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E39,FIND(",",E39)+1,FIND(",",E39,FIND(",",E39)+1)-FIND(",",E39)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E39,FIND(",",E39,FIND(",",E39)+1)+1,FIND(",",E39,FIND(",",E39,FIND(",",E39)+1)+1)-FIND(",",E39,FIND(",",E39)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E39,FIND(",",E39,FIND(",",E39,FIND(",",E39)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G39" s="1" t="str">
+        <f>IF(ISBLANK(F39),"",
+IF(ISERROR(FIND(",",F39)),
+  IF(ISERROR(VLOOKUP(F39,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F39,FIND(",",F39)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F39,FIND(",",F39)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F39,FIND(",",F39)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F39,FIND(",",F39,FIND(",",F39)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F39,FIND(",",F39)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F39,FIND(",",F39)+1,FIND(",",F39,FIND(",",F39)+1)-FIND(",",F39)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F39,FIND(",",F39,FIND(",",F39)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F39,FIND(",",F39,FIND(",",F39,FIND(",",F39)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F39,FIND(",",F39)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F39,FIND(",",F39)+1,FIND(",",F39,FIND(",",F39)+1)-FIND(",",F39)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F39,FIND(",",F39,FIND(",",F39)+1)+1,FIND(",",F39,FIND(",",F39,FIND(",",F39)+1)+1)-FIND(",",F39,FIND(",",F39)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F39,FIND(",",F39,FIND(",",F39,FIND(",",F39)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="H39" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="I39" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
-      </c>
-      <c r="I39" s="1" t="str">
-        <f>IF(ISBLANK(G39),"",
-IFERROR(VLOOKUP(G39,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G39,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
-치명타 대미지 증가</v>
       </c>
       <c r="J39" s="1" t="str">
         <f>IF(ISBLANK(H39),"",
 IFERROR(VLOOKUP(H39,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H39,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
-      </c>
-      <c r="K39" s="1">
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
+치명타 대미지 증가</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f>IF(ISBLANK(I39),"",
+IFERROR(VLOOKUP(I39,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I39,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+      </c>
+      <c r="L39" s="1">
         <v>1</v>
       </c>
-      <c r="L39" s="1" t="b">
+      <c r="M39" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -14541,60 +14663,63 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" ref="E40:E51" si="12">"LP_"&amp;A40</f>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" ref="F40:F51" si="12">"LP_"&amp;A40</f>
         <v>LP_InstantKill</v>
       </c>
-      <c r="F40" s="1" t="str">
-        <f>IF(ISBLANK(E40),"",
-IF(ISERROR(FIND(",",E40)),
-  IF(ISERROR(VLOOKUP(E40,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E40,FIND(",",E40)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E40,FIND(",",E40)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E40,FIND(",",E40)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E40,FIND(",",E40,FIND(",",E40)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E40,FIND(",",E40)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E40,FIND(",",E40)+1,FIND(",",E40,FIND(",",E40)+1)-FIND(",",E40)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E40,FIND(",",E40,FIND(",",E40)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E40,FIND(",",E40,FIND(",",E40,FIND(",",E40)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E40,FIND(",",E40)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E40,FIND(",",E40)+1,FIND(",",E40,FIND(",",E40)+1)-FIND(",",E40)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E40,FIND(",",E40,FIND(",",E40)+1)+1,FIND(",",E40,FIND(",",E40,FIND(",",E40)+1)+1)-FIND(",",E40,FIND(",",E40)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E40,FIND(",",E40,FIND(",",E40,FIND(",",E40)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G40" s="1" t="str">
+        <f>IF(ISBLANK(F40),"",
+IF(ISERROR(FIND(",",F40)),
+  IF(ISERROR(VLOOKUP(F40,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F40,FIND(",",F40)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F40,FIND(",",F40)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F40,FIND(",",F40)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F40,FIND(",",F40,FIND(",",F40)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F40,FIND(",",F40)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F40,FIND(",",F40)+1,FIND(",",F40,FIND(",",F40)+1)-FIND(",",F40)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F40,FIND(",",F40,FIND(",",F40)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F40,FIND(",",F40,FIND(",",F40,FIND(",",F40)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F40,FIND(",",F40)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F40,FIND(",",F40)+1,FIND(",",F40,FIND(",",F40)+1)-FIND(",",F40)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F40,FIND(",",F40,FIND(",",F40)+1)+1,FIND(",",F40,FIND(",",F40,FIND(",",F40)+1)+1)-FIND(",",F40,FIND(",",F40)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F40,FIND(",",F40,FIND(",",F40,FIND(",",F40)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_InstantKill</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="I40" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_InstantKill</v>
-      </c>
-      <c r="I40" s="1" t="str">
-        <f>IF(ISBLANK(G40),"",
-IFERROR(VLOOKUP(G40,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G40,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>일정확률로 즉사</v>
       </c>
       <c r="J40" s="1" t="str">
         <f>IF(ISBLANK(H40),"",
 IFERROR(VLOOKUP(H40,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H40,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>일정확률로 즉사</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f>IF(ISBLANK(I40),"",
+IFERROR(VLOOKUP(I40,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I40,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터를 확률로 한 방에 죽입니다</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>9</v>
       </c>
-      <c r="L40" s="1" t="b">
+      <c r="M40" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -14605,60 +14730,63 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="str">
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F41" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_InstantKillBetter</v>
       </c>
-      <c r="F41" s="1" t="str">
-        <f>IF(ISBLANK(E41),"",
-IF(ISERROR(FIND(",",E41)),
-  IF(ISERROR(VLOOKUP(E41,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E41,FIND(",",E41)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E41,FIND(",",E41)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E41,FIND(",",E41)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E41,FIND(",",E41,FIND(",",E41)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E41,FIND(",",E41)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E41,FIND(",",E41)+1,FIND(",",E41,FIND(",",E41)+1)-FIND(",",E41)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E41,FIND(",",E41,FIND(",",E41)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E41,FIND(",",E41,FIND(",",E41,FIND(",",E41)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E41,FIND(",",E41)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E41,FIND(",",E41)+1,FIND(",",E41,FIND(",",E41)+1)-FIND(",",E41)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E41,FIND(",",E41,FIND(",",E41)+1)+1,FIND(",",E41,FIND(",",E41,FIND(",",E41)+1)+1)-FIND(",",E41,FIND(",",E41)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E41,FIND(",",E41,FIND(",",E41,FIND(",",E41)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G41" s="1" t="str">
+        <f>IF(ISBLANK(F41),"",
+IF(ISERROR(FIND(",",F41)),
+  IF(ISERROR(VLOOKUP(F41,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F41,FIND(",",F41)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F41,FIND(",",F41)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F41,FIND(",",F41)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F41,FIND(",",F41,FIND(",",F41)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F41,FIND(",",F41)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F41,FIND(",",F41)+1,FIND(",",F41,FIND(",",F41)+1)-FIND(",",F41)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F41,FIND(",",F41,FIND(",",F41)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F41,FIND(",",F41,FIND(",",F41,FIND(",",F41)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F41,FIND(",",F41)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F41,FIND(",",F41)+1,FIND(",",F41,FIND(",",F41)+1)-FIND(",",F41)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F41,FIND(",",F41,FIND(",",F41)+1)+1,FIND(",",F41,FIND(",",F41,FIND(",",F41)+1)+1)-FIND(",",F41,FIND(",",F41)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F41,FIND(",",F41,FIND(",",F41,FIND(",",F41)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_InstantKillBetter</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="I41" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_InstantKillBetter</v>
-      </c>
-      <c r="I41" s="1" t="str">
-        <f>IF(ISBLANK(G41),"",
-IFERROR(VLOOKUP(G41,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G41,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
       </c>
       <c r="J41" s="1" t="str">
         <f>IF(ISBLANK(H41),"",
 IFERROR(VLOOKUP(H41,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H41,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f>IF(ISBLANK(I41),"",
+IFERROR(VLOOKUP(I41,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I41,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>5</v>
       </c>
-      <c r="L41" s="1" t="b">
+      <c r="M41" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -14669,60 +14797,63 @@
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F42" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_ImmortalWill</v>
       </c>
-      <c r="F42" s="1" t="str">
-        <f>IF(ISBLANK(E42),"",
-IF(ISERROR(FIND(",",E42)),
-  IF(ISERROR(VLOOKUP(E42,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E42,FIND(",",E42)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E42,FIND(",",E42)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E42,FIND(",",E42)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E42,FIND(",",E42,FIND(",",E42)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E42,FIND(",",E42)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E42,FIND(",",E42)+1,FIND(",",E42,FIND(",",E42)+1)-FIND(",",E42)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E42,FIND(",",E42,FIND(",",E42)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E42,FIND(",",E42,FIND(",",E42,FIND(",",E42)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E42,FIND(",",E42)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E42,FIND(",",E42)+1,FIND(",",E42,FIND(",",E42)+1)-FIND(",",E42)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E42,FIND(",",E42,FIND(",",E42)+1)+1,FIND(",",E42,FIND(",",E42,FIND(",",E42)+1)+1)-FIND(",",E42,FIND(",",E42)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E42,FIND(",",E42,FIND(",",E42,FIND(",",E42)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G42" s="1" t="str">
+        <f>IF(ISBLANK(F42),"",
+IF(ISERROR(FIND(",",F42)),
+  IF(ISERROR(VLOOKUP(F42,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F42,FIND(",",F42)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F42,FIND(",",F42)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F42,FIND(",",F42)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F42,FIND(",",F42,FIND(",",F42)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F42,FIND(",",F42)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F42,FIND(",",F42)+1,FIND(",",F42,FIND(",",F42)+1)-FIND(",",F42)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F42,FIND(",",F42,FIND(",",F42)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F42,FIND(",",F42,FIND(",",F42,FIND(",",F42)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F42,FIND(",",F42)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F42,FIND(",",F42)+1,FIND(",",F42,FIND(",",F42)+1)-FIND(",",F42)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F42,FIND(",",F42,FIND(",",F42)+1)+1,FIND(",",F42,FIND(",",F42,FIND(",",F42)+1)+1)-FIND(",",F42,FIND(",",F42)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F42,FIND(",",F42,FIND(",",F42,FIND(",",F42)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="H42" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_ImmortalWill</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="I42" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_ImmortalWill</v>
-      </c>
-      <c r="I42" s="1" t="str">
-        <f>IF(ISBLANK(G42),"",
-IFERROR(VLOOKUP(G42,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G42,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>불사의 의지</v>
       </c>
       <c r="J42" s="1" t="str">
         <f>IF(ISBLANK(H42),"",
 IFERROR(VLOOKUP(H42,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H42,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>불사의 의지</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>IF(ISBLANK(I42),"",
+IFERROR(VLOOKUP(I42,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I42,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>HP가 0 이 될 때 확률로 살아납니다</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>9</v>
       </c>
-      <c r="L42" s="1" t="b">
+      <c r="M42" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -14733,60 +14864,63 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F43" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_ImmortalWillBetter</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f>IF(ISBLANK(E43),"",
-IF(ISERROR(FIND(",",E43)),
-  IF(ISERROR(VLOOKUP(E43,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E43,FIND(",",E43)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E43,FIND(",",E43)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E43,FIND(",",E43)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E43,FIND(",",E43,FIND(",",E43)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E43,FIND(",",E43)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E43,FIND(",",E43)+1,FIND(",",E43,FIND(",",E43)+1)-FIND(",",E43)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E43,FIND(",",E43,FIND(",",E43)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E43,FIND(",",E43,FIND(",",E43,FIND(",",E43)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E43,FIND(",",E43)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E43,FIND(",",E43)+1,FIND(",",E43,FIND(",",E43)+1)-FIND(",",E43)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E43,FIND(",",E43,FIND(",",E43)+1)+1,FIND(",",E43,FIND(",",E43,FIND(",",E43)+1)+1)-FIND(",",E43,FIND(",",E43)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E43,FIND(",",E43,FIND(",",E43,FIND(",",E43)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G43" s="1" t="str">
+        <f>IF(ISBLANK(F43),"",
+IF(ISERROR(FIND(",",F43)),
+  IF(ISERROR(VLOOKUP(F43,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F43,FIND(",",F43)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F43,FIND(",",F43)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F43,FIND(",",F43)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F43,FIND(",",F43,FIND(",",F43)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F43,FIND(",",F43)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F43,FIND(",",F43)+1,FIND(",",F43,FIND(",",F43)+1)-FIND(",",F43)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F43,FIND(",",F43,FIND(",",F43)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F43,FIND(",",F43,FIND(",",F43,FIND(",",F43)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F43,FIND(",",F43)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F43,FIND(",",F43)+1,FIND(",",F43,FIND(",",F43)+1)-FIND(",",F43)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F43,FIND(",",F43,FIND(",",F43)+1)+1,FIND(",",F43,FIND(",",F43,FIND(",",F43)+1)+1)-FIND(",",F43,FIND(",",F43)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F43,FIND(",",F43,FIND(",",F43,FIND(",",F43)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="H43" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_ImmortalWillBetter</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="I43" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_ImmortalWillBetter</v>
-      </c>
-      <c r="I43" s="1" t="str">
-        <f>IF(ISBLANK(G43),"",
-IFERROR(VLOOKUP(G43,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G43,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
       </c>
       <c r="J43" s="1" t="str">
         <f>IF(ISBLANK(H43),"",
 IFERROR(VLOOKUP(H43,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H43,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f>IF(ISBLANK(I43),"",
+IFERROR(VLOOKUP(I43,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I43,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>5</v>
       </c>
-      <c r="L43" s="1" t="b">
+      <c r="M43" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -14797,60 +14931,63 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <f>IF(C44,1,7)</f>
         <v>7</v>
       </c>
-      <c r="E44" s="1" t="str">
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F44" s="1" t="str">
         <f>"LP_"&amp;A44</f>
         <v>LP_HealAreaOnEncounter</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f>IF(ISBLANK(E44),"",
-IF(ISERROR(FIND(",",E44)),
-  IF(ISERROR(VLOOKUP(E44,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E44,FIND(",",E44)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E44,FIND(",",E44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E44,FIND(",",E44)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E44,FIND(",",E44,FIND(",",E44)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E44,FIND(",",E44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E44,FIND(",",E44)+1,FIND(",",E44,FIND(",",E44)+1)-FIND(",",E44)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E44,FIND(",",E44,FIND(",",E44)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E44,FIND(",",E44,FIND(",",E44,FIND(",",E44)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E44,FIND(",",E44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E44,FIND(",",E44)+1,FIND(",",E44,FIND(",",E44)+1)-FIND(",",E44)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E44,FIND(",",E44,FIND(",",E44)+1)+1,FIND(",",E44,FIND(",",E44,FIND(",",E44)+1)+1)-FIND(",",E44,FIND(",",E44)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E44,FIND(",",E44,FIND(",",E44,FIND(",",E44)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G44" s="1" t="str">
+        <f>IF(ISBLANK(F44),"",
+IF(ISERROR(FIND(",",F44)),
+  IF(ISERROR(VLOOKUP(F44,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F44,FIND(",",F44)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F44,FIND(",",F44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F44,FIND(",",F44,FIND(",",F44)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F44,FIND(",",F44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44)+1,FIND(",",F44,FIND(",",F44)+1)-FIND(",",F44)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44,FIND(",",F44)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F44,FIND(",",F44,FIND(",",F44,FIND(",",F44)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F44,FIND(",",F44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44)+1,FIND(",",F44,FIND(",",F44)+1)-FIND(",",F44)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44,FIND(",",F44)+1)+1,FIND(",",F44,FIND(",",F44,FIND(",",F44)+1)+1)-FIND(",",F44,FIND(",",F44)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44,FIND(",",F44,FIND(",",F44)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="H44" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A44</f>
         <v>LevelPackUIName_HealAreaOnEncounter</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="I44" s="1" t="str">
         <f>"LevelPackUIDesc_"&amp;A44</f>
         <v>LevelPackUIDesc_HealAreaOnEncounter</v>
-      </c>
-      <c r="I44" s="1" t="str">
-        <f>IF(ISBLANK(G44),"",
-IFERROR(VLOOKUP(G44,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G44,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>적 조우 시 회복지대</v>
       </c>
       <c r="J44" s="1" t="str">
         <f>IF(ISBLANK(H44),"",
 IFERROR(VLOOKUP(H44,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H44,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>적 조우 시 회복지대</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f>IF(ISBLANK(I44),"",
+IFERROR(VLOOKUP(I44,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I44,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터 조우 시 회복지대가 생성됩니다</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>9</v>
       </c>
-      <c r="L44" s="1" t="b">
+      <c r="M44" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -14861,61 +14998,64 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F45" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_MoveSpeedUpOnAttacked</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f>IF(ISBLANK(E45),"",
-IF(ISERROR(FIND(",",E45)),
-  IF(ISERROR(VLOOKUP(E45,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E45,FIND(",",E45)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E45,FIND(",",E45)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E45,FIND(",",E45)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E45,FIND(",",E45,FIND(",",E45)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E45,FIND(",",E45)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E45,FIND(",",E45)+1,FIND(",",E45,FIND(",",E45)+1)-FIND(",",E45)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E45,FIND(",",E45,FIND(",",E45)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E45,FIND(",",E45,FIND(",",E45,FIND(",",E45)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E45,FIND(",",E45)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E45,FIND(",",E45)+1,FIND(",",E45,FIND(",",E45)+1)-FIND(",",E45)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E45,FIND(",",E45,FIND(",",E45)+1)+1,FIND(",",E45,FIND(",",E45,FIND(",",E45)+1)+1)-FIND(",",E45,FIND(",",E45)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E45,FIND(",",E45,FIND(",",E45,FIND(",",E45)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G45" s="1" t="str">
+        <f>IF(ISBLANK(F45),"",
+IF(ISERROR(FIND(",",F45)),
+  IF(ISERROR(VLOOKUP(F45,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F45,FIND(",",F45)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F45,FIND(",",F45)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F45,FIND(",",F45)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F45,FIND(",",F45,FIND(",",F45)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F45,FIND(",",F45)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F45,FIND(",",F45)+1,FIND(",",F45,FIND(",",F45)+1)-FIND(",",F45)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F45,FIND(",",F45,FIND(",",F45)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F45,FIND(",",F45,FIND(",",F45,FIND(",",F45)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F45,FIND(",",F45)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F45,FIND(",",F45)+1,FIND(",",F45,FIND(",",F45)+1)-FIND(",",F45)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F45,FIND(",",F45,FIND(",",F45)+1)+1,FIND(",",F45,FIND(",",F45,FIND(",",F45)+1)+1)-FIND(",",F45,FIND(",",F45)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F45,FIND(",",F45,FIND(",",F45,FIND(",",F45)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G45" s="1" t="str">
+      <c r="H45" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="I45" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
-      </c>
-      <c r="I45" s="1" t="str">
-        <f>IF(ISBLANK(G45),"",
-IFERROR(VLOOKUP(G45,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G45,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>피격 시
-이동 속도 증가</v>
       </c>
       <c r="J45" s="1" t="str">
         <f>IF(ISBLANK(H45),"",
 IFERROR(VLOOKUP(H45,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H45,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>몬스터에게 피격 시 이동 속도가 증가합니다</v>
-      </c>
-      <c r="K45" s="1">
+        <v>피격 시
+이동 속도 증가</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f>IF(ISBLANK(I45),"",
+IFERROR(VLOOKUP(I45,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I45,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
+        <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+      </c>
+      <c r="L45" s="1">
         <v>6</v>
       </c>
-      <c r="L45" s="1" t="b">
+      <c r="M45" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>129</v>
       </c>
@@ -14926,60 +15066,63 @@
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <f>IF(C46,1,7)</f>
         <v>7</v>
       </c>
-      <c r="E46" s="1" t="str">
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F46" s="1" t="str">
         <f>"LP_"&amp;A46</f>
         <v>LP_BombOrbOnMove</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f>IF(ISBLANK(E46),"",
-IF(ISERROR(FIND(",",E46)),
-  IF(ISERROR(VLOOKUP(E46,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E46,FIND(",",E46)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E46,FIND(",",E46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E46,FIND(",",E46)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E46,FIND(",",E46,FIND(",",E46)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E46,FIND(",",E46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E46,FIND(",",E46)+1,FIND(",",E46,FIND(",",E46)+1)-FIND(",",E46)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E46,FIND(",",E46,FIND(",",E46)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E46,FIND(",",E46,FIND(",",E46,FIND(",",E46)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E46,FIND(",",E46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E46,FIND(",",E46)+1,FIND(",",E46,FIND(",",E46)+1)-FIND(",",E46)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E46,FIND(",",E46,FIND(",",E46)+1)+1,FIND(",",E46,FIND(",",E46,FIND(",",E46)+1)+1)-FIND(",",E46,FIND(",",E46)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E46,FIND(",",E46,FIND(",",E46,FIND(",",E46)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G46" s="1" t="str">
+        <f>IF(ISBLANK(F46),"",
+IF(ISERROR(FIND(",",F46)),
+  IF(ISERROR(VLOOKUP(F46,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F46,FIND(",",F46)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F46,FIND(",",F46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F46,FIND(",",F46,FIND(",",F46)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F46,FIND(",",F46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46)+1,FIND(",",F46,FIND(",",F46)+1)-FIND(",",F46)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46,FIND(",",F46)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F46,FIND(",",F46,FIND(",",F46,FIND(",",F46)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F46,FIND(",",F46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46)+1,FIND(",",F46,FIND(",",F46)+1)-FIND(",",F46)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46,FIND(",",F46)+1)+1,FIND(",",F46,FIND(",",F46,FIND(",",F46)+1)+1)-FIND(",",F46,FIND(",",F46)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46,FIND(",",F46,FIND(",",F46)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="H46" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A46</f>
         <v>LevelPackUIName_BombOrbOnMove</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="I46" s="1" t="str">
         <f>"LevelPackUIDesc_"&amp;A46</f>
         <v>LevelPackUIDesc_BombOrbOnMove</v>
-      </c>
-      <c r="I46" s="1" t="str">
-        <f>IF(ISBLANK(G46),"",
-IFERROR(VLOOKUP(G46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>이동 중 오브 설치</v>
       </c>
       <c r="J46" s="1" t="str">
         <f>IF(ISBLANK(H46),"",
 IFERROR(VLOOKUP(H46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>이동 중 오브 설치</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>IF(ISBLANK(I46),"",
+IFERROR(VLOOKUP(I46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>이동 시 공격구체를 설치합니다</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>9</v>
       </c>
-      <c r="L46" s="1" t="b">
+      <c r="M46" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -14990,60 +15133,63 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f>IF(C47,1,7)</f>
         <v>7</v>
       </c>
-      <c r="E47" s="1" t="str">
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F47" s="1" t="str">
         <f>"LP_"&amp;A47</f>
         <v>LP_SlowHitObject</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f>IF(ISBLANK(E47),"",
-IF(ISERROR(FIND(",",E47)),
-  IF(ISERROR(VLOOKUP(E47,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E47,FIND(",",E47)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E47,FIND(",",E47)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E47,FIND(",",E47)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E47,FIND(",",E47,FIND(",",E47)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E47,FIND(",",E47)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E47,FIND(",",E47)+1,FIND(",",E47,FIND(",",E47)+1)-FIND(",",E47)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E47,FIND(",",E47,FIND(",",E47)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E47,FIND(",",E47,FIND(",",E47,FIND(",",E47)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E47,FIND(",",E47)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E47,FIND(",",E47)+1,FIND(",",E47,FIND(",",E47)+1)-FIND(",",E47)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E47,FIND(",",E47,FIND(",",E47)+1)+1,FIND(",",E47,FIND(",",E47,FIND(",",E47)+1)+1)-FIND(",",E47,FIND(",",E47)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E47,FIND(",",E47,FIND(",",E47,FIND(",",E47)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G47" s="1" t="str">
+        <f>IF(ISBLANK(F47),"",
+IF(ISERROR(FIND(",",F47)),
+  IF(ISERROR(VLOOKUP(F47,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F47,FIND(",",F47)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F47,FIND(",",F47)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F47,FIND(",",F47)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F47,FIND(",",F47,FIND(",",F47)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F47,FIND(",",F47)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F47,FIND(",",F47)+1,FIND(",",F47,FIND(",",F47)+1)-FIND(",",F47)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F47,FIND(",",F47,FIND(",",F47)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F47,FIND(",",F47,FIND(",",F47,FIND(",",F47)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F47,FIND(",",F47)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F47,FIND(",",F47)+1,FIND(",",F47,FIND(",",F47)+1)-FIND(",",F47)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F47,FIND(",",F47,FIND(",",F47)+1)+1,FIND(",",F47,FIND(",",F47,FIND(",",F47)+1)+1)-FIND(",",F47,FIND(",",F47)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F47,FIND(",",F47,FIND(",",F47,FIND(",",F47)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="H47" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A47</f>
         <v>LevelPackUIName_SlowHitObject</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="I47" s="1" t="str">
         <f>"LevelPackUIDesc_"&amp;A47</f>
         <v>LevelPackUIDesc_SlowHitObject</v>
-      </c>
-      <c r="I47" s="1" t="str">
-        <f>IF(ISBLANK(G47),"",
-IFERROR(VLOOKUP(G47,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G47,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>발사체 속도 감소</v>
       </c>
       <c r="J47" s="1" t="str">
         <f>IF(ISBLANK(H47),"",
 IFERROR(VLOOKUP(H47,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H47,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>발사체 속도 감소</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f>IF(ISBLANK(I47),"",
+IFERROR(VLOOKUP(I47,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I47,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>몬스터의 발사체 속도가 줄어듭니다</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>5</v>
       </c>
-      <c r="L47" s="1" t="b">
+      <c r="M47" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -15054,60 +15200,63 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E48" s="1" t="str">
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F48" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_Paralyze</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f>IF(ISBLANK(E48),"",
-IF(ISERROR(FIND(",",E48)),
-  IF(ISERROR(VLOOKUP(E48,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E48,FIND(",",E48)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E48,FIND(",",E48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E48,FIND(",",E48)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E48,FIND(",",E48,FIND(",",E48)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E48,FIND(",",E48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E48,FIND(",",E48)+1,FIND(",",E48,FIND(",",E48)+1)-FIND(",",E48)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E48,FIND(",",E48,FIND(",",E48)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E48,FIND(",",E48,FIND(",",E48,FIND(",",E48)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E48,FIND(",",E48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E48,FIND(",",E48)+1,FIND(",",E48,FIND(",",E48)+1)-FIND(",",E48)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E48,FIND(",",E48,FIND(",",E48)+1)+1,FIND(",",E48,FIND(",",E48,FIND(",",E48)+1)+1)-FIND(",",E48,FIND(",",E48)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E48,FIND(",",E48,FIND(",",E48,FIND(",",E48)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G48" s="1" t="str">
+        <f>IF(ISBLANK(F48),"",
+IF(ISERROR(FIND(",",F48)),
+  IF(ISERROR(VLOOKUP(F48,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F48,FIND(",",F48)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F48,FIND(",",F48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F48,FIND(",",F48,FIND(",",F48)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F48,FIND(",",F48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48)+1,FIND(",",F48,FIND(",",F48)+1)-FIND(",",F48)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48,FIND(",",F48)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F48,FIND(",",F48,FIND(",",F48,FIND(",",F48)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F48,FIND(",",F48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48)+1,FIND(",",F48,FIND(",",F48)+1)-FIND(",",F48)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48,FIND(",",F48)+1)+1,FIND(",",F48,FIND(",",F48,FIND(",",F48)+1)+1)-FIND(",",F48,FIND(",",F48)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48,FIND(",",F48,FIND(",",F48)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="H48" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_Paralyze</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="I48" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_Paralyze</v>
-      </c>
-      <c r="I48" s="1" t="str">
-        <f>IF(ISBLANK(G48),"",
-IFERROR(VLOOKUP(G48,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G48,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>마비 효과</v>
       </c>
       <c r="J48" s="1" t="str">
         <f>IF(ISBLANK(H48),"",
 IFERROR(VLOOKUP(H48,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H48,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>마비 효과</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f>IF(ISBLANK(I48),"",
+IFERROR(VLOOKUP(I48,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I48,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격에 마비 효과를 부여합니다</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>9</v>
       </c>
-      <c r="L48" s="1" t="b">
+      <c r="M48" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -15118,60 +15267,63 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E49" s="1" t="str">
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F49" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_Hold</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f>IF(ISBLANK(E49),"",
-IF(ISERROR(FIND(",",E49)),
-  IF(ISERROR(VLOOKUP(E49,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E49,FIND(",",E49)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E49,FIND(",",E49)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E49,FIND(",",E49)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E49,FIND(",",E49,FIND(",",E49)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E49,FIND(",",E49)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E49,FIND(",",E49)+1,FIND(",",E49,FIND(",",E49)+1)-FIND(",",E49)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E49,FIND(",",E49,FIND(",",E49)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E49,FIND(",",E49,FIND(",",E49,FIND(",",E49)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E49,FIND(",",E49)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E49,FIND(",",E49)+1,FIND(",",E49,FIND(",",E49)+1)-FIND(",",E49)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E49,FIND(",",E49,FIND(",",E49)+1)+1,FIND(",",E49,FIND(",",E49,FIND(",",E49)+1)+1)-FIND(",",E49,FIND(",",E49)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E49,FIND(",",E49,FIND(",",E49,FIND(",",E49)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G49" s="1" t="str">
+        <f>IF(ISBLANK(F49),"",
+IF(ISERROR(FIND(",",F49)),
+  IF(ISERROR(VLOOKUP(F49,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F49,FIND(",",F49)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F49,FIND(",",F49)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F49,FIND(",",F49)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F49,FIND(",",F49,FIND(",",F49)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F49,FIND(",",F49)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F49,FIND(",",F49)+1,FIND(",",F49,FIND(",",F49)+1)-FIND(",",F49)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F49,FIND(",",F49,FIND(",",F49)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F49,FIND(",",F49,FIND(",",F49,FIND(",",F49)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F49,FIND(",",F49)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F49,FIND(",",F49)+1,FIND(",",F49,FIND(",",F49)+1)-FIND(",",F49)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F49,FIND(",",F49,FIND(",",F49)+1)+1,FIND(",",F49,FIND(",",F49,FIND(",",F49)+1)+1)-FIND(",",F49,FIND(",",F49)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F49,FIND(",",F49,FIND(",",F49,FIND(",",F49)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v/>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="H49" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_Hold</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="I49" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_Hold</v>
-      </c>
-      <c r="I49" s="1" t="str">
-        <f>IF(ISBLANK(G49),"",
-IFERROR(VLOOKUP(G49,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G49,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>이동 불가 효과</v>
       </c>
       <c r="J49" s="1" t="str">
         <f>IF(ISBLANK(H49),"",
 IFERROR(VLOOKUP(H49,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H49,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>이동 불가 효과</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>IF(ISBLANK(I49),"",
+IFERROR(VLOOKUP(I49,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I49,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격에 이동 불가 효과를 부여합니다</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>5</v>
       </c>
-      <c r="L49" s="1" t="b">
+      <c r="M49" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -15182,60 +15334,63 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E50" s="1" t="str">
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F50" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_Transport</v>
       </c>
-      <c r="F50" s="1" t="str">
-        <f>IF(ISBLANK(E50),"",
-IF(ISERROR(FIND(",",E50)),
-  IF(ISERROR(VLOOKUP(E50,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E50,FIND(",",E50)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E50,FIND(",",E50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E50,FIND(",",E50)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E50,FIND(",",E50,FIND(",",E50)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E50,FIND(",",E50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E50,FIND(",",E50)+1,FIND(",",E50,FIND(",",E50)+1)-FIND(",",E50)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E50,FIND(",",E50,FIND(",",E50)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E50,FIND(",",E50,FIND(",",E50,FIND(",",E50)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E50,FIND(",",E50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E50,FIND(",",E50)+1,FIND(",",E50,FIND(",",E50)+1)-FIND(",",E50)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E50,FIND(",",E50,FIND(",",E50)+1)+1,FIND(",",E50,FIND(",",E50,FIND(",",E50)+1)+1)-FIND(",",E50,FIND(",",E50)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E50,FIND(",",E50,FIND(",",E50,FIND(",",E50)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G50" s="1" t="str">
+        <f>IF(ISBLANK(F50),"",
+IF(ISERROR(FIND(",",F50)),
+  IF(ISERROR(VLOOKUP(F50,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F50,FIND(",",F50)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F50,FIND(",",F50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F50,FIND(",",F50,FIND(",",F50)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F50,FIND(",",F50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50)+1,FIND(",",F50,FIND(",",F50)+1)-FIND(",",F50)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50,FIND(",",F50)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F50,FIND(",",F50,FIND(",",F50,FIND(",",F50)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F50,FIND(",",F50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50)+1,FIND(",",F50,FIND(",",F50)+1)-FIND(",",F50)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50,FIND(",",F50)+1)+1,FIND(",",F50,FIND(",",F50,FIND(",",F50)+1)+1)-FIND(",",F50,FIND(",",F50)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50,FIND(",",F50,FIND(",",F50)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_Transport</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="I50" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_Transport</v>
-      </c>
-      <c r="I50" s="1" t="str">
-        <f>IF(ISBLANK(G50),"",
-IFERROR(VLOOKUP(G50,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G50,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>몬스터 전이 효과</v>
       </c>
       <c r="J50" s="1" t="str">
         <f>IF(ISBLANK(H50),"",
 IFERROR(VLOOKUP(H50,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H50,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>몬스터 전이 효과</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f>IF(ISBLANK(I50),"",
+IFERROR(VLOOKUP(I50,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I50,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>공격에 몬스터 전이 효과를 부여합니다</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>9</v>
       </c>
-      <c r="L50" s="1" t="b">
+      <c r="M50" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -15246,56 +15401,59 @@
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E51" s="1" t="str">
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F51" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LP_SummonShield</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f>IF(ISBLANK(E51),"",
-IF(ISERROR(FIND(",",E51)),
-  IF(ISERROR(VLOOKUP(E51,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E51,FIND(",",E51)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E51,FIND(",",E51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E51,FIND(",",E51)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E51,FIND(",",E51,FIND(",",E51)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E51,FIND(",",E51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E51,FIND(",",E51)+1,FIND(",",E51,FIND(",",E51)+1)-FIND(",",E51)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E51,FIND(",",E51,FIND(",",E51)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
-  ""),
-IF(ISERROR(FIND(",",E51,FIND(",",E51,FIND(",",E51,FIND(",",E51)+1)+1)+1)),
-  IF(OR(ISERROR(VLOOKUP(LEFT(E51,FIND(",",E51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E51,FIND(",",E51)+1,FIND(",",E51,FIND(",",E51)+1)-FIND(",",E51)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E51,FIND(",",E51,FIND(",",E51)+1)+1,FIND(",",E51,FIND(",",E51,FIND(",",E51)+1)+1)-FIND(",",E51,FIND(",",E51)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E51,FIND(",",E51,FIND(",",E51,FIND(",",E51)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+      <c r="G51" s="1" t="str">
+        <f>IF(ISBLANK(F51),"",
+IF(ISERROR(FIND(",",F51)),
+  IF(ISERROR(VLOOKUP(F51,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F51,FIND(",",F51)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F51,FIND(",",F51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F51,FIND(",",F51,FIND(",",F51)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F51,FIND(",",F51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51)+1,FIND(",",F51,FIND(",",F51)+1)-FIND(",",F51)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51,FIND(",",F51)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F51,FIND(",",F51,FIND(",",F51,FIND(",",F51)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F51,FIND(",",F51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51)+1,FIND(",",F51,FIND(",",F51)+1)-FIND(",",F51)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51,FIND(",",F51)+1)+1,FIND(",",F51,FIND(",",F51,FIND(",",F51)+1)+1)-FIND(",",F51,FIND(",",F51)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51,FIND(",",F51,FIND(",",F51)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
         <v>어펙터밸류없음</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="H51" s="1" t="str">
         <f t="shared" si="10"/>
         <v>LevelPackUIName_SummonShield</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="I51" s="1" t="str">
         <f t="shared" si="11"/>
         <v>LevelPackUIDesc_SummonShield</v>
-      </c>
-      <c r="I51" s="1" t="str">
-        <f>IF(ISBLANK(G51),"",
-IFERROR(VLOOKUP(G51,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
-IFERROR(VLOOKUP(G51,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
-"스트링없음")))</f>
-        <v>쉴드 소환</v>
       </c>
       <c r="J51" s="1" t="str">
         <f>IF(ISBLANK(H51),"",
 IFERROR(VLOOKUP(H51,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H51,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
+        <v>쉴드 소환</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f>IF(ISBLANK(I51),"",
+IFERROR(VLOOKUP(I51,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
+IFERROR(VLOOKUP(I51,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
+"스트링없음")))</f>
         <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>9</v>
       </c>
-      <c r="L51" s="1" t="b">
+      <c r="M51" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15455,15 +15613,15 @@
         <v/>
       </c>
       <c r="E2" t="e">
-        <f>IF(ISBLANK(VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$E$1,LevelPackTable!$1:$1,0),0))</f>
+        <f>IF(ISBLANK(VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$F$1,LevelPackTable!$1:$1,0),0)),"",VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$F$1,LevelPackTable!$1:$1,0),0))</f>
         <v>#N/A</v>
       </c>
       <c r="F2" t="e">
-        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$I$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
         <v>#N/A</v>
       </c>
       <c r="G2" t="e">
-        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$J$1,LevelPackTable!$1:$1,0),0)</f>
+        <f>VLOOKUP($A2,LevelPackTable!$1:$1048576,MATCH(LevelPackTable!$K$1,LevelPackTable!$1:$1,0),0)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="s">

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C57B3-558A-4653-8073-D32B4DFF0166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE587906-D403-4503-8BA4-F37BEEB0E64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -1157,11 +1157,21 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>LP_Hold</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
             <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
@@ -1252,17 +1262,17 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="F2" t="str">
-            <v>공격의 가중치를 확률에 곱하여 적용 후 히트오브젝트를 부여함
-가중치가 1보다 크면 1로 하여 확률을 더 높이지 않고 사용</v>
+            <v>액션 불가</v>
           </cell>
           <cell r="I2" t="str">
-            <v/>
+            <v>지속시간
+무제한은 -1</v>
           </cell>
           <cell r="J2" t="str">
-            <v>어펙터를 콜할 확률</v>
+            <v/>
           </cell>
           <cell r="K2" t="str">
             <v/>
@@ -1280,7 +1290,7 @@
             <v/>
           </cell>
           <cell r="P2" t="str">
-            <v>버로우, 돈다이인 적에게 면역일지 유무</v>
+            <v/>
           </cell>
           <cell r="Q2" t="str">
             <v/>
@@ -1295,11 +1305,10 @@
             <v/>
           </cell>
           <cell r="U2" t="str">
-            <v>어펙터밸류아이디
-레벨이 전달된다</v>
+            <v/>
           </cell>
           <cell r="V2" t="str">
-            <v/>
+            <v>루프 지속 이펙트</v>
           </cell>
           <cell r="W2" t="str">
             <v/>
@@ -5980,7 +5989,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J139">
-            <v>0.3</v>
+            <v>0.25</v>
           </cell>
           <cell r="M139" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6012,7 +6021,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J140">
-            <v>0.6</v>
+            <v>0.5</v>
           </cell>
           <cell r="M140" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6041,7 +6050,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J141">
-            <v>0.9</v>
+            <v>0.75</v>
           </cell>
           <cell r="M141" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6070,7 +6079,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J142">
-            <v>1.2</v>
+            <v>1</v>
           </cell>
           <cell r="M142" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6099,7 +6108,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J143">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="M143" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6128,7 +6137,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J144">
-            <v>1.8</v>
+            <v>1.5</v>
           </cell>
           <cell r="M144" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6157,7 +6166,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J145">
-            <v>2.1</v>
+            <v>1.75</v>
           </cell>
           <cell r="M145" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6186,7 +6195,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J146">
-            <v>2.4</v>
+            <v>2</v>
           </cell>
           <cell r="M146" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6215,7 +6224,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J147">
-            <v>2.7</v>
+            <v>2.25</v>
           </cell>
           <cell r="M147" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6419,10 +6428,10 @@
             <v/>
           </cell>
           <cell r="I153">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J153">
-            <v>0.45</v>
+            <v>0.35</v>
           </cell>
           <cell r="M153" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6451,10 +6460,10 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I154">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J154">
-            <v>0.9</v>
+            <v>0.7</v>
           </cell>
           <cell r="M154" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6483,10 +6492,10 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I155">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J155">
-            <v>1.35</v>
+            <v>1.05</v>
           </cell>
           <cell r="M155" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6515,10 +6524,10 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I156">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J156">
-            <v>1.8</v>
+            <v>1.4</v>
           </cell>
           <cell r="M156" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6547,10 +6556,10 @@
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I157">
-            <v>9</v>
+            <v>4.5</v>
           </cell>
           <cell r="J157">
-            <v>2.25</v>
+            <v>1.75</v>
           </cell>
           <cell r="M157" t="str">
             <v>AttackSpeedAddRate</v>
@@ -9699,10 +9708,10 @@
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>LP_Hold_01</v>
+            <v>LP_Paralyze_01</v>
           </cell>
           <cell r="B263" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C263" t="str">
             <v/>
@@ -9711,10 +9720,10 @@
             <v>1</v>
           </cell>
           <cell r="E263" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J263">
-            <v>0.1</v>
+            <v>0.2</v>
           </cell>
           <cell r="O263" t="str">
             <v/>
@@ -9726,15 +9735,21 @@
             <v/>
           </cell>
           <cell r="U263" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V263" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W263" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>LP_Hold_02</v>
+            <v>LP_Paralyze_02</v>
           </cell>
           <cell r="B264" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C264" t="str">
             <v/>
@@ -9743,10 +9758,10 @@
             <v>2</v>
           </cell>
           <cell r="E264" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J264">
-            <v>0.11</v>
+            <v>0.25</v>
           </cell>
           <cell r="O264" t="str">
             <v/>
@@ -9758,15 +9773,21 @@
             <v/>
           </cell>
           <cell r="U264" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V264" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W264" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>LP_Hold_03</v>
+            <v>LP_Paralyze_03</v>
           </cell>
           <cell r="B265" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C265" t="str">
             <v/>
@@ -9775,10 +9796,10 @@
             <v>3</v>
           </cell>
           <cell r="E265" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J265">
-            <v>0.12</v>
+            <v>0.3</v>
           </cell>
           <cell r="O265" t="str">
             <v/>
@@ -9790,15 +9811,21 @@
             <v/>
           </cell>
           <cell r="U265" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V265" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W265" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266" t="str">
-            <v>LP_Hold_04</v>
+            <v>LP_Paralyze_04</v>
           </cell>
           <cell r="B266" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C266" t="str">
             <v/>
@@ -9807,10 +9834,10 @@
             <v>4</v>
           </cell>
           <cell r="E266" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J266">
-            <v>0.13</v>
+            <v>0.35</v>
           </cell>
           <cell r="O266" t="str">
             <v/>
@@ -9822,15 +9849,21 @@
             <v/>
           </cell>
           <cell r="U266" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V266" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W266" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>LP_Hold_05</v>
+            <v>LP_Paralyze_05</v>
           </cell>
           <cell r="B267" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C267" t="str">
             <v/>
@@ -9839,10 +9872,10 @@
             <v>5</v>
           </cell>
           <cell r="E267" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J267">
-            <v>0.14000000000000001</v>
+            <v>0.4</v>
           </cell>
           <cell r="O267" t="str">
             <v/>
@@ -9854,15 +9887,21 @@
             <v/>
           </cell>
           <cell r="U267" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V267" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W267" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>LP_Hold_CannotMove_01</v>
+            <v>LP_Paralyze_CannotAction_01</v>
           </cell>
           <cell r="B268" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C268" t="str">
             <v/>
@@ -9871,10 +9910,10 @@
             <v>1</v>
           </cell>
           <cell r="E268" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I268">
-            <v>3</v>
+            <v>1.5</v>
           </cell>
           <cell r="O268" t="str">
             <v/>
@@ -9885,10 +9924,10 @@
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>LP_Hold_CannotMove_02</v>
+            <v>LP_Paralyze_CannotAction_02</v>
           </cell>
           <cell r="B269" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C269" t="str">
             <v/>
@@ -9897,10 +9936,10 @@
             <v>2</v>
           </cell>
           <cell r="E269" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I269">
-            <v>3.5</v>
+            <v>1.8</v>
           </cell>
           <cell r="O269" t="str">
             <v/>
@@ -9911,10 +9950,10 @@
         </row>
         <row r="270">
           <cell r="A270" t="str">
-            <v>LP_Hold_CannotMove_03</v>
+            <v>LP_Paralyze_CannotAction_03</v>
           </cell>
           <cell r="B270" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C270" t="str">
             <v/>
@@ -9923,10 +9962,10 @@
             <v>3</v>
           </cell>
           <cell r="E270" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I270">
-            <v>4</v>
+            <v>2.1</v>
           </cell>
           <cell r="O270" t="str">
             <v/>
@@ -9937,10 +9976,10 @@
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>LP_Hold_CannotMove_04</v>
+            <v>LP_Paralyze_CannotAction_04</v>
           </cell>
           <cell r="B271" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
@@ -9949,10 +9988,10 @@
             <v>4</v>
           </cell>
           <cell r="E271" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I271">
-            <v>4.5</v>
+            <v>2.4</v>
           </cell>
           <cell r="O271" t="str">
             <v/>
@@ -9963,10 +10002,10 @@
         </row>
         <row r="272">
           <cell r="A272" t="str">
-            <v>LP_Hold_CannotMove_05</v>
+            <v>LP_Paralyze_CannotAction_05</v>
           </cell>
           <cell r="B272" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C272" t="str">
             <v/>
@@ -9975,22 +10014,312 @@
             <v>5</v>
           </cell>
           <cell r="E272" t="str">
+            <v>CannotAction</v>
+          </cell>
+          <cell r="I272">
+            <v>2.7</v>
+          </cell>
+          <cell r="O272" t="str">
+            <v/>
+          </cell>
+          <cell r="S272" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273" t="str">
+            <v>LP_Hold_01</v>
+          </cell>
+          <cell r="B273" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C273" t="str">
+            <v/>
+          </cell>
+          <cell r="D273">
+            <v>1</v>
+          </cell>
+          <cell r="E273" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J273">
+            <v>0.1</v>
+          </cell>
+          <cell r="O273" t="str">
+            <v/>
+          </cell>
+          <cell r="P273">
+            <v>1</v>
+          </cell>
+          <cell r="S273" t="str">
+            <v/>
+          </cell>
+          <cell r="U273" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274" t="str">
+            <v>LP_Hold_02</v>
+          </cell>
+          <cell r="B274" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v/>
+          </cell>
+          <cell r="D274">
+            <v>2</v>
+          </cell>
+          <cell r="E274" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J274">
+            <v>0.11</v>
+          </cell>
+          <cell r="O274" t="str">
+            <v/>
+          </cell>
+          <cell r="P274">
+            <v>1</v>
+          </cell>
+          <cell r="S274" t="str">
+            <v/>
+          </cell>
+          <cell r="U274" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275" t="str">
+            <v>LP_Hold_03</v>
+          </cell>
+          <cell r="B275" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v/>
+          </cell>
+          <cell r="D275">
+            <v>3</v>
+          </cell>
+          <cell r="E275" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J275">
+            <v>0.12</v>
+          </cell>
+          <cell r="O275" t="str">
+            <v/>
+          </cell>
+          <cell r="P275">
+            <v>1</v>
+          </cell>
+          <cell r="S275" t="str">
+            <v/>
+          </cell>
+          <cell r="U275" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276" t="str">
+            <v>LP_Hold_04</v>
+          </cell>
+          <cell r="B276" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v/>
+          </cell>
+          <cell r="D276">
+            <v>4</v>
+          </cell>
+          <cell r="E276" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J276">
+            <v>0.13</v>
+          </cell>
+          <cell r="O276" t="str">
+            <v/>
+          </cell>
+          <cell r="P276">
+            <v>1</v>
+          </cell>
+          <cell r="S276" t="str">
+            <v/>
+          </cell>
+          <cell r="U276" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277" t="str">
+            <v>LP_Hold_05</v>
+          </cell>
+          <cell r="B277" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v/>
+          </cell>
+          <cell r="D277">
+            <v>5</v>
+          </cell>
+          <cell r="E277" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J277">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="O277" t="str">
+            <v/>
+          </cell>
+          <cell r="P277">
+            <v>1</v>
+          </cell>
+          <cell r="S277" t="str">
+            <v/>
+          </cell>
+          <cell r="U277" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278" t="str">
+            <v>LP_Hold_CannotMove_01</v>
+          </cell>
+          <cell r="B278" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v/>
+          </cell>
+          <cell r="D278">
+            <v>1</v>
+          </cell>
+          <cell r="E278" t="str">
             <v>CannotMove</v>
           </cell>
-          <cell r="I272">
+          <cell r="I278">
+            <v>3</v>
+          </cell>
+          <cell r="O278" t="str">
+            <v/>
+          </cell>
+          <cell r="S278" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279" t="str">
+            <v>LP_Hold_CannotMove_02</v>
+          </cell>
+          <cell r="B279" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v/>
+          </cell>
+          <cell r="D279">
+            <v>2</v>
+          </cell>
+          <cell r="E279" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I279">
+            <v>3.5</v>
+          </cell>
+          <cell r="O279" t="str">
+            <v/>
+          </cell>
+          <cell r="S279" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280" t="str">
+            <v>LP_Hold_CannotMove_03</v>
+          </cell>
+          <cell r="B280" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v/>
+          </cell>
+          <cell r="D280">
+            <v>3</v>
+          </cell>
+          <cell r="E280" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I280">
+            <v>4</v>
+          </cell>
+          <cell r="O280" t="str">
+            <v/>
+          </cell>
+          <cell r="S280" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281" t="str">
+            <v>LP_Hold_CannotMove_04</v>
+          </cell>
+          <cell r="B281" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v/>
+          </cell>
+          <cell r="D281">
+            <v>4</v>
+          </cell>
+          <cell r="E281" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I281">
+            <v>4.5</v>
+          </cell>
+          <cell r="O281" t="str">
+            <v/>
+          </cell>
+          <cell r="S281" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282" t="str">
+            <v>LP_Hold_CannotMove_05</v>
+          </cell>
+          <cell r="B282" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v/>
+          </cell>
+          <cell r="D282">
             <v>5</v>
           </cell>
-          <cell r="O272" t="str">
-            <v/>
-          </cell>
-          <cell r="S272" t="str">
+          <cell r="E282" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I282">
+            <v>5</v>
+          </cell>
+          <cell r="O282" t="str">
+            <v/>
+          </cell>
+          <cell r="S282" t="str">
             <v/>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11534,7 +11863,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12044,7 +12373,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -12134,7 +12463,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1">
-        <f>D2/SUMIF(C:C,C2,D:D)</f>
+        <f>IF(C2,"",D2/SUMIF(C:C,C2,D:D))</f>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="F2" s="1" t="str">
@@ -12200,9 +12529,9 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E51" si="2">D3/SUMIF(C:C,C3,D:D)</f>
-        <v>4.1666666666666664E-2</v>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E51" si="2">IF(C3,"",D3/SUMIF(C:C,C3,D:D))</f>
+        <v/>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12270,9 +12599,9 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12407,9 +12736,9 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12477,9 +12806,9 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12611,9 +12940,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12678,9 +13007,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12811,9 +13140,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F12" s="1" t="s">
         <v>134</v>
@@ -12877,9 +13206,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F13" s="1" t="s">
         <v>135</v>
@@ -13273,9 +13602,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -13339,9 +13668,9 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F20" s="1" t="s">
         <v>35</v>
@@ -13405,9 +13734,9 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F21" s="1" t="s">
         <v>36</v>
@@ -13471,9 +13800,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F22" s="1" t="s">
         <v>37</v>
@@ -13537,9 +13866,9 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F23" s="1" t="s">
         <v>38</v>
@@ -13603,9 +13932,9 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F24" s="1" t="s">
         <v>39</v>
@@ -13669,9 +13998,9 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -13735,9 +14064,9 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F26" s="1" t="s">
         <v>41</v>
@@ -13867,9 +14196,9 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F28" s="1" t="s">
         <v>139</v>
@@ -14000,9 +14329,9 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F30" s="1" t="s">
         <v>141</v>
@@ -14133,9 +14462,9 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F32" s="1" t="s">
         <v>143</v>
@@ -14331,9 +14660,9 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F35" s="1" t="s">
         <v>146</v>
@@ -14464,9 +14793,9 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F37" s="1" t="s">
         <v>148</v>
@@ -14598,9 +14927,9 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F39" s="1" t="s">
         <v>150</v>
@@ -14732,9 +15061,9 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="12"/>
@@ -14866,9 +15195,9 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v/>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="12"/>
@@ -15225,7 +15554,7 @@
   IF(OR(ISERROR(VLOOKUP(LEFT(F48,FIND(",",F48)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48)+1,FIND(",",F48,FIND(",",F48)+1)-FIND(",",F48)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48,FIND(",",F48)+1)+1,FIND(",",F48,FIND(",",F48,FIND(",",F48)+1)+1)-FIND(",",F48,FIND(",",F48)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F48,FIND(",",F48,FIND(",",F48,FIND(",",F48)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
-        <v>어펙터밸류없음</v>
+        <v/>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="10"/>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE587906-D403-4503-8BA4-F37BEEB0E64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818FE630-D886-48CE-BCD3-A475B0004CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -250,12 +250,83 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{639077CD-2F1B-4A24-9F85-4D2BBA7F9B3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로딩할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이펙트를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명시한다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +817,34 @@
     <t>확률참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>P_AMFX03_Shockwave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_D, WavesExplosion_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect6_Collision_D, Effect6_Collision_D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aura_Light_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect27_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic_circle_11_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic_shield_2_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -857,322 +956,337 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>NormalAttackKeepSeries</v>
+            <v>UltimateAttackGanfaul</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>NormalAttackBigBatSuccubus</v>
+            <v>NormalAttackKeepSeries</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>NormalAttackBei</v>
+            <v>NormalAttackBigBatSuccubus</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackBei</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>CountBarrier5Times</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CountBarrier5Times</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LP_Atk</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>LP_AtkSpeedBest</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBest</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>LP_CritBest</v>
+            <v>LP_CritBetter</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBest</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>LP_ExtraGold</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>LP_ItemChanceBoost</v>
+            <v>LP_ExtraGold</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_MonsterThrough</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_Ricochet</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_Repeat</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LP_HealOnKill_Heal</v>
+            <v>LP_HealOnKill</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+            <v>LP_HealOnKillBetter</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounter</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>LP_VampireOnAttack</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+            <v>LP_VampireOnAttackBetter</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+            <v>LP_RecoverOnAttacked</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHpBetter</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_Paralyze</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
+            <v>LP_Hold</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
             <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>LP_Transport</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>LP_Transport_Teleported</v>
           </cell>
         </row>
       </sheetData>
@@ -1262,17 +1376,17 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>CannotAction</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="F2" t="str">
-            <v>액션 불가</v>
+            <v>액터스탯 변경</v>
           </cell>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
           </cell>
           <cell r="J2" t="str">
-            <v/>
+            <v>변경할 수치</v>
           </cell>
           <cell r="K2" t="str">
             <v/>
@@ -1281,25 +1395,29 @@
             <v/>
           </cell>
           <cell r="M2" t="str">
-            <v/>
+            <v>스탯타입
+유효성 검사</v>
           </cell>
           <cell r="N2" t="str">
-            <v/>
+            <v>오버라이딩
+우측 입력은 여기</v>
           </cell>
           <cell r="O2" t="str">
-            <v/>
+            <v>스탯타입
+인자 좌측참고</v>
           </cell>
           <cell r="P2" t="str">
-            <v/>
+            <v>피격받아 종료할 지속횟수</v>
           </cell>
           <cell r="Q2" t="str">
             <v/>
           </cell>
           <cell r="R2" t="str">
-            <v/>
+            <v>오버라이딩
+우측 입력은 여기</v>
           </cell>
           <cell r="S2" t="str">
-            <v/>
+            <v>단타 이펙트 어태치 여부</v>
           </cell>
           <cell r="T2" t="str">
             <v/>
@@ -1308,10 +1426,10 @@
             <v/>
           </cell>
           <cell r="V2" t="str">
-            <v>루프 지속 이펙트</v>
+            <v/>
           </cell>
           <cell r="W2" t="str">
-            <v/>
+            <v>단타 이펙트</v>
           </cell>
           <cell r="Y2" t="str">
             <v>MaxHp</v>
@@ -1369,10 +1487,10 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>NormalAttackKeepSeries_01</v>
+            <v>UltimateAttackGanfaul_01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>NormalAttackKeepSeries</v>
+            <v>UltimateAttackGanfaul</v>
           </cell>
           <cell r="C4" t="str">
             <v/>
@@ -1387,7 +1505,7 @@
             <v/>
           </cell>
           <cell r="I4">
-            <v>0.5625</v>
+            <v>4</v>
           </cell>
           <cell r="O4" t="str">
             <v/>
@@ -1410,10 +1528,10 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>NormalAttackBigBatSuccubus_01</v>
+            <v>NormalAttackKeepSeries_01</v>
           </cell>
           <cell r="B5" t="str">
-            <v>NormalAttackBigBatSuccubus</v>
+            <v>NormalAttackKeepSeries</v>
           </cell>
           <cell r="C5" t="str">
             <v/>
@@ -1424,8 +1542,11 @@
           <cell r="E5" t="str">
             <v>BaseDamage</v>
           </cell>
+          <cell r="H5" t="str">
+            <v/>
+          </cell>
           <cell r="I5">
-            <v>0.33333333329999998</v>
+            <v>0.5625</v>
           </cell>
           <cell r="O5" t="str">
             <v/>
@@ -1448,10 +1569,10 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NormalAttackBei_01</v>
+            <v>NormalAttackBigBatSuccubus_01</v>
           </cell>
           <cell r="B6" t="str">
-            <v>NormalAttackBei</v>
+            <v>NormalAttackBigBatSuccubus</v>
           </cell>
           <cell r="C6" t="str">
             <v/>
@@ -1462,11 +1583,8 @@
           <cell r="E6" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="H6" t="str">
-            <v/>
-          </cell>
           <cell r="I6">
-            <v>1</v>
+            <v>0.33333333329999998</v>
           </cell>
           <cell r="O6" t="str">
             <v/>
@@ -1489,10 +1607,10 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>CallInvincibleTortoise_01</v>
+            <v>NormalAttackBei_01</v>
           </cell>
           <cell r="B7" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackBei</v>
           </cell>
           <cell r="C7" t="str">
             <v/>
@@ -1501,25 +1619,19 @@
             <v>1</v>
           </cell>
           <cell r="E7" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H7" t="str">
             <v/>
           </cell>
           <cell r="I7">
-            <v>-1</v>
+            <v>1</v>
           </cell>
           <cell r="O7" t="str">
             <v/>
           </cell>
-          <cell r="Q7" t="str">
-            <v>OnDamage</v>
-          </cell>
-          <cell r="S7">
-            <v>4</v>
-          </cell>
-          <cell r="U7" t="str">
-            <v>InvincibleTortoise</v>
+          <cell r="S7" t="str">
+            <v/>
           </cell>
           <cell r="Y7" t="str">
             <v>MoveSpeed</v>
@@ -1536,37 +1648,37 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>InvincibleTortoise_01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B8" t="str">
+            <v>CallInvincibleTortoise</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v/>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v/>
+          </cell>
+          <cell r="I8">
+            <v>-1</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v/>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S8">
+            <v>4</v>
+          </cell>
+          <cell r="U8" t="str">
             <v>InvincibleTortoise</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v/>
-          </cell>
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>InvincibleTortoise</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v/>
-          </cell>
-          <cell r="I8">
-            <v>3</v>
-          </cell>
-          <cell r="O8" t="str">
-            <v/>
-          </cell>
-          <cell r="S8" t="str">
-            <v/>
-          </cell>
-          <cell r="T8" t="str">
-            <v>GuardStart</v>
-          </cell>
-          <cell r="U8" t="str">
-            <v>GuardEnd</v>
           </cell>
           <cell r="Y8" t="str">
             <v>MaxSp</v>
@@ -1577,10 +1689,10 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>CountBarrier5Times_01</v>
+            <v>InvincibleTortoise_01</v>
           </cell>
           <cell r="B9" t="str">
-            <v>CountBarrier5Times</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="C9" t="str">
             <v/>
@@ -1589,25 +1701,25 @@
             <v>1</v>
           </cell>
           <cell r="E9" t="str">
-            <v>CountBarrier</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="H9" t="str">
             <v/>
           </cell>
           <cell r="I9">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="O9" t="str">
             <v/>
           </cell>
-          <cell r="P9">
-            <v>5</v>
-          </cell>
           <cell r="S9" t="str">
             <v/>
           </cell>
-          <cell r="V9" t="str">
-            <v>Effect29_D</v>
+          <cell r="T9" t="str">
+            <v>GuardStart</v>
+          </cell>
+          <cell r="U9" t="str">
+            <v>GuardEnd</v>
           </cell>
           <cell r="Y9" t="str">
             <v>SpGainAddRate</v>
@@ -1618,10 +1730,10 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>CallBurrowNinjaAssassin_01</v>
+            <v>CountBarrier5Times_01</v>
           </cell>
           <cell r="B10" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CountBarrier5Times</v>
           </cell>
           <cell r="C10" t="str">
             <v/>
@@ -1630,7 +1742,7 @@
             <v>1</v>
           </cell>
           <cell r="E10" t="str">
-            <v>CallAffectorValue</v>
+            <v>CountBarrier</v>
           </cell>
           <cell r="H10" t="str">
             <v/>
@@ -1641,14 +1753,14 @@
           <cell r="O10" t="str">
             <v/>
           </cell>
-          <cell r="Q10" t="str">
-            <v>OnDamage</v>
-          </cell>
-          <cell r="S10">
-            <v>4</v>
-          </cell>
-          <cell r="U10" t="str">
-            <v>BurrowNinjaAssassin</v>
+          <cell r="P10">
+            <v>5</v>
+          </cell>
+          <cell r="S10" t="str">
+            <v/>
+          </cell>
+          <cell r="V10" t="str">
+            <v>Effect29_D</v>
           </cell>
           <cell r="Y10" t="str">
             <v>CriticalRate</v>
@@ -1659,52 +1771,37 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>BurrowNinjaAssassin_01</v>
+            <v>CallBurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B11" t="str">
+            <v>CallBurrowNinjaAssassin</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v/>
+          </cell>
+          <cell r="D11">
+            <v>1</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v/>
+          </cell>
+          <cell r="I11">
+            <v>-1</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v/>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S11">
+            <v>4</v>
+          </cell>
+          <cell r="U11" t="str">
             <v>BurrowNinjaAssassin</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v/>
-          </cell>
-          <cell r="D11">
-            <v>1</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Burrow</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v/>
-          </cell>
-          <cell r="I11">
-            <v>3</v>
-          </cell>
-          <cell r="K11">
-            <v>0.5</v>
-          </cell>
-          <cell r="L11">
-            <v>1</v>
-          </cell>
-          <cell r="O11" t="str">
-            <v/>
-          </cell>
-          <cell r="P11">
-            <v>2</v>
-          </cell>
-          <cell r="S11" t="str">
-            <v/>
-          </cell>
-          <cell r="T11" t="str">
-            <v>BurrowStart</v>
-          </cell>
-          <cell r="U11" t="str">
-            <v>BurrowEnd</v>
-          </cell>
-          <cell r="V11" t="str">
-            <v>BurrowScrollObject</v>
-          </cell>
-          <cell r="W11" t="str">
-            <v>BurrowAttack</v>
           </cell>
           <cell r="Y11" t="str">
             <v>CriticalDamageAddRate</v>
@@ -1715,10 +1812,10 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LP_Atk_01</v>
+            <v>BurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B12" t="str">
-            <v>LP_Atk</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C12" t="str">
             <v/>
@@ -1727,25 +1824,40 @@
             <v>1</v>
           </cell>
           <cell r="E12" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Burrow</v>
           </cell>
           <cell r="H12" t="str">
             <v/>
           </cell>
           <cell r="I12">
-            <v>-1</v>
-          </cell>
-          <cell r="J12">
-            <v>0.25</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>AttackAddRate</v>
-          </cell>
-          <cell r="O12">
-            <v>18</v>
+            <v>3</v>
+          </cell>
+          <cell r="K12">
+            <v>0.5</v>
+          </cell>
+          <cell r="L12">
+            <v>1</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v/>
+          </cell>
+          <cell r="P12">
+            <v>2</v>
           </cell>
           <cell r="S12" t="str">
             <v/>
+          </cell>
+          <cell r="T12" t="str">
+            <v>BurrowStart</v>
+          </cell>
+          <cell r="U12" t="str">
+            <v>BurrowEnd</v>
+          </cell>
+          <cell r="V12" t="str">
+            <v>BurrowScrollObject</v>
+          </cell>
+          <cell r="W12" t="str">
+            <v>BurrowAttack</v>
           </cell>
           <cell r="Y12" t="str">
             <v>MoveSpeedAddRate</v>
@@ -1756,7 +1868,7 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LP_Atk_02</v>
+            <v>LP_Atk_01</v>
           </cell>
           <cell r="B13" t="str">
             <v>LP_Atk</v>
@@ -1765,7 +1877,7 @@
             <v/>
           </cell>
           <cell r="D13">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E13" t="str">
             <v>ChangeActorStatus</v>
@@ -1777,7 +1889,7 @@
             <v>-1</v>
           </cell>
           <cell r="J13">
-            <v>0.5</v>
+            <v>0.25</v>
           </cell>
           <cell r="M13" t="str">
             <v>AttackAddRate</v>
@@ -1797,7 +1909,7 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>LP_Atk_03</v>
+            <v>LP_Atk_02</v>
           </cell>
           <cell r="B14" t="str">
             <v>LP_Atk</v>
@@ -1806,7 +1918,7 @@
             <v/>
           </cell>
           <cell r="D14">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E14" t="str">
             <v>ChangeActorStatus</v>
@@ -1818,7 +1930,7 @@
             <v>-1</v>
           </cell>
           <cell r="J14">
-            <v>0.75</v>
+            <v>0.5</v>
           </cell>
           <cell r="M14" t="str">
             <v>AttackAddRate</v>
@@ -1838,7 +1950,7 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>LP_Atk_04</v>
+            <v>LP_Atk_03</v>
           </cell>
           <cell r="B15" t="str">
             <v>LP_Atk</v>
@@ -1847,7 +1959,7 @@
             <v/>
           </cell>
           <cell r="D15">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E15" t="str">
             <v>ChangeActorStatus</v>
@@ -1859,7 +1971,7 @@
             <v>-1</v>
           </cell>
           <cell r="J15">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
           <cell r="M15" t="str">
             <v>AttackAddRate</v>
@@ -1879,7 +1991,7 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>LP_Atk_05</v>
+            <v>LP_Atk_04</v>
           </cell>
           <cell r="B16" t="str">
             <v>LP_Atk</v>
@@ -1888,7 +2000,7 @@
             <v/>
           </cell>
           <cell r="D16">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E16" t="str">
             <v>ChangeActorStatus</v>
@@ -1900,7 +2012,7 @@
             <v>-1</v>
           </cell>
           <cell r="J16">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
           <cell r="M16" t="str">
             <v>AttackAddRate</v>
@@ -1920,7 +2032,7 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>LP_Atk_06</v>
+            <v>LP_Atk_05</v>
           </cell>
           <cell r="B17" t="str">
             <v>LP_Atk</v>
@@ -1929,7 +2041,7 @@
             <v/>
           </cell>
           <cell r="D17">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E17" t="str">
             <v>ChangeActorStatus</v>
@@ -1941,7 +2053,7 @@
             <v>-1</v>
           </cell>
           <cell r="J17">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="M17" t="str">
             <v>AttackAddRate</v>
@@ -1961,7 +2073,7 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>LP_Atk_07</v>
+            <v>LP_Atk_06</v>
           </cell>
           <cell r="B18" t="str">
             <v>LP_Atk</v>
@@ -1970,7 +2082,7 @@
             <v/>
           </cell>
           <cell r="D18">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E18" t="str">
             <v>ChangeActorStatus</v>
@@ -1982,7 +2094,7 @@
             <v>-1</v>
           </cell>
           <cell r="J18">
-            <v>1.75</v>
+            <v>1.5</v>
           </cell>
           <cell r="M18" t="str">
             <v>AttackAddRate</v>
@@ -2002,7 +2114,7 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>LP_Atk_08</v>
+            <v>LP_Atk_07</v>
           </cell>
           <cell r="B19" t="str">
             <v>LP_Atk</v>
@@ -2011,7 +2123,7 @@
             <v/>
           </cell>
           <cell r="D19">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E19" t="str">
             <v>ChangeActorStatus</v>
@@ -2023,7 +2135,7 @@
             <v>-1</v>
           </cell>
           <cell r="J19">
-            <v>2</v>
+            <v>1.75</v>
           </cell>
           <cell r="M19" t="str">
             <v>AttackAddRate</v>
@@ -2043,7 +2155,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>LP_Atk_09</v>
+            <v>LP_Atk_08</v>
           </cell>
           <cell r="B20" t="str">
             <v>LP_Atk</v>
@@ -2052,7 +2164,7 @@
             <v/>
           </cell>
           <cell r="D20">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E20" t="str">
             <v>ChangeActorStatus</v>
@@ -2064,7 +2176,7 @@
             <v>-1</v>
           </cell>
           <cell r="J20">
-            <v>2.25</v>
+            <v>2</v>
           </cell>
           <cell r="M20" t="str">
             <v>AttackAddRate</v>
@@ -2084,16 +2196,16 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>LP_AtkBetter_01</v>
+            <v>LP_Atk_09</v>
           </cell>
           <cell r="B21" t="str">
-            <v>LP_AtkBetter</v>
+            <v>LP_Atk</v>
           </cell>
           <cell r="C21" t="str">
             <v/>
           </cell>
           <cell r="D21">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E21" t="str">
             <v>ChangeActorStatus</v>
@@ -2105,7 +2217,7 @@
             <v>-1</v>
           </cell>
           <cell r="J21">
-            <v>0.35</v>
+            <v>2.25</v>
           </cell>
           <cell r="M21" t="str">
             <v>AttackAddRate</v>
@@ -2119,7 +2231,7 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>LP_AtkBetter_02</v>
+            <v>LP_AtkBetter_01</v>
           </cell>
           <cell r="B22" t="str">
             <v>LP_AtkBetter</v>
@@ -2128,7 +2240,7 @@
             <v/>
           </cell>
           <cell r="D22">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E22" t="str">
             <v>ChangeActorStatus</v>
@@ -2140,7 +2252,7 @@
             <v>-1</v>
           </cell>
           <cell r="J22">
-            <v>0.7</v>
+            <v>0.35</v>
           </cell>
           <cell r="M22" t="str">
             <v>AttackAddRate</v>
@@ -2154,7 +2266,7 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>LP_AtkBetter_03</v>
+            <v>LP_AtkBetter_02</v>
           </cell>
           <cell r="B23" t="str">
             <v>LP_AtkBetter</v>
@@ -2163,7 +2275,7 @@
             <v/>
           </cell>
           <cell r="D23">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E23" t="str">
             <v>ChangeActorStatus</v>
@@ -2175,7 +2287,7 @@
             <v>-1</v>
           </cell>
           <cell r="J23">
-            <v>1.05</v>
+            <v>0.7</v>
           </cell>
           <cell r="M23" t="str">
             <v>AttackAddRate</v>
@@ -2189,7 +2301,7 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>LP_AtkBetter_04</v>
+            <v>LP_AtkBetter_03</v>
           </cell>
           <cell r="B24" t="str">
             <v>LP_AtkBetter</v>
@@ -2198,7 +2310,7 @@
             <v/>
           </cell>
           <cell r="D24">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E24" t="str">
             <v>ChangeActorStatus</v>
@@ -2210,7 +2322,7 @@
             <v>-1</v>
           </cell>
           <cell r="J24">
-            <v>1.4</v>
+            <v>1.05</v>
           </cell>
           <cell r="M24" t="str">
             <v>AttackAddRate</v>
@@ -2224,7 +2336,7 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>LP_AtkBetter_05</v>
+            <v>LP_AtkBetter_04</v>
           </cell>
           <cell r="B25" t="str">
             <v>LP_AtkBetter</v>
@@ -2233,7 +2345,7 @@
             <v/>
           </cell>
           <cell r="D25">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E25" t="str">
             <v>ChangeActorStatus</v>
@@ -2245,7 +2357,7 @@
             <v>-1</v>
           </cell>
           <cell r="J25">
-            <v>1.75</v>
+            <v>1.4</v>
           </cell>
           <cell r="M25" t="str">
             <v>AttackAddRate</v>
@@ -2259,7 +2371,7 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>LP_AtkBetter_06</v>
+            <v>LP_AtkBetter_05</v>
           </cell>
           <cell r="B26" t="str">
             <v>LP_AtkBetter</v>
@@ -2268,7 +2380,7 @@
             <v/>
           </cell>
           <cell r="D26">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E26" t="str">
             <v>ChangeActorStatus</v>
@@ -2280,7 +2392,7 @@
             <v>-1</v>
           </cell>
           <cell r="J26">
-            <v>2.1</v>
+            <v>1.75</v>
           </cell>
           <cell r="M26" t="str">
             <v>AttackAddRate</v>
@@ -2294,7 +2406,7 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>LP_AtkBetter_07</v>
+            <v>LP_AtkBetter_06</v>
           </cell>
           <cell r="B27" t="str">
             <v>LP_AtkBetter</v>
@@ -2303,7 +2415,7 @@
             <v/>
           </cell>
           <cell r="D27">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E27" t="str">
             <v>ChangeActorStatus</v>
@@ -2315,7 +2427,7 @@
             <v>-1</v>
           </cell>
           <cell r="J27">
-            <v>2.4500000000000002</v>
+            <v>2.1</v>
           </cell>
           <cell r="M27" t="str">
             <v>AttackAddRate</v>
@@ -2329,7 +2441,7 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>LP_AtkBetter_08</v>
+            <v>LP_AtkBetter_07</v>
           </cell>
           <cell r="B28" t="str">
             <v>LP_AtkBetter</v>
@@ -2338,7 +2450,7 @@
             <v/>
           </cell>
           <cell r="D28">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E28" t="str">
             <v>ChangeActorStatus</v>
@@ -2350,7 +2462,7 @@
             <v>-1</v>
           </cell>
           <cell r="J28">
-            <v>2.8</v>
+            <v>2.4500000000000002</v>
           </cell>
           <cell r="M28" t="str">
             <v>AttackAddRate</v>
@@ -2364,7 +2476,7 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>LP_AtkBetter_09</v>
+            <v>LP_AtkBetter_08</v>
           </cell>
           <cell r="B29" t="str">
             <v>LP_AtkBetter</v>
@@ -2373,7 +2485,7 @@
             <v/>
           </cell>
           <cell r="D29">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E29" t="str">
             <v>ChangeActorStatus</v>
@@ -2385,7 +2497,7 @@
             <v>-1</v>
           </cell>
           <cell r="J29">
-            <v>3.15</v>
+            <v>2.8</v>
           </cell>
           <cell r="M29" t="str">
             <v>AttackAddRate</v>
@@ -2399,16 +2511,16 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>LP_AtkBest_01</v>
+            <v>LP_AtkBetter_09</v>
           </cell>
           <cell r="B30" t="str">
-            <v>LP_AtkBest</v>
+            <v>LP_AtkBetter</v>
           </cell>
           <cell r="C30" t="str">
             <v/>
           </cell>
           <cell r="D30">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E30" t="str">
             <v>ChangeActorStatus</v>
@@ -2420,7 +2532,7 @@
             <v>-1</v>
           </cell>
           <cell r="J30">
-            <v>0.5</v>
+            <v>3.15</v>
           </cell>
           <cell r="M30" t="str">
             <v>AttackAddRate</v>
@@ -2434,7 +2546,7 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>LP_AtkBest_02</v>
+            <v>LP_AtkBest_01</v>
           </cell>
           <cell r="B31" t="str">
             <v>LP_AtkBest</v>
@@ -2443,7 +2555,7 @@
             <v/>
           </cell>
           <cell r="D31">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E31" t="str">
             <v>ChangeActorStatus</v>
@@ -2455,7 +2567,7 @@
             <v>-1</v>
           </cell>
           <cell r="J31">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="M31" t="str">
             <v>AttackAddRate</v>
@@ -2469,7 +2581,7 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>LP_AtkBest_03</v>
+            <v>LP_AtkBest_02</v>
           </cell>
           <cell r="B32" t="str">
             <v>LP_AtkBest</v>
@@ -2478,7 +2590,7 @@
             <v/>
           </cell>
           <cell r="D32">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E32" t="str">
             <v>ChangeActorStatus</v>
@@ -2490,7 +2602,7 @@
             <v>-1</v>
           </cell>
           <cell r="J32">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="M32" t="str">
             <v>AttackAddRate</v>
@@ -2504,16 +2616,16 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>LP_AtkSpeed_01</v>
+            <v>LP_AtkBest_03</v>
           </cell>
           <cell r="B33" t="str">
-            <v>LP_AtkSpeed</v>
+            <v>LP_AtkBest</v>
           </cell>
           <cell r="C33" t="str">
             <v/>
           </cell>
           <cell r="D33">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E33" t="str">
             <v>ChangeActorStatus</v>
@@ -2525,13 +2637,13 @@
             <v>-1</v>
           </cell>
           <cell r="J33">
-            <v>8.7499999999999994E-2</v>
+            <v>1.5</v>
           </cell>
           <cell r="M33" t="str">
-            <v>AttackSpeedAddRate</v>
+            <v>AttackAddRate</v>
           </cell>
           <cell r="O33">
-            <v>3</v>
+            <v>18</v>
           </cell>
           <cell r="S33" t="str">
             <v/>
@@ -2539,7 +2651,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>LP_AtkSpeed_02</v>
+            <v>LP_AtkSpeed_01</v>
           </cell>
           <cell r="B34" t="str">
             <v>LP_AtkSpeed</v>
@@ -2548,7 +2660,7 @@
             <v/>
           </cell>
           <cell r="D34">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E34" t="str">
             <v>ChangeActorStatus</v>
@@ -2560,7 +2672,7 @@
             <v>-1</v>
           </cell>
           <cell r="J34">
-            <v>0.17499999999999999</v>
+            <v>8.7499999999999994E-2</v>
           </cell>
           <cell r="M34" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2574,7 +2686,7 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>LP_AtkSpeed_03</v>
+            <v>LP_AtkSpeed_02</v>
           </cell>
           <cell r="B35" t="str">
             <v>LP_AtkSpeed</v>
@@ -2583,7 +2695,7 @@
             <v/>
           </cell>
           <cell r="D35">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E35" t="str">
             <v>ChangeActorStatus</v>
@@ -2595,7 +2707,7 @@
             <v>-1</v>
           </cell>
           <cell r="J35">
-            <v>0.26249999999999996</v>
+            <v>0.17499999999999999</v>
           </cell>
           <cell r="M35" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2609,7 +2721,7 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LP_AtkSpeed_04</v>
+            <v>LP_AtkSpeed_03</v>
           </cell>
           <cell r="B36" t="str">
             <v>LP_AtkSpeed</v>
@@ -2618,7 +2730,7 @@
             <v/>
           </cell>
           <cell r="D36">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E36" t="str">
             <v>ChangeActorStatus</v>
@@ -2630,7 +2742,7 @@
             <v>-1</v>
           </cell>
           <cell r="J36">
-            <v>0.35</v>
+            <v>0.26249999999999996</v>
           </cell>
           <cell r="M36" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2644,7 +2756,7 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LP_AtkSpeed_05</v>
+            <v>LP_AtkSpeed_04</v>
           </cell>
           <cell r="B37" t="str">
             <v>LP_AtkSpeed</v>
@@ -2653,7 +2765,7 @@
             <v/>
           </cell>
           <cell r="D37">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E37" t="str">
             <v>ChangeActorStatus</v>
@@ -2665,7 +2777,7 @@
             <v>-1</v>
           </cell>
           <cell r="J37">
-            <v>0.4375</v>
+            <v>0.35</v>
           </cell>
           <cell r="M37" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2679,7 +2791,7 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LP_AtkSpeed_06</v>
+            <v>LP_AtkSpeed_05</v>
           </cell>
           <cell r="B38" t="str">
             <v>LP_AtkSpeed</v>
@@ -2688,7 +2800,7 @@
             <v/>
           </cell>
           <cell r="D38">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E38" t="str">
             <v>ChangeActorStatus</v>
@@ -2700,7 +2812,7 @@
             <v>-1</v>
           </cell>
           <cell r="J38">
-            <v>0.52499999999999991</v>
+            <v>0.4375</v>
           </cell>
           <cell r="M38" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2714,7 +2826,7 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LP_AtkSpeed_07</v>
+            <v>LP_AtkSpeed_06</v>
           </cell>
           <cell r="B39" t="str">
             <v>LP_AtkSpeed</v>
@@ -2723,7 +2835,7 @@
             <v/>
           </cell>
           <cell r="D39">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E39" t="str">
             <v>ChangeActorStatus</v>
@@ -2735,7 +2847,7 @@
             <v>-1</v>
           </cell>
           <cell r="J39">
-            <v>0.61249999999999993</v>
+            <v>0.52499999999999991</v>
           </cell>
           <cell r="M39" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2749,7 +2861,7 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LP_AtkSpeed_08</v>
+            <v>LP_AtkSpeed_07</v>
           </cell>
           <cell r="B40" t="str">
             <v>LP_AtkSpeed</v>
@@ -2758,7 +2870,7 @@
             <v/>
           </cell>
           <cell r="D40">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E40" t="str">
             <v>ChangeActorStatus</v>
@@ -2770,7 +2882,7 @@
             <v>-1</v>
           </cell>
           <cell r="J40">
-            <v>0.7</v>
+            <v>0.61249999999999993</v>
           </cell>
           <cell r="M40" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2784,7 +2896,7 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LP_AtkSpeed_09</v>
+            <v>LP_AtkSpeed_08</v>
           </cell>
           <cell r="B41" t="str">
             <v>LP_AtkSpeed</v>
@@ -2793,7 +2905,7 @@
             <v/>
           </cell>
           <cell r="D41">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E41" t="str">
             <v>ChangeActorStatus</v>
@@ -2805,7 +2917,7 @@
             <v>-1</v>
           </cell>
           <cell r="J41">
-            <v>0.78749999999999998</v>
+            <v>0.7</v>
           </cell>
           <cell r="M41" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2819,16 +2931,16 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LP_AtkSpeedBetter_01</v>
+            <v>LP_AtkSpeed_09</v>
           </cell>
           <cell r="B42" t="str">
-            <v>LP_AtkSpeedBetter</v>
+            <v>LP_AtkSpeed</v>
           </cell>
           <cell r="C42" t="str">
             <v/>
           </cell>
           <cell r="D42">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E42" t="str">
             <v>ChangeActorStatus</v>
@@ -2840,7 +2952,7 @@
             <v>-1</v>
           </cell>
           <cell r="J42">
-            <v>0.12249999999999998</v>
+            <v>0.78749999999999998</v>
           </cell>
           <cell r="M42" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2854,7 +2966,7 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LP_AtkSpeedBetter_02</v>
+            <v>LP_AtkSpeedBetter_01</v>
           </cell>
           <cell r="B43" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -2863,7 +2975,7 @@
             <v/>
           </cell>
           <cell r="D43">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E43" t="str">
             <v>ChangeActorStatus</v>
@@ -2875,7 +2987,7 @@
             <v>-1</v>
           </cell>
           <cell r="J43">
-            <v>0.24499999999999997</v>
+            <v>0.12249999999999998</v>
           </cell>
           <cell r="M43" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2889,7 +3001,7 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LP_AtkSpeedBetter_03</v>
+            <v>LP_AtkSpeedBetter_02</v>
           </cell>
           <cell r="B44" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -2898,7 +3010,7 @@
             <v/>
           </cell>
           <cell r="D44">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E44" t="str">
             <v>ChangeActorStatus</v>
@@ -2910,7 +3022,7 @@
             <v>-1</v>
           </cell>
           <cell r="J44">
-            <v>0.36749999999999999</v>
+            <v>0.24499999999999997</v>
           </cell>
           <cell r="M44" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2924,7 +3036,7 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LP_AtkSpeedBetter_04</v>
+            <v>LP_AtkSpeedBetter_03</v>
           </cell>
           <cell r="B45" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -2933,7 +3045,7 @@
             <v/>
           </cell>
           <cell r="D45">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E45" t="str">
             <v>ChangeActorStatus</v>
@@ -2945,7 +3057,7 @@
             <v>-1</v>
           </cell>
           <cell r="J45">
-            <v>0.48999999999999994</v>
+            <v>0.36749999999999999</v>
           </cell>
           <cell r="M45" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2959,7 +3071,7 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LP_AtkSpeedBetter_05</v>
+            <v>LP_AtkSpeedBetter_04</v>
           </cell>
           <cell r="B46" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -2968,7 +3080,7 @@
             <v/>
           </cell>
           <cell r="D46">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E46" t="str">
             <v>ChangeActorStatus</v>
@@ -2980,7 +3092,7 @@
             <v>-1</v>
           </cell>
           <cell r="J46">
-            <v>0.61249999999999993</v>
+            <v>0.48999999999999994</v>
           </cell>
           <cell r="M46" t="str">
             <v>AttackSpeedAddRate</v>
@@ -2994,7 +3106,7 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LP_AtkSpeedBetter_06</v>
+            <v>LP_AtkSpeedBetter_05</v>
           </cell>
           <cell r="B47" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -3003,7 +3115,7 @@
             <v/>
           </cell>
           <cell r="D47">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E47" t="str">
             <v>ChangeActorStatus</v>
@@ -3015,7 +3127,7 @@
             <v>-1</v>
           </cell>
           <cell r="J47">
-            <v>0.73499999999999999</v>
+            <v>0.61249999999999993</v>
           </cell>
           <cell r="M47" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3029,7 +3141,7 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LP_AtkSpeedBetter_07</v>
+            <v>LP_AtkSpeedBetter_06</v>
           </cell>
           <cell r="B48" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -3038,7 +3150,7 @@
             <v/>
           </cell>
           <cell r="D48">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E48" t="str">
             <v>ChangeActorStatus</v>
@@ -3050,7 +3162,7 @@
             <v>-1</v>
           </cell>
           <cell r="J48">
-            <v>0.85750000000000004</v>
+            <v>0.73499999999999999</v>
           </cell>
           <cell r="M48" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3064,7 +3176,7 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LP_AtkSpeedBetter_08</v>
+            <v>LP_AtkSpeedBetter_07</v>
           </cell>
           <cell r="B49" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -3073,7 +3185,7 @@
             <v/>
           </cell>
           <cell r="D49">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E49" t="str">
             <v>ChangeActorStatus</v>
@@ -3085,7 +3197,7 @@
             <v>-1</v>
           </cell>
           <cell r="J49">
-            <v>0.97999999999999987</v>
+            <v>0.85750000000000004</v>
           </cell>
           <cell r="M49" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3099,7 +3211,7 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LP_AtkSpeedBetter_09</v>
+            <v>LP_AtkSpeedBetter_08</v>
           </cell>
           <cell r="B50" t="str">
             <v>LP_AtkSpeedBetter</v>
@@ -3108,7 +3220,7 @@
             <v/>
           </cell>
           <cell r="D50">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E50" t="str">
             <v>ChangeActorStatus</v>
@@ -3120,7 +3232,7 @@
             <v>-1</v>
           </cell>
           <cell r="J50">
-            <v>1.1024999999999998</v>
+            <v>0.97999999999999987</v>
           </cell>
           <cell r="M50" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3134,16 +3246,16 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LP_AtkSpeedBest_01</v>
+            <v>LP_AtkSpeedBetter_09</v>
           </cell>
           <cell r="B51" t="str">
-            <v>LP_AtkSpeedBest</v>
+            <v>LP_AtkSpeedBetter</v>
           </cell>
           <cell r="C51" t="str">
             <v/>
           </cell>
           <cell r="D51">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E51" t="str">
             <v>ChangeActorStatus</v>
@@ -3155,7 +3267,7 @@
             <v>-1</v>
           </cell>
           <cell r="J51">
-            <v>0.17499999999999999</v>
+            <v>1.1024999999999998</v>
           </cell>
           <cell r="M51" t="str">
             <v>AttackSpeedAddRate</v>
@@ -3169,10 +3281,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LP_Crit_01</v>
+            <v>LP_AtkSpeedBest_01</v>
           </cell>
           <cell r="B52" t="str">
-            <v>LP_Crit</v>
+            <v>LP_AtkSpeedBest</v>
           </cell>
           <cell r="C52" t="str">
             <v/>
@@ -3190,13 +3302,13 @@
             <v>-1</v>
           </cell>
           <cell r="J52">
-            <v>0.15</v>
+            <v>0.17499999999999999</v>
           </cell>
           <cell r="M52" t="str">
-            <v>CriticalRate</v>
+            <v>AttackSpeedAddRate</v>
           </cell>
           <cell r="O52">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="S52" t="str">
             <v/>
@@ -3204,7 +3316,7 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LP_Crit_02</v>
+            <v>LP_Crit_01</v>
           </cell>
           <cell r="B53" t="str">
             <v>LP_Crit</v>
@@ -3213,7 +3325,7 @@
             <v/>
           </cell>
           <cell r="D53">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E53" t="str">
             <v>ChangeActorStatus</v>
@@ -3225,7 +3337,7 @@
             <v>-1</v>
           </cell>
           <cell r="J53">
-            <v>0.3</v>
+            <v>0.15</v>
           </cell>
           <cell r="M53" t="str">
             <v>CriticalRate</v>
@@ -3239,7 +3351,7 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LP_Crit_03</v>
+            <v>LP_Crit_02</v>
           </cell>
           <cell r="B54" t="str">
             <v>LP_Crit</v>
@@ -3248,7 +3360,7 @@
             <v/>
           </cell>
           <cell r="D54">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E54" t="str">
             <v>ChangeActorStatus</v>
@@ -3260,7 +3372,7 @@
             <v>-1</v>
           </cell>
           <cell r="J54">
-            <v>0.45</v>
+            <v>0.3</v>
           </cell>
           <cell r="M54" t="str">
             <v>CriticalRate</v>
@@ -3274,7 +3386,7 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LP_Crit_04</v>
+            <v>LP_Crit_03</v>
           </cell>
           <cell r="B55" t="str">
             <v>LP_Crit</v>
@@ -3283,7 +3395,7 @@
             <v/>
           </cell>
           <cell r="D55">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E55" t="str">
             <v>ChangeActorStatus</v>
@@ -3295,7 +3407,7 @@
             <v>-1</v>
           </cell>
           <cell r="J55">
-            <v>0.6</v>
+            <v>0.45</v>
           </cell>
           <cell r="M55" t="str">
             <v>CriticalRate</v>
@@ -3309,7 +3421,7 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LP_Crit_05</v>
+            <v>LP_Crit_04</v>
           </cell>
           <cell r="B56" t="str">
             <v>LP_Crit</v>
@@ -3318,7 +3430,7 @@
             <v/>
           </cell>
           <cell r="D56">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E56" t="str">
             <v>ChangeActorStatus</v>
@@ -3330,7 +3442,7 @@
             <v>-1</v>
           </cell>
           <cell r="J56">
-            <v>0.75</v>
+            <v>0.6</v>
           </cell>
           <cell r="M56" t="str">
             <v>CriticalRate</v>
@@ -3344,7 +3456,7 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LP_Crit_06</v>
+            <v>LP_Crit_05</v>
           </cell>
           <cell r="B57" t="str">
             <v>LP_Crit</v>
@@ -3353,7 +3465,7 @@
             <v/>
           </cell>
           <cell r="D57">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E57" t="str">
             <v>ChangeActorStatus</v>
@@ -3365,7 +3477,7 @@
             <v>-1</v>
           </cell>
           <cell r="J57">
-            <v>0.9</v>
+            <v>0.75</v>
           </cell>
           <cell r="M57" t="str">
             <v>CriticalRate</v>
@@ -3379,16 +3491,16 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LP_CritBetter_01</v>
+            <v>LP_Crit_06</v>
           </cell>
           <cell r="B58" t="str">
-            <v>LP_CritBetter</v>
+            <v>LP_Crit</v>
           </cell>
           <cell r="C58" t="str">
             <v/>
           </cell>
           <cell r="D58">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E58" t="str">
             <v>ChangeActorStatus</v>
@@ -3400,7 +3512,7 @@
             <v>-1</v>
           </cell>
           <cell r="J58">
-            <v>0.3</v>
+            <v>0.9</v>
           </cell>
           <cell r="M58" t="str">
             <v>CriticalRate</v>
@@ -3414,7 +3526,7 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LP_CritBetter_02</v>
+            <v>LP_CritBetter_01</v>
           </cell>
           <cell r="B59" t="str">
             <v>LP_CritBetter</v>
@@ -3423,7 +3535,7 @@
             <v/>
           </cell>
           <cell r="D59">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E59" t="str">
             <v>ChangeActorStatus</v>
@@ -3435,7 +3547,7 @@
             <v>-1</v>
           </cell>
           <cell r="J59">
-            <v>0.6</v>
+            <v>0.3</v>
           </cell>
           <cell r="M59" t="str">
             <v>CriticalRate</v>
@@ -3449,7 +3561,7 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LP_CritBetter_03</v>
+            <v>LP_CritBetter_02</v>
           </cell>
           <cell r="B60" t="str">
             <v>LP_CritBetter</v>
@@ -3458,7 +3570,7 @@
             <v/>
           </cell>
           <cell r="D60">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E60" t="str">
             <v>ChangeActorStatus</v>
@@ -3470,7 +3582,7 @@
             <v>-1</v>
           </cell>
           <cell r="J60">
-            <v>0.9</v>
+            <v>0.6</v>
           </cell>
           <cell r="M60" t="str">
             <v>CriticalRate</v>
@@ -3484,16 +3596,16 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LP_CritBest_01</v>
+            <v>LP_CritBetter_03</v>
           </cell>
           <cell r="B61" t="str">
-            <v>LP_CritBest</v>
+            <v>LP_CritBetter</v>
           </cell>
           <cell r="C61" t="str">
             <v/>
           </cell>
           <cell r="D61">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E61" t="str">
             <v>ChangeActorStatus</v>
@@ -3505,7 +3617,7 @@
             <v>-1</v>
           </cell>
           <cell r="J61">
-            <v>0.75</v>
+            <v>0.9</v>
           </cell>
           <cell r="M61" t="str">
             <v>CriticalRate</v>
@@ -3519,10 +3631,10 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LP_MaxHp_01</v>
+            <v>LP_CritBest_01</v>
           </cell>
           <cell r="B62" t="str">
-            <v>LP_MaxHp</v>
+            <v>LP_CritBest</v>
           </cell>
           <cell r="C62" t="str">
             <v/>
@@ -3540,13 +3652,13 @@
             <v>-1</v>
           </cell>
           <cell r="J62">
-            <v>0.1</v>
+            <v>0.75</v>
           </cell>
           <cell r="M62" t="str">
-            <v>MaxHpAddRate</v>
+            <v>CriticalRate</v>
           </cell>
           <cell r="O62">
-            <v>17</v>
+            <v>8</v>
           </cell>
           <cell r="S62" t="str">
             <v/>
@@ -3554,7 +3666,7 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LP_MaxHp_02</v>
+            <v>LP_MaxHp_01</v>
           </cell>
           <cell r="B63" t="str">
             <v>LP_MaxHp</v>
@@ -3563,7 +3675,7 @@
             <v/>
           </cell>
           <cell r="D63">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E63" t="str">
             <v>ChangeActorStatus</v>
@@ -3575,7 +3687,7 @@
             <v>-1</v>
           </cell>
           <cell r="J63">
-            <v>0.2</v>
+            <v>0.1</v>
           </cell>
           <cell r="M63" t="str">
             <v>MaxHpAddRate</v>
@@ -3589,7 +3701,7 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LP_MaxHp_03</v>
+            <v>LP_MaxHp_02</v>
           </cell>
           <cell r="B64" t="str">
             <v>LP_MaxHp</v>
@@ -3598,7 +3710,7 @@
             <v/>
           </cell>
           <cell r="D64">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E64" t="str">
             <v>ChangeActorStatus</v>
@@ -3610,7 +3722,7 @@
             <v>-1</v>
           </cell>
           <cell r="J64">
-            <v>0.3</v>
+            <v>0.2</v>
           </cell>
           <cell r="M64" t="str">
             <v>MaxHpAddRate</v>
@@ -3624,7 +3736,7 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>LP_MaxHp_04</v>
+            <v>LP_MaxHp_03</v>
           </cell>
           <cell r="B65" t="str">
             <v>LP_MaxHp</v>
@@ -3633,7 +3745,7 @@
             <v/>
           </cell>
           <cell r="D65">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E65" t="str">
             <v>ChangeActorStatus</v>
@@ -3645,7 +3757,7 @@
             <v>-1</v>
           </cell>
           <cell r="J65">
-            <v>0.4</v>
+            <v>0.3</v>
           </cell>
           <cell r="M65" t="str">
             <v>MaxHpAddRate</v>
@@ -3659,7 +3771,7 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LP_MaxHp_05</v>
+            <v>LP_MaxHp_04</v>
           </cell>
           <cell r="B66" t="str">
             <v>LP_MaxHp</v>
@@ -3668,7 +3780,7 @@
             <v/>
           </cell>
           <cell r="D66">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E66" t="str">
             <v>ChangeActorStatus</v>
@@ -3680,7 +3792,7 @@
             <v>-1</v>
           </cell>
           <cell r="J66">
-            <v>0.5</v>
+            <v>0.4</v>
           </cell>
           <cell r="M66" t="str">
             <v>MaxHpAddRate</v>
@@ -3694,7 +3806,7 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>LP_MaxHp_06</v>
+            <v>LP_MaxHp_05</v>
           </cell>
           <cell r="B67" t="str">
             <v>LP_MaxHp</v>
@@ -3703,7 +3815,7 @@
             <v/>
           </cell>
           <cell r="D67">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E67" t="str">
             <v>ChangeActorStatus</v>
@@ -3715,7 +3827,7 @@
             <v>-1</v>
           </cell>
           <cell r="J67">
-            <v>0.6</v>
+            <v>0.5</v>
           </cell>
           <cell r="M67" t="str">
             <v>MaxHpAddRate</v>
@@ -3729,7 +3841,7 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>LP_MaxHp_07</v>
+            <v>LP_MaxHp_06</v>
           </cell>
           <cell r="B68" t="str">
             <v>LP_MaxHp</v>
@@ -3738,7 +3850,7 @@
             <v/>
           </cell>
           <cell r="D68">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E68" t="str">
             <v>ChangeActorStatus</v>
@@ -3750,7 +3862,7 @@
             <v>-1</v>
           </cell>
           <cell r="J68">
-            <v>0.7</v>
+            <v>0.6</v>
           </cell>
           <cell r="M68" t="str">
             <v>MaxHpAddRate</v>
@@ -3764,7 +3876,7 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>LP_MaxHp_08</v>
+            <v>LP_MaxHp_07</v>
           </cell>
           <cell r="B69" t="str">
             <v>LP_MaxHp</v>
@@ -3773,7 +3885,7 @@
             <v/>
           </cell>
           <cell r="D69">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E69" t="str">
             <v>ChangeActorStatus</v>
@@ -3785,7 +3897,7 @@
             <v>-1</v>
           </cell>
           <cell r="J69">
-            <v>0.8</v>
+            <v>0.7</v>
           </cell>
           <cell r="M69" t="str">
             <v>MaxHpAddRate</v>
@@ -3799,7 +3911,7 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>LP_MaxHp_09</v>
+            <v>LP_MaxHp_08</v>
           </cell>
           <cell r="B70" t="str">
             <v>LP_MaxHp</v>
@@ -3808,7 +3920,7 @@
             <v/>
           </cell>
           <cell r="D70">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E70" t="str">
             <v>ChangeActorStatus</v>
@@ -3820,7 +3932,7 @@
             <v>-1</v>
           </cell>
           <cell r="J70">
-            <v>0.9</v>
+            <v>0.8</v>
           </cell>
           <cell r="M70" t="str">
             <v>MaxHpAddRate</v>
@@ -3834,16 +3946,16 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>LP_MaxHpBetter_01</v>
+            <v>LP_MaxHp_09</v>
           </cell>
           <cell r="B71" t="str">
-            <v>LP_MaxHpBetter</v>
+            <v>LP_MaxHp</v>
           </cell>
           <cell r="C71" t="str">
             <v/>
           </cell>
           <cell r="D71">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E71" t="str">
             <v>ChangeActorStatus</v>
@@ -3855,7 +3967,7 @@
             <v>-1</v>
           </cell>
           <cell r="J71">
-            <v>0.2</v>
+            <v>0.9</v>
           </cell>
           <cell r="M71" t="str">
             <v>MaxHpAddRate</v>
@@ -3869,7 +3981,7 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>LP_MaxHpBetter_02</v>
+            <v>LP_MaxHpBetter_01</v>
           </cell>
           <cell r="B72" t="str">
             <v>LP_MaxHpBetter</v>
@@ -3878,7 +3990,7 @@
             <v/>
           </cell>
           <cell r="D72">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E72" t="str">
             <v>ChangeActorStatus</v>
@@ -3890,7 +4002,7 @@
             <v>-1</v>
           </cell>
           <cell r="J72">
-            <v>0.4</v>
+            <v>0.2</v>
           </cell>
           <cell r="M72" t="str">
             <v>MaxHpAddRate</v>
@@ -3904,7 +4016,7 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>LP_MaxHpBetter_03</v>
+            <v>LP_MaxHpBetter_02</v>
           </cell>
           <cell r="B73" t="str">
             <v>LP_MaxHpBetter</v>
@@ -3913,7 +4025,7 @@
             <v/>
           </cell>
           <cell r="D73">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E73" t="str">
             <v>ChangeActorStatus</v>
@@ -3925,7 +4037,7 @@
             <v>-1</v>
           </cell>
           <cell r="J73">
-            <v>0.6</v>
+            <v>0.4</v>
           </cell>
           <cell r="M73" t="str">
             <v>MaxHpAddRate</v>
@@ -3939,7 +4051,7 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>LP_MaxHpBetter_04</v>
+            <v>LP_MaxHpBetter_03</v>
           </cell>
           <cell r="B74" t="str">
             <v>LP_MaxHpBetter</v>
@@ -3948,7 +4060,7 @@
             <v/>
           </cell>
           <cell r="D74">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E74" t="str">
             <v>ChangeActorStatus</v>
@@ -3960,7 +4072,7 @@
             <v>-1</v>
           </cell>
           <cell r="J74">
-            <v>0.8</v>
+            <v>0.6</v>
           </cell>
           <cell r="M74" t="str">
             <v>MaxHpAddRate</v>
@@ -3974,7 +4086,7 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>LP_MaxHpBetter_05</v>
+            <v>LP_MaxHpBetter_04</v>
           </cell>
           <cell r="B75" t="str">
             <v>LP_MaxHpBetter</v>
@@ -3983,7 +4095,7 @@
             <v/>
           </cell>
           <cell r="D75">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E75" t="str">
             <v>ChangeActorStatus</v>
@@ -3995,7 +4107,7 @@
             <v>-1</v>
           </cell>
           <cell r="J75">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="M75" t="str">
             <v>MaxHpAddRate</v>
@@ -4009,7 +4121,7 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>LP_MaxHpBetter_06</v>
+            <v>LP_MaxHpBetter_05</v>
           </cell>
           <cell r="B76" t="str">
             <v>LP_MaxHpBetter</v>
@@ -4018,7 +4130,7 @@
             <v/>
           </cell>
           <cell r="D76">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E76" t="str">
             <v>ChangeActorStatus</v>
@@ -4030,7 +4142,7 @@
             <v>-1</v>
           </cell>
           <cell r="J76">
-            <v>1.2</v>
+            <v>1</v>
           </cell>
           <cell r="M76" t="str">
             <v>MaxHpAddRate</v>
@@ -4044,7 +4156,7 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>LP_MaxHpBetter_07</v>
+            <v>LP_MaxHpBetter_06</v>
           </cell>
           <cell r="B77" t="str">
             <v>LP_MaxHpBetter</v>
@@ -4053,7 +4165,7 @@
             <v/>
           </cell>
           <cell r="D77">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E77" t="str">
             <v>ChangeActorStatus</v>
@@ -4065,7 +4177,7 @@
             <v>-1</v>
           </cell>
           <cell r="J77">
-            <v>1.4</v>
+            <v>1.2</v>
           </cell>
           <cell r="M77" t="str">
             <v>MaxHpAddRate</v>
@@ -4079,7 +4191,7 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>LP_MaxHpBetter_08</v>
+            <v>LP_MaxHpBetter_07</v>
           </cell>
           <cell r="B78" t="str">
             <v>LP_MaxHpBetter</v>
@@ -4088,7 +4200,7 @@
             <v/>
           </cell>
           <cell r="D78">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E78" t="str">
             <v>ChangeActorStatus</v>
@@ -4100,7 +4212,7 @@
             <v>-1</v>
           </cell>
           <cell r="J78">
-            <v>1.6</v>
+            <v>1.4</v>
           </cell>
           <cell r="M78" t="str">
             <v>MaxHpAddRate</v>
@@ -4114,7 +4226,7 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>LP_MaxHpBetter_09</v>
+            <v>LP_MaxHpBetter_08</v>
           </cell>
           <cell r="B79" t="str">
             <v>LP_MaxHpBetter</v>
@@ -4123,7 +4235,7 @@
             <v/>
           </cell>
           <cell r="D79">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E79" t="str">
             <v>ChangeActorStatus</v>
@@ -4135,7 +4247,7 @@
             <v>-1</v>
           </cell>
           <cell r="J79">
-            <v>1.8</v>
+            <v>1.6</v>
           </cell>
           <cell r="M79" t="str">
             <v>MaxHpAddRate</v>
@@ -4149,16 +4261,16 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>LP_MaxHpBest_01</v>
+            <v>LP_MaxHpBetter_09</v>
           </cell>
           <cell r="B80" t="str">
-            <v>LP_MaxHpBest</v>
+            <v>LP_MaxHpBetter</v>
           </cell>
           <cell r="C80" t="str">
             <v/>
           </cell>
           <cell r="D80">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E80" t="str">
             <v>ChangeActorStatus</v>
@@ -4170,7 +4282,7 @@
             <v>-1</v>
           </cell>
           <cell r="J80">
-            <v>0.3</v>
+            <v>1.8</v>
           </cell>
           <cell r="M80" t="str">
             <v>MaxHpAddRate</v>
@@ -4184,7 +4296,7 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>LP_MaxHpBest_02</v>
+            <v>LP_MaxHpBest_01</v>
           </cell>
           <cell r="B81" t="str">
             <v>LP_MaxHpBest</v>
@@ -4193,7 +4305,7 @@
             <v/>
           </cell>
           <cell r="D81">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E81" t="str">
             <v>ChangeActorStatus</v>
@@ -4205,7 +4317,7 @@
             <v>-1</v>
           </cell>
           <cell r="J81">
-            <v>0.6</v>
+            <v>0.3</v>
           </cell>
           <cell r="M81" t="str">
             <v>MaxHpAddRate</v>
@@ -4219,7 +4331,7 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>LP_MaxHpBest_03</v>
+            <v>LP_MaxHpBest_02</v>
           </cell>
           <cell r="B82" t="str">
             <v>LP_MaxHpBest</v>
@@ -4228,7 +4340,7 @@
             <v/>
           </cell>
           <cell r="D82">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E82" t="str">
             <v>ChangeActorStatus</v>
@@ -4240,7 +4352,7 @@
             <v>-1</v>
           </cell>
           <cell r="J82">
-            <v>0.85</v>
+            <v>0.6</v>
           </cell>
           <cell r="M82" t="str">
             <v>MaxHpAddRate</v>
@@ -4254,7 +4366,7 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>LP_MaxHpBest_04</v>
+            <v>LP_MaxHpBest_03</v>
           </cell>
           <cell r="B83" t="str">
             <v>LP_MaxHpBest</v>
@@ -4263,7 +4375,7 @@
             <v/>
           </cell>
           <cell r="D83">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E83" t="str">
             <v>ChangeActorStatus</v>
@@ -4275,7 +4387,7 @@
             <v>-1</v>
           </cell>
           <cell r="J83">
-            <v>1.1000000000000001</v>
+            <v>0.85</v>
           </cell>
           <cell r="M83" t="str">
             <v>MaxHpAddRate</v>
@@ -4289,7 +4401,7 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>LP_MaxHpBest_05</v>
+            <v>LP_MaxHpBest_04</v>
           </cell>
           <cell r="B84" t="str">
             <v>LP_MaxHpBest</v>
@@ -4298,7 +4410,7 @@
             <v/>
           </cell>
           <cell r="D84">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E84" t="str">
             <v>ChangeActorStatus</v>
@@ -4310,7 +4422,7 @@
             <v>-1</v>
           </cell>
           <cell r="J84">
-            <v>1.35</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M84" t="str">
             <v>MaxHpAddRate</v>
@@ -4324,19 +4436,19 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>LP_ReduceDmgProjectile_01</v>
+            <v>LP_MaxHpBest_05</v>
           </cell>
           <cell r="B85" t="str">
-            <v>LP_ReduceDmgProjectile</v>
+            <v>LP_MaxHpBest</v>
           </cell>
           <cell r="C85" t="str">
             <v/>
           </cell>
           <cell r="D85">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E85" t="str">
-            <v>ReduceDamage</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="H85" t="str">
             <v/>
@@ -4345,15 +4457,21 @@
             <v>-1</v>
           </cell>
           <cell r="J85">
-            <v>0.15</v>
-          </cell>
-          <cell r="O85" t="str">
+            <v>1.35</v>
+          </cell>
+          <cell r="M85" t="str">
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O85">
+            <v>17</v>
+          </cell>
+          <cell r="S85" t="str">
             <v/>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LP_ReduceDmgProjectile_02</v>
+            <v>LP_ReduceDmgProjectile_01</v>
           </cell>
           <cell r="B86" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4362,7 +4480,7 @@
             <v/>
           </cell>
           <cell r="D86">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E86" t="str">
             <v>ReduceDamage</v>
@@ -4374,15 +4492,18 @@
             <v>-1</v>
           </cell>
           <cell r="J86">
-            <v>0.3</v>
+            <v>0.15</v>
           </cell>
           <cell r="O86" t="str">
+            <v/>
+          </cell>
+          <cell r="S86" t="str">
             <v/>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LP_ReduceDmgProjectile_03</v>
+            <v>LP_ReduceDmgProjectile_02</v>
           </cell>
           <cell r="B87" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4391,7 +4512,7 @@
             <v/>
           </cell>
           <cell r="D87">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E87" t="str">
             <v>ReduceDamage</v>
@@ -4403,15 +4524,18 @@
             <v>-1</v>
           </cell>
           <cell r="J87">
-            <v>0.45</v>
+            <v>0.3</v>
           </cell>
           <cell r="O87" t="str">
+            <v/>
+          </cell>
+          <cell r="S87" t="str">
             <v/>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LP_ReduceDmgProjectile_04</v>
+            <v>LP_ReduceDmgProjectile_03</v>
           </cell>
           <cell r="B88" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4420,7 +4544,7 @@
             <v/>
           </cell>
           <cell r="D88">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E88" t="str">
             <v>ReduceDamage</v>
@@ -4432,15 +4556,18 @@
             <v>-1</v>
           </cell>
           <cell r="J88">
-            <v>0.6</v>
+            <v>0.45</v>
           </cell>
           <cell r="O88" t="str">
+            <v/>
+          </cell>
+          <cell r="S88" t="str">
             <v/>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LP_ReduceDmgProjectile_05</v>
+            <v>LP_ReduceDmgProjectile_04</v>
           </cell>
           <cell r="B89" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4449,7 +4576,7 @@
             <v/>
           </cell>
           <cell r="D89">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E89" t="str">
             <v>ReduceDamage</v>
@@ -4461,15 +4588,18 @@
             <v>-1</v>
           </cell>
           <cell r="J89">
-            <v>0.75</v>
+            <v>0.6</v>
           </cell>
           <cell r="O89" t="str">
+            <v/>
+          </cell>
+          <cell r="S89" t="str">
             <v/>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LP_ReduceDmgProjectile_06</v>
+            <v>LP_ReduceDmgProjectile_05</v>
           </cell>
           <cell r="B90" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4478,7 +4608,7 @@
             <v/>
           </cell>
           <cell r="D90">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E90" t="str">
             <v>ReduceDamage</v>
@@ -4490,15 +4620,18 @@
             <v>-1</v>
           </cell>
           <cell r="J90">
-            <v>0.9</v>
+            <v>0.75</v>
           </cell>
           <cell r="O90" t="str">
+            <v/>
+          </cell>
+          <cell r="S90" t="str">
             <v/>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LP_ReduceDmgProjectile_07</v>
+            <v>LP_ReduceDmgProjectile_06</v>
           </cell>
           <cell r="B91" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4507,7 +4640,7 @@
             <v/>
           </cell>
           <cell r="D91">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E91" t="str">
             <v>ReduceDamage</v>
@@ -4519,15 +4652,18 @@
             <v>-1</v>
           </cell>
           <cell r="J91">
-            <v>1.05</v>
+            <v>0.9</v>
           </cell>
           <cell r="O91" t="str">
+            <v/>
+          </cell>
+          <cell r="S91" t="str">
             <v/>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LP_ReduceDmgProjectile_08</v>
+            <v>LP_ReduceDmgProjectile_07</v>
           </cell>
           <cell r="B92" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4536,7 +4672,7 @@
             <v/>
           </cell>
           <cell r="D92">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E92" t="str">
             <v>ReduceDamage</v>
@@ -4548,15 +4684,18 @@
             <v>-1</v>
           </cell>
           <cell r="J92">
-            <v>1.2</v>
+            <v>1.05</v>
           </cell>
           <cell r="O92" t="str">
+            <v/>
+          </cell>
+          <cell r="S92" t="str">
             <v/>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LP_ReduceDmgProjectile_09</v>
+            <v>LP_ReduceDmgProjectile_08</v>
           </cell>
           <cell r="B93" t="str">
             <v>LP_ReduceDmgProjectile</v>
@@ -4565,7 +4704,7 @@
             <v/>
           </cell>
           <cell r="D93">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E93" t="str">
             <v>ReduceDamage</v>
@@ -4577,24 +4716,27 @@
             <v>-1</v>
           </cell>
           <cell r="J93">
-            <v>1.35</v>
+            <v>1.2</v>
           </cell>
           <cell r="O93" t="str">
+            <v/>
+          </cell>
+          <cell r="S93" t="str">
             <v/>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LP_ReduceDmgClose_01</v>
+            <v>LP_ReduceDmgProjectile_09</v>
           </cell>
           <cell r="B94" t="str">
-            <v>LP_ReduceDmgClose</v>
+            <v>LP_ReduceDmgProjectile</v>
           </cell>
           <cell r="C94" t="str">
             <v/>
           </cell>
           <cell r="D94">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E94" t="str">
             <v>ReduceDamage</v>
@@ -4605,16 +4747,19 @@
           <cell r="I94">
             <v>-1</v>
           </cell>
-          <cell r="K94">
-            <v>0.2</v>
+          <cell r="J94">
+            <v>1.35</v>
           </cell>
           <cell r="O94" t="str">
+            <v/>
+          </cell>
+          <cell r="S94" t="str">
             <v/>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LP_ReduceDmgClose_02</v>
+            <v>LP_ReduceDmgClose_01</v>
           </cell>
           <cell r="B95" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4623,7 +4768,7 @@
             <v/>
           </cell>
           <cell r="D95">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E95" t="str">
             <v>ReduceDamage</v>
@@ -4635,15 +4780,18 @@
             <v>-1</v>
           </cell>
           <cell r="K95">
-            <v>0.4</v>
+            <v>0.2</v>
           </cell>
           <cell r="O95" t="str">
+            <v/>
+          </cell>
+          <cell r="S95" t="str">
             <v/>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LP_ReduceDmgClose_03</v>
+            <v>LP_ReduceDmgClose_02</v>
           </cell>
           <cell r="B96" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4652,7 +4800,7 @@
             <v/>
           </cell>
           <cell r="D96">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E96" t="str">
             <v>ReduceDamage</v>
@@ -4664,15 +4812,18 @@
             <v>-1</v>
           </cell>
           <cell r="K96">
-            <v>0.6</v>
+            <v>0.4</v>
           </cell>
           <cell r="O96" t="str">
+            <v/>
+          </cell>
+          <cell r="S96" t="str">
             <v/>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LP_ReduceDmgClose_04</v>
+            <v>LP_ReduceDmgClose_03</v>
           </cell>
           <cell r="B97" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4681,7 +4832,7 @@
             <v/>
           </cell>
           <cell r="D97">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E97" t="str">
             <v>ReduceDamage</v>
@@ -4693,15 +4844,18 @@
             <v>-1</v>
           </cell>
           <cell r="K97">
-            <v>0.8</v>
+            <v>0.6</v>
           </cell>
           <cell r="O97" t="str">
+            <v/>
+          </cell>
+          <cell r="S97" t="str">
             <v/>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LP_ReduceDmgClose_05</v>
+            <v>LP_ReduceDmgClose_04</v>
           </cell>
           <cell r="B98" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4710,7 +4864,7 @@
             <v/>
           </cell>
           <cell r="D98">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E98" t="str">
             <v>ReduceDamage</v>
@@ -4722,15 +4876,18 @@
             <v>-1</v>
           </cell>
           <cell r="K98">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="O98" t="str">
+            <v/>
+          </cell>
+          <cell r="S98" t="str">
             <v/>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LP_ReduceDmgClose_06</v>
+            <v>LP_ReduceDmgClose_05</v>
           </cell>
           <cell r="B99" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4739,7 +4896,7 @@
             <v/>
           </cell>
           <cell r="D99">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E99" t="str">
             <v>ReduceDamage</v>
@@ -4751,15 +4908,18 @@
             <v>-1</v>
           </cell>
           <cell r="K99">
-            <v>1.2</v>
+            <v>1</v>
           </cell>
           <cell r="O99" t="str">
+            <v/>
+          </cell>
+          <cell r="S99" t="str">
             <v/>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LP_ReduceDmgClose_07</v>
+            <v>LP_ReduceDmgClose_06</v>
           </cell>
           <cell r="B100" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4768,7 +4928,7 @@
             <v/>
           </cell>
           <cell r="D100">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E100" t="str">
             <v>ReduceDamage</v>
@@ -4780,15 +4940,18 @@
             <v>-1</v>
           </cell>
           <cell r="K100">
-            <v>1.4</v>
+            <v>1.2</v>
           </cell>
           <cell r="O100" t="str">
+            <v/>
+          </cell>
+          <cell r="S100" t="str">
             <v/>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LP_ReduceDmgClose_08</v>
+            <v>LP_ReduceDmgClose_07</v>
           </cell>
           <cell r="B101" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4797,7 +4960,7 @@
             <v/>
           </cell>
           <cell r="D101">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E101" t="str">
             <v>ReduceDamage</v>
@@ -4809,15 +4972,18 @@
             <v>-1</v>
           </cell>
           <cell r="K101">
-            <v>1.6</v>
+            <v>1.4</v>
           </cell>
           <cell r="O101" t="str">
+            <v/>
+          </cell>
+          <cell r="S101" t="str">
             <v/>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LP_ReduceDmgClose_09</v>
+            <v>LP_ReduceDmgClose_08</v>
           </cell>
           <cell r="B102" t="str">
             <v>LP_ReduceDmgClose</v>
@@ -4826,7 +4992,7 @@
             <v/>
           </cell>
           <cell r="D102">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E102" t="str">
             <v>ReduceDamage</v>
@@ -4838,33 +5004,39 @@
             <v>-1</v>
           </cell>
           <cell r="K102">
-            <v>1.8</v>
+            <v>1.6</v>
           </cell>
           <cell r="O102" t="str">
+            <v/>
+          </cell>
+          <cell r="S102" t="str">
             <v/>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LP_ExtraGold_01</v>
+            <v>LP_ReduceDmgClose_09</v>
           </cell>
           <cell r="B103" t="str">
-            <v>LP_ExtraGold</v>
+            <v>LP_ReduceDmgClose</v>
           </cell>
           <cell r="C103" t="str">
             <v/>
           </cell>
           <cell r="D103">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E103" t="str">
-            <v>DropAdjust</v>
+            <v>ReduceDamage</v>
           </cell>
           <cell r="H103" t="str">
             <v/>
           </cell>
-          <cell r="J103">
-            <v>0.2</v>
+          <cell r="I103">
+            <v>-1</v>
+          </cell>
+          <cell r="K103">
+            <v>1.8</v>
           </cell>
           <cell r="O103" t="str">
             <v/>
@@ -4875,10 +5047,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LP_ItemChanceBoost_01</v>
+            <v>LP_ExtraGold_01</v>
           </cell>
           <cell r="B104" t="str">
-            <v>LP_ItemChanceBoost</v>
+            <v>LP_ExtraGold</v>
           </cell>
           <cell r="C104" t="str">
             <v/>
@@ -4892,7 +5064,7 @@
           <cell r="H104" t="str">
             <v/>
           </cell>
-          <cell r="K104">
+          <cell r="J104">
             <v>0.2</v>
           </cell>
           <cell r="O104" t="str">
@@ -4904,10 +5076,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LP_HealChanceBoost_01</v>
+            <v>LP_ItemChanceBoost_01</v>
           </cell>
           <cell r="B105" t="str">
-            <v>LP_HealChanceBoost</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
           <cell r="C105" t="str">
             <v/>
@@ -4921,8 +5093,8 @@
           <cell r="H105" t="str">
             <v/>
           </cell>
-          <cell r="L105">
-            <v>0.5</v>
+          <cell r="K105">
+            <v>0.2</v>
           </cell>
           <cell r="O105" t="str">
             <v/>
@@ -4933,10 +5105,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LP_MonsterThrough_01</v>
+            <v>LP_HealChanceBoost_01</v>
           </cell>
           <cell r="B106" t="str">
-            <v>LP_MonsterThrough</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C106" t="str">
             <v/>
@@ -4945,16 +5117,16 @@
             <v>1</v>
           </cell>
           <cell r="E106" t="str">
-            <v>MonsterThroughHitObject</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H106" t="str">
             <v/>
           </cell>
-          <cell r="N106">
-            <v>1</v>
-          </cell>
-          <cell r="O106">
-            <v>1</v>
+          <cell r="L106">
+            <v>0.5</v>
+          </cell>
+          <cell r="O106" t="str">
+            <v/>
           </cell>
           <cell r="S106" t="str">
             <v/>
@@ -4962,7 +5134,7 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LP_MonsterThrough_02</v>
+            <v>LP_MonsterThrough_01</v>
           </cell>
           <cell r="B107" t="str">
             <v>LP_MonsterThrough</v>
@@ -4971,7 +5143,7 @@
             <v/>
           </cell>
           <cell r="D107">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E107" t="str">
             <v>MonsterThroughHitObject</v>
@@ -4980,10 +5152,10 @@
             <v/>
           </cell>
           <cell r="N107">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O107">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S107" t="str">
             <v/>
@@ -4991,28 +5163,28 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LP_Ricochet_01</v>
+            <v>LP_MonsterThrough_02</v>
           </cell>
           <cell r="B108" t="str">
-            <v>LP_Ricochet</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C108" t="str">
             <v/>
           </cell>
           <cell r="D108">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E108" t="str">
-            <v>RicochetHitObject</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H108" t="str">
             <v/>
           </cell>
           <cell r="N108">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O108">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="S108" t="str">
             <v/>
@@ -5020,7 +5192,7 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LP_Ricochet_02</v>
+            <v>LP_Ricochet_01</v>
           </cell>
           <cell r="B109" t="str">
             <v>LP_Ricochet</v>
@@ -5029,7 +5201,7 @@
             <v/>
           </cell>
           <cell r="D109">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E109" t="str">
             <v>RicochetHitObject</v>
@@ -5038,10 +5210,10 @@
             <v/>
           </cell>
           <cell r="N109">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O109">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S109" t="str">
             <v/>
@@ -5049,28 +5221,28 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LP_BounceWallQuad_01</v>
+            <v>LP_Ricochet_02</v>
           </cell>
           <cell r="B110" t="str">
-            <v>LP_BounceWallQuad</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C110" t="str">
             <v/>
           </cell>
           <cell r="D110">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E110" t="str">
-            <v>BounceWallQuadHitObject</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H110" t="str">
             <v/>
           </cell>
           <cell r="N110">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O110">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="S110" t="str">
             <v/>
@@ -5078,7 +5250,7 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LP_BounceWallQuad_02</v>
+            <v>LP_BounceWallQuad_01</v>
           </cell>
           <cell r="B111" t="str">
             <v>LP_BounceWallQuad</v>
@@ -5087,7 +5259,7 @@
             <v/>
           </cell>
           <cell r="D111">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E111" t="str">
             <v>BounceWallQuadHitObject</v>
@@ -5096,10 +5268,10 @@
             <v/>
           </cell>
           <cell r="N111">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O111">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S111" t="str">
             <v/>
@@ -5107,25 +5279,22 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LP_Parallel_01</v>
+            <v>LP_BounceWallQuad_02</v>
           </cell>
           <cell r="B112" t="str">
-            <v>LP_Parallel</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C112" t="str">
             <v/>
           </cell>
           <cell r="D112">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E112" t="str">
-            <v>ParallelHitObject</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H112" t="str">
             <v/>
-          </cell>
-          <cell r="J112">
-            <v>0.6</v>
           </cell>
           <cell r="N112">
             <v>2</v>
@@ -5139,7 +5308,7 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LP_Parallel_02</v>
+            <v>LP_Parallel_01</v>
           </cell>
           <cell r="B113" t="str">
             <v>LP_Parallel</v>
@@ -5148,7 +5317,7 @@
             <v/>
           </cell>
           <cell r="D113">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E113" t="str">
             <v>ParallelHitObject</v>
@@ -5160,10 +5329,10 @@
             <v>0.6</v>
           </cell>
           <cell r="N113">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="O113">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="S113" t="str">
             <v/>
@@ -5171,28 +5340,31 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LP_DiagonalNwayGenerator_01</v>
+            <v>LP_Parallel_02</v>
           </cell>
           <cell r="B114" t="str">
-            <v>LP_DiagonalNwayGenerator</v>
+            <v>LP_Parallel</v>
           </cell>
           <cell r="C114" t="str">
             <v/>
           </cell>
           <cell r="D114">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E114" t="str">
-            <v>DiagonalNwayGenerator</v>
+            <v>ParallelHitObject</v>
           </cell>
           <cell r="H114" t="str">
             <v/>
           </cell>
+          <cell r="J114">
+            <v>0.6</v>
+          </cell>
           <cell r="N114">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="O114">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="S114" t="str">
             <v/>
@@ -5200,7 +5372,7 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LP_DiagonalNwayGenerator_02</v>
+            <v>LP_DiagonalNwayGenerator_01</v>
           </cell>
           <cell r="B115" t="str">
             <v>LP_DiagonalNwayGenerator</v>
@@ -5209,7 +5381,7 @@
             <v/>
           </cell>
           <cell r="D115">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E115" t="str">
             <v>DiagonalNwayGenerator</v>
@@ -5218,10 +5390,10 @@
             <v/>
           </cell>
           <cell r="N115">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O115">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S115" t="str">
             <v/>
@@ -5229,28 +5401,28 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LP_LeftRightNwayGenerator_01</v>
+            <v>LP_DiagonalNwayGenerator_02</v>
           </cell>
           <cell r="B116" t="str">
-            <v>LP_LeftRightNwayGenerator</v>
+            <v>LP_DiagonalNwayGenerator</v>
           </cell>
           <cell r="C116" t="str">
             <v/>
           </cell>
           <cell r="D116">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E116" t="str">
-            <v>LeftRightNwayGenerator</v>
+            <v>DiagonalNwayGenerator</v>
           </cell>
           <cell r="H116" t="str">
             <v/>
           </cell>
           <cell r="N116">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O116">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="S116" t="str">
             <v/>
@@ -5258,7 +5430,7 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LP_LeftRightNwayGenerator_02</v>
+            <v>LP_LeftRightNwayGenerator_01</v>
           </cell>
           <cell r="B117" t="str">
             <v>LP_LeftRightNwayGenerator</v>
@@ -5267,7 +5439,7 @@
             <v/>
           </cell>
           <cell r="D117">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E117" t="str">
             <v>LeftRightNwayGenerator</v>
@@ -5276,10 +5448,10 @@
             <v/>
           </cell>
           <cell r="N117">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O117">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S117" t="str">
             <v/>
@@ -5287,28 +5459,28 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LP_BackNwayGenerator_01</v>
+            <v>LP_LeftRightNwayGenerator_02</v>
           </cell>
           <cell r="B118" t="str">
-            <v>LP_BackNwayGenerator</v>
+            <v>LP_LeftRightNwayGenerator</v>
           </cell>
           <cell r="C118" t="str">
             <v/>
           </cell>
           <cell r="D118">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E118" t="str">
-            <v>BackNwayGenerator</v>
+            <v>LeftRightNwayGenerator</v>
           </cell>
           <cell r="H118" t="str">
             <v/>
           </cell>
           <cell r="N118">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O118">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="S118" t="str">
             <v/>
@@ -5316,7 +5488,7 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LP_BackNwayGenerator_02</v>
+            <v>LP_BackNwayGenerator_01</v>
           </cell>
           <cell r="B119" t="str">
             <v>LP_BackNwayGenerator</v>
@@ -5325,7 +5497,7 @@
             <v/>
           </cell>
           <cell r="D119">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E119" t="str">
             <v>BackNwayGenerator</v>
@@ -5334,10 +5506,10 @@
             <v/>
           </cell>
           <cell r="N119">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O119">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S119" t="str">
             <v/>
@@ -5345,31 +5517,28 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>LP_Repeat_01</v>
+            <v>LP_BackNwayGenerator_02</v>
           </cell>
           <cell r="B120" t="str">
-            <v>LP_Repeat</v>
+            <v>LP_BackNwayGenerator</v>
           </cell>
           <cell r="C120" t="str">
             <v/>
           </cell>
           <cell r="D120">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E120" t="str">
-            <v>RepeatHitObject</v>
+            <v>BackNwayGenerator</v>
           </cell>
           <cell r="H120" t="str">
             <v/>
           </cell>
-          <cell r="J120">
-            <v>0.5</v>
-          </cell>
           <cell r="N120">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="O120">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="S120" t="str">
             <v/>
@@ -5377,7 +5546,7 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>LP_Repeat_02</v>
+            <v>LP_Repeat_01</v>
           </cell>
           <cell r="B121" t="str">
             <v>LP_Repeat</v>
@@ -5386,7 +5555,7 @@
             <v/>
           </cell>
           <cell r="D121">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E121" t="str">
             <v>RepeatHitObject</v>
@@ -5398,10 +5567,10 @@
             <v>0.5</v>
           </cell>
           <cell r="N121">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="O121">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="S121" t="str">
             <v/>
@@ -5409,42 +5578,39 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LP_HealOnKill_01</v>
+            <v>LP_Repeat_02</v>
           </cell>
           <cell r="B122" t="str">
-            <v>LP_HealOnKill</v>
+            <v>LP_Repeat</v>
           </cell>
           <cell r="C122" t="str">
             <v/>
           </cell>
           <cell r="D122">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E122" t="str">
-            <v>CallAffectorValue</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="H122" t="str">
             <v/>
           </cell>
-          <cell r="I122">
-            <v>-1</v>
-          </cell>
-          <cell r="O122" t="str">
-            <v/>
-          </cell>
-          <cell r="Q122" t="str">
-            <v>OnKill</v>
-          </cell>
-          <cell r="S122">
-            <v>6</v>
-          </cell>
-          <cell r="U122" t="str">
-            <v>LP_HealOnKill_Heal</v>
+          <cell r="J122">
+            <v>0.5</v>
+          </cell>
+          <cell r="N122">
+            <v>2</v>
+          </cell>
+          <cell r="O122">
+            <v>2</v>
+          </cell>
+          <cell r="S122" t="str">
+            <v/>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>LP_HealOnKill_02</v>
+            <v>LP_HealOnKill_01</v>
           </cell>
           <cell r="B123" t="str">
             <v>LP_HealOnKill</v>
@@ -5453,7 +5619,7 @@
             <v/>
           </cell>
           <cell r="D123">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E123" t="str">
             <v>CallAffectorValue</v>
@@ -5479,36 +5645,42 @@
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>LP_HealOnKill_Heal_01</v>
+            <v>LP_HealOnKill_02</v>
           </cell>
           <cell r="B124" t="str">
+            <v>LP_HealOnKill</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v/>
+          </cell>
+          <cell r="D124">
+            <v>2</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H124" t="str">
+            <v/>
+          </cell>
+          <cell r="I124">
+            <v>-1</v>
+          </cell>
+          <cell r="O124" t="str">
+            <v/>
+          </cell>
+          <cell r="Q124" t="str">
+            <v>OnKill</v>
+          </cell>
+          <cell r="S124">
+            <v>6</v>
+          </cell>
+          <cell r="U124" t="str">
             <v>LP_HealOnKill_Heal</v>
-          </cell>
-          <cell r="C124" t="str">
-            <v/>
-          </cell>
-          <cell r="D124">
-            <v>1</v>
-          </cell>
-          <cell r="E124" t="str">
-            <v>Heal</v>
-          </cell>
-          <cell r="H124" t="str">
-            <v/>
-          </cell>
-          <cell r="K124">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="O124" t="str">
-            <v/>
-          </cell>
-          <cell r="S124" t="str">
-            <v/>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LP_HealOnKill_Heal_02</v>
+            <v>LP_HealOnKill_Heal_01</v>
           </cell>
           <cell r="B125" t="str">
             <v>LP_HealOnKill_Heal</v>
@@ -5517,56 +5689,53 @@
             <v/>
           </cell>
           <cell r="D125">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E125" t="str">
             <v>Heal</v>
           </cell>
+          <cell r="H125" t="str">
+            <v/>
+          </cell>
           <cell r="K125">
-            <v>0.02</v>
+            <v>1.4999999999999999E-2</v>
           </cell>
           <cell r="O125" t="str">
+            <v/>
+          </cell>
+          <cell r="S125" t="str">
             <v/>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LP_HealOnKillBetter_01</v>
+            <v>LP_HealOnKill_Heal_02</v>
           </cell>
           <cell r="B126" t="str">
-            <v>LP_HealOnKillBetter</v>
+            <v>LP_HealOnKill_Heal</v>
           </cell>
           <cell r="C126" t="str">
             <v/>
           </cell>
           <cell r="D126">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E126" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="H126" t="str">
-            <v/>
-          </cell>
-          <cell r="I126">
-            <v>-1</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K126">
+            <v>0.02</v>
           </cell>
           <cell r="O126" t="str">
             <v/>
           </cell>
-          <cell r="Q126" t="str">
-            <v>OnKill</v>
-          </cell>
-          <cell r="S126">
-            <v>6</v>
-          </cell>
-          <cell r="U126" t="str">
-            <v>LP_HealOnKillBetter_Heal</v>
+          <cell r="S126" t="str">
+            <v/>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LP_HealOnKillBetter_02</v>
+            <v>LP_HealOnKillBetter_01</v>
           </cell>
           <cell r="B127" t="str">
             <v>LP_HealOnKillBetter</v>
@@ -5575,7 +5744,7 @@
             <v/>
           </cell>
           <cell r="D127">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E127" t="str">
             <v>CallAffectorValue</v>
@@ -5601,36 +5770,42 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LP_HealOnKillBetter_Heal_01</v>
+            <v>LP_HealOnKillBetter_02</v>
           </cell>
           <cell r="B128" t="str">
+            <v>LP_HealOnKillBetter</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v/>
+          </cell>
+          <cell r="D128">
+            <v>2</v>
+          </cell>
+          <cell r="E128" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H128" t="str">
+            <v/>
+          </cell>
+          <cell r="I128">
+            <v>-1</v>
+          </cell>
+          <cell r="O128" t="str">
+            <v/>
+          </cell>
+          <cell r="Q128" t="str">
+            <v>OnKill</v>
+          </cell>
+          <cell r="S128">
+            <v>6</v>
+          </cell>
+          <cell r="U128" t="str">
             <v>LP_HealOnKillBetter_Heal</v>
-          </cell>
-          <cell r="C128" t="str">
-            <v/>
-          </cell>
-          <cell r="D128">
-            <v>1</v>
-          </cell>
-          <cell r="E128" t="str">
-            <v>Heal</v>
-          </cell>
-          <cell r="H128" t="str">
-            <v/>
-          </cell>
-          <cell r="K128">
-            <v>0.02</v>
-          </cell>
-          <cell r="O128" t="str">
-            <v/>
-          </cell>
-          <cell r="S128" t="str">
-            <v/>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LP_HealOnKillBetter_Heal_02</v>
+            <v>LP_HealOnKillBetter_Heal_01</v>
           </cell>
           <cell r="B129" t="str">
             <v>LP_HealOnKillBetter_Heal</v>
@@ -5639,56 +5814,53 @@
             <v/>
           </cell>
           <cell r="D129">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E129" t="str">
             <v>Heal</v>
           </cell>
+          <cell r="H129" t="str">
+            <v/>
+          </cell>
           <cell r="K129">
-            <v>0.04</v>
+            <v>0.02</v>
           </cell>
           <cell r="O129" t="str">
+            <v/>
+          </cell>
+          <cell r="S129" t="str">
             <v/>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_01</v>
+            <v>LP_HealOnKillBetter_Heal_02</v>
           </cell>
           <cell r="B130" t="str">
-            <v>LP_AtkSpeedUpOnEncounter</v>
+            <v>LP_HealOnKillBetter_Heal</v>
           </cell>
           <cell r="C130" t="str">
             <v/>
           </cell>
           <cell r="D130">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E130" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="H130" t="str">
-            <v/>
-          </cell>
-          <cell r="I130">
-            <v>-1</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K130">
+            <v>0.04</v>
           </cell>
           <cell r="O130" t="str">
             <v/>
           </cell>
-          <cell r="Q130" t="str">
-            <v>OnStartStage</v>
-          </cell>
-          <cell r="S130">
-            <v>1</v>
-          </cell>
-          <cell r="U130" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
+          <cell r="S130" t="str">
+            <v/>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_02</v>
+            <v>LP_AtkSpeedUpOnEncounter_01</v>
           </cell>
           <cell r="B131" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5697,7 +5869,7 @@
             <v/>
           </cell>
           <cell r="D131">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E131" t="str">
             <v>CallAffectorValue</v>
@@ -5723,7 +5895,7 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_03</v>
+            <v>LP_AtkSpeedUpOnEncounter_02</v>
           </cell>
           <cell r="B132" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5732,7 +5904,7 @@
             <v/>
           </cell>
           <cell r="D132">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E132" t="str">
             <v>CallAffectorValue</v>
@@ -5758,7 +5930,7 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_04</v>
+            <v>LP_AtkSpeedUpOnEncounter_03</v>
           </cell>
           <cell r="B133" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5767,7 +5939,7 @@
             <v/>
           </cell>
           <cell r="D133">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E133" t="str">
             <v>CallAffectorValue</v>
@@ -5793,7 +5965,7 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_05</v>
+            <v>LP_AtkSpeedUpOnEncounter_04</v>
           </cell>
           <cell r="B134" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5802,7 +5974,7 @@
             <v/>
           </cell>
           <cell r="D134">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E134" t="str">
             <v>CallAffectorValue</v>
@@ -5828,7 +6000,7 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_06</v>
+            <v>LP_AtkSpeedUpOnEncounter_05</v>
           </cell>
           <cell r="B135" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5837,7 +6009,7 @@
             <v/>
           </cell>
           <cell r="D135">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E135" t="str">
             <v>CallAffectorValue</v>
@@ -5863,7 +6035,7 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_07</v>
+            <v>LP_AtkSpeedUpOnEncounter_06</v>
           </cell>
           <cell r="B136" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5872,7 +6044,7 @@
             <v/>
           </cell>
           <cell r="D136">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E136" t="str">
             <v>CallAffectorValue</v>
@@ -5898,7 +6070,7 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_08</v>
+            <v>LP_AtkSpeedUpOnEncounter_07</v>
           </cell>
           <cell r="B137" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5907,7 +6079,7 @@
             <v/>
           </cell>
           <cell r="D137">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E137" t="str">
             <v>CallAffectorValue</v>
@@ -5933,7 +6105,7 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_09</v>
+            <v>LP_AtkSpeedUpOnEncounter_08</v>
           </cell>
           <cell r="B138" t="str">
             <v>LP_AtkSpeedUpOnEncounter</v>
@@ -5942,7 +6114,7 @@
             <v/>
           </cell>
           <cell r="D138">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E138" t="str">
             <v>CallAffectorValue</v>
@@ -5968,42 +6140,42 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_01</v>
+            <v>LP_AtkSpeedUpOnEncounter_09</v>
           </cell>
           <cell r="B139" t="str">
+            <v>LP_AtkSpeedUpOnEncounter</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v/>
+          </cell>
+          <cell r="D139">
+            <v>9</v>
+          </cell>
+          <cell r="E139" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H139" t="str">
+            <v/>
+          </cell>
+          <cell r="I139">
+            <v>-1</v>
+          </cell>
+          <cell r="O139" t="str">
+            <v/>
+          </cell>
+          <cell r="Q139" t="str">
+            <v>OnStartStage</v>
+          </cell>
+          <cell r="S139">
+            <v>1</v>
+          </cell>
+          <cell r="U139" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
-          </cell>
-          <cell r="C139" t="str">
-            <v/>
-          </cell>
-          <cell r="D139">
-            <v>1</v>
-          </cell>
-          <cell r="E139" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="H139" t="str">
-            <v/>
-          </cell>
-          <cell r="I139">
-            <v>4.5</v>
-          </cell>
-          <cell r="J139">
-            <v>0.25</v>
-          </cell>
-          <cell r="M139" t="str">
-            <v>AttackSpeedAddRate</v>
-          </cell>
-          <cell r="O139">
-            <v>3</v>
-          </cell>
-          <cell r="S139" t="str">
-            <v/>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_02</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_01</v>
           </cell>
           <cell r="B140" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6012,16 +6184,19 @@
             <v/>
           </cell>
           <cell r="D140">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E140" t="str">
             <v>ChangeActorStatus</v>
           </cell>
+          <cell r="H140" t="str">
+            <v/>
+          </cell>
           <cell r="I140">
             <v>4.5</v>
           </cell>
           <cell r="J140">
-            <v>0.5</v>
+            <v>0.25</v>
           </cell>
           <cell r="M140" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6029,10 +6204,19 @@
           <cell r="O140">
             <v>3</v>
           </cell>
+          <cell r="R140">
+            <v>1</v>
+          </cell>
+          <cell r="S140">
+            <v>1</v>
+          </cell>
+          <cell r="W140" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_03</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_02</v>
           </cell>
           <cell r="B141" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6041,7 +6225,7 @@
             <v/>
           </cell>
           <cell r="D141">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E141" t="str">
             <v>ChangeActorStatus</v>
@@ -6050,7 +6234,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J141">
-            <v>0.75</v>
+            <v>0.5</v>
           </cell>
           <cell r="M141" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6058,10 +6242,19 @@
           <cell r="O141">
             <v>3</v>
           </cell>
+          <cell r="R141">
+            <v>1</v>
+          </cell>
+          <cell r="S141">
+            <v>1</v>
+          </cell>
+          <cell r="W141" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_04</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_03</v>
           </cell>
           <cell r="B142" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6070,7 +6263,7 @@
             <v/>
           </cell>
           <cell r="D142">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E142" t="str">
             <v>ChangeActorStatus</v>
@@ -6079,7 +6272,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J142">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
           <cell r="M142" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6087,10 +6280,19 @@
           <cell r="O142">
             <v>3</v>
           </cell>
+          <cell r="R142">
+            <v>1</v>
+          </cell>
+          <cell r="S142">
+            <v>1</v>
+          </cell>
+          <cell r="W142" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_05</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_04</v>
           </cell>
           <cell r="B143" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6099,7 +6301,7 @@
             <v/>
           </cell>
           <cell r="D143">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E143" t="str">
             <v>ChangeActorStatus</v>
@@ -6108,7 +6310,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J143">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
           <cell r="M143" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6116,10 +6318,19 @@
           <cell r="O143">
             <v>3</v>
           </cell>
+          <cell r="R143">
+            <v>1</v>
+          </cell>
+          <cell r="S143">
+            <v>1</v>
+          </cell>
+          <cell r="W143" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_06</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_05</v>
           </cell>
           <cell r="B144" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6128,7 +6339,7 @@
             <v/>
           </cell>
           <cell r="D144">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E144" t="str">
             <v>ChangeActorStatus</v>
@@ -6137,7 +6348,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J144">
-            <v>1.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="M144" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6145,10 +6356,19 @@
           <cell r="O144">
             <v>3</v>
           </cell>
+          <cell r="R144">
+            <v>1</v>
+          </cell>
+          <cell r="S144">
+            <v>1</v>
+          </cell>
+          <cell r="W144" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_07</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_06</v>
           </cell>
           <cell r="B145" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6157,7 +6377,7 @@
             <v/>
           </cell>
           <cell r="D145">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E145" t="str">
             <v>ChangeActorStatus</v>
@@ -6166,7 +6386,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J145">
-            <v>1.75</v>
+            <v>1.5</v>
           </cell>
           <cell r="M145" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6174,10 +6394,19 @@
           <cell r="O145">
             <v>3</v>
           </cell>
+          <cell r="R145">
+            <v>1</v>
+          </cell>
+          <cell r="S145">
+            <v>1</v>
+          </cell>
+          <cell r="W145" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_08</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_07</v>
           </cell>
           <cell r="B146" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6186,7 +6415,7 @@
             <v/>
           </cell>
           <cell r="D146">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E146" t="str">
             <v>ChangeActorStatus</v>
@@ -6195,7 +6424,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J146">
-            <v>2</v>
+            <v>1.75</v>
           </cell>
           <cell r="M146" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6203,10 +6432,19 @@
           <cell r="O146">
             <v>3</v>
           </cell>
+          <cell r="R146">
+            <v>1</v>
+          </cell>
+          <cell r="S146">
+            <v>1</v>
+          </cell>
+          <cell r="W146" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LP_AtkSpeedUpOnEncounter_Spd_09</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_08</v>
           </cell>
           <cell r="B147" t="str">
             <v>LP_AtkSpeedUpOnEncounter_Spd</v>
@@ -6215,7 +6453,7 @@
             <v/>
           </cell>
           <cell r="D147">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E147" t="str">
             <v>ChangeActorStatus</v>
@@ -6224,7 +6462,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J147">
-            <v>2.25</v>
+            <v>2</v>
           </cell>
           <cell r="M147" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6232,45 +6470,57 @@
           <cell r="O147">
             <v>3</v>
           </cell>
+          <cell r="R147">
+            <v>1</v>
+          </cell>
+          <cell r="S147">
+            <v>1</v>
+          </cell>
+          <cell r="W147" t="str">
+            <v>Magic circle 11_D</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_01</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd_09</v>
           </cell>
           <cell r="B148" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+            <v>LP_AtkSpeedUpOnEncounter_Spd</v>
           </cell>
           <cell r="C148" t="str">
             <v/>
           </cell>
           <cell r="D148">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E148" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="H148" t="str">
-            <v/>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I148">
-            <v>-1</v>
-          </cell>
-          <cell r="O148" t="str">
-            <v/>
-          </cell>
-          <cell r="Q148" t="str">
-            <v>OnStartStage</v>
+            <v>4.5</v>
+          </cell>
+          <cell r="J148">
+            <v>2.25</v>
+          </cell>
+          <cell r="M148" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O148">
+            <v>3</v>
+          </cell>
+          <cell r="R148">
+            <v>1</v>
           </cell>
           <cell r="S148">
             <v>1</v>
           </cell>
-          <cell r="U148" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
+          <cell r="W148" t="str">
+            <v>Magic circle 11_D</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_02</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_01</v>
           </cell>
           <cell r="B149" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter</v>
@@ -6279,7 +6529,7 @@
             <v/>
           </cell>
           <cell r="D149">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E149" t="str">
             <v>CallAffectorValue</v>
@@ -6305,7 +6555,7 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_03</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_02</v>
           </cell>
           <cell r="B150" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter</v>
@@ -6314,7 +6564,7 @@
             <v/>
           </cell>
           <cell r="D150">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E150" t="str">
             <v>CallAffectorValue</v>
@@ -6340,7 +6590,7 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_04</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_03</v>
           </cell>
           <cell r="B151" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter</v>
@@ -6349,7 +6599,7 @@
             <v/>
           </cell>
           <cell r="D151">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E151" t="str">
             <v>CallAffectorValue</v>
@@ -6375,7 +6625,7 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_05</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_04</v>
           </cell>
           <cell r="B152" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter</v>
@@ -6384,7 +6634,7 @@
             <v/>
           </cell>
           <cell r="D152">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E152" t="str">
             <v>CallAffectorValue</v>
@@ -6410,42 +6660,42 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_01</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_05</v>
           </cell>
           <cell r="B153" t="str">
+            <v>LP_AtkSpeedUpOnEncounterBetter</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v/>
+          </cell>
+          <cell r="D153">
+            <v>5</v>
+          </cell>
+          <cell r="E153" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H153" t="str">
+            <v/>
+          </cell>
+          <cell r="I153">
+            <v>-1</v>
+          </cell>
+          <cell r="O153" t="str">
+            <v/>
+          </cell>
+          <cell r="Q153" t="str">
+            <v>OnStartStage</v>
+          </cell>
+          <cell r="S153">
+            <v>1</v>
+          </cell>
+          <cell r="U153" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
-          </cell>
-          <cell r="C153" t="str">
-            <v/>
-          </cell>
-          <cell r="D153">
-            <v>1</v>
-          </cell>
-          <cell r="E153" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="H153" t="str">
-            <v/>
-          </cell>
-          <cell r="I153">
-            <v>4.5</v>
-          </cell>
-          <cell r="J153">
-            <v>0.35</v>
-          </cell>
-          <cell r="M153" t="str">
-            <v>AttackSpeedAddRate</v>
-          </cell>
-          <cell r="O153">
-            <v>3</v>
-          </cell>
-          <cell r="S153" t="str">
-            <v/>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_02</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_01</v>
           </cell>
           <cell r="B154" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
@@ -6454,16 +6704,19 @@
             <v/>
           </cell>
           <cell r="D154">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E154" t="str">
             <v>ChangeActorStatus</v>
           </cell>
+          <cell r="H154" t="str">
+            <v/>
+          </cell>
           <cell r="I154">
             <v>4.5</v>
           </cell>
           <cell r="J154">
-            <v>0.7</v>
+            <v>0.35</v>
           </cell>
           <cell r="M154" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6471,13 +6724,19 @@
           <cell r="O154">
             <v>3</v>
           </cell>
-          <cell r="S154" t="str">
-            <v/>
+          <cell r="R154">
+            <v>1</v>
+          </cell>
+          <cell r="S154">
+            <v>1</v>
+          </cell>
+          <cell r="W154" t="str">
+            <v>Magic circle 11_D</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_03</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_02</v>
           </cell>
           <cell r="B155" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
@@ -6486,7 +6745,7 @@
             <v/>
           </cell>
           <cell r="D155">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E155" t="str">
             <v>ChangeActorStatus</v>
@@ -6495,7 +6754,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J155">
-            <v>1.05</v>
+            <v>0.7</v>
           </cell>
           <cell r="M155" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6503,13 +6762,19 @@
           <cell r="O155">
             <v>3</v>
           </cell>
-          <cell r="S155" t="str">
-            <v/>
+          <cell r="R155">
+            <v>1</v>
+          </cell>
+          <cell r="S155">
+            <v>1</v>
+          </cell>
+          <cell r="W155" t="str">
+            <v>Magic circle 11_D</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_04</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_03</v>
           </cell>
           <cell r="B156" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
@@ -6518,7 +6783,7 @@
             <v/>
           </cell>
           <cell r="D156">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E156" t="str">
             <v>ChangeActorStatus</v>
@@ -6527,7 +6792,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J156">
-            <v>1.4</v>
+            <v>1.05</v>
           </cell>
           <cell r="M156" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6535,13 +6800,19 @@
           <cell r="O156">
             <v>3</v>
           </cell>
-          <cell r="S156" t="str">
-            <v/>
+          <cell r="R156">
+            <v>1</v>
+          </cell>
+          <cell r="S156">
+            <v>1</v>
+          </cell>
+          <cell r="W156" t="str">
+            <v>Magic circle 11_D</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_05</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_04</v>
           </cell>
           <cell r="B157" t="str">
             <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
@@ -6550,7 +6821,7 @@
             <v/>
           </cell>
           <cell r="D157">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E157" t="str">
             <v>ChangeActorStatus</v>
@@ -6559,7 +6830,7 @@
             <v>4.5</v>
           </cell>
           <cell r="J157">
-            <v>1.75</v>
+            <v>1.4</v>
           </cell>
           <cell r="M157" t="str">
             <v>AttackSpeedAddRate</v>
@@ -6567,45 +6838,57 @@
           <cell r="O157">
             <v>3</v>
           </cell>
-          <cell r="S157" t="str">
-            <v/>
+          <cell r="R157">
+            <v>1</v>
+          </cell>
+          <cell r="S157">
+            <v>1</v>
+          </cell>
+          <cell r="W157" t="str">
+            <v>Magic circle 11_D</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LP_VampireOnAttack_01</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd_05</v>
           </cell>
           <cell r="B158" t="str">
-            <v>LP_VampireOnAttack</v>
+            <v>LP_AtkSpeedUpOnEncounterBetter_Spd</v>
           </cell>
           <cell r="C158" t="str">
             <v/>
           </cell>
           <cell r="D158">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E158" t="str">
-            <v>CallAffectorValue</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I158">
-            <v>-1</v>
-          </cell>
-          <cell r="O158" t="str">
-            <v/>
-          </cell>
-          <cell r="Q158" t="str">
-            <v>OnHit</v>
+            <v>4.5</v>
+          </cell>
+          <cell r="J158">
+            <v>1.75</v>
+          </cell>
+          <cell r="M158" t="str">
+            <v>AttackSpeedAddRate</v>
+          </cell>
+          <cell r="O158">
+            <v>3</v>
+          </cell>
+          <cell r="R158">
+            <v>1</v>
           </cell>
           <cell r="S158">
-            <v>5</v>
-          </cell>
-          <cell r="U158" t="str">
-            <v>LP_VampireOnAttack_Heal</v>
+            <v>1</v>
+          </cell>
+          <cell r="W158" t="str">
+            <v>Magic circle 11_D</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LP_VampireOnAttack_02</v>
+            <v>LP_VampireOnAttack_01</v>
           </cell>
           <cell r="B159" t="str">
             <v>LP_VampireOnAttack</v>
@@ -6614,7 +6897,7 @@
             <v/>
           </cell>
           <cell r="D159">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E159" t="str">
             <v>CallAffectorValue</v>
@@ -6637,7 +6920,7 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LP_VampireOnAttack_03</v>
+            <v>LP_VampireOnAttack_02</v>
           </cell>
           <cell r="B160" t="str">
             <v>LP_VampireOnAttack</v>
@@ -6646,7 +6929,7 @@
             <v/>
           </cell>
           <cell r="D160">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E160" t="str">
             <v>CallAffectorValue</v>
@@ -6669,7 +6952,7 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LP_VampireOnAttack_04</v>
+            <v>LP_VampireOnAttack_03</v>
           </cell>
           <cell r="B161" t="str">
             <v>LP_VampireOnAttack</v>
@@ -6678,7 +6961,7 @@
             <v/>
           </cell>
           <cell r="D161">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E161" t="str">
             <v>CallAffectorValue</v>
@@ -6701,7 +6984,7 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LP_VampireOnAttack_05</v>
+            <v>LP_VampireOnAttack_04</v>
           </cell>
           <cell r="B162" t="str">
             <v>LP_VampireOnAttack</v>
@@ -6710,7 +6993,7 @@
             <v/>
           </cell>
           <cell r="D162">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E162" t="str">
             <v>CallAffectorValue</v>
@@ -6733,33 +7016,39 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LP_VampireOnAttack_Heal_01</v>
+            <v>LP_VampireOnAttack_05</v>
           </cell>
           <cell r="B163" t="str">
+            <v>LP_VampireOnAttack</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v/>
+          </cell>
+          <cell r="D163">
+            <v>5</v>
+          </cell>
+          <cell r="E163" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I163">
+            <v>-1</v>
+          </cell>
+          <cell r="O163" t="str">
+            <v/>
+          </cell>
+          <cell r="Q163" t="str">
+            <v>OnHit</v>
+          </cell>
+          <cell r="S163">
+            <v>5</v>
+          </cell>
+          <cell r="U163" t="str">
             <v>LP_VampireOnAttack_Heal</v>
-          </cell>
-          <cell r="C163" t="str">
-            <v/>
-          </cell>
-          <cell r="D163">
-            <v>1</v>
-          </cell>
-          <cell r="E163" t="str">
-            <v>Heal</v>
-          </cell>
-          <cell r="L163">
-            <v>0.01</v>
-          </cell>
-          <cell r="O163" t="str">
-            <v/>
-          </cell>
-          <cell r="S163" t="str">
-            <v/>
           </cell>
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LP_VampireOnAttack_Heal_02</v>
+            <v>LP_VampireOnAttack_Heal_01</v>
           </cell>
           <cell r="B164" t="str">
             <v>LP_VampireOnAttack_Heal</v>
@@ -6768,13 +7057,13 @@
             <v/>
           </cell>
           <cell r="D164">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E164" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L164">
-            <v>0.02</v>
+            <v>0.01</v>
           </cell>
           <cell r="O164" t="str">
             <v/>
@@ -6785,7 +7074,7 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LP_VampireOnAttack_Heal_03</v>
+            <v>LP_VampireOnAttack_Heal_02</v>
           </cell>
           <cell r="B165" t="str">
             <v>LP_VampireOnAttack_Heal</v>
@@ -6794,13 +7083,13 @@
             <v/>
           </cell>
           <cell r="D165">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E165" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L165">
-            <v>0.03</v>
+            <v>0.02</v>
           </cell>
           <cell r="O165" t="str">
             <v/>
@@ -6811,7 +7100,7 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LP_VampireOnAttack_Heal_04</v>
+            <v>LP_VampireOnAttack_Heal_03</v>
           </cell>
           <cell r="B166" t="str">
             <v>LP_VampireOnAttack_Heal</v>
@@ -6820,13 +7109,13 @@
             <v/>
           </cell>
           <cell r="D166">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E166" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L166">
-            <v>0.04</v>
+            <v>0.03</v>
           </cell>
           <cell r="O166" t="str">
             <v/>
@@ -6837,7 +7126,7 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LP_VampireOnAttack_Heal_05</v>
+            <v>LP_VampireOnAttack_Heal_04</v>
           </cell>
           <cell r="B167" t="str">
             <v>LP_VampireOnAttack_Heal</v>
@@ -6846,13 +7135,13 @@
             <v/>
           </cell>
           <cell r="D167">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E167" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L167">
-            <v>0.05</v>
+            <v>0.04</v>
           </cell>
           <cell r="O167" t="str">
             <v/>
@@ -6863,39 +7152,33 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LP_VampireOnAttackBetter_01</v>
+            <v>LP_VampireOnAttack_Heal_05</v>
           </cell>
           <cell r="B168" t="str">
-            <v>LP_VampireOnAttackBetter</v>
+            <v>LP_VampireOnAttack_Heal</v>
           </cell>
           <cell r="C168" t="str">
             <v/>
           </cell>
           <cell r="D168">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E168" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="I168">
-            <v>-1</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="L168">
+            <v>0.05</v>
           </cell>
           <cell r="O168" t="str">
             <v/>
           </cell>
-          <cell r="Q168" t="str">
-            <v>OnHit</v>
-          </cell>
-          <cell r="S168">
-            <v>5</v>
-          </cell>
-          <cell r="U168" t="str">
-            <v>LP_VampireOnAttackBetter_Heal</v>
+          <cell r="S168" t="str">
+            <v/>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LP_VampireOnAttackBetter_02</v>
+            <v>LP_VampireOnAttackBetter_01</v>
           </cell>
           <cell r="B169" t="str">
             <v>LP_VampireOnAttackBetter</v>
@@ -6904,7 +7187,7 @@
             <v/>
           </cell>
           <cell r="D169">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E169" t="str">
             <v>CallAffectorValue</v>
@@ -6927,7 +7210,7 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LP_VampireOnAttackBetter_03</v>
+            <v>LP_VampireOnAttackBetter_02</v>
           </cell>
           <cell r="B170" t="str">
             <v>LP_VampireOnAttackBetter</v>
@@ -6936,7 +7219,7 @@
             <v/>
           </cell>
           <cell r="D170">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E170" t="str">
             <v>CallAffectorValue</v>
@@ -6959,7 +7242,7 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LP_VampireOnAttackBetter_04</v>
+            <v>LP_VampireOnAttackBetter_03</v>
           </cell>
           <cell r="B171" t="str">
             <v>LP_VampireOnAttackBetter</v>
@@ -6968,7 +7251,7 @@
             <v/>
           </cell>
           <cell r="D171">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E171" t="str">
             <v>CallAffectorValue</v>
@@ -6991,7 +7274,7 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LP_VampireOnAttackBetter_05</v>
+            <v>LP_VampireOnAttackBetter_04</v>
           </cell>
           <cell r="B172" t="str">
             <v>LP_VampireOnAttackBetter</v>
@@ -7000,7 +7283,7 @@
             <v/>
           </cell>
           <cell r="D172">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E172" t="str">
             <v>CallAffectorValue</v>
@@ -7023,33 +7306,39 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LP_VampireOnAttackBetter_Heal_01</v>
+            <v>LP_VampireOnAttackBetter_05</v>
           </cell>
           <cell r="B173" t="str">
+            <v>LP_VampireOnAttackBetter</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v/>
+          </cell>
+          <cell r="D173">
+            <v>5</v>
+          </cell>
+          <cell r="E173" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I173">
+            <v>-1</v>
+          </cell>
+          <cell r="O173" t="str">
+            <v/>
+          </cell>
+          <cell r="Q173" t="str">
+            <v>OnHit</v>
+          </cell>
+          <cell r="S173">
+            <v>5</v>
+          </cell>
+          <cell r="U173" t="str">
             <v>LP_VampireOnAttackBetter_Heal</v>
-          </cell>
-          <cell r="C173" t="str">
-            <v/>
-          </cell>
-          <cell r="D173">
-            <v>1</v>
-          </cell>
-          <cell r="E173" t="str">
-            <v>Heal</v>
-          </cell>
-          <cell r="L173">
-            <v>0.02</v>
-          </cell>
-          <cell r="O173" t="str">
-            <v/>
-          </cell>
-          <cell r="S173" t="str">
-            <v/>
           </cell>
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LP_VampireOnAttackBetter_Heal_02</v>
+            <v>LP_VampireOnAttackBetter_Heal_01</v>
           </cell>
           <cell r="B174" t="str">
             <v>LP_VampireOnAttackBetter_Heal</v>
@@ -7058,13 +7347,13 @@
             <v/>
           </cell>
           <cell r="D174">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E174" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L174">
-            <v>0.04</v>
+            <v>0.02</v>
           </cell>
           <cell r="O174" t="str">
             <v/>
@@ -7075,7 +7364,7 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LP_VampireOnAttackBetter_Heal_03</v>
+            <v>LP_VampireOnAttackBetter_Heal_02</v>
           </cell>
           <cell r="B175" t="str">
             <v>LP_VampireOnAttackBetter_Heal</v>
@@ -7084,13 +7373,13 @@
             <v/>
           </cell>
           <cell r="D175">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E175" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L175">
-            <v>0.06</v>
+            <v>0.04</v>
           </cell>
           <cell r="O175" t="str">
             <v/>
@@ -7101,7 +7390,7 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LP_VampireOnAttackBetter_Heal_04</v>
+            <v>LP_VampireOnAttackBetter_Heal_03</v>
           </cell>
           <cell r="B176" t="str">
             <v>LP_VampireOnAttackBetter_Heal</v>
@@ -7110,13 +7399,13 @@
             <v/>
           </cell>
           <cell r="D176">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E176" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L176">
-            <v>0.08</v>
+            <v>0.06</v>
           </cell>
           <cell r="O176" t="str">
             <v/>
@@ -7127,7 +7416,7 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LP_VampireOnAttackBetter_Heal_05</v>
+            <v>LP_VampireOnAttackBetter_Heal_04</v>
           </cell>
           <cell r="B177" t="str">
             <v>LP_VampireOnAttackBetter_Heal</v>
@@ -7136,13 +7425,13 @@
             <v/>
           </cell>
           <cell r="D177">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E177" t="str">
             <v>Heal</v>
           </cell>
           <cell r="L177">
-            <v>0.1</v>
+            <v>0.08</v>
           </cell>
           <cell r="O177" t="str">
             <v/>
@@ -7153,39 +7442,33 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LP_RecoverOnAttacked_01</v>
+            <v>LP_VampireOnAttackBetter_Heal_05</v>
           </cell>
           <cell r="B178" t="str">
-            <v>LP_RecoverOnAttacked</v>
+            <v>LP_VampireOnAttackBetter_Heal</v>
           </cell>
           <cell r="C178" t="str">
             <v/>
           </cell>
           <cell r="D178">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E178" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="I178">
-            <v>-1</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="L178">
+            <v>0.1</v>
           </cell>
           <cell r="O178" t="str">
             <v/>
           </cell>
-          <cell r="Q178" t="str">
-            <v>OnDamage</v>
-          </cell>
-          <cell r="S178">
-            <v>4</v>
-          </cell>
-          <cell r="U178" t="str">
-            <v>LP_RecoverOnAttacked_Heal</v>
+          <cell r="S178" t="str">
+            <v/>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LP_RecoverOnAttacked_02</v>
+            <v>LP_RecoverOnAttacked_01</v>
           </cell>
           <cell r="B179" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7194,7 +7477,7 @@
             <v/>
           </cell>
           <cell r="D179">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E179" t="str">
             <v>CallAffectorValue</v>
@@ -7217,7 +7500,7 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LP_RecoverOnAttacked_03</v>
+            <v>LP_RecoverOnAttacked_02</v>
           </cell>
           <cell r="B180" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7226,7 +7509,7 @@
             <v/>
           </cell>
           <cell r="D180">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E180" t="str">
             <v>CallAffectorValue</v>
@@ -7249,7 +7532,7 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LP_RecoverOnAttacked_04</v>
+            <v>LP_RecoverOnAttacked_03</v>
           </cell>
           <cell r="B181" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7258,7 +7541,7 @@
             <v/>
           </cell>
           <cell r="D181">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E181" t="str">
             <v>CallAffectorValue</v>
@@ -7281,7 +7564,7 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LP_RecoverOnAttacked_05</v>
+            <v>LP_RecoverOnAttacked_04</v>
           </cell>
           <cell r="B182" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7290,7 +7573,7 @@
             <v/>
           </cell>
           <cell r="D182">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E182" t="str">
             <v>CallAffectorValue</v>
@@ -7313,7 +7596,7 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LP_RecoverOnAttacked_06</v>
+            <v>LP_RecoverOnAttacked_05</v>
           </cell>
           <cell r="B183" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7322,7 +7605,7 @@
             <v/>
           </cell>
           <cell r="D183">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E183" t="str">
             <v>CallAffectorValue</v>
@@ -7345,7 +7628,7 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LP_RecoverOnAttacked_07</v>
+            <v>LP_RecoverOnAttacked_06</v>
           </cell>
           <cell r="B184" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7354,7 +7637,7 @@
             <v/>
           </cell>
           <cell r="D184">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E184" t="str">
             <v>CallAffectorValue</v>
@@ -7377,7 +7660,7 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LP_RecoverOnAttacked_08</v>
+            <v>LP_RecoverOnAttacked_07</v>
           </cell>
           <cell r="B185" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7386,7 +7669,7 @@
             <v/>
           </cell>
           <cell r="D185">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E185" t="str">
             <v>CallAffectorValue</v>
@@ -7409,7 +7692,7 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LP_RecoverOnAttacked_09</v>
+            <v>LP_RecoverOnAttacked_08</v>
           </cell>
           <cell r="B186" t="str">
             <v>LP_RecoverOnAttacked</v>
@@ -7418,7 +7701,7 @@
             <v/>
           </cell>
           <cell r="D186">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E186" t="str">
             <v>CallAffectorValue</v>
@@ -7441,39 +7724,39 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LP_RecoverOnAttacked_Heal_01</v>
+            <v>LP_RecoverOnAttacked_09</v>
           </cell>
           <cell r="B187" t="str">
+            <v>LP_RecoverOnAttacked</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v/>
+          </cell>
+          <cell r="D187">
+            <v>9</v>
+          </cell>
+          <cell r="E187" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I187">
+            <v>-1</v>
+          </cell>
+          <cell r="O187" t="str">
+            <v/>
+          </cell>
+          <cell r="Q187" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S187">
+            <v>4</v>
+          </cell>
+          <cell r="U187" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
-          </cell>
-          <cell r="C187" t="str">
-            <v/>
-          </cell>
-          <cell r="D187">
-            <v>1</v>
-          </cell>
-          <cell r="E187" t="str">
-            <v>HealOverTime</v>
-          </cell>
-          <cell r="I187">
-            <v>5</v>
-          </cell>
-          <cell r="J187">
-            <v>1</v>
-          </cell>
-          <cell r="L187">
-            <v>9.0899999999999995E-2</v>
-          </cell>
-          <cell r="O187" t="str">
-            <v/>
-          </cell>
-          <cell r="S187" t="str">
-            <v/>
           </cell>
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>LP_RecoverOnAttacked_Heal_02</v>
+            <v>LP_RecoverOnAttacked_Heal_01</v>
           </cell>
           <cell r="B188" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7482,7 +7765,7 @@
             <v/>
           </cell>
           <cell r="D188">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E188" t="str">
             <v>HealOverTime</v>
@@ -7494,7 +7777,7 @@
             <v>1</v>
           </cell>
           <cell r="L188">
-            <v>0.16669999999999999</v>
+            <v>9.0899999999999995E-2</v>
           </cell>
           <cell r="O188" t="str">
             <v/>
@@ -7505,7 +7788,7 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>LP_RecoverOnAttacked_Heal_03</v>
+            <v>LP_RecoverOnAttacked_Heal_02</v>
           </cell>
           <cell r="B189" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7514,7 +7797,7 @@
             <v/>
           </cell>
           <cell r="D189">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E189" t="str">
             <v>HealOverTime</v>
@@ -7526,7 +7809,7 @@
             <v>1</v>
           </cell>
           <cell r="L189">
-            <v>0.23080000000000001</v>
+            <v>0.16669999999999999</v>
           </cell>
           <cell r="O189" t="str">
             <v/>
@@ -7537,7 +7820,7 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>LP_RecoverOnAttacked_Heal_04</v>
+            <v>LP_RecoverOnAttacked_Heal_03</v>
           </cell>
           <cell r="B190" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7546,7 +7829,7 @@
             <v/>
           </cell>
           <cell r="D190">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E190" t="str">
             <v>HealOverTime</v>
@@ -7558,7 +7841,7 @@
             <v>1</v>
           </cell>
           <cell r="L190">
-            <v>0.28570000000000001</v>
+            <v>0.23080000000000001</v>
           </cell>
           <cell r="O190" t="str">
             <v/>
@@ -7569,7 +7852,7 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>LP_RecoverOnAttacked_Heal_05</v>
+            <v>LP_RecoverOnAttacked_Heal_04</v>
           </cell>
           <cell r="B191" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7578,7 +7861,7 @@
             <v/>
           </cell>
           <cell r="D191">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E191" t="str">
             <v>HealOverTime</v>
@@ -7590,7 +7873,7 @@
             <v>1</v>
           </cell>
           <cell r="L191">
-            <v>0.33329999999999999</v>
+            <v>0.28570000000000001</v>
           </cell>
           <cell r="O191" t="str">
             <v/>
@@ -7601,7 +7884,7 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>LP_RecoverOnAttacked_Heal_06</v>
+            <v>LP_RecoverOnAttacked_Heal_05</v>
           </cell>
           <cell r="B192" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7610,7 +7893,7 @@
             <v/>
           </cell>
           <cell r="D192">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E192" t="str">
             <v>HealOverTime</v>
@@ -7622,7 +7905,7 @@
             <v>1</v>
           </cell>
           <cell r="L192">
-            <v>0.375</v>
+            <v>0.33329999999999999</v>
           </cell>
           <cell r="O192" t="str">
             <v/>
@@ -7633,7 +7916,7 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>LP_RecoverOnAttacked_Heal_07</v>
+            <v>LP_RecoverOnAttacked_Heal_06</v>
           </cell>
           <cell r="B193" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7642,7 +7925,7 @@
             <v/>
           </cell>
           <cell r="D193">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E193" t="str">
             <v>HealOverTime</v>
@@ -7654,7 +7937,7 @@
             <v>1</v>
           </cell>
           <cell r="L193">
-            <v>0.4118</v>
+            <v>0.375</v>
           </cell>
           <cell r="O193" t="str">
             <v/>
@@ -7665,7 +7948,7 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>LP_RecoverOnAttacked_Heal_08</v>
+            <v>LP_RecoverOnAttacked_Heal_07</v>
           </cell>
           <cell r="B194" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7674,7 +7957,7 @@
             <v/>
           </cell>
           <cell r="D194">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E194" t="str">
             <v>HealOverTime</v>
@@ -7686,7 +7969,7 @@
             <v>1</v>
           </cell>
           <cell r="L194">
-            <v>0.44440000000000002</v>
+            <v>0.4118</v>
           </cell>
           <cell r="O194" t="str">
             <v/>
@@ -7697,7 +7980,7 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>LP_RecoverOnAttacked_Heal_09</v>
+            <v>LP_RecoverOnAttacked_Heal_08</v>
           </cell>
           <cell r="B195" t="str">
             <v>LP_RecoverOnAttacked_Heal</v>
@@ -7706,7 +7989,7 @@
             <v/>
           </cell>
           <cell r="D195">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E195" t="str">
             <v>HealOverTime</v>
@@ -7718,7 +8001,7 @@
             <v>1</v>
           </cell>
           <cell r="L195">
-            <v>0.47370000000000001</v>
+            <v>0.44440000000000002</v>
           </cell>
           <cell r="O195" t="str">
             <v/>
@@ -7729,25 +8012,28 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>LP_ReflectOnAttacked_01</v>
+            <v>LP_RecoverOnAttacked_Heal_09</v>
           </cell>
           <cell r="B196" t="str">
-            <v>LP_ReflectOnAttacked</v>
+            <v>LP_RecoverOnAttacked_Heal</v>
           </cell>
           <cell r="C196" t="str">
             <v/>
           </cell>
           <cell r="D196">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E196" t="str">
-            <v>ReflectDamage</v>
+            <v>HealOverTime</v>
           </cell>
           <cell r="I196">
-            <v>-1</v>
+            <v>5</v>
           </cell>
           <cell r="J196">
-            <v>0.5</v>
+            <v>1</v>
+          </cell>
+          <cell r="L196">
+            <v>0.47370000000000001</v>
           </cell>
           <cell r="O196" t="str">
             <v/>
@@ -7758,7 +8044,7 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>LP_ReflectOnAttacked_02</v>
+            <v>LP_ReflectOnAttacked_01</v>
           </cell>
           <cell r="B197" t="str">
             <v>LP_ReflectOnAttacked</v>
@@ -7767,7 +8053,7 @@
             <v/>
           </cell>
           <cell r="D197">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E197" t="str">
             <v>ReflectDamage</v>
@@ -7776,7 +8062,7 @@
             <v>-1</v>
           </cell>
           <cell r="J197">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="O197" t="str">
             <v/>
@@ -7787,7 +8073,7 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>LP_ReflectOnAttacked_03</v>
+            <v>LP_ReflectOnAttacked_02</v>
           </cell>
           <cell r="B198" t="str">
             <v>LP_ReflectOnAttacked</v>
@@ -7796,7 +8082,7 @@
             <v/>
           </cell>
           <cell r="D198">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E198" t="str">
             <v>ReflectDamage</v>
@@ -7805,7 +8091,7 @@
             <v>-1</v>
           </cell>
           <cell r="J198">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="O198" t="str">
             <v/>
@@ -7816,7 +8102,7 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>LP_ReflectOnAttacked_04</v>
+            <v>LP_ReflectOnAttacked_03</v>
           </cell>
           <cell r="B199" t="str">
             <v>LP_ReflectOnAttacked</v>
@@ -7825,7 +8111,7 @@
             <v/>
           </cell>
           <cell r="D199">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E199" t="str">
             <v>ReflectDamage</v>
@@ -7834,7 +8120,7 @@
             <v>-1</v>
           </cell>
           <cell r="J199">
-            <v>2</v>
+            <v>1.5</v>
           </cell>
           <cell r="O199" t="str">
             <v/>
@@ -7845,7 +8131,7 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>LP_ReflectOnAttacked_05</v>
+            <v>LP_ReflectOnAttacked_04</v>
           </cell>
           <cell r="B200" t="str">
             <v>LP_ReflectOnAttacked</v>
@@ -7854,7 +8140,7 @@
             <v/>
           </cell>
           <cell r="D200">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E200" t="str">
             <v>ReflectDamage</v>
@@ -7863,7 +8149,7 @@
             <v>-1</v>
           </cell>
           <cell r="J200">
-            <v>2.5</v>
+            <v>2</v>
           </cell>
           <cell r="O200" t="str">
             <v/>
@@ -7874,16 +8160,16 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>LP_ReflectOnAttackedBetter_01</v>
+            <v>LP_ReflectOnAttacked_05</v>
           </cell>
           <cell r="B201" t="str">
-            <v>LP_ReflectOnAttackedBetter</v>
+            <v>LP_ReflectOnAttacked</v>
           </cell>
           <cell r="C201" t="str">
             <v/>
           </cell>
           <cell r="D201">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E201" t="str">
             <v>ReflectDamage</v>
@@ -7892,7 +8178,7 @@
             <v>-1</v>
           </cell>
           <cell r="J201">
-            <v>0.75</v>
+            <v>2.5</v>
           </cell>
           <cell r="O201" t="str">
             <v/>
@@ -7903,7 +8189,7 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>LP_ReflectOnAttackedBetter_02</v>
+            <v>LP_ReflectOnAttackedBetter_01</v>
           </cell>
           <cell r="B202" t="str">
             <v>LP_ReflectOnAttackedBetter</v>
@@ -7912,7 +8198,7 @@
             <v/>
           </cell>
           <cell r="D202">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E202" t="str">
             <v>ReflectDamage</v>
@@ -7921,7 +8207,7 @@
             <v>-1</v>
           </cell>
           <cell r="J202">
-            <v>1.5</v>
+            <v>0.75</v>
           </cell>
           <cell r="O202" t="str">
             <v/>
@@ -7932,7 +8218,7 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>LP_ReflectOnAttackedBetter_03</v>
+            <v>LP_ReflectOnAttackedBetter_02</v>
           </cell>
           <cell r="B203" t="str">
             <v>LP_ReflectOnAttackedBetter</v>
@@ -7941,7 +8227,7 @@
             <v/>
           </cell>
           <cell r="D203">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E203" t="str">
             <v>ReflectDamage</v>
@@ -7950,7 +8236,7 @@
             <v>-1</v>
           </cell>
           <cell r="J203">
-            <v>2.25</v>
+            <v>1.5</v>
           </cell>
           <cell r="O203" t="str">
             <v/>
@@ -7961,7 +8247,7 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>LP_ReflectOnAttackedBetter_04</v>
+            <v>LP_ReflectOnAttackedBetter_03</v>
           </cell>
           <cell r="B204" t="str">
             <v>LP_ReflectOnAttackedBetter</v>
@@ -7970,7 +8256,7 @@
             <v/>
           </cell>
           <cell r="D204">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E204" t="str">
             <v>ReflectDamage</v>
@@ -7979,7 +8265,7 @@
             <v>-1</v>
           </cell>
           <cell r="J204">
-            <v>3</v>
+            <v>2.25</v>
           </cell>
           <cell r="O204" t="str">
             <v/>
@@ -7990,7 +8276,7 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>LP_ReflectOnAttackedBetter_05</v>
+            <v>LP_ReflectOnAttackedBetter_04</v>
           </cell>
           <cell r="B205" t="str">
             <v>LP_ReflectOnAttackedBetter</v>
@@ -7999,7 +8285,7 @@
             <v/>
           </cell>
           <cell r="D205">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E205" t="str">
             <v>ReflectDamage</v>
@@ -8008,7 +8294,7 @@
             <v>-1</v>
           </cell>
           <cell r="J205">
-            <v>3.75</v>
+            <v>3</v>
           </cell>
           <cell r="O205" t="str">
             <v/>
@@ -8019,25 +8305,25 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>LP_AtkUpOnLowerHp_01</v>
+            <v>LP_ReflectOnAttackedBetter_05</v>
           </cell>
           <cell r="B206" t="str">
-            <v>LP_AtkUpOnLowerHp</v>
+            <v>LP_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="C206" t="str">
             <v/>
           </cell>
           <cell r="D206">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E206" t="str">
-            <v>AddAttackByHp</v>
+            <v>ReflectDamage</v>
           </cell>
           <cell r="I206">
             <v>-1</v>
           </cell>
           <cell r="J206">
-            <v>0.5</v>
+            <v>3.75</v>
           </cell>
           <cell r="O206" t="str">
             <v/>
@@ -8048,7 +8334,7 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>LP_AtkUpOnLowerHp_02</v>
+            <v>LP_AtkUpOnLowerHp_01</v>
           </cell>
           <cell r="B207" t="str">
             <v>LP_AtkUpOnLowerHp</v>
@@ -8057,7 +8343,7 @@
             <v/>
           </cell>
           <cell r="D207">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E207" t="str">
             <v>AddAttackByHp</v>
@@ -8066,7 +8352,7 @@
             <v>-1</v>
           </cell>
           <cell r="J207">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="O207" t="str">
             <v/>
@@ -8077,7 +8363,7 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>LP_AtkUpOnLowerHp_03</v>
+            <v>LP_AtkUpOnLowerHp_02</v>
           </cell>
           <cell r="B208" t="str">
             <v>LP_AtkUpOnLowerHp</v>
@@ -8086,7 +8372,7 @@
             <v/>
           </cell>
           <cell r="D208">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E208" t="str">
             <v>AddAttackByHp</v>
@@ -8095,7 +8381,7 @@
             <v>-1</v>
           </cell>
           <cell r="J208">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="O208" t="str">
             <v/>
@@ -8106,7 +8392,7 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>LP_AtkUpOnLowerHp_04</v>
+            <v>LP_AtkUpOnLowerHp_03</v>
           </cell>
           <cell r="B209" t="str">
             <v>LP_AtkUpOnLowerHp</v>
@@ -8115,7 +8401,7 @@
             <v/>
           </cell>
           <cell r="D209">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E209" t="str">
             <v>AddAttackByHp</v>
@@ -8124,7 +8410,7 @@
             <v>-1</v>
           </cell>
           <cell r="J209">
-            <v>2</v>
+            <v>1.5</v>
           </cell>
           <cell r="O209" t="str">
             <v/>
@@ -8135,7 +8421,7 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>LP_AtkUpOnLowerHp_05</v>
+            <v>LP_AtkUpOnLowerHp_04</v>
           </cell>
           <cell r="B210" t="str">
             <v>LP_AtkUpOnLowerHp</v>
@@ -8144,7 +8430,7 @@
             <v/>
           </cell>
           <cell r="D210">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E210" t="str">
             <v>AddAttackByHp</v>
@@ -8153,7 +8439,7 @@
             <v>-1</v>
           </cell>
           <cell r="J210">
-            <v>2.5</v>
+            <v>2</v>
           </cell>
           <cell r="O210" t="str">
             <v/>
@@ -8164,16 +8450,16 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>LP_AtkUpOnLowerHpBetter_01</v>
+            <v>LP_AtkUpOnLowerHp_05</v>
           </cell>
           <cell r="B211" t="str">
-            <v>LP_AtkUpOnLowerHpBetter</v>
+            <v>LP_AtkUpOnLowerHp</v>
           </cell>
           <cell r="C211" t="str">
             <v/>
           </cell>
           <cell r="D211">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E211" t="str">
             <v>AddAttackByHp</v>
@@ -8182,7 +8468,7 @@
             <v>-1</v>
           </cell>
           <cell r="J211">
-            <v>0.75</v>
+            <v>2.5</v>
           </cell>
           <cell r="O211" t="str">
             <v/>
@@ -8193,7 +8479,7 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>LP_AtkUpOnLowerHpBetter_02</v>
+            <v>LP_AtkUpOnLowerHpBetter_01</v>
           </cell>
           <cell r="B212" t="str">
             <v>LP_AtkUpOnLowerHpBetter</v>
@@ -8202,7 +8488,7 @@
             <v/>
           </cell>
           <cell r="D212">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E212" t="str">
             <v>AddAttackByHp</v>
@@ -8211,7 +8497,7 @@
             <v>-1</v>
           </cell>
           <cell r="J212">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
           <cell r="O212" t="str">
             <v/>
@@ -8222,7 +8508,7 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>LP_AtkUpOnLowerHpBetter_03</v>
+            <v>LP_AtkUpOnLowerHpBetter_02</v>
           </cell>
           <cell r="B213" t="str">
             <v>LP_AtkUpOnLowerHpBetter</v>
@@ -8231,7 +8517,7 @@
             <v/>
           </cell>
           <cell r="D213">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E213" t="str">
             <v>AddAttackByHp</v>
@@ -8240,7 +8526,7 @@
             <v>-1</v>
           </cell>
           <cell r="J213">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
           <cell r="O213" t="str">
             <v/>
@@ -8251,25 +8537,25 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>LP_CritDmgUpOnLowerHp_01</v>
+            <v>LP_AtkUpOnLowerHpBetter_03</v>
           </cell>
           <cell r="B214" t="str">
-            <v>LP_CritDmgUpOnLowerHp</v>
+            <v>LP_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="C214" t="str">
             <v/>
           </cell>
           <cell r="D214">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E214" t="str">
-            <v>AddCriticalDamageByTargetHp</v>
+            <v>AddAttackByHp</v>
           </cell>
           <cell r="I214">
             <v>-1</v>
           </cell>
           <cell r="J214">
-            <v>0.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="O214" t="str">
             <v/>
@@ -8280,7 +8566,7 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>LP_CritDmgUpOnLowerHp_02</v>
+            <v>LP_CritDmgUpOnLowerHp_01</v>
           </cell>
           <cell r="B215" t="str">
             <v>LP_CritDmgUpOnLowerHp</v>
@@ -8289,7 +8575,7 @@
             <v/>
           </cell>
           <cell r="D215">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E215" t="str">
             <v>AddCriticalDamageByTargetHp</v>
@@ -8298,7 +8584,7 @@
             <v>-1</v>
           </cell>
           <cell r="J215">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="O215" t="str">
             <v/>
@@ -8309,7 +8595,7 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>LP_CritDmgUpOnLowerHp_03</v>
+            <v>LP_CritDmgUpOnLowerHp_02</v>
           </cell>
           <cell r="B216" t="str">
             <v>LP_CritDmgUpOnLowerHp</v>
@@ -8318,7 +8604,7 @@
             <v/>
           </cell>
           <cell r="D216">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E216" t="str">
             <v>AddCriticalDamageByTargetHp</v>
@@ -8327,7 +8613,7 @@
             <v>-1</v>
           </cell>
           <cell r="J216">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="O216" t="str">
             <v/>
@@ -8338,16 +8624,16 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter_01</v>
+            <v>LP_CritDmgUpOnLowerHp_03</v>
           </cell>
           <cell r="B217" t="str">
-            <v>LP_CritDmgUpOnLowerHpBetter</v>
+            <v>LP_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="C217" t="str">
             <v/>
           </cell>
           <cell r="D217">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E217" t="str">
             <v>AddCriticalDamageByTargetHp</v>
@@ -8356,7 +8642,7 @@
             <v>-1</v>
           </cell>
           <cell r="J217">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="O217" t="str">
             <v/>
@@ -8367,10 +8653,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>LP_InstantKill_01</v>
+            <v>LP_CritDmgUpOnLowerHpBetter_01</v>
           </cell>
           <cell r="B218" t="str">
-            <v>LP_InstantKill</v>
+            <v>LP_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="C218" t="str">
             <v/>
@@ -8379,13 +8665,13 @@
             <v>1</v>
           </cell>
           <cell r="E218" t="str">
-            <v>InstantDeath</v>
+            <v>AddCriticalDamageByTargetHp</v>
           </cell>
           <cell r="I218">
             <v>-1</v>
           </cell>
           <cell r="J218">
-            <v>7.4999999999999997E-2</v>
+            <v>1</v>
           </cell>
           <cell r="O218" t="str">
             <v/>
@@ -8396,7 +8682,7 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>LP_InstantKill_02</v>
+            <v>LP_InstantKill_01</v>
           </cell>
           <cell r="B219" t="str">
             <v>LP_InstantKill</v>
@@ -8405,7 +8691,7 @@
             <v/>
           </cell>
           <cell r="D219">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E219" t="str">
             <v>InstantDeath</v>
@@ -8414,7 +8700,7 @@
             <v>-1</v>
           </cell>
           <cell r="J219">
-            <v>0.15</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
           <cell r="O219" t="str">
             <v/>
@@ -8425,7 +8711,7 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>LP_InstantKill_03</v>
+            <v>LP_InstantKill_02</v>
           </cell>
           <cell r="B220" t="str">
             <v>LP_InstantKill</v>
@@ -8434,7 +8720,7 @@
             <v/>
           </cell>
           <cell r="D220">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E220" t="str">
             <v>InstantDeath</v>
@@ -8443,7 +8729,7 @@
             <v>-1</v>
           </cell>
           <cell r="J220">
-            <v>0.22500000000000001</v>
+            <v>0.15</v>
           </cell>
           <cell r="O220" t="str">
             <v/>
@@ -8454,7 +8740,7 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>LP_InstantKill_04</v>
+            <v>LP_InstantKill_03</v>
           </cell>
           <cell r="B221" t="str">
             <v>LP_InstantKill</v>
@@ -8463,7 +8749,7 @@
             <v/>
           </cell>
           <cell r="D221">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E221" t="str">
             <v>InstantDeath</v>
@@ -8472,7 +8758,7 @@
             <v>-1</v>
           </cell>
           <cell r="J221">
-            <v>0.3</v>
+            <v>0.22500000000000001</v>
           </cell>
           <cell r="O221" t="str">
             <v/>
@@ -8483,7 +8769,7 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>LP_InstantKill_05</v>
+            <v>LP_InstantKill_04</v>
           </cell>
           <cell r="B222" t="str">
             <v>LP_InstantKill</v>
@@ -8492,7 +8778,7 @@
             <v/>
           </cell>
           <cell r="D222">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E222" t="str">
             <v>InstantDeath</v>
@@ -8501,7 +8787,7 @@
             <v>-1</v>
           </cell>
           <cell r="J222">
-            <v>0.375</v>
+            <v>0.3</v>
           </cell>
           <cell r="O222" t="str">
             <v/>
@@ -8512,7 +8798,7 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>LP_InstantKill_06</v>
+            <v>LP_InstantKill_05</v>
           </cell>
           <cell r="B223" t="str">
             <v>LP_InstantKill</v>
@@ -8521,7 +8807,7 @@
             <v/>
           </cell>
           <cell r="D223">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E223" t="str">
             <v>InstantDeath</v>
@@ -8530,7 +8816,7 @@
             <v>-1</v>
           </cell>
           <cell r="J223">
-            <v>0.45</v>
+            <v>0.375</v>
           </cell>
           <cell r="O223" t="str">
             <v/>
@@ -8541,7 +8827,7 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>LP_InstantKill_07</v>
+            <v>LP_InstantKill_06</v>
           </cell>
           <cell r="B224" t="str">
             <v>LP_InstantKill</v>
@@ -8550,7 +8836,7 @@
             <v/>
           </cell>
           <cell r="D224">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E224" t="str">
             <v>InstantDeath</v>
@@ -8559,7 +8845,7 @@
             <v>-1</v>
           </cell>
           <cell r="J224">
-            <v>0.52500000000000002</v>
+            <v>0.45</v>
           </cell>
           <cell r="O224" t="str">
             <v/>
@@ -8570,7 +8856,7 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>LP_InstantKill_08</v>
+            <v>LP_InstantKill_07</v>
           </cell>
           <cell r="B225" t="str">
             <v>LP_InstantKill</v>
@@ -8579,7 +8865,7 @@
             <v/>
           </cell>
           <cell r="D225">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E225" t="str">
             <v>InstantDeath</v>
@@ -8588,7 +8874,7 @@
             <v>-1</v>
           </cell>
           <cell r="J225">
-            <v>0.6</v>
+            <v>0.52500000000000002</v>
           </cell>
           <cell r="O225" t="str">
             <v/>
@@ -8599,7 +8885,7 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>LP_InstantKill_09</v>
+            <v>LP_InstantKill_08</v>
           </cell>
           <cell r="B226" t="str">
             <v>LP_InstantKill</v>
@@ -8608,7 +8894,7 @@
             <v/>
           </cell>
           <cell r="D226">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E226" t="str">
             <v>InstantDeath</v>
@@ -8617,7 +8903,7 @@
             <v>-1</v>
           </cell>
           <cell r="J226">
-            <v>0.67500000000000004</v>
+            <v>0.6</v>
           </cell>
           <cell r="O226" t="str">
             <v/>
@@ -8628,16 +8914,16 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>LP_InstantKillBetter_01</v>
+            <v>LP_InstantKill_09</v>
           </cell>
           <cell r="B227" t="str">
-            <v>LP_InstantKillBetter</v>
+            <v>LP_InstantKill</v>
           </cell>
           <cell r="C227" t="str">
             <v/>
           </cell>
           <cell r="D227">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E227" t="str">
             <v>InstantDeath</v>
@@ -8646,7 +8932,7 @@
             <v>-1</v>
           </cell>
           <cell r="J227">
-            <v>0.15</v>
+            <v>0.67500000000000004</v>
           </cell>
           <cell r="O227" t="str">
             <v/>
@@ -8657,7 +8943,7 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>LP_InstantKillBetter_02</v>
+            <v>LP_InstantKillBetter_01</v>
           </cell>
           <cell r="B228" t="str">
             <v>LP_InstantKillBetter</v>
@@ -8666,7 +8952,7 @@
             <v/>
           </cell>
           <cell r="D228">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E228" t="str">
             <v>InstantDeath</v>
@@ -8675,7 +8961,7 @@
             <v>-1</v>
           </cell>
           <cell r="J228">
-            <v>0.3</v>
+            <v>0.15</v>
           </cell>
           <cell r="O228" t="str">
             <v/>
@@ -8686,7 +8972,7 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>LP_InstantKillBetter_03</v>
+            <v>LP_InstantKillBetter_02</v>
           </cell>
           <cell r="B229" t="str">
             <v>LP_InstantKillBetter</v>
@@ -8695,7 +8981,7 @@
             <v/>
           </cell>
           <cell r="D229">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E229" t="str">
             <v>InstantDeath</v>
@@ -8704,7 +8990,7 @@
             <v>-1</v>
           </cell>
           <cell r="J229">
-            <v>0.45</v>
+            <v>0.3</v>
           </cell>
           <cell r="O229" t="str">
             <v/>
@@ -8715,7 +9001,7 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>LP_InstantKillBetter_04</v>
+            <v>LP_InstantKillBetter_03</v>
           </cell>
           <cell r="B230" t="str">
             <v>LP_InstantKillBetter</v>
@@ -8724,7 +9010,7 @@
             <v/>
           </cell>
           <cell r="D230">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E230" t="str">
             <v>InstantDeath</v>
@@ -8733,7 +9019,7 @@
             <v>-1</v>
           </cell>
           <cell r="J230">
-            <v>0.6</v>
+            <v>0.45</v>
           </cell>
           <cell r="O230" t="str">
             <v/>
@@ -8744,7 +9030,7 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>LP_InstantKillBetter_05</v>
+            <v>LP_InstantKillBetter_04</v>
           </cell>
           <cell r="B231" t="str">
             <v>LP_InstantKillBetter</v>
@@ -8753,7 +9039,7 @@
             <v/>
           </cell>
           <cell r="D231">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E231" t="str">
             <v>InstantDeath</v>
@@ -8762,7 +9048,7 @@
             <v>-1</v>
           </cell>
           <cell r="J231">
-            <v>0.75</v>
+            <v>0.6</v>
           </cell>
           <cell r="O231" t="str">
             <v/>
@@ -8773,25 +9059,25 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>LP_ImmortalWill_01</v>
+            <v>LP_InstantKillBetter_05</v>
           </cell>
           <cell r="B232" t="str">
-            <v>LP_ImmortalWill</v>
+            <v>LP_InstantKillBetter</v>
           </cell>
           <cell r="C232" t="str">
             <v/>
           </cell>
           <cell r="D232">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E232" t="str">
-            <v>ImmortalWill</v>
+            <v>InstantDeath</v>
           </cell>
           <cell r="I232">
             <v>-1</v>
           </cell>
           <cell r="J232">
-            <v>0.03</v>
+            <v>0.75</v>
           </cell>
           <cell r="O232" t="str">
             <v/>
@@ -8802,7 +9088,7 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>LP_ImmortalWill_02</v>
+            <v>LP_ImmortalWill_01</v>
           </cell>
           <cell r="B233" t="str">
             <v>LP_ImmortalWill</v>
@@ -8811,7 +9097,7 @@
             <v/>
           </cell>
           <cell r="D233">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E233" t="str">
             <v>ImmortalWill</v>
@@ -8820,7 +9106,7 @@
             <v>-1</v>
           </cell>
           <cell r="J233">
-            <v>0.06</v>
+            <v>0.03</v>
           </cell>
           <cell r="O233" t="str">
             <v/>
@@ -8831,7 +9117,7 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>LP_ImmortalWill_03</v>
+            <v>LP_ImmortalWill_02</v>
           </cell>
           <cell r="B234" t="str">
             <v>LP_ImmortalWill</v>
@@ -8840,7 +9126,7 @@
             <v/>
           </cell>
           <cell r="D234">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E234" t="str">
             <v>ImmortalWill</v>
@@ -8849,7 +9135,7 @@
             <v>-1</v>
           </cell>
           <cell r="J234">
-            <v>0.09</v>
+            <v>0.06</v>
           </cell>
           <cell r="O234" t="str">
             <v/>
@@ -8860,7 +9146,7 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>LP_ImmortalWill_04</v>
+            <v>LP_ImmortalWill_03</v>
           </cell>
           <cell r="B235" t="str">
             <v>LP_ImmortalWill</v>
@@ -8869,7 +9155,7 @@
             <v/>
           </cell>
           <cell r="D235">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E235" t="str">
             <v>ImmortalWill</v>
@@ -8878,7 +9164,7 @@
             <v>-1</v>
           </cell>
           <cell r="J235">
-            <v>0.12</v>
+            <v>0.09</v>
           </cell>
           <cell r="O235" t="str">
             <v/>
@@ -8889,7 +9175,7 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>LP_ImmortalWill_05</v>
+            <v>LP_ImmortalWill_04</v>
           </cell>
           <cell r="B236" t="str">
             <v>LP_ImmortalWill</v>
@@ -8898,7 +9184,7 @@
             <v/>
           </cell>
           <cell r="D236">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E236" t="str">
             <v>ImmortalWill</v>
@@ -8907,7 +9193,7 @@
             <v>-1</v>
           </cell>
           <cell r="J236">
-            <v>0.15</v>
+            <v>0.12</v>
           </cell>
           <cell r="O236" t="str">
             <v/>
@@ -8918,7 +9204,7 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>LP_ImmortalWill_06</v>
+            <v>LP_ImmortalWill_05</v>
           </cell>
           <cell r="B237" t="str">
             <v>LP_ImmortalWill</v>
@@ -8927,7 +9213,7 @@
             <v/>
           </cell>
           <cell r="D237">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E237" t="str">
             <v>ImmortalWill</v>
@@ -8936,7 +9222,7 @@
             <v>-1</v>
           </cell>
           <cell r="J237">
-            <v>0.18</v>
+            <v>0.15</v>
           </cell>
           <cell r="O237" t="str">
             <v/>
@@ -8947,7 +9233,7 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>LP_ImmortalWill_07</v>
+            <v>LP_ImmortalWill_06</v>
           </cell>
           <cell r="B238" t="str">
             <v>LP_ImmortalWill</v>
@@ -8956,7 +9242,7 @@
             <v/>
           </cell>
           <cell r="D238">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="E238" t="str">
             <v>ImmortalWill</v>
@@ -8965,7 +9251,7 @@
             <v>-1</v>
           </cell>
           <cell r="J238">
-            <v>0.21</v>
+            <v>0.18</v>
           </cell>
           <cell r="O238" t="str">
             <v/>
@@ -8976,7 +9262,7 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>LP_ImmortalWill_08</v>
+            <v>LP_ImmortalWill_07</v>
           </cell>
           <cell r="B239" t="str">
             <v>LP_ImmortalWill</v>
@@ -8985,7 +9271,7 @@
             <v/>
           </cell>
           <cell r="D239">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="E239" t="str">
             <v>ImmortalWill</v>
@@ -8994,7 +9280,7 @@
             <v>-1</v>
           </cell>
           <cell r="J239">
-            <v>0.24</v>
+            <v>0.21</v>
           </cell>
           <cell r="O239" t="str">
             <v/>
@@ -9005,7 +9291,7 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>LP_ImmortalWill_09</v>
+            <v>LP_ImmortalWill_08</v>
           </cell>
           <cell r="B240" t="str">
             <v>LP_ImmortalWill</v>
@@ -9014,7 +9300,7 @@
             <v/>
           </cell>
           <cell r="D240">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="E240" t="str">
             <v>ImmortalWill</v>
@@ -9023,7 +9309,7 @@
             <v>-1</v>
           </cell>
           <cell r="J240">
-            <v>0.27</v>
+            <v>0.24</v>
           </cell>
           <cell r="O240" t="str">
             <v/>
@@ -9034,16 +9320,16 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>LP_ImmortalWillBetter_01</v>
+            <v>LP_ImmortalWill_09</v>
           </cell>
           <cell r="B241" t="str">
-            <v>LP_ImmortalWillBetter</v>
+            <v>LP_ImmortalWill</v>
           </cell>
           <cell r="C241" t="str">
             <v/>
           </cell>
           <cell r="D241">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E241" t="str">
             <v>ImmortalWill</v>
@@ -9052,7 +9338,7 @@
             <v>-1</v>
           </cell>
           <cell r="J241">
-            <v>0.06</v>
+            <v>0.27</v>
           </cell>
           <cell r="O241" t="str">
             <v/>
@@ -9063,7 +9349,7 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>LP_ImmortalWillBetter_02</v>
+            <v>LP_ImmortalWillBetter_01</v>
           </cell>
           <cell r="B242" t="str">
             <v>LP_ImmortalWillBetter</v>
@@ -9072,7 +9358,7 @@
             <v/>
           </cell>
           <cell r="D242">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E242" t="str">
             <v>ImmortalWill</v>
@@ -9081,7 +9367,7 @@
             <v>-1</v>
           </cell>
           <cell r="J242">
-            <v>0.12</v>
+            <v>0.06</v>
           </cell>
           <cell r="O242" t="str">
             <v/>
@@ -9092,7 +9378,7 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>LP_ImmortalWillBetter_03</v>
+            <v>LP_ImmortalWillBetter_02</v>
           </cell>
           <cell r="B243" t="str">
             <v>LP_ImmortalWillBetter</v>
@@ -9101,7 +9387,7 @@
             <v/>
           </cell>
           <cell r="D243">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E243" t="str">
             <v>ImmortalWill</v>
@@ -9110,7 +9396,7 @@
             <v>-1</v>
           </cell>
           <cell r="J243">
-            <v>0.18</v>
+            <v>0.12</v>
           </cell>
           <cell r="O243" t="str">
             <v/>
@@ -9121,7 +9407,7 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>LP_ImmortalWillBetter_04</v>
+            <v>LP_ImmortalWillBetter_03</v>
           </cell>
           <cell r="B244" t="str">
             <v>LP_ImmortalWillBetter</v>
@@ -9130,7 +9416,7 @@
             <v/>
           </cell>
           <cell r="D244">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E244" t="str">
             <v>ImmortalWill</v>
@@ -9139,7 +9425,7 @@
             <v>-1</v>
           </cell>
           <cell r="J244">
-            <v>0.24</v>
+            <v>0.18</v>
           </cell>
           <cell r="O244" t="str">
             <v/>
@@ -9150,7 +9436,7 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>LP_ImmortalWillBetter_05</v>
+            <v>LP_ImmortalWillBetter_04</v>
           </cell>
           <cell r="B245" t="str">
             <v>LP_ImmortalWillBetter</v>
@@ -9159,7 +9445,7 @@
             <v/>
           </cell>
           <cell r="D245">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E245" t="str">
             <v>ImmortalWill</v>
@@ -9168,7 +9454,7 @@
             <v>-1</v>
           </cell>
           <cell r="J245">
-            <v>0.3</v>
+            <v>0.24</v>
           </cell>
           <cell r="O245" t="str">
             <v/>
@@ -9179,39 +9465,36 @@
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_01</v>
+            <v>LP_ImmortalWillBetter_05</v>
           </cell>
           <cell r="B246" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_ImmortalWillBetter</v>
           </cell>
           <cell r="C246" t="str">
             <v/>
           </cell>
           <cell r="D246">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E246" t="str">
-            <v>CallAffectorValue</v>
+            <v>ImmortalWill</v>
           </cell>
           <cell r="I246">
             <v>-1</v>
           </cell>
+          <cell r="J246">
+            <v>0.3</v>
+          </cell>
           <cell r="O246" t="str">
             <v/>
           </cell>
-          <cell r="Q246" t="str">
-            <v>OnDamage</v>
-          </cell>
-          <cell r="S246">
-            <v>4</v>
-          </cell>
-          <cell r="U246" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+          <cell r="S246" t="str">
+            <v/>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_01</v>
           </cell>
           <cell r="B247" t="str">
             <v>LP_MoveSpeedUpOnAttacked</v>
@@ -9220,7 +9503,7 @@
             <v/>
           </cell>
           <cell r="D247">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E247" t="str">
             <v>CallAffectorValue</v>
@@ -9243,7 +9526,7 @@
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_02</v>
           </cell>
           <cell r="B248" t="str">
             <v>LP_MoveSpeedUpOnAttacked</v>
@@ -9252,7 +9535,7 @@
             <v/>
           </cell>
           <cell r="D248">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E248" t="str">
             <v>CallAffectorValue</v>
@@ -9275,7 +9558,7 @@
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_04</v>
+            <v>LP_MoveSpeedUpOnAttacked_03</v>
           </cell>
           <cell r="B249" t="str">
             <v>LP_MoveSpeedUpOnAttacked</v>
@@ -9284,7 +9567,7 @@
             <v/>
           </cell>
           <cell r="D249">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E249" t="str">
             <v>CallAffectorValue</v>
@@ -9307,7 +9590,7 @@
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_05</v>
+            <v>LP_MoveSpeedUpOnAttacked_04</v>
           </cell>
           <cell r="B250" t="str">
             <v>LP_MoveSpeedUpOnAttacked</v>
@@ -9316,7 +9599,7 @@
             <v/>
           </cell>
           <cell r="D250">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E250" t="str">
             <v>CallAffectorValue</v>
@@ -9339,7 +9622,7 @@
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_06</v>
+            <v>LP_MoveSpeedUpOnAttacked_05</v>
           </cell>
           <cell r="B251" t="str">
             <v>LP_MoveSpeedUpOnAttacked</v>
@@ -9348,7 +9631,7 @@
             <v/>
           </cell>
           <cell r="D251">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E251" t="str">
             <v>CallAffectorValue</v>
@@ -9371,39 +9654,39 @@
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
+            <v>LP_MoveSpeedUpOnAttacked_06</v>
           </cell>
           <cell r="B252" t="str">
+            <v>LP_MoveSpeedUpOnAttacked</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v/>
+          </cell>
+          <cell r="D252">
+            <v>6</v>
+          </cell>
+          <cell r="E252" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I252">
+            <v>-1</v>
+          </cell>
+          <cell r="O252" t="str">
+            <v/>
+          </cell>
+          <cell r="Q252" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S252">
+            <v>4</v>
+          </cell>
+          <cell r="U252" t="str">
             <v>LP_MoveSpeedUpOnAttacked_Move</v>
-          </cell>
-          <cell r="C252" t="str">
-            <v/>
-          </cell>
-          <cell r="D252">
-            <v>1</v>
-          </cell>
-          <cell r="E252" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I252">
-            <v>5</v>
-          </cell>
-          <cell r="J252">
-            <v>0.25</v>
-          </cell>
-          <cell r="M252" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O252">
-            <v>10</v>
-          </cell>
-          <cell r="S252" t="str">
-            <v/>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
           </cell>
           <cell r="B253" t="str">
             <v>LP_MoveSpeedUpOnAttacked_Move</v>
@@ -9412,16 +9695,16 @@
             <v/>
           </cell>
           <cell r="D253">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E253" t="str">
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I253">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="J253">
-            <v>0.3</v>
+            <v>0.25</v>
           </cell>
           <cell r="M253" t="str">
             <v>MoveSpeedAddRate</v>
@@ -9429,13 +9712,19 @@
           <cell r="O253">
             <v>10</v>
           </cell>
-          <cell r="S253" t="str">
-            <v/>
+          <cell r="R253">
+            <v>1</v>
+          </cell>
+          <cell r="S253">
+            <v>1</v>
+          </cell>
+          <cell r="W253" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
           </cell>
           <cell r="B254" t="str">
             <v>LP_MoveSpeedUpOnAttacked_Move</v>
@@ -9444,16 +9733,16 @@
             <v/>
           </cell>
           <cell r="D254">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E254" t="str">
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I254">
-            <v>9</v>
+            <v>7</v>
           </cell>
           <cell r="J254">
-            <v>0.35</v>
+            <v>0.3</v>
           </cell>
           <cell r="M254" t="str">
             <v>MoveSpeedAddRate</v>
@@ -9461,13 +9750,19 @@
           <cell r="O254">
             <v>10</v>
           </cell>
-          <cell r="S254" t="str">
-            <v/>
+          <cell r="R254">
+            <v>1</v>
+          </cell>
+          <cell r="S254">
+            <v>1</v>
+          </cell>
+          <cell r="W254" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
           </cell>
           <cell r="B255" t="str">
             <v>LP_MoveSpeedUpOnAttacked_Move</v>
@@ -9476,16 +9771,16 @@
             <v/>
           </cell>
           <cell r="D255">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E255" t="str">
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I255">
-            <v>11</v>
+            <v>9</v>
           </cell>
           <cell r="J255">
-            <v>0.4</v>
+            <v>0.35</v>
           </cell>
           <cell r="M255" t="str">
             <v>MoveSpeedAddRate</v>
@@ -9493,13 +9788,19 @@
           <cell r="O255">
             <v>10</v>
           </cell>
-          <cell r="S255" t="str">
-            <v/>
+          <cell r="R255">
+            <v>1</v>
+          </cell>
+          <cell r="S255">
+            <v>1</v>
+          </cell>
+          <cell r="W255" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
           </cell>
           <cell r="B256" t="str">
             <v>LP_MoveSpeedUpOnAttacked_Move</v>
@@ -9508,16 +9809,16 @@
             <v/>
           </cell>
           <cell r="D256">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E256" t="str">
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I256">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="J256">
-            <v>0.45</v>
+            <v>0.4</v>
           </cell>
           <cell r="M256" t="str">
             <v>MoveSpeedAddRate</v>
@@ -9525,13 +9826,19 @@
           <cell r="O256">
             <v>10</v>
           </cell>
-          <cell r="S256" t="str">
-            <v/>
+          <cell r="R256">
+            <v>1</v>
+          </cell>
+          <cell r="S256">
+            <v>1</v>
+          </cell>
+          <cell r="W256" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
           </cell>
           <cell r="B257" t="str">
             <v>LP_MoveSpeedUpOnAttacked_Move</v>
@@ -9540,16 +9847,16 @@
             <v/>
           </cell>
           <cell r="D257">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="E257" t="str">
             <v>ChangeActorStatus</v>
           </cell>
           <cell r="I257">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="J257">
-            <v>0.5</v>
+            <v>0.45</v>
           </cell>
           <cell r="M257" t="str">
             <v>MoveSpeedAddRate</v>
@@ -9557,42 +9864,57 @@
           <cell r="O257">
             <v>10</v>
           </cell>
-          <cell r="S257" t="str">
-            <v/>
+          <cell r="R257">
+            <v>1</v>
+          </cell>
+          <cell r="S257">
+            <v>1</v>
+          </cell>
+          <cell r="W257" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>LP_SlowHitObject_01</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
           </cell>
           <cell r="B258" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C258" t="str">
             <v/>
           </cell>
           <cell r="D258">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E258" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I258">
-            <v>-1</v>
+            <v>15</v>
           </cell>
           <cell r="J258">
-            <v>0.1</v>
-          </cell>
-          <cell r="O258" t="str">
-            <v/>
-          </cell>
-          <cell r="S258" t="str">
-            <v/>
+            <v>0.5</v>
+          </cell>
+          <cell r="M258" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O258">
+            <v>10</v>
+          </cell>
+          <cell r="R258">
+            <v>1</v>
+          </cell>
+          <cell r="S258">
+            <v>1</v>
+          </cell>
+          <cell r="W258" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>LP_SlowHitObject_02</v>
+            <v>LP_SlowHitObject_01</v>
           </cell>
           <cell r="B259" t="str">
             <v>LP_SlowHitObject</v>
@@ -9601,7 +9923,7 @@
             <v/>
           </cell>
           <cell r="D259">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E259" t="str">
             <v>SlowHitObjectSpeed</v>
@@ -9610,7 +9932,7 @@
             <v>-1</v>
           </cell>
           <cell r="J259">
-            <v>0.15</v>
+            <v>0.1</v>
           </cell>
           <cell r="O259" t="str">
             <v/>
@@ -9621,7 +9943,7 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>LP_SlowHitObject_03</v>
+            <v>LP_SlowHitObject_02</v>
           </cell>
           <cell r="B260" t="str">
             <v>LP_SlowHitObject</v>
@@ -9630,7 +9952,7 @@
             <v/>
           </cell>
           <cell r="D260">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E260" t="str">
             <v>SlowHitObjectSpeed</v>
@@ -9639,7 +9961,7 @@
             <v>-1</v>
           </cell>
           <cell r="J260">
-            <v>0.2</v>
+            <v>0.15</v>
           </cell>
           <cell r="O260" t="str">
             <v/>
@@ -9650,7 +9972,7 @@
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>LP_SlowHitObject_04</v>
+            <v>LP_SlowHitObject_03</v>
           </cell>
           <cell r="B261" t="str">
             <v>LP_SlowHitObject</v>
@@ -9659,7 +9981,7 @@
             <v/>
           </cell>
           <cell r="D261">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E261" t="str">
             <v>SlowHitObjectSpeed</v>
@@ -9668,7 +9990,7 @@
             <v>-1</v>
           </cell>
           <cell r="J261">
-            <v>0.25</v>
+            <v>0.2</v>
           </cell>
           <cell r="O261" t="str">
             <v/>
@@ -9679,7 +10001,7 @@
         </row>
         <row r="262">
           <cell r="A262" t="str">
-            <v>LP_SlowHitObject_05</v>
+            <v>LP_SlowHitObject_04</v>
           </cell>
           <cell r="B262" t="str">
             <v>LP_SlowHitObject</v>
@@ -9688,7 +10010,7 @@
             <v/>
           </cell>
           <cell r="D262">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E262" t="str">
             <v>SlowHitObjectSpeed</v>
@@ -9697,7 +10019,7 @@
             <v>-1</v>
           </cell>
           <cell r="J262">
-            <v>0.3</v>
+            <v>0.25</v>
           </cell>
           <cell r="O262" t="str">
             <v/>
@@ -9708,45 +10030,36 @@
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>LP_Paralyze_01</v>
+            <v>LP_SlowHitObject_05</v>
           </cell>
           <cell r="B263" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C263" t="str">
             <v/>
           </cell>
           <cell r="D263">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E263" t="str">
-            <v>CertainHpHitObject</v>
+            <v>SlowHitObjectSpeed</v>
+          </cell>
+          <cell r="I263">
+            <v>-1</v>
           </cell>
           <cell r="J263">
-            <v>0.2</v>
+            <v>0.3</v>
           </cell>
           <cell r="O263" t="str">
             <v/>
           </cell>
-          <cell r="P263">
-            <v>1</v>
-          </cell>
           <cell r="S263" t="str">
             <v/>
-          </cell>
-          <cell r="U263" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V263" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W263" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>LP_Paralyze_02</v>
+            <v>LP_Paralyze_01</v>
           </cell>
           <cell r="B264" t="str">
             <v>LP_Paralyze</v>
@@ -9755,13 +10068,13 @@
             <v/>
           </cell>
           <cell r="D264">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E264" t="str">
             <v>CertainHpHitObject</v>
           </cell>
           <cell r="J264">
-            <v>0.25</v>
+            <v>0.2</v>
           </cell>
           <cell r="O264" t="str">
             <v/>
@@ -9784,7 +10097,7 @@
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>LP_Paralyze_03</v>
+            <v>LP_Paralyze_02</v>
           </cell>
           <cell r="B265" t="str">
             <v>LP_Paralyze</v>
@@ -9793,13 +10106,13 @@
             <v/>
           </cell>
           <cell r="D265">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E265" t="str">
             <v>CertainHpHitObject</v>
           </cell>
           <cell r="J265">
-            <v>0.3</v>
+            <v>0.25</v>
           </cell>
           <cell r="O265" t="str">
             <v/>
@@ -9822,7 +10135,7 @@
         </row>
         <row r="266">
           <cell r="A266" t="str">
-            <v>LP_Paralyze_04</v>
+            <v>LP_Paralyze_03</v>
           </cell>
           <cell r="B266" t="str">
             <v>LP_Paralyze</v>
@@ -9831,13 +10144,13 @@
             <v/>
           </cell>
           <cell r="D266">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E266" t="str">
             <v>CertainHpHitObject</v>
           </cell>
           <cell r="J266">
-            <v>0.35</v>
+            <v>0.3</v>
           </cell>
           <cell r="O266" t="str">
             <v/>
@@ -9860,7 +10173,7 @@
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>LP_Paralyze_05</v>
+            <v>LP_Paralyze_04</v>
           </cell>
           <cell r="B267" t="str">
             <v>LP_Paralyze</v>
@@ -9869,13 +10182,13 @@
             <v/>
           </cell>
           <cell r="D267">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E267" t="str">
             <v>CertainHpHitObject</v>
           </cell>
           <cell r="J267">
-            <v>0.4</v>
+            <v>0.35</v>
           </cell>
           <cell r="O267" t="str">
             <v/>
@@ -9898,33 +10211,45 @@
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>LP_Paralyze_CannotAction_01</v>
+            <v>LP_Paralyze_05</v>
           </cell>
           <cell r="B268" t="str">
+            <v>LP_Paralyze</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v/>
+          </cell>
+          <cell r="D268">
+            <v>5</v>
+          </cell>
+          <cell r="E268" t="str">
+            <v>CertainHpHitObject</v>
+          </cell>
+          <cell r="J268">
+            <v>0.4</v>
+          </cell>
+          <cell r="O268" t="str">
+            <v/>
+          </cell>
+          <cell r="P268">
+            <v>1</v>
+          </cell>
+          <cell r="S268" t="str">
+            <v/>
+          </cell>
+          <cell r="U268" t="str">
             <v>LP_Paralyze_CannotAction</v>
           </cell>
-          <cell r="C268" t="str">
-            <v/>
-          </cell>
-          <cell r="D268">
-            <v>1</v>
-          </cell>
-          <cell r="E268" t="str">
-            <v>CannotAction</v>
-          </cell>
-          <cell r="I268">
-            <v>1.5</v>
-          </cell>
-          <cell r="O268" t="str">
-            <v/>
-          </cell>
-          <cell r="S268" t="str">
-            <v/>
+          <cell r="V268" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W268" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>LP_Paralyze_CannotAction_02</v>
+            <v>LP_Paralyze_CannotAction_01</v>
           </cell>
           <cell r="B269" t="str">
             <v>LP_Paralyze_CannotAction</v>
@@ -9933,13 +10258,13 @@
             <v/>
           </cell>
           <cell r="D269">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E269" t="str">
             <v>CannotAction</v>
           </cell>
           <cell r="I269">
-            <v>1.8</v>
+            <v>1.5</v>
           </cell>
           <cell r="O269" t="str">
             <v/>
@@ -9950,7 +10275,7 @@
         </row>
         <row r="270">
           <cell r="A270" t="str">
-            <v>LP_Paralyze_CannotAction_03</v>
+            <v>LP_Paralyze_CannotAction_02</v>
           </cell>
           <cell r="B270" t="str">
             <v>LP_Paralyze_CannotAction</v>
@@ -9959,13 +10284,13 @@
             <v/>
           </cell>
           <cell r="D270">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E270" t="str">
             <v>CannotAction</v>
           </cell>
           <cell r="I270">
-            <v>2.1</v>
+            <v>1.8</v>
           </cell>
           <cell r="O270" t="str">
             <v/>
@@ -9976,7 +10301,7 @@
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>LP_Paralyze_CannotAction_04</v>
+            <v>LP_Paralyze_CannotAction_03</v>
           </cell>
           <cell r="B271" t="str">
             <v>LP_Paralyze_CannotAction</v>
@@ -9985,13 +10310,13 @@
             <v/>
           </cell>
           <cell r="D271">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E271" t="str">
             <v>CannotAction</v>
           </cell>
           <cell r="I271">
-            <v>2.4</v>
+            <v>2.1</v>
           </cell>
           <cell r="O271" t="str">
             <v/>
@@ -10002,7 +10327,7 @@
         </row>
         <row r="272">
           <cell r="A272" t="str">
-            <v>LP_Paralyze_CannotAction_05</v>
+            <v>LP_Paralyze_CannotAction_04</v>
           </cell>
           <cell r="B272" t="str">
             <v>LP_Paralyze_CannotAction</v>
@@ -10011,13 +10336,13 @@
             <v/>
           </cell>
           <cell r="D272">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E272" t="str">
             <v>CannotAction</v>
           </cell>
           <cell r="I272">
-            <v>2.7</v>
+            <v>2.4</v>
           </cell>
           <cell r="O272" t="str">
             <v/>
@@ -10028,39 +10353,33 @@
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>LP_Hold_01</v>
+            <v>LP_Paralyze_CannotAction_05</v>
           </cell>
           <cell r="B273" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
           </cell>
           <cell r="D273">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E273" t="str">
-            <v>AttackWeightHitObject</v>
-          </cell>
-          <cell r="J273">
-            <v>0.1</v>
+            <v>CannotAction</v>
+          </cell>
+          <cell r="I273">
+            <v>2.7</v>
           </cell>
           <cell r="O273" t="str">
             <v/>
           </cell>
-          <cell r="P273">
-            <v>1</v>
-          </cell>
           <cell r="S273" t="str">
             <v/>
-          </cell>
-          <cell r="U273" t="str">
-            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274" t="str">
-            <v>LP_Hold_02</v>
+            <v>LP_Hold_01</v>
           </cell>
           <cell r="B274" t="str">
             <v>LP_Hold</v>
@@ -10069,13 +10388,13 @@
             <v/>
           </cell>
           <cell r="D274">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E274" t="str">
             <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J274">
-            <v>0.11</v>
+            <v>0.1</v>
           </cell>
           <cell r="O274" t="str">
             <v/>
@@ -10092,7 +10411,7 @@
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>LP_Hold_03</v>
+            <v>LP_Hold_02</v>
           </cell>
           <cell r="B275" t="str">
             <v>LP_Hold</v>
@@ -10101,13 +10420,13 @@
             <v/>
           </cell>
           <cell r="D275">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E275" t="str">
             <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J275">
-            <v>0.12</v>
+            <v>0.11</v>
           </cell>
           <cell r="O275" t="str">
             <v/>
@@ -10124,7 +10443,7 @@
         </row>
         <row r="276">
           <cell r="A276" t="str">
-            <v>LP_Hold_04</v>
+            <v>LP_Hold_03</v>
           </cell>
           <cell r="B276" t="str">
             <v>LP_Hold</v>
@@ -10133,13 +10452,13 @@
             <v/>
           </cell>
           <cell r="D276">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E276" t="str">
             <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J276">
-            <v>0.13</v>
+            <v>0.12</v>
           </cell>
           <cell r="O276" t="str">
             <v/>
@@ -10156,7 +10475,7 @@
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>LP_Hold_05</v>
+            <v>LP_Hold_04</v>
           </cell>
           <cell r="B277" t="str">
             <v>LP_Hold</v>
@@ -10165,13 +10484,13 @@
             <v/>
           </cell>
           <cell r="D277">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E277" t="str">
             <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J277">
-            <v>0.14000000000000001</v>
+            <v>0.13</v>
           </cell>
           <cell r="O277" t="str">
             <v/>
@@ -10188,33 +10507,39 @@
         </row>
         <row r="278">
           <cell r="A278" t="str">
-            <v>LP_Hold_CannotMove_01</v>
+            <v>LP_Hold_05</v>
           </cell>
           <cell r="B278" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v/>
+          </cell>
+          <cell r="D278">
+            <v>5</v>
+          </cell>
+          <cell r="E278" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J278">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="O278" t="str">
+            <v/>
+          </cell>
+          <cell r="P278">
+            <v>1</v>
+          </cell>
+          <cell r="S278" t="str">
+            <v/>
+          </cell>
+          <cell r="U278" t="str">
             <v>LP_Hold_CannotMove</v>
-          </cell>
-          <cell r="C278" t="str">
-            <v/>
-          </cell>
-          <cell r="D278">
-            <v>1</v>
-          </cell>
-          <cell r="E278" t="str">
-            <v>CannotMove</v>
-          </cell>
-          <cell r="I278">
-            <v>3</v>
-          </cell>
-          <cell r="O278" t="str">
-            <v/>
-          </cell>
-          <cell r="S278" t="str">
-            <v/>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>LP_Hold_CannotMove_02</v>
+            <v>LP_Hold_CannotMove_01</v>
           </cell>
           <cell r="B279" t="str">
             <v>LP_Hold_CannotMove</v>
@@ -10223,24 +10548,27 @@
             <v/>
           </cell>
           <cell r="D279">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E279" t="str">
             <v>CannotMove</v>
           </cell>
           <cell r="I279">
-            <v>3.5</v>
+            <v>3</v>
           </cell>
           <cell r="O279" t="str">
             <v/>
           </cell>
           <cell r="S279" t="str">
             <v/>
+          </cell>
+          <cell r="V279" t="str">
+            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280" t="str">
-            <v>LP_Hold_CannotMove_03</v>
+            <v>LP_Hold_CannotMove_02</v>
           </cell>
           <cell r="B280" t="str">
             <v>LP_Hold_CannotMove</v>
@@ -10249,24 +10577,27 @@
             <v/>
           </cell>
           <cell r="D280">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E280" t="str">
             <v>CannotMove</v>
           </cell>
           <cell r="I280">
-            <v>4</v>
+            <v>3.5</v>
           </cell>
           <cell r="O280" t="str">
             <v/>
           </cell>
           <cell r="S280" t="str">
             <v/>
+          </cell>
+          <cell r="V280" t="str">
+            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>LP_Hold_CannotMove_04</v>
+            <v>LP_Hold_CannotMove_03</v>
           </cell>
           <cell r="B281" t="str">
             <v>LP_Hold_CannotMove</v>
@@ -10275,24 +10606,27 @@
             <v/>
           </cell>
           <cell r="D281">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E281" t="str">
             <v>CannotMove</v>
           </cell>
           <cell r="I281">
-            <v>4.5</v>
+            <v>4</v>
           </cell>
           <cell r="O281" t="str">
             <v/>
           </cell>
           <cell r="S281" t="str">
             <v/>
+          </cell>
+          <cell r="V281" t="str">
+            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282" t="str">
-            <v>LP_Hold_CannotMove_05</v>
+            <v>LP_Hold_CannotMove_04</v>
           </cell>
           <cell r="B282" t="str">
             <v>LP_Hold_CannotMove</v>
@@ -10301,25 +10635,422 @@
             <v/>
           </cell>
           <cell r="D282">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E282" t="str">
             <v>CannotMove</v>
           </cell>
           <cell r="I282">
+            <v>4.5</v>
+          </cell>
+          <cell r="O282" t="str">
+            <v/>
+          </cell>
+          <cell r="S282" t="str">
+            <v/>
+          </cell>
+          <cell r="V282" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283" t="str">
+            <v>LP_Hold_CannotMove_05</v>
+          </cell>
+          <cell r="B283" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v/>
+          </cell>
+          <cell r="D283">
             <v>5</v>
           </cell>
-          <cell r="O282" t="str">
-            <v/>
-          </cell>
-          <cell r="S282" t="str">
-            <v/>
+          <cell r="E283" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I283">
+            <v>5</v>
+          </cell>
+          <cell r="O283" t="str">
+            <v/>
+          </cell>
+          <cell r="S283" t="str">
+            <v/>
+          </cell>
+          <cell r="V283" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284" t="str">
+            <v>LP_Transport_01</v>
+          </cell>
+          <cell r="B284" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v/>
+          </cell>
+          <cell r="D284">
+            <v>1</v>
+          </cell>
+          <cell r="E284" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J284">
+            <v>0.15</v>
+          </cell>
+          <cell r="K284">
+            <v>0.7</v>
+          </cell>
+          <cell r="L284">
+            <v>0.2</v>
+          </cell>
+          <cell r="N284">
+            <v>1</v>
+          </cell>
+          <cell r="O284">
+            <v>1</v>
+          </cell>
+          <cell r="P284">
+            <v>1</v>
+          </cell>
+          <cell r="S284" t="str">
+            <v/>
+          </cell>
+          <cell r="U284" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285" t="str">
+            <v>LP_Transport_02</v>
+          </cell>
+          <cell r="B285" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v/>
+          </cell>
+          <cell r="D285">
+            <v>2</v>
+          </cell>
+          <cell r="E285" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J285">
+            <v>0.15</v>
+          </cell>
+          <cell r="K285">
+            <v>0.7</v>
+          </cell>
+          <cell r="L285">
+            <v>0.2</v>
+          </cell>
+          <cell r="N285">
+            <v>2</v>
+          </cell>
+          <cell r="O285">
+            <v>2</v>
+          </cell>
+          <cell r="P285">
+            <v>1</v>
+          </cell>
+          <cell r="S285" t="str">
+            <v/>
+          </cell>
+          <cell r="U285" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286" t="str">
+            <v>LP_Transport_03</v>
+          </cell>
+          <cell r="B286" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v/>
+          </cell>
+          <cell r="D286">
+            <v>3</v>
+          </cell>
+          <cell r="E286" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J286">
+            <v>0.15</v>
+          </cell>
+          <cell r="K286">
+            <v>0.7</v>
+          </cell>
+          <cell r="L286">
+            <v>0.2</v>
+          </cell>
+          <cell r="N286">
+            <v>3</v>
+          </cell>
+          <cell r="O286">
+            <v>3</v>
+          </cell>
+          <cell r="P286">
+            <v>1</v>
+          </cell>
+          <cell r="S286" t="str">
+            <v/>
+          </cell>
+          <cell r="U286" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287" t="str">
+            <v>LP_Transport_04</v>
+          </cell>
+          <cell r="B287" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v/>
+          </cell>
+          <cell r="D287">
+            <v>4</v>
+          </cell>
+          <cell r="E287" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J287">
+            <v>0.15</v>
+          </cell>
+          <cell r="K287">
+            <v>0.7</v>
+          </cell>
+          <cell r="L287">
+            <v>0.2</v>
+          </cell>
+          <cell r="N287">
+            <v>4</v>
+          </cell>
+          <cell r="O287">
+            <v>4</v>
+          </cell>
+          <cell r="P287">
+            <v>1</v>
+          </cell>
+          <cell r="S287" t="str">
+            <v/>
+          </cell>
+          <cell r="U287" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288" t="str">
+            <v>LP_Transport_05</v>
+          </cell>
+          <cell r="B288" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v/>
+          </cell>
+          <cell r="D288">
+            <v>5</v>
+          </cell>
+          <cell r="E288" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J288">
+            <v>0.15</v>
+          </cell>
+          <cell r="K288">
+            <v>0.7</v>
+          </cell>
+          <cell r="L288">
+            <v>0.2</v>
+          </cell>
+          <cell r="N288">
+            <v>5</v>
+          </cell>
+          <cell r="O288">
+            <v>5</v>
+          </cell>
+          <cell r="P288">
+            <v>1</v>
+          </cell>
+          <cell r="S288" t="str">
+            <v/>
+          </cell>
+          <cell r="U288" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289" t="str">
+            <v>LP_Transport_Teleported_01</v>
+          </cell>
+          <cell r="B289" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C289" t="str">
+            <v/>
+          </cell>
+          <cell r="D289">
+            <v>1</v>
+          </cell>
+          <cell r="E289" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I289">
+            <v>10</v>
+          </cell>
+          <cell r="O289" t="str">
+            <v/>
+          </cell>
+          <cell r="S289" t="str">
+            <v/>
+          </cell>
+          <cell r="V289" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W289" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="A290" t="str">
+            <v>LP_Transport_Teleported_02</v>
+          </cell>
+          <cell r="B290" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C290" t="str">
+            <v/>
+          </cell>
+          <cell r="D290">
+            <v>2</v>
+          </cell>
+          <cell r="E290" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I290">
+            <v>10</v>
+          </cell>
+          <cell r="O290" t="str">
+            <v/>
+          </cell>
+          <cell r="S290" t="str">
+            <v/>
+          </cell>
+          <cell r="V290" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W290" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="A291" t="str">
+            <v>LP_Transport_Teleported_03</v>
+          </cell>
+          <cell r="B291" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C291" t="str">
+            <v/>
+          </cell>
+          <cell r="D291">
+            <v>3</v>
+          </cell>
+          <cell r="E291" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I291">
+            <v>10</v>
+          </cell>
+          <cell r="O291" t="str">
+            <v/>
+          </cell>
+          <cell r="S291" t="str">
+            <v/>
+          </cell>
+          <cell r="V291" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W291" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="A292" t="str">
+            <v>LP_Transport_Teleported_04</v>
+          </cell>
+          <cell r="B292" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C292" t="str">
+            <v/>
+          </cell>
+          <cell r="D292">
+            <v>4</v>
+          </cell>
+          <cell r="E292" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I292">
+            <v>10</v>
+          </cell>
+          <cell r="O292" t="str">
+            <v/>
+          </cell>
+          <cell r="S292" t="str">
+            <v/>
+          </cell>
+          <cell r="V292" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W292" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="A293" t="str">
+            <v>LP_Transport_Teleported_05</v>
+          </cell>
+          <cell r="B293" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v/>
+          </cell>
+          <cell r="D293">
+            <v>5</v>
+          </cell>
+          <cell r="E293" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I293">
+            <v>10</v>
+          </cell>
+          <cell r="O293" t="str">
+            <v/>
+          </cell>
+          <cell r="S293" t="str">
+            <v/>
+          </cell>
+          <cell r="V293" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W293" t="str">
+            <v>Effect6_Collision_D2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12373,10 +13104,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13457,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -13523,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -13589,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -13655,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -13721,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -13787,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -13853,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -13919,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -13985,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -14051,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
@@ -14117,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -14183,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -14249,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -14315,8 +15046,11 @@
       <c r="M29" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P29" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -14382,8 +15116,11 @@
       <c r="M30" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P30" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -14449,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -14515,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -14581,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>103</v>
       </c>
@@ -14647,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -14713,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
@@ -14780,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -14847,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -14914,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -14981,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -15048,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -15115,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -15182,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -15249,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -15315,8 +16052,11 @@
       <c r="M44" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P44" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -15383,8 +16123,11 @@
       <c r="M45" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P45" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>129</v>
       </c>
@@ -15450,8 +16193,11 @@
       <c r="M46" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P46" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -15518,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -15585,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -15651,8 +16397,11 @@
       <c r="M49" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P49" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -15688,7 +16437,7 @@
   IF(OR(ISERROR(VLOOKUP(LEFT(F50,FIND(",",F50)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50)+1,FIND(",",F50,FIND(",",F50)+1)-FIND(",",F50)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50,FIND(",",F50)+1)+1,FIND(",",F50,FIND(",",F50,FIND(",",F50)+1)+1)-FIND(",",F50,FIND(",",F50)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F50,FIND(",",F50,FIND(",",F50,FIND(",",F50)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
-        <v>어펙터밸류없음</v>
+        <v/>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="10"/>
@@ -15718,8 +16467,11 @@
       <c r="M50" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P50" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -15784,6 +16536,9 @@
       </c>
       <c r="M51" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818FE630-D886-48CE-BCD3-A475B0004CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADBE7D-BBA3-4654-AA1B-FB737ACC27A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
@@ -818,19 +818,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_AMFX03_Shockwave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16_D, WavesExplosion_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effect6_Collision_D, Effect6_Collision_D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aura_Light_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,6 +835,14 @@
   </si>
   <si>
     <t>Magic_shield_2_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealAreaHitObjectInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_AMFX03_shockwave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6211,7 +6211,7 @@
             <v>1</v>
           </cell>
           <cell r="W140" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="141">
@@ -6249,7 +6249,7 @@
             <v>1</v>
           </cell>
           <cell r="W141" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="142">
@@ -6287,7 +6287,7 @@
             <v>1</v>
           </cell>
           <cell r="W142" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="143">
@@ -6325,7 +6325,7 @@
             <v>1</v>
           </cell>
           <cell r="W143" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="144">
@@ -6363,7 +6363,7 @@
             <v>1</v>
           </cell>
           <cell r="W144" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="145">
@@ -6401,7 +6401,7 @@
             <v>1</v>
           </cell>
           <cell r="W145" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="146">
@@ -6439,7 +6439,7 @@
             <v>1</v>
           </cell>
           <cell r="W146" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="147">
@@ -6477,7 +6477,7 @@
             <v>1</v>
           </cell>
           <cell r="W147" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="148">
@@ -6515,7 +6515,7 @@
             <v>1</v>
           </cell>
           <cell r="W148" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="149">
@@ -6731,7 +6731,7 @@
             <v>1</v>
           </cell>
           <cell r="W154" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="155">
@@ -6769,7 +6769,7 @@
             <v>1</v>
           </cell>
           <cell r="W155" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="156">
@@ -6807,7 +6807,7 @@
             <v>1</v>
           </cell>
           <cell r="W156" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="157">
@@ -6845,7 +6845,7 @@
             <v>1</v>
           </cell>
           <cell r="W157" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="158">
@@ -6883,7 +6883,7 @@
             <v>1</v>
           </cell>
           <cell r="W158" t="str">
-            <v>Magic circle 11_D</v>
+            <v>Magic_circle_11_D</v>
           </cell>
         </row>
         <row r="159">
@@ -11406,54 +11406,54 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B31" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Choose a level-pack</v>
+            <v>The light of life flows from the source of power</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B32" t="str">
-            <v>공격력</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B33" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B34" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C34" t="str">
-            <v>In progress of translating…(34)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B35" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C35" t="str">
             <v>In progress of translating…(35)</v>
@@ -11461,10 +11461,10 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B36" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C36" t="str">
             <v>In progress of translating…(36)</v>
@@ -11472,10 +11472,10 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B37" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C37" t="str">
             <v>In progress of translating…(37)</v>
@@ -11483,10 +11483,10 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B38" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C38" t="str">
             <v>In progress of translating…(38)</v>
@@ -11494,10 +11494,10 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B39" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C39" t="str">
             <v>In progress of translating…(39)</v>
@@ -11505,10 +11505,10 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B40" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C40" t="str">
             <v>In progress of translating…(40)</v>
@@ -11516,10 +11516,10 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B41" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C41" t="str">
             <v>In progress of translating…(41)</v>
@@ -11527,10 +11527,10 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B42" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C42" t="str">
             <v>In progress of translating…(42)</v>
@@ -11538,10 +11538,10 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B43" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C43" t="str">
             <v>In progress of translating…(43)</v>
@@ -11549,10 +11549,10 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B44" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C44" t="str">
             <v>In progress of translating…(44)</v>
@@ -11560,10 +11560,10 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B45" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C45" t="str">
             <v>In progress of translating…(45)</v>
@@ -11571,10 +11571,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B46" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C46" t="str">
             <v>In progress of translating…(46)</v>
@@ -11582,10 +11582,10 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B47" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C47" t="str">
             <v>In progress of translating…(47)</v>
@@ -11593,10 +11593,10 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B48" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C48" t="str">
             <v>In progress of translating…(48)</v>
@@ -11604,10 +11604,10 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B49" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C49" t="str">
             <v>In progress of translating…(49)</v>
@@ -11615,10 +11615,10 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B50" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C50" t="str">
             <v>In progress of translating…(50)</v>
@@ -11626,10 +11626,10 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B51" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C51" t="str">
             <v>In progress of translating…(51)</v>
@@ -11637,10 +11637,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B52" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C52" t="str">
             <v>In progress of translating…(52)</v>
@@ -11648,10 +11648,10 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B53" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C53" t="str">
             <v>In progress of translating…(53)</v>
@@ -11659,10 +11659,10 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B54" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C54" t="str">
             <v>In progress of translating…(54)</v>
@@ -11670,10 +11670,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B55" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C55" t="str">
             <v>In progress of translating…(55)</v>
@@ -11681,10 +11681,10 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B56" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C56" t="str">
             <v>In progress of translating…(56)</v>
@@ -11692,10 +11692,10 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B57" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C57" t="str">
             <v>In progress of translating…(57)</v>
@@ -11703,10 +11703,10 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B58" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C58" t="str">
             <v>In progress of translating…(58)</v>
@@ -11714,45 +11714,45 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>In progress of translating…(59)</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B59" t="str">
+          <cell r="B60" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C59" t="str">
-            <v>In progress of translating…(59)</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
+          <cell r="C60" t="str">
+            <v>In progress of translating…(60)</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B60" t="str">
+          <cell r="B61" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C60" t="str">
-            <v>In progress of translating…(60)</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C61" t="str">
             <v>In progress of translating…(61)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B62" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C62" t="str">
             <v>In progress of translating…(62)</v>
@@ -11760,10 +11760,10 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B63" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C63" t="str">
             <v>In progress of translating…(63)</v>
@@ -11771,33 +11771,33 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>In progress of translating…(64)</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B64" t="str">
+          <cell r="B65" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C64" t="str">
-            <v>In progress of translating…(64)</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C65" t="str">
             <v>In progress of translating…(65)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B66" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C66" t="str">
             <v>In progress of translating…(66)</v>
@@ -11805,69 +11805,69 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>In progress of translating…(67)</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B67" t="str">
+          <cell r="B68" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C67" t="str">
-            <v>In progress of translating…(67)</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
+          <cell r="C68" t="str">
+            <v>In progress of translating…(68)</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B68" t="str">
+          <cell r="B69" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C68" t="str">
-            <v>In progress of translating…(68)</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
+          <cell r="C69" t="str">
+            <v>In progress of translating…(69)</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B69" t="str">
+          <cell r="B70" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C69" t="str">
-            <v>In progress of translating…(69)</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
+          <cell r="C70" t="str">
+            <v>In progress of translating…(70)</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B70" t="str">
+          <cell r="B71" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C70" t="str">
-            <v>In progress of translating…(70)</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C71" t="str">
             <v>In progress of translating…(71)</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B72" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C72" t="str">
             <v>In progress of translating…(72)</v>
@@ -11875,10 +11875,10 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B73" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C73" t="str">
             <v>In progress of translating…(73)</v>
@@ -11886,10 +11886,10 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B74" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C74" t="str">
             <v>In progress of translating…(74)</v>
@@ -11897,10 +11897,10 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B75" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C75" t="str">
             <v>In progress of translating…(75)</v>
@@ -11908,33 +11908,33 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>In progress of translating…(76)</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B76" t="str">
+          <cell r="B77" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C76" t="str">
-            <v>In progress of translating…(76)</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>LevelPackUIName_BombOrbOnMove</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C77" t="str">
             <v>In progress of translating…(77)</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_BombOrbOnMove</v>
           </cell>
           <cell r="B78" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C78" t="str">
             <v>In progress of translating…(78)</v>
@@ -11942,10 +11942,10 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B79" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C79" t="str">
             <v>In progress of translating…(79)</v>
@@ -11953,10 +11953,10 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B80" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C80" t="str">
             <v>In progress of translating…(80)</v>
@@ -11964,10 +11964,10 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B81" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C81" t="str">
             <v>In progress of translating…(81)</v>
@@ -11975,10 +11975,10 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B82" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C82" t="str">
             <v>In progress of translating…(82)</v>
@@ -11986,10 +11986,10 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B83" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C83" t="str">
             <v>In progress of translating…(83)</v>
@@ -11997,10 +11997,10 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B84" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C84" t="str">
             <v>In progress of translating…(84)</v>
@@ -12008,10 +12008,10 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B85" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C85" t="str">
             <v>In progress of translating…(85)</v>
@@ -12019,10 +12019,10 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B86" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C86" t="str">
             <v>In progress of translating…(86)</v>
@@ -12030,10 +12030,10 @@
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B87" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C87" t="str">
             <v>In progress of translating…(87)</v>
@@ -12041,10 +12041,10 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B88" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C88" t="str">
             <v>In progress of translating…(88)</v>
@@ -12052,10 +12052,10 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B89" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C89" t="str">
             <v>In progress of translating…(89)</v>
@@ -12063,10 +12063,10 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B90" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C90" t="str">
             <v>In progress of translating…(90)</v>
@@ -12074,10 +12074,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B91" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -12085,10 +12085,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B92" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -12096,10 +12096,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B93" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -12107,10 +12107,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B94" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -12118,10 +12118,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B95" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -12129,10 +12129,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B96" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -12140,10 +12140,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B97" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -12151,10 +12151,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B98" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -12162,10 +12162,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B99" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -12173,10 +12173,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B100" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -12184,10 +12184,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B101" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -12195,10 +12195,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B102" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -12206,10 +12206,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B103" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -12217,10 +12217,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B104" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -12228,10 +12228,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B105" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -12239,10 +12239,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B106" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -12250,10 +12250,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B107" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -12261,10 +12261,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B108" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -12272,10 +12272,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B109" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -12283,10 +12283,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B110" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -12294,10 +12294,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B111" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -12305,10 +12305,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B112" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -12316,10 +12316,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B113" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C113" t="str">
             <v>In progress of translating…(113)</v>
@@ -12327,10 +12327,10 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B114" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -12338,10 +12338,10 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B115" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -12349,10 +12349,10 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B116" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -12360,10 +12360,10 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B117" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
@@ -12371,10 +12371,10 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B118" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -12382,10 +12382,10 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B119" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -12393,10 +12393,10 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B120" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
@@ -12404,10 +12404,10 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B121" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
@@ -12415,10 +12415,10 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B122" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C122" t="str">
             <v>In progress of translating…(122)</v>
@@ -12426,10 +12426,10 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B123" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C123" t="str">
             <v>In progress of translating…(123)</v>
@@ -12437,10 +12437,10 @@
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B124" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C124" t="str">
             <v>In progress of translating…(124)</v>
@@ -12448,10 +12448,10 @@
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B125" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
@@ -12459,10 +12459,10 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B126" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -12470,10 +12470,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B127" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -12481,10 +12481,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIDesc_BombOrbOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B128" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -12492,10 +12492,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_BombOrbOnMove</v>
           </cell>
           <cell r="B129" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -12503,10 +12503,10 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B130" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -12514,10 +12514,10 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B131" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -12525,10 +12525,10 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B132" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -12536,13 +12536,24 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B133" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>LevelPackUIDesc_SummonShield</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>In progress of translating…(134)</v>
           </cell>
         </row>
       </sheetData>
@@ -13104,10 +13115,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15047,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -15117,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -16053,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -16124,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -16194,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -16398,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -16468,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -16538,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADBE7D-BBA3-4654-AA1B-FB737ACC27A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DDB9A-BD23-4EF0-8F52-D3F4F546ED60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -818,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16_D, WavesExplosion_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect6_Collision_D, Effect6_Collision_D2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,6 +839,10 @@
   </si>
   <si>
     <t>P_AMFX03_shockwave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineHitObjectInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,6 +1381,8 @@
           <cell r="F2" t="str">
             <v>액터스탯 변경</v>
           </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
@@ -1976,6 +1978,7 @@
           <cell r="M15" t="str">
             <v>AttackAddRate</v>
           </cell>
+          <cell r="N15"/>
           <cell r="O15">
             <v>18</v>
           </cell>
@@ -13115,10 +13118,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15058,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -15128,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -16064,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -16135,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -16205,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -16409,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -16479,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -16549,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DDB9A-BD23-4EF0-8F52-D3F4F546ED60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE234B1-07A1-490F-B83C-09FECBC9CC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -1246,46 +1246,61 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
+            <v>LP_Hold</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>LP_Transport</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
             <v>LP_Transport_Teleported</v>
           </cell>
         </row>
@@ -1376,50 +1391,43 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>ChangeActorStatus</v>
+            <v>Heal</v>
           </cell>
           <cell r="F2" t="str">
-            <v>액터스탯 변경</v>
-          </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
+            <v>회복</v>
+          </cell>
           <cell r="I2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v/>
           </cell>
           <cell r="J2" t="str">
-            <v>변경할 수치</v>
+            <v/>
           </cell>
           <cell r="K2" t="str">
-            <v/>
+            <v>피격자 MaxHP 비례 힐 비율</v>
           </cell>
           <cell r="L2" t="str">
-            <v/>
+            <v>대미지 비례 힐 비율</v>
           </cell>
           <cell r="M2" t="str">
-            <v>스탯타입
-유효성 검사</v>
+            <v/>
           </cell>
           <cell r="N2" t="str">
-            <v>오버라이딩
-우측 입력은 여기</v>
+            <v/>
           </cell>
           <cell r="O2" t="str">
-            <v>스탯타입
-인자 좌측참고</v>
+            <v/>
           </cell>
           <cell r="P2" t="str">
-            <v>피격받아 종료할 지속횟수</v>
+            <v/>
           </cell>
           <cell r="Q2" t="str">
             <v/>
           </cell>
           <cell r="R2" t="str">
-            <v>오버라이딩
-우측 입력은 여기</v>
+            <v/>
           </cell>
           <cell r="S2" t="str">
-            <v>단타 이펙트 어태치 여부</v>
+            <v/>
           </cell>
           <cell r="T2" t="str">
             <v/>
@@ -1431,7 +1439,7 @@
             <v/>
           </cell>
           <cell r="W2" t="str">
-            <v>단타 이펙트</v>
+            <v/>
           </cell>
           <cell r="Y2" t="str">
             <v>MaxHp</v>
@@ -1978,7 +1986,6 @@
           <cell r="M15" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="N15"/>
           <cell r="O15">
             <v>18</v>
           </cell>
@@ -9497,10 +9504,10 @@
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_01</v>
+            <v>LP_HealAreaOnEncounter_01</v>
           </cell>
           <cell r="B247" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C247" t="str">
             <v/>
@@ -9518,21 +9525,21 @@
             <v/>
           </cell>
           <cell r="Q247" t="str">
-            <v>OnDamage</v>
+            <v>OnStartStage</v>
           </cell>
           <cell r="S247">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="U247" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_02</v>
+            <v>LP_HealAreaOnEncounter_02</v>
           </cell>
           <cell r="B248" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C248" t="str">
             <v/>
@@ -9550,21 +9557,21 @@
             <v/>
           </cell>
           <cell r="Q248" t="str">
-            <v>OnDamage</v>
+            <v>OnStartStage</v>
           </cell>
           <cell r="S248">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="U248" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_03</v>
+            <v>LP_HealAreaOnEncounter_03</v>
           </cell>
           <cell r="B249" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C249" t="str">
             <v/>
@@ -9582,21 +9589,21 @@
             <v/>
           </cell>
           <cell r="Q249" t="str">
-            <v>OnDamage</v>
+            <v>OnStartStage</v>
           </cell>
           <cell r="S249">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="U249" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_04</v>
+            <v>LP_HealAreaOnEncounter_04</v>
           </cell>
           <cell r="B250" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C250" t="str">
             <v/>
@@ -9614,21 +9621,21 @@
             <v/>
           </cell>
           <cell r="Q250" t="str">
-            <v>OnDamage</v>
+            <v>OnStartStage</v>
           </cell>
           <cell r="S250">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="U250" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_05</v>
+            <v>LP_HealAreaOnEncounter_05</v>
           </cell>
           <cell r="B251" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C251" t="str">
             <v/>
@@ -9646,21 +9653,21 @@
             <v/>
           </cell>
           <cell r="Q251" t="str">
-            <v>OnDamage</v>
+            <v>OnStartStage</v>
           </cell>
           <cell r="S251">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="U251" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_06</v>
+            <v>LP_HealAreaOnEncounter_06</v>
           </cell>
           <cell r="B252" t="str">
-            <v>LP_MoveSpeedUpOnAttacked</v>
+            <v>LP_HealAreaOnEncounter</v>
           </cell>
           <cell r="C252" t="str">
             <v/>
@@ -9678,21 +9685,21 @@
             <v/>
           </cell>
           <cell r="Q252" t="str">
-            <v>OnDamage</v>
+            <v>OnStartStage</v>
           </cell>
           <cell r="S252">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="U252" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
+            <v>LP_HealAreaOnEncounter_CreateHit_01</v>
           </cell>
           <cell r="B253" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C253" t="str">
             <v/>
@@ -9701,36 +9708,24 @@
             <v>1</v>
           </cell>
           <cell r="E253" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I253">
-            <v>5</v>
-          </cell>
-          <cell r="J253">
-            <v>0.25</v>
-          </cell>
-          <cell r="M253" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O253">
-            <v>10</v>
-          </cell>
-          <cell r="R253">
-            <v>1</v>
-          </cell>
-          <cell r="S253">
-            <v>1</v>
-          </cell>
-          <cell r="W253" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>CreateHitObject</v>
+          </cell>
+          <cell r="O253" t="str">
+            <v/>
+          </cell>
+          <cell r="S253" t="str">
+            <v/>
+          </cell>
+          <cell r="T253" t="str">
+            <v>HealAreaHitObjectInfo</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
+            <v>LP_HealAreaOnEncounter_CreateHit_02</v>
           </cell>
           <cell r="B254" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C254" t="str">
             <v/>
@@ -9739,36 +9734,24 @@
             <v>2</v>
           </cell>
           <cell r="E254" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I254">
-            <v>7</v>
-          </cell>
-          <cell r="J254">
-            <v>0.3</v>
-          </cell>
-          <cell r="M254" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O254">
-            <v>10</v>
-          </cell>
-          <cell r="R254">
-            <v>1</v>
-          </cell>
-          <cell r="S254">
-            <v>1</v>
-          </cell>
-          <cell r="W254" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>CreateHitObject</v>
+          </cell>
+          <cell r="O254" t="str">
+            <v/>
+          </cell>
+          <cell r="S254" t="str">
+            <v/>
+          </cell>
+          <cell r="T254" t="str">
+            <v>HealAreaHitObjectInfo</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
+            <v>LP_HealAreaOnEncounter_CreateHit_03</v>
           </cell>
           <cell r="B255" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C255" t="str">
             <v/>
@@ -9777,36 +9760,24 @@
             <v>3</v>
           </cell>
           <cell r="E255" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I255">
-            <v>9</v>
-          </cell>
-          <cell r="J255">
-            <v>0.35</v>
-          </cell>
-          <cell r="M255" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O255">
-            <v>10</v>
-          </cell>
-          <cell r="R255">
-            <v>1</v>
-          </cell>
-          <cell r="S255">
-            <v>1</v>
-          </cell>
-          <cell r="W255" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>CreateHitObject</v>
+          </cell>
+          <cell r="O255" t="str">
+            <v/>
+          </cell>
+          <cell r="S255" t="str">
+            <v/>
+          </cell>
+          <cell r="T255" t="str">
+            <v>HealAreaHitObjectInfo</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
+            <v>LP_HealAreaOnEncounter_CreateHit_04</v>
           </cell>
           <cell r="B256" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C256" t="str">
             <v/>
@@ -9815,36 +9786,24 @@
             <v>4</v>
           </cell>
           <cell r="E256" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I256">
-            <v>11</v>
-          </cell>
-          <cell r="J256">
-            <v>0.4</v>
-          </cell>
-          <cell r="M256" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O256">
-            <v>10</v>
-          </cell>
-          <cell r="R256">
-            <v>1</v>
-          </cell>
-          <cell r="S256">
-            <v>1</v>
-          </cell>
-          <cell r="W256" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>CreateHitObject</v>
+          </cell>
+          <cell r="O256" t="str">
+            <v/>
+          </cell>
+          <cell r="S256" t="str">
+            <v/>
+          </cell>
+          <cell r="T256" t="str">
+            <v>HealAreaHitObjectInfo</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
+            <v>LP_HealAreaOnEncounter_CreateHit_05</v>
           </cell>
           <cell r="B257" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C257" t="str">
             <v/>
@@ -9853,36 +9812,24 @@
             <v>5</v>
           </cell>
           <cell r="E257" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I257">
-            <v>13</v>
-          </cell>
-          <cell r="J257">
-            <v>0.45</v>
-          </cell>
-          <cell r="M257" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O257">
-            <v>10</v>
-          </cell>
-          <cell r="R257">
-            <v>1</v>
-          </cell>
-          <cell r="S257">
-            <v>1</v>
-          </cell>
-          <cell r="W257" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>CreateHitObject</v>
+          </cell>
+          <cell r="O257" t="str">
+            <v/>
+          </cell>
+          <cell r="S257" t="str">
+            <v/>
+          </cell>
+          <cell r="T257" t="str">
+            <v>HealAreaHitObjectInfo</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
+            <v>LP_HealAreaOnEncounter_CreateHit_06</v>
           </cell>
           <cell r="B258" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_HealAreaOnEncounter_CreateHit</v>
           </cell>
           <cell r="C258" t="str">
             <v/>
@@ -9891,36 +9838,24 @@
             <v>6</v>
           </cell>
           <cell r="E258" t="str">
-            <v>ChangeActorStatus</v>
-          </cell>
-          <cell r="I258">
-            <v>15</v>
-          </cell>
-          <cell r="J258">
-            <v>0.5</v>
-          </cell>
-          <cell r="M258" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O258">
-            <v>10</v>
-          </cell>
-          <cell r="R258">
-            <v>1</v>
-          </cell>
-          <cell r="S258">
-            <v>1</v>
-          </cell>
-          <cell r="W258" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>CreateHitObject</v>
+          </cell>
+          <cell r="O258" t="str">
+            <v/>
+          </cell>
+          <cell r="S258" t="str">
+            <v/>
+          </cell>
+          <cell r="T258" t="str">
+            <v>HealAreaHitObjectInfo</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>LP_SlowHitObject_01</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal_01</v>
           </cell>
           <cell r="B259" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C259" t="str">
             <v/>
@@ -9929,13 +9864,10 @@
             <v>1</v>
           </cell>
           <cell r="E259" t="str">
-            <v>SlowHitObjectSpeed</v>
-          </cell>
-          <cell r="I259">
-            <v>-1</v>
-          </cell>
-          <cell r="J259">
-            <v>0.1</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K259">
+            <v>2.5000000000000001E-2</v>
           </cell>
           <cell r="O259" t="str">
             <v/>
@@ -9946,10 +9878,10 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>LP_SlowHitObject_02</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal_02</v>
           </cell>
           <cell r="B260" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C260" t="str">
             <v/>
@@ -9958,13 +9890,10 @@
             <v>2</v>
           </cell>
           <cell r="E260" t="str">
-            <v>SlowHitObjectSpeed</v>
-          </cell>
-          <cell r="I260">
-            <v>-1</v>
-          </cell>
-          <cell r="J260">
-            <v>0.15</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K260">
+            <v>0.03</v>
           </cell>
           <cell r="O260" t="str">
             <v/>
@@ -9975,10 +9904,10 @@
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>LP_SlowHitObject_03</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal_03</v>
           </cell>
           <cell r="B261" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C261" t="str">
             <v/>
@@ -9987,13 +9916,10 @@
             <v>3</v>
           </cell>
           <cell r="E261" t="str">
-            <v>SlowHitObjectSpeed</v>
-          </cell>
-          <cell r="I261">
-            <v>-1</v>
-          </cell>
-          <cell r="J261">
-            <v>0.2</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K261">
+            <v>3.5000000000000003E-2</v>
           </cell>
           <cell r="O261" t="str">
             <v/>
@@ -10004,10 +9930,10 @@
         </row>
         <row r="262">
           <cell r="A262" t="str">
-            <v>LP_SlowHitObject_04</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal_04</v>
           </cell>
           <cell r="B262" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C262" t="str">
             <v/>
@@ -10016,13 +9942,10 @@
             <v>4</v>
           </cell>
           <cell r="E262" t="str">
-            <v>SlowHitObjectSpeed</v>
-          </cell>
-          <cell r="I262">
-            <v>-1</v>
-          </cell>
-          <cell r="J262">
-            <v>0.25</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K262">
+            <v>0.04</v>
           </cell>
           <cell r="O262" t="str">
             <v/>
@@ -10033,10 +9956,10 @@
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>LP_SlowHitObject_05</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal_05</v>
           </cell>
           <cell r="B263" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C263" t="str">
             <v/>
@@ -10045,13 +9968,10 @@
             <v>5</v>
           </cell>
           <cell r="E263" t="str">
-            <v>SlowHitObjectSpeed</v>
-          </cell>
-          <cell r="I263">
-            <v>-1</v>
-          </cell>
-          <cell r="J263">
-            <v>0.3</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K263">
+            <v>4.4999999999999998E-2</v>
           </cell>
           <cell r="O263" t="str">
             <v/>
@@ -10062,659 +9982,692 @@
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>LP_Paralyze_01</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal_06</v>
           </cell>
           <cell r="B264" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_HealAreaOnEncounter_CH_Heal</v>
           </cell>
           <cell r="C264" t="str">
             <v/>
           </cell>
           <cell r="D264">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E264" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="J264">
-            <v>0.2</v>
+            <v>Heal</v>
+          </cell>
+          <cell r="K264">
+            <v>0.05</v>
           </cell>
           <cell r="O264" t="str">
             <v/>
           </cell>
-          <cell r="P264">
-            <v>1</v>
-          </cell>
           <cell r="S264" t="str">
             <v/>
-          </cell>
-          <cell r="U264" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V264" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W264" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>LP_Paralyze_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_01</v>
           </cell>
           <cell r="B265" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C265" t="str">
             <v/>
           </cell>
           <cell r="D265">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E265" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="J265">
-            <v>0.25</v>
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I265">
+            <v>-1</v>
           </cell>
           <cell r="O265" t="str">
             <v/>
           </cell>
-          <cell r="P265">
-            <v>1</v>
-          </cell>
-          <cell r="S265" t="str">
-            <v/>
+          <cell r="Q265" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S265">
+            <v>4</v>
           </cell>
           <cell r="U265" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V265" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W265" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266" t="str">
-            <v>LP_Paralyze_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_02</v>
           </cell>
           <cell r="B266" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C266" t="str">
             <v/>
           </cell>
           <cell r="D266">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E266" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="J266">
-            <v>0.3</v>
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I266">
+            <v>-1</v>
           </cell>
           <cell r="O266" t="str">
             <v/>
           </cell>
-          <cell r="P266">
-            <v>1</v>
-          </cell>
-          <cell r="S266" t="str">
-            <v/>
+          <cell r="Q266" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S266">
+            <v>4</v>
           </cell>
           <cell r="U266" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V266" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W266" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>LP_Paralyze_04</v>
+            <v>LP_MoveSpeedUpOnAttacked_03</v>
           </cell>
           <cell r="B267" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C267" t="str">
             <v/>
           </cell>
           <cell r="D267">
+            <v>3</v>
+          </cell>
+          <cell r="E267" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I267">
+            <v>-1</v>
+          </cell>
+          <cell r="O267" t="str">
+            <v/>
+          </cell>
+          <cell r="Q267" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S267">
             <v>4</v>
           </cell>
-          <cell r="E267" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="J267">
-            <v>0.35</v>
-          </cell>
-          <cell r="O267" t="str">
-            <v/>
-          </cell>
-          <cell r="P267">
-            <v>1</v>
-          </cell>
-          <cell r="S267" t="str">
-            <v/>
-          </cell>
           <cell r="U267" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V267" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W267" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>LP_Paralyze_05</v>
+            <v>LP_MoveSpeedUpOnAttacked_04</v>
           </cell>
           <cell r="B268" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C268" t="str">
             <v/>
           </cell>
           <cell r="D268">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E268" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="J268">
-            <v>0.4</v>
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="I268">
+            <v>-1</v>
           </cell>
           <cell r="O268" t="str">
             <v/>
           </cell>
-          <cell r="P268">
-            <v>1</v>
-          </cell>
-          <cell r="S268" t="str">
-            <v/>
+          <cell r="Q268" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S268">
+            <v>4</v>
           </cell>
           <cell r="U268" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V268" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W268" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>LP_Paralyze_CannotAction_01</v>
+            <v>LP_MoveSpeedUpOnAttacked_05</v>
           </cell>
           <cell r="B269" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C269" t="str">
             <v/>
           </cell>
           <cell r="D269">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E269" t="str">
-            <v>CannotAction</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="I269">
-            <v>1.5</v>
+            <v>-1</v>
           </cell>
           <cell r="O269" t="str">
             <v/>
           </cell>
-          <cell r="S269" t="str">
-            <v/>
+          <cell r="Q269" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S269">
+            <v>4</v>
+          </cell>
+          <cell r="U269" t="str">
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="270">
           <cell r="A270" t="str">
-            <v>LP_Paralyze_CannotAction_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_06</v>
           </cell>
           <cell r="B270" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="C270" t="str">
             <v/>
           </cell>
           <cell r="D270">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E270" t="str">
-            <v>CannotAction</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="I270">
-            <v>1.8</v>
+            <v>-1</v>
           </cell>
           <cell r="O270" t="str">
             <v/>
           </cell>
-          <cell r="S270" t="str">
-            <v/>
+          <cell r="Q270" t="str">
+            <v>OnDamage</v>
+          </cell>
+          <cell r="S270">
+            <v>4</v>
+          </cell>
+          <cell r="U270" t="str">
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>LP_Paralyze_CannotAction_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
           </cell>
           <cell r="B271" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
           </cell>
           <cell r="D271">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E271" t="str">
-            <v>CannotAction</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I271">
-            <v>2.1</v>
-          </cell>
-          <cell r="O271" t="str">
-            <v/>
-          </cell>
-          <cell r="S271" t="str">
-            <v/>
+            <v>5</v>
+          </cell>
+          <cell r="J271">
+            <v>0.25</v>
+          </cell>
+          <cell r="M271" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O271">
+            <v>10</v>
+          </cell>
+          <cell r="R271">
+            <v>1</v>
+          </cell>
+          <cell r="S271">
+            <v>1</v>
+          </cell>
+          <cell r="W271" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272" t="str">
-            <v>LP_Paralyze_CannotAction_04</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
           </cell>
           <cell r="B272" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C272" t="str">
             <v/>
           </cell>
           <cell r="D272">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E272" t="str">
-            <v>CannotAction</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I272">
-            <v>2.4</v>
-          </cell>
-          <cell r="O272" t="str">
-            <v/>
-          </cell>
-          <cell r="S272" t="str">
-            <v/>
+            <v>7</v>
+          </cell>
+          <cell r="J272">
+            <v>0.3</v>
+          </cell>
+          <cell r="M272" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O272">
+            <v>10</v>
+          </cell>
+          <cell r="R272">
+            <v>1</v>
+          </cell>
+          <cell r="S272">
+            <v>1</v>
+          </cell>
+          <cell r="W272" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>LP_Paralyze_CannotAction_05</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
           </cell>
           <cell r="B273" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
           </cell>
           <cell r="D273">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E273" t="str">
-            <v>CannotAction</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I273">
-            <v>2.7</v>
-          </cell>
-          <cell r="O273" t="str">
-            <v/>
-          </cell>
-          <cell r="S273" t="str">
-            <v/>
+            <v>9</v>
+          </cell>
+          <cell r="J273">
+            <v>0.35</v>
+          </cell>
+          <cell r="M273" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O273">
+            <v>10</v>
+          </cell>
+          <cell r="R273">
+            <v>1</v>
+          </cell>
+          <cell r="S273">
+            <v>1</v>
+          </cell>
+          <cell r="W273" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274" t="str">
-            <v>LP_Hold_01</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
           </cell>
           <cell r="B274" t="str">
-            <v>LP_Hold</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
           </cell>
           <cell r="D274">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E274" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I274">
+            <v>11</v>
           </cell>
           <cell r="J274">
-            <v>0.1</v>
-          </cell>
-          <cell r="O274" t="str">
-            <v/>
-          </cell>
-          <cell r="P274">
-            <v>1</v>
-          </cell>
-          <cell r="S274" t="str">
-            <v/>
-          </cell>
-          <cell r="U274" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>0.4</v>
+          </cell>
+          <cell r="M274" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O274">
+            <v>10</v>
+          </cell>
+          <cell r="R274">
+            <v>1</v>
+          </cell>
+          <cell r="S274">
+            <v>1</v>
+          </cell>
+          <cell r="W274" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>LP_Hold_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
           </cell>
           <cell r="B275" t="str">
-            <v>LP_Hold</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C275" t="str">
             <v/>
           </cell>
           <cell r="D275">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E275" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I275">
+            <v>13</v>
           </cell>
           <cell r="J275">
-            <v>0.11</v>
-          </cell>
-          <cell r="O275" t="str">
-            <v/>
-          </cell>
-          <cell r="P275">
-            <v>1</v>
-          </cell>
-          <cell r="S275" t="str">
-            <v/>
-          </cell>
-          <cell r="U275" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>0.45</v>
+          </cell>
+          <cell r="M275" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O275">
+            <v>10</v>
+          </cell>
+          <cell r="R275">
+            <v>1</v>
+          </cell>
+          <cell r="S275">
+            <v>1</v>
+          </cell>
+          <cell r="W275" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276" t="str">
-            <v>LP_Hold_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
           </cell>
           <cell r="B276" t="str">
-            <v>LP_Hold</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C276" t="str">
             <v/>
           </cell>
           <cell r="D276">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E276" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I276">
+            <v>15</v>
           </cell>
           <cell r="J276">
-            <v>0.12</v>
-          </cell>
-          <cell r="O276" t="str">
-            <v/>
-          </cell>
-          <cell r="P276">
-            <v>1</v>
-          </cell>
-          <cell r="S276" t="str">
-            <v/>
-          </cell>
-          <cell r="U276" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>0.5</v>
+          </cell>
+          <cell r="M276" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O276">
+            <v>10</v>
+          </cell>
+          <cell r="R276">
+            <v>1</v>
+          </cell>
+          <cell r="S276">
+            <v>1</v>
+          </cell>
+          <cell r="W276" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>LP_Hold_04</v>
+            <v>LP_SlowHitObject_01</v>
           </cell>
           <cell r="B277" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C277" t="str">
             <v/>
           </cell>
           <cell r="D277">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E277" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>SlowHitObjectSpeed</v>
+          </cell>
+          <cell r="I277">
+            <v>-1</v>
           </cell>
           <cell r="J277">
-            <v>0.13</v>
+            <v>0.1</v>
           </cell>
           <cell r="O277" t="str">
             <v/>
           </cell>
-          <cell r="P277">
-            <v>1</v>
-          </cell>
           <cell r="S277" t="str">
             <v/>
-          </cell>
-          <cell r="U277" t="str">
-            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278" t="str">
-            <v>LP_Hold_05</v>
+            <v>LP_SlowHitObject_02</v>
           </cell>
           <cell r="B278" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C278" t="str">
             <v/>
           </cell>
           <cell r="D278">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E278" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>SlowHitObjectSpeed</v>
+          </cell>
+          <cell r="I278">
+            <v>-1</v>
           </cell>
           <cell r="J278">
-            <v>0.14000000000000001</v>
+            <v>0.15</v>
           </cell>
           <cell r="O278" t="str">
             <v/>
           </cell>
-          <cell r="P278">
-            <v>1</v>
-          </cell>
           <cell r="S278" t="str">
             <v/>
-          </cell>
-          <cell r="U278" t="str">
-            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>LP_Hold_CannotMove_01</v>
+            <v>LP_SlowHitObject_03</v>
           </cell>
           <cell r="B279" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
           </cell>
           <cell r="D279">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E279" t="str">
-            <v>CannotMove</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="I279">
-            <v>3</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J279">
+            <v>0.2</v>
           </cell>
           <cell r="O279" t="str">
             <v/>
           </cell>
           <cell r="S279" t="str">
             <v/>
-          </cell>
-          <cell r="V279" t="str">
-            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280" t="str">
-            <v>LP_Hold_CannotMove_02</v>
+            <v>LP_SlowHitObject_04</v>
           </cell>
           <cell r="B280" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
           </cell>
           <cell r="D280">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E280" t="str">
-            <v>CannotMove</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="I280">
-            <v>3.5</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J280">
+            <v>0.25</v>
           </cell>
           <cell r="O280" t="str">
             <v/>
           </cell>
           <cell r="S280" t="str">
             <v/>
-          </cell>
-          <cell r="V280" t="str">
-            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>LP_Hold_CannotMove_03</v>
+            <v>LP_SlowHitObject_05</v>
           </cell>
           <cell r="B281" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C281" t="str">
             <v/>
           </cell>
           <cell r="D281">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E281" t="str">
-            <v>CannotMove</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="I281">
-            <v>4</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J281">
+            <v>0.3</v>
           </cell>
           <cell r="O281" t="str">
             <v/>
           </cell>
           <cell r="S281" t="str">
             <v/>
-          </cell>
-          <cell r="V281" t="str">
-            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282" t="str">
-            <v>LP_Hold_CannotMove_04</v>
+            <v>LP_Paralyze_01</v>
           </cell>
           <cell r="B282" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C282" t="str">
             <v/>
           </cell>
           <cell r="D282">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E282" t="str">
-            <v>CannotMove</v>
-          </cell>
-          <cell r="I282">
-            <v>4.5</v>
+            <v>CertainHpHitObject</v>
+          </cell>
+          <cell r="J282">
+            <v>0.2</v>
           </cell>
           <cell r="O282" t="str">
             <v/>
           </cell>
+          <cell r="P282">
+            <v>1</v>
+          </cell>
           <cell r="S282" t="str">
             <v/>
           </cell>
+          <cell r="U282" t="str">
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
           <cell r="V282" t="str">
-            <v>Effect27_D</v>
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W282" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>LP_Hold_CannotMove_05</v>
+            <v>LP_Paralyze_02</v>
           </cell>
           <cell r="B283" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C283" t="str">
             <v/>
           </cell>
           <cell r="D283">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E283" t="str">
-            <v>CannotMove</v>
-          </cell>
-          <cell r="I283">
-            <v>5</v>
+            <v>CertainHpHitObject</v>
+          </cell>
+          <cell r="J283">
+            <v>0.25</v>
           </cell>
           <cell r="O283" t="str">
             <v/>
           </cell>
+          <cell r="P283">
+            <v>1</v>
+          </cell>
           <cell r="S283" t="str">
             <v/>
           </cell>
+          <cell r="U283" t="str">
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
           <cell r="V283" t="str">
-            <v>Effect27_D</v>
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W283" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284" t="str">
-            <v>LP_Transport_01</v>
+            <v>LP_Paralyze_03</v>
           </cell>
           <cell r="B284" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C284" t="str">
             <v/>
           </cell>
           <cell r="D284">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E284" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J284">
-            <v>0.15</v>
-          </cell>
-          <cell r="K284">
-            <v>0.7</v>
-          </cell>
-          <cell r="L284">
-            <v>0.2</v>
-          </cell>
-          <cell r="N284">
-            <v>1</v>
-          </cell>
-          <cell r="O284">
-            <v>1</v>
+            <v>0.3</v>
+          </cell>
+          <cell r="O284" t="str">
+            <v/>
           </cell>
           <cell r="P284">
             <v>1</v>
@@ -10723,39 +10676,36 @@
             <v/>
           </cell>
           <cell r="U284" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V284" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W284" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>LP_Transport_02</v>
+            <v>LP_Paralyze_04</v>
           </cell>
           <cell r="B285" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
           </cell>
           <cell r="D285">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E285" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J285">
-            <v>0.15</v>
-          </cell>
-          <cell r="K285">
-            <v>0.7</v>
-          </cell>
-          <cell r="L285">
-            <v>0.2</v>
-          </cell>
-          <cell r="N285">
-            <v>2</v>
-          </cell>
-          <cell r="O285">
-            <v>2</v>
+            <v>0.35</v>
+          </cell>
+          <cell r="O285" t="str">
+            <v/>
           </cell>
           <cell r="P285">
             <v>1</v>
@@ -10764,39 +10714,36 @@
             <v/>
           </cell>
           <cell r="U285" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V285" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W285" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="286">
           <cell r="A286" t="str">
-            <v>LP_Transport_03</v>
+            <v>LP_Paralyze_05</v>
           </cell>
           <cell r="B286" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
           </cell>
           <cell r="D286">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E286" t="str">
-            <v>TeleportingHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J286">
-            <v>0.15</v>
-          </cell>
-          <cell r="K286">
-            <v>0.7</v>
-          </cell>
-          <cell r="L286">
-            <v>0.2</v>
-          </cell>
-          <cell r="N286">
-            <v>3</v>
-          </cell>
-          <cell r="O286">
-            <v>3</v>
+            <v>0.4</v>
+          </cell>
+          <cell r="O286" t="str">
+            <v/>
           </cell>
           <cell r="P286">
             <v>1</v>
@@ -10805,248 +10752,812 @@
             <v/>
           </cell>
           <cell r="U286" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V286" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W286" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>LP_Transport_04</v>
+            <v>LP_Paralyze_CannotAction_01</v>
           </cell>
           <cell r="B287" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C287" t="str">
             <v/>
           </cell>
           <cell r="D287">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E287" t="str">
-            <v>TeleportingHitObject</v>
-          </cell>
-          <cell r="J287">
-            <v>0.15</v>
-          </cell>
-          <cell r="K287">
-            <v>0.7</v>
-          </cell>
-          <cell r="L287">
-            <v>0.2</v>
-          </cell>
-          <cell r="N287">
-            <v>4</v>
-          </cell>
-          <cell r="O287">
-            <v>4</v>
-          </cell>
-          <cell r="P287">
-            <v>1</v>
+            <v>CannotAction</v>
+          </cell>
+          <cell r="I287">
+            <v>1.5</v>
+          </cell>
+          <cell r="O287" t="str">
+            <v/>
           </cell>
           <cell r="S287" t="str">
             <v/>
-          </cell>
-          <cell r="U287" t="str">
-            <v>LP_Transport_Teleported</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288" t="str">
-            <v>LP_Transport_05</v>
+            <v>LP_Paralyze_CannotAction_02</v>
           </cell>
           <cell r="B288" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C288" t="str">
             <v/>
           </cell>
           <cell r="D288">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E288" t="str">
-            <v>TeleportingHitObject</v>
-          </cell>
-          <cell r="J288">
-            <v>0.15</v>
-          </cell>
-          <cell r="K288">
-            <v>0.7</v>
-          </cell>
-          <cell r="L288">
-            <v>0.2</v>
-          </cell>
-          <cell r="N288">
-            <v>5</v>
-          </cell>
-          <cell r="O288">
-            <v>5</v>
-          </cell>
-          <cell r="P288">
-            <v>1</v>
+            <v>CannotAction</v>
+          </cell>
+          <cell r="I288">
+            <v>1.8</v>
+          </cell>
+          <cell r="O288" t="str">
+            <v/>
           </cell>
           <cell r="S288" t="str">
             <v/>
-          </cell>
-          <cell r="U288" t="str">
-            <v>LP_Transport_Teleported</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>LP_Transport_Teleported_01</v>
+            <v>LP_Paralyze_CannotAction_03</v>
           </cell>
           <cell r="B289" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C289" t="str">
             <v/>
           </cell>
           <cell r="D289">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E289" t="str">
-            <v>Teleported</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I289">
-            <v>10</v>
+            <v>2.1</v>
           </cell>
           <cell r="O289" t="str">
             <v/>
           </cell>
           <cell r="S289" t="str">
             <v/>
-          </cell>
-          <cell r="V289" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W289" t="str">
-            <v>Effect6_Collision_D2</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290" t="str">
-            <v>LP_Transport_Teleported_02</v>
+            <v>LP_Paralyze_CannotAction_04</v>
           </cell>
           <cell r="B290" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C290" t="str">
             <v/>
           </cell>
           <cell r="D290">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E290" t="str">
-            <v>Teleported</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I290">
-            <v>10</v>
+            <v>2.4</v>
           </cell>
           <cell r="O290" t="str">
             <v/>
           </cell>
           <cell r="S290" t="str">
             <v/>
-          </cell>
-          <cell r="V290" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W290" t="str">
-            <v>Effect6_Collision_D2</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>LP_Transport_Teleported_03</v>
+            <v>LP_Paralyze_CannotAction_05</v>
           </cell>
           <cell r="B291" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C291" t="str">
             <v/>
           </cell>
           <cell r="D291">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E291" t="str">
-            <v>Teleported</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I291">
-            <v>10</v>
+            <v>2.7</v>
           </cell>
           <cell r="O291" t="str">
             <v/>
           </cell>
           <cell r="S291" t="str">
             <v/>
-          </cell>
-          <cell r="V291" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W291" t="str">
-            <v>Effect6_Collision_D2</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292" t="str">
-            <v>LP_Transport_Teleported_04</v>
+            <v>LP_Hold_01</v>
           </cell>
           <cell r="B292" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C292" t="str">
             <v/>
           </cell>
           <cell r="D292">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E292" t="str">
-            <v>Teleported</v>
-          </cell>
-          <cell r="I292">
-            <v>10</v>
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J292">
+            <v>0.1</v>
           </cell>
           <cell r="O292" t="str">
             <v/>
           </cell>
+          <cell r="P292">
+            <v>1</v>
+          </cell>
           <cell r="S292" t="str">
             <v/>
           </cell>
-          <cell r="V292" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W292" t="str">
-            <v>Effect6_Collision_D2</v>
+          <cell r="U292" t="str">
+            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
+            <v>LP_Hold_02</v>
+          </cell>
+          <cell r="B293" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v/>
+          </cell>
+          <cell r="D293">
+            <v>2</v>
+          </cell>
+          <cell r="E293" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J293">
+            <v>0.11</v>
+          </cell>
+          <cell r="O293" t="str">
+            <v/>
+          </cell>
+          <cell r="P293">
+            <v>1</v>
+          </cell>
+          <cell r="S293" t="str">
+            <v/>
+          </cell>
+          <cell r="U293" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="A294" t="str">
+            <v>LP_Hold_03</v>
+          </cell>
+          <cell r="B294" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C294" t="str">
+            <v/>
+          </cell>
+          <cell r="D294">
+            <v>3</v>
+          </cell>
+          <cell r="E294" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J294">
+            <v>0.12</v>
+          </cell>
+          <cell r="O294" t="str">
+            <v/>
+          </cell>
+          <cell r="P294">
+            <v>1</v>
+          </cell>
+          <cell r="S294" t="str">
+            <v/>
+          </cell>
+          <cell r="U294" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="A295" t="str">
+            <v>LP_Hold_04</v>
+          </cell>
+          <cell r="B295" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C295" t="str">
+            <v/>
+          </cell>
+          <cell r="D295">
+            <v>4</v>
+          </cell>
+          <cell r="E295" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J295">
+            <v>0.13</v>
+          </cell>
+          <cell r="O295" t="str">
+            <v/>
+          </cell>
+          <cell r="P295">
+            <v>1</v>
+          </cell>
+          <cell r="S295" t="str">
+            <v/>
+          </cell>
+          <cell r="U295" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="A296" t="str">
+            <v>LP_Hold_05</v>
+          </cell>
+          <cell r="B296" t="str">
+            <v>LP_Hold</v>
+          </cell>
+          <cell r="C296" t="str">
+            <v/>
+          </cell>
+          <cell r="D296">
+            <v>5</v>
+          </cell>
+          <cell r="E296" t="str">
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J296">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="O296" t="str">
+            <v/>
+          </cell>
+          <cell r="P296">
+            <v>1</v>
+          </cell>
+          <cell r="S296" t="str">
+            <v/>
+          </cell>
+          <cell r="U296" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="A297" t="str">
+            <v>LP_Hold_CannotMove_01</v>
+          </cell>
+          <cell r="B297" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C297" t="str">
+            <v/>
+          </cell>
+          <cell r="D297">
+            <v>1</v>
+          </cell>
+          <cell r="E297" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I297">
+            <v>3</v>
+          </cell>
+          <cell r="O297" t="str">
+            <v/>
+          </cell>
+          <cell r="S297" t="str">
+            <v/>
+          </cell>
+          <cell r="V297" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="A298" t="str">
+            <v>LP_Hold_CannotMove_02</v>
+          </cell>
+          <cell r="B298" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C298" t="str">
+            <v/>
+          </cell>
+          <cell r="D298">
+            <v>2</v>
+          </cell>
+          <cell r="E298" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I298">
+            <v>3.5</v>
+          </cell>
+          <cell r="O298" t="str">
+            <v/>
+          </cell>
+          <cell r="S298" t="str">
+            <v/>
+          </cell>
+          <cell r="V298" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="A299" t="str">
+            <v>LP_Hold_CannotMove_03</v>
+          </cell>
+          <cell r="B299" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C299" t="str">
+            <v/>
+          </cell>
+          <cell r="D299">
+            <v>3</v>
+          </cell>
+          <cell r="E299" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I299">
+            <v>4</v>
+          </cell>
+          <cell r="O299" t="str">
+            <v/>
+          </cell>
+          <cell r="S299" t="str">
+            <v/>
+          </cell>
+          <cell r="V299" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="A300" t="str">
+            <v>LP_Hold_CannotMove_04</v>
+          </cell>
+          <cell r="B300" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C300" t="str">
+            <v/>
+          </cell>
+          <cell r="D300">
+            <v>4</v>
+          </cell>
+          <cell r="E300" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I300">
+            <v>4.5</v>
+          </cell>
+          <cell r="O300" t="str">
+            <v/>
+          </cell>
+          <cell r="S300" t="str">
+            <v/>
+          </cell>
+          <cell r="V300" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="A301" t="str">
+            <v>LP_Hold_CannotMove_05</v>
+          </cell>
+          <cell r="B301" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C301" t="str">
+            <v/>
+          </cell>
+          <cell r="D301">
+            <v>5</v>
+          </cell>
+          <cell r="E301" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I301">
+            <v>5</v>
+          </cell>
+          <cell r="O301" t="str">
+            <v/>
+          </cell>
+          <cell r="S301" t="str">
+            <v/>
+          </cell>
+          <cell r="V301" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302" t="str">
+            <v>LP_Transport_01</v>
+          </cell>
+          <cell r="B302" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C302" t="str">
+            <v/>
+          </cell>
+          <cell r="D302">
+            <v>1</v>
+          </cell>
+          <cell r="E302" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J302">
+            <v>0.15</v>
+          </cell>
+          <cell r="K302">
+            <v>0.7</v>
+          </cell>
+          <cell r="L302">
+            <v>0.2</v>
+          </cell>
+          <cell r="N302">
+            <v>1</v>
+          </cell>
+          <cell r="O302">
+            <v>1</v>
+          </cell>
+          <cell r="P302">
+            <v>1</v>
+          </cell>
+          <cell r="S302" t="str">
+            <v/>
+          </cell>
+          <cell r="U302" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="A303" t="str">
+            <v>LP_Transport_02</v>
+          </cell>
+          <cell r="B303" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C303" t="str">
+            <v/>
+          </cell>
+          <cell r="D303">
+            <v>2</v>
+          </cell>
+          <cell r="E303" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J303">
+            <v>0.15</v>
+          </cell>
+          <cell r="K303">
+            <v>0.7</v>
+          </cell>
+          <cell r="L303">
+            <v>0.2</v>
+          </cell>
+          <cell r="N303">
+            <v>2</v>
+          </cell>
+          <cell r="O303">
+            <v>2</v>
+          </cell>
+          <cell r="P303">
+            <v>1</v>
+          </cell>
+          <cell r="S303" t="str">
+            <v/>
+          </cell>
+          <cell r="U303" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="A304" t="str">
+            <v>LP_Transport_03</v>
+          </cell>
+          <cell r="B304" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C304" t="str">
+            <v/>
+          </cell>
+          <cell r="D304">
+            <v>3</v>
+          </cell>
+          <cell r="E304" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J304">
+            <v>0.15</v>
+          </cell>
+          <cell r="K304">
+            <v>0.7</v>
+          </cell>
+          <cell r="L304">
+            <v>0.2</v>
+          </cell>
+          <cell r="N304">
+            <v>3</v>
+          </cell>
+          <cell r="O304">
+            <v>3</v>
+          </cell>
+          <cell r="P304">
+            <v>1</v>
+          </cell>
+          <cell r="S304" t="str">
+            <v/>
+          </cell>
+          <cell r="U304" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="A305" t="str">
+            <v>LP_Transport_04</v>
+          </cell>
+          <cell r="B305" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C305" t="str">
+            <v/>
+          </cell>
+          <cell r="D305">
+            <v>4</v>
+          </cell>
+          <cell r="E305" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J305">
+            <v>0.15</v>
+          </cell>
+          <cell r="K305">
+            <v>0.7</v>
+          </cell>
+          <cell r="L305">
+            <v>0.2</v>
+          </cell>
+          <cell r="N305">
+            <v>4</v>
+          </cell>
+          <cell r="O305">
+            <v>4</v>
+          </cell>
+          <cell r="P305">
+            <v>1</v>
+          </cell>
+          <cell r="S305" t="str">
+            <v/>
+          </cell>
+          <cell r="U305" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="A306" t="str">
+            <v>LP_Transport_05</v>
+          </cell>
+          <cell r="B306" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C306" t="str">
+            <v/>
+          </cell>
+          <cell r="D306">
+            <v>5</v>
+          </cell>
+          <cell r="E306" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J306">
+            <v>0.15</v>
+          </cell>
+          <cell r="K306">
+            <v>0.7</v>
+          </cell>
+          <cell r="L306">
+            <v>0.2</v>
+          </cell>
+          <cell r="N306">
+            <v>5</v>
+          </cell>
+          <cell r="O306">
+            <v>5</v>
+          </cell>
+          <cell r="P306">
+            <v>1</v>
+          </cell>
+          <cell r="S306" t="str">
+            <v/>
+          </cell>
+          <cell r="U306" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="A307" t="str">
+            <v>LP_Transport_Teleported_01</v>
+          </cell>
+          <cell r="B307" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C307" t="str">
+            <v/>
+          </cell>
+          <cell r="D307">
+            <v>1</v>
+          </cell>
+          <cell r="E307" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I307">
+            <v>10</v>
+          </cell>
+          <cell r="O307" t="str">
+            <v/>
+          </cell>
+          <cell r="S307" t="str">
+            <v/>
+          </cell>
+          <cell r="V307" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W307" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="A308" t="str">
+            <v>LP_Transport_Teleported_02</v>
+          </cell>
+          <cell r="B308" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C308" t="str">
+            <v/>
+          </cell>
+          <cell r="D308">
+            <v>2</v>
+          </cell>
+          <cell r="E308" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I308">
+            <v>10</v>
+          </cell>
+          <cell r="O308" t="str">
+            <v/>
+          </cell>
+          <cell r="S308" t="str">
+            <v/>
+          </cell>
+          <cell r="V308" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W308" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="A309" t="str">
+            <v>LP_Transport_Teleported_03</v>
+          </cell>
+          <cell r="B309" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C309" t="str">
+            <v/>
+          </cell>
+          <cell r="D309">
+            <v>3</v>
+          </cell>
+          <cell r="E309" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I309">
+            <v>10</v>
+          </cell>
+          <cell r="O309" t="str">
+            <v/>
+          </cell>
+          <cell r="S309" t="str">
+            <v/>
+          </cell>
+          <cell r="V309" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W309" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="A310" t="str">
+            <v>LP_Transport_Teleported_04</v>
+          </cell>
+          <cell r="B310" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C310" t="str">
+            <v/>
+          </cell>
+          <cell r="D310">
+            <v>4</v>
+          </cell>
+          <cell r="E310" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I310">
+            <v>10</v>
+          </cell>
+          <cell r="O310" t="str">
+            <v/>
+          </cell>
+          <cell r="S310" t="str">
+            <v/>
+          </cell>
+          <cell r="V310" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W310" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="A311" t="str">
             <v>LP_Transport_Teleported_05</v>
           </cell>
-          <cell r="B293" t="str">
+          <cell r="B311" t="str">
             <v>LP_Transport_Teleported</v>
           </cell>
-          <cell r="C293" t="str">
-            <v/>
-          </cell>
-          <cell r="D293">
+          <cell r="C311" t="str">
+            <v/>
+          </cell>
+          <cell r="D311">
             <v>5</v>
           </cell>
-          <cell r="E293" t="str">
+          <cell r="E311" t="str">
             <v>Teleported</v>
           </cell>
-          <cell r="I293">
+          <cell r="I311">
             <v>10</v>
           </cell>
-          <cell r="O293" t="str">
-            <v/>
-          </cell>
-          <cell r="S293" t="str">
-            <v/>
-          </cell>
-          <cell r="V293" t="str">
+          <cell r="O311" t="str">
+            <v/>
+          </cell>
+          <cell r="S311" t="str">
+            <v/>
+          </cell>
+          <cell r="V311" t="str">
             <v>Effect6_Collision_D</v>
           </cell>
-          <cell r="W293" t="str">
+          <cell r="W311" t="str">
             <v>Effect6_Collision_D2</v>
           </cell>
         </row>
@@ -13118,10 +13629,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13129,18 +13640,18 @@
     <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="31.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="22.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="31.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="22.875" style="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="19.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="30.375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="7.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="30.375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.375" style="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="31" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.875" style="1" customWidth="1" collapsed="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -16036,7 +16547,7 @@
   IF(OR(ISERROR(VLOOKUP(LEFT(F44,FIND(",",F44)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44)+1,FIND(",",F44,FIND(",",F44)+1)-FIND(",",F44)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44,FIND(",",F44)+1)+1,FIND(",",F44,FIND(",",F44,FIND(",",F44)+1)+1)-FIND(",",F44,FIND(",",F44)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F44,FIND(",",F44,FIND(",",F44,FIND(",",F44)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
-        <v>어펙터밸류없음</v>
+        <v/>
       </c>
       <c r="H44" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A44</f>
@@ -16061,7 +16572,7 @@
         <v>몬스터 조우 시 회복지대가 생성됩니다</v>
       </c>
       <c r="L44" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M44" s="1" t="b">
         <v>0</v>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE234B1-07A1-490F-B83C-09FECBC9CC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B655D5-302A-4628-B689-A20D982E982E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -744,9 +744,6 @@
     <t>FlatIcon_143_NoBG_Gray</t>
   </si>
   <si>
-    <t>BombOrbOnMove</t>
-  </si>
-  <si>
     <t>FlatIcon_97_NoBG_Gray</t>
   </si>
   <si>
@@ -843,6 +840,10 @@
   </si>
   <si>
     <t>MineHitObjectInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineOnMove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,36 +1272,46 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>LP_Transport</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
             <v>LP_Transport_Teleported</v>
           </cell>
         </row>
@@ -1391,22 +1402,24 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>Heal</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="F2" t="str">
-            <v>회복</v>
+            <v>이동 중에 히트오브젝트를 주기적으로 생성
+맵 이동 시에 만들어진 것들을 삭제한다</v>
           </cell>
           <cell r="I2" t="str">
-            <v/>
+            <v>지속시간
+무제한은 -1</v>
           </cell>
           <cell r="J2" t="str">
-            <v/>
+            <v>거리 틱</v>
           </cell>
           <cell r="K2" t="str">
-            <v>피격자 MaxHP 비례 힐 비율</v>
+            <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>대미지 비례 힐 비율</v>
+            <v/>
           </cell>
           <cell r="M2" t="str">
             <v/>
@@ -1430,7 +1443,7 @@
             <v/>
           </cell>
           <cell r="T2" t="str">
-            <v/>
+            <v>히트오브젝트인포가 들어있는 프리팹명</v>
           </cell>
           <cell r="U2" t="str">
             <v/>
@@ -10200,10 +10213,10 @@
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
+            <v>LP_MineOnMove_01</v>
           </cell>
           <cell r="B271" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
@@ -10212,36 +10225,30 @@
             <v>1</v>
           </cell>
           <cell r="E271" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I271">
-            <v>5</v>
+            <v>-1</v>
           </cell>
           <cell r="J271">
-            <v>0.25</v>
-          </cell>
-          <cell r="M271" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O271">
             <v>10</v>
           </cell>
-          <cell r="R271">
-            <v>1</v>
-          </cell>
-          <cell r="S271">
-            <v>1</v>
-          </cell>
-          <cell r="W271" t="str">
-            <v>P_AMFX03_shockwave</v>
+          <cell r="O271" t="str">
+            <v/>
+          </cell>
+          <cell r="S271" t="str">
+            <v/>
+          </cell>
+          <cell r="T271" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
+            <v>LP_MineOnMove_02</v>
           </cell>
           <cell r="B272" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C272" t="str">
             <v/>
@@ -10250,36 +10257,30 @@
             <v>2</v>
           </cell>
           <cell r="E272" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I272">
-            <v>7</v>
+            <v>-1</v>
           </cell>
           <cell r="J272">
-            <v>0.3</v>
-          </cell>
-          <cell r="M272" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O272">
-            <v>10</v>
-          </cell>
-          <cell r="R272">
-            <v>1</v>
-          </cell>
-          <cell r="S272">
-            <v>1</v>
-          </cell>
-          <cell r="W272" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>9.5</v>
+          </cell>
+          <cell r="O272" t="str">
+            <v/>
+          </cell>
+          <cell r="S272" t="str">
+            <v/>
+          </cell>
+          <cell r="T272" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
+            <v>LP_MineOnMove_03</v>
           </cell>
           <cell r="B273" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
@@ -10288,36 +10289,30 @@
             <v>3</v>
           </cell>
           <cell r="E273" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I273">
+            <v>-1</v>
+          </cell>
+          <cell r="J273">
             <v>9</v>
           </cell>
-          <cell r="J273">
-            <v>0.35</v>
-          </cell>
-          <cell r="M273" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O273">
-            <v>10</v>
-          </cell>
-          <cell r="R273">
-            <v>1</v>
-          </cell>
-          <cell r="S273">
-            <v>1</v>
-          </cell>
-          <cell r="W273" t="str">
-            <v>P_AMFX03_shockwave</v>
+          <cell r="O273" t="str">
+            <v/>
+          </cell>
+          <cell r="S273" t="str">
+            <v/>
+          </cell>
+          <cell r="T273" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
+            <v>LP_MineOnMove_04</v>
           </cell>
           <cell r="B274" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
@@ -10326,36 +10321,30 @@
             <v>4</v>
           </cell>
           <cell r="E274" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I274">
-            <v>11</v>
+            <v>-1</v>
           </cell>
           <cell r="J274">
-            <v>0.4</v>
-          </cell>
-          <cell r="M274" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O274">
-            <v>10</v>
-          </cell>
-          <cell r="R274">
-            <v>1</v>
-          </cell>
-          <cell r="S274">
-            <v>1</v>
-          </cell>
-          <cell r="W274" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>8.5</v>
+          </cell>
+          <cell r="O274" t="str">
+            <v/>
+          </cell>
+          <cell r="S274" t="str">
+            <v/>
+          </cell>
+          <cell r="T274" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
+            <v>LP_MineOnMove_05</v>
           </cell>
           <cell r="B275" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C275" t="str">
             <v/>
@@ -10364,36 +10353,30 @@
             <v>5</v>
           </cell>
           <cell r="E275" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I275">
-            <v>13</v>
+            <v>-1</v>
           </cell>
           <cell r="J275">
-            <v>0.45</v>
-          </cell>
-          <cell r="M275" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O275">
-            <v>10</v>
-          </cell>
-          <cell r="R275">
-            <v>1</v>
-          </cell>
-          <cell r="S275">
-            <v>1</v>
-          </cell>
-          <cell r="W275" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>8</v>
+          </cell>
+          <cell r="O275" t="str">
+            <v/>
+          </cell>
+          <cell r="S275" t="str">
+            <v/>
+          </cell>
+          <cell r="T275" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
+            <v>LP_MineOnMove_06</v>
           </cell>
           <cell r="B276" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C276" t="str">
             <v/>
@@ -10402,36 +10385,30 @@
             <v>6</v>
           </cell>
           <cell r="E276" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I276">
-            <v>15</v>
+            <v>-1</v>
           </cell>
           <cell r="J276">
-            <v>0.5</v>
-          </cell>
-          <cell r="M276" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O276">
-            <v>10</v>
-          </cell>
-          <cell r="R276">
-            <v>1</v>
-          </cell>
-          <cell r="S276">
-            <v>1</v>
-          </cell>
-          <cell r="W276" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>7.5</v>
+          </cell>
+          <cell r="O276" t="str">
+            <v/>
+          </cell>
+          <cell r="S276" t="str">
+            <v/>
+          </cell>
+          <cell r="T276" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>LP_SlowHitObject_01</v>
+            <v>LP_MineOnMove_Damage_01</v>
           </cell>
           <cell r="B277" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C277" t="str">
             <v/>
@@ -10440,13 +10417,10 @@
             <v>1</v>
           </cell>
           <cell r="E277" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="I277">
-            <v>-1</v>
-          </cell>
-          <cell r="J277">
-            <v>0.1</v>
+            <v>1</v>
           </cell>
           <cell r="O277" t="str">
             <v/>
@@ -10457,10 +10431,10 @@
         </row>
         <row r="278">
           <cell r="A278" t="str">
-            <v>LP_SlowHitObject_02</v>
+            <v>LP_MineOnMove_Damage_02</v>
           </cell>
           <cell r="B278" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C278" t="str">
             <v/>
@@ -10469,13 +10443,10 @@
             <v>2</v>
           </cell>
           <cell r="E278" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="I278">
-            <v>-1</v>
-          </cell>
-          <cell r="J278">
-            <v>0.15</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="O278" t="str">
             <v/>
@@ -10486,10 +10457,10 @@
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>LP_SlowHitObject_03</v>
+            <v>LP_MineOnMove_Damage_03</v>
           </cell>
           <cell r="B279" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
@@ -10498,13 +10469,10 @@
             <v>3</v>
           </cell>
           <cell r="E279" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="I279">
-            <v>-1</v>
-          </cell>
-          <cell r="J279">
-            <v>0.2</v>
+            <v>1.2</v>
           </cell>
           <cell r="O279" t="str">
             <v/>
@@ -10515,10 +10483,10 @@
         </row>
         <row r="280">
           <cell r="A280" t="str">
-            <v>LP_SlowHitObject_04</v>
+            <v>LP_MineOnMove_Damage_04</v>
           </cell>
           <cell r="B280" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
@@ -10527,13 +10495,10 @@
             <v>4</v>
           </cell>
           <cell r="E280" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="I280">
-            <v>-1</v>
-          </cell>
-          <cell r="J280">
-            <v>0.25</v>
+            <v>1.3</v>
           </cell>
           <cell r="O280" t="str">
             <v/>
@@ -10544,10 +10509,10 @@
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>LP_SlowHitObject_05</v>
+            <v>LP_MineOnMove_Damage_05</v>
           </cell>
           <cell r="B281" t="str">
-            <v>LP_SlowHitObject</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C281" t="str">
             <v/>
@@ -10556,13 +10521,10 @@
             <v>5</v>
           </cell>
           <cell r="E281" t="str">
-            <v>SlowHitObjectSpeed</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="I281">
-            <v>-1</v>
-          </cell>
-          <cell r="J281">
-            <v>0.3</v>
+            <v>1.4</v>
           </cell>
           <cell r="O281" t="str">
             <v/>
@@ -10573,264 +10535,279 @@
         </row>
         <row r="282">
           <cell r="A282" t="str">
-            <v>LP_Paralyze_01</v>
+            <v>LP_MineOnMove_Damage_06</v>
           </cell>
           <cell r="B282" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C282" t="str">
             <v/>
           </cell>
           <cell r="D282">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E282" t="str">
-            <v>CertainHpHitObject</v>
-          </cell>
-          <cell r="J282">
-            <v>0.2</v>
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="I282">
+            <v>1.5</v>
           </cell>
           <cell r="O282" t="str">
             <v/>
           </cell>
-          <cell r="P282">
-            <v>1</v>
-          </cell>
           <cell r="S282" t="str">
             <v/>
-          </cell>
-          <cell r="U282" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V282" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W282" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>LP_Paralyze_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
           </cell>
           <cell r="B283" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C283" t="str">
             <v/>
           </cell>
           <cell r="D283">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E283" t="str">
-            <v>CertainHpHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I283">
+            <v>5</v>
           </cell>
           <cell r="J283">
             <v>0.25</v>
           </cell>
-          <cell r="O283" t="str">
-            <v/>
-          </cell>
-          <cell r="P283">
-            <v>1</v>
-          </cell>
-          <cell r="S283" t="str">
-            <v/>
-          </cell>
-          <cell r="U283" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V283" t="str">
-            <v>0.4, 0.7, 0.9</v>
+          <cell r="M283" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O283">
+            <v>10</v>
+          </cell>
+          <cell r="R283">
+            <v>1</v>
+          </cell>
+          <cell r="S283">
+            <v>1</v>
           </cell>
           <cell r="W283" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284" t="str">
-            <v>LP_Paralyze_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
           </cell>
           <cell r="B284" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C284" t="str">
             <v/>
           </cell>
           <cell r="D284">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E284" t="str">
-            <v>CertainHpHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I284">
+            <v>7</v>
           </cell>
           <cell r="J284">
             <v>0.3</v>
           </cell>
-          <cell r="O284" t="str">
-            <v/>
-          </cell>
-          <cell r="P284">
-            <v>1</v>
-          </cell>
-          <cell r="S284" t="str">
-            <v/>
-          </cell>
-          <cell r="U284" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V284" t="str">
-            <v>0.4, 0.7, 0.9</v>
+          <cell r="M284" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O284">
+            <v>10</v>
+          </cell>
+          <cell r="R284">
+            <v>1</v>
+          </cell>
+          <cell r="S284">
+            <v>1</v>
           </cell>
           <cell r="W284" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>LP_Paralyze_04</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
           </cell>
           <cell r="B285" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
           </cell>
           <cell r="D285">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E285" t="str">
-            <v>CertainHpHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I285">
+            <v>9</v>
           </cell>
           <cell r="J285">
             <v>0.35</v>
           </cell>
-          <cell r="O285" t="str">
-            <v/>
-          </cell>
-          <cell r="P285">
-            <v>1</v>
-          </cell>
-          <cell r="S285" t="str">
-            <v/>
-          </cell>
-          <cell r="U285" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V285" t="str">
-            <v>0.4, 0.7, 0.9</v>
+          <cell r="M285" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O285">
+            <v>10</v>
+          </cell>
+          <cell r="R285">
+            <v>1</v>
+          </cell>
+          <cell r="S285">
+            <v>1</v>
           </cell>
           <cell r="W285" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="286">
           <cell r="A286" t="str">
-            <v>LP_Paralyze_05</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
           </cell>
           <cell r="B286" t="str">
-            <v>LP_Paralyze</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
           </cell>
           <cell r="D286">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E286" t="str">
-            <v>CertainHpHitObject</v>
+            <v>ChangeActorStatus</v>
+          </cell>
+          <cell r="I286">
+            <v>11</v>
           </cell>
           <cell r="J286">
             <v>0.4</v>
           </cell>
-          <cell r="O286" t="str">
-            <v/>
-          </cell>
-          <cell r="P286">
-            <v>1</v>
-          </cell>
-          <cell r="S286" t="str">
-            <v/>
-          </cell>
-          <cell r="U286" t="str">
-            <v>LP_Paralyze_CannotAction</v>
-          </cell>
-          <cell r="V286" t="str">
-            <v>0.4, 0.7, 0.9</v>
+          <cell r="M286" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O286">
+            <v>10</v>
+          </cell>
+          <cell r="R286">
+            <v>1</v>
+          </cell>
+          <cell r="S286">
+            <v>1</v>
           </cell>
           <cell r="W286" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>LP_Paralyze_CannotAction_01</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
           </cell>
           <cell r="B287" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C287" t="str">
             <v/>
           </cell>
           <cell r="D287">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E287" t="str">
-            <v>CannotAction</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I287">
-            <v>1.5</v>
-          </cell>
-          <cell r="O287" t="str">
-            <v/>
-          </cell>
-          <cell r="S287" t="str">
-            <v/>
+            <v>13</v>
+          </cell>
+          <cell r="J287">
+            <v>0.45</v>
+          </cell>
+          <cell r="M287" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O287">
+            <v>10</v>
+          </cell>
+          <cell r="R287">
+            <v>1</v>
+          </cell>
+          <cell r="S287">
+            <v>1</v>
+          </cell>
+          <cell r="W287" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288" t="str">
-            <v>LP_Paralyze_CannotAction_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
           </cell>
           <cell r="B288" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C288" t="str">
             <v/>
           </cell>
           <cell r="D288">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="E288" t="str">
-            <v>CannotAction</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I288">
-            <v>1.8</v>
-          </cell>
-          <cell r="O288" t="str">
-            <v/>
-          </cell>
-          <cell r="S288" t="str">
-            <v/>
+            <v>15</v>
+          </cell>
+          <cell r="J288">
+            <v>0.5</v>
+          </cell>
+          <cell r="M288" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O288">
+            <v>10</v>
+          </cell>
+          <cell r="R288">
+            <v>1</v>
+          </cell>
+          <cell r="S288">
+            <v>1</v>
+          </cell>
+          <cell r="W288" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289" t="str">
-            <v>LP_Paralyze_CannotAction_03</v>
+            <v>LP_SlowHitObject_01</v>
           </cell>
           <cell r="B289" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C289" t="str">
             <v/>
           </cell>
           <cell r="D289">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E289" t="str">
-            <v>CannotAction</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="I289">
-            <v>2.1</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J289">
+            <v>0.1</v>
           </cell>
           <cell r="O289" t="str">
             <v/>
@@ -10841,22 +10818,25 @@
         </row>
         <row r="290">
           <cell r="A290" t="str">
-            <v>LP_Paralyze_CannotAction_04</v>
+            <v>LP_SlowHitObject_02</v>
           </cell>
           <cell r="B290" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C290" t="str">
             <v/>
           </cell>
           <cell r="D290">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E290" t="str">
-            <v>CannotAction</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="I290">
-            <v>2.4</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J290">
+            <v>0.15</v>
           </cell>
           <cell r="O290" t="str">
             <v/>
@@ -10867,22 +10847,25 @@
         </row>
         <row r="291">
           <cell r="A291" t="str">
-            <v>LP_Paralyze_CannotAction_05</v>
+            <v>LP_SlowHitObject_03</v>
           </cell>
           <cell r="B291" t="str">
-            <v>LP_Paralyze_CannotAction</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C291" t="str">
             <v/>
           </cell>
           <cell r="D291">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E291" t="str">
-            <v>CannotAction</v>
+            <v>SlowHitObjectSpeed</v>
           </cell>
           <cell r="I291">
-            <v>2.7</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J291">
+            <v>0.2</v>
           </cell>
           <cell r="O291" t="str">
             <v/>
@@ -10893,86 +10876,80 @@
         </row>
         <row r="292">
           <cell r="A292" t="str">
-            <v>LP_Hold_01</v>
+            <v>LP_SlowHitObject_04</v>
           </cell>
           <cell r="B292" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C292" t="str">
             <v/>
           </cell>
           <cell r="D292">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E292" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>SlowHitObjectSpeed</v>
+          </cell>
+          <cell r="I292">
+            <v>-1</v>
           </cell>
           <cell r="J292">
-            <v>0.1</v>
+            <v>0.25</v>
           </cell>
           <cell r="O292" t="str">
             <v/>
           </cell>
-          <cell r="P292">
-            <v>1</v>
-          </cell>
           <cell r="S292" t="str">
             <v/>
-          </cell>
-          <cell r="U292" t="str">
-            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293" t="str">
-            <v>LP_Hold_02</v>
+            <v>LP_SlowHitObject_05</v>
           </cell>
           <cell r="B293" t="str">
-            <v>LP_Hold</v>
+            <v>LP_SlowHitObject</v>
           </cell>
           <cell r="C293" t="str">
             <v/>
           </cell>
           <cell r="D293">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E293" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>SlowHitObjectSpeed</v>
+          </cell>
+          <cell r="I293">
+            <v>-1</v>
           </cell>
           <cell r="J293">
-            <v>0.11</v>
+            <v>0.3</v>
           </cell>
           <cell r="O293" t="str">
             <v/>
           </cell>
-          <cell r="P293">
-            <v>1</v>
-          </cell>
           <cell r="S293" t="str">
             <v/>
-          </cell>
-          <cell r="U293" t="str">
-            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294" t="str">
-            <v>LP_Hold_03</v>
+            <v>LP_Paralyze_01</v>
           </cell>
           <cell r="B294" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C294" t="str">
             <v/>
           </cell>
           <cell r="D294">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E294" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J294">
-            <v>0.12</v>
+            <v>0.2</v>
           </cell>
           <cell r="O294" t="str">
             <v/>
@@ -10984,27 +10961,33 @@
             <v/>
           </cell>
           <cell r="U294" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V294" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W294" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295" t="str">
-            <v>LP_Hold_04</v>
+            <v>LP_Paralyze_02</v>
           </cell>
           <cell r="B295" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C295" t="str">
             <v/>
           </cell>
           <cell r="D295">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E295" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J295">
-            <v>0.13</v>
+            <v>0.25</v>
           </cell>
           <cell r="O295" t="str">
             <v/>
@@ -11016,27 +10999,33 @@
             <v/>
           </cell>
           <cell r="U295" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V295" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W295" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296" t="str">
-            <v>LP_Hold_05</v>
+            <v>LP_Paralyze_03</v>
           </cell>
           <cell r="B296" t="str">
-            <v>LP_Hold</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C296" t="str">
             <v/>
           </cell>
           <cell r="D296">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E296" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>CertainHpHitObject</v>
           </cell>
           <cell r="J296">
-            <v>0.14000000000000001</v>
+            <v>0.3</v>
           </cell>
           <cell r="O296" t="str">
             <v/>
@@ -11048,266 +11037,242 @@
             <v/>
           </cell>
           <cell r="U296" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
+          <cell r="V296" t="str">
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W296" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297" t="str">
-            <v>LP_Hold_CannotMove_01</v>
+            <v>LP_Paralyze_04</v>
           </cell>
           <cell r="B297" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C297" t="str">
             <v/>
           </cell>
           <cell r="D297">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E297" t="str">
-            <v>CannotMove</v>
-          </cell>
-          <cell r="I297">
-            <v>3</v>
+            <v>CertainHpHitObject</v>
+          </cell>
+          <cell r="J297">
+            <v>0.35</v>
           </cell>
           <cell r="O297" t="str">
             <v/>
           </cell>
+          <cell r="P297">
+            <v>1</v>
+          </cell>
           <cell r="S297" t="str">
             <v/>
           </cell>
+          <cell r="U297" t="str">
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
           <cell r="V297" t="str">
-            <v>Effect27_D</v>
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W297" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="298">
           <cell r="A298" t="str">
-            <v>LP_Hold_CannotMove_02</v>
+            <v>LP_Paralyze_05</v>
           </cell>
           <cell r="B298" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze</v>
           </cell>
           <cell r="C298" t="str">
             <v/>
           </cell>
           <cell r="D298">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E298" t="str">
-            <v>CannotMove</v>
-          </cell>
-          <cell r="I298">
-            <v>3.5</v>
+            <v>CertainHpHitObject</v>
+          </cell>
+          <cell r="J298">
+            <v>0.4</v>
           </cell>
           <cell r="O298" t="str">
             <v/>
           </cell>
+          <cell r="P298">
+            <v>1</v>
+          </cell>
           <cell r="S298" t="str">
             <v/>
           </cell>
+          <cell r="U298" t="str">
+            <v>LP_Paralyze_CannotAction</v>
+          </cell>
           <cell r="V298" t="str">
-            <v>Effect27_D</v>
+            <v>0.4, 0.7, 0.9</v>
+          </cell>
+          <cell r="W298" t="str">
+            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299" t="str">
-            <v>LP_Hold_CannotMove_03</v>
+            <v>LP_Paralyze_CannotAction_01</v>
           </cell>
           <cell r="B299" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C299" t="str">
             <v/>
           </cell>
           <cell r="D299">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E299" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I299">
-            <v>4</v>
+            <v>1.5</v>
           </cell>
           <cell r="O299" t="str">
             <v/>
           </cell>
           <cell r="S299" t="str">
             <v/>
-          </cell>
-          <cell r="V299" t="str">
-            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300" t="str">
-            <v>LP_Hold_CannotMove_04</v>
+            <v>LP_Paralyze_CannotAction_02</v>
           </cell>
           <cell r="B300" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C300" t="str">
             <v/>
           </cell>
           <cell r="D300">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E300" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I300">
-            <v>4.5</v>
+            <v>1.8</v>
           </cell>
           <cell r="O300" t="str">
             <v/>
           </cell>
           <cell r="S300" t="str">
             <v/>
-          </cell>
-          <cell r="V300" t="str">
-            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301" t="str">
-            <v>LP_Hold_CannotMove_05</v>
+            <v>LP_Paralyze_CannotAction_03</v>
           </cell>
           <cell r="B301" t="str">
-            <v>LP_Hold_CannotMove</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C301" t="str">
             <v/>
           </cell>
           <cell r="D301">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E301" t="str">
-            <v>CannotMove</v>
+            <v>CannotAction</v>
           </cell>
           <cell r="I301">
-            <v>5</v>
+            <v>2.1</v>
           </cell>
           <cell r="O301" t="str">
             <v/>
           </cell>
           <cell r="S301" t="str">
             <v/>
-          </cell>
-          <cell r="V301" t="str">
-            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="302">
           <cell r="A302" t="str">
-            <v>LP_Transport_01</v>
+            <v>LP_Paralyze_CannotAction_04</v>
           </cell>
           <cell r="B302" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C302" t="str">
             <v/>
           </cell>
           <cell r="D302">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E302" t="str">
-            <v>TeleportingHitObject</v>
-          </cell>
-          <cell r="J302">
-            <v>0.15</v>
-          </cell>
-          <cell r="K302">
-            <v>0.7</v>
-          </cell>
-          <cell r="L302">
-            <v>0.2</v>
-          </cell>
-          <cell r="N302">
-            <v>1</v>
-          </cell>
-          <cell r="O302">
-            <v>1</v>
-          </cell>
-          <cell r="P302">
-            <v>1</v>
+            <v>CannotAction</v>
+          </cell>
+          <cell r="I302">
+            <v>2.4</v>
+          </cell>
+          <cell r="O302" t="str">
+            <v/>
           </cell>
           <cell r="S302" t="str">
             <v/>
-          </cell>
-          <cell r="U302" t="str">
-            <v>LP_Transport_Teleported</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303" t="str">
-            <v>LP_Transport_02</v>
+            <v>LP_Paralyze_CannotAction_05</v>
           </cell>
           <cell r="B303" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="C303" t="str">
             <v/>
           </cell>
           <cell r="D303">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E303" t="str">
-            <v>TeleportingHitObject</v>
-          </cell>
-          <cell r="J303">
-            <v>0.15</v>
-          </cell>
-          <cell r="K303">
-            <v>0.7</v>
-          </cell>
-          <cell r="L303">
-            <v>0.2</v>
-          </cell>
-          <cell r="N303">
-            <v>2</v>
-          </cell>
-          <cell r="O303">
-            <v>2</v>
-          </cell>
-          <cell r="P303">
-            <v>1</v>
+            <v>CannotAction</v>
+          </cell>
+          <cell r="I303">
+            <v>2.7</v>
+          </cell>
+          <cell r="O303" t="str">
+            <v/>
           </cell>
           <cell r="S303" t="str">
             <v/>
-          </cell>
-          <cell r="U303" t="str">
-            <v>LP_Transport_Teleported</v>
           </cell>
         </row>
         <row r="304">
           <cell r="A304" t="str">
-            <v>LP_Transport_03</v>
+            <v>LP_Hold_01</v>
           </cell>
           <cell r="B304" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C304" t="str">
             <v/>
           </cell>
           <cell r="D304">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="E304" t="str">
-            <v>TeleportingHitObject</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J304">
-            <v>0.15</v>
-          </cell>
-          <cell r="K304">
-            <v>0.7</v>
-          </cell>
-          <cell r="L304">
-            <v>0.2</v>
-          </cell>
-          <cell r="N304">
-            <v>3</v>
-          </cell>
-          <cell r="O304">
-            <v>3</v>
+            <v>0.1</v>
+          </cell>
+          <cell r="O304" t="str">
+            <v/>
           </cell>
           <cell r="P304">
             <v>1</v>
@@ -11316,39 +11281,30 @@
             <v/>
           </cell>
           <cell r="U304" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305" t="str">
-            <v>LP_Transport_04</v>
+            <v>LP_Hold_02</v>
           </cell>
           <cell r="B305" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C305" t="str">
             <v/>
           </cell>
           <cell r="D305">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E305" t="str">
-            <v>TeleportingHitObject</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J305">
-            <v>0.15</v>
-          </cell>
-          <cell r="K305">
-            <v>0.7</v>
-          </cell>
-          <cell r="L305">
-            <v>0.2</v>
-          </cell>
-          <cell r="N305">
-            <v>4</v>
-          </cell>
-          <cell r="O305">
-            <v>4</v>
+            <v>0.11</v>
+          </cell>
+          <cell r="O305" t="str">
+            <v/>
           </cell>
           <cell r="P305">
             <v>1</v>
@@ -11357,39 +11313,30 @@
             <v/>
           </cell>
           <cell r="U305" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="306">
           <cell r="A306" t="str">
-            <v>LP_Transport_05</v>
+            <v>LP_Hold_03</v>
           </cell>
           <cell r="B306" t="str">
-            <v>LP_Transport</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C306" t="str">
             <v/>
           </cell>
           <cell r="D306">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="E306" t="str">
-            <v>TeleportingHitObject</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="J306">
-            <v>0.15</v>
-          </cell>
-          <cell r="K306">
-            <v>0.7</v>
-          </cell>
-          <cell r="L306">
-            <v>0.2</v>
-          </cell>
-          <cell r="N306">
-            <v>5</v>
-          </cell>
-          <cell r="O306">
-            <v>5</v>
+            <v>0.12</v>
+          </cell>
+          <cell r="O306" t="str">
+            <v/>
           </cell>
           <cell r="P306">
             <v>1</v>
@@ -11398,92 +11345,92 @@
             <v/>
           </cell>
           <cell r="U306" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307" t="str">
-            <v>LP_Transport_Teleported_01</v>
+            <v>LP_Hold_04</v>
           </cell>
           <cell r="B307" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C307" t="str">
             <v/>
           </cell>
           <cell r="D307">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E307" t="str">
-            <v>Teleported</v>
-          </cell>
-          <cell r="I307">
-            <v>10</v>
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J307">
+            <v>0.13</v>
           </cell>
           <cell r="O307" t="str">
             <v/>
           </cell>
+          <cell r="P307">
+            <v>1</v>
+          </cell>
           <cell r="S307" t="str">
             <v/>
           </cell>
-          <cell r="V307" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W307" t="str">
-            <v>Effect6_Collision_D2</v>
+          <cell r="U307" t="str">
+            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="308">
           <cell r="A308" t="str">
-            <v>LP_Transport_Teleported_02</v>
+            <v>LP_Hold_05</v>
           </cell>
           <cell r="B308" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold</v>
           </cell>
           <cell r="C308" t="str">
             <v/>
           </cell>
           <cell r="D308">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E308" t="str">
-            <v>Teleported</v>
-          </cell>
-          <cell r="I308">
-            <v>10</v>
+            <v>AttackWeightHitObject</v>
+          </cell>
+          <cell r="J308">
+            <v>0.14000000000000001</v>
           </cell>
           <cell r="O308" t="str">
             <v/>
           </cell>
+          <cell r="P308">
+            <v>1</v>
+          </cell>
           <cell r="S308" t="str">
             <v/>
           </cell>
-          <cell r="V308" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W308" t="str">
-            <v>Effect6_Collision_D2</v>
+          <cell r="U308" t="str">
+            <v>LP_Hold_CannotMove</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309" t="str">
-            <v>LP_Transport_Teleported_03</v>
+            <v>LP_Hold_CannotMove_01</v>
           </cell>
           <cell r="B309" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C309" t="str">
             <v/>
           </cell>
           <cell r="D309">
+            <v>1</v>
+          </cell>
+          <cell r="E309" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I309">
             <v>3</v>
           </cell>
-          <cell r="E309" t="str">
-            <v>Teleported</v>
-          </cell>
-          <cell r="I309">
-            <v>10</v>
-          </cell>
           <cell r="O309" t="str">
             <v/>
           </cell>
@@ -11491,30 +11438,27 @@
             <v/>
           </cell>
           <cell r="V309" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W309" t="str">
-            <v>Effect6_Collision_D2</v>
+            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="310">
           <cell r="A310" t="str">
-            <v>LP_Transport_Teleported_04</v>
+            <v>LP_Hold_CannotMove_02</v>
           </cell>
           <cell r="B310" t="str">
-            <v>LP_Transport_Teleported</v>
+            <v>LP_Hold_CannotMove</v>
           </cell>
           <cell r="C310" t="str">
             <v/>
           </cell>
           <cell r="D310">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="E310" t="str">
-            <v>Teleported</v>
+            <v>CannotMove</v>
           </cell>
           <cell r="I310">
-            <v>10</v>
+            <v>3.5</v>
           </cell>
           <cell r="O310" t="str">
             <v/>
@@ -11523,41 +11467,458 @@
             <v/>
           </cell>
           <cell r="V310" t="str">
-            <v>Effect6_Collision_D</v>
-          </cell>
-          <cell r="W310" t="str">
-            <v>Effect6_Collision_D2</v>
+            <v>Effect27_D</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311" t="str">
+            <v>LP_Hold_CannotMove_03</v>
+          </cell>
+          <cell r="B311" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C311" t="str">
+            <v/>
+          </cell>
+          <cell r="D311">
+            <v>3</v>
+          </cell>
+          <cell r="E311" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I311">
+            <v>4</v>
+          </cell>
+          <cell r="O311" t="str">
+            <v/>
+          </cell>
+          <cell r="S311" t="str">
+            <v/>
+          </cell>
+          <cell r="V311" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="A312" t="str">
+            <v>LP_Hold_CannotMove_04</v>
+          </cell>
+          <cell r="B312" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C312" t="str">
+            <v/>
+          </cell>
+          <cell r="D312">
+            <v>4</v>
+          </cell>
+          <cell r="E312" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I312">
+            <v>4.5</v>
+          </cell>
+          <cell r="O312" t="str">
+            <v/>
+          </cell>
+          <cell r="S312" t="str">
+            <v/>
+          </cell>
+          <cell r="V312" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="A313" t="str">
+            <v>LP_Hold_CannotMove_05</v>
+          </cell>
+          <cell r="B313" t="str">
+            <v>LP_Hold_CannotMove</v>
+          </cell>
+          <cell r="C313" t="str">
+            <v/>
+          </cell>
+          <cell r="D313">
+            <v>5</v>
+          </cell>
+          <cell r="E313" t="str">
+            <v>CannotMove</v>
+          </cell>
+          <cell r="I313">
+            <v>5</v>
+          </cell>
+          <cell r="O313" t="str">
+            <v/>
+          </cell>
+          <cell r="S313" t="str">
+            <v/>
+          </cell>
+          <cell r="V313" t="str">
+            <v>Effect27_D</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="A314" t="str">
+            <v>LP_Transport_01</v>
+          </cell>
+          <cell r="B314" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C314" t="str">
+            <v/>
+          </cell>
+          <cell r="D314">
+            <v>1</v>
+          </cell>
+          <cell r="E314" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J314">
+            <v>0.15</v>
+          </cell>
+          <cell r="K314">
+            <v>0.7</v>
+          </cell>
+          <cell r="L314">
+            <v>0.2</v>
+          </cell>
+          <cell r="N314">
+            <v>1</v>
+          </cell>
+          <cell r="O314">
+            <v>1</v>
+          </cell>
+          <cell r="P314">
+            <v>1</v>
+          </cell>
+          <cell r="S314" t="str">
+            <v/>
+          </cell>
+          <cell r="U314" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="A315" t="str">
+            <v>LP_Transport_02</v>
+          </cell>
+          <cell r="B315" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C315" t="str">
+            <v/>
+          </cell>
+          <cell r="D315">
+            <v>2</v>
+          </cell>
+          <cell r="E315" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J315">
+            <v>0.15</v>
+          </cell>
+          <cell r="K315">
+            <v>0.7</v>
+          </cell>
+          <cell r="L315">
+            <v>0.2</v>
+          </cell>
+          <cell r="N315">
+            <v>2</v>
+          </cell>
+          <cell r="O315">
+            <v>2</v>
+          </cell>
+          <cell r="P315">
+            <v>1</v>
+          </cell>
+          <cell r="S315" t="str">
+            <v/>
+          </cell>
+          <cell r="U315" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="A316" t="str">
+            <v>LP_Transport_03</v>
+          </cell>
+          <cell r="B316" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C316" t="str">
+            <v/>
+          </cell>
+          <cell r="D316">
+            <v>3</v>
+          </cell>
+          <cell r="E316" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J316">
+            <v>0.15</v>
+          </cell>
+          <cell r="K316">
+            <v>0.7</v>
+          </cell>
+          <cell r="L316">
+            <v>0.2</v>
+          </cell>
+          <cell r="N316">
+            <v>3</v>
+          </cell>
+          <cell r="O316">
+            <v>3</v>
+          </cell>
+          <cell r="P316">
+            <v>1</v>
+          </cell>
+          <cell r="S316" t="str">
+            <v/>
+          </cell>
+          <cell r="U316" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="A317" t="str">
+            <v>LP_Transport_04</v>
+          </cell>
+          <cell r="B317" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C317" t="str">
+            <v/>
+          </cell>
+          <cell r="D317">
+            <v>4</v>
+          </cell>
+          <cell r="E317" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J317">
+            <v>0.15</v>
+          </cell>
+          <cell r="K317">
+            <v>0.7</v>
+          </cell>
+          <cell r="L317">
+            <v>0.2</v>
+          </cell>
+          <cell r="N317">
+            <v>4</v>
+          </cell>
+          <cell r="O317">
+            <v>4</v>
+          </cell>
+          <cell r="P317">
+            <v>1</v>
+          </cell>
+          <cell r="S317" t="str">
+            <v/>
+          </cell>
+          <cell r="U317" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="A318" t="str">
+            <v>LP_Transport_05</v>
+          </cell>
+          <cell r="B318" t="str">
+            <v>LP_Transport</v>
+          </cell>
+          <cell r="C318" t="str">
+            <v/>
+          </cell>
+          <cell r="D318">
+            <v>5</v>
+          </cell>
+          <cell r="E318" t="str">
+            <v>TeleportingHitObject</v>
+          </cell>
+          <cell r="J318">
+            <v>0.15</v>
+          </cell>
+          <cell r="K318">
+            <v>0.7</v>
+          </cell>
+          <cell r="L318">
+            <v>0.2</v>
+          </cell>
+          <cell r="N318">
+            <v>5</v>
+          </cell>
+          <cell r="O318">
+            <v>5</v>
+          </cell>
+          <cell r="P318">
+            <v>1</v>
+          </cell>
+          <cell r="S318" t="str">
+            <v/>
+          </cell>
+          <cell r="U318" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="A319" t="str">
+            <v>LP_Transport_Teleported_01</v>
+          </cell>
+          <cell r="B319" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C319" t="str">
+            <v/>
+          </cell>
+          <cell r="D319">
+            <v>1</v>
+          </cell>
+          <cell r="E319" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I319">
+            <v>10</v>
+          </cell>
+          <cell r="O319" t="str">
+            <v/>
+          </cell>
+          <cell r="S319" t="str">
+            <v/>
+          </cell>
+          <cell r="V319" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W319" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="A320" t="str">
+            <v>LP_Transport_Teleported_02</v>
+          </cell>
+          <cell r="B320" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C320" t="str">
+            <v/>
+          </cell>
+          <cell r="D320">
+            <v>2</v>
+          </cell>
+          <cell r="E320" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I320">
+            <v>10</v>
+          </cell>
+          <cell r="O320" t="str">
+            <v/>
+          </cell>
+          <cell r="S320" t="str">
+            <v/>
+          </cell>
+          <cell r="V320" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W320" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="A321" t="str">
+            <v>LP_Transport_Teleported_03</v>
+          </cell>
+          <cell r="B321" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C321" t="str">
+            <v/>
+          </cell>
+          <cell r="D321">
+            <v>3</v>
+          </cell>
+          <cell r="E321" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I321">
+            <v>10</v>
+          </cell>
+          <cell r="O321" t="str">
+            <v/>
+          </cell>
+          <cell r="S321" t="str">
+            <v/>
+          </cell>
+          <cell r="V321" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W321" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="A322" t="str">
+            <v>LP_Transport_Teleported_04</v>
+          </cell>
+          <cell r="B322" t="str">
+            <v>LP_Transport_Teleported</v>
+          </cell>
+          <cell r="C322" t="str">
+            <v/>
+          </cell>
+          <cell r="D322">
+            <v>4</v>
+          </cell>
+          <cell r="E322" t="str">
+            <v>Teleported</v>
+          </cell>
+          <cell r="I322">
+            <v>10</v>
+          </cell>
+          <cell r="O322" t="str">
+            <v/>
+          </cell>
+          <cell r="S322" t="str">
+            <v/>
+          </cell>
+          <cell r="V322" t="str">
+            <v>Effect6_Collision_D</v>
+          </cell>
+          <cell r="W322" t="str">
+            <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="A323" t="str">
             <v>LP_Transport_Teleported_05</v>
           </cell>
-          <cell r="B311" t="str">
+          <cell r="B323" t="str">
             <v>LP_Transport_Teleported</v>
           </cell>
-          <cell r="C311" t="str">
-            <v/>
-          </cell>
-          <cell r="D311">
+          <cell r="C323" t="str">
+            <v/>
+          </cell>
+          <cell r="D323">
             <v>5</v>
           </cell>
-          <cell r="E311" t="str">
+          <cell r="E323" t="str">
             <v>Teleported</v>
           </cell>
-          <cell r="I311">
+          <cell r="I323">
             <v>10</v>
           </cell>
-          <cell r="O311" t="str">
-            <v/>
-          </cell>
-          <cell r="S311" t="str">
-            <v/>
-          </cell>
-          <cell r="V311" t="str">
+          <cell r="O323" t="str">
+            <v/>
+          </cell>
+          <cell r="S323" t="str">
+            <v/>
+          </cell>
+          <cell r="V323" t="str">
             <v>Effect6_Collision_D</v>
           </cell>
-          <cell r="W311" t="str">
+          <cell r="W323" t="str">
             <v>Effect6_Collision_D2</v>
           </cell>
         </row>
@@ -13629,10 +13990,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13669,7 +14030,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -14335,7 +14696,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IF(ISBLANK(F11),"",
@@ -14401,7 +14762,7 @@
         <v/>
       </c>
       <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>IF(ISBLANK(F12),"",
@@ -14467,7 +14828,7 @@
         <v/>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IF(ISBLANK(F13),"",
@@ -14533,7 +14894,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>IF(ISBLANK(F14),"",
@@ -14599,7 +14960,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IF(ISBLANK(F15),"",
@@ -15312,7 +15673,7 @@
         <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>1</v>
@@ -15391,7 +15752,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="1" t="str">
         <f>IF(ISBLANK(F27),"",
@@ -15457,7 +15818,7 @@
         <v/>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IF(ISBLANK(F28),"",
@@ -15523,7 +15884,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="1" t="str">
         <f>IF(ISBLANK(F29),"",
@@ -15572,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -15593,7 +15954,7 @@
         <v/>
       </c>
       <c r="F30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>IF(ISBLANK(F30),"",
@@ -15642,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -15663,7 +16024,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(ISBLANK(F31),"",
@@ -15729,7 +16090,7 @@
         <v/>
       </c>
       <c r="F32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IF(ISBLANK(F32),"",
@@ -15795,7 +16156,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>IF(ISBLANK(F33),"",
@@ -15861,7 +16222,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>IF(ISBLANK(F34),"",
@@ -15927,7 +16288,7 @@
         <v/>
       </c>
       <c r="F35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35" s="1" t="str">
         <f>IF(ISBLANK(F35),"",
@@ -15993,7 +16354,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IF(ISBLANK(F36),"",
@@ -16060,7 +16421,7 @@
         <v/>
       </c>
       <c r="F37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="1" t="str">
         <f>IF(ISBLANK(F37),"",
@@ -16127,7 +16488,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IF(ISBLANK(F38),"",
@@ -16194,7 +16555,7 @@
         <v/>
       </c>
       <c r="F39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF(ISBLANK(F39),"",
@@ -16578,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -16649,15 +17010,15 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C46" s="1" t="b">
         <v>0</v>
@@ -16671,7 +17032,7 @@
       </c>
       <c r="F46" s="1" t="str">
         <f>"LP_"&amp;A46</f>
-        <v>LP_BombOrbOnMove</v>
+        <v>LP_MineOnMove</v>
       </c>
       <c r="G46" s="1" t="str">
         <f>IF(ISBLANK(F46),"",
@@ -16688,38 +17049,38 @@
   IF(OR(ISERROR(VLOOKUP(LEFT(F46,FIND(",",F46)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46)+1,FIND(",",F46,FIND(",",F46)+1)-FIND(",",F46)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46,FIND(",",F46)+1)+1,FIND(",",F46,FIND(",",F46,FIND(",",F46)+1)+1)-FIND(",",F46,FIND(",",F46)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F46,FIND(",",F46,FIND(",",F46,FIND(",",F46)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
-        <v>어펙터밸류없음</v>
+        <v/>
       </c>
       <c r="H46" s="1" t="str">
         <f>"LevelPackUIName_"&amp;A46</f>
-        <v>LevelPackUIName_BombOrbOnMove</v>
+        <v>LevelPackUIName_MineOnMove</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>"LevelPackUIDesc_"&amp;A46</f>
-        <v>LevelPackUIDesc_BombOrbOnMove</v>
+        <v>LevelPackUIDesc_MineOnMove</v>
       </c>
       <c r="J46" s="1" t="str">
         <f>IF(ISBLANK(H46),"",
 IFERROR(VLOOKUP(H46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>이동 중 오브 설치</v>
+        <v>스트링없음</v>
       </c>
       <c r="K46" s="1" t="str">
         <f>IF(ISBLANK(I46),"",
 IFERROR(VLOOKUP(I46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(I46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>이동 시 공격구체를 설치합니다</v>
+        <v>스트링없음</v>
       </c>
       <c r="L46" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -16861,7 +17222,7 @@
         <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="b">
         <v>0</v>
@@ -16923,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -16993,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -17063,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B655D5-302A-4628-B689-A20D982E982E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7E6E3D-F532-4071-BEC3-F1851AA07BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -1315,6 +1315,11 @@
             <v>LP_Transport_Teleported</v>
           </cell>
         </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -1402,21 +1407,20 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>CreateWall</v>
           </cell>
           <cell r="F2" t="str">
-            <v>이동 중에 히트오브젝트를 주기적으로 생성
-맵 이동 시에 만들어진 것들을 삭제한다</v>
+            <v>시간에 따라 벽방패를 주기적으로 생성 4방향으로 차례로 돌려가면서 나타남</v>
           </cell>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
           </cell>
           <cell r="J2" t="str">
-            <v>거리 틱</v>
+            <v>시간 틱</v>
           </cell>
           <cell r="K2" t="str">
-            <v/>
+            <v>유지 시간</v>
           </cell>
           <cell r="L2" t="str">
             <v/>
@@ -1443,7 +1447,7 @@
             <v/>
           </cell>
           <cell r="T2" t="str">
-            <v>히트오브젝트인포가 들어있는 프리팹명</v>
+            <v>프리팹명</v>
           </cell>
           <cell r="U2" t="str">
             <v/>
@@ -10213,10 +10217,10 @@
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>LP_MineOnMove_01</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
           </cell>
           <cell r="B271" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C271" t="str">
             <v/>
@@ -10225,30 +10229,36 @@
             <v>1</v>
           </cell>
           <cell r="E271" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I271">
-            <v>-1</v>
+            <v>5</v>
           </cell>
           <cell r="J271">
+            <v>0.25</v>
+          </cell>
+          <cell r="M271" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O271">
             <v>10</v>
           </cell>
-          <cell r="O271" t="str">
-            <v/>
-          </cell>
-          <cell r="S271" t="str">
-            <v/>
-          </cell>
-          <cell r="T271" t="str">
-            <v>MineHitObjectInfo</v>
+          <cell r="R271">
+            <v>1</v>
+          </cell>
+          <cell r="S271">
+            <v>1</v>
+          </cell>
+          <cell r="W271" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272" t="str">
-            <v>LP_MineOnMove_02</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
           </cell>
           <cell r="B272" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C272" t="str">
             <v/>
@@ -10257,30 +10267,36 @@
             <v>2</v>
           </cell>
           <cell r="E272" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I272">
-            <v>-1</v>
+            <v>7</v>
           </cell>
           <cell r="J272">
-            <v>9.5</v>
-          </cell>
-          <cell r="O272" t="str">
-            <v/>
-          </cell>
-          <cell r="S272" t="str">
-            <v/>
-          </cell>
-          <cell r="T272" t="str">
-            <v>MineHitObjectInfo</v>
+            <v>0.3</v>
+          </cell>
+          <cell r="M272" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O272">
+            <v>10</v>
+          </cell>
+          <cell r="R272">
+            <v>1</v>
+          </cell>
+          <cell r="S272">
+            <v>1</v>
+          </cell>
+          <cell r="W272" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273" t="str">
-            <v>LP_MineOnMove_03</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
           </cell>
           <cell r="B273" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C273" t="str">
             <v/>
@@ -10289,30 +10305,36 @@
             <v>3</v>
           </cell>
           <cell r="E273" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I273">
-            <v>-1</v>
+            <v>9</v>
           </cell>
           <cell r="J273">
-            <v>9</v>
-          </cell>
-          <cell r="O273" t="str">
-            <v/>
-          </cell>
-          <cell r="S273" t="str">
-            <v/>
-          </cell>
-          <cell r="T273" t="str">
-            <v>MineHitObjectInfo</v>
+            <v>0.35</v>
+          </cell>
+          <cell r="M273" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O273">
+            <v>10</v>
+          </cell>
+          <cell r="R273">
+            <v>1</v>
+          </cell>
+          <cell r="S273">
+            <v>1</v>
+          </cell>
+          <cell r="W273" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274" t="str">
-            <v>LP_MineOnMove_04</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
           </cell>
           <cell r="B274" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C274" t="str">
             <v/>
@@ -10321,30 +10343,36 @@
             <v>4</v>
           </cell>
           <cell r="E274" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I274">
-            <v>-1</v>
+            <v>11</v>
           </cell>
           <cell r="J274">
-            <v>8.5</v>
-          </cell>
-          <cell r="O274" t="str">
-            <v/>
-          </cell>
-          <cell r="S274" t="str">
-            <v/>
-          </cell>
-          <cell r="T274" t="str">
-            <v>MineHitObjectInfo</v>
+            <v>0.4</v>
+          </cell>
+          <cell r="M274" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O274">
+            <v>10</v>
+          </cell>
+          <cell r="R274">
+            <v>1</v>
+          </cell>
+          <cell r="S274">
+            <v>1</v>
+          </cell>
+          <cell r="W274" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275" t="str">
-            <v>LP_MineOnMove_05</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
           </cell>
           <cell r="B275" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C275" t="str">
             <v/>
@@ -10353,30 +10381,36 @@
             <v>5</v>
           </cell>
           <cell r="E275" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I275">
-            <v>-1</v>
+            <v>13</v>
           </cell>
           <cell r="J275">
-            <v>8</v>
-          </cell>
-          <cell r="O275" t="str">
-            <v/>
-          </cell>
-          <cell r="S275" t="str">
-            <v/>
-          </cell>
-          <cell r="T275" t="str">
-            <v>MineHitObjectInfo</v>
+            <v>0.45</v>
+          </cell>
+          <cell r="M275" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O275">
+            <v>10</v>
+          </cell>
+          <cell r="R275">
+            <v>1</v>
+          </cell>
+          <cell r="S275">
+            <v>1</v>
+          </cell>
+          <cell r="W275" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276" t="str">
-            <v>LP_MineOnMove_06</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
           </cell>
           <cell r="B276" t="str">
-            <v>LP_MineOnMove</v>
+            <v>LP_MoveSpeedUpOnAttacked_Move</v>
           </cell>
           <cell r="C276" t="str">
             <v/>
@@ -10385,30 +10419,36 @@
             <v>6</v>
           </cell>
           <cell r="E276" t="str">
-            <v>CreateHitObjectMoving</v>
+            <v>ChangeActorStatus</v>
           </cell>
           <cell r="I276">
-            <v>-1</v>
+            <v>15</v>
           </cell>
           <cell r="J276">
-            <v>7.5</v>
-          </cell>
-          <cell r="O276" t="str">
-            <v/>
-          </cell>
-          <cell r="S276" t="str">
-            <v/>
-          </cell>
-          <cell r="T276" t="str">
-            <v>MineHitObjectInfo</v>
+            <v>0.5</v>
+          </cell>
+          <cell r="M276" t="str">
+            <v>MoveSpeedAddRate</v>
+          </cell>
+          <cell r="O276">
+            <v>10</v>
+          </cell>
+          <cell r="R276">
+            <v>1</v>
+          </cell>
+          <cell r="S276">
+            <v>1</v>
+          </cell>
+          <cell r="W276" t="str">
+            <v>P_AMFX03_shockwave</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277" t="str">
-            <v>LP_MineOnMove_Damage_01</v>
+            <v>LP_MineOnMove_01</v>
           </cell>
           <cell r="B277" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C277" t="str">
             <v/>
@@ -10417,24 +10457,30 @@
             <v>1</v>
           </cell>
           <cell r="E277" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I277">
-            <v>1</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J277">
+            <v>10</v>
           </cell>
           <cell r="O277" t="str">
             <v/>
           </cell>
           <cell r="S277" t="str">
             <v/>
+          </cell>
+          <cell r="T277" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278" t="str">
-            <v>LP_MineOnMove_Damage_02</v>
+            <v>LP_MineOnMove_02</v>
           </cell>
           <cell r="B278" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C278" t="str">
             <v/>
@@ -10443,24 +10489,30 @@
             <v>2</v>
           </cell>
           <cell r="E278" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I278">
-            <v>1.1000000000000001</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J278">
+            <v>9.5</v>
           </cell>
           <cell r="O278" t="str">
             <v/>
           </cell>
           <cell r="S278" t="str">
             <v/>
+          </cell>
+          <cell r="T278" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279" t="str">
-            <v>LP_MineOnMove_Damage_03</v>
+            <v>LP_MineOnMove_03</v>
           </cell>
           <cell r="B279" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C279" t="str">
             <v/>
@@ -10469,24 +10521,30 @@
             <v>3</v>
           </cell>
           <cell r="E279" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I279">
-            <v>1.2</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J279">
+            <v>9</v>
           </cell>
           <cell r="O279" t="str">
             <v/>
           </cell>
           <cell r="S279" t="str">
             <v/>
+          </cell>
+          <cell r="T279" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280" t="str">
-            <v>LP_MineOnMove_Damage_04</v>
+            <v>LP_MineOnMove_04</v>
           </cell>
           <cell r="B280" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C280" t="str">
             <v/>
@@ -10495,24 +10553,30 @@
             <v>4</v>
           </cell>
           <cell r="E280" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I280">
-            <v>1.3</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J280">
+            <v>8.5</v>
           </cell>
           <cell r="O280" t="str">
             <v/>
           </cell>
           <cell r="S280" t="str">
             <v/>
+          </cell>
+          <cell r="T280" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281" t="str">
-            <v>LP_MineOnMove_Damage_05</v>
+            <v>LP_MineOnMove_05</v>
           </cell>
           <cell r="B281" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C281" t="str">
             <v/>
@@ -10521,24 +10585,30 @@
             <v>5</v>
           </cell>
           <cell r="E281" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I281">
-            <v>1.4</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J281">
+            <v>8</v>
           </cell>
           <cell r="O281" t="str">
             <v/>
           </cell>
           <cell r="S281" t="str">
             <v/>
+          </cell>
+          <cell r="T281" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282" t="str">
-            <v>LP_MineOnMove_Damage_06</v>
+            <v>LP_MineOnMove_06</v>
           </cell>
           <cell r="B282" t="str">
-            <v>LP_MineOnMove_Damage</v>
+            <v>LP_MineOnMove</v>
           </cell>
           <cell r="C282" t="str">
             <v/>
@@ -10547,24 +10617,30 @@
             <v>6</v>
           </cell>
           <cell r="E282" t="str">
-            <v>BaseDamage</v>
+            <v>CreateHitObjectMoving</v>
           </cell>
           <cell r="I282">
-            <v>1.5</v>
+            <v>-1</v>
+          </cell>
+          <cell r="J282">
+            <v>7.5</v>
           </cell>
           <cell r="O282" t="str">
             <v/>
           </cell>
           <cell r="S282" t="str">
             <v/>
+          </cell>
+          <cell r="T282" t="str">
+            <v>MineHitObjectInfo</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_01</v>
+            <v>LP_MineOnMove_Damage_01</v>
           </cell>
           <cell r="B283" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C283" t="str">
             <v/>
@@ -10573,36 +10649,24 @@
             <v>1</v>
           </cell>
           <cell r="E283" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="I283">
-            <v>5</v>
-          </cell>
-          <cell r="J283">
-            <v>0.25</v>
-          </cell>
-          <cell r="M283" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O283">
-            <v>10</v>
-          </cell>
-          <cell r="R283">
-            <v>1</v>
-          </cell>
-          <cell r="S283">
-            <v>1</v>
-          </cell>
-          <cell r="W283" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>1</v>
+          </cell>
+          <cell r="O283" t="str">
+            <v/>
+          </cell>
+          <cell r="S283" t="str">
+            <v/>
           </cell>
         </row>
         <row r="284">
           <cell r="A284" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_02</v>
+            <v>LP_MineOnMove_Damage_02</v>
           </cell>
           <cell r="B284" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C284" t="str">
             <v/>
@@ -10611,36 +10675,24 @@
             <v>2</v>
           </cell>
           <cell r="E284" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="I284">
-            <v>7</v>
-          </cell>
-          <cell r="J284">
-            <v>0.3</v>
-          </cell>
-          <cell r="M284" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O284">
-            <v>10</v>
-          </cell>
-          <cell r="R284">
-            <v>1</v>
-          </cell>
-          <cell r="S284">
-            <v>1</v>
-          </cell>
-          <cell r="W284" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="O284" t="str">
+            <v/>
+          </cell>
+          <cell r="S284" t="str">
+            <v/>
           </cell>
         </row>
         <row r="285">
           <cell r="A285" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_03</v>
+            <v>LP_MineOnMove_Damage_03</v>
           </cell>
           <cell r="B285" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C285" t="str">
             <v/>
@@ -10649,36 +10701,24 @@
             <v>3</v>
           </cell>
           <cell r="E285" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="I285">
-            <v>9</v>
-          </cell>
-          <cell r="J285">
-            <v>0.35</v>
-          </cell>
-          <cell r="M285" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O285">
-            <v>10</v>
-          </cell>
-          <cell r="R285">
-            <v>1</v>
-          </cell>
-          <cell r="S285">
-            <v>1</v>
-          </cell>
-          <cell r="W285" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>1.2</v>
+          </cell>
+          <cell r="O285" t="str">
+            <v/>
+          </cell>
+          <cell r="S285" t="str">
+            <v/>
           </cell>
         </row>
         <row r="286">
           <cell r="A286" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_04</v>
+            <v>LP_MineOnMove_Damage_04</v>
           </cell>
           <cell r="B286" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C286" t="str">
             <v/>
@@ -10687,36 +10727,24 @@
             <v>4</v>
           </cell>
           <cell r="E286" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="I286">
-            <v>11</v>
-          </cell>
-          <cell r="J286">
-            <v>0.4</v>
-          </cell>
-          <cell r="M286" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O286">
-            <v>10</v>
-          </cell>
-          <cell r="R286">
-            <v>1</v>
-          </cell>
-          <cell r="S286">
-            <v>1</v>
-          </cell>
-          <cell r="W286" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>1.3</v>
+          </cell>
+          <cell r="O286" t="str">
+            <v/>
+          </cell>
+          <cell r="S286" t="str">
+            <v/>
           </cell>
         </row>
         <row r="287">
           <cell r="A287" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_05</v>
+            <v>LP_MineOnMove_Damage_05</v>
           </cell>
           <cell r="B287" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C287" t="str">
             <v/>
@@ -10725,36 +10753,24 @@
             <v>5</v>
           </cell>
           <cell r="E287" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="I287">
-            <v>13</v>
-          </cell>
-          <cell r="J287">
-            <v>0.45</v>
-          </cell>
-          <cell r="M287" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O287">
-            <v>10</v>
-          </cell>
-          <cell r="R287">
-            <v>1</v>
-          </cell>
-          <cell r="S287">
-            <v>1</v>
-          </cell>
-          <cell r="W287" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>1.4</v>
+          </cell>
+          <cell r="O287" t="str">
+            <v/>
+          </cell>
+          <cell r="S287" t="str">
+            <v/>
           </cell>
         </row>
         <row r="288">
           <cell r="A288" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move_06</v>
+            <v>LP_MineOnMove_Damage_06</v>
           </cell>
           <cell r="B288" t="str">
-            <v>LP_MoveSpeedUpOnAttacked_Move</v>
+            <v>LP_MineOnMove_Damage</v>
           </cell>
           <cell r="C288" t="str">
             <v/>
@@ -10763,28 +10779,16 @@
             <v>6</v>
           </cell>
           <cell r="E288" t="str">
-            <v>ChangeActorStatus</v>
+            <v>CollisionDamage</v>
           </cell>
           <cell r="I288">
-            <v>15</v>
-          </cell>
-          <cell r="J288">
-            <v>0.5</v>
-          </cell>
-          <cell r="M288" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="O288">
-            <v>10</v>
-          </cell>
-          <cell r="R288">
-            <v>1</v>
-          </cell>
-          <cell r="S288">
-            <v>1</v>
-          </cell>
-          <cell r="W288" t="str">
-            <v>P_AMFX03_shockwave</v>
+            <v>1.5</v>
+          </cell>
+          <cell r="O288" t="str">
+            <v/>
+          </cell>
+          <cell r="S288" t="str">
+            <v/>
           </cell>
         </row>
         <row r="289">
@@ -11920,6 +11924,181 @@
           </cell>
           <cell r="W323" t="str">
             <v>Effect6_Collision_D2</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="A324" t="str">
+            <v>LP_SummonShield_01</v>
+          </cell>
+          <cell r="B324" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C324" t="str">
+            <v/>
+          </cell>
+          <cell r="D324">
+            <v>1</v>
+          </cell>
+          <cell r="E324" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="I324">
+            <v>-1</v>
+          </cell>
+          <cell r="J324">
+            <v>9</v>
+          </cell>
+          <cell r="K324">
+            <v>2.5</v>
+          </cell>
+          <cell r="O324" t="str">
+            <v/>
+          </cell>
+          <cell r="S324" t="str">
+            <v/>
+          </cell>
+          <cell r="T324" t="str">
+            <v>Magic_shield_2_D</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="A325" t="str">
+            <v>LP_SummonShield_02</v>
+          </cell>
+          <cell r="B325" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C325" t="str">
+            <v/>
+          </cell>
+          <cell r="D325">
+            <v>2</v>
+          </cell>
+          <cell r="E325" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="I325">
+            <v>-1</v>
+          </cell>
+          <cell r="J325">
+            <v>8</v>
+          </cell>
+          <cell r="K325">
+            <v>2.5</v>
+          </cell>
+          <cell r="O325" t="str">
+            <v/>
+          </cell>
+          <cell r="S325" t="str">
+            <v/>
+          </cell>
+          <cell r="T325" t="str">
+            <v>Magic_shield_2_D</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="A326" t="str">
+            <v>LP_SummonShield_03</v>
+          </cell>
+          <cell r="B326" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C326" t="str">
+            <v/>
+          </cell>
+          <cell r="D326">
+            <v>3</v>
+          </cell>
+          <cell r="E326" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="I326">
+            <v>-1</v>
+          </cell>
+          <cell r="J326">
+            <v>7</v>
+          </cell>
+          <cell r="K326">
+            <v>2.5</v>
+          </cell>
+          <cell r="O326" t="str">
+            <v/>
+          </cell>
+          <cell r="S326" t="str">
+            <v/>
+          </cell>
+          <cell r="T326" t="str">
+            <v>Magic_shield_2_D</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="A327" t="str">
+            <v>LP_SummonShield_04</v>
+          </cell>
+          <cell r="B327" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C327" t="str">
+            <v/>
+          </cell>
+          <cell r="D327">
+            <v>4</v>
+          </cell>
+          <cell r="E327" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="I327">
+            <v>-1</v>
+          </cell>
+          <cell r="J327">
+            <v>6</v>
+          </cell>
+          <cell r="K327">
+            <v>2.5</v>
+          </cell>
+          <cell r="O327" t="str">
+            <v/>
+          </cell>
+          <cell r="S327" t="str">
+            <v/>
+          </cell>
+          <cell r="T327" t="str">
+            <v>Magic_shield_2_D</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="A328" t="str">
+            <v>LP_SummonShield_05</v>
+          </cell>
+          <cell r="B328" t="str">
+            <v>LP_SummonShield</v>
+          </cell>
+          <cell r="C328" t="str">
+            <v/>
+          </cell>
+          <cell r="D328">
+            <v>5</v>
+          </cell>
+          <cell r="E328" t="str">
+            <v>CreateWall</v>
+          </cell>
+          <cell r="I328">
+            <v>-1</v>
+          </cell>
+          <cell r="J328">
+            <v>5</v>
+          </cell>
+          <cell r="K328">
+            <v>2.5</v>
+          </cell>
+          <cell r="O328" t="str">
+            <v/>
+          </cell>
+          <cell r="S328" t="str">
+            <v/>
+          </cell>
+          <cell r="T328" t="str">
+            <v>Magic_shield_2_D</v>
           </cell>
         </row>
       </sheetData>
@@ -17393,7 +17572,7 @@
   IF(OR(ISERROR(VLOOKUP(LEFT(F51,FIND(",",F51)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51)+1,FIND(",",F51,FIND(",",F51)+1)-FIND(",",F51)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51,FIND(",",F51)+1)+1,FIND(",",F51,FIND(",",F51,FIND(",",F51)+1)+1)-FIND(",",F51,FIND(",",F51)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F51,FIND(",",F51,FIND(",",F51,FIND(",",F51)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
   ""),
 )))))</f>
-        <v>어펙터밸류없음</v>
+        <v/>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="10"/>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7E6E3D-F532-4071-BEC3-F1851AA07BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65781A10-BE72-4E42-8C77-DEB44CD67C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="130">
   <si>
     <t>icon|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,39 +445,6 @@
   <si>
     <t>이 행은 수식보존을 위한 더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_ExtraGold</t>
-  </si>
-  <si>
-    <t>LP_ItemChanceBoost</t>
-  </si>
-  <si>
-    <t>LP_HealChanceBoost</t>
-  </si>
-  <si>
-    <t>LP_MonsterThrough</t>
-  </si>
-  <si>
-    <t>LP_Ricochet</t>
-  </si>
-  <si>
-    <t>LP_BounceWallQuad</t>
-  </si>
-  <si>
-    <t>LP_Parallel</t>
-  </si>
-  <si>
-    <t>LP_DiagonalNwayGenerator</t>
-  </si>
-  <si>
-    <t>LP_LeftRightNwayGenerator</t>
-  </si>
-  <si>
-    <t>LP_BackNwayGenerator</t>
-  </si>
-  <si>
-    <t>LP_Repeat</t>
   </si>
   <si>
     <t>effectAddress|String!</t>
@@ -755,62 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LP_MaxHp</t>
-  </si>
-  <si>
-    <t>LP_MaxHpBetter</t>
-  </si>
-  <si>
-    <t>LP_MaxHpBest</t>
-  </si>
-  <si>
-    <t>LP_ReduceDmgProjectile</t>
-  </si>
-  <si>
-    <t>LP_ReduceDmgClose</t>
-  </si>
-  <si>
-    <t>LP_HealOnKill</t>
-  </si>
-  <si>
-    <t>LP_HealOnKillBetter</t>
-  </si>
-  <si>
-    <t>LP_AtkSpeedUpOnEncounter</t>
-  </si>
-  <si>
-    <t>LP_AtkSpeedUpOnEncounterBetter</t>
-  </si>
-  <si>
-    <t>LP_VampireOnAttack</t>
-  </si>
-  <si>
-    <t>LP_VampireOnAttackBetter</t>
-  </si>
-  <si>
-    <t>LP_RecoverOnAttacked</t>
-  </si>
-  <si>
-    <t>LP_ReflectOnAttacked</t>
-  </si>
-  <si>
-    <t>LP_ReflectOnAttackedBetter</t>
-  </si>
-  <si>
-    <t>LP_AtkUpOnLowerHp</t>
-  </si>
-  <si>
-    <t>LP_AtkUpOnLowerHpBetter</t>
-  </si>
-  <si>
-    <t>LP_CritDmgUpOnLowerHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_CritDmgUpOnLowerHpBetter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확률참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12102,9 +12013,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12985,7 +12896,7 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>LevelPackUIName_BombOrbOnMove</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B78" t="str">
             <v>이동 중 오브 설치</v>
@@ -13546,7 +13457,7 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIDesc_BombOrbOnMove</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B129" t="str">
             <v>이동 시 공격구체를 설치합니다</v>
@@ -13659,7 +13570,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14180,18 +14091,18 @@
     <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="31.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="22.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="31.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="22.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="30.375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="7.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="30.375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="31" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14209,7 +14120,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -14242,15 +14153,15 @@
         <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -14263,7 +14174,7 @@
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F10" si="0">"LP_"&amp;A2</f>
+        <f t="shared" ref="F2:F46" si="0">"LP_"&amp;A2</f>
         <v>LP_Atk</v>
       </c>
       <c r="G2" s="1" t="str">
@@ -14314,10 +14225,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -14379,15 +14290,15 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -14454,10 +14365,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -14521,10 +14432,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -14586,15 +14497,15 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -14658,10 +14569,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -14725,10 +14636,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -14792,10 +14703,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>1</v>
@@ -14859,10 +14770,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
@@ -14874,8 +14785,9 @@
         <f t="shared" si="2"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>132</v>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_MaxHp</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IF(ISBLANK(F11),"",
@@ -14925,10 +14837,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>1</v>
@@ -14940,8 +14852,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>133</v>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_MaxHpBetter</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>IF(ISBLANK(F12),"",
@@ -14991,10 +14904,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>1</v>
@@ -15006,8 +14919,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>134</v>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_MaxHpBest</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IF(ISBLANK(F13),"",
@@ -15057,10 +14971,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
@@ -15072,8 +14986,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>135</v>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_ReduceDmgProjectile</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>IF(ISBLANK(F14),"",
@@ -15123,10 +15038,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
@@ -15138,8 +15053,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>136</v>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_ReduceDmgClose</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IF(ISBLANK(F15),"",
@@ -15189,10 +15105,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
@@ -15204,8 +15120,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_ExtraGold</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>IF(ISBLANK(F16),"",
@@ -15255,10 +15172,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
@@ -15270,8 +15187,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_ItemChanceBoost</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>IF(ISBLANK(F17),"",
@@ -15321,10 +15239,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
@@ -15336,8 +15254,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_HealChanceBoost</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>IF(ISBLANK(F18),"",
@@ -15387,10 +15306,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>1</v>
@@ -15402,8 +15321,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_MonsterThrough</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>IF(ISBLANK(F19),"",
@@ -15453,10 +15373,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>1</v>
@@ -15468,8 +15388,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_Ricochet</v>
       </c>
       <c r="G20" s="1" t="str">
         <f>IF(ISBLANK(F20),"",
@@ -15519,10 +15440,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>1</v>
@@ -15534,8 +15455,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_BounceWallQuad</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>IF(ISBLANK(F21),"",
@@ -15585,10 +15507,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>1</v>
@@ -15600,8 +15522,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_Parallel</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>IF(ISBLANK(F22),"",
@@ -15651,10 +15574,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>1</v>
@@ -15666,8 +15589,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_DiagonalNwayGenerator</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>IF(ISBLANK(F23),"",
@@ -15717,10 +15641,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>1</v>
@@ -15732,8 +15656,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_LeftRightNwayGenerator</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>IF(ISBLANK(F24),"",
@@ -15783,10 +15708,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>1</v>
@@ -15798,8 +15723,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>40</v>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_BackNwayGenerator</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IF(ISBLANK(F25),"",
@@ -15849,10 +15775,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>1</v>
@@ -15864,8 +15790,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_Repeat</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>IF(ISBLANK(F26),"",
@@ -15915,10 +15842,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
@@ -15930,8 +15857,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>137</v>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_HealOnKill</v>
       </c>
       <c r="G27" s="1" t="str">
         <f>IF(ISBLANK(F27),"",
@@ -15981,10 +15909,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>1</v>
@@ -15996,8 +15924,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>138</v>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_HealOnKillBetter</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IF(ISBLANK(F28),"",
@@ -16047,10 +15976,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
@@ -16062,8 +15991,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>139</v>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_AtkSpeedUpOnEncounter</v>
       </c>
       <c r="G29" s="1" t="str">
         <f>IF(ISBLANK(F29),"",
@@ -16112,15 +16042,15 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="b">
         <v>1</v>
@@ -16132,8 +16062,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>140</v>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_AtkSpeedUpOnEncounterBetter</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>IF(ISBLANK(F30),"",
@@ -16182,15 +16113,15 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="b">
         <v>0</v>
@@ -16202,8 +16133,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>141</v>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_VampireOnAttack</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(ISBLANK(F31),"",
@@ -16253,10 +16185,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>1</v>
@@ -16268,8 +16200,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>142</v>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_VampireOnAttackBetter</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IF(ISBLANK(F32),"",
@@ -16319,10 +16252,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>0</v>
@@ -16334,8 +16267,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>143</v>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_RecoverOnAttacked</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>IF(ISBLANK(F33),"",
@@ -16385,10 +16319,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="b">
         <v>0</v>
@@ -16400,8 +16334,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>144</v>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_ReflectOnAttacked</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>IF(ISBLANK(F34),"",
@@ -16451,10 +16386,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="b">
         <v>1</v>
@@ -16466,8 +16401,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>145</v>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_ReflectOnAttackedBetter</v>
       </c>
       <c r="G35" s="1" t="str">
         <f>IF(ISBLANK(F35),"",
@@ -16517,10 +16453,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="b">
         <v>0</v>
@@ -16532,8 +16468,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>146</v>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_AtkUpOnLowerHp</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IF(ISBLANK(F36),"",
@@ -16584,10 +16521,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="b">
         <v>1</v>
@@ -16599,8 +16536,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>147</v>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_AtkUpOnLowerHpBetter</v>
       </c>
       <c r="G37" s="1" t="str">
         <f>IF(ISBLANK(F37),"",
@@ -16651,10 +16589,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="b">
         <v>0</v>
@@ -16666,8 +16604,9 @@
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>148</v>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_CritDmgUpOnLowerHp</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IF(ISBLANK(F38),"",
@@ -16718,10 +16657,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="b">
         <v>1</v>
@@ -16733,8 +16672,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>149</v>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LP_CritDmgUpOnLowerHpBetter</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF(ISBLANK(F39),"",
@@ -16785,10 +16725,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="b">
         <v>0</v>
@@ -16801,7 +16741,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" ref="F40:F51" si="12">"LP_"&amp;A40</f>
+        <f t="shared" si="0"/>
         <v>LP_InstantKill</v>
       </c>
       <c r="G40" s="1" t="str">
@@ -16852,10 +16792,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="b">
         <v>1</v>
@@ -16868,7 +16808,7 @@
         <v/>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>LP_InstantKillBetter</v>
       </c>
       <c r="G41" s="1" t="str">
@@ -16919,10 +16859,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C42" s="1" t="b">
         <v>0</v>
@@ -16935,7 +16875,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>LP_ImmortalWill</v>
       </c>
       <c r="G42" s="1" t="str">
@@ -16986,10 +16926,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="b">
         <v>1</v>
@@ -17002,7 +16942,7 @@
         <v/>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>LP_ImmortalWillBetter</v>
       </c>
       <c r="G43" s="1" t="str">
@@ -17053,10 +16993,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="b">
         <v>0</v>
@@ -17069,7 +17009,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>"LP_"&amp;A44</f>
+        <f t="shared" si="0"/>
         <v>LP_HealAreaOnEncounter</v>
       </c>
       <c r="G44" s="1" t="str">
@@ -17118,15 +17058,15 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="b">
         <v>0</v>
@@ -17139,7 +17079,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>LP_MoveSpeedUpOnAttacked</v>
       </c>
       <c r="G45" s="1" t="str">
@@ -17189,15 +17129,15 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="b">
         <v>0</v>
@@ -17210,7 +17150,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>"LP_"&amp;A46</f>
+        <f t="shared" si="0"/>
         <v>LP_MineOnMove</v>
       </c>
       <c r="G46" s="1" t="str">
@@ -17243,14 +17183,14 @@
 IFERROR(VLOOKUP(H46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(H46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>스트링없음</v>
+        <v>이동 중 오브 설치</v>
       </c>
       <c r="K46" s="1" t="str">
         <f>IF(ISBLANK(I46),"",
 IFERROR(VLOOKUP(I46,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0),
 IFERROR(VLOOKUP(I46,[2]InApkStringTable!$1:$1048576,MATCH([2]InApkStringTable!$B$1,[2]InApkStringTable!$1:$1,0),0),
 "스트링없음")))</f>
-        <v>스트링없음</v>
+        <v>이동 시 공격구체를 설치합니다</v>
       </c>
       <c r="L46" s="1">
         <v>6</v>
@@ -17259,15 +17199,15 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="b">
         <v>0</v>
@@ -17331,10 +17271,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="b">
         <v>0</v>
@@ -17347,7 +17287,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F40:F51" si="12">"LP_"&amp;A48</f>
         <v>LP_Paralyze</v>
       </c>
       <c r="G48" s="1" t="str">
@@ -17398,10 +17338,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="b">
         <v>0</v>
@@ -17463,15 +17403,15 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="b">
         <v>0</v>
@@ -17533,15 +17473,15 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="b">
         <v>0</v>
@@ -17603,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76583E0E-C57F-41AC-8A31-009B81F630AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7258EE-0F1D-4F81-9090-FA4D22AF5060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
@@ -1401,8 +1401,6 @@
           <cell r="F2" t="str">
             <v>특정 범위 원 안에서 특정한 능력치를 얻게 함</v>
           </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
@@ -2081,7 +2079,6 @@
           <cell r="M17" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="N17"/>
           <cell r="O17">
             <v>18</v>
           </cell>
@@ -12861,9 +12858,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13689,7 +13686,7 @@
             <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Characters already in combat will not recover</v>
+            <v>Characters already in combat will not recover HP/SP</v>
           </cell>
         </row>
         <row r="74">
@@ -16114,24 +16111,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228BB8E1-607B-4A4F-85DA-23E22708D848}">
-  <dimension ref="A1:AB51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="5.125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="9" outlineLevel="1"/>
-    <col min="23" max="28" width="5.125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" collapsed="1"/>
+    <col min="8" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="5.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" collapsed="1"/>
+    <col min="15" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="21" width="5.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16165,50 +16166,29 @@
       <c r="M1" t="s">
         <v>137</v>
       </c>
-      <c r="N1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O1">
-        <v>1.3</v>
-      </c>
-      <c r="P1">
-        <v>1.55</v>
-      </c>
-      <c r="Q1">
-        <v>1.8</v>
-      </c>
-      <c r="R1">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="O1" t="s">
         <v>140</v>
       </c>
-      <c r="U1" t="s">
+      <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Q1" t="s">
         <v>135</v>
       </c>
-      <c r="W1" t="s">
+      <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="X1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Y1">
-        <v>1.3</v>
-      </c>
-      <c r="Z1">
-        <v>1.55</v>
-      </c>
-      <c r="AA1">
-        <v>1.8</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
+      <c r="S1">
+        <v>0.8</v>
+      </c>
+      <c r="T1">
+        <v>0.6</v>
+      </c>
+      <c r="U1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16219,18 +16199,18 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">A2</f>
+        <f t="shared" ref="D2:D17" si="0">A2</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
         <f>IF(MOD($H2,5)=0,0,$F$5)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <f>IF(MOD($H2,10)=0,1,0)</f>
@@ -16238,82 +16218,54 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K33" si="1">I2*$F$2+J2*$F$8</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L2">
         <f>IF(ISNUMBER(L1),L1,0)+K2</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M2">
         <f>VLOOKUP($L2,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <f>VLOOKUP($L2*N$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:R17" si="2">VLOOKUP($L2*O$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+      <c r="P2">
+        <v>260</v>
+      </c>
+      <c r="Q2">
+        <f>IF(ISNUMBER(Q1),Q1,0)+P2</f>
+        <v>260</v>
+      </c>
+      <c r="R2">
+        <f>VLOOKUP($Q2,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <f>VLOOKUP($Q2*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <f>VLOOKUP($Q2*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>2</v>
       </c>
-      <c r="P2">
-        <f t="shared" si="2"/>
+      <c r="U2">
+        <f>VLOOKUP($Q2*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>2</v>
       </c>
-      <c r="Q2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>400</v>
-      </c>
-      <c r="V2">
-        <f>IF(ISNUMBER(V1),V1,0)+U2</f>
-        <v>400</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W10" si="3">VLOOKUP($V2,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <f t="shared" ref="X2:AB10" si="4">VLOOKUP($V2*X$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>$F$11</f>
-        <v>150</v>
+        <f>F11</f>
+        <v>60</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C16" si="5">C2+B3</f>
-        <v>150</v>
+        <f t="shared" ref="C3:C17" si="2">C2+B3</f>
+        <v>60</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -16323,92 +16275,64 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I51" si="6">IF(MOD($H3,5)=0,0,$F$5)</f>
-        <v>12</v>
+        <f t="shared" ref="I3:I51" si="3">IF(MOD($H3,5)=0,0,$F$5)</f>
+        <v>25</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J51" si="7">IF(MOD($H3,10)=0,1,0)</f>
+        <f t="shared" ref="J3:J51" si="4">IF(MOD($H3,10)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L51" si="8">IF(ISNUMBER(L2),L2,0)+K3</f>
-        <v>240</v>
+        <f t="shared" ref="L3:L51" si="5">IF(ISNUMBER(L2),L2,0)+K3</f>
+        <v>250</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M51" si="9">VLOOKUP($L3,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f>VLOOKUP($L3,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:R34" si="10">VLOOKUP($L3*N$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="P3">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" ref="P3:P10" si="6">P2+380</f>
+        <v>640</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" ref="Q3:Q10" si="7">IF(ISNUMBER(Q2),Q2,0)+P3</f>
+        <v>900</v>
       </c>
       <c r="R3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>VLOOKUP($Q3,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <f>VLOOKUP($Q3*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <f>VLOOKUP($Q3*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>5</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U5" si="11">U2+300</f>
-        <v>700</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V10" si="12">IF(ISNUMBER(V2),V2,0)+U3</f>
-        <v>1100</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP($Q3*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>4</v>
       </c>
-      <c r="X3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B16" si="13">$F$11+($A4-2)*$F$14</f>
-        <v>250</v>
+        <f t="shared" ref="B4:B17" si="8">B3+$F$14</f>
+        <v>100</v>
       </c>
       <c r="C4">
-        <f t="shared" si="5"/>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -16421,190 +16345,134 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L4">
-        <f t="shared" si="8"/>
-        <v>360</v>
+        <f t="shared" si="5"/>
+        <v>375</v>
       </c>
       <c r="M4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP($L4,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="P4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1020</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1920</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>VLOOKUP($Q4,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <f>VLOOKUP($Q4*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <f>VLOOKUP($Q4*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>7</v>
       </c>
       <c r="U4">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="12"/>
-        <v>2100</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP($Q4*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>7</v>
       </c>
-      <c r="Y4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="13"/>
-        <v>350</v>
+        <f t="shared" si="8"/>
+        <v>140</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L5">
-        <f t="shared" si="8"/>
-        <v>480</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="M5">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>VLOOKUP($L5,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>5</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1400</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3320</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>VLOOKUP($Q5,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <f>VLOOKUP($Q5*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>11</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <f>VLOOKUP($Q5*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>10</v>
       </c>
       <c r="U5">
-        <f t="shared" si="11"/>
-        <v>1300</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="12"/>
-        <v>3400</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP($Q5*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>9</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="13"/>
-        <v>450</v>
+        <f t="shared" si="8"/>
+        <v>180</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
-        <v>1200</v>
+        <f t="shared" si="2"/>
+        <v>480</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -16614,11 +16482,11 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -16626,80 +16494,52 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="8"/>
-        <v>480</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="M6">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>VLOOKUP($L6,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>5</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1780</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5100</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>VLOOKUP($Q6,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <f>VLOOKUP($Q6*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <f>VLOOKUP($Q6*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>12</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U10" si="14">U5+0</f>
-        <v>1300</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="12"/>
-        <v>4700</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP($Q6*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>11</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="13"/>
-        <v>550</v>
+        <f t="shared" si="8"/>
+        <v>220</v>
       </c>
       <c r="C7">
-        <f t="shared" si="5"/>
-        <v>1750</v>
+        <f t="shared" si="2"/>
+        <v>700</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16712,190 +16552,134 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L7">
-        <f t="shared" si="8"/>
-        <v>600</v>
+        <f t="shared" si="5"/>
+        <v>625</v>
       </c>
       <c r="M7">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>VLOOKUP($L7,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>5</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2160</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>7260</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>VLOOKUP($Q7,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <f>VLOOKUP($Q7*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <f>VLOOKUP($Q7*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
       <c r="U7">
-        <f t="shared" si="14"/>
-        <v>1300</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="12"/>
-        <v>6000</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP($Q7*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>13</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="13"/>
-        <v>650</v>
+        <f t="shared" si="8"/>
+        <v>260</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
-        <v>2400</v>
+        <f t="shared" si="2"/>
+        <v>960</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F8">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L8">
-        <f t="shared" si="8"/>
-        <v>720</v>
+        <f t="shared" si="5"/>
+        <v>750</v>
       </c>
       <c r="M8">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f>VLOOKUP($L8,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>6</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2540</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>9800</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>VLOOKUP($Q8,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <f>VLOOKUP($Q8*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <f>VLOOKUP($Q8*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="U8">
-        <f t="shared" si="14"/>
-        <v>1300</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="12"/>
-        <v>7300</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP($Q8*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>15</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="13"/>
-        <v>750</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>3150</v>
+        <f t="shared" si="2"/>
+        <v>1260</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -16905,92 +16689,64 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L9">
-        <f t="shared" si="8"/>
-        <v>840</v>
+        <f t="shared" si="5"/>
+        <v>875</v>
       </c>
       <c r="M9">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f>VLOOKUP($L9,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>6</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>2920</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>12720</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>VLOOKUP($Q9,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <f>VLOOKUP($Q9*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <f>VLOOKUP($Q9*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="U9">
-        <f t="shared" si="14"/>
-        <v>1300</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="12"/>
-        <v>8600</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>VLOOKUP($Q9*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="13"/>
-        <v>850</v>
+        <f t="shared" si="8"/>
+        <v>340</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -17003,155 +16759,107 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L10">
-        <f t="shared" si="8"/>
-        <v>960</v>
+        <f t="shared" si="5"/>
+        <v>1000</v>
       </c>
       <c r="M10">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f>VLOOKUP($L10,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>7</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>3300</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>16020</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>VLOOKUP($Q10,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <f>VLOOKUP($Q10*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <f>VLOOKUP($Q10*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
       <c r="U10">
-        <f t="shared" si="14"/>
-        <v>1300</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="12"/>
-        <v>9900</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>VLOOKUP($Q10*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="13"/>
-        <v>950</v>
+        <f t="shared" si="8"/>
+        <v>380</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
-        <v>4950</v>
+        <f t="shared" si="2"/>
+        <v>1980</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="L11">
-        <f t="shared" si="8"/>
-        <v>1200</v>
+        <f t="shared" si="5"/>
+        <v>1096</v>
       </c>
       <c r="M11">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($L11,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="13"/>
-        <v>1050</v>
+        <f t="shared" si="8"/>
+        <v>420</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
-        <v>6000</v>
+        <f t="shared" si="2"/>
+        <v>2400</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -17161,57 +16869,37 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L12">
-        <f t="shared" si="8"/>
-        <v>1320</v>
+        <f t="shared" si="5"/>
+        <v>1221</v>
       </c>
       <c r="M12">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($L12,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="13"/>
-        <v>1150</v>
+        <f t="shared" si="8"/>
+        <v>460</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
-        <v>7150</v>
+        <f t="shared" si="2"/>
+        <v>2860</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -17224,120 +16912,80 @@
         <v>12</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
-        <v>1440</v>
+        <f t="shared" si="5"/>
+        <v>1346</v>
       </c>
       <c r="M13">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>VLOOKUP($L13,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="13"/>
-        <v>1250</v>
+        <f t="shared" si="8"/>
+        <v>500</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
-        <v>8400</v>
+        <f t="shared" si="2"/>
+        <v>3360</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
-        <v>1560</v>
+        <f t="shared" si="5"/>
+        <v>1471</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>VLOOKUP($L14,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="13"/>
-        <v>1350</v>
+        <f t="shared" si="8"/>
+        <v>540</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
-        <v>9750</v>
+        <f t="shared" si="2"/>
+        <v>3900</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -17347,57 +16995,37 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
-        <v>1680</v>
+        <f t="shared" si="5"/>
+        <v>1596</v>
       </c>
       <c r="M15">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($L15,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="13"/>
-        <v>1450</v>
+        <f t="shared" si="8"/>
+        <v>580</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
-        <v>11200</v>
+        <f t="shared" si="2"/>
+        <v>4480</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -17407,11 +17035,11 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16">
@@ -17419,449 +17047,264 @@
         <v>0</v>
       </c>
       <c r="L16">
+        <f t="shared" si="5"/>
+        <v>1596</v>
+      </c>
+      <c r="M16">
+        <f>VLOOKUP($L16,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="8"/>
-        <v>1680</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O16">
+        <v>620</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.3">
+        <v>5100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L17">
-        <f t="shared" si="8"/>
-        <v>1800</v>
+        <f t="shared" si="5"/>
+        <v>1721</v>
       </c>
       <c r="M17">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>VLOOKUP($L17,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="18" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L18">
-        <f t="shared" si="8"/>
-        <v>1920</v>
+        <f t="shared" si="5"/>
+        <v>1846</v>
       </c>
       <c r="M18">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>VLOOKUP($L18,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="19" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L19">
-        <f t="shared" si="8"/>
-        <v>2040</v>
+        <f t="shared" si="5"/>
+        <v>1971</v>
       </c>
       <c r="M19">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP($L19,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
-        <v>2160</v>
+        <f t="shared" si="5"/>
+        <v>2096</v>
       </c>
       <c r="M20">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f>VLOOKUP($L20,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="21" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="L21">
-        <f t="shared" si="8"/>
-        <v>2400</v>
+        <f t="shared" si="5"/>
+        <v>2192</v>
       </c>
       <c r="M21">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f>VLOOKUP($L21,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="22" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L22">
-        <f t="shared" si="8"/>
-        <v>2520</v>
+        <f t="shared" si="5"/>
+        <v>2317</v>
       </c>
       <c r="M22">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP($L22,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L23">
-        <f t="shared" si="8"/>
-        <v>2640</v>
+        <f t="shared" si="5"/>
+        <v>2442</v>
       </c>
       <c r="M23">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>VLOOKUP($L23,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="24" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
-        <v>2760</v>
+        <f t="shared" si="5"/>
+        <v>2567</v>
       </c>
       <c r="M24">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>VLOOKUP($L24,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="25" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="5"/>
+        <v>2692</v>
       </c>
       <c r="M25">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>VLOOKUP($L25,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="26" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K26">
@@ -17869,1157 +17312,637 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
-        <v>2880</v>
+        <f t="shared" si="5"/>
+        <v>2692</v>
       </c>
       <c r="M26">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>VLOOKUP($L26,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="27" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
-        <v>3000</v>
+        <f t="shared" si="5"/>
+        <v>2817</v>
       </c>
       <c r="M27">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP($L27,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L28">
-        <f t="shared" si="8"/>
-        <v>3120</v>
+        <f t="shared" si="5"/>
+        <v>2942</v>
       </c>
       <c r="M28">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f>VLOOKUP($L28,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="29" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L29">
-        <f t="shared" si="8"/>
-        <v>3240</v>
+        <f t="shared" si="5"/>
+        <v>3067</v>
       </c>
       <c r="M29">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f>VLOOKUP($L29,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="30" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
-        <v>3360</v>
+        <f t="shared" si="5"/>
+        <v>3192</v>
       </c>
       <c r="M30">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f>VLOOKUP($L30,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="31" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="L31">
-        <f t="shared" si="8"/>
-        <v>3600</v>
+        <f t="shared" si="5"/>
+        <v>3288</v>
       </c>
       <c r="M31">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP($L31,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L32">
-        <f t="shared" si="8"/>
-        <v>3720</v>
+        <f t="shared" si="5"/>
+        <v>3413</v>
       </c>
       <c r="M32">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f>VLOOKUP($L32,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="33" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L33">
-        <f t="shared" si="8"/>
-        <v>3840</v>
+        <f t="shared" si="5"/>
+        <v>3538</v>
       </c>
       <c r="M33">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f>VLOOKUP($L33,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="34" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K51" si="15">I34*$F$2+J34*$F$8</f>
-        <v>120</v>
+        <f t="shared" ref="K34:K51" si="9">I34*$F$2+J34*$F$8</f>
+        <v>125</v>
       </c>
       <c r="L34">
-        <f t="shared" si="8"/>
-        <v>3960</v>
+        <f t="shared" si="5"/>
+        <v>3663</v>
       </c>
       <c r="M34">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f>VLOOKUP($L34,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="35" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L35">
-        <f t="shared" si="8"/>
-        <v>4080</v>
+        <f t="shared" si="5"/>
+        <v>3788</v>
       </c>
       <c r="M35">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ref="N35:R51" si="16">VLOOKUP($L35*N$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>9</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f>VLOOKUP($L35,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="36" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="8"/>
-        <v>4080</v>
+        <f t="shared" si="5"/>
+        <v>3788</v>
       </c>
       <c r="M36">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f>VLOOKUP($L36,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="37" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L37">
-        <f t="shared" si="8"/>
-        <v>4200</v>
+        <f t="shared" si="5"/>
+        <v>3913</v>
       </c>
       <c r="M37">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f>VLOOKUP($L37,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="38" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:13" collapsed="1" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L38">
-        <f t="shared" si="8"/>
-        <v>4320</v>
+        <f t="shared" si="5"/>
+        <v>4038</v>
       </c>
       <c r="M38">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f>VLOOKUP($L38,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="39" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L39">
-        <f t="shared" si="8"/>
-        <v>4440</v>
+        <f t="shared" si="5"/>
+        <v>4163</v>
       </c>
       <c r="M39">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f>VLOOKUP($L39,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="40" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L40">
-        <f t="shared" si="8"/>
-        <v>4560</v>
+        <f t="shared" si="5"/>
+        <v>4288</v>
       </c>
       <c r="M40">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f>VLOOKUP($L40,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="41" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K41">
-        <f t="shared" si="15"/>
-        <v>240</v>
+        <f t="shared" si="9"/>
+        <v>96</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
-        <v>4800</v>
+        <f t="shared" si="5"/>
+        <v>4384</v>
       </c>
       <c r="M41">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f>VLOOKUP($L41,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="42" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L42">
-        <f t="shared" si="8"/>
-        <v>4920</v>
+        <f t="shared" si="5"/>
+        <v>4509</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L42,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="43" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L43">
-        <f t="shared" si="8"/>
-        <v>5040</v>
+        <f t="shared" si="5"/>
+        <v>4634</v>
       </c>
       <c r="M43">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L43,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="44" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
-        <v>5160</v>
+        <f t="shared" si="5"/>
+        <v>4759</v>
       </c>
       <c r="M44">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L44,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="45" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L45">
-        <f t="shared" si="8"/>
-        <v>5280</v>
+        <f t="shared" si="5"/>
+        <v>4884</v>
       </c>
       <c r="M45">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L45,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="46" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="8"/>
-        <v>5280</v>
+        <f t="shared" si="5"/>
+        <v>4884</v>
       </c>
       <c r="M46">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L46,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="47" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L47">
-        <f t="shared" si="8"/>
-        <v>5400</v>
+        <f t="shared" si="5"/>
+        <v>5009</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L47,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="48" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L48">
-        <f t="shared" si="8"/>
-        <v>5520</v>
+        <f t="shared" si="5"/>
+        <v>5134</v>
       </c>
       <c r="M48">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f>VLOOKUP($L48,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="49" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L49">
-        <f t="shared" si="8"/>
-        <v>5640</v>
+        <f t="shared" si="5"/>
+        <v>5259</v>
       </c>
       <c r="M49">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f>VLOOKUP($L49,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="50" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="J50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="L50">
-        <f t="shared" si="8"/>
-        <v>5760</v>
+        <f t="shared" si="5"/>
+        <v>5384</v>
       </c>
       <c r="M50">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f>VLOOKUP($L50,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="51" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K51">
-        <f t="shared" si="15"/>
-        <v>240</v>
+        <f t="shared" si="9"/>
+        <v>96</v>
       </c>
       <c r="L51">
-        <f t="shared" si="8"/>
-        <v>6000</v>
+        <f t="shared" si="5"/>
+        <v>5480</v>
       </c>
       <c r="M51">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f>VLOOKUP($L51,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -19032,7 +17955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7258EE-0F1D-4F81-9090-FA4D22AF5060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD10E377-87C5-4971-95B2-87D7239ADA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
   <si>
     <t>levelPackId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,19 +790,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초기필요량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요증가량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보스스테이지예시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iconAddress|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔몹몹배수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,6 +1397,8 @@
           <cell r="F2" t="str">
             <v>특정 범위 원 안에서 특정한 능력치를 얻게 함</v>
           </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
@@ -2079,6 +2077,7 @@
           <cell r="M17" t="str">
             <v>AttackAddRate</v>
           </cell>
+          <cell r="N17"/>
           <cell r="O17">
             <v>18</v>
           </cell>
@@ -12858,9 +12857,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13605,7 +13604,7 @@
             <v>GameUI_EnterInfoDesc</v>
           </cell>
           <cell r="B66" t="str">
-            <v>이 전투에 현재 캐릭터는 적합하지 않습니다.
+            <v>현재 캐릭터의 파워레벨이 부족합니다
 캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C66" t="str">
@@ -13628,10 +13627,10 @@
             <v>GameUI_Chapter</v>
           </cell>
           <cell r="B68" t="str">
-            <v>챕터 {0}</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C68" t="str">
-            <v>Chapter {0}</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="69">
@@ -13661,10 +13660,10 @@
             <v>GameUI_Power</v>
           </cell>
           <cell r="B71" t="str">
-            <v>POWER {0}</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C71" t="str">
-            <v>POWER {0}</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="72">
@@ -13672,7 +13671,7 @@
             <v>GameUI_Suggested</v>
           </cell>
           <cell r="B72" t="str">
-            <v>추천</v>
+            <v>추천캐릭터</v>
           </cell>
           <cell r="C72" t="str">
             <v>Recommended</v>
@@ -13691,164 +13690,164 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_NowPlayingCharacter</v>
           </cell>
           <cell r="B74" t="str">
-            <v>무적</v>
+            <v>현재 플레이 중인 캐릭터입니다</v>
           </cell>
           <cell r="C74" t="str">
-            <v>INVINCIBLE</v>
+            <v>Now playing!</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B75" t="str">
-            <v>빗맞음</v>
+            <v>무적</v>
           </cell>
           <cell r="C75" t="str">
-            <v>MISS</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B76" t="str">
-            <v>즉사</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C76" t="str">
-            <v>HEADSHOT</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B77" t="str">
-            <v>불사!</v>
+            <v>즉사</v>
           </cell>
           <cell r="C77" t="str">
-            <v>IMMORTAL!</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B78" t="str">
-            <v>소</v>
+            <v>불사!</v>
           </cell>
           <cell r="C78" t="str">
-            <v>Low</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B79" t="str">
-            <v>중</v>
+            <v>소</v>
           </cell>
           <cell r="C79" t="str">
-            <v>Medium</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B80" t="str">
-            <v>대</v>
+            <v>중</v>
           </cell>
           <cell r="C80" t="str">
-            <v>High</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B81" t="str">
-            <v>극대</v>
+            <v>대</v>
           </cell>
           <cell r="C81" t="str">
-            <v>Ultra</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B82" t="str">
-            <v>초극대</v>
+            <v>극대</v>
           </cell>
           <cell r="C82" t="str">
-            <v>ExtraUltra</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B83" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>초극대</v>
           </cell>
           <cell r="C83" t="str">
-            <v>The light of life flows from the source of power</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B84" t="str">
-            <v>레벨팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C84" t="str">
-            <v>Choose a level-pack</v>
+            <v>The light of life flows from the source of power</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B85" t="str">
-            <v>공격력</v>
+            <v>레벨팩을 선택하세요</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a level-pack</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B86" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B87" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C87" t="str">
-            <v>In progress of translating…(87)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B88" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C88" t="str">
             <v>In progress of translating…(88)</v>
@@ -13856,10 +13855,10 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B89" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C89" t="str">
             <v>In progress of translating…(89)</v>
@@ -13867,10 +13866,10 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C90" t="str">
             <v>In progress of translating…(90)</v>
@@ -13878,10 +13877,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B91" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -13889,10 +13888,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B92" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -13900,10 +13899,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -13911,10 +13910,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B94" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -13922,10 +13921,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B95" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -13933,10 +13932,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -13944,10 +13943,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B97" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -13955,10 +13954,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B98" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -13966,10 +13965,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B99" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -13977,10 +13976,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B100" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -13988,10 +13987,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B101" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -13999,10 +13998,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B102" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -14010,10 +14009,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B103" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -14021,10 +14020,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B104" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -14032,10 +14031,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -14043,10 +14042,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -14054,10 +14053,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -14065,10 +14064,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -14076,10 +14075,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -14087,10 +14086,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B110" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -14098,10 +14097,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -14109,45 +14108,45 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>In progress of translating…(112)</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B112" t="str">
+          <cell r="B113" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C112" t="str">
-            <v>In progress of translating…(112)</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
+          <cell r="C113" t="str">
+            <v>In progress of translating…(113)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B113" t="str">
+          <cell r="B114" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C113" t="str">
-            <v>In progress of translating…(113)</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B115" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -14155,10 +14154,10 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B116" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -14166,33 +14165,33 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>In progress of translating…(117)</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B117" t="str">
+          <cell r="B118" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C117" t="str">
-            <v>In progress of translating…(117)</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B119" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -14200,69 +14199,69 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>In progress of translating…(120)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B120" t="str">
+          <cell r="B121" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C120" t="str">
-            <v>In progress of translating…(120)</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
+          <cell r="C121" t="str">
+            <v>In progress of translating…(121)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B121" t="str">
+          <cell r="B122" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C121" t="str">
-            <v>In progress of translating…(121)</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
+          <cell r="C122" t="str">
+            <v>In progress of translating…(122)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B122" t="str">
+          <cell r="B123" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C122" t="str">
-            <v>In progress of translating…(122)</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B123" t="str">
+          <cell r="B124" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C124" t="str">
             <v>In progress of translating…(124)</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B125" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
@@ -14270,10 +14269,10 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B126" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -14281,10 +14280,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B127" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -14292,10 +14291,10 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B128" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -14303,33 +14302,33 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>In progress of translating…(129)</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B129" t="str">
+          <cell r="B130" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C129" t="str">
-            <v>In progress of translating…(129)</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B131" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -14337,10 +14336,10 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B132" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -14348,10 +14347,10 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B133" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -14359,10 +14358,10 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B134" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -14370,10 +14369,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B135" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -14381,10 +14380,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B136" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -14392,10 +14391,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B137" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -14403,10 +14402,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B138" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -14414,10 +14413,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -14425,10 +14424,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -14436,10 +14435,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -14447,10 +14446,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B142" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -14458,10 +14457,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B143" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -14469,10 +14468,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B144" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -14480,10 +14479,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B145" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -14491,10 +14490,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B146" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -14502,10 +14501,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B147" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -14513,10 +14512,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B148" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -14524,10 +14523,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B149" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -14535,10 +14534,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B150" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -14546,10 +14545,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B151" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -14557,10 +14556,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B152" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -14568,10 +14567,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B153" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -14579,10 +14578,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B154" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -14590,10 +14589,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B155" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -14601,10 +14600,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -14612,10 +14611,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -14623,10 +14622,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -14634,10 +14633,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -14645,10 +14644,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -14656,10 +14655,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B161" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -14667,10 +14666,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B162" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -14678,10 +14677,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B163" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -14689,10 +14688,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -14700,10 +14699,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -14711,10 +14710,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -14722,10 +14721,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B167" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -14733,10 +14732,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B168" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -14744,10 +14743,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B169" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -14755,10 +14754,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B170" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -14766,10 +14765,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B171" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -14777,10 +14776,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B172" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -14788,10 +14787,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B173" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -14799,10 +14798,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B174" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -14810,10 +14809,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B175" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -14821,10 +14820,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B176" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -14832,10 +14831,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B177" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -14843,10 +14842,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B178" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -14854,10 +14853,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B179" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -14865,10 +14864,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B180" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -14876,10 +14875,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B181" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -14887,10 +14886,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B182" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -14898,10 +14897,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B183" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -14909,10 +14908,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B184" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -14920,10 +14919,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B185" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -14931,10 +14930,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B186" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -14942,10 +14941,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B187" t="str">
-            <v>드넓은 평야</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -14953,10 +14952,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B188" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -14964,10 +14963,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B189" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -14975,10 +14974,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -14986,10 +14985,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -14997,10 +14996,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -15008,10 +15007,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -15019,10 +15018,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -15030,10 +15029,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -15041,10 +15040,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -15052,10 +15051,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -15063,10 +15062,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -15074,10 +15073,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -15085,10 +15084,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -15096,10 +15095,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -15107,10 +15106,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -15118,10 +15117,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -15129,10 +15128,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -15140,10 +15139,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -15151,10 +15150,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -15162,10 +15161,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -15173,10 +15172,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -15184,10 +15183,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -15195,10 +15194,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -15206,10 +15205,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -15217,10 +15216,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -15228,10 +15227,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -15239,10 +15238,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -15250,10 +15249,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -15261,10 +15260,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -15272,10 +15271,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B217" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -15283,10 +15282,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B218" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -15294,10 +15293,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B219" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -15305,10 +15304,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -15316,10 +15315,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -15327,10 +15326,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -15338,10 +15337,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -15349,10 +15348,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -15360,10 +15359,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -15371,10 +15370,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -15382,10 +15381,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -15393,10 +15392,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -15404,10 +15403,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -15415,10 +15414,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -15426,10 +15425,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -15437,10 +15436,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -15448,10 +15447,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -15459,10 +15458,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -15470,10 +15469,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -15481,10 +15480,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -15492,10 +15491,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -15503,10 +15502,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -15514,10 +15513,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -15525,10 +15524,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -15536,10 +15535,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -15547,10 +15546,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -15558,10 +15557,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -15569,10 +15568,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -15580,113 +15579,113 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>간파울</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(245)</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B246" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247" t="str">
             <v>CharDesc_Ganfaul</v>
           </cell>
-          <cell r="B246" t="str">
+          <cell r="B247" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
           </cell>
-          <cell r="C246" t="str">
-            <v>In progress of translating…(246)</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B247" t="str">
-            <v>킵시리즈</v>
-          </cell>
           <cell r="C247" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(247)</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
             <v>CharDesc_KeepSeries</v>
           </cell>
-          <cell r="B248" t="str">
+          <cell r="B249" t="str">
             <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
-          <cell r="C248" t="str">
-            <v>In progress of translating…(248)</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B249" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
           <cell r="C249" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(249)</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
             <v>CharDesc_BigBatSuccubus</v>
           </cell>
-          <cell r="B250" t="str">
+          <cell r="B251" t="str">
             <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
           </cell>
-          <cell r="C250" t="str">
-            <v>In progress of translating…(250)</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B251" t="str">
-            <v>베이</v>
-          </cell>
           <cell r="C251" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(251)</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
             <v>CharDesc_Bei</v>
           </cell>
-          <cell r="B252" t="str">
+          <cell r="B253" t="str">
             <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
           </cell>
-          <cell r="C252" t="str">
-            <v>In progress of translating…(252)</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253" t="str">
-            <v>BossName_Madcap</v>
-          </cell>
-          <cell r="B253" t="str">
-            <v>매드캡</v>
-          </cell>
           <cell r="C253" t="str">
             <v>In progress of translating…(253)</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254" t="str">
-            <v>BossDesc_Madcap</v>
+            <v>BossName_Madcap</v>
           </cell>
           <cell r="B254" t="str">
-            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
+            <v>매드캡</v>
           </cell>
           <cell r="C254" t="str">
             <v>In progress of translating…(254)</v>
@@ -15694,10 +15693,10 @@
         </row>
         <row r="255">
           <cell r="A255" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossDesc_Madcap</v>
           </cell>
           <cell r="B255" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
+            <v>공격을 받으면 지면 아래로 숨는 능력을 가지고 있습니다. {0} 등 장판 공격을 하는 캐릭터를 사용하세요!</v>
           </cell>
           <cell r="C255" t="str">
             <v>In progress of translating…(255)</v>
@@ -15705,10 +15704,10 @@
         </row>
         <row r="256">
           <cell r="A256" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>PenaltyUIName_One</v>
           </cell>
           <cell r="B256" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
           </cell>
           <cell r="C256" t="str">
             <v>In progress of translating…(256)</v>
@@ -15716,10 +15715,10 @@
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>PenaltyUIMind_One</v>
           </cell>
           <cell r="B257" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C257" t="str">
             <v>In progress of translating…(257)</v>
@@ -15727,10 +15726,10 @@
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>PenaltyUIRepre_OneOfTwo</v>
           </cell>
           <cell r="B258" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C258" t="str">
             <v>In progress of translating…(258)</v>
@@ -15738,10 +15737,10 @@
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>PenaltyUIName_Two</v>
           </cell>
           <cell r="B259" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C259" t="str">
             <v>In progress of translating…(259)</v>
@@ -15749,13 +15748,24 @@
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>PenaltyUIMind_Two</v>
           </cell>
           <cell r="B260" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C260" t="str">
             <v>In progress of translating…(260)</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B261" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>In progress of translating…(261)</v>
           </cell>
         </row>
       </sheetData>
@@ -16111,7 +16121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228BB8E1-607B-4A4F-85DA-23E22708D848}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16120,19 +16130,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" collapsed="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" collapsed="1"/>
-    <col min="8" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" collapsed="1"/>
-    <col min="15" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="5.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" collapsed="1"/>
+    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="12" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="5.125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="5.125" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16167,7 +16175,7 @@
         <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P1" t="s">
         <v>132</v>
@@ -16178,17 +16186,8 @@
       <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="S1">
-        <v>0.8</v>
-      </c>
-      <c r="T1">
-        <v>0.6</v>
-      </c>
-      <c r="U1">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16199,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">A2</f>
+        <f t="shared" ref="D2:D16" si="0">A2</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -16209,63 +16208,50 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>IF(MOD($H2,5)=0,0,$F$5)</f>
-        <v>25</v>
+        <f t="shared" ref="I2:I50" si="1">IF(MOD($H2,5)=0,0,(INT(($H2-1)/10)+1)*$F$5)</f>
+        <v>5</v>
       </c>
       <c r="J2">
         <f>IF(MOD($H2,10)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="1">I2*$F$2+J2*$F$8</f>
-        <v>125</v>
+        <f t="shared" ref="K2:K33" si="2">I2*$F$2+J2*$F$8</f>
+        <v>25</v>
       </c>
       <c r="L2">
         <f>IF(ISNUMBER(L1),L1,0)+K2</f>
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <f>VLOOKUP($L2,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" ref="M2:M33" si="3">VLOOKUP($L2,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>2</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="Q2">
         <f>IF(ISNUMBER(Q1),Q1,0)+P2</f>
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="R2">
         <f>VLOOKUP($Q2,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>3</v>
       </c>
-      <c r="S2">
-        <f>VLOOKUP($Q2*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <f>VLOOKUP($Q2*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <f>VLOOKUP($Q2*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>F11</f>
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="2">C2+B3</f>
-        <v>60</v>
+        <f t="shared" ref="C3:C16" si="4">C2+B3</f>
+        <v>19</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -16275,204 +16261,162 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I51" si="3">IF(MOD($H3,5)=0,0,$F$5)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J51" si="5">IF(MOD($H3,10)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J51" si="4">IF(MOD($H3,10)=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L51" si="5">IF(ISNUMBER(L2),L2,0)+K3</f>
-        <v>250</v>
+        <f t="shared" ref="L3:L51" si="6">IF(ISNUMBER(L2),L2,0)+K3</f>
+        <v>50</v>
       </c>
       <c r="M3">
-        <f>VLOOKUP($L3,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P10" si="6">P2+380</f>
-        <v>640</v>
+        <v>170</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q10" si="7">IF(ISNUMBER(Q2),Q2,0)+P3</f>
-        <v>900</v>
+        <f t="shared" ref="Q3:Q6" si="7">IF(ISNUMBER(Q2),Q2,0)+P3</f>
+        <v>230</v>
       </c>
       <c r="R3">
         <f>VLOOKUP($Q3,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>6</v>
       </c>
-      <c r="S3">
-        <f>VLOOKUP($Q3*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <f>VLOOKUP($Q3*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>5</v>
-      </c>
-      <c r="U3">
-        <f>VLOOKUP($Q3*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B17" si="8">B3+$F$14</f>
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>375</v>
-      </c>
-      <c r="M4">
-        <f>VLOOKUP($L4,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4">
-        <f t="shared" si="6"/>
-        <v>1020</v>
+        <v>430</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1920</v>
+        <v>660</v>
       </c>
       <c r="R4">
         <f>VLOOKUP($Q4,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>9</v>
       </c>
-      <c r="S4">
-        <f>VLOOKUP($Q4*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>8</v>
-      </c>
-      <c r="T4">
-        <f>VLOOKUP($Q4*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <f>VLOOKUP($Q4*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="8"/>
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="M5">
-        <f>VLOOKUP($L5,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <f t="shared" si="6"/>
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>3320</v>
+        <v>1660</v>
       </c>
       <c r="R5">
         <f>VLOOKUP($Q5,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>12</v>
       </c>
-      <c r="S5">
-        <f>VLOOKUP($Q5*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>11</v>
-      </c>
-      <c r="T5">
-        <f>VLOOKUP($Q5*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>10</v>
-      </c>
-      <c r="U5">
-        <f>VLOOKUP($Q5*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="8"/>
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
-        <v>480</v>
+        <f t="shared" si="4"/>
+        <v>118</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -16482,64 +16426,50 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L6">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="M6">
-        <f>VLOOKUP($L6,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="6"/>
-        <v>1780</v>
+        <v>1400</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>5100</v>
+        <v>3060</v>
       </c>
       <c r="R6">
         <f>VLOOKUP($Q6,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="S6">
-        <f>VLOOKUP($Q6*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>14</v>
-      </c>
-      <c r="T6">
-        <f>VLOOKUP($Q6*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>12</v>
-      </c>
-      <c r="U6">
-        <f>VLOOKUP($Q6*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="8"/>
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>700</v>
+        <f t="shared" si="4"/>
+        <v>170</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -16552,134 +16482,92 @@
         <v>6</v>
       </c>
       <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>625</v>
-      </c>
-      <c r="M7">
-        <f>VLOOKUP($L7,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>5</v>
       </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="6"/>
-        <v>2160</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="7"/>
-        <v>7260</v>
-      </c>
-      <c r="R7">
-        <f>VLOOKUP($Q7,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="S7">
-        <f>VLOOKUP($Q7*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="T7">
-        <f>VLOOKUP($Q7*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>14</v>
-      </c>
-      <c r="U7">
-        <f>VLOOKUP($Q7*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>13</v>
-      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="8"/>
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>960</v>
+        <f t="shared" si="4"/>
+        <v>268</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F8">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="M8">
-        <f>VLOOKUP($L8,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <f t="shared" si="6"/>
-        <v>2540</v>
+        <v>48</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>9800</v>
+        <f>IF(ISNUMBER(Q7),Q7,0)+P8</f>
+        <v>48</v>
       </c>
       <c r="R8">
-        <f>VLOOKUP($Q8,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="S8">
-        <f>VLOOKUP($Q8*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="T8">
-        <f>VLOOKUP($Q8*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="U8">
-        <f>VLOOKUP($Q8*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" ref="R8:R30" si="8">VLOOKUP($Q8,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="8"/>
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>1260</v>
+        <f t="shared" si="4"/>
+        <v>401</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -16689,177 +16577,156 @@
         <v>8</v>
       </c>
       <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>875</v>
-      </c>
-      <c r="M9">
-        <f>VLOOKUP($L9,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>6</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="6"/>
-        <v>2920</v>
+        <v>136</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>12720</v>
+        <f t="shared" ref="Q9:Q13" si="9">IF(ISNUMBER(Q8),Q8,0)+P9</f>
+        <v>184</v>
       </c>
       <c r="R9">
-        <f>VLOOKUP($Q9,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="S9">
-        <f>VLOOKUP($Q9*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="T9">
-        <f>VLOOKUP($Q9*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="U9">
-        <f>VLOOKUP($Q9*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="8"/>
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="4"/>
+        <v>573</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="M10">
-        <f>VLOOKUP($L10,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="6"/>
-        <v>3300</v>
+        <v>344</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>16020</v>
+        <f t="shared" si="9"/>
+        <v>528</v>
       </c>
       <c r="R10">
-        <f>VLOOKUP($Q10,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="S10">
-        <f>VLOOKUP($Q10*S$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="T10">
-        <f>VLOOKUP($Q10*T$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
-      </c>
-      <c r="U10">
-        <f>VLOOKUP($Q10*U$1,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="8"/>
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>1980</v>
+        <f t="shared" si="4"/>
+        <v>767</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>60</v>
-      </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>1096</v>
-      </c>
-      <c r="M11">
-        <f>VLOOKUP($L11,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>7</v>
       </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>800</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>1328</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="8"/>
-        <v>420</v>
+        <v>254</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>2400</v>
+        <f t="shared" si="4"/>
+        <v>1021</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -16869,123 +16736,142 @@
         <v>11</v>
       </c>
       <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>325</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
-        <v>1221</v>
-      </c>
-      <c r="M12">
-        <f>VLOOKUP($L12,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>7</v>
       </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>800</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>2128</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="8"/>
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>2860</v>
+        <f t="shared" si="4"/>
+        <v>1329</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>139</v>
-      </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>1346</v>
-      </c>
-      <c r="M13">
-        <f>VLOOKUP($L13,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>1240</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="9"/>
+        <v>3368</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="8"/>
-        <v>500</v>
+        <v>386</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>3360</v>
+        <f t="shared" si="4"/>
+        <v>1715</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
-        <v>1471</v>
-      </c>
-      <c r="M14">
-        <f>VLOOKUP($L14,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="8"/>
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>3900</v>
+        <f t="shared" si="4"/>
+        <v>2217</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -16995,37 +16881,50 @@
         <v>14</v>
       </c>
       <c r="I15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>475</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>1596</v>
-      </c>
-      <c r="M15">
-        <f>VLOOKUP($L15,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>8</v>
       </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>36</v>
+      </c>
+      <c r="Q15">
+        <f>IF(ISNUMBER(Q14),Q14,0)+P15</f>
+        <v>36</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="8"/>
-        <v>580</v>
+        <v>748</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>4480</v>
+        <f t="shared" si="4"/>
+        <v>2965</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -17035,589 +16934,770 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L16">
-        <f t="shared" si="5"/>
-        <v>1596</v>
+        <f t="shared" si="6"/>
+        <v>475</v>
       </c>
       <c r="M16">
-        <f>VLOOKUP($L16,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>102</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q20" si="10">IF(ISNUMBER(Q15),Q15,0)+P16</f>
+        <v>138</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="8"/>
-        <v>620</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>5100</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>1721</v>
-      </c>
-      <c r="M17">
-        <f>VLOOKUP($L17,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>258</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>1846</v>
-      </c>
-      <c r="M18">
-        <f>VLOOKUP($L18,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>9</v>
       </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>300</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>696</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>625</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>1971</v>
-      </c>
-      <c r="M19">
-        <f>VLOOKUP($L19,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>9</v>
       </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>600</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>1296</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>675</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>2096</v>
-      </c>
-      <c r="M20">
-        <f>VLOOKUP($L20,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>700</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>1996</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
-        <v>2192</v>
-      </c>
-      <c r="M21">
-        <f>VLOOKUP($L21,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>1020</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21" si="11">IF(ISNUMBER(Q20),Q20,0)+P21</f>
+        <v>3016</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>825</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
-        <v>2317</v>
-      </c>
-      <c r="M22">
-        <f>VLOOKUP($L22,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
-        <v>2442</v>
-      </c>
-      <c r="M23">
-        <f>VLOOKUP($L23,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <f>IF(ISNUMBER(Q22),Q22,0)+P23</f>
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>975</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
-        <v>2567</v>
-      </c>
-      <c r="M24">
-        <f>VLOOKUP($L24,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>68</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q29" si="12">IF(ISNUMBER(Q23),Q23,0)+P24</f>
+        <v>92</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
-        <v>2692</v>
-      </c>
-      <c r="M25">
-        <f>VLOOKUP($L25,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>11</v>
       </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>172</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="12"/>
+        <v>264</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L26">
-        <f t="shared" si="5"/>
-        <v>2692</v>
+        <f t="shared" si="6"/>
+        <v>1050</v>
       </c>
       <c r="M26">
-        <f>VLOOKUP($L26,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>200</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="12"/>
+        <v>464</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>1125</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>2817</v>
-      </c>
-      <c r="M27">
-        <f>VLOOKUP($L27,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>11</v>
       </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>250</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="12"/>
+        <v>714</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>2942</v>
-      </c>
-      <c r="M28">
-        <f>VLOOKUP($L28,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>400</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>1114</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>1275</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>3067</v>
-      </c>
-      <c r="M29">
-        <f>VLOOKUP($L29,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>680</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>1794</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>1350</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>3192</v>
-      </c>
-      <c r="M30">
-        <f>VLOOKUP($L30,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>12</v>
       </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+      <c r="P30">
+        <v>1500</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30" si="13">IF(ISNUMBER(Q29),Q29,0)+P30</f>
+        <v>3294</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>1425</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>3288</v>
-      </c>
-      <c r="M31">
-        <f>VLOOKUP($L31,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>1525</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>3413</v>
-      </c>
-      <c r="M32">
-        <f>VLOOKUP($L32,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="33" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>1625</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>3538</v>
-      </c>
-      <c r="M33">
-        <f>VLOOKUP($L33,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="34" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K51" si="9">I34*$F$2+J34*$F$8</f>
-        <v>125</v>
+        <f t="shared" ref="K34:K51" si="14">I34*$F$2+J34*$F$8</f>
+        <v>100</v>
       </c>
       <c r="L34">
-        <f t="shared" si="5"/>
-        <v>3663</v>
+        <f t="shared" si="6"/>
+        <v>1725</v>
       </c>
       <c r="M34">
-        <f>VLOOKUP($L34,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" ref="M34:M51" si="15">VLOOKUP($L34,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="9"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
-        <v>3788</v>
+        <f t="shared" si="6"/>
+        <v>1825</v>
       </c>
       <c r="M35">
-        <f>VLOOKUP($L35,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="5"/>
-        <v>3788</v>
+        <f t="shared" si="6"/>
+        <v>1825</v>
       </c>
       <c r="M36">
-        <f>VLOOKUP($L36,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="8:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="9"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
-        <v>3913</v>
+        <f t="shared" si="6"/>
+        <v>1925</v>
       </c>
       <c r="M37">
-        <f>VLOOKUP($L37,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>13</v>
       </c>
     </row>
-    <row r="38" spans="8:13" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="9"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="L38">
-        <f t="shared" si="5"/>
-        <v>4038</v>
+        <f t="shared" si="6"/>
+        <v>2025</v>
       </c>
       <c r="M38">
-        <f>VLOOKUP($L38,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.3">
@@ -17625,24 +17705,24 @@
         <v>38</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="9"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
-        <v>4163</v>
+        <f t="shared" si="6"/>
+        <v>2125</v>
       </c>
       <c r="M39">
-        <f>VLOOKUP($L39,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.3">
@@ -17650,23 +17730,23 @@
         <v>39</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="9"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="L40">
-        <f t="shared" si="5"/>
-        <v>4288</v>
+        <f t="shared" si="6"/>
+        <v>2225</v>
       </c>
       <c r="M40">
-        <f>VLOOKUP($L40,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
@@ -17675,23 +17755,23 @@
         <v>40</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K41">
-        <f t="shared" si="9"/>
-        <v>96</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="L41">
-        <f t="shared" si="5"/>
-        <v>4384</v>
+        <f t="shared" si="6"/>
+        <v>2300</v>
       </c>
       <c r="M41">
-        <f>VLOOKUP($L41,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
@@ -17700,24 +17780,24 @@
         <v>41</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
-        <v>4509</v>
+        <f t="shared" si="6"/>
+        <v>2425</v>
       </c>
       <c r="M42">
-        <f>VLOOKUP($L42,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.3">
@@ -17725,24 +17805,24 @@
         <v>42</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L43">
-        <f t="shared" si="5"/>
-        <v>4634</v>
+        <f t="shared" si="6"/>
+        <v>2550</v>
       </c>
       <c r="M43">
-        <f>VLOOKUP($L43,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.3">
@@ -17750,24 +17830,24 @@
         <v>43</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L44">
-        <f t="shared" si="5"/>
-        <v>4759</v>
+        <f t="shared" si="6"/>
+        <v>2675</v>
       </c>
       <c r="M44">
-        <f>VLOOKUP($L44,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.3">
@@ -17775,24 +17855,24 @@
         <v>44</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L45">
-        <f t="shared" si="5"/>
-        <v>4884</v>
+        <f t="shared" si="6"/>
+        <v>2800</v>
       </c>
       <c r="M45">
-        <f>VLOOKUP($L45,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.3">
@@ -17800,24 +17880,24 @@
         <v>45</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
-        <v>4884</v>
+        <f t="shared" si="6"/>
+        <v>2800</v>
       </c>
       <c r="M46">
-        <f>VLOOKUP($L46,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.3">
@@ -17825,24 +17905,24 @@
         <v>46</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L47">
-        <f t="shared" si="5"/>
-        <v>5009</v>
+        <f t="shared" si="6"/>
+        <v>2925</v>
       </c>
       <c r="M47">
-        <f>VLOOKUP($L47,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.3">
@@ -17850,24 +17930,24 @@
         <v>47</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L48">
-        <f t="shared" si="5"/>
-        <v>5134</v>
+        <f t="shared" si="6"/>
+        <v>3050</v>
       </c>
       <c r="M48">
-        <f>VLOOKUP($L48,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.3">
@@ -17875,24 +17955,24 @@
         <v>48</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L49">
-        <f t="shared" si="5"/>
-        <v>5259</v>
+        <f t="shared" si="6"/>
+        <v>3175</v>
       </c>
       <c r="M49">
-        <f>VLOOKUP($L49,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.3">
@@ -17900,24 +17980,24 @@
         <v>49</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="L50">
-        <f t="shared" si="5"/>
-        <v>5384</v>
+        <f t="shared" si="6"/>
+        <v>3300</v>
       </c>
       <c r="M50">
-        <f>VLOOKUP($L50,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.3">
@@ -17925,24 +18005,24 @@
         <v>50</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I51" si="16">IF(MOD($H51,5)=0,0,(INT(($H51-1)/10)+1)*$F$5)</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K51">
-        <f t="shared" si="9"/>
-        <v>96</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
-        <v>5480</v>
+        <f t="shared" si="6"/>
+        <v>3375</v>
       </c>
       <c r="M51">
-        <f>VLOOKUP($L51,$C:$D,MATCH($D$1,$C$1:$D$1,0),1)</f>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -17987,7 +18067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A09C88-60B0-4115-8D12-90E66FD3D9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955C658-19CF-4DF3-B905-05E7B7C85E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="3" r:id="rId1"/>
@@ -1407,23 +1407,23 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>HealOverTime</v>
+            <v>AttackWeightHitObject</v>
           </cell>
           <cell r="F2" t="str">
-            <v>리젠 힐</v>
+            <v>공격 어펙터의 가중치를 확률에 곱하여 적용 후 히트오브젝트를 부여함
+가중치가 1보다 크면 1로 하여 확률을 더 높이지 않고 사용</v>
           </cell>
           <cell r="I2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v/>
           </cell>
           <cell r="J2" t="str">
-            <v>틱. 최초 쉬었다가 발동</v>
+            <v>어펙터를 콜할 확률</v>
           </cell>
           <cell r="K2" t="str">
-            <v>피격자 MaxHP 비례 힐 비율</v>
+            <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>대미지 비례 힐 비율</v>
+            <v/>
           </cell>
           <cell r="M2" t="str">
             <v/>
@@ -1435,7 +1435,7 @@
             <v/>
           </cell>
           <cell r="P2" t="str">
-            <v/>
+            <v>버로우, 돈다이인 적에게 면역일지 유무</v>
           </cell>
           <cell r="Q2" t="str">
             <v/>
@@ -1450,7 +1450,8 @@
             <v/>
           </cell>
           <cell r="U2" t="str">
-            <v/>
+            <v>어펙터밸류아이디
+레벨이 전달된다</v>
           </cell>
           <cell r="V2" t="str">
             <v/>
@@ -6062,20 +6063,11 @@
           <cell r="H135" t="str">
             <v/>
           </cell>
-          <cell r="J135">
-            <v>0.02</v>
-          </cell>
           <cell r="K135">
             <v>0.01</v>
           </cell>
-          <cell r="L135">
-            <v>0.25</v>
-          </cell>
-          <cell r="N135">
-            <v>0.5</v>
-          </cell>
-          <cell r="O135">
-            <v>0.5</v>
+          <cell r="O135" t="str">
+            <v/>
           </cell>
           <cell r="S135" t="str">
             <v/>
@@ -6100,20 +6092,11 @@
           <cell r="H136" t="str">
             <v/>
           </cell>
-          <cell r="J136">
-            <v>2.1999999999999999E-2</v>
-          </cell>
           <cell r="K136">
             <v>2.1000000000000001E-2</v>
           </cell>
-          <cell r="L136">
-            <v>0.52500000000000002</v>
-          </cell>
-          <cell r="N136">
-            <v>0.54999999999999993</v>
-          </cell>
-          <cell r="O136">
-            <v>0.54999999999999993</v>
+          <cell r="O136" t="str">
+            <v/>
           </cell>
           <cell r="S136" t="str">
             <v/>
@@ -6138,20 +6121,11 @@
           <cell r="H137" t="str">
             <v/>
           </cell>
-          <cell r="J137">
-            <v>2.5999999999999999E-2</v>
-          </cell>
           <cell r="K137">
             <v>3.3000000000000002E-2</v>
           </cell>
-          <cell r="L137">
-            <v>0.82500000000000007</v>
-          </cell>
-          <cell r="N137">
-            <v>0.65</v>
-          </cell>
-          <cell r="O137">
-            <v>0.65</v>
+          <cell r="O137" t="str">
+            <v/>
           </cell>
           <cell r="S137" t="str">
             <v/>
@@ -6176,20 +6150,11 @@
           <cell r="H138" t="str">
             <v/>
           </cell>
-          <cell r="J138">
-            <v>3.2000000000000001E-2</v>
-          </cell>
           <cell r="K138">
             <v>4.5999999999999999E-2</v>
           </cell>
-          <cell r="L138">
-            <v>1.1499999999999999</v>
-          </cell>
-          <cell r="N138">
-            <v>0.8</v>
-          </cell>
-          <cell r="O138">
-            <v>0.8</v>
+          <cell r="O138" t="str">
+            <v/>
           </cell>
           <cell r="S138" t="str">
             <v/>
@@ -6214,20 +6179,11 @@
           <cell r="H139" t="str">
             <v/>
           </cell>
-          <cell r="J139">
-            <v>0.04</v>
-          </cell>
           <cell r="K139">
             <v>0.06</v>
           </cell>
-          <cell r="L139">
-            <v>1.5</v>
-          </cell>
-          <cell r="N139">
-            <v>1</v>
-          </cell>
-          <cell r="O139">
-            <v>1</v>
+          <cell r="O139" t="str">
+            <v/>
           </cell>
           <cell r="S139" t="str">
             <v/>
@@ -6428,7 +6384,7 @@
             <v/>
           </cell>
           <cell r="K145">
-            <v>0.04</v>
+            <v>1.2E-2</v>
           </cell>
           <cell r="O145" t="str">
             <v/>
@@ -6457,7 +6413,7 @@
             <v/>
           </cell>
           <cell r="K146">
-            <v>0.06</v>
+            <v>2.52E-2</v>
           </cell>
           <cell r="O146" t="str">
             <v/>
@@ -6486,7 +6442,7 @@
             <v/>
           </cell>
           <cell r="K147">
-            <v>0.06</v>
+            <v>3.9600000000000003E-2</v>
           </cell>
           <cell r="O147" t="str">
             <v/>
@@ -6515,7 +6471,7 @@
             <v/>
           </cell>
           <cell r="K148">
-            <v>0.06</v>
+            <v>5.5199999999999999E-2</v>
           </cell>
           <cell r="O148" t="str">
             <v/>
@@ -6544,7 +6500,7 @@
             <v/>
           </cell>
           <cell r="K149">
-            <v>0.06</v>
+            <v>7.1999999999999995E-2</v>
           </cell>
           <cell r="O149" t="str">
             <v/>
@@ -6929,7 +6885,7 @@
             <v/>
           </cell>
           <cell r="I160">
-            <v>4.5</v>
+            <v>5</v>
           </cell>
           <cell r="J160">
             <v>0.5</v>
@@ -6970,7 +6926,7 @@
             <v/>
           </cell>
           <cell r="I161">
-            <v>4.5</v>
+            <v>5.5</v>
           </cell>
           <cell r="J161">
             <v>0.75</v>
@@ -7011,7 +6967,7 @@
             <v/>
           </cell>
           <cell r="I162">
-            <v>4.5</v>
+            <v>6</v>
           </cell>
           <cell r="J162">
             <v>1</v>
@@ -7052,7 +7008,7 @@
             <v/>
           </cell>
           <cell r="I163">
-            <v>4.5</v>
+            <v>6.5</v>
           </cell>
           <cell r="J163">
             <v>1.25</v>
@@ -7093,7 +7049,7 @@
             <v/>
           </cell>
           <cell r="I164">
-            <v>4.5</v>
+            <v>7</v>
           </cell>
           <cell r="J164">
             <v>1.5</v>
@@ -7134,7 +7090,7 @@
             <v/>
           </cell>
           <cell r="I165">
-            <v>4.5</v>
+            <v>7.5</v>
           </cell>
           <cell r="J165">
             <v>1.75</v>
@@ -7175,7 +7131,7 @@
             <v/>
           </cell>
           <cell r="I166">
-            <v>4.5</v>
+            <v>8</v>
           </cell>
           <cell r="J166">
             <v>2</v>
@@ -7216,7 +7172,7 @@
             <v/>
           </cell>
           <cell r="I167">
-            <v>4.5</v>
+            <v>8.5</v>
           </cell>
           <cell r="J167">
             <v>2.25</v>
@@ -7432,7 +7388,7 @@
             <v/>
           </cell>
           <cell r="I173">
-            <v>4.5</v>
+            <v>5</v>
           </cell>
           <cell r="J173">
             <v>0.35</v>
@@ -7473,7 +7429,7 @@
             <v/>
           </cell>
           <cell r="I174">
-            <v>4.5</v>
+            <v>6</v>
           </cell>
           <cell r="J174">
             <v>0.7</v>
@@ -7514,7 +7470,7 @@
             <v/>
           </cell>
           <cell r="I175">
-            <v>4.5</v>
+            <v>7</v>
           </cell>
           <cell r="J175">
             <v>1.05</v>
@@ -7555,7 +7511,7 @@
             <v/>
           </cell>
           <cell r="I176">
-            <v>4.5</v>
+            <v>8</v>
           </cell>
           <cell r="J176">
             <v>1.4</v>
@@ -7596,7 +7552,7 @@
             <v/>
           </cell>
           <cell r="I177">
-            <v>4.5</v>
+            <v>9</v>
           </cell>
           <cell r="J177">
             <v>1.75</v>
@@ -7812,7 +7768,7 @@
             <v/>
           </cell>
           <cell r="L183">
-            <v>0.03</v>
+            <v>0.01</v>
           </cell>
           <cell r="O183" t="str">
             <v/>
@@ -7841,7 +7797,7 @@
             <v/>
           </cell>
           <cell r="L184">
-            <v>0.04</v>
+            <v>2.2000000000000002E-2</v>
           </cell>
           <cell r="O184" t="str">
             <v/>
@@ -7870,7 +7826,7 @@
             <v/>
           </cell>
           <cell r="L185">
-            <v>0.05</v>
+            <v>3.5999999999999997E-2</v>
           </cell>
           <cell r="O185" t="str">
             <v/>
@@ -7899,7 +7855,7 @@
             <v/>
           </cell>
           <cell r="L186">
-            <v>0.06</v>
+            <v>5.2000000000000005E-2</v>
           </cell>
           <cell r="O186" t="str">
             <v/>
@@ -7928,7 +7884,7 @@
             <v/>
           </cell>
           <cell r="L187">
-            <v>7.0000000000000007E-2</v>
+            <v>6.9999999999999993E-2</v>
           </cell>
           <cell r="O187" t="str">
             <v/>
@@ -8132,7 +8088,7 @@
             <v/>
           </cell>
           <cell r="L193">
-            <v>0.05</v>
+            <v>1.4999999999999999E-2</v>
           </cell>
           <cell r="O193" t="str">
             <v/>
@@ -8161,7 +8117,7 @@
             <v/>
           </cell>
           <cell r="L194">
-            <v>0.06</v>
+            <v>3.3000000000000002E-2</v>
           </cell>
           <cell r="O194" t="str">
             <v/>
@@ -8190,7 +8146,7 @@
             <v/>
           </cell>
           <cell r="L195">
-            <v>7.0000000000000007E-2</v>
+            <v>5.3999999999999999E-2</v>
           </cell>
           <cell r="O195" t="str">
             <v/>
@@ -8219,7 +8175,7 @@
             <v/>
           </cell>
           <cell r="L196">
-            <v>0.08</v>
+            <v>7.8E-2</v>
           </cell>
           <cell r="O196" t="str">
             <v/>
@@ -8248,7 +8204,7 @@
             <v/>
           </cell>
           <cell r="L197">
-            <v>0.09</v>
+            <v>0.105</v>
           </cell>
           <cell r="O197" t="str">
             <v/>
@@ -8592,7 +8548,7 @@
             <v/>
           </cell>
           <cell r="I207">
-            <v>5</v>
+            <v>5.0999999999999996</v>
           </cell>
           <cell r="J207">
             <v>1</v>
@@ -8627,10 +8583,10 @@
             <v/>
           </cell>
           <cell r="I208">
-            <v>5</v>
+            <v>4.8499999999999996</v>
           </cell>
           <cell r="J208">
-            <v>1</v>
+            <v>0.95</v>
           </cell>
           <cell r="L208">
             <v>0.14285999999999999</v>
@@ -8662,10 +8618,10 @@
             <v/>
           </cell>
           <cell r="I209">
-            <v>5</v>
+            <v>4.5999999999999996</v>
           </cell>
           <cell r="J209">
-            <v>1</v>
+            <v>0.89999999999999991</v>
           </cell>
           <cell r="L209">
             <v>0.15789</v>
@@ -8697,10 +8653,10 @@
             <v/>
           </cell>
           <cell r="I210">
-            <v>5</v>
+            <v>4.3499999999999988</v>
           </cell>
           <cell r="J210">
-            <v>1</v>
+            <v>0.84999999999999987</v>
           </cell>
           <cell r="L210">
             <v>0.16667000000000001</v>
@@ -8732,10 +8688,10 @@
             <v/>
           </cell>
           <cell r="I211">
-            <v>5</v>
+            <v>4.0999999999999988</v>
           </cell>
           <cell r="J211">
-            <v>1</v>
+            <v>0.79999999999999982</v>
           </cell>
           <cell r="L211">
             <v>0.17241000000000001</v>
@@ -8767,10 +8723,10 @@
             <v/>
           </cell>
           <cell r="I212">
-            <v>5</v>
+            <v>3.8499999999999992</v>
           </cell>
           <cell r="J212">
-            <v>1</v>
+            <v>0.74999999999999978</v>
           </cell>
           <cell r="L212">
             <v>0.17646999999999999</v>
@@ -8802,10 +8758,10 @@
             <v/>
           </cell>
           <cell r="I213">
-            <v>5</v>
+            <v>3.5999999999999988</v>
           </cell>
           <cell r="J213">
-            <v>1</v>
+            <v>0.69999999999999973</v>
           </cell>
           <cell r="L213">
             <v>0.17949000000000001</v>
@@ -8837,10 +8793,10 @@
             <v/>
           </cell>
           <cell r="I214">
-            <v>5</v>
+            <v>3.3499999999999983</v>
           </cell>
           <cell r="J214">
-            <v>1</v>
+            <v>0.64999999999999969</v>
           </cell>
           <cell r="L214">
             <v>0.18182000000000001</v>
@@ -8872,10 +8828,10 @@
             <v/>
           </cell>
           <cell r="I215">
-            <v>5</v>
+            <v>3.0999999999999983</v>
           </cell>
           <cell r="J215">
-            <v>1</v>
+            <v>0.59999999999999964</v>
           </cell>
           <cell r="L215">
             <v>0.18367</v>
@@ -8910,7 +8866,7 @@
             <v>-1</v>
           </cell>
           <cell r="J216">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="O216" t="str">
             <v/>
@@ -8942,7 +8898,7 @@
             <v>-1</v>
           </cell>
           <cell r="J217">
-            <v>3.5</v>
+            <v>2.2000000000000002</v>
           </cell>
           <cell r="O217" t="str">
             <v/>
@@ -8974,7 +8930,7 @@
             <v>-1</v>
           </cell>
           <cell r="J218">
-            <v>4</v>
+            <v>3.5999999999999996</v>
           </cell>
           <cell r="O218" t="str">
             <v/>
@@ -9006,7 +8962,7 @@
             <v>-1</v>
           </cell>
           <cell r="J219">
-            <v>4.5</v>
+            <v>5.2</v>
           </cell>
           <cell r="O219" t="str">
             <v/>
@@ -9038,7 +8994,7 @@
             <v>-1</v>
           </cell>
           <cell r="J220">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="O220" t="str">
             <v/>
@@ -9070,7 +9026,7 @@
             <v>-1</v>
           </cell>
           <cell r="J221">
-            <v>4.5</v>
+            <v>1.5</v>
           </cell>
           <cell r="O221" t="str">
             <v/>
@@ -9102,7 +9058,7 @@
             <v>-1</v>
           </cell>
           <cell r="J222">
-            <v>5.25</v>
+            <v>3.3000000000000003</v>
           </cell>
           <cell r="O222" t="str">
             <v/>
@@ -9134,7 +9090,7 @@
             <v>-1</v>
           </cell>
           <cell r="J223">
-            <v>6</v>
+            <v>5.3999999999999995</v>
           </cell>
           <cell r="O223" t="str">
             <v/>
@@ -9166,7 +9122,7 @@
             <v>-1</v>
           </cell>
           <cell r="J224">
-            <v>6.75</v>
+            <v>7.8000000000000007</v>
           </cell>
           <cell r="O224" t="str">
             <v/>
@@ -9198,7 +9154,7 @@
             <v>-1</v>
           </cell>
           <cell r="J225">
-            <v>7.5</v>
+            <v>10.5</v>
           </cell>
           <cell r="O225" t="str">
             <v/>
@@ -9614,10 +9570,7 @@
             <v>-1</v>
           </cell>
           <cell r="J238">
-            <v>0.15</v>
-          </cell>
-          <cell r="K238">
-            <v>0.25</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
           <cell r="O238" t="str">
             <v/>
@@ -9649,10 +9602,7 @@
             <v>-1</v>
           </cell>
           <cell r="J239">
-            <v>0.375</v>
-          </cell>
-          <cell r="K239">
-            <v>0.375</v>
+            <v>0.15</v>
           </cell>
           <cell r="O239" t="str">
             <v/>
@@ -9684,10 +9634,7 @@
             <v>-1</v>
           </cell>
           <cell r="J240">
-            <v>0.438</v>
-          </cell>
-          <cell r="K240">
-            <v>0.438</v>
+            <v>0.22500000000000001</v>
           </cell>
           <cell r="O240" t="str">
             <v/>
@@ -9719,10 +9666,7 @@
             <v>-1</v>
           </cell>
           <cell r="J241">
-            <v>0.47899999999999998</v>
-          </cell>
-          <cell r="K241">
-            <v>0.47899999999999998</v>
+            <v>0.3</v>
           </cell>
           <cell r="O241" t="str">
             <v/>
@@ -9754,10 +9698,7 @@
             <v>-1</v>
           </cell>
           <cell r="J242">
-            <v>0.51</v>
-          </cell>
-          <cell r="K242">
-            <v>0.51</v>
+            <v>0.375</v>
           </cell>
           <cell r="O242" t="str">
             <v/>
@@ -9789,10 +9730,7 @@
             <v>-1</v>
           </cell>
           <cell r="J243">
-            <v>0.53500000000000003</v>
-          </cell>
-          <cell r="K243">
-            <v>0.53500000000000003</v>
+            <v>0.45</v>
           </cell>
           <cell r="O243" t="str">
             <v/>
@@ -9824,10 +9762,7 @@
             <v>-1</v>
           </cell>
           <cell r="J244">
-            <v>0.55600000000000005</v>
-          </cell>
-          <cell r="K244">
-            <v>0.55600000000000005</v>
+            <v>0.52500000000000002</v>
           </cell>
           <cell r="O244" t="str">
             <v/>
@@ -9859,10 +9794,7 @@
             <v>-1</v>
           </cell>
           <cell r="J245">
-            <v>0.57399999999999995</v>
-          </cell>
-          <cell r="K245">
-            <v>0.57399999999999995</v>
+            <v>0.6</v>
           </cell>
           <cell r="O245" t="str">
             <v/>
@@ -9894,10 +9826,7 @@
             <v>-1</v>
           </cell>
           <cell r="J246">
-            <v>0.59</v>
-          </cell>
-          <cell r="K246">
-            <v>0.59</v>
+            <v>0.67500000000000004</v>
           </cell>
           <cell r="O246" t="str">
             <v/>
@@ -9929,10 +9858,7 @@
             <v>-1</v>
           </cell>
           <cell r="J247">
-            <v>0.375</v>
-          </cell>
-          <cell r="K247">
-            <v>0.375</v>
+            <v>0.15</v>
           </cell>
           <cell r="O247" t="str">
             <v/>
@@ -9964,10 +9890,7 @@
             <v>-1</v>
           </cell>
           <cell r="J248">
-            <v>0.47899999999999998</v>
-          </cell>
-          <cell r="K248">
-            <v>0.47899999999999998</v>
+            <v>0.3</v>
           </cell>
           <cell r="O248" t="str">
             <v/>
@@ -9999,10 +9922,7 @@
             <v>-1</v>
           </cell>
           <cell r="J249">
-            <v>0.53500000000000003</v>
-          </cell>
-          <cell r="K249">
-            <v>0.53500000000000003</v>
+            <v>0.45</v>
           </cell>
           <cell r="O249" t="str">
             <v/>
@@ -10034,10 +9954,7 @@
             <v>-1</v>
           </cell>
           <cell r="J250">
-            <v>0.57399999999999995</v>
-          </cell>
-          <cell r="K250">
-            <v>0.57399999999999995</v>
+            <v>0.6</v>
           </cell>
           <cell r="O250" t="str">
             <v/>
@@ -10069,10 +9986,7 @@
             <v>-1</v>
           </cell>
           <cell r="J251">
-            <v>0.60399999999999998</v>
-          </cell>
-          <cell r="K251">
-            <v>0.60399999999999998</v>
+            <v>0.75</v>
           </cell>
           <cell r="O251" t="str">
             <v/>
@@ -11773,7 +11687,7 @@
             <v/>
           </cell>
           <cell r="I302">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="O302" t="str">
             <v/>
@@ -11802,7 +11716,7 @@
             <v/>
           </cell>
           <cell r="I303">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="O303" t="str">
             <v/>
@@ -11831,7 +11745,7 @@
             <v/>
           </cell>
           <cell r="I304">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="O304" t="str">
             <v/>
@@ -11889,7 +11803,7 @@
             <v/>
           </cell>
           <cell r="I306">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O306" t="str">
             <v/>
@@ -11918,7 +11832,7 @@
             <v/>
           </cell>
           <cell r="I307">
-            <v>10</v>
+            <v>12</v>
           </cell>
           <cell r="O307" t="str">
             <v/>
@@ -12107,7 +12021,7 @@
             <v/>
           </cell>
           <cell r="J313">
-            <v>0.2</v>
+            <v>0.25</v>
           </cell>
           <cell r="O313" t="str">
             <v/>
@@ -12121,11 +12035,11 @@
           <cell r="U313" t="str">
             <v>LP_Paralyze_CannotAction</v>
           </cell>
-          <cell r="V313" t="str">
-            <v>0.4, 0.7, 0.9</v>
-          </cell>
-          <cell r="W313" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+          <cell r="V313">
+            <v>0.7</v>
+          </cell>
+          <cell r="W313">
+            <v>0.75</v>
           </cell>
         </row>
         <row r="314">
@@ -12162,11 +12076,11 @@
           <cell r="U314" t="str">
             <v>LP_Paralyze_CannotAction</v>
           </cell>
-          <cell r="V314" t="str">
-            <v>0.4, 0.7, 0.9</v>
+          <cell r="V314">
+            <v>0.7</v>
           </cell>
           <cell r="W314" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>0.51, 0.84</v>
           </cell>
         </row>
         <row r="315">
@@ -12189,7 +12103,7 @@
             <v/>
           </cell>
           <cell r="J315">
-            <v>0.3</v>
+            <v>0.25</v>
           </cell>
           <cell r="O315" t="str">
             <v/>
@@ -12204,10 +12118,10 @@
             <v>LP_Paralyze_CannotAction</v>
           </cell>
           <cell r="V315" t="str">
-            <v>0.4, 0.7, 0.9</v>
+            <v>0.4, 0.9</v>
           </cell>
           <cell r="W315" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>0.19, 0.51, 0.75, 0.91</v>
           </cell>
         </row>
         <row r="316">
@@ -12230,7 +12144,7 @@
             <v/>
           </cell>
           <cell r="J316">
-            <v>0.35</v>
+            <v>0.25</v>
           </cell>
           <cell r="O316" t="str">
             <v/>
@@ -12248,7 +12162,7 @@
             <v>0.4, 0.7, 0.9</v>
           </cell>
           <cell r="W316" t="str">
-            <v>0.19, 0.36, 0.51, 0.64, 0.75, 0.84, 0.91, 0.96</v>
+            <v>0.19, 0.36, 0.64, 0.84, 0.96</v>
           </cell>
         </row>
         <row r="317">
@@ -12271,7 +12185,7 @@
             <v/>
           </cell>
           <cell r="J317">
-            <v>0.4</v>
+            <v>0.25</v>
           </cell>
           <cell r="O317" t="str">
             <v/>
@@ -12457,7 +12371,7 @@
             <v/>
           </cell>
           <cell r="J323">
-            <v>0.15</v>
+            <v>0.125</v>
           </cell>
           <cell r="O323" t="str">
             <v/>
@@ -12492,7 +12406,7 @@
             <v/>
           </cell>
           <cell r="J324">
-            <v>0.2</v>
+            <v>0.13</v>
           </cell>
           <cell r="O324" t="str">
             <v/>
@@ -12527,7 +12441,7 @@
             <v/>
           </cell>
           <cell r="J325">
-            <v>0.25</v>
+            <v>0.13500000000000001</v>
           </cell>
           <cell r="O325" t="str">
             <v/>
@@ -12562,7 +12476,7 @@
             <v/>
           </cell>
           <cell r="J326">
-            <v>0.3</v>
+            <v>0.14000000000000001</v>
           </cell>
           <cell r="O326" t="str">
             <v/>
@@ -12597,7 +12511,7 @@
             <v/>
           </cell>
           <cell r="J327">
-            <v>0.35</v>
+            <v>0.14500000000000002</v>
           </cell>
           <cell r="O327" t="str">
             <v/>
@@ -12632,7 +12546,7 @@
             <v/>
           </cell>
           <cell r="I328">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="O328" t="str">
             <v/>
@@ -12664,7 +12578,7 @@
             <v/>
           </cell>
           <cell r="I329">
-            <v>3.5</v>
+            <v>2</v>
           </cell>
           <cell r="O329" t="str">
             <v/>
@@ -12696,7 +12610,7 @@
             <v/>
           </cell>
           <cell r="I330">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="O330" t="str">
             <v/>
@@ -12728,7 +12642,7 @@
             <v/>
           </cell>
           <cell r="I331">
-            <v>4.5</v>
+            <v>4</v>
           </cell>
           <cell r="O331" t="str">
             <v/>
@@ -12836,7 +12750,7 @@
             <v/>
           </cell>
           <cell r="J334">
-            <v>0.3</v>
+            <v>0.2</v>
           </cell>
           <cell r="K334">
             <v>0.1</v>
@@ -12880,7 +12794,7 @@
             <v/>
           </cell>
           <cell r="J335">
-            <v>0.45</v>
+            <v>0.25</v>
           </cell>
           <cell r="K335">
             <v>0.1</v>
@@ -12924,7 +12838,7 @@
             <v/>
           </cell>
           <cell r="J336">
-            <v>0.6</v>
+            <v>0.3</v>
           </cell>
           <cell r="K336">
             <v>0.1</v>
@@ -12968,7 +12882,7 @@
             <v/>
           </cell>
           <cell r="J337">
-            <v>0.75</v>
+            <v>0.35</v>
           </cell>
           <cell r="K337">
             <v>0.1</v>
@@ -13012,7 +12926,7 @@
             <v/>
           </cell>
           <cell r="I338">
-            <v>5</v>
+            <v>10</v>
           </cell>
           <cell r="O338" t="str">
             <v/>
@@ -13047,7 +12961,7 @@
             <v/>
           </cell>
           <cell r="I339">
-            <v>6</v>
+            <v>10</v>
           </cell>
           <cell r="O339" t="str">
             <v/>
@@ -13082,7 +12996,7 @@
             <v/>
           </cell>
           <cell r="I340">
-            <v>7</v>
+            <v>10</v>
           </cell>
           <cell r="O340" t="str">
             <v/>
@@ -13117,7 +13031,7 @@
             <v/>
           </cell>
           <cell r="I341">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="O341" t="str">
             <v/>
@@ -13152,7 +13066,7 @@
             <v/>
           </cell>
           <cell r="I342">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="O342" t="str">
             <v/>
@@ -14108,421 +14022,421 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>GameUI_ExitGame</v>
+            <v>GameUI_LevelPackLv</v>
           </cell>
           <cell r="B54" t="str">
-            <v>나가기</v>
+            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C54" t="str">
-            <v>Exit</v>
+            <v>Lv. &lt;size=30&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>GameUI_ExitGameDescription</v>
+            <v>GameUI_ExitGame</v>
           </cell>
           <cell r="B55" t="str">
-            <v>게임을 종료하시겠습니까?</v>
+            <v>나가기</v>
           </cell>
           <cell r="C55" t="str">
-            <v>Quit the game?</v>
+            <v>Exit</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>GameUI_BackToLobby</v>
+            <v>GameUI_ExitGameDescription</v>
           </cell>
           <cell r="B56" t="str">
-            <v>나가기</v>
+            <v>게임을 종료하시겠습니까?</v>
           </cell>
           <cell r="C56" t="str">
-            <v>Exit</v>
+            <v>Quit the game?</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
+            <v>GameUI_BackToLobby</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>나가기</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Exit</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
             <v>GameUI_BackToLobbyDescription</v>
           </cell>
-          <cell r="B57" t="str">
+          <cell r="B58" t="str">
             <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
 전투를 중지하시겠습니까?</v>
           </cell>
-          <cell r="C57" t="str">
+          <cell r="C58" t="str">
             <v>You cannot get gold, items you got til now.
 Sure to quit the battle?</v>
           </cell>
         </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>GameUI_TouchToMove</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>터치하여 이동하세요</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Touch to move</v>
-          </cell>
-        </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>GameUI_BossReady</v>
+            <v>GameUI_TouchToMove</v>
           </cell>
           <cell r="B59" t="str">
-            <v>보스에 대비하세요</v>
+            <v>터치하여 이동하세요</v>
           </cell>
           <cell r="C59" t="str">
-            <v>Prepare for the boss</v>
+            <v>Touch to move</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>GameUI_PossibleAfterTraining</v>
+            <v>GameUI_BossReady</v>
           </cell>
           <cell r="B60" t="str">
-            <v>훈련 챕터 클리어 후 진행 가능</v>
+            <v>보스에 대비하세요</v>
           </cell>
           <cell r="C60" t="str">
-            <v>Possible to play after the training chapter</v>
+            <v>Prepare for the boss</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>GameUI_Shop</v>
+            <v>GameUI_PossibleAfterTraining</v>
           </cell>
           <cell r="B61" t="str">
-            <v>상점</v>
+            <v>훈련 챕터 클리어 후 진행 가능</v>
           </cell>
           <cell r="C61" t="str">
-            <v>Shop</v>
+            <v>Possible to play after the training chapter</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GameUI_Challenge</v>
+            <v>GameUI_Shop</v>
           </cell>
           <cell r="B62" t="str">
-            <v>도전</v>
+            <v>상점</v>
           </cell>
           <cell r="C62" t="str">
-            <v>Challenge</v>
+            <v>Shop</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GameUI_Revert</v>
+            <v>GameUI_Challenge</v>
           </cell>
           <cell r="B63" t="str">
-            <v>환원</v>
+            <v>도전</v>
           </cell>
           <cell r="C63" t="str">
-            <v>Revert</v>
+            <v>Challenge</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GameUI_Swappable</v>
+            <v>GameUI_Revert</v>
           </cell>
           <cell r="B64" t="str">
-            <v>교체 가능</v>
+            <v>환원</v>
           </cell>
           <cell r="C64" t="str">
-            <v>Can be swapped</v>
+            <v>Revert</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GameUI_EnterInfo</v>
+            <v>GameUI_Swappable</v>
           </cell>
           <cell r="B65" t="str">
-            <v>입장 안내</v>
+            <v>교체 가능</v>
           </cell>
           <cell r="C65" t="str">
-            <v>Entry Info</v>
+            <v>Can be swapped</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
+            <v>GameUI_EnterInfo</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>입장 안내</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Entry Info</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
             <v>GameUI_EnterInfoDesc</v>
           </cell>
-          <cell r="B66" t="str">
+          <cell r="B67" t="str">
             <v>현재 캐릭터의 파워레벨이 부족합니다
 캐릭터를 변경하시겠습니까?</v>
           </cell>
-          <cell r="C66" t="str">
-            <v>In progress of translating…(66)</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
+          <cell r="C67" t="str">
+            <v>In progress of translating…(67)</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
             <v>GameUI_EnterRecommendDesc</v>
           </cell>
-          <cell r="B67" t="str">
+          <cell r="B68" t="str">
             <v>더 적합한 추천 캐릭터가 있습니다
 캐릭터를 변경하시겠습니까?</v>
           </cell>
-          <cell r="C67" t="str">
-            <v>In progress of translating…(67)</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>GameUI_ChangeCharacter</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>캐릭터 교체</v>
-          </cell>
           <cell r="C68" t="str">
-            <v>Change Chracter</v>
+            <v>In progress of translating…(68)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GameUI_Chapter</v>
+            <v>GameUI_ChangeCharacter</v>
           </cell>
           <cell r="B69" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>캐릭터 교체</v>
           </cell>
           <cell r="C69" t="str">
-            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
+            <v>Change Chracter</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GameUI_ChaosMode</v>
+            <v>GameUI_Chapter</v>
           </cell>
           <cell r="B70" t="str">
-            <v>카오스 모드</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C70" t="str">
-            <v>Chaos Mode</v>
+            <v>CHAPTER &lt;size=46&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GameUI_SuggestedPowerLevel</v>
+            <v>GameUI_ChaosMode</v>
           </cell>
           <cell r="B71" t="str">
-            <v>권장 파워레벨 {0}</v>
+            <v>카오스 모드</v>
           </cell>
           <cell r="C71" t="str">
-            <v>Recommended Power Level {0}</v>
+            <v>Chaos Mode</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GameUI_Power</v>
+            <v>GameUI_SuggestedPowerLevel</v>
           </cell>
           <cell r="B72" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>권장 파워레벨 {0}</v>
           </cell>
           <cell r="C72" t="str">
-            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
+            <v>Recommended Power Level {0}</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GameUI_Suggested</v>
+            <v>GameUI_Power</v>
           </cell>
           <cell r="B73" t="str">
-            <v>추천캐릭터</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Recommended</v>
+            <v>&lt;color=#E0E0E0&gt;POWER&lt;/color&gt; &lt;size=17&gt;{0}&lt;/size&gt;</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GameUI_FirstSwapHealNotApplied</v>
+            <v>GameUI_Suggested</v>
           </cell>
           <cell r="B74" t="str">
-            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
+            <v>추천캐릭터</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Characters already in combat will not recover HP/SP</v>
+            <v>Recommended</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GameUI_NowPlayingCharacter</v>
+            <v>GameUI_FirstSwapHealNotApplied</v>
           </cell>
           <cell r="B75" t="str">
-            <v>현재 플레이 중인 캐릭터입니다</v>
+            <v>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Now playing!</v>
+            <v>Characters already in combat will not recover HP/SP</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GameUI_Invincible</v>
+            <v>GameUI_NowPlayingCharacter</v>
           </cell>
           <cell r="B76" t="str">
-            <v>무적</v>
+            <v>현재 플레이 중인 캐릭터입니다</v>
           </cell>
           <cell r="C76" t="str">
-            <v>INVINCIBLE</v>
+            <v>Now playing!</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GameUI_Miss</v>
+            <v>GameUI_Invincible</v>
           </cell>
           <cell r="B77" t="str">
-            <v>빗맞음</v>
+            <v>무적</v>
           </cell>
           <cell r="C77" t="str">
-            <v>MISS</v>
+            <v>INVINCIBLE</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>GameUI_Headshot</v>
+            <v>GameUI_Miss</v>
           </cell>
           <cell r="B78" t="str">
-            <v>즉사</v>
+            <v>빗맞음</v>
           </cell>
           <cell r="C78" t="str">
-            <v>HEADSHOT</v>
+            <v>MISS</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>GameUI_ImmortalWill</v>
+            <v>GameUI_Headshot</v>
           </cell>
           <cell r="B79" t="str">
-            <v>불사!</v>
+            <v>즉사</v>
           </cell>
           <cell r="C79" t="str">
-            <v>IMMORTAL!</v>
+            <v>HEADSHOT</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>TimeSpaceUI_Low</v>
+            <v>GameUI_ImmortalWill</v>
           </cell>
           <cell r="B80" t="str">
-            <v>소</v>
+            <v>불사!</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Low</v>
+            <v>IMMORTAL!</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>TimeSpaceUI_Medium</v>
+            <v>TimeSpaceUI_Low</v>
           </cell>
           <cell r="B81" t="str">
-            <v>중</v>
+            <v>소</v>
           </cell>
           <cell r="C81" t="str">
-            <v>Medium</v>
+            <v>Low</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>TimeSpaceUI_High</v>
+            <v>TimeSpaceUI_Medium</v>
           </cell>
           <cell r="B82" t="str">
-            <v>대</v>
+            <v>중</v>
           </cell>
           <cell r="C82" t="str">
-            <v>High</v>
+            <v>Medium</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>TimeSpaceUI_Ultra</v>
+            <v>TimeSpaceUI_High</v>
           </cell>
           <cell r="B83" t="str">
-            <v>극대</v>
+            <v>대</v>
           </cell>
           <cell r="C83" t="str">
-            <v>Ultra</v>
+            <v>High</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>TimeSpaceUI_ExtraUltra</v>
+            <v>TimeSpaceUI_Ultra</v>
           </cell>
           <cell r="B84" t="str">
-            <v>초극대</v>
+            <v>극대</v>
           </cell>
           <cell r="C84" t="str">
-            <v>ExtraUltra</v>
+            <v>Ultra</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>PowerSourceUI_ComeHere</v>
+            <v>TimeSpaceUI_ExtraUltra</v>
           </cell>
           <cell r="B85" t="str">
-            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
+            <v>초극대</v>
           </cell>
           <cell r="C85" t="str">
-            <v>In progress of translating…(85)</v>
+            <v>ExtraUltra</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>PowerSourceUI_Heal</v>
+            <v>PowerSourceUI_ComeHere</v>
           </cell>
           <cell r="B86" t="str">
-            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
+            <v>가까이 다가가 힘의 원천으로부터 축복을 받으세요</v>
           </cell>
           <cell r="C86" t="str">
-            <v>The light of life flows from the power source</v>
+            <v>In progress of translating…(86)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>GameUI_SelectLevelPack</v>
+            <v>PowerSourceUI_Heal</v>
           </cell>
           <cell r="B87" t="str">
-            <v>전투팩을 선택하세요</v>
+            <v>힘의 원천으로부터 생명의 빛이 흘러나옵니다</v>
           </cell>
           <cell r="C87" t="str">
-            <v>Choose a Battle Pack</v>
+            <v>The light of life flows from the power source</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_SelectLevelPack</v>
           </cell>
           <cell r="B88" t="str">
-            <v>공격력</v>
+            <v>전투팩을 선택하세요</v>
           </cell>
           <cell r="C88" t="str">
-            <v>Low Attack Boost</v>
+            <v>Choose a Battle Pack</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B89" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
+            <v>공격력</v>
           </cell>
           <cell r="C89" t="str">
-            <v>Medium Attack Boost</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C90" t="str">
-            <v>In progress of translating…(90)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B91" t="str">
-            <v>공격 속도</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C91" t="str">
             <v>In progress of translating…(91)</v>
@@ -14530,10 +14444,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B92" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C92" t="str">
             <v>In progress of translating…(92)</v>
@@ -14541,10 +14455,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C93" t="str">
             <v>In progress of translating…(93)</v>
@@ -14552,10 +14466,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B94" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C94" t="str">
             <v>In progress of translating…(94)</v>
@@ -14563,10 +14477,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B95" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -14574,10 +14488,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -14585,10 +14499,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B97" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -14596,10 +14510,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B98" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -14607,10 +14521,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B99" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -14618,10 +14532,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B100" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -14629,10 +14543,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B101" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -14640,10 +14554,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B102" t="str">
-            <v>골드 획득량 증가</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -14651,10 +14565,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B103" t="str">
-            <v>아이템 확률 증가</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -14662,10 +14576,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B104" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -14673,10 +14587,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B105" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -14684,10 +14598,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -14695,10 +14609,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -14706,10 +14620,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -14717,10 +14631,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -14728,10 +14642,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -14739,10 +14653,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -14750,10 +14664,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B112" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -14761,10 +14675,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B113" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C113" t="str">
             <v>In progress of translating…(113)</v>
@@ -14772,10 +14686,10 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B114" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -14783,45 +14697,45 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
+            <v>LevelPackUIName_HealOnKillBetter</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>In progress of translating…(115)</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
-          <cell r="B115" t="str">
+          <cell r="B116" t="str">
             <v>적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C115" t="str">
-            <v>In progress of translating…(115)</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
+          <cell r="C116" t="str">
+            <v>In progress of translating…(116)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
             <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
-          <cell r="B116" t="str">
+          <cell r="B117" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
 공격 속도 증가</v>
           </cell>
-          <cell r="C116" t="str">
-            <v>In progress of translating…(116)</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>흡혈</v>
-          </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B118" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -14829,10 +14743,10 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B119" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -14840,33 +14754,33 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
+            <v>LevelPackUIName_RecoverOnAttacked</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>피격 시 HP 리젠</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>In progress of translating…(120)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
             <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
-          <cell r="B120" t="str">
+          <cell r="B121" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
 HP 리젠</v>
           </cell>
-          <cell r="C120" t="str">
-            <v>In progress of translating…(120)</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>피격 시 반사</v>
-          </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B122" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C122" t="str">
             <v>In progress of translating…(122)</v>
@@ -14874,69 +14788,69 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>In progress of translating…(123)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
-          <cell r="B123" t="str">
+          <cell r="B124" t="str">
             <v>HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C123" t="str">
-            <v>In progress of translating…(123)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
+          <cell r="C124" t="str">
+            <v>In progress of translating…(124)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
             <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B124" t="str">
+          <cell r="B125" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
 공격력 증가</v>
           </cell>
-          <cell r="C124" t="str">
-            <v>In progress of translating…(124)</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
+          <cell r="C125" t="str">
+            <v>In progress of translating…(125)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
-          <cell r="B125" t="str">
+          <cell r="B126" t="str">
             <v>적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C125" t="str">
-            <v>In progress of translating…(125)</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
+          <cell r="C126" t="str">
+            <v>In progress of translating…(126)</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
             <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
-          <cell r="B126" t="str">
+          <cell r="B127" t="str">
             <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
 치명타 대미지 증가</v>
           </cell>
-          <cell r="C126" t="str">
-            <v>In progress of translating…(126)</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>LevelPackUIName_InstantKill</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>일정확률로 즉사</v>
-          </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B128" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -14944,10 +14858,10 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B129" t="str">
-            <v>불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -14955,10 +14869,10 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B130" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -14966,10 +14880,10 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B131" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -14977,33 +14891,33 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>적 조우 시 회복지대</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>In progress of translating…(132)</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
             <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
-          <cell r="B132" t="str">
+          <cell r="B133" t="str">
             <v>피격 시
 이동 속도 증가</v>
           </cell>
-          <cell r="C132" t="str">
-            <v>In progress of translating…(132)</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>이동 중 오브 설치</v>
-          </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B134" t="str">
-            <v>발사체 속도 감소</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -15011,10 +14925,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B135" t="str">
-            <v>마비 효과</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -15022,10 +14936,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B136" t="str">
-            <v>이동 불가 효과</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -15033,10 +14947,10 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B137" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -15044,10 +14958,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B138" t="str">
-            <v>쉴드 소환</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -15055,10 +14969,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B139" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -15066,10 +14980,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -15077,10 +14991,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -15088,10 +15002,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -15099,10 +15013,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B143" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -15110,10 +15024,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B144" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -15121,10 +15035,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B145" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -15132,10 +15046,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B146" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -15143,10 +15057,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B147" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -15154,10 +15068,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B148" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -15165,10 +15079,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B149" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -15176,10 +15090,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B150" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -15187,10 +15101,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B151" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -15198,10 +15112,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B152" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -15209,10 +15123,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B153" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -15220,10 +15134,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B154" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -15231,10 +15145,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B155" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -15242,10 +15156,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B156" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -15253,10 +15167,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -15264,10 +15178,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -15275,10 +15189,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -15286,10 +15200,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -15297,10 +15211,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -15308,10 +15222,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B162" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -15319,10 +15233,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B163" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -15330,10 +15244,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B164" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -15341,10 +15255,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -15352,10 +15266,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -15363,10 +15277,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -15374,10 +15288,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B168" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -15385,10 +15299,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B169" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -15396,10 +15310,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B170" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -15407,10 +15321,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B171" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -15418,10 +15332,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B172" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -15429,10 +15343,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B173" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -15440,10 +15354,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B174" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -15451,10 +15365,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B175" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -15462,10 +15376,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B176" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -15473,10 +15387,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B177" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -15484,10 +15398,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B178" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -15495,10 +15409,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B179" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -15506,10 +15420,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B180" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -15517,10 +15431,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B181" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -15528,10 +15442,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B182" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -15539,10 +15453,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B183" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -15550,10 +15464,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B184" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -15561,10 +15475,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B185" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -15572,10 +15486,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B186" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -15583,10 +15497,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B187" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -15594,10 +15508,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B188" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -15605,10 +15519,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B189" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -15616,10 +15530,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B190" t="str">
-            <v>드넓은 평야</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -15627,10 +15541,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter2Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야2</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -15638,10 +15552,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter3Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야3</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -15649,10 +15563,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter4Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야4</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -15660,10 +15574,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -15671,10 +15585,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -15682,10 +15596,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -15693,10 +15607,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -15704,10 +15618,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -15715,10 +15629,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -15726,10 +15640,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -15737,10 +15651,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -15748,10 +15662,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -15759,10 +15673,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -15770,10 +15684,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -15781,10 +15695,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -15792,10 +15706,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -15803,10 +15717,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -15814,10 +15728,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -15825,10 +15739,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -15836,10 +15750,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -15847,10 +15761,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -15858,10 +15772,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -15869,10 +15783,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -15880,10 +15794,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -15891,10 +15805,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -15902,10 +15816,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야26</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -15913,10 +15827,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter27Name</v>
           </cell>
           <cell r="B217" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야27</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -15924,10 +15838,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter28Name</v>
           </cell>
           <cell r="B218" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야28</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -15935,10 +15849,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter29Name</v>
           </cell>
           <cell r="B219" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+            <v>드넓은 평야29</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -15946,10 +15860,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter2Desc</v>
+            <v>Chapter1Desc</v>
           </cell>
           <cell r="B220" t="str">
-            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
           </cell>
           <cell r="C220" t="str">
             <v>In progress of translating…(220)</v>
@@ -15957,10 +15871,10 @@
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>Chapter3Desc</v>
+            <v>Chapter2Desc</v>
           </cell>
           <cell r="B221" t="str">
-            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터2 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C221" t="str">
             <v>In progress of translating…(221)</v>
@@ -15968,10 +15882,10 @@
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>Chapter4Desc</v>
+            <v>Chapter3Desc</v>
           </cell>
           <cell r="B222" t="str">
-            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터3 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C222" t="str">
             <v>In progress of translating…(222)</v>
@@ -15979,10 +15893,10 @@
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>Chapter5Desc</v>
+            <v>Chapter4Desc</v>
           </cell>
           <cell r="B223" t="str">
-            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터4 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C223" t="str">
             <v>In progress of translating…(223)</v>
@@ -15990,10 +15904,10 @@
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>Chapter6Desc</v>
+            <v>Chapter5Desc</v>
           </cell>
           <cell r="B224" t="str">
-            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터5 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C224" t="str">
             <v>In progress of translating…(224)</v>
@@ -16001,10 +15915,10 @@
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>Chapter7Desc</v>
+            <v>Chapter6Desc</v>
           </cell>
           <cell r="B225" t="str">
-            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터6 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C225" t="str">
             <v>In progress of translating…(225)</v>
@@ -16012,10 +15926,10 @@
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>Chapter8Desc</v>
+            <v>Chapter7Desc</v>
           </cell>
           <cell r="B226" t="str">
-            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>6개의 관문을 통과해야 합니다 래빗 무리가 몰려오고 있으니 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C226" t="str">
             <v>In progress of translating…(226)</v>
@@ -16023,10 +15937,10 @@
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>Chapter9Desc</v>
+            <v>Chapter8Desc</v>
           </cell>
           <cell r="B227" t="str">
-            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터8 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C227" t="str">
             <v>In progress of translating…(227)</v>
@@ -16034,10 +15948,10 @@
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>Chapter10Desc</v>
+            <v>Chapter9Desc</v>
           </cell>
           <cell r="B228" t="str">
-            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터9 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C228" t="str">
             <v>In progress of translating…(228)</v>
@@ -16045,10 +15959,10 @@
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>Chapter11Desc</v>
+            <v>Chapter10Desc</v>
           </cell>
           <cell r="B229" t="str">
-            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터10 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C229" t="str">
             <v>In progress of translating…(229)</v>
@@ -16056,10 +15970,10 @@
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>Chapter12Desc</v>
+            <v>Chapter11Desc</v>
           </cell>
           <cell r="B230" t="str">
-            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터11 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C230" t="str">
             <v>In progress of translating…(230)</v>
@@ -16067,10 +15981,10 @@
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>Chapter13Desc</v>
+            <v>Chapter12Desc</v>
           </cell>
           <cell r="B231" t="str">
-            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터12 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C231" t="str">
             <v>In progress of translating…(231)</v>
@@ -16078,10 +15992,10 @@
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>Chapter14Desc</v>
+            <v>Chapter13Desc</v>
           </cell>
           <cell r="B232" t="str">
-            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터13 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C232" t="str">
             <v>In progress of translating…(232)</v>
@@ -16089,10 +16003,10 @@
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>Chapter15Desc</v>
+            <v>Chapter14Desc</v>
           </cell>
           <cell r="B233" t="str">
-            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터14 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C233" t="str">
             <v>In progress of translating…(233)</v>
@@ -16100,10 +16014,10 @@
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>Chapter16Desc</v>
+            <v>Chapter15Desc</v>
           </cell>
           <cell r="B234" t="str">
-            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터15 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C234" t="str">
             <v>In progress of translating…(234)</v>
@@ -16111,10 +16025,10 @@
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>Chapter17Desc</v>
+            <v>Chapter16Desc</v>
           </cell>
           <cell r="B235" t="str">
-            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터16 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C235" t="str">
             <v>In progress of translating…(235)</v>
@@ -16122,10 +16036,10 @@
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>Chapter18Desc</v>
+            <v>Chapter17Desc</v>
           </cell>
           <cell r="B236" t="str">
-            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터17 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C236" t="str">
             <v>In progress of translating…(236)</v>
@@ -16133,10 +16047,10 @@
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>Chapter19Desc</v>
+            <v>Chapter18Desc</v>
           </cell>
           <cell r="B237" t="str">
-            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터18 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C237" t="str">
             <v>In progress of translating…(237)</v>
@@ -16144,10 +16058,10 @@
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>Chapter20Desc</v>
+            <v>Chapter19Desc</v>
           </cell>
           <cell r="B238" t="str">
-            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터19 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C238" t="str">
             <v>In progress of translating…(238)</v>
@@ -16155,10 +16069,10 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>Chapter21Desc</v>
+            <v>Chapter20Desc</v>
           </cell>
           <cell r="B239" t="str">
-            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터20 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C239" t="str">
             <v>In progress of translating…(239)</v>
@@ -16166,10 +16080,10 @@
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>Chapter22Desc</v>
+            <v>Chapter21Desc</v>
           </cell>
           <cell r="B240" t="str">
-            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터21 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C240" t="str">
             <v>In progress of translating…(240)</v>
@@ -16177,10 +16091,10 @@
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>Chapter23Desc</v>
+            <v>Chapter22Desc</v>
           </cell>
           <cell r="B241" t="str">
-            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터22 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C241" t="str">
             <v>In progress of translating…(241)</v>
@@ -16188,10 +16102,10 @@
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>Chapter24Desc</v>
+            <v>Chapter23Desc</v>
           </cell>
           <cell r="B242" t="str">
-            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터23 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C242" t="str">
             <v>In progress of translating…(242)</v>
@@ -16199,10 +16113,10 @@
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>Chapter25Desc</v>
+            <v>Chapter24Desc</v>
           </cell>
           <cell r="B243" t="str">
-            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터24 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C243" t="str">
             <v>In progress of translating…(243)</v>
@@ -16210,10 +16124,10 @@
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>Chapter26Desc</v>
+            <v>Chapter25Desc</v>
           </cell>
           <cell r="B244" t="str">
-            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터25 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C244" t="str">
             <v>In progress of translating…(244)</v>
@@ -16221,10 +16135,10 @@
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>Chapter27Desc</v>
+            <v>Chapter26Desc</v>
           </cell>
           <cell r="B245" t="str">
-            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터26 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C245" t="str">
             <v>In progress of translating…(245)</v>
@@ -16232,10 +16146,10 @@
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>Chapter28Desc</v>
+            <v>Chapter27Desc</v>
           </cell>
           <cell r="B246" t="str">
-            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터27 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C246" t="str">
             <v>In progress of translating…(246)</v>
@@ -16243,10 +16157,10 @@
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>Chapter29Desc</v>
+            <v>Chapter28Desc</v>
           </cell>
           <cell r="B247" t="str">
-            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
+            <v>챕터28 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C247" t="str">
             <v>In progress of translating…(247)</v>
@@ -16254,184 +16168,184 @@
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>CharName_Ganfaul</v>
+            <v>Chapter29Desc</v>
           </cell>
           <cell r="B248" t="str">
-            <v>간파울</v>
+            <v>챕터29 디스크립션 {0} 등을 이용해서 저지하세요.</v>
           </cell>
           <cell r="C248" t="str">
-            <v>Ganfaul</v>
+            <v>In progress of translating…(248)</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>Ganfaul</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
             <v>CharDesc_Ganfaul</v>
           </cell>
-          <cell r="B249" t="str">
+          <cell r="B250" t="str">
             <v>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
 강력한 단일 공격을 사용한다</v>
           </cell>
-          <cell r="C249" t="str">
-            <v>In progress of translating…(249)</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250" t="str">
-            <v>CharName_KeepSeries</v>
-          </cell>
-          <cell r="B250" t="str">
-            <v>킵시리즈</v>
-          </cell>
           <cell r="C250" t="str">
-            <v>KeepSeries</v>
+            <v>In progress of translating…(250)</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>킵시리즈</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>KeepSeries</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
             <v>CharDesc_KeepSeries</v>
           </cell>
-          <cell r="B251" t="str">
+          <cell r="B252" t="str">
             <v>킵시리즈의 설명 우다다다
 간파울 아저씨한테 받은 총으로 광역 공격을 한다</v>
           </cell>
-          <cell r="C251" t="str">
-            <v>In progress of translating…(251)</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252" t="str">
-            <v>CharName_BigBatSuccubus</v>
-          </cell>
-          <cell r="B252" t="str">
-            <v>빅뱃서큐버스</v>
-          </cell>
           <cell r="C252" t="str">
-            <v>BigBatSuccubus</v>
+            <v>In progress of translating…(252)</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>빅뱃서큐버스</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
             <v>CharDesc_BigBatSuccubus</v>
           </cell>
-          <cell r="B253" t="str">
+          <cell r="B254" t="str">
             <v>빅뱃서큐버스의 설명 우다다다
 연타 공격을 사용한다</v>
           </cell>
-          <cell r="C253" t="str">
-            <v>In progress of translating…(253)</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254" t="str">
-            <v>CharName_Bei</v>
-          </cell>
-          <cell r="B254" t="str">
-            <v>베이</v>
-          </cell>
           <cell r="C254" t="str">
-            <v>Bei</v>
+            <v>In progress of translating…(254)</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>Bei</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256" t="str">
             <v>CharDesc_Bei</v>
           </cell>
-          <cell r="B255" t="str">
+          <cell r="B256" t="str">
             <v>베이의 설명 우다다다
 장판 공격을 사용한다</v>
           </cell>
-          <cell r="C255" t="str">
-            <v>In progress of translating…(255)</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256" t="str">
-            <v>BossName_SlimeRabbit</v>
-          </cell>
-          <cell r="B256" t="str">
-            <v>초록 토끼귀 슬라임</v>
-          </cell>
           <cell r="C256" t="str">
-            <v>Green Rabbit Slime</v>
+            <v>In progress of translating…(256)</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257" t="str">
-            <v>BossName_SlimeRabbit_Red</v>
+            <v>BossName_SlimeRabbit</v>
           </cell>
           <cell r="B257" t="str">
-            <v>붉은 토끼귀 슬라임</v>
+            <v>초록 토끼귀 슬라임</v>
           </cell>
           <cell r="C257" t="str">
-            <v>Red Rabbit Slime</v>
+            <v>Green Rabbit Slime</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258" t="str">
-            <v>BossName_TerribleStump_Purple</v>
+            <v>BossName_SlimeRabbit_Red</v>
           </cell>
           <cell r="B258" t="str">
-            <v>나무귀신</v>
+            <v>붉은 토끼귀 슬라임</v>
           </cell>
           <cell r="C258" t="str">
-            <v>Terrible Stump</v>
+            <v>Red Rabbit Slime</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259" t="str">
-            <v>BossName_PolygonalMetalon_Red</v>
+            <v>BossName_TerribleStump_Purple</v>
           </cell>
           <cell r="B259" t="str">
-            <v>외뿔 풍뎅이</v>
+            <v>나무귀신</v>
           </cell>
           <cell r="C259" t="str">
-            <v>In progress of translating…(259)</v>
+            <v>Terrible Stump</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260" t="str">
-            <v>BossName_SpiritKing</v>
+            <v>BossName_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B260" t="str">
-            <v>스피릿 킹</v>
+            <v>외뿔 풍뎅이</v>
           </cell>
           <cell r="C260" t="str">
-            <v>Spirit King</v>
+            <v>In progress of translating…(260)</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261" t="str">
-            <v>BossDesc_SlimeRabbit</v>
+            <v>BossName_SpiritKing</v>
           </cell>
           <cell r="B261" t="str">
-            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>스피릿 킹</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>Spirit King</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262" t="str">
-            <v>BossDesc_SlimeRabbit_Red</v>
+            <v>BossDesc_SlimeRabbit</v>
           </cell>
           <cell r="B262" t="str">
-            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
+            <v>친구들을 계속 불러내는 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263" t="str">
-            <v>BossDesc_TerribleStump_Purple</v>
+            <v>BossDesc_SlimeRabbit_Red</v>
           </cell>
           <cell r="B263" t="str">
-            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
-          </cell>
-          <cell r="C263" t="str">
-            <v>In progress of translating…(263)</v>
+            <v>좀 더 공격적인 슬라임 무리입니다. 광역 공격을 할 수 있는 {0} 등 캐릭터를 사용하세요!</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>BossDesc_PolygonalMetalon_Red</v>
+            <v>BossDesc_TerribleStump_Purple</v>
           </cell>
           <cell r="B264" t="str">
-            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+            <v>화가 단단히 난 듯한 나무 귀신입니다. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
           </cell>
           <cell r="C264" t="str">
             <v>In progress of translating…(264)</v>
@@ -16439,29 +16353,29 @@
         </row>
         <row r="265">
           <cell r="A265" t="str">
-            <v>BossDesc_SpiritKing</v>
+            <v>BossDesc_PolygonalMetalon_Red</v>
           </cell>
           <cell r="B265" t="str">
-            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
+            <v>뿔에 찔리면 매우 아플 것 같네요. {0} 등 단일 개체에게 강한 캐릭터로 저지하세요!</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>In progress of translating…(265)</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266" t="str">
-            <v>PenaltyUIName_One</v>
+            <v>BossDesc_SpiritKing</v>
           </cell>
           <cell r="B266" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
-          </cell>
-          <cell r="C266" t="str">
-            <v>In progress of translating…(266)</v>
+            <v>무시무시한 눈빛과 거대한 몸집을 가진 스피릿 킹입니다. {0} 등 큰 개체에게 공격할 수 있는 캐릭터를 써보세요!</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267" t="str">
-            <v>PenaltyUIMind_One</v>
+            <v>PenaltyUIName_One</v>
           </cell>
           <cell r="B267" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {1}배&lt;/color&gt;</v>
           </cell>
           <cell r="C267" t="str">
             <v>In progress of translating…(267)</v>
@@ -16469,10 +16383,10 @@
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>PenaltyUIRepre_OneOfTwo</v>
+            <v>PenaltyUIMind_One</v>
           </cell>
           <cell r="B268" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C268" t="str">
             <v>In progress of translating…(268)</v>
@@ -16480,10 +16394,10 @@
         </row>
         <row r="269">
           <cell r="A269" t="str">
-            <v>PenaltyUIName_Two</v>
+            <v>PenaltyUIRepre_OneOfTwo</v>
           </cell>
           <cell r="B269" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt; 또는 &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C269" t="str">
             <v>In progress of translating…(269)</v>
@@ -16491,10 +16405,10 @@
         </row>
         <row r="270">
           <cell r="A270" t="str">
-            <v>PenaltyUIMind_Two</v>
+            <v>PenaltyUIName_Two</v>
           </cell>
           <cell r="B270" t="str">
-            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {2}배&lt;/color&gt;</v>
           </cell>
           <cell r="C270" t="str">
             <v>In progress of translating…(270)</v>
@@ -16502,13 +16416,24 @@
         </row>
         <row r="271">
           <cell r="A271" t="str">
-            <v>PenaltyUIRepre_TwoOfFour</v>
+            <v>PenaltyUIMind_Two</v>
           </cell>
           <cell r="B271" t="str">
-            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+            <v>던전의 으스스한 기운으로 &lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt; 계열이 &lt;color=#FF0000&gt;더 많은 대미지&lt;/color&gt;를 입게 됩니다</v>
           </cell>
           <cell r="C271" t="str">
             <v>In progress of translating…(271)</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272" t="str">
+            <v>PenaltyUIRepre_TwoOfFour</v>
+          </cell>
+          <cell r="B272" t="str">
+            <v>&lt;color=#FF0000&gt;{0}&lt;/color&gt;, &lt;color=#FF0000&gt;{1}&lt;/color&gt;, &lt;color=#FF0000&gt;{2}&lt;/color&gt;, &lt;color=#FF0000&gt;{3}&lt;/color&gt; 계열 중 &lt;color=#FF0000&gt;{4} 계열&lt;/color&gt; 캐릭터의 &lt;color=#FF0000&gt;대미지 피해 {5}배&lt;/color&gt;</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>In progress of translating…(272)</v>
           </cell>
         </row>
       </sheetData>
@@ -16866,7 +16791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228BB8E1-607B-4A4F-85DA-23E22708D848}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -18792,7 +18717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A0EB5-6FD1-47A7-9244-6004540E3EF0}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20614,7 +20539,7 @@
         <v>몬스터를 죽일 때 회복합니다</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M27" s="1" t="b">
         <v>0</v>
@@ -20681,7 +20606,7 @@
         <v>몬스터를 죽일 때 더 많이 회복합니다</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M28" s="1" t="b">
         <v>0</v>

--- a/Excel/작업LevelPack.xlsx
+++ b/Excel/작업LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955C658-19CF-4DF3-B905-05E7B7C85E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307AB46-FB46-4335-951A-F4933B30C71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17418103-8DEE-4CF8-AD49-BF0346F49FD3}"/>
   </bookViews>
@@ -722,10 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect6_Collision_D, Effect6_Collision_D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect27_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,6 +795,10 @@
   </si>
   <si>
     <t>잔몹몹배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect6_Collision_D, Effect6_Collision_D2, MagicSphere_12_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1407,12 +1407,14 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>AttackWeightHitObject</v>
+            <v>TeleportingHitObject</v>
           </cell>
           <cell r="F2" t="str">
-            <v>공격 어펙터의 가중치를 확률에 곱하여 적용 후 히트오브젝트를 부여함
-가중치가 1보다 크면 1로 하여 확률을 더 높이지 않고 사용</v>
-          </cell>
+            <v>텔레포팅을 하는 히트오브젝트를 부여함(캐릭전용) 맵에 적이 하나 남으면 발동 안 됨
+맵에 적이 하나도 없으면 먼저 보낸 순서대로 하나가 바로 소환된다</v>
+          </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
           <cell r="I2" t="str">
             <v/>
           </cell>
@@ -1420,19 +1422,20 @@
             <v>어펙터를 콜할 확률</v>
           </cell>
           <cell r="K2" t="str">
-            <v/>
+            <v>전이제한 잔몹 HP 배율 이보다 클 때만 발동된다</v>
           </cell>
           <cell r="L2" t="str">
-            <v/>
+            <v>전이제한 보스 HP 배율 이보다 클 때만 발동된다</v>
           </cell>
           <cell r="M2" t="str">
             <v/>
           </cell>
           <cell r="N2" t="str">
-            <v/>
+            <v>오버라이딩
+우측 입력은 여기</v>
           </cell>
           <cell r="O2" t="str">
-            <v/>
+            <v>전이할 최대잔몹개수</v>
           </cell>
           <cell r="P2" t="str">
             <v>버로우, 돈다이인 적에게 면역일지 유무</v>
@@ -1441,16 +1444,17 @@
             <v/>
           </cell>
           <cell r="R2" t="str">
-            <v/>
+            <v>오버라이딩
+우측 입력은 여기</v>
           </cell>
           <cell r="S2" t="str">
-            <v/>
+            <v>전이할 최대보스몹개수</v>
           </cell>
           <cell r="T2" t="str">
             <v/>
           </cell>
           <cell r="U2" t="str">
-            <v>어펙터밸류아이디
+            <v>텔레포티드 어펙터밸류아이디
 레벨이 전달된다</v>
           </cell>
           <cell r="V2" t="str">
@@ -2203,6 +2207,7 @@
           <cell r="M20" t="str">
             <v>AttackAddRate</v>
           </cell>
+          <cell r="N20"/>
           <cell r="O20">
             <v>19</v>
           </cell>
@@ -12715,16 +12720,19 @@
             <v>0.1</v>
           </cell>
           <cell r="N333">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="O333">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="P333">
             <v>1</v>
           </cell>
-          <cell r="S333" t="str">
-            <v/>
+          <cell r="R333">
+            <v>0</v>
+          </cell>
+          <cell r="S333">
+            <v>0</v>
           </cell>
           <cell r="U333" t="str">
             <v>LP_Transport_Teleported</v>
@@ -12750,7 +12758,7 @@
             <v/>
           </cell>
           <cell r="J334">
-            <v>0.2</v>
+            <v>0.16999999999999998</v>
           </cell>
           <cell r="K334">
             <v>0.1</v>
@@ -12759,16 +12767,19 @@
             <v>0.1</v>
           </cell>
           <cell r="N334">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="O334">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="P334">
             <v>1</v>
           </cell>
-          <cell r="S334" t="str">
-            <v/>
+          <cell r="R334">
+            <v>0</v>
+          </cell>
+          <cell r="S334">
+            <v>0</v>
           </cell>
           <cell r="U334" t="str">
             <v>LP_Transport_Teleported</v>
@@ -12794,7 +12805,7 @@
             <v/>
           </cell>
           <cell r="J335">
-            <v>0.25</v>
+            <v>0.18999999999999997</v>
           </cell>
           <cell r="K335">
             <v>0.1</v>
@@ -12803,16 +12814,19 @@
             <v>0.1</v>
           </cell>
           <cell r="N335">
-            <v>4</v>
+            <v>9</v>
           </cell>
           <cell r="O335">
-            <v>4</v>
+            <v>9</v>
           </cell>
           <cell r="P335">
             <v>1</v>
           </cell>
-          <cell r="S335" t="str">
-            <v/>
+          <cell r="R335">
+            <v>1</v>
+          </cell>
+          <cell r="S335">
+            <v>1</v>
           </cell>
           <cell r="U335" t="str">
             <v>LP_Transport_Teleported</v>
@@ -12838,7 +12852,7 @@
             <v/>
           </cell>
           <cell r="J336">
-            <v>0.3</v>
+            <v>0.20999999999999996</v>
           </cell>
           <cell r="K336">
             <v>0.1</v>
@@ -12847,16 +12861,19 @@
             <v>0.1</v>
           </cell>
           <cell r="N336">
-            <v>6</v>
+            <v>12</v>
           </cell>
           <cell r="O336">
-            <v>6</v>
+            <v>12</v>
           </cell>
           <cell r="P336">
             <v>1</v>
           </cell>
-          <cell r="S336" t="str">
-            <v/>
+          <cell r="R336">
+            <v>1</v>
+          </cell>
+          <cell r="S336">
+            <v>1</v>
           </cell>
           <cell r="U336" t="str">
             <v>LP_Transport_Teleported</v>
@@ -12882,7 +12899,7 @@
             <v/>
           </cell>
           <cell r="J337">
-            <v>0.35</v>
+            <v>0.22999999999999995</v>
           </cell>
           <cell r="K337">
             <v>0.1</v>
@@ -12891,16 +12908,19 @@
             <v>0.1</v>
           </cell>
           <cell r="N337">
-            <v>10</v>
+            <v>15</v>
           </cell>
           <cell r="O337">
-            <v>10</v>
+            <v>15</v>
           </cell>
           <cell r="P337">
             <v>1</v>
           </cell>
-          <cell r="S337" t="str">
-            <v/>
+          <cell r="R337">
+            <v>2</v>
+          </cell>
+          <cell r="S337">
+            <v>2</v>
           </cell>
           <cell r="U337" t="str">
             <v>LP_Transport_Teleported</v>
@@ -12934,6 +12954,9 @@
           <cell r="S338" t="str">
             <v/>
           </cell>
+          <cell r="U338" t="str">
+            <v>MagicSphere_12_D</v>
+          </cell>
           <cell r="V338" t="str">
             <v>Effect6_Collision_D</v>
           </cell>
@@ -12969,6 +12992,9 @@
           <cell r="S339" t="str">
             <v/>
           </cell>
+          <cell r="U339" t="str">
+            <v>MagicSphere_12_D</v>
+          </cell>
           <cell r="V339" t="str">
             <v>Effect6_Collision_D</v>
           </cell>
@@ -13004,6 +13030,9 @@
           <cell r="S340" t="str">
             <v/>
           </cell>
+          <cell r="U340" t="str">
+            <v>MagicSphere_12_D</v>
+          </cell>
           <cell r="V340" t="str">
             <v>Effect6_Collision_D</v>
           </cell>
@@ -13039,6 +13068,9 @@
           <cell r="S341" t="str">
             <v/>
           </cell>
+          <cell r="U341" t="str">
+            <v>MagicSphere_12_D</v>
+          </cell>
           <cell r="V341" t="str">
             <v>Effect6_Collision_D</v>
           </cell>
@@ -13073,6 +13105,9 @@
           </cell>
           <cell r="S342" t="str">
             <v/>
+          </cell>
+          <cell r="U342" t="str">
+            <v>MagicSphere_12_D</v>
           </cell>
           <cell r="V342" t="str">
             <v>Effect6_Collision_D</v>
@@ -13491,11 +13526,11 @@
             <v>SystemUI_NeedPatch</v>
           </cell>
           <cell r="B6" t="str">
-            <v>새로운 패치가 있습니다.
+            <v>새로운 패치가 있습니다._x000D_
 &lt;color=cyan&gt;와이파이&lt;/color&gt;를 사용해서 다운로드 받으시길 권장합니다.</v>
           </cell>
           <cell r="C6" t="str">
-            <v>New Patch!
+            <v>New Patch!_x000D_
 Recommended to download with &lt;color=cyan&gt;WIFI&lt;/color&gt;</v>
           </cell>
         </row>
@@ -13504,11 +13539,11 @@
             <v>SystemUI_DisconnectServer</v>
           </cell>
           <cell r="B7" t="str">
-            <v>서버와의 접속이 원활하지 않습니다.
+            <v>서버와의 접속이 원활하지 않습니다._x000D_
 프로그램을 재시작합니다.</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Bad connection
+            <v>Bad connection_x000D_
 Restarting the app</v>
           </cell>
         </row>
@@ -13528,11 +13563,13 @@
             <v>SystemUI_MainternanceDetail</v>
           </cell>
           <cell r="B9" t="str">
-            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다.
+            <v>5월 29일 화요일 오전 3시부터 대략 11시까지 정기 점검 예정입니다. 이 동안 서버 및 웹 서비스 등을 사용하실 수 없습니다._x000D_
+_x000D_
 감사합니다.</v>
           </cell>
           <cell r="C9" t="str">
-            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable.
+            <v>We will be performing scheduled maintenance on Tuesday, May 29th. Maintenance will begin at 3:00 AM PDT and conclude at approximately 11:00 AM PDT. During this time, servers and many web services will be unavailable._x000D_
+_x000D_
 Thank you for your patience.</v>
           </cell>
         </row>
@@ -14069,11 +14106,11 @@
             <v>GameUI_BackToLobbyDescription</v>
           </cell>
           <cell r="B58" t="str">
-            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다.
+            <v>현재 획득한 골드, 아이템 등은 획득할 수 없습니다._x000D_
 전투를 중지하시겠습니까?</v>
           </cell>
           <cell r="C58" t="str">
-            <v>You cannot get gold, items you got til now.
+            <v>You cannot get gold, items you got til now._x000D_
 Sure to quit the battle?</v>
           </cell>
         </row>
@@ -14170,7 +14207,8 @@
             <v>GameUI_EnterInfoDesc</v>
           </cell>
           <cell r="B67" t="str">
-            <v>현재 캐릭터의 파워레벨이 부족합니다
+            <v>현재 캐릭터의 파워레벨이 부족합니다_x000D_
+_x000D_
 캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C67" t="str">
@@ -14182,7 +14220,8 @@
             <v>GameUI_EnterRecommendDesc</v>
           </cell>
           <cell r="B68" t="str">
-            <v>더 적합한 추천 캐릭터가 있습니다
+            <v>더 적합한 추천 캐릭터가 있습니다_x000D_
+_x000D_
 캐릭터를 변경하시겠습니까?</v>
           </cell>
           <cell r="C68" t="str">
@@ -14411,76 +14450,64 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LevelPackUIName_Atk</v>
+            <v>GameUI_BossClearReward</v>
           </cell>
           <cell r="B89" t="str">
-            <v>공격력</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>Low Attack Boost</v>
+            <v>보스 클리어 보상</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LevelPackUIName_AtkBetter</v>
+            <v>GameUI_NoHitClearReward</v>
           </cell>
           <cell r="B90" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>Medium Attack Boost</v>
+            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 클리어 보상</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LevelPackUIName_AtkBest</v>
+            <v>GameUI_LevelPack</v>
           </cell>
           <cell r="B91" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>In progress of translating…(91)</v>
+            <v>전투팩</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LevelPackUIName_AtkSpeed</v>
+            <v>GameUI_NoHitLevelPack</v>
           </cell>
           <cell r="B92" t="str">
-            <v>공격 속도</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>In progress of translating…(92)</v>
+            <v>&lt;color=#FFC080&gt;노히트&lt;/color&gt; 전투팩</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LevelPackUIName_AtkSpeedBetter</v>
+            <v>LevelPackUIName_Atk</v>
           </cell>
           <cell r="B93" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
+            <v>공격력</v>
           </cell>
           <cell r="C93" t="str">
-            <v>In progress of translating…(93)</v>
+            <v>Low Attack Boost</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LevelPackUIName_AtkSpeedBest</v>
+            <v>LevelPackUIName_AtkBetter</v>
           </cell>
           <cell r="B94" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C94" t="str">
-            <v>In progress of translating…(94)</v>
+            <v>Medium Attack Boost</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LevelPackUIName_Crit</v>
+            <v>LevelPackUIName_AtkBest</v>
           </cell>
           <cell r="B95" t="str">
-            <v>치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격력</v>
           </cell>
           <cell r="C95" t="str">
             <v>In progress of translating…(95)</v>
@@ -14488,10 +14515,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LevelPackUIName_CritBetter</v>
+            <v>LevelPackUIName_AtkSpeed</v>
           </cell>
           <cell r="B96" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
+            <v>공격 속도</v>
           </cell>
           <cell r="C96" t="str">
             <v>In progress of translating…(96)</v>
@@ -14499,10 +14526,10 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LevelPackUIName_CritBest</v>
+            <v>LevelPackUIName_AtkSpeedBetter</v>
           </cell>
           <cell r="B97" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C97" t="str">
             <v>In progress of translating…(97)</v>
@@ -14510,10 +14537,10 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LevelPackUIName_MaxHp</v>
+            <v>LevelPackUIName_AtkSpeedBest</v>
           </cell>
           <cell r="B98" t="str">
-            <v>최대 체력</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 공격 속도</v>
           </cell>
           <cell r="C98" t="str">
             <v>In progress of translating…(98)</v>
@@ -14521,10 +14548,10 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LevelPackUIName_MaxHpBetter</v>
+            <v>LevelPackUIName_Crit</v>
           </cell>
           <cell r="B99" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
+            <v>치명타 확률</v>
           </cell>
           <cell r="C99" t="str">
             <v>In progress of translating…(99)</v>
@@ -14532,10 +14559,10 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LevelPackUIName_MaxHpBest</v>
+            <v>LevelPackUIName_CritBetter</v>
           </cell>
           <cell r="B100" t="str">
-            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C100" t="str">
             <v>In progress of translating…(100)</v>
@@ -14543,10 +14570,10 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LevelPackUIName_ReduceDmgProjectile</v>
+            <v>LevelPackUIName_CritBest</v>
           </cell>
           <cell r="B101" t="str">
-            <v>발사체 대미지 감소</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 확률</v>
           </cell>
           <cell r="C101" t="str">
             <v>In progress of translating…(101)</v>
@@ -14554,10 +14581,10 @@
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LevelPackUIName_ReduceDmgClose</v>
+            <v>LevelPackUIName_MaxHp</v>
           </cell>
           <cell r="B102" t="str">
-            <v>충돌 대미지 감소</v>
+            <v>최대 체력</v>
           </cell>
           <cell r="C102" t="str">
             <v>In progress of translating…(102)</v>
@@ -14565,10 +14592,10 @@
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LevelPackUIName_ExtraGold</v>
+            <v>LevelPackUIName_MaxHpBetter</v>
           </cell>
           <cell r="B103" t="str">
-            <v>골드 획득량 증가</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C103" t="str">
             <v>In progress of translating…(103)</v>
@@ -14576,10 +14603,10 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LevelPackUIName_ItemChanceBoost</v>
+            <v>LevelPackUIName_MaxHpBest</v>
           </cell>
           <cell r="B104" t="str">
-            <v>아이템 확률 증가</v>
+            <v>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 최대 체력</v>
           </cell>
           <cell r="C104" t="str">
             <v>In progress of translating…(104)</v>
@@ -14587,10 +14614,10 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LevelPackUIName_HealChanceBoost</v>
+            <v>LevelPackUIName_ReduceDmgProjectile</v>
           </cell>
           <cell r="B105" t="str">
-            <v>회복구슬 확률 증가</v>
+            <v>발사체 대미지 감소</v>
           </cell>
           <cell r="C105" t="str">
             <v>In progress of translating…(105)</v>
@@ -14598,10 +14625,10 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LevelPackUIName_MonsterThrough</v>
+            <v>LevelPackUIName_ReduceDmgClose</v>
           </cell>
           <cell r="B106" t="str">
-            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
+            <v>충돌 대미지 감소</v>
           </cell>
           <cell r="C106" t="str">
             <v>In progress of translating…(106)</v>
@@ -14609,10 +14636,10 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LevelPackUIName_Ricochet</v>
+            <v>LevelPackUIName_ExtraGold</v>
           </cell>
           <cell r="B107" t="str">
-            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
+            <v>골드 획득량 증가</v>
           </cell>
           <cell r="C107" t="str">
             <v>In progress of translating…(107)</v>
@@ -14620,10 +14647,10 @@
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LevelPackUIName_BounceWallQuad</v>
+            <v>LevelPackUIName_ItemChanceBoost</v>
           </cell>
           <cell r="B108" t="str">
-            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
+            <v>아이템 확률 증가</v>
           </cell>
           <cell r="C108" t="str">
             <v>In progress of translating…(108)</v>
@@ -14631,10 +14658,10 @@
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LevelPackUIName_Parallel</v>
+            <v>LevelPackUIName_HealChanceBoost</v>
           </cell>
           <cell r="B109" t="str">
-            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
+            <v>회복구슬 확률 증가</v>
           </cell>
           <cell r="C109" t="str">
             <v>In progress of translating…(109)</v>
@@ -14642,10 +14669,10 @@
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LevelPackUIName_DiagonalNwayGenerator</v>
+            <v>LevelPackUIName_MonsterThrough</v>
           </cell>
           <cell r="B110" t="str">
-            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;몬스터 관통샷&lt;/color&gt;</v>
           </cell>
           <cell r="C110" t="str">
             <v>In progress of translating…(110)</v>
@@ -14653,10 +14680,10 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LevelPackUIName_LeftRightNwayGenerator</v>
+            <v>LevelPackUIName_Ricochet</v>
           </cell>
           <cell r="B111" t="str">
-            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;체인샷&lt;/color&gt;</v>
           </cell>
           <cell r="C111" t="str">
             <v>In progress of translating…(111)</v>
@@ -14664,10 +14691,10 @@
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LevelPackUIName_BackNwayGenerator</v>
+            <v>LevelPackUIName_BounceWallQuad</v>
           </cell>
           <cell r="B112" t="str">
-            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;벽 반사샷&lt;/color&gt;</v>
           </cell>
           <cell r="C112" t="str">
             <v>In progress of translating…(112)</v>
@@ -14675,10 +14702,10 @@
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LevelPackUIName_Repeat</v>
+            <v>LevelPackUIName_Parallel</v>
           </cell>
           <cell r="B113" t="str">
-            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
+            <v>&lt;color=#FFC080&gt;전방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C113" t="str">
             <v>In progress of translating…(113)</v>
@@ -14686,10 +14713,10 @@
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LevelPackUIName_HealOnKill</v>
+            <v>LevelPackUIName_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B114" t="str">
-            <v>몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</v>
           </cell>
           <cell r="C114" t="str">
             <v>In progress of translating…(114)</v>
@@ -14697,10 +14724,10 @@
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LevelPackUIName_HealOnKillBetter</v>
+            <v>LevelPackUIName_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B115" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
+            <v>&lt;color=#FFC080&gt;좌우샷&lt;/color&gt;</v>
           </cell>
           <cell r="C115" t="str">
             <v>In progress of translating…(115)</v>
@@ -14708,11 +14735,10 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIName_BackNwayGenerator</v>
           </cell>
           <cell r="B116" t="str">
-            <v>적 조우 시
-공격 속도 증가</v>
+            <v>&lt;color=#FFC080&gt;후방샷&lt;/color&gt;</v>
           </cell>
           <cell r="C116" t="str">
             <v>In progress of translating…(116)</v>
@@ -14720,11 +14746,10 @@
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIName_Repeat</v>
           </cell>
           <cell r="B117" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시
-공격 속도 증가</v>
+            <v>&lt;color=#FFC080&gt;반복 공격&lt;/color&gt;</v>
           </cell>
           <cell r="C117" t="str">
             <v>In progress of translating…(117)</v>
@@ -14732,10 +14757,10 @@
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>LevelPackUIName_VampireOnAttack</v>
+            <v>LevelPackUIName_HealOnKill</v>
           </cell>
           <cell r="B118" t="str">
-            <v>흡혈</v>
+            <v>몬스터 킬 시 회복</v>
           </cell>
           <cell r="C118" t="str">
             <v>In progress of translating…(118)</v>
@@ -14743,10 +14768,10 @@
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>LevelPackUIName_VampireOnAttackBetter</v>
+            <v>LevelPackUIName_HealOnKillBetter</v>
           </cell>
           <cell r="B119" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 몬스터 킬 시 회복</v>
           </cell>
           <cell r="C119" t="str">
             <v>In progress of translating…(119)</v>
@@ -14754,10 +14779,11 @@
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>LevelPackUIName_RecoverOnAttacked</v>
+            <v>LevelPackUIName_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B120" t="str">
-            <v>피격 시 HP 리젠</v>
+            <v>적 조우 시_x000D_
+공격 속도 증가</v>
           </cell>
           <cell r="C120" t="str">
             <v>In progress of translating…(120)</v>
@@ -14765,11 +14791,11 @@
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIName_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B121" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
-HP 리젠</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 조우 시_x000D_
+공격 속도 증가</v>
           </cell>
           <cell r="C121" t="str">
             <v>In progress of translating…(121)</v>
@@ -14777,10 +14803,10 @@
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>LevelPackUIName_ReflectOnAttacked</v>
+            <v>LevelPackUIName_VampireOnAttack</v>
           </cell>
           <cell r="B122" t="str">
-            <v>피격 시 반사</v>
+            <v>흡혈</v>
           </cell>
           <cell r="C122" t="str">
             <v>In progress of translating…(122)</v>
@@ -14788,10 +14814,10 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIName_VampireOnAttackBetter</v>
           </cell>
           <cell r="B123" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</v>
           </cell>
           <cell r="C123" t="str">
             <v>In progress of translating…(123)</v>
@@ -14799,11 +14825,10 @@
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHp</v>
+            <v>LevelPackUIName_RecoverOnAttacked</v>
           </cell>
           <cell r="B124" t="str">
-            <v>HP 낮을수록
-공격력 증가</v>
+            <v>피격 시 HP 리젠</v>
           </cell>
           <cell r="C124" t="str">
             <v>In progress of translating…(124)</v>
@@ -14811,11 +14836,11 @@
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIName_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B125" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록
-공격력 증가</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시_x000D_
+HP 리젠</v>
           </cell>
           <cell r="C125" t="str">
             <v>In progress of translating…(125)</v>
@@ -14823,11 +14848,10 @@
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIName_ReflectOnAttacked</v>
           </cell>
           <cell r="B126" t="str">
-            <v>적 HP 낮을수록
-치명타 대미지 증가</v>
+            <v>피격 시 반사</v>
           </cell>
           <cell r="C126" t="str">
             <v>In progress of translating…(126)</v>
@@ -14835,11 +14859,10 @@
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIName_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B127" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록
-치명타 대미지 증가</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시 반사</v>
           </cell>
           <cell r="C127" t="str">
             <v>In progress of translating…(127)</v>
@@ -14847,10 +14870,11 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>LevelPackUIName_InstantKill</v>
+            <v>LevelPackUIName_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B128" t="str">
-            <v>일정확률로 즉사</v>
+            <v>HP 낮을수록_x000D_
+공격력 증가</v>
           </cell>
           <cell r="C128" t="str">
             <v>In progress of translating…(128)</v>
@@ -14858,10 +14882,11 @@
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>LevelPackUIName_InstantKillBetter</v>
+            <v>LevelPackUIName_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B129" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; HP 낮을수록_x000D_
+공격력 증가</v>
           </cell>
           <cell r="C129" t="str">
             <v>In progress of translating…(129)</v>
@@ -14869,10 +14894,11 @@
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>LevelPackUIName_ImmortalWill</v>
+            <v>LevelPackUIName_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B130" t="str">
-            <v>불사의 의지</v>
+            <v>적 HP 낮을수록_x000D_
+치명타 대미지 증가</v>
           </cell>
           <cell r="C130" t="str">
             <v>In progress of translating…(130)</v>
@@ -14880,10 +14906,11 @@
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>LevelPackUIName_ImmortalWillBetter</v>
+            <v>LevelPackUIName_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B131" t="str">
-            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 적 HP 낮을수록_x000D_
+치명타 대미지 증가</v>
           </cell>
           <cell r="C131" t="str">
             <v>In progress of translating…(131)</v>
@@ -14891,10 +14918,10 @@
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>LevelPackUIName_HealAreaOnEncounter</v>
+            <v>LevelPackUIName_InstantKill</v>
           </cell>
           <cell r="B132" t="str">
-            <v>적 조우 시 회복지대</v>
+            <v>일정확률로 즉사</v>
           </cell>
           <cell r="C132" t="str">
             <v>In progress of translating…(132)</v>
@@ -14902,11 +14929,10 @@
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIName_InstantKillBetter</v>
           </cell>
           <cell r="B133" t="str">
-            <v>피격 시
-이동 속도 증가</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 일정확률로 즉사</v>
           </cell>
           <cell r="C133" t="str">
             <v>In progress of translating…(133)</v>
@@ -14914,10 +14940,10 @@
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>LevelPackUIName_MineOnMove</v>
+            <v>LevelPackUIName_ImmortalWill</v>
           </cell>
           <cell r="B134" t="str">
-            <v>이동 중 오브 설치</v>
+            <v>불사의 의지</v>
           </cell>
           <cell r="C134" t="str">
             <v>In progress of translating…(134)</v>
@@ -14925,10 +14951,10 @@
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>LevelPackUIName_SlowHitObject</v>
+            <v>LevelPackUIName_ImmortalWillBetter</v>
           </cell>
           <cell r="B135" t="str">
-            <v>발사체 속도 감소</v>
+            <v>&lt;color=#FFC080&gt;상급&lt;/color&gt; 불사의 의지</v>
           </cell>
           <cell r="C135" t="str">
             <v>In progress of translating…(135)</v>
@@ -14936,10 +14962,10 @@
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>LevelPackUIName_Paralyze</v>
+            <v>LevelPackUIName_HealAreaOnEncounter</v>
           </cell>
           <cell r="B136" t="str">
-            <v>마비 효과</v>
+            <v>적 조우 시 회복지대</v>
           </cell>
           <cell r="C136" t="str">
             <v>In progress of translating…(136)</v>
@@ -14947,10 +14973,11 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>LevelPackUIName_Hold</v>
+            <v>LevelPackUIName_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B137" t="str">
-            <v>이동 불가 효과</v>
+            <v>피격 시_x000D_
+이동 속도 증가</v>
           </cell>
           <cell r="C137" t="str">
             <v>In progress of translating…(137)</v>
@@ -14958,10 +14985,10 @@
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>LevelPackUIName_Transport</v>
+            <v>LevelPackUIName_MineOnMove</v>
           </cell>
           <cell r="B138" t="str">
-            <v>몬스터 전이 효과</v>
+            <v>이동 중 오브 설치</v>
           </cell>
           <cell r="C138" t="str">
             <v>In progress of translating…(138)</v>
@@ -14969,10 +14996,10 @@
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>LevelPackUIName_SummonShield</v>
+            <v>LevelPackUIName_SlowHitObject</v>
           </cell>
           <cell r="B139" t="str">
-            <v>쉴드 소환</v>
+            <v>발사체 속도 감소</v>
           </cell>
           <cell r="C139" t="str">
             <v>In progress of translating…(139)</v>
@@ -14980,10 +15007,10 @@
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>LevelPackUIDesc_Atk</v>
+            <v>LevelPackUIName_Paralyze</v>
           </cell>
           <cell r="B140" t="str">
-            <v>공격력이 증가합니다</v>
+            <v>마비 효과</v>
           </cell>
           <cell r="C140" t="str">
             <v>In progress of translating…(140)</v>
@@ -14991,10 +15018,10 @@
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>LevelPackUIDesc_AtkBetter</v>
+            <v>LevelPackUIName_Hold</v>
           </cell>
           <cell r="B141" t="str">
-            <v>공격력이 많이 증가합니다</v>
+            <v>이동 불가 효과</v>
           </cell>
           <cell r="C141" t="str">
             <v>In progress of translating…(141)</v>
@@ -15002,10 +15029,10 @@
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>LevelPackUIDesc_AtkBest</v>
+            <v>LevelPackUIName_Transport</v>
           </cell>
           <cell r="B142" t="str">
-            <v>공격력이 매우 많이 증가합니다</v>
+            <v>몬스터 전이 효과</v>
           </cell>
           <cell r="C142" t="str">
             <v>In progress of translating…(142)</v>
@@ -15013,10 +15040,10 @@
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>LevelPackUIDesc_AtkSpeed</v>
+            <v>LevelPackUIName_SummonShield</v>
           </cell>
           <cell r="B143" t="str">
-            <v>공격 속도가 증가합니다</v>
+            <v>쉴드 소환</v>
           </cell>
           <cell r="C143" t="str">
             <v>In progress of translating…(143)</v>
@@ -15024,10 +15051,10 @@
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBetter</v>
+            <v>LevelPackUIDesc_Atk</v>
           </cell>
           <cell r="B144" t="str">
-            <v>공격 속도가 많이 증가합니다</v>
+            <v>공격력이 증가합니다</v>
           </cell>
           <cell r="C144" t="str">
             <v>In progress of translating…(144)</v>
@@ -15035,10 +15062,10 @@
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>LevelPackUIDesc_AtkSpeedBest</v>
+            <v>LevelPackUIDesc_AtkBetter</v>
           </cell>
           <cell r="B145" t="str">
-            <v>공격 속도가 매우 많이 증가합니다</v>
+            <v>공격력이 많이 증가합니다</v>
           </cell>
           <cell r="C145" t="str">
             <v>In progress of translating…(145)</v>
@@ -15046,10 +15073,10 @@
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>LevelPackUIDesc_Crit</v>
+            <v>LevelPackUIDesc_AtkBest</v>
           </cell>
           <cell r="B146" t="str">
-            <v>치명타 확률이 증가합니다</v>
+            <v>공격력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C146" t="str">
             <v>In progress of translating…(146)</v>
@@ -15057,10 +15084,10 @@
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>LevelPackUIDesc_CritBetter</v>
+            <v>LevelPackUIDesc_AtkSpeed</v>
           </cell>
           <cell r="B147" t="str">
-            <v>치명타 확률이 많이 증가합니다</v>
+            <v>공격 속도가 증가합니다</v>
           </cell>
           <cell r="C147" t="str">
             <v>In progress of translating…(147)</v>
@@ -15068,10 +15095,10 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>LevelPackUIDesc_CritBest</v>
+            <v>LevelPackUIDesc_AtkSpeedBetter</v>
           </cell>
           <cell r="B148" t="str">
-            <v>치명타 확률이 매우 많이 증가합니다</v>
+            <v>공격 속도가 많이 증가합니다</v>
           </cell>
           <cell r="C148" t="str">
             <v>In progress of translating…(148)</v>
@@ -15079,10 +15106,10 @@
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>LevelPackUIDesc_MaxHp</v>
+            <v>LevelPackUIDesc_AtkSpeedBest</v>
           </cell>
           <cell r="B149" t="str">
-            <v>최대 체력이 증가합니다</v>
+            <v>공격 속도가 매우 많이 증가합니다</v>
           </cell>
           <cell r="C149" t="str">
             <v>In progress of translating…(149)</v>
@@ -15090,10 +15117,10 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>LevelPackUIDesc_MaxHpBetter</v>
+            <v>LevelPackUIDesc_Crit</v>
           </cell>
           <cell r="B150" t="str">
-            <v>최대 체력이 많이 증가합니다</v>
+            <v>치명타 확률이 증가합니다</v>
           </cell>
           <cell r="C150" t="str">
             <v>In progress of translating…(150)</v>
@@ -15101,10 +15128,10 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>LevelPackUIDesc_MaxHpBest</v>
+            <v>LevelPackUIDesc_CritBetter</v>
           </cell>
           <cell r="B151" t="str">
-            <v>최대 체력이 매우 많이 증가합니다</v>
+            <v>치명타 확률이 많이 증가합니다</v>
           </cell>
           <cell r="C151" t="str">
             <v>In progress of translating…(151)</v>
@@ -15112,10 +15139,10 @@
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
+            <v>LevelPackUIDesc_CritBest</v>
           </cell>
           <cell r="B152" t="str">
-            <v>발사체의 대미지가 감소합니다</v>
+            <v>치명타 확률이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C152" t="str">
             <v>In progress of translating…(152)</v>
@@ -15123,10 +15150,10 @@
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>LevelPackUIDesc_ReduceDmgClose</v>
+            <v>LevelPackUIDesc_MaxHp</v>
           </cell>
           <cell r="B153" t="str">
-            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
+            <v>최대 체력이 증가합니다</v>
           </cell>
           <cell r="C153" t="str">
             <v>In progress of translating…(153)</v>
@@ -15134,10 +15161,10 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>LevelPackUIDesc_ExtraGold</v>
+            <v>LevelPackUIDesc_MaxHpBetter</v>
           </cell>
           <cell r="B154" t="str">
-            <v>골드 획득량이 증가합니다</v>
+            <v>최대 체력이 많이 증가합니다</v>
           </cell>
           <cell r="C154" t="str">
             <v>In progress of translating…(154)</v>
@@ -15145,10 +15172,10 @@
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>LevelPackUIDesc_ItemChanceBoost</v>
+            <v>LevelPackUIDesc_MaxHpBest</v>
           </cell>
           <cell r="B155" t="str">
-            <v>아이템 획득 확률이 증가합니다</v>
+            <v>최대 체력이 매우 많이 증가합니다</v>
           </cell>
           <cell r="C155" t="str">
             <v>In progress of translating…(155)</v>
@@ -15156,10 +15183,10 @@
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>LevelPackUIDesc_HealChanceBoost</v>
+            <v>LevelPackUIDesc_ReduceDmgProjectile</v>
           </cell>
           <cell r="B156" t="str">
-            <v>회복구슬 획득 확률이 증가합니다</v>
+            <v>발사체의 대미지가 감소합니다</v>
           </cell>
           <cell r="C156" t="str">
             <v>In progress of translating…(156)</v>
@@ -15167,10 +15194,10 @@
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>LevelPackUIDesc_MonsterThrough</v>
+            <v>LevelPackUIDesc_ReduceDmgClose</v>
           </cell>
           <cell r="B157" t="str">
-            <v>평타 공격이 몬스터를 관통합니다</v>
+            <v>몬스터와 충돌 시 대미지가 감소합니다</v>
           </cell>
           <cell r="C157" t="str">
             <v>In progress of translating…(157)</v>
@@ -15178,10 +15205,10 @@
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>LevelPackUIDesc_Ricochet</v>
+            <v>LevelPackUIDesc_ExtraGold</v>
           </cell>
           <cell r="B158" t="str">
-            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
+            <v>골드 획득량이 증가합니다</v>
           </cell>
           <cell r="C158" t="str">
             <v>In progress of translating…(158)</v>
@@ -15189,10 +15216,10 @@
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>LevelPackUIDesc_BounceWallQuad</v>
+            <v>LevelPackUIDesc_ItemChanceBoost</v>
           </cell>
           <cell r="B159" t="str">
-            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
+            <v>아이템 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C159" t="str">
             <v>In progress of translating…(159)</v>
@@ -15200,10 +15227,10 @@
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>LevelPackUIDesc_Parallel</v>
+            <v>LevelPackUIDesc_HealChanceBoost</v>
           </cell>
           <cell r="B160" t="str">
-            <v>평타 공격이 전방으로 더 발사됩니다</v>
+            <v>회복구슬 획득 확률이 증가합니다</v>
           </cell>
           <cell r="C160" t="str">
             <v>In progress of translating…(160)</v>
@@ -15211,10 +15238,10 @@
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
+            <v>LevelPackUIDesc_MonsterThrough</v>
           </cell>
           <cell r="B161" t="str">
-            <v>평타 공격이 대각으로 더 발사됩니다</v>
+            <v>평타 공격이 몬스터를 관통합니다</v>
           </cell>
           <cell r="C161" t="str">
             <v>In progress of translating…(161)</v>
@@ -15222,10 +15249,10 @@
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
+            <v>LevelPackUIDesc_Ricochet</v>
           </cell>
           <cell r="B162" t="str">
-            <v>평타 공격이 좌우로 더 발사됩니다</v>
+            <v>평타 공격이 몬스터 명중 후 다른 몬스터로 향해갑니다</v>
           </cell>
           <cell r="C162" t="str">
             <v>In progress of translating…(162)</v>
@@ -15233,10 +15260,10 @@
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>LevelPackUIDesc_BackNwayGenerator</v>
+            <v>LevelPackUIDesc_BounceWallQuad</v>
           </cell>
           <cell r="B163" t="str">
-            <v>평타 공격이 후방으로 더 발사됩니다</v>
+            <v>평타 공격이 벽에 튕겨 날아갑니다</v>
           </cell>
           <cell r="C163" t="str">
             <v>In progress of translating…(163)</v>
@@ -15244,10 +15271,10 @@
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>LevelPackUIDesc_Repeat</v>
+            <v>LevelPackUIDesc_Parallel</v>
           </cell>
           <cell r="B164" t="str">
-            <v>평타 공격이 한 번 더 반복됩니다</v>
+            <v>평타 공격이 전방으로 더 발사됩니다</v>
           </cell>
           <cell r="C164" t="str">
             <v>In progress of translating…(164)</v>
@@ -15255,10 +15282,10 @@
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>LevelPackUIDesc_HealOnKill</v>
+            <v>LevelPackUIDesc_DiagonalNwayGenerator</v>
           </cell>
           <cell r="B165" t="str">
-            <v>몬스터를 죽일 때 회복합니다</v>
+            <v>평타 공격이 대각으로 더 발사됩니다</v>
           </cell>
           <cell r="C165" t="str">
             <v>In progress of translating…(165)</v>
@@ -15266,10 +15293,10 @@
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>LevelPackUIDesc_HealOnKillBetter</v>
+            <v>LevelPackUIDesc_LeftRightNwayGenerator</v>
           </cell>
           <cell r="B166" t="str">
-            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
+            <v>평타 공격이 좌우로 더 발사됩니다</v>
           </cell>
           <cell r="C166" t="str">
             <v>In progress of translating…(166)</v>
@@ -15277,10 +15304,10 @@
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
+            <v>LevelPackUIDesc_BackNwayGenerator</v>
           </cell>
           <cell r="B167" t="str">
-            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
+            <v>평타 공격이 후방으로 더 발사됩니다</v>
           </cell>
           <cell r="C167" t="str">
             <v>In progress of translating…(167)</v>
@@ -15288,10 +15315,10 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
+            <v>LevelPackUIDesc_Repeat</v>
           </cell>
           <cell r="B168" t="str">
-            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
+            <v>평타 공격이 한 번 더 반복됩니다</v>
           </cell>
           <cell r="C168" t="str">
             <v>In progress of translating…(168)</v>
@@ -15299,10 +15326,10 @@
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>LevelPackUIDesc_VampireOnAttack</v>
+            <v>LevelPackUIDesc_HealOnKill</v>
           </cell>
           <cell r="B169" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
+            <v>몬스터를 죽일 때 회복합니다</v>
           </cell>
           <cell r="C169" t="str">
             <v>In progress of translating…(169)</v>
@@ -15310,10 +15337,10 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
+            <v>LevelPackUIDesc_HealOnKillBetter</v>
           </cell>
           <cell r="B170" t="str">
-            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
+            <v>몬스터를 죽일 때 더 많이 회복합니다</v>
           </cell>
           <cell r="C170" t="str">
             <v>In progress of translating…(170)</v>
@@ -15321,10 +15348,10 @@
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttacked</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounter</v>
           </cell>
           <cell r="B171" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
+            <v>몬스터 조우 시 공격 속도가 증가합니다</v>
           </cell>
           <cell r="C171" t="str">
             <v>In progress of translating…(171)</v>
@@ -15332,10 +15359,10 @@
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
+            <v>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</v>
           </cell>
           <cell r="B172" t="str">
-            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
+            <v>몬스터 조우 시 공격 속도가 더 많이 증가합니다</v>
           </cell>
           <cell r="C172" t="str">
             <v>In progress of translating…(172)</v>
@@ -15343,10 +15370,10 @@
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttacked</v>
+            <v>LevelPackUIDesc_VampireOnAttack</v>
           </cell>
           <cell r="B173" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 흡수합니다</v>
           </cell>
           <cell r="C173" t="str">
             <v>In progress of translating…(173)</v>
@@ -15354,10 +15381,10 @@
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
+            <v>LevelPackUIDesc_VampireOnAttackBetter</v>
           </cell>
           <cell r="B174" t="str">
-            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
+            <v>몬스터 공격 시 대미지의 일부를 더 많이 흡수합니다</v>
           </cell>
           <cell r="C174" t="str">
             <v>In progress of translating…(174)</v>
@@ -15365,10 +15392,10 @@
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
+            <v>LevelPackUIDesc_RecoverOnAttacked</v>
           </cell>
           <cell r="B175" t="str">
-            <v>HP가 낮을수록 공격력이 증가합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</v>
           </cell>
           <cell r="C175" t="str">
             <v>In progress of translating…(175)</v>
@@ -15376,10 +15403,10 @@
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_RecoverOnAttackedBetter</v>
           </cell>
           <cell r="B176" t="str">
-            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
+            <v>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</v>
           </cell>
           <cell r="C176" t="str">
             <v>In progress of translating…(176)</v>
@@ -15387,10 +15414,10 @@
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
+            <v>LevelPackUIDesc_ReflectOnAttacked</v>
           </cell>
           <cell r="B177" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 반사합니다</v>
           </cell>
           <cell r="C177" t="str">
             <v>In progress of translating…(177)</v>
@@ -15398,10 +15425,10 @@
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
+            <v>LevelPackUIDesc_ReflectOnAttackedBetter</v>
           </cell>
           <cell r="B178" t="str">
-            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
+            <v>몬스터에게 피격 시 대미지의 일부를 더 많이 반사합니다</v>
           </cell>
           <cell r="C178" t="str">
             <v>In progress of translating…(178)</v>
@@ -15409,10 +15436,10 @@
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>LevelPackUIDesc_InstantKill</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHp</v>
           </cell>
           <cell r="B179" t="str">
-            <v>몬스터를 확률로 한 방에 죽입니다</v>
+            <v>HP가 낮을수록 공격력이 증가합니다</v>
           </cell>
           <cell r="C179" t="str">
             <v>In progress of translating…(179)</v>
@@ -15420,10 +15447,10 @@
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>LevelPackUIDesc_InstantKillBetter</v>
+            <v>LevelPackUIDesc_AtkUpOnLowerHpBetter</v>
           </cell>
           <cell r="B180" t="str">
-            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
+            <v>HP가 낮을수록 공격력이 더 많이 증가합니다</v>
           </cell>
           <cell r="C180" t="str">
             <v>In progress of translating…(180)</v>
@@ -15431,10 +15458,10 @@
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>LevelPackUIDesc_ImmortalWill</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHp</v>
           </cell>
           <cell r="B181" t="str">
-            <v>HP가 0 이 될 때 확률로 살아납니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 증가합니다</v>
           </cell>
           <cell r="C181" t="str">
             <v>In progress of translating…(181)</v>
@@ -15442,10 +15469,10 @@
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>LevelPackUIDesc_ImmortalWillBetter</v>
+            <v>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</v>
           </cell>
           <cell r="B182" t="str">
-            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
+            <v>상대의 HP가 낮을수록 치명타 대미지가 더 많이 증가합니다</v>
           </cell>
           <cell r="C182" t="str">
             <v>In progress of translating…(182)</v>
@@ -15453,10 +15480,10 @@
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
+            <v>LevelPackUIDesc_InstantKill</v>
           </cell>
           <cell r="B183" t="str">
-            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
+            <v>몬스터를 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C183" t="str">
             <v>In progress of translating…(183)</v>
@@ -15464,10 +15491,10 @@
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
+            <v>LevelPackUIDesc_InstantKillBetter</v>
           </cell>
           <cell r="B184" t="str">
-            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
+            <v>몬스터를 더 높은 확률로 한 방에 죽입니다</v>
           </cell>
           <cell r="C184" t="str">
             <v>In progress of translating…(184)</v>
@@ -15475,10 +15502,10 @@
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>LevelPackUIDesc_MineOnMove</v>
+            <v>LevelPackUIDesc_ImmortalWill</v>
           </cell>
           <cell r="B185" t="str">
-            <v>이동 시 공격구체를 설치합니다</v>
+            <v>HP가 0 이 될 때 확률로 살아납니다</v>
           </cell>
           <cell r="C185" t="str">
             <v>In progress of translating…(185)</v>
@@ -15486,10 +15513,10 @@
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>LevelPackUIDesc_SlowHitObject</v>
+            <v>LevelPackUIDesc_ImmortalWillBetter</v>
           </cell>
           <cell r="B186" t="str">
-            <v>몬스터의 발사체 속도가 줄어듭니다</v>
+            <v>HP가 0 이 될 때 더 높은 확률로 살아납니다</v>
           </cell>
           <cell r="C186" t="str">
             <v>In progress of translating…(186)</v>
@@ -15497,10 +15524,10 @@
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>LevelPackUIDesc_Paralyze</v>
+            <v>LevelPackUIDesc_HealAreaOnEncounter</v>
           </cell>
           <cell r="B187" t="str">
-            <v>공격에 마비 효과를 부여합니다</v>
+            <v>몬스터 조우 시 회복지대가 생성됩니다</v>
           </cell>
           <cell r="C187" t="str">
             <v>In progress of translating…(187)</v>
@@ -15508,10 +15535,10 @@
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>LevelPackUIDesc_Hold</v>
+            <v>LevelPackUIDesc_MoveSpeedUpOnAttacked</v>
           </cell>
           <cell r="B188" t="str">
-            <v>공격에 이동 불가 효과를 부여합니다</v>
+            <v>HP를 잃을 때 이동 속도가 증가합니다</v>
           </cell>
           <cell r="C188" t="str">
             <v>In progress of translating…(188)</v>
@@ -15519,10 +15546,10 @@
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>LevelPackUIDesc_Transport</v>
+            <v>LevelPackUIDesc_MineOnMove</v>
           </cell>
           <cell r="B189" t="str">
-            <v>공격에 몬스터 전이 효과를 부여합니다</v>
+            <v>이동 시 공격구체를 설치합니다</v>
           </cell>
           <cell r="C189" t="str">
             <v>In progress of translating…(189)</v>
@@ -15530,10 +15557,10 @@
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>LevelPackUIDesc_SummonShield</v>
+            <v>LevelPackUIDesc_SlowHitObject</v>
           </cell>
           <cell r="B190" t="str">
-            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
+            <v>몬스터의 발사체 속도가 줄어듭니다</v>
           </cell>
           <cell r="C190" t="str">
             <v>In progress of translating…(190)</v>
@@ -15541,10 +15568,10 @@
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>Chapter1Name</v>
+            <v>LevelPackUIDesc_Paralyze</v>
           </cell>
           <cell r="B191" t="str">
-            <v>드넓은 평야</v>
+            <v>공격에 마비 효과를 부여합니다</v>
           </cell>
           <cell r="C191" t="str">
             <v>In progress of translating…(191)</v>
@@ -15552,10 +15579,10 @@
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>Chapter2Name</v>
+            <v>LevelPackUIDesc_Hold</v>
           </cell>
           <cell r="B192" t="str">
-            <v>드넓은 평야2</v>
+            <v>공격에 이동 불가 효과를 부여합니다</v>
           </cell>
           <cell r="C192" t="str">
             <v>In progress of translating…(192)</v>
@@ -15563,10 +15590,10 @@
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>Chapter3Name</v>
+            <v>LevelPackUIDesc_Transport</v>
           </cell>
           <cell r="B193" t="str">
-            <v>드넓은 평야3</v>
+            <v>공격에 몬스터 전이 효과를 부여합니다</v>
           </cell>
           <cell r="C193" t="str">
             <v>In progress of translating…(193)</v>
@@ -15574,10 +15601,10 @@
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>Chapter4Name</v>
+            <v>LevelPackUIDesc_SummonShield</v>
           </cell>
           <cell r="B194" t="str">
-            <v>드넓은 평야4</v>
+            <v>주기적으로 발사체를 막는 쉴드를 소환합니다</v>
           </cell>
           <cell r="C194" t="str">
             <v>In progress of translating…(194)</v>
@@ -15585,10 +15612,10 @@
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>Chapter5Name</v>
+            <v>Chapter1Name</v>
           </cell>
           <cell r="B195" t="str">
-            <v>드넓은 평야5</v>
+            <v>드넓은 평야</v>
           </cell>
           <cell r="C195" t="str">
             <v>In progress of translating…(195)</v>
@@ -15596,10 +15623,10 @@
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>Chapter6Name</v>
+            <v>Chapter2Name</v>
           </cell>
           <cell r="B196" t="str">
-            <v>드넓은 평야6</v>
+            <v>드넓은 평야2</v>
           </cell>
           <cell r="C196" t="str">
             <v>In progress of translating…(196)</v>
@@ -15607,10 +15634,10 @@
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>Chapter7Name</v>
+            <v>Chapter3Name</v>
           </cell>
           <cell r="B197" t="str">
-            <v>드넓은 평야7</v>
+            <v>드넓은 평야3</v>
           </cell>
           <cell r="C197" t="str">
             <v>In progress of translating…(197)</v>
@@ -15618,10 +15645,10 @@
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>Chapter8Name</v>
+            <v>Chapter4Name</v>
           </cell>
           <cell r="B198" t="str">
-            <v>드넓은 평야8</v>
+            <v>드넓은 평야4</v>
           </cell>
           <cell r="C198" t="str">
             <v>In progress of translating…(198)</v>
@@ -15629,10 +15656,10 @@
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>Chapter9Name</v>
+            <v>Chapter5Name</v>
           </cell>
           <cell r="B199" t="str">
-            <v>드넓은 평야9</v>
+            <v>드넓은 평야5</v>
           </cell>
           <cell r="C199" t="str">
             <v>In progress of translating…(199)</v>
@@ -15640,10 +15667,10 @@
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>Chapter10Name</v>
+            <v>Chapter6Name</v>
           </cell>
           <cell r="B200" t="str">
-            <v>드넓은 평야10</v>
+            <v>드넓은 평야6</v>
           </cell>
           <cell r="C200" t="str">
             <v>In progress of translating…(200)</v>
@@ -15651,10 +15678,10 @@
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>Chapter11Name</v>
+            <v>Chapter7Name</v>
           </cell>
           <cell r="B201" t="str">
-            <v>드넓은 평야11</v>
+            <v>드넓은 평야7</v>
           </cell>
           <cell r="C201" t="str">
             <v>In progress of translating…(201)</v>
@@ -15662,10 +15689,10 @@
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>Chapter12Name</v>
+            <v>Chapter8Name</v>
           </cell>
           <cell r="B202" t="str">
-            <v>드넓은 평야12</v>
+            <v>드넓은 평야8</v>
           </cell>
           <cell r="C202" t="str">
             <v>In progress of translating…(202)</v>
@@ -15673,10 +15700,10 @@
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>Chapter13Name</v>
+            <v>Chapter9Name</v>
           </cell>
           <cell r="B203" t="str">
-            <v>드넓은 평야13</v>
+            <v>드넓은 평야9</v>
           </cell>
           <cell r="C203" t="str">
             <v>In progress of translating…(203)</v>
@@ -15684,10 +15711,10 @@
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>Chapter14Name</v>
+            <v>Chapter10Name</v>
           </cell>
           <cell r="B204" t="str">
-            <v>드넓은 평야14</v>
+            <v>드넓은 평야10</v>
           </cell>
           <cell r="C204" t="str">
             <v>In progress of translating…(204)</v>
@@ -15695,10 +15722,10 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>Chapter15Name</v>
+            <v>Chapter11Name</v>
           </cell>
           <cell r="B205" t="str">
-            <v>드넓은 평야15</v>
+            <v>드넓은 평야11</v>
           </cell>
           <cell r="C205" t="str">
             <v>In progress of translating…(205)</v>
@@ -15706,10 +15733,10 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Chapter16Name</v>
+            <v>Chapter12Name</v>
           </cell>
           <cell r="B206" t="str">
-            <v>드넓은 평야16</v>
+            <v>드넓은 평야12</v>
           </cell>
           <cell r="C206" t="str">
             <v>In progress of translating…(206)</v>
@@ -15717,10 +15744,10 @@
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>Chapter17Name</v>
+            <v>Chapter13Name</v>
           </cell>
           <cell r="B207" t="str">
-            <v>드넓은 평야17</v>
+            <v>드넓은 평야13</v>
           </cell>
           <cell r="C207" t="str">
             <v>In progress of translating…(207)</v>
@@ -15728,10 +15755,10 @@
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>Chapter18Name</v>
+            <v>Chapter14Name</v>
           </cell>
           <cell r="B208" t="str">
-            <v>드넓은 평야18</v>
+            <v>드넓은 평야14</v>
           </cell>
           <cell r="C208" t="str">
             <v>In progress of translating…(208)</v>
@@ -15739,10 +15766,10 @@
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>Chapter19Name</v>
+            <v>Chapter15Name</v>
           </cell>
           <cell r="B209" t="str">
-            <v>드넓은 평야19</v>
+            <v>드넓은 평야15</v>
           </cell>
           <cell r="C209" t="str">
             <v>In progress of translating…(209)</v>
@@ -15750,10 +15777,10 @@
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>Chapter20Name</v>
+            <v>Chapter16Name</v>
           </cell>
           <cell r="B210" t="str">
-            <v>드넓은 평야20</v>
+            <v>드넓은 평야16</v>
           </cell>
           <cell r="C210" t="str">
             <v>In progress of translating…(210)</v>
@@ -15761,10 +15788,10 @@
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>Chapter21Name</v>
+            <v>Chapter17Name</v>
           </cell>
           <cell r="B211" t="str">
-            <v>드넓은 평야21</v>
+            <v>드넓은 평야17</v>
           </cell>
           <cell r="C211" t="str">
             <v>In progress of translating…(211)</v>
@@ -15772,10 +15799,10 @@
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>Chapter22Name</v>
+            <v>Chapter18Name</v>
           </cell>
           <cell r="B212" t="str">
-            <v>드넓은 평야22</v>
+            <v>드넓은 평야18</v>
           </cell>
           <cell r="C212" t="str">
             <v>In progress of translating…(212)</v>
@@ -15783,10 +15810,10 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>Chapter23Name</v>
+            <v>Chapter19Name</v>
           </cell>
           <cell r="B213" t="str">
-            <v>드넓은 평야23</v>
+            <v>드넓은 평야19</v>
           </cell>
           <cell r="C213" t="str">
             <v>In progress of translating…(213)</v>
@@ -15794,10 +15821,10 @@
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>Chapter24Name</v>
+            <v>Chapter20Name</v>
           </cell>
           <cell r="B214" t="str">
-            <v>드넓은 평야24</v>
+            <v>드넓은 평야20</v>
           </cell>
           <cell r="C214" t="str">
             <v>In progress of translating…(214)</v>
@@ -15805,10 +15832,10 @@
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>Chapter25Name</v>
+            <v>Chapter21Name</v>
           </cell>
           <cell r="B215" t="str">
-            <v>드넓은 평야25</v>
+            <v>드넓은 평야21</v>
           </cell>
           <cell r="C215" t="str">
             <v>In progress of translating…(215)</v>
@@ -15816,10 +15843,10 @@
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>Chapter26Name</v>
+            <v>Chapter22Name</v>
           </cell>
           <cell r="B216" t="str">
-            <v>드넓은 평야26</v>
+            <v>드넓은 평야22</v>
           </cell>
           <cell r="C216" t="str">
             <v>In progress of translating…(216)</v>
@@ -15827,10 +15854,10 @@
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>Chapter27Name</v>
+            <v>Chapter23Name</v>
           </cell>
           <cell r="B217" t="str">
-            <v>드넓은 평야27</v>
+            <v>드넓은 평야23</v>
           </cell>
           <cell r="C217" t="str">
             <v>In progress of translating…(217)</v>
@@ -15838,10 +15865,10 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>Chapter28Name</v>
+            <v>Chapter24Name</v>
           </cell>
           <cell r="B218" t="str">
-            <v>드넓은 평야28</v>
+            <v>드넓은 평야24</v>
           </cell>
           <cell r="C218" t="str">
             <v>In progress of translating…(218)</v>
@@ -15849,10 +15876,10 @@
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>Chapter29Name</v>
+            <v>Chapter25Name</v>
           </cell>
           <cell r="B219" t="str">
-            <v>드넓은 평야29</v>
+            <v>드넓은 평야25</v>
           </cell>
           <cell r="C219" t="str">
             <v>In progress of translating…(219)</v>
@@ -15860,10 +15887,10 @@
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>Chapter1Desc</v>
+            <v>Chapter26Name</v>
           </cell>
           <cell r="B220" t="str">
-            <v>하얀 눈보라는 휘날리는 설원입니다. 래빗 무리가 몰려오고 있으니 조심하세요!</v>
+            <v>드넓은 평야26</v>
    